--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836DD9DC-E9B6-4F03-819B-8B11AFEB2974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546C6B88-C447-478C-A1DD-16EEBD87B406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6CE1187-3E6B-4E2E-88EF-450A66CF73AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{423CFA4C-3028-4C60-9A49-E3A261043D03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats_20200731" sheetId="1" r:id="rId1"/>
+    <sheet name="Stats_20200808" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -555,24 +555,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,21 +885,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183536B2-CA8B-4978-9E91-788D47FA8022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6856D27C-8BDC-4E66-86C4-F37FA569292F}">
   <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
@@ -909,37 +908,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="K1" s="16" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="9"/>
       <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
@@ -952,43 +951,43 @@
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1099,34 +1098,34 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>113</v>
       </c>
       <c r="H7" s="1">
-        <v>0.30088495575221241</v>
+        <v>0.34513274336283184</v>
       </c>
       <c r="I7" s="1">
-        <v>0.69911504424778759</v>
+        <v>0.65486725663716816</v>
       </c>
       <c r="K7">
-        <v>2983</v>
+        <v>3522</v>
       </c>
       <c r="L7">
-        <v>5230</v>
+        <v>4691</v>
       </c>
       <c r="M7">
         <v>8213</v>
       </c>
       <c r="O7" s="1">
-        <v>0.36320467551442837</v>
+        <v>0.42883233897479606</v>
       </c>
       <c r="P7" s="1">
-        <v>0.63679532448557163</v>
+        <v>0.571167661025204</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1165,42 +1164,43 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6">
-        <v>65</v>
-      </c>
-      <c r="E9" s="6">
-        <v>181</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12">
+        <v>70</v>
+      </c>
+      <c r="E9" s="12">
+        <v>176</v>
+      </c>
+      <c r="F9" s="12">
         <v>246</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7">
-        <v>0.26422764227642276</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.73577235772357719</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5745</v>
-      </c>
-      <c r="L9" s="6">
-        <v>11884</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>0.28455284552845528</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.71544715447154472</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <v>6284</v>
+      </c>
+      <c r="L9" s="12">
+        <v>11345</v>
+      </c>
+      <c r="M9" s="12">
         <v>17629</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7">
-        <v>0.32588348743547563</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0.67411651256452432</v>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13">
+        <v>0.35645810879800327</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.64354189120199667</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1211,34 +1211,34 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E10">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F10">
         <v>414</v>
       </c>
       <c r="H10" s="1">
-        <v>0.21014492753623187</v>
+        <v>0.22705314009661837</v>
       </c>
       <c r="I10" s="1">
-        <v>0.78985507246376807</v>
+        <v>0.77294685990338163</v>
       </c>
       <c r="K10">
-        <v>8414</v>
+        <v>9105</v>
       </c>
       <c r="L10">
-        <v>23818</v>
+        <v>23127</v>
       </c>
       <c r="M10">
         <v>32232</v>
       </c>
       <c r="O10" s="1">
-        <v>0.26104492429883347</v>
+        <v>0.28248324646314221</v>
       </c>
       <c r="P10" s="1">
-        <v>0.73895507570116659</v>
+        <v>0.71751675353685773</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1246,34 +1246,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E11">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
       <c r="H11" s="1">
-        <v>0.17647058823529413</v>
+        <v>0.18542199488491048</v>
       </c>
       <c r="I11" s="1">
-        <v>0.82352941176470584</v>
+        <v>0.81457800511508949</v>
       </c>
       <c r="K11">
-        <v>13755</v>
+        <v>14370</v>
       </c>
       <c r="L11">
-        <v>46877</v>
+        <v>46262</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
       <c r="O11" s="1">
-        <v>0.22686040374719621</v>
+        <v>0.23700356247526058</v>
       </c>
       <c r="P11" s="1">
-        <v>0.77313959625280382</v>
+        <v>0.76299643752473945</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1281,34 +1281,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F12">
         <v>571</v>
       </c>
       <c r="H12" s="1">
-        <v>0.1786339754816112</v>
+        <v>0.22241681260945709</v>
       </c>
       <c r="I12" s="1">
-        <v>0.8213660245183888</v>
+        <v>0.77758318739054288</v>
       </c>
       <c r="K12">
-        <v>10292</v>
+        <v>12991</v>
       </c>
       <c r="L12">
-        <v>33470</v>
+        <v>30771</v>
       </c>
       <c r="M12">
         <v>43762</v>
       </c>
       <c r="O12" s="1">
-        <v>0.23518120744024495</v>
+        <v>0.29685571957405971</v>
       </c>
       <c r="P12" s="1">
-        <v>0.76481879255975505</v>
+        <v>0.70314428042594035</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1316,34 +1316,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E13">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="F13">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H13" s="1">
-        <v>0.25840707964601772</v>
+        <v>0.303886925795053</v>
       </c>
       <c r="I13" s="1">
-        <v>0.74159292035398228</v>
+        <v>0.69611307420494695</v>
       </c>
       <c r="K13">
-        <v>15738</v>
+        <v>17978</v>
       </c>
       <c r="L13">
-        <v>31873</v>
+        <v>29645</v>
       </c>
       <c r="M13">
-        <v>47611</v>
+        <v>47623</v>
       </c>
       <c r="O13" s="1">
-        <v>0.33055386360294892</v>
+        <v>0.37750666694664342</v>
       </c>
       <c r="P13" s="1">
-        <v>0.66944613639705108</v>
+        <v>0.62249333305335652</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1351,34 +1351,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="E14">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="F14">
         <v>1109</v>
       </c>
       <c r="H14" s="1">
-        <v>0.35437330928764654</v>
+        <v>0.36789900811541931</v>
       </c>
       <c r="I14" s="1">
-        <v>0.64562669071235346</v>
+        <v>0.63210099188458069</v>
       </c>
       <c r="K14">
-        <v>39267</v>
+        <v>40302</v>
       </c>
       <c r="L14">
-        <v>53204</v>
+        <v>52169</v>
       </c>
       <c r="M14">
         <v>92471</v>
       </c>
       <c r="O14" s="1">
-        <v>0.42464123887489053</v>
+        <v>0.43583393712623419</v>
       </c>
       <c r="P14" s="1">
-        <v>0.57535876112510953</v>
+        <v>0.56416606287376581</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1386,34 +1386,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="E15">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
       <c r="H15" s="1">
-        <v>0.39157245632065774</v>
+        <v>0.40287769784172661</v>
       </c>
       <c r="I15" s="1">
-        <v>0.60842754367934226</v>
+        <v>0.59712230215827333</v>
       </c>
       <c r="K15">
-        <v>36398</v>
+        <v>37391</v>
       </c>
       <c r="L15">
-        <v>37978</v>
+        <v>36985</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
       <c r="O15" s="1">
-        <v>0.48937829407335698</v>
+        <v>0.50272937506722604</v>
       </c>
       <c r="P15" s="1">
-        <v>0.51062170592664302</v>
+        <v>0.49727062493277402</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1421,34 +1421,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E16">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
       <c r="H16" s="1">
-        <v>0.38468634686346864</v>
+        <v>0.39206642066420666</v>
       </c>
       <c r="I16" s="1">
-        <v>0.61531365313653141</v>
+        <v>0.60793357933579339</v>
       </c>
       <c r="K16">
-        <v>38362</v>
+        <v>38613</v>
       </c>
       <c r="L16">
-        <v>44118</v>
+        <v>43867</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
       <c r="O16" s="1">
-        <v>0.46510669253152281</v>
+        <v>0.46814985451018426</v>
       </c>
       <c r="P16" s="1">
-        <v>0.53489330746847719</v>
+        <v>0.53185014548981568</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1456,34 +1456,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E17">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
       <c r="H17" s="1">
-        <v>0.22857142857142856</v>
+        <v>0.23510204081632652</v>
       </c>
       <c r="I17" s="1">
-        <v>0.77142857142857146</v>
+        <v>0.76489795918367343</v>
       </c>
       <c r="K17">
-        <v>28722</v>
+        <v>29407</v>
       </c>
       <c r="L17">
-        <v>74041</v>
+        <v>73356</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
       <c r="O17" s="1">
-        <v>0.27949748450317724</v>
+        <v>0.2861633078053385</v>
       </c>
       <c r="P17" s="1">
-        <v>0.72050251549682276</v>
+        <v>0.7138366921946615</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1491,34 +1491,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="E18">
-        <v>1693</v>
+        <v>1681</v>
       </c>
       <c r="F18">
         <v>2552</v>
       </c>
       <c r="H18" s="1">
-        <v>0.3365987460815047</v>
+        <v>0.34130094043887149</v>
       </c>
       <c r="I18" s="1">
-        <v>0.66340125391849525</v>
+        <v>0.65869905956112851</v>
       </c>
       <c r="K18">
-        <v>83494</v>
+        <v>84375</v>
       </c>
       <c r="L18">
-        <v>110775</v>
+        <v>109894</v>
       </c>
       <c r="M18">
         <v>194269</v>
       </c>
       <c r="O18" s="1">
-        <v>0.4297855036058249</v>
+        <v>0.43432045256834595</v>
       </c>
       <c r="P18" s="1">
-        <v>0.5702144963941751</v>
+        <v>0.56567954743165405</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1561,34 +1561,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E20">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
       <c r="H20" s="1">
-        <v>0.26484018264840181</v>
+        <v>0.33028919330289191</v>
       </c>
       <c r="I20" s="1">
-        <v>0.73515981735159819</v>
+        <v>0.66971080669710803</v>
       </c>
       <c r="K20">
-        <v>17831</v>
+        <v>22244</v>
       </c>
       <c r="L20">
-        <v>36732</v>
+        <v>32319</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
       <c r="O20" s="1">
-        <v>0.3267965471106794</v>
+        <v>0.40767553103751625</v>
       </c>
       <c r="P20" s="1">
-        <v>0.6732034528893206</v>
+        <v>0.5923244689624837</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1596,34 +1596,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E21">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F21">
         <v>1294</v>
       </c>
       <c r="H21" s="1">
-        <v>0.29520865533230295</v>
+        <v>0.294435857805255</v>
       </c>
       <c r="I21" s="1">
-        <v>0.70479134466769711</v>
+        <v>0.70556414219474495</v>
       </c>
       <c r="K21">
-        <v>37422</v>
+        <v>37395</v>
       </c>
       <c r="L21">
-        <v>64540</v>
+        <v>64567</v>
       </c>
       <c r="M21">
         <v>101962</v>
       </c>
       <c r="O21" s="1">
-        <v>0.3670190855416724</v>
+        <v>0.36675428100664953</v>
       </c>
       <c r="P21" s="1">
-        <v>0.6329809144583276</v>
+        <v>0.63324571899335047</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1631,34 +1631,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E22">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
       <c r="H22" s="1">
-        <v>0.26463104325699743</v>
+        <v>0.26972010178117051</v>
       </c>
       <c r="I22" s="1">
-        <v>0.73536895674300251</v>
+        <v>0.73027989821882955</v>
       </c>
       <c r="K22">
-        <v>31162</v>
+        <v>31798</v>
       </c>
       <c r="L22">
-        <v>64450</v>
+        <v>63814</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
       <c r="O22" s="1">
-        <v>0.32592143245617705</v>
+        <v>0.33257331715684224</v>
       </c>
       <c r="P22" s="1">
-        <v>0.674078567543823</v>
+        <v>0.66742668284315776</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1666,34 +1666,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="E23">
-        <v>1497</v>
+        <v>1464</v>
       </c>
       <c r="F23">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H23" s="1">
-        <v>0.13015688553166763</v>
+        <v>0.14982578397212543</v>
       </c>
       <c r="I23" s="1">
-        <v>0.8698431144683324</v>
+        <v>0.85017421602787457</v>
       </c>
       <c r="K23">
-        <v>22239</v>
+        <v>25242</v>
       </c>
       <c r="L23">
-        <v>108845</v>
+        <v>105865</v>
       </c>
       <c r="M23">
-        <v>131084</v>
+        <v>131107</v>
       </c>
       <c r="O23" s="1">
-        <v>0.16965457264044428</v>
+        <v>0.19252976576384176</v>
       </c>
       <c r="P23" s="1">
-        <v>0.83034542735955574</v>
+        <v>0.80747023423615827</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1701,34 +1701,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E24">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
       <c r="H24" s="1">
-        <v>0.31186440677966104</v>
+        <v>0.33728813559322035</v>
       </c>
       <c r="I24" s="1">
-        <v>0.68813559322033901</v>
+        <v>0.66271186440677965</v>
       </c>
       <c r="K24">
-        <v>17745</v>
+        <v>19100</v>
       </c>
       <c r="L24">
-        <v>26568</v>
+        <v>25213</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
       <c r="O24" s="1">
-        <v>0.40044682147451088</v>
+        <v>0.43102475571502719</v>
       </c>
       <c r="P24" s="1">
-        <v>0.59955317852548917</v>
+        <v>0.56897524428497281</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1736,34 +1736,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E25">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
       <c r="H25" s="1">
-        <v>0.20219123505976094</v>
+        <v>0.21613545816733068</v>
       </c>
       <c r="I25" s="1">
-        <v>0.797808764940239</v>
+        <v>0.78386454183266929</v>
       </c>
       <c r="K25">
-        <v>21265</v>
+        <v>22690</v>
       </c>
       <c r="L25">
-        <v>58531</v>
+        <v>57106</v>
       </c>
       <c r="M25">
         <v>79796</v>
       </c>
       <c r="O25" s="1">
-        <v>0.26649205473958593</v>
+        <v>0.28435009273647804</v>
       </c>
       <c r="P25" s="1">
-        <v>0.73350794526041407</v>
+        <v>0.71564990726352196</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1774,31 +1774,31 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="1">
-        <v>0.2608695652173913</v>
+        <v>0.26277372262773724</v>
       </c>
       <c r="I26" s="1">
-        <v>0.73913043478260865</v>
+        <v>0.73722627737226276</v>
       </c>
       <c r="K26">
         <v>3550</v>
       </c>
       <c r="L26">
-        <v>6842</v>
+        <v>6830</v>
       </c>
       <c r="M26">
-        <v>10392</v>
+        <v>10380</v>
       </c>
       <c r="O26" s="1">
-        <v>0.34160892994611242</v>
+        <v>0.34200385356454721</v>
       </c>
       <c r="P26" s="1">
-        <v>0.65839107005388764</v>
+        <v>0.65799614643545279</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -1841,34 +1841,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="E28">
-        <v>1796</v>
+        <v>1774</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
       <c r="H28" s="1">
-        <v>0.19208277103013946</v>
+        <v>0.20197930724246513</v>
       </c>
       <c r="I28" s="1">
-        <v>0.80791722896986051</v>
+        <v>0.79802069275753484</v>
       </c>
       <c r="K28">
-        <v>43421</v>
+        <v>45414</v>
       </c>
       <c r="L28">
-        <v>127913</v>
+        <v>125920</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="1">
-        <v>0.25342897498453315</v>
+        <v>0.26506122544270255</v>
       </c>
       <c r="P28" s="1">
-        <v>0.7465710250154669</v>
+        <v>0.73493877455729739</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1876,34 +1876,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1135</v>
+        <v>1193</v>
       </c>
       <c r="E29">
-        <v>1971</v>
+        <v>1913</v>
       </c>
       <c r="F29">
         <v>3106</v>
       </c>
       <c r="H29" s="1">
-        <v>0.36542176432710882</v>
+        <v>0.38409529942047649</v>
       </c>
       <c r="I29" s="1">
-        <v>0.63457823567289118</v>
+        <v>0.61590470057952351</v>
       </c>
       <c r="K29">
-        <v>112474</v>
+        <v>117371</v>
       </c>
       <c r="L29">
-        <v>155788</v>
+        <v>150891</v>
       </c>
       <c r="M29">
         <v>268262</v>
       </c>
       <c r="O29" s="1">
-        <v>0.41926922188010229</v>
+        <v>0.4375237640813831</v>
       </c>
       <c r="P29" s="1">
-        <v>0.58073077811989771</v>
+        <v>0.56247623591861684</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1911,34 +1911,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E30">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
       <c r="H30" s="1">
-        <v>0.29116465863453816</v>
+        <v>0.3353413654618474</v>
       </c>
       <c r="I30" s="1">
-        <v>0.70883534136546189</v>
+        <v>0.66465863453815266</v>
       </c>
       <c r="K30">
-        <v>15314</v>
+        <v>17467</v>
       </c>
       <c r="L30">
-        <v>25426</v>
+        <v>23273</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
       <c r="O30" s="1">
-        <v>0.37589592538046146</v>
+        <v>0.42874324987727047</v>
       </c>
       <c r="P30" s="1">
-        <v>0.62410407461953854</v>
+        <v>0.57125675012272947</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1946,34 +1946,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E31">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="1">
-        <v>0.29633204633204635</v>
+        <v>0.30308880308880309</v>
       </c>
       <c r="I31" s="1">
-        <v>0.70366795366795365</v>
+        <v>0.69691119691119696</v>
       </c>
       <c r="K31">
-        <v>31649</v>
+        <v>32126</v>
       </c>
       <c r="L31">
-        <v>53379</v>
+        <v>52902</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="1">
-        <v>0.37221856329679637</v>
+        <v>0.37782848003010772</v>
       </c>
       <c r="P31" s="1">
-        <v>0.62778143670320363</v>
+        <v>0.62217151996989228</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2016,34 +2016,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E33">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="F33">
         <v>1068</v>
       </c>
       <c r="H33" s="1">
-        <v>0.19288389513108614</v>
+        <v>0.20786516853932585</v>
       </c>
       <c r="I33" s="1">
-        <v>0.80711610486891383</v>
+        <v>0.7921348314606742</v>
       </c>
       <c r="K33">
-        <v>18777</v>
+        <v>20059</v>
       </c>
       <c r="L33">
-        <v>57153</v>
+        <v>55871</v>
       </c>
       <c r="M33">
         <v>75930</v>
       </c>
       <c r="O33" s="1">
-        <v>0.24729355985776372</v>
+        <v>0.26417753193731069</v>
       </c>
       <c r="P33" s="1">
-        <v>0.75270644014223631</v>
+        <v>0.73582246806268936</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2051,34 +2051,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E34">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="1">
-        <v>0.25854513584574934</v>
+        <v>0.26117440841367223</v>
       </c>
       <c r="I34" s="1">
-        <v>0.74145486415425066</v>
+        <v>0.73882559158632777</v>
       </c>
       <c r="K34">
-        <v>28112</v>
+        <v>28297</v>
       </c>
       <c r="L34">
-        <v>59326</v>
+        <v>59141</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
       <c r="O34" s="1">
-        <v>0.32150781124911365</v>
+        <v>0.3236235961481278</v>
       </c>
       <c r="P34" s="1">
-        <v>0.67849218875088635</v>
+        <v>0.67637640385187214</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2086,34 +2086,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="E35">
-        <v>658</v>
+        <v>610</v>
       </c>
       <c r="F35">
         <v>785</v>
       </c>
       <c r="H35" s="1">
-        <v>0.16178343949044585</v>
+        <v>0.22292993630573249</v>
       </c>
       <c r="I35" s="1">
-        <v>0.83821656050955418</v>
+        <v>0.77707006369426757</v>
       </c>
       <c r="K35">
-        <v>12521</v>
+        <v>16995</v>
       </c>
       <c r="L35">
-        <v>50130</v>
+        <v>45656</v>
       </c>
       <c r="M35">
         <v>62651</v>
       </c>
       <c r="O35" s="1">
-        <v>0.19985315477805621</v>
+        <v>0.27126462466680501</v>
       </c>
       <c r="P35" s="1">
-        <v>0.80014684522194379</v>
+        <v>0.72873537533319499</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2121,34 +2121,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E36">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F36">
         <v>827</v>
       </c>
       <c r="H36" s="1">
-        <v>0.32406287787182586</v>
+        <v>0.33010882708585249</v>
       </c>
       <c r="I36" s="1">
-        <v>0.67593712212817414</v>
+        <v>0.66989117291414757</v>
       </c>
       <c r="K36">
-        <v>27732</v>
+        <v>28135</v>
       </c>
       <c r="L36">
-        <v>37402</v>
+        <v>36999</v>
       </c>
       <c r="M36">
         <v>65134</v>
       </c>
       <c r="O36" s="1">
-        <v>0.42576841588110664</v>
+        <v>0.43195566063806923</v>
       </c>
       <c r="P36" s="1">
-        <v>0.57423158411889341</v>
+        <v>0.56804433936193077</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2156,34 +2156,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E37">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
       <c r="H37" s="1">
-        <v>0.32361516034985421</v>
+        <v>0.33673469387755101</v>
       </c>
       <c r="I37" s="1">
-        <v>0.67638483965014573</v>
+        <v>0.66326530612244894</v>
       </c>
       <c r="K37">
-        <v>21883</v>
+        <v>22741</v>
       </c>
       <c r="L37">
-        <v>36038</v>
+        <v>35180</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
       <c r="O37" s="1">
-        <v>0.37780770359627769</v>
+        <v>0.39262098375373355</v>
       </c>
       <c r="P37" s="1">
-        <v>0.62219229640372231</v>
+        <v>0.60737901624626645</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2191,34 +2191,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E38">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
       <c r="H38" s="1">
-        <v>0.23026315789473684</v>
+        <v>0.23684210526315788</v>
       </c>
       <c r="I38" s="1">
-        <v>0.76973684210526316</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="K38">
-        <v>16972</v>
+        <v>17458</v>
       </c>
       <c r="L38">
-        <v>38312</v>
+        <v>37826</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
       <c r="O38" s="1">
-        <v>0.30699659937775847</v>
+        <v>0.31578756964040228</v>
       </c>
       <c r="P38" s="1">
-        <v>0.69300340062224153</v>
+        <v>0.68421243035959767</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2261,34 +2261,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E40">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F40">
         <v>674</v>
       </c>
       <c r="H40" s="1">
-        <v>0.20326409495548961</v>
+        <v>0.21661721068249259</v>
       </c>
       <c r="I40" s="1">
-        <v>0.79673590504451042</v>
+        <v>0.78338278931750738</v>
       </c>
       <c r="K40">
-        <v>13104</v>
+        <v>13707</v>
       </c>
       <c r="L40">
-        <v>36235</v>
+        <v>35632</v>
       </c>
       <c r="M40">
         <v>49339</v>
       </c>
       <c r="O40" s="1">
-        <v>0.26559111453414136</v>
+        <v>0.27781268367822615</v>
       </c>
       <c r="P40" s="1">
-        <v>0.7344088854658587</v>
+        <v>0.7221873163217738</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2296,34 +2296,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="E41">
-        <v>1634</v>
+        <v>1612</v>
       </c>
       <c r="F41">
         <v>1956</v>
       </c>
       <c r="H41" s="1">
-        <v>0.16462167689161555</v>
+        <v>0.17586912065439672</v>
       </c>
       <c r="I41" s="1">
-        <v>0.83537832310838445</v>
+        <v>0.82413087934560325</v>
       </c>
       <c r="K41">
-        <v>32761</v>
+        <v>34393</v>
       </c>
       <c r="L41">
-        <v>113810</v>
+        <v>112178</v>
       </c>
       <c r="M41">
         <v>146571</v>
       </c>
       <c r="O41" s="1">
-        <v>0.22351624809819132</v>
+        <v>0.23465078357928923</v>
       </c>
       <c r="P41" s="1">
-        <v>0.77648375190180863</v>
+        <v>0.76534921642071074</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2331,34 +2331,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E42">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
       <c r="H42" s="1">
-        <v>0.24666666666666667</v>
+        <v>0.25733333333333336</v>
       </c>
       <c r="I42" s="1">
-        <v>0.7533333333333333</v>
+        <v>0.7426666666666667</v>
       </c>
       <c r="K42">
-        <v>18587</v>
+        <v>19389</v>
       </c>
       <c r="L42">
-        <v>43844</v>
+        <v>43042</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
       <c r="O42" s="1">
-        <v>0.29772068363473275</v>
+        <v>0.31056686581986515</v>
       </c>
       <c r="P42" s="1">
-        <v>0.7022793163652673</v>
+        <v>0.68943313418013485</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2366,34 +2366,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E43">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
       <c r="H43" s="1">
-        <v>0.1911589008363202</v>
+        <v>0.20669056152927121</v>
       </c>
       <c r="I43" s="1">
-        <v>0.80884109916367986</v>
+        <v>0.79330943847072877</v>
       </c>
       <c r="K43">
-        <v>15684</v>
+        <v>16766</v>
       </c>
       <c r="L43">
-        <v>48310</v>
+        <v>47228</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
       <c r="O43" s="1">
-        <v>0.24508547676344658</v>
+        <v>0.26199331187298808</v>
       </c>
       <c r="P43" s="1">
-        <v>0.75491452323655339</v>
+        <v>0.73800668812701187</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2401,34 +2401,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E44">
-        <v>2206</v>
+        <v>2195</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
       <c r="H44" s="1">
-        <v>0.12355979340484705</v>
+        <v>0.1279300754866905</v>
       </c>
       <c r="I44" s="1">
-        <v>0.87644020659515298</v>
+        <v>0.87206992451330945</v>
       </c>
       <c r="K44">
-        <v>31376</v>
+        <v>32323</v>
       </c>
       <c r="L44">
-        <v>154254</v>
+        <v>153307</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
       <c r="O44" s="1">
-        <v>0.16902440338307387</v>
+        <v>0.17412594946937457</v>
       </c>
       <c r="P44" s="1">
-        <v>0.8309755966169261</v>
+        <v>0.82587405053062546</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2436,34 +2436,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E45">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
       <c r="H45" s="1">
-        <v>0.17341591233920914</v>
+        <v>0.17865650309671272</v>
       </c>
       <c r="I45" s="1">
-        <v>0.82658408766079083</v>
+        <v>0.82134349690328723</v>
       </c>
       <c r="K45">
-        <v>36443</v>
+        <v>37455</v>
       </c>
       <c r="L45">
-        <v>124931</v>
+        <v>123919</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
       <c r="O45" s="1">
-        <v>0.22582943968669056</v>
+        <v>0.23210058621587121</v>
       </c>
       <c r="P45" s="1">
-        <v>0.77417056031330944</v>
+        <v>0.76789941378412885</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2471,34 +2471,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="E46">
-        <v>596</v>
+        <v>512</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
       <c r="H46" s="1">
-        <v>0.13119533527696792</v>
+        <v>0.25364431486880468</v>
       </c>
       <c r="I46" s="1">
-        <v>0.86880466472303208</v>
+        <v>0.74635568513119532</v>
       </c>
       <c r="K46">
-        <v>9534</v>
+        <v>17647</v>
       </c>
       <c r="L46">
-        <v>44448</v>
+        <v>36335</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
       <c r="O46" s="1">
-        <v>0.17661442703123265</v>
+        <v>0.3269052647178689</v>
       </c>
       <c r="P46" s="1">
-        <v>0.82338557296876735</v>
+        <v>0.67309473528213104</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2506,34 +2506,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E47">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="F47">
         <v>824</v>
       </c>
       <c r="H47" s="1">
-        <v>0.25121359223300971</v>
+        <v>0.26941747572815533</v>
       </c>
       <c r="I47" s="1">
-        <v>0.74878640776699024</v>
+        <v>0.73058252427184467</v>
       </c>
       <c r="K47">
-        <v>18942</v>
+        <v>20038</v>
       </c>
       <c r="L47">
-        <v>43771</v>
+        <v>42675</v>
       </c>
       <c r="M47">
         <v>62713</v>
       </c>
       <c r="O47" s="1">
-        <v>0.30204263868735348</v>
+        <v>0.31951907897884013</v>
       </c>
       <c r="P47" s="1">
-        <v>0.69795736131264652</v>
+        <v>0.68048092102115987</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2541,34 +2541,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E48">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F48">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H48" s="1">
-        <v>0.14285714285714285</v>
+        <v>0.15602836879432624</v>
       </c>
       <c r="I48" s="1">
-        <v>0.8571428571428571</v>
+        <v>0.84397163120567376</v>
       </c>
       <c r="K48">
-        <v>12176</v>
+        <v>13006</v>
       </c>
       <c r="L48">
-        <v>55211</v>
+        <v>54358</v>
       </c>
       <c r="M48">
-        <v>67387</v>
+        <v>67364</v>
       </c>
       <c r="O48" s="1">
-        <v>0.18068766972858266</v>
+        <v>0.19307048275043048</v>
       </c>
       <c r="P48" s="1">
-        <v>0.81931233027141737</v>
+        <v>0.80692951724956952</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2576,34 +2576,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="E49">
-        <v>527</v>
+        <v>434</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
       <c r="H49" s="1">
-        <v>0.22156573116691286</v>
+        <v>0.35893648449039883</v>
       </c>
       <c r="I49" s="1">
-        <v>0.7784342688330872</v>
+        <v>0.64106351550960117</v>
       </c>
       <c r="K49">
-        <v>14793</v>
+        <v>23318</v>
       </c>
       <c r="L49">
-        <v>39399</v>
+        <v>30874</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
       <c r="O49" s="1">
-        <v>0.2729738706820195</v>
+        <v>0.43028491290227339</v>
       </c>
       <c r="P49" s="1">
-        <v>0.7270261293179805</v>
+        <v>0.56971508709772656</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2646,34 +2646,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E51">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F51">
         <v>1131</v>
       </c>
       <c r="H51" s="1">
-        <v>0.25198938992042441</v>
+        <v>0.25375773651635719</v>
       </c>
       <c r="I51" s="1">
-        <v>0.74801061007957559</v>
+        <v>0.74624226348364275</v>
       </c>
       <c r="K51">
-        <v>28193</v>
+        <v>28406</v>
       </c>
       <c r="L51">
-        <v>63045</v>
+        <v>62832</v>
       </c>
       <c r="M51">
         <v>91238</v>
       </c>
       <c r="O51" s="1">
-        <v>0.30900501983822531</v>
+        <v>0.31133957342335428</v>
       </c>
       <c r="P51" s="1">
-        <v>0.69099498016177474</v>
+        <v>0.68866042657664572</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2681,73 +2681,74 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="E52">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="F52">
         <v>3873</v>
       </c>
       <c r="H52" s="1">
-        <v>0.44229279628195195</v>
+        <v>0.44384198295894656</v>
       </c>
       <c r="I52" s="1">
-        <v>0.55770720371804805</v>
+        <v>0.5561580170410535</v>
       </c>
       <c r="K52">
-        <v>176874</v>
+        <v>177409</v>
       </c>
       <c r="L52">
-        <v>171676</v>
+        <v>171141</v>
       </c>
       <c r="M52">
         <v>348550</v>
       </c>
       <c r="O52" s="1">
-        <v>0.50745660593888964</v>
+        <v>0.50899153636494043</v>
       </c>
       <c r="P52" s="1">
-        <v>0.49254339406111031</v>
+        <v>0.49100846363505951</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6">
-        <v>12338</v>
-      </c>
-      <c r="E53" s="6">
-        <v>34779</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="B53" s="12"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="12">
+        <v>13048</v>
+      </c>
+      <c r="E53" s="12">
+        <v>34069</v>
+      </c>
+      <c r="F53" s="12">
         <v>47117</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="7">
-        <v>0.26185877708682642</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0.73814122291317363</v>
-      </c>
-      <c r="K53" s="6">
-        <v>1229530</v>
-      </c>
-      <c r="L53" s="6">
-        <v>2511458</v>
-      </c>
-      <c r="M53" s="6">
+      <c r="G53" s="12"/>
+      <c r="H53" s="13">
+        <v>0.27692764819491905</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.723072351805081</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12">
+        <v>1293023</v>
+      </c>
+      <c r="L53" s="12">
+        <v>2447965</v>
+      </c>
+      <c r="M53" s="12">
         <v>3740988</v>
       </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="7">
-        <v>0.32866451322484863</v>
-      </c>
-      <c r="P53" s="7">
-        <v>0.67133548677515142</v>
+      <c r="N53" s="12"/>
+      <c r="O53" s="13">
+        <v>0.34563676761326151</v>
+      </c>
+      <c r="P53" s="13">
+        <v>0.65436323238673844</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -2758,34 +2759,34 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E54">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F54">
         <v>285</v>
       </c>
       <c r="H54" s="1">
-        <v>0.50175438596491229</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I54" s="1">
-        <v>0.49824561403508771</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="K54">
-        <v>14188</v>
+        <v>14979</v>
       </c>
       <c r="L54">
-        <v>8738</v>
+        <v>7947</v>
       </c>
       <c r="M54">
         <v>22926</v>
       </c>
       <c r="O54" s="1">
-        <v>0.61886068219488788</v>
+        <v>0.65336299398063336</v>
       </c>
       <c r="P54" s="1">
-        <v>0.38113931780511212</v>
+        <v>0.34663700601936664</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2828,34 +2829,34 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E56">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F56">
         <v>242</v>
       </c>
       <c r="H56" s="1">
-        <v>0.16942148760330578</v>
+        <v>0.18595041322314049</v>
       </c>
       <c r="I56" s="1">
-        <v>0.83057851239669422</v>
+        <v>0.81404958677685946</v>
       </c>
       <c r="K56">
-        <v>4218</v>
+        <v>4624</v>
       </c>
       <c r="L56">
-        <v>14768</v>
+        <v>14362</v>
       </c>
       <c r="M56">
         <v>18986</v>
       </c>
       <c r="O56" s="1">
-        <v>0.22216369956810281</v>
+        <v>0.24354787738333508</v>
       </c>
       <c r="P56" s="1">
-        <v>0.77783630043189722</v>
+        <v>0.75645212261666495</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2898,34 +2899,34 @@
         <v>63</v>
       </c>
       <c r="D58">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E58">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F58">
         <v>163</v>
       </c>
       <c r="H58" s="1">
-        <v>0.37423312883435583</v>
+        <v>0.40490797546012269</v>
       </c>
       <c r="I58" s="1">
-        <v>0.62576687116564422</v>
+        <v>0.59509202453987731</v>
       </c>
       <c r="K58">
-        <v>6065</v>
+        <v>6203</v>
       </c>
       <c r="L58">
-        <v>7645</v>
+        <v>7507</v>
       </c>
       <c r="M58">
         <v>13710</v>
       </c>
       <c r="O58" s="1">
-        <v>0.44237782640408463</v>
+        <v>0.4524434719183078</v>
       </c>
       <c r="P58" s="1">
-        <v>0.55762217359591537</v>
+        <v>0.5475565280816922</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2964,42 +2965,43 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="6">
-        <v>340</v>
-      </c>
-      <c r="E60" s="6">
-        <v>604</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="B60" s="12"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="12">
+        <v>358</v>
+      </c>
+      <c r="E60" s="12">
+        <v>586</v>
+      </c>
+      <c r="F60" s="12">
         <v>944</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="7">
-        <v>0.36016949152542371</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0.63983050847457623</v>
-      </c>
-      <c r="K60" s="6">
-        <v>33508</v>
-      </c>
-      <c r="L60" s="6">
-        <v>42171</v>
-      </c>
-      <c r="M60" s="6">
+      <c r="G60" s="12"/>
+      <c r="H60" s="13">
+        <v>0.37923728813559321</v>
+      </c>
+      <c r="I60" s="13">
+        <v>0.62076271186440679</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12">
+        <v>34843</v>
+      </c>
+      <c r="L60" s="12">
+        <v>40836</v>
+      </c>
+      <c r="M60" s="12">
         <v>75679</v>
       </c>
-      <c r="N60" s="6"/>
-      <c r="O60" s="7">
-        <v>0.44276483568757513</v>
-      </c>
-      <c r="P60" s="7">
-        <v>0.55723516431242481</v>
+      <c r="N60" s="12"/>
+      <c r="O60" s="13">
+        <v>0.46040513220312107</v>
+      </c>
+      <c r="P60" s="13">
+        <v>0.53959486779687893</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3150,34 +3152,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E65">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F65">
         <v>115</v>
       </c>
       <c r="H65" s="1">
-        <v>0.26956521739130435</v>
+        <v>0.31304347826086959</v>
       </c>
       <c r="I65" s="1">
-        <v>0.73043478260869565</v>
+        <v>0.68695652173913047</v>
       </c>
       <c r="K65">
-        <v>2631</v>
+        <v>2921</v>
       </c>
       <c r="L65">
-        <v>5137</v>
+        <v>4847</v>
       </c>
       <c r="M65">
         <v>7768</v>
       </c>
       <c r="O65" s="1">
-        <v>0.338697219361483</v>
+        <v>0.37602986611740474</v>
       </c>
       <c r="P65" s="1">
-        <v>0.661302780638517</v>
+        <v>0.62397013388259526</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3220,34 +3222,34 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <v>100</v>
       </c>
       <c r="H67" s="1">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I67" s="1">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="K67">
-        <v>3237</v>
+        <v>3548</v>
       </c>
       <c r="L67">
-        <v>4395</v>
+        <v>4084</v>
       </c>
       <c r="M67">
         <v>7632</v>
       </c>
       <c r="O67" s="1">
-        <v>0.42413522012578614</v>
+        <v>0.46488469601677151</v>
       </c>
       <c r="P67" s="1">
-        <v>0.57586477987421381</v>
+        <v>0.53511530398322849</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3325,34 +3327,34 @@
         <v>76</v>
       </c>
       <c r="D70">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F70">
         <v>78</v>
       </c>
       <c r="H70" s="1">
-        <v>0.29487179487179488</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="I70" s="1">
-        <v>0.70512820512820518</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="K70">
-        <v>1988</v>
+        <v>2526</v>
       </c>
       <c r="L70">
-        <v>3900</v>
+        <v>3362</v>
       </c>
       <c r="M70">
         <v>5888</v>
       </c>
       <c r="O70" s="1">
-        <v>0.33763586956521741</v>
+        <v>0.42900815217391303</v>
       </c>
       <c r="P70" s="1">
-        <v>0.66236413043478259</v>
+        <v>0.57099184782608692</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -3482,34 +3484,34 @@
         <v>81</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F75">
         <v>52</v>
       </c>
       <c r="H75" s="1">
-        <v>0.23076923076923078</v>
+        <v>0.32692307692307693</v>
       </c>
       <c r="I75" s="1">
-        <v>0.76923076923076927</v>
+        <v>0.67307692307692313</v>
       </c>
       <c r="K75">
-        <v>1352</v>
+        <v>1841</v>
       </c>
       <c r="L75">
-        <v>2690</v>
+        <v>2201</v>
       </c>
       <c r="M75">
         <v>4042</v>
       </c>
       <c r="O75" s="1">
-        <v>0.33448787728847107</v>
+        <v>0.45546759030183076</v>
       </c>
       <c r="P75" s="1">
-        <v>0.66551212271152893</v>
+        <v>0.54453240969816918</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -3551,29 +3553,35 @@
       <c r="B77" t="s">
         <v>83</v>
       </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
       <c r="E77">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F77">
         <v>65</v>
       </c>
       <c r="H77" s="1">
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I77" s="1">
-        <v>1</v>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="K77">
+        <v>1152</v>
       </c>
       <c r="L77">
-        <v>5234</v>
+        <v>4082</v>
       </c>
       <c r="M77">
         <v>5234</v>
       </c>
       <c r="O77" s="1">
-        <v>0</v>
+        <v>0.22009935040122278</v>
       </c>
       <c r="P77" s="1">
-        <v>1</v>
+        <v>0.77990064959877725</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -3744,34 +3752,34 @@
         <v>89</v>
       </c>
       <c r="D83">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E83">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F83">
         <v>106</v>
       </c>
       <c r="H83" s="1">
-        <v>0.24528301886792453</v>
+        <v>0.39622641509433965</v>
       </c>
       <c r="I83" s="1">
-        <v>0.75471698113207553</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="K83">
-        <v>2228</v>
+        <v>3796</v>
       </c>
       <c r="L83">
-        <v>6081</v>
+        <v>4513</v>
       </c>
       <c r="M83">
         <v>8309</v>
       </c>
       <c r="O83" s="1">
-        <v>0.26814297749428329</v>
+        <v>0.45685401372006257</v>
       </c>
       <c r="P83" s="1">
-        <v>0.73185702250571671</v>
+        <v>0.54314598627993738</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3849,73 +3857,74 @@
         <v>92</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F86">
         <v>113</v>
       </c>
       <c r="H86" s="1">
-        <v>0.17699115044247787</v>
+        <v>0.23008849557522124</v>
       </c>
       <c r="I86" s="1">
-        <v>0.82300884955752207</v>
+        <v>0.76991150442477874</v>
       </c>
       <c r="K86">
-        <v>1700</v>
+        <v>2180</v>
       </c>
       <c r="L86">
-        <v>6629</v>
+        <v>6149</v>
       </c>
       <c r="M86">
         <v>8329</v>
       </c>
       <c r="O86" s="1">
-        <v>0.20410613519029897</v>
+        <v>0.26173610277344217</v>
       </c>
       <c r="P86" s="1">
-        <v>0.79589386480970103</v>
+        <v>0.73826389722655783</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="6">
-        <v>471</v>
-      </c>
-      <c r="E87" s="6">
-        <v>1677</v>
-      </c>
-      <c r="F87" s="6">
+      <c r="B87" s="12"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="12">
+        <v>522</v>
+      </c>
+      <c r="E87" s="12">
+        <v>1626</v>
+      </c>
+      <c r="F87" s="12">
         <v>2148</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="7">
-        <v>0.21927374301675978</v>
-      </c>
-      <c r="I87" s="7">
-        <v>0.78072625698324027</v>
-      </c>
-      <c r="K87" s="6">
-        <v>44446</v>
-      </c>
-      <c r="L87" s="6">
-        <v>115031</v>
-      </c>
-      <c r="M87" s="6">
+      <c r="G87" s="12"/>
+      <c r="H87" s="13">
+        <v>0.24301675977653631</v>
+      </c>
+      <c r="I87" s="13">
+        <v>0.75698324022346364</v>
+      </c>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12">
+        <v>49274</v>
+      </c>
+      <c r="L87" s="12">
+        <v>110203</v>
+      </c>
+      <c r="M87" s="12">
         <v>159477</v>
       </c>
-      <c r="N87" s="6"/>
-      <c r="O87" s="7">
-        <v>0.278698495707845</v>
-      </c>
-      <c r="P87" s="7">
-        <v>0.721301504292155</v>
+      <c r="N87" s="12"/>
+      <c r="O87" s="13">
+        <v>0.3089724537080582</v>
+      </c>
+      <c r="P87" s="13">
+        <v>0.69102754629194174</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3957,41 +3966,42 @@
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="6">
+      <c r="B89" s="12"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="12">
         <v>54</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="12">
         <v>101</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="12">
         <v>155</v>
       </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="7">
+      <c r="G89" s="12"/>
+      <c r="H89" s="13">
         <v>0.34838709677419355</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="13">
         <v>0.65161290322580645</v>
       </c>
-      <c r="K89" s="6">
+      <c r="J89" s="12"/>
+      <c r="K89" s="12">
         <v>5682</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L89" s="12">
         <v>6794</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M89" s="12">
         <v>12476</v>
       </c>
-      <c r="N89" s="6"/>
-      <c r="O89" s="7">
+      <c r="N89" s="12"/>
+      <c r="O89" s="13">
         <v>0.45543443411349793</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89" s="13">
         <v>0.54456556588650207</v>
       </c>
     </row>
@@ -4003,34 +4013,34 @@
         <v>97</v>
       </c>
       <c r="D90">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E90">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F90">
         <v>481</v>
       </c>
       <c r="H90" s="1">
-        <v>0.31600831600831603</v>
+        <v>0.33471933471933474</v>
       </c>
       <c r="I90" s="1">
-        <v>0.68399168399168397</v>
+        <v>0.66528066528066532</v>
       </c>
       <c r="K90">
-        <v>14961</v>
+        <v>15862</v>
       </c>
       <c r="L90">
-        <v>23713</v>
+        <v>22812</v>
       </c>
       <c r="M90">
         <v>38674</v>
       </c>
       <c r="O90" s="1">
-        <v>0.38684904587061075</v>
+        <v>0.41014635155401563</v>
       </c>
       <c r="P90" s="1">
-        <v>0.61315095412938925</v>
+        <v>0.58985364844598442</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4073,34 +4083,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E92">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F92">
         <v>904</v>
       </c>
       <c r="H92" s="1">
-        <v>0.40597345132743362</v>
+        <v>0.40929203539823011</v>
       </c>
       <c r="I92" s="1">
-        <v>0.59402654867256632</v>
+        <v>0.59070796460176989</v>
       </c>
       <c r="K92">
-        <v>37674</v>
+        <v>37876</v>
       </c>
       <c r="L92">
-        <v>37852</v>
+        <v>37650</v>
       </c>
       <c r="M92">
         <v>75526</v>
       </c>
       <c r="O92" s="1">
-        <v>0.49882159786033947</v>
+        <v>0.50149617350316444</v>
       </c>
       <c r="P92" s="1">
-        <v>0.50117840213966047</v>
+        <v>0.4985038264968355</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4108,34 +4118,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E93">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="F93">
         <v>669</v>
       </c>
       <c r="H93" s="1">
-        <v>0.25261584454409569</v>
+        <v>0.273542600896861</v>
       </c>
       <c r="I93" s="1">
-        <v>0.74738415545590431</v>
+        <v>0.726457399103139</v>
       </c>
       <c r="K93">
-        <v>17560</v>
+        <v>18604</v>
       </c>
       <c r="L93">
-        <v>40107</v>
+        <v>39063</v>
       </c>
       <c r="M93">
         <v>57667</v>
       </c>
       <c r="O93" s="1">
-        <v>0.30450691036467997</v>
+        <v>0.3226108519603933</v>
       </c>
       <c r="P93" s="1">
-        <v>0.69549308963531997</v>
+        <v>0.6773891480396067</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4213,34 +4223,34 @@
         <v>103</v>
       </c>
       <c r="D96">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E96">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F96">
         <v>97</v>
       </c>
       <c r="H96" s="1">
-        <v>0.29896907216494845</v>
+        <v>0.30927835051546393</v>
       </c>
       <c r="I96" s="1">
-        <v>0.7010309278350515</v>
+        <v>0.69072164948453607</v>
       </c>
       <c r="K96">
-        <v>3066</v>
+        <v>3078</v>
       </c>
       <c r="L96">
-        <v>5105</v>
+        <v>5093</v>
       </c>
       <c r="M96">
         <v>8171</v>
       </c>
       <c r="O96" s="1">
-        <v>0.37522947007710195</v>
+        <v>0.37669807857055437</v>
       </c>
       <c r="P96" s="1">
-        <v>0.62477052992289805</v>
+        <v>0.62330192142944563</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -4388,34 +4398,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E101">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F101">
         <v>175</v>
       </c>
       <c r="H101" s="1">
-        <v>0.35428571428571426</v>
+        <v>0.38857142857142857</v>
       </c>
       <c r="I101" s="1">
-        <v>0.64571428571428569</v>
+        <v>0.61142857142857143</v>
       </c>
       <c r="K101">
-        <v>5945</v>
+        <v>6359</v>
       </c>
       <c r="L101">
-        <v>7811</v>
+        <v>7397</v>
       </c>
       <c r="M101">
         <v>13756</v>
       </c>
       <c r="O101" s="1">
-        <v>0.43217505088688574</v>
+        <v>0.46227100901424834</v>
       </c>
       <c r="P101" s="1">
-        <v>0.56782494911311432</v>
+        <v>0.53772899098575166</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4423,34 +4433,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E102">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F102">
         <v>381</v>
       </c>
       <c r="H102" s="1">
-        <v>0.30971128608923887</v>
+        <v>0.34120734908136485</v>
       </c>
       <c r="I102" s="1">
-        <v>0.69028871391076119</v>
+        <v>0.65879265091863515</v>
       </c>
       <c r="K102">
-        <v>12495</v>
+        <v>13774</v>
       </c>
       <c r="L102">
-        <v>21349</v>
+        <v>20070</v>
       </c>
       <c r="M102">
         <v>33844</v>
       </c>
       <c r="O102" s="1">
-        <v>0.36919394870582672</v>
+        <v>0.40698498995390614</v>
       </c>
       <c r="P102" s="1">
-        <v>0.63080605129417322</v>
+        <v>0.5930150100460938</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4458,34 +4468,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E103">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="F103">
         <v>892</v>
       </c>
       <c r="H103" s="1">
-        <v>0.3038116591928251</v>
+        <v>0.32623318385650224</v>
       </c>
       <c r="I103" s="1">
-        <v>0.69618834080717484</v>
+        <v>0.67376681614349776</v>
       </c>
       <c r="K103">
-        <v>26342</v>
+        <v>27906</v>
       </c>
       <c r="L103">
-        <v>42942</v>
+        <v>41378</v>
       </c>
       <c r="M103">
         <v>69284</v>
       </c>
       <c r="O103" s="1">
-        <v>0.38020322152300673</v>
+        <v>0.40277697592517753</v>
       </c>
       <c r="P103" s="1">
-        <v>0.61979677847699322</v>
+        <v>0.59722302407482242</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4633,34 +4643,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E108">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F108">
         <v>529</v>
       </c>
       <c r="H108" s="1">
-        <v>0.50094517958412099</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="I108" s="1">
-        <v>0.49905482041587901</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="K108">
-        <v>27765</v>
+        <v>28564</v>
       </c>
       <c r="L108">
-        <v>18736</v>
+        <v>17937</v>
       </c>
       <c r="M108">
         <v>46501</v>
       </c>
       <c r="O108" s="1">
-        <v>0.5970839336788456</v>
+        <v>0.61426635986322875</v>
       </c>
       <c r="P108" s="1">
-        <v>0.4029160663211544</v>
+        <v>0.38573364013677125</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4878,34 +4888,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E115">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F115">
         <v>496</v>
       </c>
       <c r="H115" s="1">
-        <v>0.35685483870967744</v>
+        <v>0.36491935483870969</v>
       </c>
       <c r="I115" s="1">
-        <v>0.64314516129032262</v>
+        <v>0.63508064516129037</v>
       </c>
       <c r="K115">
-        <v>16748</v>
+        <v>16956</v>
       </c>
       <c r="L115">
-        <v>19445</v>
+        <v>19237</v>
       </c>
       <c r="M115">
         <v>36193</v>
       </c>
       <c r="O115" s="1">
-        <v>0.46274141408559666</v>
+        <v>0.468488381731274</v>
       </c>
       <c r="P115" s="1">
-        <v>0.53725858591440334</v>
+        <v>0.53151161826872595</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4948,34 +4958,34 @@
         <v>124</v>
       </c>
       <c r="D117">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E117">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F117">
         <v>85</v>
       </c>
       <c r="H117" s="1">
-        <v>0.31764705882352939</v>
+        <v>0.37647058823529411</v>
       </c>
       <c r="I117" s="1">
-        <v>0.68235294117647061</v>
+        <v>0.62352941176470589</v>
       </c>
       <c r="K117">
-        <v>2847</v>
+        <v>3332</v>
       </c>
       <c r="L117">
-        <v>4282</v>
+        <v>3797</v>
       </c>
       <c r="M117">
         <v>7129</v>
       </c>
       <c r="O117" s="1">
-        <v>0.39935474821153039</v>
+        <v>0.46738673025669797</v>
       </c>
       <c r="P117" s="1">
-        <v>0.60064525178846961</v>
+        <v>0.53261326974330203</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -5018,34 +5028,34 @@
         <v>126</v>
       </c>
       <c r="D119">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E119">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F119">
         <v>396</v>
       </c>
       <c r="H119" s="1">
-        <v>0.37878787878787878</v>
+        <v>0.39393939393939392</v>
       </c>
       <c r="I119" s="1">
-        <v>0.62121212121212122</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="K119">
-        <v>15407</v>
+        <v>16079</v>
       </c>
       <c r="L119">
-        <v>19590</v>
+        <v>18918</v>
       </c>
       <c r="M119">
         <v>34997</v>
       </c>
       <c r="O119" s="1">
-        <v>0.44023773466297111</v>
+        <v>0.45943938051833016</v>
       </c>
       <c r="P119" s="1">
-        <v>0.55976226533702889</v>
+        <v>0.54056061948166989</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -5088,34 +5098,34 @@
         <v>128</v>
       </c>
       <c r="D121">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E121">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F121">
         <v>150</v>
       </c>
       <c r="H121" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="I121" s="1">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="K121">
-        <v>4010</v>
+        <v>4666</v>
       </c>
       <c r="L121">
-        <v>9890</v>
+        <v>9234</v>
       </c>
       <c r="M121">
         <v>13900</v>
       </c>
       <c r="O121" s="1">
-        <v>0.28848920863309352</v>
+        <v>0.33568345323741006</v>
       </c>
       <c r="P121" s="1">
-        <v>0.71151079136690643</v>
+        <v>0.66431654676258989</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5154,42 +5164,43 @@
       </c>
     </row>
     <row r="123" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="6">
-        <v>3869</v>
-      </c>
-      <c r="E123" s="6">
-        <v>6565</v>
-      </c>
-      <c r="F123" s="6">
+      <c r="B123" s="12"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="12">
+        <v>3966</v>
+      </c>
+      <c r="E123" s="12">
+        <v>6468</v>
+      </c>
+      <c r="F123" s="12">
         <v>10434</v>
       </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="7">
-        <v>0.37080697718995592</v>
-      </c>
-      <c r="I123" s="7">
-        <v>0.62919302281004408</v>
-      </c>
-      <c r="K123" s="6">
-        <v>391562</v>
-      </c>
-      <c r="L123" s="6">
-        <v>478060</v>
-      </c>
-      <c r="M123" s="6">
+      <c r="G123" s="12"/>
+      <c r="H123" s="13">
+        <v>0.38010350776308222</v>
+      </c>
+      <c r="I123" s="13">
+        <v>0.61989649223691778</v>
+      </c>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12">
+        <v>399798</v>
+      </c>
+      <c r="L123" s="12">
+        <v>469824</v>
+      </c>
+      <c r="M123" s="12">
         <v>869622</v>
       </c>
-      <c r="N123" s="6"/>
-      <c r="O123" s="7">
-        <v>0.45026689757158855</v>
-      </c>
-      <c r="P123" s="7">
-        <v>0.54973310242841145</v>
+      <c r="N123" s="12"/>
+      <c r="O123" s="13">
+        <v>0.45973767912955282</v>
+      </c>
+      <c r="P123" s="13">
+        <v>0.54026232087044712</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -5270,34 +5281,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E126">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F126">
         <v>534</v>
       </c>
       <c r="H126" s="1">
-        <v>0.30711610486891383</v>
+        <v>0.30524344569288392</v>
       </c>
       <c r="I126" s="1">
-        <v>0.69288389513108617</v>
+        <v>0.69475655430711614</v>
       </c>
       <c r="K126">
-        <v>15949</v>
+        <v>15942</v>
       </c>
       <c r="L126">
-        <v>25337</v>
+        <v>25344</v>
       </c>
       <c r="M126">
         <v>41286</v>
       </c>
       <c r="O126" s="1">
-        <v>0.38630528508453227</v>
+        <v>0.38613573608487139</v>
       </c>
       <c r="P126" s="1">
-        <v>0.61369471491546768</v>
+        <v>0.61386426391512861</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5305,34 +5316,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E127">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F127">
         <v>224</v>
       </c>
       <c r="H127" s="1">
-        <v>0.2767857142857143</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="I127" s="1">
-        <v>0.7232142857142857</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="K127">
-        <v>6356</v>
+        <v>6313</v>
       </c>
       <c r="L127">
-        <v>10629</v>
+        <v>10672</v>
       </c>
       <c r="M127">
         <v>16985</v>
       </c>
       <c r="O127" s="1">
-        <v>0.3742125404768914</v>
+        <v>0.37168089490727113</v>
       </c>
       <c r="P127" s="1">
-        <v>0.62578745952310866</v>
+        <v>0.62831910509272892</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5340,34 +5351,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E128">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F128">
         <v>209</v>
       </c>
       <c r="H128" s="1">
-        <v>0.12440191387559808</v>
+        <v>0.16267942583732056</v>
       </c>
       <c r="I128" s="1">
-        <v>0.87559808612440193</v>
+        <v>0.83732057416267947</v>
       </c>
       <c r="K128">
-        <v>2866</v>
+        <v>3477</v>
       </c>
       <c r="L128">
-        <v>14238</v>
+        <v>13627</v>
       </c>
       <c r="M128">
         <v>17104</v>
       </c>
       <c r="O128" s="1">
-        <v>0.16756314312441534</v>
+        <v>0.20328578110383536</v>
       </c>
       <c r="P128" s="1">
-        <v>0.83243685687558466</v>
+        <v>0.79671421889616467</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5375,34 +5386,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E129">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F129">
         <v>481</v>
       </c>
       <c r="H129" s="1">
-        <v>0.25987525987525989</v>
+        <v>0.27234927234927236</v>
       </c>
       <c r="I129" s="1">
-        <v>0.74012474012474017</v>
+        <v>0.72765072765072769</v>
       </c>
       <c r="K129">
-        <v>13379</v>
+        <v>14039</v>
       </c>
       <c r="L129">
-        <v>26043</v>
+        <v>25383</v>
       </c>
       <c r="M129">
         <v>39422</v>
       </c>
       <c r="O129" s="1">
-        <v>0.33937902693927247</v>
+        <v>0.3561209476941809</v>
       </c>
       <c r="P129" s="1">
-        <v>0.66062097306072753</v>
+        <v>0.6438790523058191</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5620,116 +5631,117 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E136">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F136">
         <v>295</v>
       </c>
       <c r="H136" s="1">
-        <v>0.32881355932203388</v>
+        <v>0.34576271186440677</v>
       </c>
       <c r="I136" s="1">
-        <v>0.67118644067796607</v>
+        <v>0.65423728813559323</v>
       </c>
       <c r="K136">
-        <v>9987</v>
+        <v>10599</v>
       </c>
       <c r="L136">
-        <v>14484</v>
+        <v>13872</v>
       </c>
       <c r="M136">
         <v>24471</v>
       </c>
       <c r="O136" s="1">
-        <v>0.4081157288218708</v>
+        <v>0.43312492337869313</v>
       </c>
       <c r="P136" s="1">
-        <v>0.59188427117812925</v>
+        <v>0.56687507662130687</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="6">
-        <v>1481</v>
-      </c>
-      <c r="E137" s="6">
-        <v>3486</v>
-      </c>
-      <c r="F137" s="6">
+      <c r="B137" s="12"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="12">
+        <v>1497</v>
+      </c>
+      <c r="E137" s="12">
+        <v>3470</v>
+      </c>
+      <c r="F137" s="12">
         <v>4967</v>
       </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="7">
-        <v>0.29816790819408096</v>
-      </c>
-      <c r="I137" s="7">
-        <v>0.7018320918059191</v>
-      </c>
-      <c r="K137" s="6">
-        <v>149685</v>
-      </c>
-      <c r="L137" s="6">
-        <v>250380</v>
-      </c>
-      <c r="M137" s="6">
+      <c r="G137" s="12"/>
+      <c r="H137" s="13">
+        <v>0.30138916851218039</v>
+      </c>
+      <c r="I137" s="13">
+        <v>0.69861083148781966</v>
+      </c>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12">
+        <v>151518</v>
+      </c>
+      <c r="L137" s="12">
+        <v>248547</v>
+      </c>
+      <c r="M137" s="12">
         <v>400065</v>
       </c>
-      <c r="N137" s="6"/>
-      <c r="O137" s="7">
-        <v>0.37415170034869333</v>
-      </c>
-      <c r="P137" s="7">
-        <v>0.62584829965130662</v>
+      <c r="N137" s="12"/>
+      <c r="O137" s="13">
+        <v>0.37873345581343032</v>
+      </c>
+      <c r="P137" s="13">
+        <v>0.62126654418656968</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="6">
-        <v>18618</v>
-      </c>
-      <c r="E138" s="6">
-        <v>47393</v>
-      </c>
-      <c r="F138" s="6">
+      <c r="B138" s="12"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="12">
+        <v>19515</v>
+      </c>
+      <c r="E138" s="12">
+        <v>46496</v>
+      </c>
+      <c r="F138" s="12">
         <v>66011</v>
       </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="7">
-        <v>0.28204390177394678</v>
-      </c>
-      <c r="I138" s="7">
-        <v>0.71795609822605322</v>
-      </c>
-      <c r="K138" s="6">
-        <v>1860158</v>
-      </c>
-      <c r="L138" s="6">
-        <v>3415778</v>
-      </c>
-      <c r="M138" s="6">
+      <c r="G138" s="12"/>
+      <c r="H138" s="13">
+        <v>0.29563254609080303</v>
+      </c>
+      <c r="I138" s="13">
+        <v>0.70436745390919697</v>
+      </c>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12">
+        <v>1940422</v>
+      </c>
+      <c r="L138" s="12">
+        <v>3335514</v>
+      </c>
+      <c r="M138" s="12">
         <v>5275936</v>
       </c>
-      <c r="N138" s="6"/>
-      <c r="O138" s="7">
-        <v>0.3525740266750772</v>
-      </c>
-      <c r="P138" s="7">
-        <v>0.6474259733249228</v>
+      <c r="N138" s="12"/>
+      <c r="O138" s="13">
+        <v>0.36778725139956209</v>
+      </c>
+      <c r="P138" s="13">
+        <v>0.63221274860043797</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546C6B88-C447-478C-A1DD-16EEBD87B406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D140F830-4CCC-4412-8F72-357AD68A6B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{423CFA4C-3028-4C60-9A49-E3A261043D03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C829078-4C04-407C-B234-DF7E2F9F877E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats_20200808" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -557,7 +557,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -568,6 +567,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -885,109 +885,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6856D27C-8BDC-4E66-86C4-F37FA569292F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED1A4C-AF29-482C-A89C-6AC4BCDC37CF}">
   <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="8" max="8" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="14"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1007,10 +1013,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="11">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1022,10 +1028,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="11">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="11">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1042,10 +1048,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="11">
         <v>0.23008849557522124</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="11">
         <v>0.76991150442477874</v>
       </c>
       <c r="K5">
@@ -1057,10 +1063,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="11">
         <v>0.3073139158576052</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="11">
         <v>0.69268608414239485</v>
       </c>
     </row>
@@ -1074,10 +1080,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1086,10 +1092,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1106,10 +1112,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="11">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="11">
         <v>0.65486725663716816</v>
       </c>
       <c r="K7">
@@ -1121,10 +1127,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="11">
         <v>0.42883233897479606</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="11">
         <v>0.571167661025204</v>
       </c>
     </row>
@@ -1141,10 +1147,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="11">
         <v>0.25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="11">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1156,10 +1162,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="11">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="11">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1185,7 +1191,7 @@
       <c r="I9" s="13">
         <v>0.71544715447154472</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="12">
         <v>6284</v>
       </c>
@@ -1219,10 +1225,10 @@
       <c r="F10">
         <v>414</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="11">
         <v>0.22705314009661837</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="11">
         <v>0.77294685990338163</v>
       </c>
       <c r="K10">
@@ -1234,10 +1240,10 @@
       <c r="M10">
         <v>32232</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="11">
         <v>0.28248324646314221</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="11">
         <v>0.71751675353685773</v>
       </c>
     </row>
@@ -1246,34 +1252,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E11">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.18542199488491048</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.81457800511508949</v>
+      <c r="H11" s="11">
+        <v>0.20716112531969311</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.79283887468030689</v>
       </c>
       <c r="K11">
-        <v>14370</v>
+        <v>15894</v>
       </c>
       <c r="L11">
-        <v>46262</v>
+        <v>44738</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="1">
-        <v>0.23700356247526058</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.76299643752473945</v>
+      <c r="O11" s="11">
+        <v>0.2621388045916348</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.73786119540836526</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1289,10 +1295,10 @@
       <c r="F12">
         <v>571</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="11">
         <v>0.22241681260945709</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="11">
         <v>0.77758318739054288</v>
       </c>
       <c r="K12">
@@ -1304,10 +1310,10 @@
       <c r="M12">
         <v>43762</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="11">
         <v>0.29685571957405971</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="11">
         <v>0.70314428042594035</v>
       </c>
     </row>
@@ -1324,10 +1330,10 @@
       <c r="F13">
         <v>566</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="11">
         <v>0.303886925795053</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="11">
         <v>0.69611307420494695</v>
       </c>
       <c r="K13">
@@ -1339,10 +1345,10 @@
       <c r="M13">
         <v>47623</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="11">
         <v>0.37750666694664342</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="11">
         <v>0.62249333305335652</v>
       </c>
     </row>
@@ -1359,10 +1365,10 @@
       <c r="F14">
         <v>1109</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="11">
         <v>0.36789900811541931</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="11">
         <v>0.63210099188458069</v>
       </c>
       <c r="K14">
@@ -1374,10 +1380,10 @@
       <c r="M14">
         <v>92471</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="11">
         <v>0.43583393712623419</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="11">
         <v>0.56416606287376581</v>
       </c>
     </row>
@@ -1386,34 +1392,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="E15">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.40287769784172661</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.59712230215827333</v>
+      <c r="H15" s="11">
+        <v>0.41521068859198357</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.58478931140801649</v>
       </c>
       <c r="K15">
-        <v>37391</v>
+        <v>38376</v>
       </c>
       <c r="L15">
-        <v>36985</v>
+        <v>36000</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="1">
-        <v>0.50272937506722604</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.49727062493277402</v>
+      <c r="O15" s="11">
+        <v>0.51597289448209105</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.48402710551790901</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1429,10 +1435,10 @@
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="11">
         <v>0.39206642066420666</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="11">
         <v>0.60793357933579339</v>
       </c>
       <c r="K16">
@@ -1444,10 +1450,10 @@
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="11">
         <v>0.46814985451018426</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="11">
         <v>0.53185014548981568</v>
       </c>
     </row>
@@ -1464,10 +1470,10 @@
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="11">
         <v>0.23510204081632652</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="11">
         <v>0.76489795918367343</v>
       </c>
       <c r="K17">
@@ -1479,10 +1485,10 @@
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="11">
         <v>0.2861633078053385</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="11">
         <v>0.7138366921946615</v>
       </c>
     </row>
@@ -1491,34 +1497,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E18">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="F18">
         <v>2552</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.34130094043887149</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.65869905956112851</v>
+      <c r="H18" s="11">
+        <v>0.34365203761755486</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.65634796238244519</v>
       </c>
       <c r="K18">
-        <v>84375</v>
+        <v>84815</v>
       </c>
       <c r="L18">
-        <v>109894</v>
+        <v>109454</v>
       </c>
       <c r="M18">
         <v>194269</v>
       </c>
-      <c r="O18" s="1">
-        <v>0.43432045256834595</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.56567954743165405</v>
+      <c r="O18" s="11">
+        <v>0.43658535329877646</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0.56341464670122354</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1534,10 +1540,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="11">
         <v>0.30471204188481676</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="11">
         <v>0.69528795811518329</v>
       </c>
       <c r="K19">
@@ -1549,10 +1555,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="11">
         <v>0.39710336860198087</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="11">
         <v>0.60289663139801908</v>
       </c>
     </row>
@@ -1561,34 +1567,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E20">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.33028919330289191</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.66971080669710803</v>
+      <c r="H20" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.66666666666666663</v>
       </c>
       <c r="K20">
-        <v>22244</v>
+        <v>22460</v>
       </c>
       <c r="L20">
-        <v>32319</v>
+        <v>32103</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="1">
-        <v>0.40767553103751625</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.5923244689624837</v>
+      <c r="O20" s="11">
+        <v>0.41163425764712352</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0.58836574235287653</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1604,10 +1610,10 @@
       <c r="F21">
         <v>1294</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="11">
         <v>0.294435857805255</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="11">
         <v>0.70556414219474495</v>
       </c>
       <c r="K21">
@@ -1619,10 +1625,10 @@
       <c r="M21">
         <v>101962</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="11">
         <v>0.36675428100664953</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="11">
         <v>0.63324571899335047</v>
       </c>
     </row>
@@ -1631,34 +1637,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E22">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.26972010178117051</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.73027989821882955</v>
+      <c r="H22" s="11">
+        <v>0.27989821882951654</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.72010178117048351</v>
       </c>
       <c r="K22">
-        <v>31798</v>
+        <v>33088</v>
       </c>
       <c r="L22">
-        <v>63814</v>
+        <v>62524</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="1">
-        <v>0.33257331715684224</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.66742668284315776</v>
+      <c r="O22" s="11">
+        <v>0.34606534744592726</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0.65393465255407268</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1666,34 +1672,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>258</v>
+        <v>370</v>
       </c>
       <c r="E23">
-        <v>1464</v>
+        <v>1351</v>
       </c>
       <c r="F23">
-        <v>1722</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.14982578397212543</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.85017421602787457</v>
+        <v>1721</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.21499128413712956</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.78500871586287047</v>
       </c>
       <c r="K23">
-        <v>25242</v>
+        <v>36720</v>
       </c>
       <c r="L23">
-        <v>105865</v>
+        <v>94351</v>
       </c>
       <c r="M23">
-        <v>131107</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.19252976576384176</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.80747023423615827</v>
+        <v>131071</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0.28015350458911581</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0.71984649541088419</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1709,10 +1715,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="11">
         <v>0.33728813559322035</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="11">
         <v>0.66271186440677965</v>
       </c>
       <c r="K24">
@@ -1724,10 +1730,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="11">
         <v>0.43102475571502719</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="11">
         <v>0.56897524428497281</v>
       </c>
     </row>
@@ -1744,10 +1750,10 @@
       <c r="F25">
         <v>1004</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="11">
         <v>0.21613545816733068</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="11">
         <v>0.78386454183266929</v>
       </c>
       <c r="K25">
@@ -1759,10 +1765,10 @@
       <c r="M25">
         <v>79796</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="11">
         <v>0.28435009273647804</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="11">
         <v>0.71564990726352196</v>
       </c>
     </row>
@@ -1771,34 +1777,34 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="1">
-        <v>0.26277372262773724</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.73722627737226276</v>
+      <c r="H26" s="11">
+        <v>0.34306569343065696</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.65693430656934304</v>
       </c>
       <c r="K26">
-        <v>3550</v>
+        <v>4762</v>
       </c>
       <c r="L26">
-        <v>6830</v>
+        <v>5618</v>
       </c>
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="1">
-        <v>0.34200385356454721</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.65799614643545279</v>
+      <c r="O26" s="11">
+        <v>0.45876685934489403</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0.54123314065510597</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -1806,34 +1812,34 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F27">
-        <v>250</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.152</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.84799999999999998</v>
+        <v>251</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.20318725099601595</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.79681274900398402</v>
       </c>
       <c r="K27">
-        <v>3749</v>
+        <v>4628</v>
       </c>
       <c r="L27">
-        <v>15946</v>
+        <v>15103</v>
       </c>
       <c r="M27">
-        <v>19695</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.19035288144199036</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.80964711855800964</v>
+        <v>19731</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0.23455476154274998</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0.76544523845724999</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1841,34 +1847,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="E28">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.20197930724246513</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.79802069275753484</v>
+      <c r="H28" s="11">
+        <v>0.20917678812415655</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.79082321187584348</v>
       </c>
       <c r="K28">
-        <v>45414</v>
+        <v>46722</v>
       </c>
       <c r="L28">
-        <v>125920</v>
+        <v>124612</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.26506122544270255</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.73493877455729739</v>
+      <c r="O28" s="11">
+        <v>0.27269543698273546</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0.72730456301726454</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1876,34 +1882,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1193</v>
+        <v>1225</v>
       </c>
       <c r="E29">
-        <v>1913</v>
+        <v>1881</v>
       </c>
       <c r="F29">
         <v>3106</v>
       </c>
-      <c r="H29" s="1">
-        <v>0.38409529942047649</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.61590470057952351</v>
+      <c r="H29" s="11">
+        <v>0.3943979394719897</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.60560206052801036</v>
       </c>
       <c r="K29">
-        <v>117371</v>
+        <v>120369</v>
       </c>
       <c r="L29">
-        <v>150891</v>
+        <v>147893</v>
       </c>
       <c r="M29">
         <v>268262</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.4375237640813831</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.56247623591861684</v>
+      <c r="O29" s="11">
+        <v>0.44869940580477297</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0.55130059419522703</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1911,34 +1917,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E30">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="1">
-        <v>0.3353413654618474</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.66465863453815266</v>
+      <c r="H30" s="11">
+        <v>0.35742971887550201</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.64257028112449799</v>
       </c>
       <c r="K30">
-        <v>17467</v>
+        <v>18481</v>
       </c>
       <c r="L30">
-        <v>23273</v>
+        <v>22259</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="1">
-        <v>0.42874324987727047</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.57125675012272947</v>
+      <c r="O30" s="11">
+        <v>0.45363279332351497</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0.54636720667648497</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1954,10 +1960,10 @@
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="11">
         <v>0.30308880308880309</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="11">
         <v>0.69691119691119696</v>
       </c>
       <c r="K31">
@@ -1969,10 +1975,10 @@
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="11">
         <v>0.37782848003010772</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="11">
         <v>0.62217151996989228</v>
       </c>
     </row>
@@ -1989,10 +1995,10 @@
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="11">
         <v>0.38709677419354838</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="11">
         <v>0.61290322580645162</v>
       </c>
       <c r="K32">
@@ -2004,10 +2010,10 @@
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="11">
         <v>0.46891382425770184</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="11">
         <v>0.53108617574229822</v>
       </c>
     </row>
@@ -2016,34 +2022,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E33">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F33">
         <v>1068</v>
       </c>
-      <c r="H33" s="1">
-        <v>0.20786516853932585</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.7921348314606742</v>
+      <c r="H33" s="11">
+        <v>0.21348314606741572</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.7865168539325843</v>
       </c>
       <c r="K33">
-        <v>20059</v>
+        <v>20611</v>
       </c>
       <c r="L33">
-        <v>55871</v>
+        <v>55319</v>
       </c>
       <c r="M33">
         <v>75930</v>
       </c>
-      <c r="O33" s="1">
-        <v>0.26417753193731069</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.73582246806268936</v>
+      <c r="O33" s="11">
+        <v>0.27144738575003291</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0.72855261424996709</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2051,34 +2057,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E34">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="1">
-        <v>0.26117440841367223</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.73882559158632777</v>
+      <c r="H34" s="11">
+        <v>0.26380368098159507</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.73619631901840488</v>
       </c>
       <c r="K34">
-        <v>28297</v>
+        <v>28645</v>
       </c>
       <c r="L34">
-        <v>59141</v>
+        <v>58793</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="1">
-        <v>0.3236235961481278</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.67637640385187214</v>
+      <c r="O34" s="11">
+        <v>0.32760355909330041</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0.67239644090669959</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2086,34 +2092,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E35">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F35">
         <v>785</v>
       </c>
-      <c r="H35" s="1">
-        <v>0.22292993630573249</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.77707006369426757</v>
+      <c r="H35" s="11">
+        <v>0.22929936305732485</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.77070063694267521</v>
       </c>
       <c r="K35">
-        <v>16995</v>
+        <v>17356</v>
       </c>
       <c r="L35">
-        <v>45656</v>
+        <v>45295</v>
       </c>
       <c r="M35">
         <v>62651</v>
       </c>
-      <c r="O35" s="1">
-        <v>0.27126462466680501</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.72873537533319499</v>
+      <c r="O35" s="11">
+        <v>0.27702670348438174</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0.72297329651561826</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2121,34 +2127,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="E36">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="1">
-        <v>0.33010882708585249</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.66989117291414757</v>
+      <c r="H36" s="11">
+        <v>0.37122128174123337</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.62877871825876663</v>
       </c>
       <c r="K36">
-        <v>28135</v>
+        <v>31335</v>
       </c>
       <c r="L36">
-        <v>36999</v>
+        <v>33799</v>
       </c>
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="1">
-        <v>0.43195566063806923</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0.56804433936193077</v>
+      <c r="O36" s="11">
+        <v>0.48108514754199033</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0.51891485245800961</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2156,34 +2162,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="E37">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="1">
-        <v>0.33673469387755101</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.66326530612244894</v>
+      <c r="H37" s="11">
+        <v>0.37900874635568516</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.62099125364431484</v>
       </c>
       <c r="K37">
-        <v>22741</v>
+        <v>24976</v>
       </c>
       <c r="L37">
-        <v>35180</v>
+        <v>32945</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="1">
-        <v>0.39262098375373355</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.60737901624626645</v>
+      <c r="O37" s="11">
+        <v>0.43120802472333003</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0.56879197527666991</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2191,34 +2197,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E38">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="1">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.76315789473684215</v>
+      <c r="H38" s="11">
+        <v>0.24473684210526317</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.75526315789473686</v>
       </c>
       <c r="K38">
-        <v>17458</v>
+        <v>18142</v>
       </c>
       <c r="L38">
-        <v>37826</v>
+        <v>37142</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="1">
-        <v>0.31578756964040228</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.68421243035959767</v>
+      <c r="O38" s="11">
+        <v>0.32816004630634543</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0.67183995369365457</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2226,34 +2232,34 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="1">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.84210526315789469</v>
+      <c r="H39" s="11">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.78947368421052633</v>
       </c>
       <c r="K39">
-        <v>1232</v>
+        <v>1761</v>
       </c>
       <c r="L39">
-        <v>5474</v>
+        <v>4945</v>
       </c>
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="1">
-        <v>0.1837160751565762</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.81628392484342382</v>
+      <c r="O39" s="11">
+        <v>0.26260065612883987</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0.73739934387116013</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2261,34 +2267,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E40">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="F40">
         <v>674</v>
       </c>
-      <c r="H40" s="1">
-        <v>0.21661721068249259</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.78338278931750738</v>
+      <c r="H40" s="11">
+        <v>0.28486646884272998</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.71513353115727007</v>
       </c>
       <c r="K40">
-        <v>13707</v>
+        <v>18290</v>
       </c>
       <c r="L40">
-        <v>35632</v>
+        <v>31049</v>
       </c>
       <c r="M40">
         <v>49339</v>
       </c>
-      <c r="O40" s="1">
-        <v>0.27781268367822615</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.7221873163217738</v>
+      <c r="O40" s="11">
+        <v>0.37070066276170982</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0.62929933723829024</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2296,34 +2302,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="E41">
-        <v>1612</v>
+        <v>1588</v>
       </c>
       <c r="F41">
         <v>1956</v>
       </c>
-      <c r="H41" s="1">
-        <v>0.17586912065439672</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.82413087934560325</v>
+      <c r="H41" s="11">
+        <v>0.18813905930470348</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.81186094069529657</v>
       </c>
       <c r="K41">
-        <v>34393</v>
+        <v>36758</v>
       </c>
       <c r="L41">
-        <v>112178</v>
+        <v>109813</v>
       </c>
       <c r="M41">
         <v>146571</v>
       </c>
-      <c r="O41" s="1">
-        <v>0.23465078357928923</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.76534921642071074</v>
+      <c r="O41" s="11">
+        <v>0.25078630834203219</v>
+      </c>
+      <c r="P41" s="11">
+        <v>0.74921369165796781</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2331,34 +2337,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E42">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="1">
-        <v>0.25733333333333336</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.7426666666666667</v>
+      <c r="H42" s="11">
+        <v>0.26533333333333331</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.73466666666666669</v>
       </c>
       <c r="K42">
-        <v>19389</v>
+        <v>20025</v>
       </c>
       <c r="L42">
-        <v>43042</v>
+        <v>42406</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="1">
-        <v>0.31056686581986515</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.68943313418013485</v>
+      <c r="O42" s="11">
+        <v>0.32075411254024444</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0.67924588745975556</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2374,10 +2380,10 @@
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="11">
         <v>0.20669056152927121</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="11">
         <v>0.79330943847072877</v>
       </c>
       <c r="K43">
@@ -2389,10 +2395,10 @@
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="11">
         <v>0.26199331187298808</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="11">
         <v>0.73800668812701187</v>
       </c>
     </row>
@@ -2401,34 +2407,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E44">
-        <v>2195</v>
+        <v>2180</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
-      <c r="H44" s="1">
-        <v>0.1279300754866905</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.87206992451330945</v>
+      <c r="H44" s="11">
+        <v>0.13388955105284067</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.86611044894715927</v>
       </c>
       <c r="K44">
-        <v>32323</v>
+        <v>33742</v>
       </c>
       <c r="L44">
-        <v>153307</v>
+        <v>151888</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="1">
-        <v>0.17412594946937457</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.82587405053062546</v>
+      <c r="O44" s="11">
+        <v>0.1817701880084038</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0.81822981199159617</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2444,10 +2450,10 @@
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="11">
         <v>0.17865650309671272</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="11">
         <v>0.82134349690328723</v>
       </c>
       <c r="K45">
@@ -2459,10 +2465,10 @@
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="11">
         <v>0.23210058621587121</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="11">
         <v>0.76789941378412885</v>
       </c>
     </row>
@@ -2471,34 +2477,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E46">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="1">
-        <v>0.25364431486880468</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.74635568513119532</v>
+      <c r="H46" s="11">
+        <v>0.26530612244897961</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0.73469387755102045</v>
       </c>
       <c r="K46">
-        <v>17647</v>
+        <v>18305</v>
       </c>
       <c r="L46">
-        <v>36335</v>
+        <v>35677</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="1">
-        <v>0.3269052647178689</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0.67309473528213104</v>
+      <c r="O46" s="11">
+        <v>0.33909451298581006</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0.66090548701418994</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2514,10 +2520,10 @@
       <c r="F47">
         <v>824</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="11">
         <v>0.26941747572815533</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="11">
         <v>0.73058252427184467</v>
       </c>
       <c r="K47">
@@ -2529,10 +2535,10 @@
       <c r="M47">
         <v>62713</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="11">
         <v>0.31951907897884013</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="11">
         <v>0.68048092102115987</v>
       </c>
     </row>
@@ -2541,34 +2547,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E48">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="1">
-        <v>0.15602836879432624</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.84397163120567376</v>
+      <c r="H48" s="11">
+        <v>0.16903073286052009</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0.83096926713947994</v>
       </c>
       <c r="K48">
-        <v>13006</v>
+        <v>14019</v>
       </c>
       <c r="L48">
-        <v>54358</v>
+        <v>53345</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="1">
-        <v>0.19307048275043048</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0.80692951724956952</v>
+      <c r="O48" s="11">
+        <v>0.20810818834986047</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0.79189181165013955</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2584,10 +2590,10 @@
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="11">
         <v>0.35893648449039883</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="11">
         <v>0.64106351550960117</v>
       </c>
       <c r="K49">
@@ -2599,10 +2605,10 @@
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="11">
         <v>0.43028491290227339</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="11">
         <v>0.56971508709772656</v>
       </c>
     </row>
@@ -2611,34 +2617,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E50">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F50">
-        <v>431</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.27842227378190254</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.72157772621809746</v>
+        <v>428</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.31308411214953269</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.68691588785046731</v>
       </c>
       <c r="K50">
-        <v>12365</v>
+        <v>13650</v>
       </c>
       <c r="L50">
-        <v>20975</v>
+        <v>19663</v>
       </c>
       <c r="M50">
-        <v>33340</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0.37087582483503301</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0.62912417516496699</v>
+        <v>33313</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0.40974994746795546</v>
+      </c>
+      <c r="P50" s="11">
+        <v>0.59025005253204454</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2649,31 +2655,31 @@
         <v>287</v>
       </c>
       <c r="E51">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F51">
-        <v>1131</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.25375773651635719</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.74624226348364275</v>
+        <v>1134</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0.25308641975308643</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0.74691358024691357</v>
       </c>
       <c r="K51">
         <v>28406</v>
       </c>
       <c r="L51">
-        <v>62832</v>
+        <v>62859</v>
       </c>
       <c r="M51">
-        <v>91238</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.31133957342335428</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.68866042657664572</v>
+        <v>91265</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0.31124746616994464</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0.6887525338300553</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2681,34 +2687,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1719</v>
+        <v>1781</v>
       </c>
       <c r="E52">
-        <v>2154</v>
+        <v>2092</v>
       </c>
       <c r="F52">
         <v>3873</v>
       </c>
-      <c r="H52" s="1">
-        <v>0.44384198295894656</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.5561580170410535</v>
+      <c r="H52" s="11">
+        <v>0.45985024528789054</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.54014975471210946</v>
       </c>
       <c r="K52">
-        <v>177409</v>
+        <v>183771</v>
       </c>
       <c r="L52">
-        <v>171141</v>
+        <v>164779</v>
       </c>
       <c r="M52">
         <v>348550</v>
       </c>
-      <c r="O52" s="1">
-        <v>0.50899153636494043</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0.49100846363505951</v>
+      <c r="O52" s="11">
+        <v>0.527244297805193</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0.47275570219480706</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2718,37 +2724,37 @@
       <c r="B53" s="12"/>
       <c r="C53" s="15"/>
       <c r="D53" s="12">
-        <v>13048</v>
+        <v>13566</v>
       </c>
       <c r="E53" s="12">
-        <v>34069</v>
+        <v>33551</v>
       </c>
       <c r="F53" s="12">
         <v>47117</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="13">
-        <v>0.27692764819491905</v>
+        <v>0.2879215569751894</v>
       </c>
       <c r="I53" s="13">
-        <v>0.723072351805081</v>
-      </c>
-      <c r="J53" s="12"/>
+        <v>0.7120784430248106</v>
+      </c>
+      <c r="J53" s="15"/>
       <c r="K53" s="12">
-        <v>1293023</v>
+        <v>1342597</v>
       </c>
       <c r="L53" s="12">
-        <v>2447965</v>
+        <v>2398391</v>
       </c>
       <c r="M53" s="12">
         <v>3740988</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="13">
-        <v>0.34563676761326151</v>
+        <v>0.35888834714251955</v>
       </c>
       <c r="P53" s="13">
-        <v>0.65436323238673844</v>
+        <v>0.6411116528574804</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -2767,10 +2773,10 @@
       <c r="F54">
         <v>285</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="11">
         <v>0.53333333333333333</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="11">
         <v>0.46666666666666667</v>
       </c>
       <c r="K54">
@@ -2782,10 +2788,10 @@
       <c r="M54">
         <v>22926</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="11">
         <v>0.65336299398063336</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="11">
         <v>0.34663700601936664</v>
       </c>
     </row>
@@ -2802,10 +2808,10 @@
       <c r="F55">
         <v>82</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="11">
         <v>0.36585365853658536</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="11">
         <v>0.63414634146341464</v>
       </c>
       <c r="K55">
@@ -2817,10 +2823,10 @@
       <c r="M55">
         <v>7030</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="11">
         <v>0.39487908961593171</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="11">
         <v>0.60512091038406823</v>
       </c>
     </row>
@@ -2837,10 +2843,10 @@
       <c r="F56">
         <v>242</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="11">
         <v>0.18595041322314049</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="11">
         <v>0.81404958677685946</v>
       </c>
       <c r="K56">
@@ -2852,10 +2858,10 @@
       <c r="M56">
         <v>18986</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="11">
         <v>0.24354787738333508</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="11">
         <v>0.75645212261666495</v>
       </c>
     </row>
@@ -2872,10 +2878,10 @@
       <c r="F57">
         <v>68</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="11">
         <v>0.5</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="11">
         <v>0.5</v>
       </c>
       <c r="K57">
@@ -2887,10 +2893,10 @@
       <c r="M57">
         <v>5417</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="11">
         <v>0.55861177773675463</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="11">
         <v>0.44138822226324531</v>
       </c>
     </row>
@@ -2907,10 +2913,10 @@
       <c r="F58">
         <v>163</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="11">
         <v>0.40490797546012269</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="11">
         <v>0.59509202453987731</v>
       </c>
       <c r="K58">
@@ -2922,10 +2928,10 @@
       <c r="M58">
         <v>13710</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="11">
         <v>0.4524434719183078</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="11">
         <v>0.5475565280816922</v>
       </c>
     </row>
@@ -2934,34 +2940,34 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E59">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <v>104</v>
       </c>
-      <c r="H59" s="1">
-        <v>0.29807692307692307</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.70192307692307687</v>
+      <c r="H59" s="11">
+        <v>0.35576923076923078</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.64423076923076927</v>
       </c>
       <c r="K59">
-        <v>3235</v>
+        <v>3727</v>
       </c>
       <c r="L59">
-        <v>4375</v>
+        <v>3883</v>
       </c>
       <c r="M59">
         <v>7610</v>
       </c>
-      <c r="O59" s="1">
-        <v>0.42509855453350853</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0.57490144546649147</v>
+      <c r="O59" s="11">
+        <v>0.48975032851511169</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0.51024967148488831</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2971,37 +2977,37 @@
       <c r="B60" s="12"/>
       <c r="C60" s="15"/>
       <c r="D60" s="12">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E60" s="12">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F60" s="12">
         <v>944</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="13">
-        <v>0.37923728813559321</v>
+        <v>0.38559322033898308</v>
       </c>
       <c r="I60" s="13">
-        <v>0.62076271186440679</v>
-      </c>
-      <c r="J60" s="12"/>
+        <v>0.61440677966101698</v>
+      </c>
+      <c r="J60" s="15"/>
       <c r="K60" s="12">
-        <v>34843</v>
+        <v>35335</v>
       </c>
       <c r="L60" s="12">
-        <v>40836</v>
+        <v>40344</v>
       </c>
       <c r="M60" s="12">
         <v>75679</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="13">
-        <v>0.46040513220312107</v>
+        <v>0.46690627518862565</v>
       </c>
       <c r="P60" s="13">
-        <v>0.53959486779687893</v>
+        <v>0.5330937248113744</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3020,10 +3026,10 @@
       <c r="F61">
         <v>37</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="11">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="11">
         <v>0.54054054054054057</v>
       </c>
       <c r="K61">
@@ -3035,10 +3041,10 @@
       <c r="M61">
         <v>3033</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="11">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61" s="11">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3055,10 +3061,10 @@
       <c r="F62">
         <v>59</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="11">
         <v>8.4745762711864403E-2</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="11">
         <v>0.9152542372881356</v>
       </c>
       <c r="K62">
@@ -3070,10 +3076,10 @@
       <c r="M62">
         <v>4163</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="11">
         <v>0.12563055488830172</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="11">
         <v>0.87436944511169834</v>
       </c>
     </row>
@@ -3090,10 +3096,10 @@
       <c r="F63">
         <v>88</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="11">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="11">
         <v>0.69318181818181823</v>
       </c>
       <c r="K63">
@@ -3105,10 +3111,10 @@
       <c r="M63">
         <v>6243</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="11">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="11">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3125,10 +3131,10 @@
       <c r="F64">
         <v>220</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="11">
         <v>0.1409090909090909</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="11">
         <v>0.85909090909090913</v>
       </c>
       <c r="K64">
@@ -3140,10 +3146,10 @@
       <c r="M64">
         <v>15438</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="11">
         <v>0.18506283197305351</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="11">
         <v>0.81493716802694649</v>
       </c>
     </row>
@@ -3160,10 +3166,10 @@
       <c r="F65">
         <v>115</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="11">
         <v>0.31304347826086959</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="11">
         <v>0.68695652173913047</v>
       </c>
       <c r="K65">
@@ -3175,10 +3181,10 @@
       <c r="M65">
         <v>7768</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="11">
         <v>0.37602986611740474</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="11">
         <v>0.62397013388259526</v>
       </c>
     </row>
@@ -3195,10 +3201,10 @@
       <c r="F66">
         <v>271</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="11">
         <v>0.2767527675276753</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="11">
         <v>0.7232472324723247</v>
       </c>
       <c r="K66">
@@ -3210,10 +3216,10 @@
       <c r="M66">
         <v>19720</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="11">
         <v>0.35841784989858011</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="11">
         <v>0.64158215010141983</v>
       </c>
     </row>
@@ -3230,10 +3236,10 @@
       <c r="F67">
         <v>100</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="11">
         <v>0.38</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="11">
         <v>0.62</v>
       </c>
       <c r="K67">
@@ -3245,10 +3251,10 @@
       <c r="M67">
         <v>7632</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="11">
         <v>0.46488469601677151</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="11">
         <v>0.53511530398322849</v>
       </c>
     </row>
@@ -3265,10 +3271,10 @@
       <c r="F68">
         <v>119</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="11">
         <v>0.36974789915966388</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="11">
         <v>0.63025210084033612</v>
       </c>
       <c r="K68">
@@ -3280,10 +3286,10 @@
       <c r="M68">
         <v>8660</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="11">
         <v>0.45103926096997693</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="11">
         <v>0.54896073903002307</v>
       </c>
     </row>
@@ -3300,10 +3306,10 @@
       <c r="F69">
         <v>46</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="11">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="11">
         <v>0.86956521739130432</v>
       </c>
       <c r="K69">
@@ -3315,10 +3321,10 @@
       <c r="M69">
         <v>2926</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="11">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="11">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3335,10 +3341,10 @@
       <c r="F70">
         <v>78</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="11">
         <v>0.35897435897435898</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="11">
         <v>0.64102564102564108</v>
       </c>
       <c r="K70">
@@ -3350,10 +3356,10 @@
       <c r="M70">
         <v>5888</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="11">
         <v>0.42900815217391303</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="11">
         <v>0.57099184782608692</v>
       </c>
     </row>
@@ -3370,10 +3376,10 @@
       <c r="F71">
         <v>66</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="11">
         <v>0.46969696969696972</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="11">
         <v>0.53030303030303028</v>
       </c>
       <c r="K71">
@@ -3385,10 +3391,10 @@
       <c r="M71">
         <v>5681</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="11">
         <v>0.52033092765358213</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71" s="11">
         <v>0.47966907234641787</v>
       </c>
     </row>
@@ -3402,10 +3408,10 @@
       <c r="F72">
         <v>31</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="11">
         <v>0</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="11">
         <v>1</v>
       </c>
       <c r="L72">
@@ -3414,10 +3420,10 @@
       <c r="M72">
         <v>2447</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="11">
         <v>0</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3431,10 +3437,10 @@
       <c r="F73">
         <v>79</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="11">
         <v>0</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="11">
         <v>1</v>
       </c>
       <c r="L73">
@@ -3443,10 +3449,10 @@
       <c r="M73">
         <v>5888</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="11">
         <v>0</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3460,10 +3466,10 @@
       <c r="F74">
         <v>33</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="11">
         <v>0</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="11">
         <v>1</v>
       </c>
       <c r="L74">
@@ -3472,10 +3478,10 @@
       <c r="M74">
         <v>2443</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="11">
         <v>0</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3492,10 +3498,10 @@
       <c r="F75">
         <v>52</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="11">
         <v>0.32692307692307693</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="11">
         <v>0.67307692307692313</v>
       </c>
       <c r="K75">
@@ -3507,10 +3513,10 @@
       <c r="M75">
         <v>4042</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="11">
         <v>0.45546759030183076</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="11">
         <v>0.54453240969816918</v>
       </c>
     </row>
@@ -3527,10 +3533,10 @@
       <c r="F76">
         <v>93</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="11">
         <v>0.23655913978494625</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="11">
         <v>0.76344086021505375</v>
       </c>
       <c r="K76">
@@ -3542,10 +3548,10 @@
       <c r="M76">
         <v>6684</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="11">
         <v>0.26331538001196886</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="11">
         <v>0.73668461998803114</v>
       </c>
     </row>
@@ -3562,10 +3568,10 @@
       <c r="F77">
         <v>65</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="11">
         <v>0.15384615384615385</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="11">
         <v>0.84615384615384615</v>
       </c>
       <c r="K77">
@@ -3577,10 +3583,10 @@
       <c r="M77">
         <v>5234</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="11">
         <v>0.22009935040122278</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="11">
         <v>0.77990064959877725</v>
       </c>
     </row>
@@ -3594,10 +3600,10 @@
       <c r="F78">
         <v>14</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="11">
         <v>0</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="11">
         <v>1</v>
       </c>
       <c r="L78">
@@ -3606,10 +3612,10 @@
       <c r="M78">
         <v>1080</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="11">
         <v>0</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3626,10 +3632,10 @@
       <c r="F79">
         <v>37</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="11">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="11">
         <v>0.72972972972972971</v>
       </c>
       <c r="K79">
@@ -3641,10 +3647,10 @@
       <c r="M79">
         <v>2475</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="11">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79" s="11">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3658,10 +3664,10 @@
       <c r="F80">
         <v>31</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="11">
         <v>0</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="11">
         <v>1</v>
       </c>
       <c r="L80">
@@ -3670,10 +3676,10 @@
       <c r="M80">
         <v>1846</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="11">
         <v>0</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3690,10 +3696,10 @@
       <c r="F81">
         <v>39</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="11">
         <v>0.4358974358974359</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="11">
         <v>0.5641025641025641</v>
       </c>
       <c r="K81">
@@ -3705,10 +3711,10 @@
       <c r="M81">
         <v>3281</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="11">
         <v>0.55135629381286189</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="11">
         <v>0.44864370618713806</v>
       </c>
     </row>
@@ -3725,10 +3731,10 @@
       <c r="F82">
         <v>130</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="11">
         <v>0.1076923076923077</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="11">
         <v>0.89230769230769236</v>
       </c>
       <c r="K82">
@@ -3740,10 +3746,10 @@
       <c r="M82">
         <v>9172</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82" s="11">
         <v>0.16146969036197123</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82" s="11">
         <v>0.83853030963802877</v>
       </c>
     </row>
@@ -3760,10 +3766,10 @@
       <c r="F83">
         <v>106</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="11">
         <v>0.39622641509433965</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="11">
         <v>0.60377358490566035</v>
       </c>
       <c r="K83">
@@ -3775,10 +3781,10 @@
       <c r="M83">
         <v>8309</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="11">
         <v>0.45685401372006257</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="11">
         <v>0.54314598627993738</v>
       </c>
     </row>
@@ -3795,10 +3801,10 @@
       <c r="F84">
         <v>50</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="11">
         <v>0.36</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="11">
         <v>0.64</v>
       </c>
       <c r="K84">
@@ -3810,10 +3816,10 @@
       <c r="M84">
         <v>4660</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="11">
         <v>0.4487124463519313</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="11">
         <v>0.5512875536480687</v>
       </c>
     </row>
@@ -3830,10 +3836,10 @@
       <c r="F85">
         <v>76</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="11">
         <v>0.10526315789473684</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="11">
         <v>0.89473684210526316</v>
       </c>
       <c r="K85">
@@ -3845,10 +3851,10 @@
       <c r="M85">
         <v>6435</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="11">
         <v>0.14219114219114218</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="11">
         <v>0.85780885780885785</v>
       </c>
     </row>
@@ -3865,10 +3871,10 @@
       <c r="F86">
         <v>113</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="11">
         <v>0.23008849557522124</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="11">
         <v>0.76991150442477874</v>
       </c>
       <c r="K86">
@@ -3880,10 +3886,10 @@
       <c r="M86">
         <v>8329</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="11">
         <v>0.26173610277344217</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="11">
         <v>0.73826389722655783</v>
       </c>
     </row>
@@ -3909,7 +3915,7 @@
       <c r="I87" s="13">
         <v>0.75698324022346364</v>
       </c>
-      <c r="J87" s="12"/>
+      <c r="J87" s="15"/>
       <c r="K87" s="12">
         <v>49274</v>
       </c>
@@ -3935,34 +3941,34 @@
         <v>94</v>
       </c>
       <c r="D88">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E88">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F88">
         <v>155</v>
       </c>
-      <c r="H88" s="1">
-        <v>0.34838709677419355</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0.65161290322580645</v>
+      <c r="H88" s="11">
+        <v>0.37419354838709679</v>
+      </c>
+      <c r="I88" s="11">
+        <v>0.62580645161290327</v>
       </c>
       <c r="K88">
-        <v>5682</v>
+        <v>5990</v>
       </c>
       <c r="L88">
-        <v>6794</v>
+        <v>6486</v>
       </c>
       <c r="M88">
         <v>12476</v>
       </c>
-      <c r="O88" s="1">
-        <v>0.45543443411349793</v>
-      </c>
-      <c r="P88" s="1">
-        <v>0.54456556588650207</v>
+      <c r="O88" s="11">
+        <v>0.48012183392112856</v>
+      </c>
+      <c r="P88" s="11">
+        <v>0.51987816607887138</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3972,37 +3978,37 @@
       <c r="B89" s="12"/>
       <c r="C89" s="15"/>
       <c r="D89" s="12">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E89" s="12">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F89" s="12">
         <v>155</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="13">
-        <v>0.34838709677419355</v>
+        <v>0.37419354838709679</v>
       </c>
       <c r="I89" s="13">
-        <v>0.65161290322580645</v>
-      </c>
-      <c r="J89" s="12"/>
+        <v>0.62580645161290327</v>
+      </c>
+      <c r="J89" s="15"/>
       <c r="K89" s="12">
-        <v>5682</v>
+        <v>5990</v>
       </c>
       <c r="L89" s="12">
-        <v>6794</v>
+        <v>6486</v>
       </c>
       <c r="M89" s="12">
         <v>12476</v>
       </c>
       <c r="N89" s="12"/>
       <c r="O89" s="13">
-        <v>0.45543443411349793</v>
+        <v>0.48012183392112856</v>
       </c>
       <c r="P89" s="13">
-        <v>0.54456556588650207</v>
+        <v>0.51987816607887138</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -4013,34 +4019,34 @@
         <v>97</v>
       </c>
       <c r="D90">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E90">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F90">
         <v>481</v>
       </c>
-      <c r="H90" s="1">
-        <v>0.33471933471933474</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0.66528066528066532</v>
+      <c r="H90" s="11">
+        <v>0.34719334719334721</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0.65280665280665284</v>
       </c>
       <c r="K90">
-        <v>15862</v>
+        <v>16233</v>
       </c>
       <c r="L90">
-        <v>22812</v>
+        <v>22441</v>
       </c>
       <c r="M90">
         <v>38674</v>
       </c>
-      <c r="O90" s="1">
-        <v>0.41014635155401563</v>
-      </c>
-      <c r="P90" s="1">
-        <v>0.58985364844598442</v>
+      <c r="O90" s="11">
+        <v>0.4197393597765941</v>
+      </c>
+      <c r="P90" s="11">
+        <v>0.58026064022340595</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4056,10 +4062,10 @@
       <c r="F91">
         <v>460</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="11">
         <v>0.42608695652173911</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="11">
         <v>0.57391304347826089</v>
       </c>
       <c r="K91">
@@ -4071,10 +4077,10 @@
       <c r="M91">
         <v>40489</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O91" s="11">
         <v>0.49559139519375633</v>
       </c>
-      <c r="P91" s="1">
+      <c r="P91" s="11">
         <v>0.50440860480624372</v>
       </c>
     </row>
@@ -4083,34 +4089,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E92">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F92">
         <v>904</v>
       </c>
-      <c r="H92" s="1">
-        <v>0.40929203539823011</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0.59070796460176989</v>
+      <c r="H92" s="11">
+        <v>0.41371681415929201</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0.58628318584070793</v>
       </c>
       <c r="K92">
-        <v>37876</v>
+        <v>38306</v>
       </c>
       <c r="L92">
-        <v>37650</v>
+        <v>37220</v>
       </c>
       <c r="M92">
         <v>75526</v>
       </c>
-      <c r="O92" s="1">
-        <v>0.50149617350316444</v>
-      </c>
-      <c r="P92" s="1">
-        <v>0.4985038264968355</v>
+      <c r="O92" s="11">
+        <v>0.50718957709927703</v>
+      </c>
+      <c r="P92" s="11">
+        <v>0.49281042290072291</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4118,34 +4124,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E93">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F93">
         <v>669</v>
       </c>
-      <c r="H93" s="1">
-        <v>0.273542600896861</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0.726457399103139</v>
+      <c r="H93" s="11">
+        <v>0.28400597907324365</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0.71599402092675635</v>
       </c>
       <c r="K93">
-        <v>18604</v>
+        <v>19360</v>
       </c>
       <c r="L93">
-        <v>39063</v>
+        <v>38307</v>
       </c>
       <c r="M93">
         <v>57667</v>
       </c>
-      <c r="O93" s="1">
-        <v>0.3226108519603933</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0.6773891480396067</v>
+      <c r="O93" s="11">
+        <v>0.33572060277108223</v>
+      </c>
+      <c r="P93" s="11">
+        <v>0.66427939722891771</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4153,34 +4159,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E94">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F94">
         <v>99</v>
       </c>
-      <c r="H94" s="1">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0.78787878787878785</v>
+      <c r="H94" s="11">
+        <v>0.50505050505050508</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0.49494949494949497</v>
       </c>
       <c r="K94">
-        <v>2454</v>
+        <v>5088</v>
       </c>
       <c r="L94">
-        <v>5921</v>
+        <v>3287</v>
       </c>
       <c r="M94">
         <v>8375</v>
       </c>
-      <c r="O94" s="1">
-        <v>0.29301492537313434</v>
-      </c>
-      <c r="P94" s="1">
-        <v>0.70698507462686566</v>
+      <c r="O94" s="11">
+        <v>0.60752238805970149</v>
+      </c>
+      <c r="P94" s="11">
+        <v>0.39247761194029851</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4188,34 +4194,34 @@
         <v>102</v>
       </c>
       <c r="D95">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E95">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F95">
         <v>148</v>
       </c>
-      <c r="H95" s="1">
-        <v>0.42567567567567566</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0.57432432432432434</v>
+      <c r="H95" s="11">
+        <v>0.46621621621621623</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0.53378378378378377</v>
       </c>
       <c r="K95">
-        <v>6395</v>
+        <v>7061</v>
       </c>
       <c r="L95">
-        <v>5654</v>
+        <v>4988</v>
       </c>
       <c r="M95">
         <v>12049</v>
       </c>
-      <c r="O95" s="1">
-        <v>0.53074943978753419</v>
-      </c>
-      <c r="P95" s="1">
-        <v>0.46925056021246575</v>
+      <c r="O95" s="11">
+        <v>0.58602373640966055</v>
+      </c>
+      <c r="P95" s="11">
+        <v>0.41397626359033945</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -4231,10 +4237,10 @@
       <c r="F96">
         <v>97</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="11">
         <v>0.30927835051546393</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="11">
         <v>0.69072164948453607</v>
       </c>
       <c r="K96">
@@ -4246,10 +4252,10 @@
       <c r="M96">
         <v>8171</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="11">
         <v>0.37669807857055437</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P96" s="11">
         <v>0.62330192142944563</v>
       </c>
     </row>
@@ -4258,34 +4264,34 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E97">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F97">
         <v>117</v>
       </c>
-      <c r="H97" s="1">
-        <v>0.62393162393162394</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0.37606837606837606</v>
+      <c r="H97" s="11">
+        <v>0.68376068376068377</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0.31623931623931623</v>
       </c>
       <c r="K97">
-        <v>7734</v>
+        <v>8334</v>
       </c>
       <c r="L97">
-        <v>2794</v>
+        <v>2194</v>
       </c>
       <c r="M97">
         <v>10528</v>
       </c>
-      <c r="O97" s="1">
-        <v>0.73461246200607899</v>
-      </c>
-      <c r="P97" s="1">
-        <v>0.26538753799392095</v>
+      <c r="O97" s="11">
+        <v>0.79160334346504557</v>
+      </c>
+      <c r="P97" s="11">
+        <v>0.2083966565349544</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -4301,10 +4307,10 @@
       <c r="F98">
         <v>70</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="11">
         <v>0.3</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="11">
         <v>0.7</v>
       </c>
       <c r="K98">
@@ -4316,10 +4322,10 @@
       <c r="M98">
         <v>6020</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="11">
         <v>0.35299003322259137</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P98" s="11">
         <v>0.64700996677740863</v>
       </c>
     </row>
@@ -4328,34 +4334,34 @@
         <v>106</v>
       </c>
       <c r="D99">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E99">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="F99">
         <v>364</v>
       </c>
-      <c r="H99" s="1">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0.6428571428571429</v>
+      <c r="H99" s="11">
+        <v>0.48901098901098899</v>
+      </c>
+      <c r="I99" s="11">
+        <v>0.51098901098901095</v>
       </c>
       <c r="K99">
-        <v>11760</v>
+        <v>15754</v>
       </c>
       <c r="L99">
-        <v>14955</v>
+        <v>10961</v>
       </c>
       <c r="M99">
         <v>26715</v>
       </c>
-      <c r="O99" s="1">
-        <v>0.44020213363279059</v>
-      </c>
-      <c r="P99" s="1">
-        <v>0.55979786636720941</v>
+      <c r="O99" s="11">
+        <v>0.58970615758936928</v>
+      </c>
+      <c r="P99" s="11">
+        <v>0.41029384241063072</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -4363,34 +4369,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E100">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F100">
         <v>244</v>
       </c>
-      <c r="H100" s="1">
-        <v>0.22540983606557377</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0.77459016393442626</v>
+      <c r="H100" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0.75</v>
       </c>
       <c r="K100">
-        <v>5247</v>
+        <v>5739</v>
       </c>
       <c r="L100">
-        <v>14110</v>
+        <v>13618</v>
       </c>
       <c r="M100">
         <v>19357</v>
       </c>
-      <c r="O100" s="1">
-        <v>0.2710647311050266</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0.7289352688949734</v>
+      <c r="O100" s="11">
+        <v>0.2964818928552978</v>
+      </c>
+      <c r="P100" s="11">
+        <v>0.7035181071447022</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4406,10 +4412,10 @@
       <c r="F101">
         <v>175</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="11">
         <v>0.38857142857142857</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="11">
         <v>0.61142857142857143</v>
       </c>
       <c r="K101">
@@ -4421,10 +4427,10 @@
       <c r="M101">
         <v>13756</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O101" s="11">
         <v>0.46227100901424834</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P101" s="11">
         <v>0.53772899098575166</v>
       </c>
     </row>
@@ -4433,34 +4439,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E102">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F102">
         <v>381</v>
       </c>
-      <c r="H102" s="1">
-        <v>0.34120734908136485</v>
-      </c>
-      <c r="I102" s="1">
-        <v>0.65879265091863515</v>
+      <c r="H102" s="11">
+        <v>0.38057742782152232</v>
+      </c>
+      <c r="I102" s="11">
+        <v>0.61942257217847774</v>
       </c>
       <c r="K102">
-        <v>13774</v>
+        <v>15497</v>
       </c>
       <c r="L102">
-        <v>20070</v>
+        <v>18347</v>
       </c>
       <c r="M102">
         <v>33844</v>
       </c>
-      <c r="O102" s="1">
-        <v>0.40698498995390614</v>
-      </c>
-      <c r="P102" s="1">
-        <v>0.5930150100460938</v>
+      <c r="O102" s="11">
+        <v>0.45789504786668245</v>
+      </c>
+      <c r="P102" s="11">
+        <v>0.54210495213331755</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4468,34 +4474,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E103">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="F103">
         <v>892</v>
       </c>
-      <c r="H103" s="1">
-        <v>0.32623318385650224</v>
-      </c>
-      <c r="I103" s="1">
-        <v>0.67376681614349776</v>
+      <c r="H103" s="11">
+        <v>0.3452914798206278</v>
+      </c>
+      <c r="I103" s="11">
+        <v>0.6547085201793722</v>
       </c>
       <c r="K103">
-        <v>27906</v>
+        <v>29001</v>
       </c>
       <c r="L103">
-        <v>41378</v>
+        <v>40283</v>
       </c>
       <c r="M103">
         <v>69284</v>
       </c>
-      <c r="O103" s="1">
-        <v>0.40277697592517753</v>
-      </c>
-      <c r="P103" s="1">
-        <v>0.59722302407482242</v>
+      <c r="O103" s="11">
+        <v>0.41858149067605799</v>
+      </c>
+      <c r="P103" s="11">
+        <v>0.58141850932394201</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4503,34 +4509,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E104">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F104">
         <v>145</v>
       </c>
-      <c r="H104" s="1">
-        <v>0.50344827586206897</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0.49655172413793103</v>
+      <c r="H104" s="11">
+        <v>0.57241379310344831</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0.42758620689655175</v>
       </c>
       <c r="K104">
-        <v>7472</v>
+        <v>8421</v>
       </c>
       <c r="L104">
-        <v>5133</v>
+        <v>4184</v>
       </c>
       <c r="M104">
         <v>12605</v>
       </c>
-      <c r="O104" s="1">
-        <v>0.59278064260214203</v>
-      </c>
-      <c r="P104" s="1">
-        <v>0.40721935739785797</v>
+      <c r="O104" s="11">
+        <v>0.66806822689408962</v>
+      </c>
+      <c r="P104" s="11">
+        <v>0.33193177310591038</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4538,34 +4544,34 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E105">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F105">
         <v>48</v>
       </c>
-      <c r="H105" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="I105" s="1">
-        <v>0.70833333333333337</v>
+      <c r="H105" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I105" s="11">
+        <v>0.52083333333333337</v>
       </c>
       <c r="K105">
-        <v>1601</v>
+        <v>2321</v>
       </c>
       <c r="L105">
-        <v>2968</v>
+        <v>2248</v>
       </c>
       <c r="M105">
         <v>4569</v>
       </c>
-      <c r="O105" s="1">
-        <v>0.35040490260450863</v>
-      </c>
-      <c r="P105" s="1">
-        <v>0.64959509739549137</v>
+      <c r="O105" s="11">
+        <v>0.50798861895381919</v>
+      </c>
+      <c r="P105" s="11">
+        <v>0.49201138104618081</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -4573,34 +4579,34 @@
         <v>113</v>
       </c>
       <c r="D106">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E106">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F106">
         <v>297</v>
       </c>
-      <c r="H106" s="1">
-        <v>0.29292929292929293</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0.70707070707070707</v>
+      <c r="H106" s="11">
+        <v>0.31313131313131315</v>
+      </c>
+      <c r="I106" s="11">
+        <v>0.68686868686868685</v>
       </c>
       <c r="K106">
-        <v>7960</v>
+        <v>8253</v>
       </c>
       <c r="L106">
-        <v>16140</v>
+        <v>15847</v>
       </c>
       <c r="M106">
         <v>24100</v>
       </c>
-      <c r="O106" s="1">
-        <v>0.33029045643153526</v>
-      </c>
-      <c r="P106" s="1">
-        <v>0.66970954356846468</v>
+      <c r="O106" s="11">
+        <v>0.34244813278008301</v>
+      </c>
+      <c r="P106" s="11">
+        <v>0.65755186721991699</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
@@ -4616,10 +4622,10 @@
       <c r="F107">
         <v>537</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="11">
         <v>0.40409683426443205</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="11">
         <v>0.59590316573556801</v>
       </c>
       <c r="K107">
@@ -4631,10 +4637,10 @@
       <c r="M107">
         <v>46424</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107" s="11">
         <v>0.4689384800965018</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P107" s="11">
         <v>0.53106151990349815</v>
       </c>
     </row>
@@ -4651,10 +4657,10 @@
       <c r="F108">
         <v>529</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="11">
         <v>0.52173913043478259</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="11">
         <v>0.47826086956521741</v>
       </c>
       <c r="K108">
@@ -4666,10 +4672,10 @@
       <c r="M108">
         <v>46501</v>
       </c>
-      <c r="O108" s="1">
+      <c r="O108" s="11">
         <v>0.61426635986322875</v>
       </c>
-      <c r="P108" s="1">
+      <c r="P108" s="11">
         <v>0.38573364013677125</v>
       </c>
     </row>
@@ -4686,10 +4692,10 @@
       <c r="F109">
         <v>171</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="11">
         <v>0.25146198830409355</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="11">
         <v>0.74853801169590639</v>
       </c>
       <c r="K109">
@@ -4701,10 +4707,10 @@
       <c r="M109">
         <v>13485</v>
       </c>
-      <c r="O109" s="1">
+      <c r="O109" s="11">
         <v>0.31523915461624025</v>
       </c>
-      <c r="P109" s="1">
+      <c r="P109" s="11">
         <v>0.6847608453837597</v>
       </c>
     </row>
@@ -4721,10 +4727,10 @@
       <c r="F110">
         <v>69</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="11">
         <v>0.42028985507246375</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="11">
         <v>0.57971014492753625</v>
       </c>
       <c r="K110">
@@ -4736,10 +4742,10 @@
       <c r="M110">
         <v>6367</v>
       </c>
-      <c r="O110" s="1">
+      <c r="O110" s="11">
         <v>0.48264488770221453</v>
       </c>
-      <c r="P110" s="1">
+      <c r="P110" s="11">
         <v>0.51735511229778541</v>
       </c>
     </row>
@@ -4756,10 +4762,10 @@
       <c r="F111">
         <v>160</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="11">
         <v>0.85624999999999996</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="11">
         <v>0.14374999999999999</v>
       </c>
       <c r="K111">
@@ -4771,10 +4777,10 @@
       <c r="M111">
         <v>16149</v>
       </c>
-      <c r="O111" s="1">
+      <c r="O111" s="11">
         <v>0.92600161000681158</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P111" s="11">
         <v>7.3998389993188432E-2</v>
       </c>
     </row>
@@ -4783,34 +4789,34 @@
         <v>119</v>
       </c>
       <c r="D112">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E112">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112">
         <v>209</v>
       </c>
-      <c r="H112" s="1">
-        <v>0.3923444976076555</v>
-      </c>
-      <c r="I112" s="1">
-        <v>0.60765550239234445</v>
+      <c r="H112" s="11">
+        <v>0.39712918660287083</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0.60287081339712922</v>
       </c>
       <c r="K112">
-        <v>8703</v>
+        <v>8715</v>
       </c>
       <c r="L112">
-        <v>8471</v>
+        <v>8459</v>
       </c>
       <c r="M112">
         <v>17174</v>
       </c>
-      <c r="O112" s="1">
-        <v>0.50675439618027251</v>
-      </c>
-      <c r="P112" s="1">
-        <v>0.49324560381972749</v>
+      <c r="O112" s="11">
+        <v>0.50745312681961108</v>
+      </c>
+      <c r="P112" s="11">
+        <v>0.49254687318038898</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4826,10 +4832,10 @@
       <c r="F113">
         <v>961</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="11">
         <v>0.31633714880332986</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="11">
         <v>0.68366285119667014</v>
       </c>
       <c r="K113">
@@ -4841,10 +4847,10 @@
       <c r="M113">
         <v>75474</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113" s="11">
         <v>0.3968651456130588</v>
       </c>
-      <c r="P113" s="1">
+      <c r="P113" s="11">
         <v>0.60313485438694114</v>
       </c>
     </row>
@@ -4853,34 +4859,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="E114">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F114">
         <v>432</v>
       </c>
-      <c r="H114" s="1">
-        <v>0.53009259259259256</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0.46990740740740738</v>
+      <c r="H114" s="11">
+        <v>0.58796296296296291</v>
+      </c>
+      <c r="I114" s="11">
+        <v>0.41203703703703703</v>
       </c>
       <c r="K114">
-        <v>25318</v>
+        <v>27391</v>
       </c>
       <c r="L114">
-        <v>16601</v>
+        <v>14528</v>
       </c>
       <c r="M114">
         <v>41919</v>
       </c>
-      <c r="O114" s="1">
-        <v>0.60397433144874635</v>
-      </c>
-      <c r="P114" s="1">
-        <v>0.3960256685512536</v>
+      <c r="O114" s="11">
+        <v>0.65342684701448028</v>
+      </c>
+      <c r="P114" s="11">
+        <v>0.34657315298551972</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4896,10 +4902,10 @@
       <c r="F115">
         <v>496</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="11">
         <v>0.36491935483870969</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="11">
         <v>0.63508064516129037</v>
       </c>
       <c r="K115">
@@ -4911,10 +4917,10 @@
       <c r="M115">
         <v>36193</v>
       </c>
-      <c r="O115" s="1">
+      <c r="O115" s="11">
         <v>0.468488381731274</v>
       </c>
-      <c r="P115" s="1">
+      <c r="P115" s="11">
         <v>0.53151161826872595</v>
       </c>
     </row>
@@ -4923,34 +4929,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E116">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F116">
         <v>223</v>
       </c>
-      <c r="H116" s="1">
-        <v>0.3273542600896861</v>
-      </c>
-      <c r="I116" s="1">
-        <v>0.67264573991031396</v>
+      <c r="H116" s="11">
+        <v>0.37219730941704038</v>
+      </c>
+      <c r="I116" s="11">
+        <v>0.62780269058295968</v>
       </c>
       <c r="K116">
-        <v>7222</v>
+        <v>8187</v>
       </c>
       <c r="L116">
-        <v>10512</v>
+        <v>9547</v>
       </c>
       <c r="M116">
         <v>17734</v>
       </c>
-      <c r="O116" s="1">
-        <v>0.40724032931092818</v>
-      </c>
-      <c r="P116" s="1">
-        <v>0.59275967068907187</v>
+      <c r="O116" s="11">
+        <v>0.46165557685801284</v>
+      </c>
+      <c r="P116" s="11">
+        <v>0.53834442314198716</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4958,34 +4964,34 @@
         <v>124</v>
       </c>
       <c r="D117">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E117">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F117">
         <v>85</v>
       </c>
-      <c r="H117" s="1">
-        <v>0.37647058823529411</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0.62352941176470589</v>
+      <c r="H117" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I117" s="11">
+        <v>0.4</v>
       </c>
       <c r="K117">
-        <v>3332</v>
+        <v>5154</v>
       </c>
       <c r="L117">
-        <v>3797</v>
+        <v>1975</v>
       </c>
       <c r="M117">
         <v>7129</v>
       </c>
-      <c r="O117" s="1">
-        <v>0.46738673025669797</v>
-      </c>
-      <c r="P117" s="1">
-        <v>0.53261326974330203</v>
+      <c r="O117" s="11">
+        <v>0.72296254734184318</v>
+      </c>
+      <c r="P117" s="11">
+        <v>0.27703745265815682</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -5001,10 +5007,10 @@
       <c r="F118">
         <v>87</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="11">
         <v>0.68965517241379315</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="11">
         <v>0.31034482758620691</v>
       </c>
       <c r="K118">
@@ -5016,10 +5022,10 @@
       <c r="M118">
         <v>7737</v>
       </c>
-      <c r="O118" s="1">
+      <c r="O118" s="11">
         <v>0.75003231226573608</v>
       </c>
-      <c r="P118" s="1">
+      <c r="P118" s="11">
         <v>0.24996768773426392</v>
       </c>
     </row>
@@ -5036,10 +5042,10 @@
       <c r="F119">
         <v>396</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="11">
         <v>0.39393939393939392</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="11">
         <v>0.60606060606060608</v>
       </c>
       <c r="K119">
@@ -5051,10 +5057,10 @@
       <c r="M119">
         <v>34997</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119" s="11">
         <v>0.45943938051833016</v>
       </c>
-      <c r="P119" s="1">
+      <c r="P119" s="11">
         <v>0.54056061948166989</v>
       </c>
     </row>
@@ -5071,10 +5077,10 @@
       <c r="F120">
         <v>212</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="11">
         <v>0.35377358490566035</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="11">
         <v>0.64622641509433965</v>
       </c>
       <c r="K120">
@@ -5086,10 +5092,10 @@
       <c r="M120">
         <v>15246</v>
       </c>
-      <c r="O120" s="1">
+      <c r="O120" s="11">
         <v>0.44339498884953432</v>
       </c>
-      <c r="P120" s="1">
+      <c r="P120" s="11">
         <v>0.55660501115046568</v>
       </c>
     </row>
@@ -5106,10 +5112,10 @@
       <c r="F121">
         <v>150</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="11">
         <v>0.32</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="11">
         <v>0.68</v>
       </c>
       <c r="K121">
@@ -5121,10 +5127,10 @@
       <c r="M121">
         <v>13900</v>
       </c>
-      <c r="O121" s="1">
+      <c r="O121" s="11">
         <v>0.33568345323741006</v>
       </c>
-      <c r="P121" s="1">
+      <c r="P121" s="11">
         <v>0.66431654676258989</v>
       </c>
     </row>
@@ -5141,10 +5147,10 @@
       <c r="F122">
         <v>126</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="11">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="11">
         <v>0.53968253968253965</v>
       </c>
       <c r="K122">
@@ -5156,10 +5162,10 @@
       <c r="M122">
         <v>11464</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O122" s="11">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P122" s="11">
         <v>0.46606769016050242</v>
       </c>
     </row>
@@ -5170,37 +5176,37 @@
       <c r="B123" s="12"/>
       <c r="C123" s="15"/>
       <c r="D123" s="12">
-        <v>3966</v>
+        <v>4191</v>
       </c>
       <c r="E123" s="12">
-        <v>6468</v>
+        <v>6243</v>
       </c>
       <c r="F123" s="12">
         <v>10434</v>
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="13">
-        <v>0.38010350776308222</v>
+        <v>0.40166762507188042</v>
       </c>
       <c r="I123" s="13">
-        <v>0.61989649223691778</v>
-      </c>
-      <c r="J123" s="12"/>
+        <v>0.59833237492811964</v>
+      </c>
+      <c r="J123" s="15"/>
       <c r="K123" s="12">
-        <v>399798</v>
+        <v>419393</v>
       </c>
       <c r="L123" s="12">
-        <v>469824</v>
+        <v>450229</v>
       </c>
       <c r="M123" s="12">
         <v>869622</v>
       </c>
       <c r="N123" s="12"/>
       <c r="O123" s="13">
-        <v>0.45973767912955282</v>
+        <v>0.48227045773910965</v>
       </c>
       <c r="P123" s="13">
-        <v>0.54026232087044712</v>
+        <v>0.51772954226089041</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -5219,10 +5225,10 @@
       <c r="F124">
         <v>143</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="11">
         <v>0.28671328671328672</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="11">
         <v>0.71328671328671334</v>
       </c>
       <c r="K124">
@@ -5234,10 +5240,10 @@
       <c r="M124">
         <v>11101</v>
       </c>
-      <c r="O124" s="1">
+      <c r="O124" s="11">
         <v>0.3316818304657238</v>
       </c>
-      <c r="P124" s="1">
+      <c r="P124" s="11">
         <v>0.66831816953427614</v>
       </c>
     </row>
@@ -5246,34 +5252,34 @@
         <v>133</v>
       </c>
       <c r="D125">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E125">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F125">
         <v>786</v>
       </c>
-      <c r="H125" s="1">
-        <v>0.37150127226463103</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0.62849872773536897</v>
+      <c r="H125" s="11">
+        <v>0.37277353689567427</v>
+      </c>
+      <c r="I125" s="11">
+        <v>0.62722646310432573</v>
       </c>
       <c r="K125">
-        <v>31346</v>
+        <v>31438</v>
       </c>
       <c r="L125">
-        <v>41316</v>
+        <v>41224</v>
       </c>
       <c r="M125">
         <v>72662</v>
       </c>
-      <c r="O125" s="1">
-        <v>0.43139467672235832</v>
-      </c>
-      <c r="P125" s="1">
-        <v>0.56860532327764168</v>
+      <c r="O125" s="11">
+        <v>0.43266081307973908</v>
+      </c>
+      <c r="P125" s="11">
+        <v>0.56733918692026097</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -5281,34 +5287,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E126">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F126">
         <v>534</v>
       </c>
-      <c r="H126" s="1">
-        <v>0.30524344569288392</v>
-      </c>
-      <c r="I126" s="1">
-        <v>0.69475655430711614</v>
+      <c r="H126" s="11">
+        <v>0.31086142322097376</v>
+      </c>
+      <c r="I126" s="11">
+        <v>0.68913857677902624</v>
       </c>
       <c r="K126">
-        <v>15942</v>
+        <v>16214</v>
       </c>
       <c r="L126">
-        <v>25344</v>
+        <v>25072</v>
       </c>
       <c r="M126">
         <v>41286</v>
       </c>
-      <c r="O126" s="1">
-        <v>0.38613573608487139</v>
-      </c>
-      <c r="P126" s="1">
-        <v>0.61386426391512861</v>
+      <c r="O126" s="11">
+        <v>0.3927239257859807</v>
+      </c>
+      <c r="P126" s="11">
+        <v>0.6072760742140193</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5324,10 +5330,10 @@
       <c r="F127">
         <v>224</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="11">
         <v>0.26785714285714285</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="11">
         <v>0.7321428571428571</v>
       </c>
       <c r="K127">
@@ -5339,10 +5345,10 @@
       <c r="M127">
         <v>16985</v>
       </c>
-      <c r="O127" s="1">
+      <c r="O127" s="11">
         <v>0.37168089490727113</v>
       </c>
-      <c r="P127" s="1">
+      <c r="P127" s="11">
         <v>0.62831910509272892</v>
       </c>
     </row>
@@ -5359,10 +5365,10 @@
       <c r="F128">
         <v>209</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="11">
         <v>0.16267942583732056</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="11">
         <v>0.83732057416267947</v>
       </c>
       <c r="K128">
@@ -5374,10 +5380,10 @@
       <c r="M128">
         <v>17104</v>
       </c>
-      <c r="O128" s="1">
+      <c r="O128" s="11">
         <v>0.20328578110383536</v>
       </c>
-      <c r="P128" s="1">
+      <c r="P128" s="11">
         <v>0.79671421889616467</v>
       </c>
     </row>
@@ -5386,34 +5392,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E129">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F129">
         <v>481</v>
       </c>
-      <c r="H129" s="1">
-        <v>0.27234927234927236</v>
-      </c>
-      <c r="I129" s="1">
-        <v>0.72765072765072769</v>
+      <c r="H129" s="11">
+        <v>0.28274428274428276</v>
+      </c>
+      <c r="I129" s="11">
+        <v>0.71725571725571724</v>
       </c>
       <c r="K129">
-        <v>14039</v>
+        <v>14555</v>
       </c>
       <c r="L129">
-        <v>25383</v>
+        <v>24867</v>
       </c>
       <c r="M129">
         <v>39422</v>
       </c>
-      <c r="O129" s="1">
-        <v>0.3561209476941809</v>
-      </c>
-      <c r="P129" s="1">
-        <v>0.6438790523058191</v>
+      <c r="O129" s="11">
+        <v>0.3692100857389275</v>
+      </c>
+      <c r="P129" s="11">
+        <v>0.63078991426107245</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5421,34 +5427,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E130">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F130">
         <v>192</v>
       </c>
-      <c r="H130" s="1">
-        <v>0.296875</v>
-      </c>
-      <c r="I130" s="1">
-        <v>0.703125</v>
+      <c r="H130" s="11">
+        <v>0.328125</v>
+      </c>
+      <c r="I130" s="11">
+        <v>0.671875</v>
       </c>
       <c r="K130">
-        <v>5776</v>
+        <v>6376</v>
       </c>
       <c r="L130">
-        <v>10733</v>
+        <v>10133</v>
       </c>
       <c r="M130">
         <v>16509</v>
       </c>
-      <c r="O130" s="1">
-        <v>0.34986976800533043</v>
-      </c>
-      <c r="P130" s="1">
-        <v>0.65013023199466957</v>
+      <c r="O130" s="11">
+        <v>0.38621358047125809</v>
+      </c>
+      <c r="P130" s="11">
+        <v>0.61378641952874191</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5456,34 +5462,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E131">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F131">
         <v>724</v>
       </c>
-      <c r="H131" s="1">
-        <v>0.34392265193370164</v>
-      </c>
-      <c r="I131" s="1">
-        <v>0.65607734806629836</v>
+      <c r="H131" s="11">
+        <v>0.34944751381215472</v>
+      </c>
+      <c r="I131" s="11">
+        <v>0.65055248618784534</v>
       </c>
       <c r="K131">
-        <v>24912</v>
+        <v>25284</v>
       </c>
       <c r="L131">
-        <v>35474</v>
+        <v>35102</v>
       </c>
       <c r="M131">
         <v>60386</v>
       </c>
-      <c r="O131" s="1">
-        <v>0.41254595436028219</v>
-      </c>
-      <c r="P131" s="1">
-        <v>0.58745404563971781</v>
+      <c r="O131" s="11">
+        <v>0.41870632265756963</v>
+      </c>
+      <c r="P131" s="11">
+        <v>0.58129367734243031</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5499,10 +5505,10 @@
       <c r="F132">
         <v>306</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="11">
         <v>0.14705882352941177</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="11">
         <v>0.8529411764705882</v>
       </c>
       <c r="K132">
@@ -5514,10 +5520,10 @@
       <c r="M132">
         <v>22587</v>
       </c>
-      <c r="O132" s="1">
+      <c r="O132" s="11">
         <v>0.20454243591446408</v>
       </c>
-      <c r="P132" s="1">
+      <c r="P132" s="11">
         <v>0.79545756408553592</v>
       </c>
     </row>
@@ -5534,10 +5540,10 @@
       <c r="F133">
         <v>431</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="11">
         <v>0.28074245939675174</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="11">
         <v>0.71925754060324831</v>
       </c>
       <c r="K133">
@@ -5549,10 +5555,10 @@
       <c r="M133">
         <v>33911</v>
       </c>
-      <c r="O133" s="1">
+      <c r="O133" s="11">
         <v>0.36003066851464127</v>
       </c>
-      <c r="P133" s="1">
+      <c r="P133" s="11">
         <v>0.63996933148535873</v>
       </c>
     </row>
@@ -5561,34 +5567,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E134">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F134">
         <v>449</v>
       </c>
-      <c r="H134" s="1">
-        <v>0.31625835189309576</v>
-      </c>
-      <c r="I134" s="1">
-        <v>0.68374164810690419</v>
+      <c r="H134" s="11">
+        <v>0.32516703786191536</v>
+      </c>
+      <c r="I134" s="11">
+        <v>0.67483296213808464</v>
       </c>
       <c r="K134">
-        <v>13050</v>
+        <v>13431</v>
       </c>
       <c r="L134">
-        <v>16991</v>
+        <v>16610</v>
       </c>
       <c r="M134">
         <v>30041</v>
       </c>
-      <c r="O134" s="1">
-        <v>0.4344063113744549</v>
-      </c>
-      <c r="P134" s="1">
-        <v>0.56559368862554504</v>
+      <c r="O134" s="11">
+        <v>0.44708897839619188</v>
+      </c>
+      <c r="P134" s="11">
+        <v>0.55291102160380812</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5604,10 +5610,10 @@
       <c r="F135">
         <v>193</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="11">
         <v>0.31088082901554404</v>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="11">
         <v>0.68911917098445596</v>
       </c>
       <c r="K135">
@@ -5619,10 +5625,10 @@
       <c r="M135">
         <v>13600</v>
       </c>
-      <c r="O135" s="1">
+      <c r="O135" s="11">
         <v>0.40830882352941178</v>
       </c>
-      <c r="P135" s="1">
+      <c r="P135" s="11">
         <v>0.59169117647058822</v>
       </c>
     </row>
@@ -5631,34 +5637,34 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E136">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F136">
         <v>295</v>
       </c>
-      <c r="H136" s="1">
-        <v>0.34576271186440677</v>
-      </c>
-      <c r="I136" s="1">
-        <v>0.65423728813559323</v>
+      <c r="H136" s="11">
+        <v>0.35254237288135593</v>
+      </c>
+      <c r="I136" s="11">
+        <v>0.64745762711864407</v>
       </c>
       <c r="K136">
-        <v>10599</v>
+        <v>10839</v>
       </c>
       <c r="L136">
-        <v>13872</v>
+        <v>13632</v>
       </c>
       <c r="M136">
         <v>24471</v>
       </c>
-      <c r="O136" s="1">
-        <v>0.43312492337869313</v>
-      </c>
-      <c r="P136" s="1">
-        <v>0.56687507662130687</v>
+      <c r="O136" s="11">
+        <v>0.44293245065587838</v>
+      </c>
+      <c r="P136" s="11">
+        <v>0.55706754934412162</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5668,37 +5674,37 @@
       <c r="B137" s="12"/>
       <c r="C137" s="15"/>
       <c r="D137" s="12">
-        <v>1497</v>
+        <v>1522</v>
       </c>
       <c r="E137" s="12">
-        <v>3470</v>
+        <v>3445</v>
       </c>
       <c r="F137" s="12">
         <v>4967</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="13">
-        <v>0.30138916851218039</v>
+        <v>0.30642238775921077</v>
       </c>
       <c r="I137" s="13">
-        <v>0.69861083148781966</v>
-      </c>
-      <c r="J137" s="12"/>
+        <v>0.69357761224078918</v>
+      </c>
+      <c r="J137" s="15"/>
       <c r="K137" s="12">
-        <v>151518</v>
+        <v>153991</v>
       </c>
       <c r="L137" s="12">
-        <v>248547</v>
+        <v>246074</v>
       </c>
       <c r="M137" s="12">
         <v>400065</v>
       </c>
       <c r="N137" s="12"/>
       <c r="O137" s="13">
-        <v>0.37873345581343032</v>
+        <v>0.38491495132041043</v>
       </c>
       <c r="P137" s="13">
-        <v>0.62126654418656968</v>
+        <v>0.61508504867958957</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5708,37 +5714,37 @@
       <c r="B138" s="12"/>
       <c r="C138" s="15"/>
       <c r="D138" s="12">
-        <v>19515</v>
+        <v>20293</v>
       </c>
       <c r="E138" s="12">
-        <v>46496</v>
+        <v>45718</v>
       </c>
       <c r="F138" s="12">
         <v>66011</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="13">
-        <v>0.29563254609080303</v>
+        <v>0.3074184605596037</v>
       </c>
       <c r="I138" s="13">
-        <v>0.70436745390919697</v>
-      </c>
-      <c r="J138" s="12"/>
+        <v>0.69258153944039624</v>
+      </c>
+      <c r="J138" s="15"/>
       <c r="K138" s="12">
-        <v>1940422</v>
+        <v>2012864</v>
       </c>
       <c r="L138" s="12">
-        <v>3335514</v>
+        <v>3263072</v>
       </c>
       <c r="M138" s="12">
         <v>5275936</v>
       </c>
       <c r="N138" s="12"/>
       <c r="O138" s="13">
-        <v>0.36778725139956209</v>
+        <v>0.38151789559236504</v>
       </c>
       <c r="P138" s="13">
-        <v>0.63221274860043797</v>
+        <v>0.61848210440763496</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D140F830-4CCC-4412-8F72-357AD68A6B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05B4ED8-5895-4796-8BC3-89500A6B4D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C829078-4C04-407C-B234-DF7E2F9F877E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EEAB349-0531-4DDB-8633-E82EE94822C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,23 +555,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,115 +883,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED1A4C-AF29-482C-A89C-6AC4BCDC37CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D891D457-EDFD-470C-9097-3C4B9745BED7}">
   <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="14"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1013,10 +1009,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1028,10 +1024,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="1">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="1">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1048,10 +1044,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="1">
         <v>0.23008849557522124</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="1">
         <v>0.76991150442477874</v>
       </c>
       <c r="K5">
@@ -1063,10 +1059,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="1">
         <v>0.3073139158576052</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="1">
         <v>0.69268608414239485</v>
       </c>
     </row>
@@ -1080,10 +1076,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1092,10 +1088,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1112,10 +1108,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="1">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="1">
         <v>0.65486725663716816</v>
       </c>
       <c r="K7">
@@ -1127,10 +1123,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="1">
         <v>0.42883233897479606</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="1">
         <v>0.571167661025204</v>
       </c>
     </row>
@@ -1147,10 +1143,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="1">
         <v>0.25</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="1">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1162,10 +1158,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="1">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="1">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1174,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="12">
         <v>70</v>
       </c>
@@ -1191,7 +1187,7 @@
       <c r="I9" s="13">
         <v>0.71544715447154472</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="12">
         <v>6284</v>
       </c>
@@ -1217,34 +1213,34 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E10">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F10">
-        <v>414</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.22705314009661837</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.77294685990338163</v>
+        <v>413</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.24939467312348668</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.75060532687651327</v>
       </c>
       <c r="K10">
-        <v>9105</v>
+        <v>9816</v>
       </c>
       <c r="L10">
-        <v>23127</v>
+        <v>22413</v>
       </c>
       <c r="M10">
-        <v>32232</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0.28248324646314221</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0.71751675353685773</v>
+        <v>32229</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.30457041794656986</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.6954295820534302</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1252,34 +1248,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E11">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="11">
-        <v>0.20716112531969311</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.79283887468030689</v>
+      <c r="H11" s="1">
+        <v>0.20971867007672634</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.79028132992327371</v>
       </c>
       <c r="K11">
-        <v>15894</v>
+        <v>16037</v>
       </c>
       <c r="L11">
-        <v>44738</v>
+        <v>44595</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="11">
-        <v>0.2621388045916348</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0.73786119540836526</v>
+      <c r="O11" s="1">
+        <v>0.26449729515767251</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.73550270484232749</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1287,34 +1283,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F12">
-        <v>571</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.22241681260945709</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.77758318739054288</v>
+        <v>572</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.76923076923076927</v>
       </c>
       <c r="K12">
-        <v>12991</v>
+        <v>13071</v>
       </c>
       <c r="L12">
-        <v>30771</v>
+        <v>30694</v>
       </c>
       <c r="M12">
-        <v>43762</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.29685571957405971</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0.70314428042594035</v>
+        <v>43765</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.29866331543470809</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.70133668456529186</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1330,10 +1326,10 @@
       <c r="F13">
         <v>566</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="1">
         <v>0.303886925795053</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="1">
         <v>0.69611307420494695</v>
       </c>
       <c r="K13">
@@ -1345,10 +1341,10 @@
       <c r="M13">
         <v>47623</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="1">
         <v>0.37750666694664342</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="1">
         <v>0.62249333305335652</v>
       </c>
     </row>
@@ -1357,34 +1353,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E14">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F14">
         <v>1109</v>
       </c>
-      <c r="H14" s="11">
-        <v>0.36789900811541931</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.63210099188458069</v>
+      <c r="H14" s="1">
+        <v>0.37150586113615869</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.62849413886384131</v>
       </c>
       <c r="K14">
-        <v>40302</v>
+        <v>40416</v>
       </c>
       <c r="L14">
-        <v>52169</v>
+        <v>52055</v>
       </c>
       <c r="M14">
         <v>92471</v>
       </c>
-      <c r="O14" s="11">
-        <v>0.43583393712623419</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0.56416606287376581</v>
+      <c r="O14" s="1">
+        <v>0.43706675606406331</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.56293324393593669</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1392,34 +1388,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E15">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="11">
-        <v>0.41521068859198357</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.58478931140801649</v>
+      <c r="H15" s="1">
+        <v>0.42034943473792397</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.57965056526207603</v>
       </c>
       <c r="K15">
-        <v>38376</v>
+        <v>38647</v>
       </c>
       <c r="L15">
-        <v>36000</v>
+        <v>35729</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="11">
-        <v>0.51597289448209105</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0.48402710551790901</v>
+      <c r="O15" s="1">
+        <v>0.5196165429708508</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.4803834570291492</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1427,34 +1423,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="E16">
-        <v>659</v>
+        <v>608</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="11">
-        <v>0.39206642066420666</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0.60793357933579339</v>
+      <c r="H16" s="1">
+        <v>0.43911439114391143</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.56088560885608851</v>
       </c>
       <c r="K16">
-        <v>38613</v>
+        <v>42967</v>
       </c>
       <c r="L16">
-        <v>43867</v>
+        <v>39513</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="11">
-        <v>0.46814985451018426</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0.53185014548981568</v>
+      <c r="O16" s="1">
+        <v>0.52093840931134816</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.47906159068865178</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1462,34 +1458,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E17">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="11">
-        <v>0.23510204081632652</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0.76489795918367343</v>
+      <c r="H17" s="1">
+        <v>0.24244897959183673</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.75755102040816324</v>
       </c>
       <c r="K17">
-        <v>29407</v>
+        <v>30032</v>
       </c>
       <c r="L17">
-        <v>73356</v>
+        <v>72731</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="11">
-        <v>0.2861633078053385</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0.7138366921946615</v>
+      <c r="O17" s="1">
+        <v>0.29224526337300388</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.70775473662699606</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1497,34 +1493,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="E18">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="F18">
         <v>2552</v>
       </c>
-      <c r="H18" s="11">
-        <v>0.34365203761755486</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0.65634796238244519</v>
+      <c r="H18" s="1">
+        <v>0.34639498432601878</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.65360501567398122</v>
       </c>
       <c r="K18">
-        <v>84815</v>
+        <v>85343</v>
       </c>
       <c r="L18">
-        <v>109454</v>
+        <v>108926</v>
       </c>
       <c r="M18">
         <v>194269</v>
       </c>
-      <c r="O18" s="11">
-        <v>0.43658535329877646</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0.56341464670122354</v>
+      <c r="O18" s="1">
+        <v>0.43930323417529304</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.56069676582470696</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1540,10 +1536,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="1">
         <v>0.30471204188481676</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="1">
         <v>0.69528795811518329</v>
       </c>
       <c r="K19">
@@ -1555,10 +1551,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="1">
         <v>0.39710336860198087</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="1">
         <v>0.60289663139801908</v>
       </c>
     </row>
@@ -1567,34 +1563,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E20">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0.66666666666666663</v>
+      <c r="H20" s="1">
+        <v>0.35616438356164382</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.64383561643835618</v>
       </c>
       <c r="K20">
-        <v>22460</v>
+        <v>23928</v>
       </c>
       <c r="L20">
-        <v>32103</v>
+        <v>30635</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="11">
-        <v>0.41163425764712352</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0.58836574235287653</v>
+      <c r="O20" s="1">
+        <v>0.43853893664204679</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.56146106335795321</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1602,34 +1598,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E21">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F21">
         <v>1294</v>
       </c>
-      <c r="H21" s="11">
-        <v>0.294435857805255</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0.70556414219474495</v>
+      <c r="H21" s="1">
+        <v>0.2975270479134467</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.70247295208655336</v>
       </c>
       <c r="K21">
-        <v>37395</v>
+        <v>37839</v>
       </c>
       <c r="L21">
-        <v>64567</v>
+        <v>64123</v>
       </c>
       <c r="M21">
         <v>101962</v>
       </c>
-      <c r="O21" s="11">
-        <v>0.36675428100664953</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0.63324571899335047</v>
+      <c r="O21" s="1">
+        <v>0.37110884447146975</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.62889115552853025</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1637,34 +1633,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E22">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="11">
-        <v>0.27989821882951654</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0.72010178117048351</v>
+      <c r="H22" s="1">
+        <v>0.2917726887192536</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.70822731128074634</v>
       </c>
       <c r="K22">
-        <v>33088</v>
+        <v>34337</v>
       </c>
       <c r="L22">
-        <v>62524</v>
+        <v>61275</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="11">
-        <v>0.34606534744592726</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0.65393465255407268</v>
+      <c r="O22" s="1">
+        <v>0.35912856126846004</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.64087143873153996</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1672,34 +1668,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E23">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="11">
-        <v>0.21499128413712956</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0.78500871586287047</v>
+      <c r="H23" s="1">
+        <v>0.21382916908773969</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.78617083091226037</v>
       </c>
       <c r="K23">
-        <v>36720</v>
+        <v>36516</v>
       </c>
       <c r="L23">
-        <v>94351</v>
+        <v>94555</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="11">
-        <v>0.28015350458911581</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0.71984649541088419</v>
+      <c r="O23" s="1">
+        <v>0.27859709623028739</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.72140290376971261</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1715,10 +1711,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="1">
         <v>0.33728813559322035</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="1">
         <v>0.66271186440677965</v>
       </c>
       <c r="K24">
@@ -1730,10 +1726,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="1">
         <v>0.43102475571502719</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="1">
         <v>0.56897524428497281</v>
       </c>
     </row>
@@ -1742,34 +1738,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="E25">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
-      <c r="H25" s="11">
-        <v>0.21613545816733068</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0.78386454183266929</v>
+      <c r="H25" s="1">
+        <v>0.24601593625498008</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.75398406374501992</v>
       </c>
       <c r="K25">
-        <v>22690</v>
+        <v>25693</v>
       </c>
       <c r="L25">
-        <v>57106</v>
+        <v>54103</v>
       </c>
       <c r="M25">
         <v>79796</v>
       </c>
-      <c r="O25" s="11">
-        <v>0.28435009273647804</v>
-      </c>
-      <c r="P25" s="11">
-        <v>0.71564990726352196</v>
+      <c r="O25" s="1">
+        <v>0.32198355807308637</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.67801644192691368</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1777,34 +1773,34 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="11">
-        <v>0.34306569343065696</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0.65693430656934304</v>
+      <c r="H26" s="1">
+        <v>0.35766423357664234</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.64233576642335766</v>
       </c>
       <c r="K26">
-        <v>4762</v>
+        <v>4781</v>
       </c>
       <c r="L26">
-        <v>5618</v>
+        <v>5599</v>
       </c>
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="11">
-        <v>0.45876685934489403</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0.54123314065510597</v>
+      <c r="O26" s="1">
+        <v>0.46059730250481695</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.53940269749518299</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -1820,10 +1816,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="1">
         <v>0.20318725099601595</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="1">
         <v>0.79681274900398402</v>
       </c>
       <c r="K27">
@@ -1835,10 +1831,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="1">
         <v>0.23455476154274998</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="1">
         <v>0.76544523845724999</v>
       </c>
     </row>
@@ -1847,34 +1843,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="E28">
-        <v>1758</v>
+        <v>1727</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
-      <c r="H28" s="11">
-        <v>0.20917678812415655</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0.79082321187584348</v>
+      <c r="H28" s="1">
+        <v>0.22312190733243364</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.77687809266756636</v>
       </c>
       <c r="K28">
-        <v>46722</v>
+        <v>49045</v>
       </c>
       <c r="L28">
-        <v>124612</v>
+        <v>122289</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="11">
-        <v>0.27269543698273546</v>
-      </c>
-      <c r="P28" s="11">
-        <v>0.72730456301726454</v>
+      <c r="O28" s="1">
+        <v>0.28625374998540859</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.71374625001459135</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1882,34 +1878,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1225</v>
+        <v>1249</v>
       </c>
       <c r="E29">
-        <v>1881</v>
+        <v>1857</v>
       </c>
       <c r="F29">
         <v>3106</v>
       </c>
-      <c r="H29" s="11">
-        <v>0.3943979394719897</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0.60560206052801036</v>
+      <c r="H29" s="1">
+        <v>0.40212491951062462</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.59787508048937543</v>
       </c>
       <c r="K29">
-        <v>120369</v>
+        <v>122286</v>
       </c>
       <c r="L29">
-        <v>147893</v>
+        <v>145976</v>
       </c>
       <c r="M29">
         <v>268262</v>
       </c>
-      <c r="O29" s="11">
-        <v>0.44869940580477297</v>
-      </c>
-      <c r="P29" s="11">
-        <v>0.55130059419522703</v>
+      <c r="O29" s="1">
+        <v>0.45584540486539277</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.54415459513460718</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1925,10 +1921,10 @@
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="1">
         <v>0.35742971887550201</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="1">
         <v>0.64257028112449799</v>
       </c>
       <c r="K30">
@@ -1940,10 +1936,10 @@
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="1">
         <v>0.45363279332351497</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="1">
         <v>0.54636720667648497</v>
       </c>
     </row>
@@ -1952,34 +1948,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="E31">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="11">
-        <v>0.30308880308880309</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0.69691119691119696</v>
+      <c r="H31" s="1">
+        <v>0.31853281853281851</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.68146718146718144</v>
       </c>
       <c r="K31">
-        <v>32126</v>
+        <v>33539</v>
       </c>
       <c r="L31">
-        <v>52902</v>
+        <v>51489</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="11">
-        <v>0.37782848003010772</v>
-      </c>
-      <c r="P31" s="11">
-        <v>0.62217151996989228</v>
+      <c r="O31" s="1">
+        <v>0.3944465352589735</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.60555346474102645</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1995,10 +1991,10 @@
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="1">
         <v>0.38709677419354838</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="1">
         <v>0.61290322580645162</v>
       </c>
       <c r="K32">
@@ -2010,10 +2006,10 @@
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="1">
         <v>0.46891382425770184</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="1">
         <v>0.53108617574229822</v>
       </c>
     </row>
@@ -2030,10 +2026,10 @@
       <c r="F33">
         <v>1068</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="1">
         <v>0.21348314606741572</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="1">
         <v>0.7865168539325843</v>
       </c>
       <c r="K33">
@@ -2045,10 +2041,10 @@
       <c r="M33">
         <v>75930</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="1">
         <v>0.27144738575003291</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="1">
         <v>0.72855261424996709</v>
       </c>
     </row>
@@ -2057,34 +2053,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="E34">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="11">
-        <v>0.26380368098159507</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0.73619631901840488</v>
+      <c r="H34" s="1">
+        <v>0.28483786152497809</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.71516213847502186</v>
       </c>
       <c r="K34">
-        <v>28645</v>
+        <v>30925</v>
       </c>
       <c r="L34">
-        <v>58793</v>
+        <v>56513</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="11">
-        <v>0.32760355909330041</v>
-      </c>
-      <c r="P34" s="11">
-        <v>0.67239644090669959</v>
+      <c r="O34" s="1">
+        <v>0.35367917838925866</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.64632082161074134</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2100,10 +2096,10 @@
       <c r="F35">
         <v>785</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="1">
         <v>0.22929936305732485</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="1">
         <v>0.77070063694267521</v>
       </c>
       <c r="K35">
@@ -2115,10 +2111,10 @@
       <c r="M35">
         <v>62651</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="1">
         <v>0.27702670348438174</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="1">
         <v>0.72297329651561826</v>
       </c>
     </row>
@@ -2135,10 +2131,10 @@
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="1">
         <v>0.37122128174123337</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="1">
         <v>0.62877871825876663</v>
       </c>
       <c r="K36">
@@ -2150,10 +2146,10 @@
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="1">
         <v>0.48108514754199033</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="1">
         <v>0.51891485245800961</v>
       </c>
     </row>
@@ -2162,34 +2158,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E37">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="11">
-        <v>0.37900874635568516</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0.62099125364431484</v>
+      <c r="H37" s="1">
+        <v>0.39504373177842567</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.60495626822157433</v>
       </c>
       <c r="K37">
-        <v>24976</v>
+        <v>26055</v>
       </c>
       <c r="L37">
-        <v>32945</v>
+        <v>31866</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="11">
-        <v>0.43120802472333003</v>
-      </c>
-      <c r="P37" s="11">
-        <v>0.56879197527666991</v>
+      <c r="O37" s="1">
+        <v>0.44983684673952451</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.55016315326047549</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2205,10 +2201,10 @@
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="1">
         <v>0.24473684210526317</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="1">
         <v>0.75526315789473686</v>
       </c>
       <c r="K38">
@@ -2220,10 +2216,10 @@
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="1">
         <v>0.32816004630634543</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="1">
         <v>0.67183995369365457</v>
       </c>
     </row>
@@ -2240,10 +2236,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="1">
         <v>0.21052631578947367</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="1">
         <v>0.78947368421052633</v>
       </c>
       <c r="K39">
@@ -2255,10 +2251,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="1">
         <v>0.26260065612883987</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="1">
         <v>0.73739934387116013</v>
       </c>
     </row>
@@ -2267,34 +2263,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="E40">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="F40">
-        <v>674</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0.28486646884272998</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0.71513353115727007</v>
+        <v>670</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.33880597014925373</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.66119402985074627</v>
       </c>
       <c r="K40">
-        <v>18290</v>
+        <v>21217</v>
       </c>
       <c r="L40">
-        <v>31049</v>
+        <v>27848</v>
       </c>
       <c r="M40">
-        <v>49339</v>
-      </c>
-      <c r="O40" s="11">
-        <v>0.37070066276170982</v>
-      </c>
-      <c r="P40" s="11">
-        <v>0.62929933723829024</v>
+        <v>49065</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.43242637317843674</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.5675736268215632</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2302,34 +2298,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="E41">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="F41">
         <v>1956</v>
       </c>
-      <c r="H41" s="11">
-        <v>0.18813905930470348</v>
-      </c>
-      <c r="I41" s="11">
-        <v>0.81186094069529657</v>
+      <c r="H41" s="1">
+        <v>0.19683026584867075</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.8031697341513292</v>
       </c>
       <c r="K41">
-        <v>36758</v>
+        <v>38268</v>
       </c>
       <c r="L41">
-        <v>109813</v>
+        <v>108303</v>
       </c>
       <c r="M41">
         <v>146571</v>
       </c>
-      <c r="O41" s="11">
-        <v>0.25078630834203219</v>
-      </c>
-      <c r="P41" s="11">
-        <v>0.74921369165796781</v>
+      <c r="O41" s="1">
+        <v>0.26108848271486174</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.73891151728513826</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2337,34 +2333,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E42">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="11">
-        <v>0.26533333333333331</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0.73466666666666669</v>
+      <c r="H42" s="1">
+        <v>0.27733333333333332</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.72266666666666668</v>
       </c>
       <c r="K42">
-        <v>20025</v>
+        <v>20826</v>
       </c>
       <c r="L42">
-        <v>42406</v>
+        <v>41605</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="11">
-        <v>0.32075411254024444</v>
-      </c>
-      <c r="P42" s="11">
-        <v>0.67924588745975556</v>
+      <c r="O42" s="1">
+        <v>0.33358427704185423</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.66641572295814577</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2372,34 +2368,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E43">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="11">
-        <v>0.20669056152927121</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0.79330943847072877</v>
+      <c r="H43" s="1">
+        <v>0.21505376344086022</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.78494623655913975</v>
       </c>
       <c r="K43">
-        <v>16766</v>
+        <v>17417</v>
       </c>
       <c r="L43">
-        <v>47228</v>
+        <v>46577</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="11">
-        <v>0.26199331187298808</v>
-      </c>
-      <c r="P43" s="11">
-        <v>0.73800668812701187</v>
+      <c r="O43" s="1">
+        <v>0.27216614057567895</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.72783385942432099</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2407,34 +2403,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="E44">
-        <v>2180</v>
+        <v>2152</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
-      <c r="H44" s="11">
-        <v>0.13388955105284067</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0.86611044894715927</v>
+      <c r="H44" s="1">
+        <v>0.14501390544298767</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.85498609455701235</v>
       </c>
       <c r="K44">
-        <v>33742</v>
+        <v>36235</v>
       </c>
       <c r="L44">
-        <v>151888</v>
+        <v>149395</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="11">
-        <v>0.1817701880084038</v>
-      </c>
-      <c r="P44" s="11">
-        <v>0.81822981199159617</v>
+      <c r="O44" s="1">
+        <v>0.19520012928944674</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.80479987071055326</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2442,34 +2438,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="E45">
-        <v>1724</v>
+        <v>1697</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="11">
-        <v>0.17865650309671272</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0.82134349690328723</v>
+      <c r="H45" s="1">
+        <v>0.19151977131967604</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.80848022868032399</v>
       </c>
       <c r="K45">
-        <v>37455</v>
+        <v>40017</v>
       </c>
       <c r="L45">
-        <v>123919</v>
+        <v>121357</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="11">
-        <v>0.23210058621587121</v>
-      </c>
-      <c r="P45" s="11">
-        <v>0.76789941378412885</v>
+      <c r="O45" s="1">
+        <v>0.2479767496622752</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.75202325033772477</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2477,34 +2473,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E46">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="11">
-        <v>0.26530612244897961</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0.73469387755102045</v>
+      <c r="H46" s="1">
+        <v>0.28134110787172012</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.71865889212827994</v>
       </c>
       <c r="K46">
-        <v>18305</v>
+        <v>19159</v>
       </c>
       <c r="L46">
-        <v>35677</v>
+        <v>34823</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="11">
-        <v>0.33909451298581006</v>
-      </c>
-      <c r="P46" s="11">
-        <v>0.66090548701418994</v>
+      <c r="O46" s="1">
+        <v>0.35491460116335077</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.64508539883664928</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2520,10 +2516,10 @@
       <c r="F47">
         <v>824</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="1">
         <v>0.26941747572815533</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="1">
         <v>0.73058252427184467</v>
       </c>
       <c r="K47">
@@ -2535,10 +2531,10 @@
       <c r="M47">
         <v>62713</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="1">
         <v>0.31951907897884013</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="1">
         <v>0.68048092102115987</v>
       </c>
     </row>
@@ -2555,10 +2551,10 @@
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="1">
         <v>0.16903073286052009</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="1">
         <v>0.83096926713947994</v>
       </c>
       <c r="K48">
@@ -2570,10 +2566,10 @@
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="1">
         <v>0.20810818834986047</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="1">
         <v>0.79189181165013955</v>
       </c>
     </row>
@@ -2582,34 +2578,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E49">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="11">
-        <v>0.35893648449039883</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0.64106351550960117</v>
+      <c r="H49" s="1">
+        <v>0.36632200886262922</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.63367799113737078</v>
       </c>
       <c r="K49">
-        <v>23318</v>
+        <v>23918</v>
       </c>
       <c r="L49">
-        <v>30874</v>
+        <v>30274</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="11">
-        <v>0.43028491290227339</v>
-      </c>
-      <c r="P49" s="11">
-        <v>0.56971508709772656</v>
+      <c r="O49" s="1">
+        <v>0.44135665780927075</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.55864334219072931</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2617,34 +2613,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="E50">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="F50">
-        <v>428</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0.31308411214953269</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0.68691588785046731</v>
+        <v>430</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.44418604651162791</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.55581395348837215</v>
       </c>
       <c r="K50">
-        <v>13650</v>
+        <v>18614</v>
       </c>
       <c r="L50">
-        <v>19663</v>
+        <v>14831</v>
       </c>
       <c r="M50">
-        <v>33313</v>
-      </c>
-      <c r="O50" s="11">
-        <v>0.40974994746795546</v>
-      </c>
-      <c r="P50" s="11">
-        <v>0.59025005253204454</v>
+        <v>33445</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.5565555389445358</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.4434444610554642</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2652,34 +2648,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="E51">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="F51">
-        <v>1134</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0.25308641975308643</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0.74691358024691357</v>
+        <v>1132</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.27120141342756182</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.72879858657243812</v>
       </c>
       <c r="K51">
-        <v>28406</v>
+        <v>29764</v>
       </c>
       <c r="L51">
-        <v>62859</v>
+        <v>61369</v>
       </c>
       <c r="M51">
-        <v>91265</v>
-      </c>
-      <c r="O51" s="11">
-        <v>0.31124746616994464</v>
-      </c>
-      <c r="P51" s="11">
-        <v>0.6887525338300553</v>
+        <v>91133</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.32659958522159921</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.67340041477840085</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2687,34 +2683,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1781</v>
+        <v>1845</v>
       </c>
       <c r="E52">
-        <v>2092</v>
+        <v>2028</v>
       </c>
       <c r="F52">
         <v>3873</v>
       </c>
-      <c r="H52" s="11">
-        <v>0.45985024528789054</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0.54014975471210946</v>
+      <c r="H52" s="1">
+        <v>0.4763749031758327</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.52362509682416736</v>
       </c>
       <c r="K52">
-        <v>183771</v>
+        <v>189885</v>
       </c>
       <c r="L52">
-        <v>164779</v>
+        <v>158665</v>
       </c>
       <c r="M52">
         <v>348550</v>
       </c>
-      <c r="O52" s="11">
-        <v>0.527244297805193</v>
-      </c>
-      <c r="P52" s="11">
-        <v>0.47275570219480706</v>
+      <c r="O52" s="1">
+        <v>0.54478554009467794</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.45521445990532206</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2722,39 +2718,39 @@
         <v>57</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="C53" s="15"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="12">
-        <v>13566</v>
+        <v>14107</v>
       </c>
       <c r="E53" s="12">
-        <v>33551</v>
+        <v>33006</v>
       </c>
       <c r="F53" s="12">
-        <v>47117</v>
+        <v>47113</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="13">
-        <v>0.2879215569751894</v>
+        <v>0.29942903232653406</v>
       </c>
       <c r="I53" s="13">
-        <v>0.7120784430248106</v>
-      </c>
-      <c r="J53" s="15"/>
+        <v>0.70057096767346594</v>
+      </c>
+      <c r="J53" s="12"/>
       <c r="K53" s="12">
-        <v>1342597</v>
+        <v>1389248</v>
       </c>
       <c r="L53" s="12">
-        <v>2398391</v>
+        <v>2351466</v>
       </c>
       <c r="M53" s="12">
-        <v>3740988</v>
+        <v>3740714</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="13">
-        <v>0.35888834714251955</v>
+        <v>0.37138578356966079</v>
       </c>
       <c r="P53" s="13">
-        <v>0.6411116528574804</v>
+        <v>0.62861421643033921</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -2773,10 +2769,10 @@
       <c r="F54">
         <v>285</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="1">
         <v>0.53333333333333333</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="1">
         <v>0.46666666666666667</v>
       </c>
       <c r="K54">
@@ -2788,10 +2784,10 @@
       <c r="M54">
         <v>22926</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="1">
         <v>0.65336299398063336</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="1">
         <v>0.34663700601936664</v>
       </c>
     </row>
@@ -2800,34 +2796,34 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E55">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F55">
         <v>82</v>
       </c>
-      <c r="H55" s="11">
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0.63414634146341464</v>
+      <c r="H55" s="1">
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.57317073170731703</v>
       </c>
       <c r="K55">
-        <v>2776</v>
+        <v>3274</v>
       </c>
       <c r="L55">
-        <v>4254</v>
+        <v>3756</v>
       </c>
       <c r="M55">
         <v>7030</v>
       </c>
-      <c r="O55" s="11">
-        <v>0.39487908961593171</v>
-      </c>
-      <c r="P55" s="11">
-        <v>0.60512091038406823</v>
+      <c r="O55" s="1">
+        <v>0.46571834992887623</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.53428165007112371</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2843,10 +2839,10 @@
       <c r="F56">
         <v>242</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="1">
         <v>0.18595041322314049</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="1">
         <v>0.81404958677685946</v>
       </c>
       <c r="K56">
@@ -2858,10 +2854,10 @@
       <c r="M56">
         <v>18986</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="1">
         <v>0.24354787738333508</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="1">
         <v>0.75645212261666495</v>
       </c>
     </row>
@@ -2878,10 +2874,10 @@
       <c r="F57">
         <v>68</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="1">
         <v>0.5</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="1">
         <v>0.5</v>
       </c>
       <c r="K57">
@@ -2893,10 +2889,10 @@
       <c r="M57">
         <v>5417</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="1">
         <v>0.55861177773675463</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="1">
         <v>0.44138822226324531</v>
       </c>
     </row>
@@ -2913,10 +2909,10 @@
       <c r="F58">
         <v>163</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="1">
         <v>0.40490797546012269</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="1">
         <v>0.59509202453987731</v>
       </c>
       <c r="K58">
@@ -2928,10 +2924,10 @@
       <c r="M58">
         <v>13710</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="1">
         <v>0.4524434719183078</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="1">
         <v>0.5475565280816922</v>
       </c>
     </row>
@@ -2948,10 +2944,10 @@
       <c r="F59">
         <v>104</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="1">
         <v>0.35576923076923078</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="1">
         <v>0.64423076923076927</v>
       </c>
       <c r="K59">
@@ -2963,10 +2959,10 @@
       <c r="M59">
         <v>7610</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="1">
         <v>0.48975032851511169</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="1">
         <v>0.51024967148488831</v>
       </c>
     </row>
@@ -2975,39 +2971,39 @@
         <v>65</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="12">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E60" s="12">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F60" s="12">
         <v>944</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="13">
-        <v>0.38559322033898308</v>
+        <v>0.39088983050847459</v>
       </c>
       <c r="I60" s="13">
-        <v>0.61440677966101698</v>
-      </c>
-      <c r="J60" s="15"/>
+        <v>0.60911016949152541</v>
+      </c>
+      <c r="J60" s="12"/>
       <c r="K60" s="12">
-        <v>35335</v>
+        <v>35833</v>
       </c>
       <c r="L60" s="12">
-        <v>40344</v>
+        <v>39846</v>
       </c>
       <c r="M60" s="12">
         <v>75679</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="13">
-        <v>0.46690627518862565</v>
+        <v>0.47348670040566077</v>
       </c>
       <c r="P60" s="13">
-        <v>0.5330937248113744</v>
+        <v>0.52651329959433923</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3026,10 +3022,10 @@
       <c r="F61">
         <v>37</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="1">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="1">
         <v>0.54054054054054057</v>
       </c>
       <c r="K61">
@@ -3041,10 +3037,10 @@
       <c r="M61">
         <v>3033</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O61" s="1">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P61" s="1">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3053,34 +3049,34 @@
         <v>68</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F62">
         <v>59</v>
       </c>
-      <c r="H62" s="11">
-        <v>8.4745762711864403E-2</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0.9152542372881356</v>
+      <c r="H62" s="1">
+        <v>0.15254237288135594</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.84745762711864403</v>
       </c>
       <c r="K62">
-        <v>523</v>
+        <v>919</v>
       </c>
       <c r="L62">
-        <v>3640</v>
+        <v>3244</v>
       </c>
       <c r="M62">
         <v>4163</v>
       </c>
-      <c r="O62" s="11">
-        <v>0.12563055488830172</v>
-      </c>
-      <c r="P62" s="11">
-        <v>0.87436944511169834</v>
+      <c r="O62" s="1">
+        <v>0.22075426375210186</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0.77924573624789817</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -3096,10 +3092,10 @@
       <c r="F63">
         <v>88</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="1">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="1">
         <v>0.69318181818181823</v>
       </c>
       <c r="K63">
@@ -3111,10 +3107,10 @@
       <c r="M63">
         <v>6243</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O63" s="1">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P63" s="1">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3123,34 +3119,34 @@
         <v>70</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E64">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F64">
         <v>220</v>
       </c>
-      <c r="H64" s="11">
-        <v>0.1409090909090909</v>
-      </c>
-      <c r="I64" s="11">
-        <v>0.85909090909090913</v>
+      <c r="H64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.8</v>
       </c>
       <c r="K64">
-        <v>2857</v>
+        <v>4165</v>
       </c>
       <c r="L64">
-        <v>12581</v>
+        <v>11273</v>
       </c>
       <c r="M64">
         <v>15438</v>
       </c>
-      <c r="O64" s="11">
-        <v>0.18506283197305351</v>
-      </c>
-      <c r="P64" s="11">
-        <v>0.81493716802694649</v>
+      <c r="O64" s="1">
+        <v>0.26978883275035626</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0.73021116724964374</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
@@ -3166,10 +3162,10 @@
       <c r="F65">
         <v>115</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="1">
         <v>0.31304347826086959</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="1">
         <v>0.68695652173913047</v>
       </c>
       <c r="K65">
@@ -3181,10 +3177,10 @@
       <c r="M65">
         <v>7768</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O65" s="1">
         <v>0.37602986611740474</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P65" s="1">
         <v>0.62397013388259526</v>
       </c>
     </row>
@@ -3193,34 +3189,34 @@
         <v>72</v>
       </c>
       <c r="D66">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E66">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F66">
         <v>271</v>
       </c>
-      <c r="H66" s="11">
-        <v>0.2767527675276753</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0.7232472324723247</v>
+      <c r="H66" s="1">
+        <v>0.29151291512915128</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.70848708487084866</v>
       </c>
       <c r="K66">
-        <v>7068</v>
+        <v>7456</v>
       </c>
       <c r="L66">
-        <v>12652</v>
+        <v>12264</v>
       </c>
       <c r="M66">
         <v>19720</v>
       </c>
-      <c r="O66" s="11">
-        <v>0.35841784989858011</v>
-      </c>
-      <c r="P66" s="11">
-        <v>0.64158215010141983</v>
+      <c r="O66" s="1">
+        <v>0.37809330628803245</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0.6219066937119675</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3228,34 +3224,34 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E67">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F67">
         <v>100</v>
       </c>
-      <c r="H67" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0.62</v>
+      <c r="H67" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.56999999999999995</v>
       </c>
       <c r="K67">
-        <v>3548</v>
+        <v>3979</v>
       </c>
       <c r="L67">
-        <v>4084</v>
+        <v>3653</v>
       </c>
       <c r="M67">
         <v>7632</v>
       </c>
-      <c r="O67" s="11">
-        <v>0.46488469601677151</v>
-      </c>
-      <c r="P67" s="11">
-        <v>0.53511530398322849</v>
+      <c r="O67" s="1">
+        <v>0.5213574423480084</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0.4786425576519916</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3263,34 +3259,34 @@
         <v>74</v>
       </c>
       <c r="D68">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E68">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F68">
         <v>119</v>
       </c>
-      <c r="H68" s="11">
-        <v>0.36974789915966388</v>
-      </c>
-      <c r="I68" s="11">
-        <v>0.63025210084033612</v>
+      <c r="H68" s="1">
+        <v>0.40336134453781514</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.59663865546218486</v>
       </c>
       <c r="K68">
-        <v>3906</v>
+        <v>4386</v>
       </c>
       <c r="L68">
-        <v>4754</v>
+        <v>4274</v>
       </c>
       <c r="M68">
         <v>8660</v>
       </c>
-      <c r="O68" s="11">
-        <v>0.45103926096997693</v>
-      </c>
-      <c r="P68" s="11">
-        <v>0.54896073903002307</v>
+      <c r="O68" s="1">
+        <v>0.50646651270207854</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.49353348729792146</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -3306,10 +3302,10 @@
       <c r="F69">
         <v>46</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="1">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="1">
         <v>0.86956521739130432</v>
       </c>
       <c r="K69">
@@ -3321,10 +3317,10 @@
       <c r="M69">
         <v>2926</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O69" s="1">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P69" s="1">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3341,10 +3337,10 @@
       <c r="F70">
         <v>78</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="1">
         <v>0.35897435897435898</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="1">
         <v>0.64102564102564108</v>
       </c>
       <c r="K70">
@@ -3356,10 +3352,10 @@
       <c r="M70">
         <v>5888</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O70" s="1">
         <v>0.42900815217391303</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P70" s="1">
         <v>0.57099184782608692</v>
       </c>
     </row>
@@ -3376,10 +3372,10 @@
       <c r="F71">
         <v>66</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="1">
         <v>0.46969696969696972</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="1">
         <v>0.53030303030303028</v>
       </c>
       <c r="K71">
@@ -3391,10 +3387,10 @@
       <c r="M71">
         <v>5681</v>
       </c>
-      <c r="O71" s="11">
+      <c r="O71" s="1">
         <v>0.52033092765358213</v>
       </c>
-      <c r="P71" s="11">
+      <c r="P71" s="1">
         <v>0.47966907234641787</v>
       </c>
     </row>
@@ -3408,10 +3404,10 @@
       <c r="F72">
         <v>31</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="1">
         <v>0</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="1">
         <v>1</v>
       </c>
       <c r="L72">
@@ -3420,10 +3416,10 @@
       <c r="M72">
         <v>2447</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O72" s="1">
         <v>0</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3437,10 +3433,10 @@
       <c r="F73">
         <v>79</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="1">
         <v>0</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="L73">
@@ -3449,10 +3445,10 @@
       <c r="M73">
         <v>5888</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O73" s="1">
         <v>0</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3466,10 +3462,10 @@
       <c r="F74">
         <v>33</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="1">
         <v>0</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="1">
         <v>1</v>
       </c>
       <c r="L74">
@@ -3478,10 +3474,10 @@
       <c r="M74">
         <v>2443</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O74" s="1">
         <v>0</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3498,10 +3494,10 @@
       <c r="F75">
         <v>52</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="1">
         <v>0.32692307692307693</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="1">
         <v>0.67307692307692313</v>
       </c>
       <c r="K75">
@@ -3513,10 +3509,10 @@
       <c r="M75">
         <v>4042</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O75" s="1">
         <v>0.45546759030183076</v>
       </c>
-      <c r="P75" s="11">
+      <c r="P75" s="1">
         <v>0.54453240969816918</v>
       </c>
     </row>
@@ -3525,34 +3521,34 @@
         <v>82</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76">
         <v>93</v>
       </c>
-      <c r="H76" s="11">
-        <v>0.23655913978494625</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0.76344086021505375</v>
+      <c r="H76" s="1">
+        <v>0.27956989247311825</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.72043010752688175</v>
       </c>
       <c r="K76">
-        <v>1760</v>
+        <v>2027</v>
       </c>
       <c r="L76">
-        <v>4924</v>
+        <v>4657</v>
       </c>
       <c r="M76">
         <v>6684</v>
       </c>
-      <c r="O76" s="11">
-        <v>0.26331538001196886</v>
-      </c>
-      <c r="P76" s="11">
-        <v>0.73668461998803114</v>
+      <c r="O76" s="1">
+        <v>0.30326152004787554</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0.69673847995212446</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -3568,10 +3564,10 @@
       <c r="F77">
         <v>65</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="1">
         <v>0.15384615384615385</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="1">
         <v>0.84615384615384615</v>
       </c>
       <c r="K77">
@@ -3583,10 +3579,10 @@
       <c r="M77">
         <v>5234</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O77" s="1">
         <v>0.22009935040122278</v>
       </c>
-      <c r="P77" s="11">
+      <c r="P77" s="1">
         <v>0.77990064959877725</v>
       </c>
     </row>
@@ -3600,10 +3596,10 @@
       <c r="F78">
         <v>14</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="1">
         <v>0</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="L78">
@@ -3612,10 +3608,10 @@
       <c r="M78">
         <v>1080</v>
       </c>
-      <c r="O78" s="11">
+      <c r="O78" s="1">
         <v>0</v>
       </c>
-      <c r="P78" s="11">
+      <c r="P78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3632,10 +3628,10 @@
       <c r="F79">
         <v>37</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="1">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79" s="1">
         <v>0.72972972972972971</v>
       </c>
       <c r="K79">
@@ -3647,10 +3643,10 @@
       <c r="M79">
         <v>2475</v>
       </c>
-      <c r="O79" s="11">
+      <c r="O79" s="1">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P79" s="11">
+      <c r="P79" s="1">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3664,10 +3660,10 @@
       <c r="F80">
         <v>31</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="1">
         <v>0</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="1">
         <v>1</v>
       </c>
       <c r="L80">
@@ -3676,10 +3672,10 @@
       <c r="M80">
         <v>1846</v>
       </c>
-      <c r="O80" s="11">
+      <c r="O80" s="1">
         <v>0</v>
       </c>
-      <c r="P80" s="11">
+      <c r="P80" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3696,10 +3692,10 @@
       <c r="F81">
         <v>39</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="1">
         <v>0.4358974358974359</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="1">
         <v>0.5641025641025641</v>
       </c>
       <c r="K81">
@@ -3711,10 +3707,10 @@
       <c r="M81">
         <v>3281</v>
       </c>
-      <c r="O81" s="11">
+      <c r="O81" s="1">
         <v>0.55135629381286189</v>
       </c>
-      <c r="P81" s="11">
+      <c r="P81" s="1">
         <v>0.44864370618713806</v>
       </c>
     </row>
@@ -3723,34 +3719,34 @@
         <v>88</v>
       </c>
       <c r="D82">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F82">
         <v>130</v>
       </c>
-      <c r="H82" s="11">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="I82" s="11">
-        <v>0.89230769230769236</v>
+      <c r="H82" s="1">
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.86153846153846159</v>
       </c>
       <c r="K82">
-        <v>1481</v>
+        <v>1797</v>
       </c>
       <c r="L82">
-        <v>7691</v>
+        <v>7375</v>
       </c>
       <c r="M82">
         <v>9172</v>
       </c>
-      <c r="O82" s="11">
-        <v>0.16146969036197123</v>
-      </c>
-      <c r="P82" s="11">
-        <v>0.83853030963802877</v>
+      <c r="O82" s="1">
+        <v>0.19592237243785435</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0.80407762756214562</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -3758,34 +3754,34 @@
         <v>89</v>
       </c>
       <c r="D83">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E83">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83">
         <v>106</v>
       </c>
-      <c r="H83" s="11">
-        <v>0.39622641509433965</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0.60377358490566035</v>
+      <c r="H83" s="1">
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.56603773584905659</v>
       </c>
       <c r="K83">
-        <v>3796</v>
+        <v>4263</v>
       </c>
       <c r="L83">
-        <v>4513</v>
+        <v>4046</v>
       </c>
       <c r="M83">
         <v>8309</v>
       </c>
-      <c r="O83" s="11">
-        <v>0.45685401372006257</v>
-      </c>
-      <c r="P83" s="11">
-        <v>0.54314598627993738</v>
+      <c r="O83" s="1">
+        <v>0.51305812973883735</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0.48694187026116259</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3793,34 +3789,34 @@
         <v>90</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
-      <c r="H84" s="11">
-        <v>0.36</v>
-      </c>
-      <c r="I84" s="11">
-        <v>0.64</v>
+      <c r="H84" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.6</v>
       </c>
       <c r="K84">
-        <v>2091</v>
+        <v>2219</v>
       </c>
       <c r="L84">
-        <v>2569</v>
+        <v>2441</v>
       </c>
       <c r="M84">
         <v>4660</v>
       </c>
-      <c r="O84" s="11">
-        <v>0.4487124463519313</v>
-      </c>
-      <c r="P84" s="11">
-        <v>0.5512875536480687</v>
+      <c r="O84" s="1">
+        <v>0.47618025751072962</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0.52381974248927043</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3828,34 +3824,34 @@
         <v>91</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E85">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>76</v>
       </c>
-      <c r="H85" s="11">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="I85" s="11">
-        <v>0.89473684210526316</v>
+      <c r="H85" s="1">
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.71052631578947367</v>
       </c>
       <c r="K85">
-        <v>915</v>
+        <v>2430</v>
       </c>
       <c r="L85">
-        <v>5520</v>
+        <v>4005</v>
       </c>
       <c r="M85">
         <v>6435</v>
       </c>
-      <c r="O85" s="11">
-        <v>0.14219114219114218</v>
-      </c>
-      <c r="P85" s="11">
-        <v>0.85780885780885785</v>
+      <c r="O85" s="1">
+        <v>0.3776223776223776</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0.6223776223776224</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3863,34 +3859,34 @@
         <v>92</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E86">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F86">
         <v>113</v>
       </c>
-      <c r="H86" s="11">
-        <v>0.23008849557522124</v>
-      </c>
-      <c r="I86" s="11">
-        <v>0.76991150442477874</v>
+      <c r="H86" s="1">
+        <v>0.26548672566371684</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.73451327433628322</v>
       </c>
       <c r="K86">
-        <v>2180</v>
+        <v>2611</v>
       </c>
       <c r="L86">
-        <v>6149</v>
+        <v>5718</v>
       </c>
       <c r="M86">
         <v>8329</v>
       </c>
-      <c r="O86" s="11">
-        <v>0.26173610277344217</v>
-      </c>
-      <c r="P86" s="11">
-        <v>0.73826389722655783</v>
+      <c r="O86" s="1">
+        <v>0.31348301116580624</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0.68651698883419376</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3898,39 +3894,39 @@
         <v>93</v>
       </c>
       <c r="B87" s="12"/>
-      <c r="C87" s="15"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="12">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="E87" s="12">
-        <v>1626</v>
+        <v>1564</v>
       </c>
       <c r="F87" s="12">
         <v>2148</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="13">
-        <v>0.24301675977653631</v>
+        <v>0.27188081936685288</v>
       </c>
       <c r="I87" s="13">
-        <v>0.75698324022346364</v>
-      </c>
-      <c r="J87" s="15"/>
+        <v>0.72811918063314707</v>
+      </c>
+      <c r="J87" s="12"/>
       <c r="K87" s="12">
-        <v>49274</v>
+        <v>55401</v>
       </c>
       <c r="L87" s="12">
-        <v>110203</v>
+        <v>104076</v>
       </c>
       <c r="M87" s="12">
         <v>159477</v>
       </c>
       <c r="N87" s="12"/>
       <c r="O87" s="13">
-        <v>0.3089724537080582</v>
+        <v>0.34739178690344064</v>
       </c>
       <c r="P87" s="13">
-        <v>0.69102754629194174</v>
+        <v>0.65260821309655936</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3949,10 +3945,10 @@
       <c r="F88">
         <v>155</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="1">
         <v>0.37419354838709679</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I88" s="1">
         <v>0.62580645161290327</v>
       </c>
       <c r="K88">
@@ -3964,10 +3960,10 @@
       <c r="M88">
         <v>12476</v>
       </c>
-      <c r="O88" s="11">
+      <c r="O88" s="1">
         <v>0.48012183392112856</v>
       </c>
-      <c r="P88" s="11">
+      <c r="P88" s="1">
         <v>0.51987816607887138</v>
       </c>
     </row>
@@ -3976,7 +3972,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="12"/>
-      <c r="C89" s="15"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="12">
         <v>58</v>
       </c>
@@ -3993,7 +3989,7 @@
       <c r="I89" s="13">
         <v>0.62580645161290327</v>
       </c>
-      <c r="J89" s="15"/>
+      <c r="J89" s="12"/>
       <c r="K89" s="12">
         <v>5990</v>
       </c>
@@ -4019,34 +4015,34 @@
         <v>97</v>
       </c>
       <c r="D90">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E90">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F90">
         <v>481</v>
       </c>
-      <c r="H90" s="11">
-        <v>0.34719334719334721</v>
-      </c>
-      <c r="I90" s="11">
-        <v>0.65280665280665284</v>
+      <c r="H90" s="1">
+        <v>0.36382536382536385</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.63617463617463621</v>
       </c>
       <c r="K90">
-        <v>16233</v>
+        <v>16988</v>
       </c>
       <c r="L90">
-        <v>22441</v>
+        <v>21686</v>
       </c>
       <c r="M90">
         <v>38674</v>
       </c>
-      <c r="O90" s="11">
-        <v>0.4197393597765941</v>
-      </c>
-      <c r="P90" s="11">
-        <v>0.58026064022340595</v>
+      <c r="O90" s="1">
+        <v>0.43926151936701657</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0.56073848063298337</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4054,34 +4050,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E91">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F91">
         <v>460</v>
       </c>
-      <c r="H91" s="11">
-        <v>0.42608695652173911</v>
-      </c>
-      <c r="I91" s="11">
-        <v>0.57391304347826089</v>
+      <c r="H91" s="1">
+        <v>0.43043478260869567</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.56956521739130439</v>
       </c>
       <c r="K91">
-        <v>20066</v>
+        <v>20234</v>
       </c>
       <c r="L91">
-        <v>20423</v>
+        <v>20255</v>
       </c>
       <c r="M91">
         <v>40489</v>
       </c>
-      <c r="O91" s="11">
-        <v>0.49559139519375633</v>
-      </c>
-      <c r="P91" s="11">
-        <v>0.50440860480624372</v>
+      <c r="O91" s="1">
+        <v>0.49974067030551506</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0.50025932969448494</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4089,34 +4085,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E92">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F92">
         <v>904</v>
       </c>
-      <c r="H92" s="11">
-        <v>0.41371681415929201</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0.58628318584070793</v>
+      <c r="H92" s="1">
+        <v>0.42256637168141592</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.57743362831858402</v>
       </c>
       <c r="K92">
-        <v>38306</v>
+        <v>38943</v>
       </c>
       <c r="L92">
-        <v>37220</v>
+        <v>36583</v>
       </c>
       <c r="M92">
         <v>75526</v>
       </c>
-      <c r="O92" s="11">
-        <v>0.50718957709927703</v>
-      </c>
-      <c r="P92" s="11">
-        <v>0.49281042290072291</v>
+      <c r="O92" s="1">
+        <v>0.51562375870561128</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.48437624129438867</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4124,34 +4120,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E93">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F93">
         <v>669</v>
       </c>
-      <c r="H93" s="11">
-        <v>0.28400597907324365</v>
-      </c>
-      <c r="I93" s="11">
-        <v>0.71599402092675635</v>
+      <c r="H93" s="1">
+        <v>0.30343796711509718</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.69656203288490282</v>
       </c>
       <c r="K93">
-        <v>19360</v>
+        <v>20427</v>
       </c>
       <c r="L93">
-        <v>38307</v>
+        <v>37240</v>
       </c>
       <c r="M93">
         <v>57667</v>
       </c>
-      <c r="O93" s="11">
-        <v>0.33572060277108223</v>
-      </c>
-      <c r="P93" s="11">
-        <v>0.66427939722891771</v>
+      <c r="O93" s="1">
+        <v>0.35422338599198849</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.64577661400801156</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4167,10 +4163,10 @@
       <c r="F94">
         <v>99</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="1">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I94" s="11">
+      <c r="I94" s="1">
         <v>0.49494949494949497</v>
       </c>
       <c r="K94">
@@ -4182,10 +4178,10 @@
       <c r="M94">
         <v>8375</v>
       </c>
-      <c r="O94" s="11">
+      <c r="O94" s="1">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P94" s="11">
+      <c r="P94" s="1">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4202,10 +4198,10 @@
       <c r="F95">
         <v>148</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="1">
         <v>0.46621621621621623</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="1">
         <v>0.53378378378378377</v>
       </c>
       <c r="K95">
@@ -4217,10 +4213,10 @@
       <c r="M95">
         <v>12049</v>
       </c>
-      <c r="O95" s="11">
+      <c r="O95" s="1">
         <v>0.58602373640966055</v>
       </c>
-      <c r="P95" s="11">
+      <c r="P95" s="1">
         <v>0.41397626359033945</v>
       </c>
     </row>
@@ -4237,10 +4233,10 @@
       <c r="F96">
         <v>97</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="1">
         <v>0.30927835051546393</v>
       </c>
-      <c r="I96" s="11">
+      <c r="I96" s="1">
         <v>0.69072164948453607</v>
       </c>
       <c r="K96">
@@ -4252,10 +4248,10 @@
       <c r="M96">
         <v>8171</v>
       </c>
-      <c r="O96" s="11">
+      <c r="O96" s="1">
         <v>0.37669807857055437</v>
       </c>
-      <c r="P96" s="11">
+      <c r="P96" s="1">
         <v>0.62330192142944563</v>
       </c>
     </row>
@@ -4272,10 +4268,10 @@
       <c r="F97">
         <v>117</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="1">
         <v>0.68376068376068377</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I97" s="1">
         <v>0.31623931623931623</v>
       </c>
       <c r="K97">
@@ -4287,10 +4283,10 @@
       <c r="M97">
         <v>10528</v>
       </c>
-      <c r="O97" s="11">
+      <c r="O97" s="1">
         <v>0.79160334346504557</v>
       </c>
-      <c r="P97" s="11">
+      <c r="P97" s="1">
         <v>0.2083966565349544</v>
       </c>
     </row>
@@ -4307,10 +4303,10 @@
       <c r="F98">
         <v>70</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="1">
         <v>0.3</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="1">
         <v>0.7</v>
       </c>
       <c r="K98">
@@ -4322,10 +4318,10 @@
       <c r="M98">
         <v>6020</v>
       </c>
-      <c r="O98" s="11">
+      <c r="O98" s="1">
         <v>0.35299003322259137</v>
       </c>
-      <c r="P98" s="11">
+      <c r="P98" s="1">
         <v>0.64700996677740863</v>
       </c>
     </row>
@@ -4334,34 +4330,34 @@
         <v>106</v>
       </c>
       <c r="D99">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E99">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F99">
         <v>364</v>
       </c>
-      <c r="H99" s="11">
-        <v>0.48901098901098899</v>
-      </c>
-      <c r="I99" s="11">
-        <v>0.51098901098901095</v>
+      <c r="H99" s="1">
+        <v>0.49725274725274726</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.50274725274725274</v>
       </c>
       <c r="K99">
-        <v>15754</v>
+        <v>15946</v>
       </c>
       <c r="L99">
-        <v>10961</v>
+        <v>10769</v>
       </c>
       <c r="M99">
         <v>26715</v>
       </c>
-      <c r="O99" s="11">
-        <v>0.58970615758936928</v>
-      </c>
-      <c r="P99" s="11">
-        <v>0.41029384241063072</v>
+      <c r="O99" s="1">
+        <v>0.59689313119970056</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0.40310686880029944</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -4369,34 +4365,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E100">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F100">
         <v>244</v>
       </c>
-      <c r="H100" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="I100" s="11">
-        <v>0.75</v>
+      <c r="H100" s="1">
+        <v>0.29098360655737704</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.70901639344262291</v>
       </c>
       <c r="K100">
-        <v>5739</v>
+        <v>6668</v>
       </c>
       <c r="L100">
-        <v>13618</v>
+        <v>12689</v>
       </c>
       <c r="M100">
         <v>19357</v>
       </c>
-      <c r="O100" s="11">
-        <v>0.2964818928552978</v>
-      </c>
-      <c r="P100" s="11">
-        <v>0.7035181071447022</v>
+      <c r="O100" s="1">
+        <v>0.34447486697318802</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0.65552513302681203</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4412,10 +4408,10 @@
       <c r="F101">
         <v>175</v>
       </c>
-      <c r="H101" s="11">
+      <c r="H101" s="1">
         <v>0.38857142857142857</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101" s="1">
         <v>0.61142857142857143</v>
       </c>
       <c r="K101">
@@ -4427,10 +4423,10 @@
       <c r="M101">
         <v>13756</v>
       </c>
-      <c r="O101" s="11">
+      <c r="O101" s="1">
         <v>0.46227100901424834</v>
       </c>
-      <c r="P101" s="11">
+      <c r="P101" s="1">
         <v>0.53772899098575166</v>
       </c>
     </row>
@@ -4447,10 +4443,10 @@
       <c r="F102">
         <v>381</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="1">
         <v>0.38057742782152232</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I102" s="1">
         <v>0.61942257217847774</v>
       </c>
       <c r="K102">
@@ -4462,10 +4458,10 @@
       <c r="M102">
         <v>33844</v>
       </c>
-      <c r="O102" s="11">
+      <c r="O102" s="1">
         <v>0.45789504786668245</v>
       </c>
-      <c r="P102" s="11">
+      <c r="P102" s="1">
         <v>0.54210495213331755</v>
       </c>
     </row>
@@ -4474,34 +4470,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E103">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F103">
         <v>892</v>
       </c>
-      <c r="H103" s="11">
-        <v>0.3452914798206278</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0.6547085201793722</v>
+      <c r="H103" s="1">
+        <v>0.35201793721973096</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.64798206278026904</v>
       </c>
       <c r="K103">
-        <v>29001</v>
+        <v>29440</v>
       </c>
       <c r="L103">
-        <v>40283</v>
+        <v>39844</v>
       </c>
       <c r="M103">
         <v>69284</v>
       </c>
-      <c r="O103" s="11">
-        <v>0.41858149067605799</v>
-      </c>
-      <c r="P103" s="11">
-        <v>0.58141850932394201</v>
+      <c r="O103" s="1">
+        <v>0.42491772992321458</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0.57508227007678536</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4517,10 +4513,10 @@
       <c r="F104">
         <v>145</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="1">
         <v>0.57241379310344831</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I104" s="1">
         <v>0.42758620689655175</v>
       </c>
       <c r="K104">
@@ -4532,10 +4528,10 @@
       <c r="M104">
         <v>12605</v>
       </c>
-      <c r="O104" s="11">
+      <c r="O104" s="1">
         <v>0.66806822689408962</v>
       </c>
-      <c r="P104" s="11">
+      <c r="P104" s="1">
         <v>0.33193177310591038</v>
       </c>
     </row>
@@ -4552,10 +4548,10 @@
       <c r="F105">
         <v>48</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I105" s="11">
+      <c r="I105" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="K105">
@@ -4567,10 +4563,10 @@
       <c r="M105">
         <v>4569</v>
       </c>
-      <c r="O105" s="11">
+      <c r="O105" s="1">
         <v>0.50798861895381919</v>
       </c>
-      <c r="P105" s="11">
+      <c r="P105" s="1">
         <v>0.49201138104618081</v>
       </c>
     </row>
@@ -4579,34 +4575,34 @@
         <v>113</v>
       </c>
       <c r="D106">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E106">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F106">
         <v>297</v>
       </c>
-      <c r="H106" s="11">
-        <v>0.31313131313131315</v>
-      </c>
-      <c r="I106" s="11">
-        <v>0.68686868686868685</v>
+      <c r="H106" s="1">
+        <v>0.32659932659932661</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.67340067340067344</v>
       </c>
       <c r="K106">
-        <v>8253</v>
+        <v>8577</v>
       </c>
       <c r="L106">
-        <v>15847</v>
+        <v>15523</v>
       </c>
       <c r="M106">
         <v>24100</v>
       </c>
-      <c r="O106" s="11">
-        <v>0.34244813278008301</v>
-      </c>
-      <c r="P106" s="11">
-        <v>0.65755186721991699</v>
+      <c r="O106" s="1">
+        <v>0.3558921161825726</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0.64410788381742734</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
@@ -4614,34 +4610,34 @@
         <v>114</v>
       </c>
       <c r="D107">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E107">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F107">
         <v>537</v>
       </c>
-      <c r="H107" s="11">
-        <v>0.40409683426443205</v>
-      </c>
-      <c r="I107" s="11">
-        <v>0.59590316573556801</v>
+      <c r="H107" s="1">
+        <v>0.41154562383612664</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.58845437616387342</v>
       </c>
       <c r="K107">
-        <v>21770</v>
+        <v>22154</v>
       </c>
       <c r="L107">
-        <v>24654</v>
+        <v>24270</v>
       </c>
       <c r="M107">
         <v>46424</v>
       </c>
-      <c r="O107" s="11">
-        <v>0.4689384800965018</v>
-      </c>
-      <c r="P107" s="11">
-        <v>0.53106151990349815</v>
+      <c r="O107" s="1">
+        <v>0.47721006376012409</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0.52278993623987591</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -4649,34 +4645,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E108">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F108">
         <v>529</v>
       </c>
-      <c r="H108" s="11">
-        <v>0.52173913043478259</v>
-      </c>
-      <c r="I108" s="11">
-        <v>0.47826086956521741</v>
+      <c r="H108" s="1">
+        <v>0.5311909262759924</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.46880907372400754</v>
       </c>
       <c r="K108">
-        <v>28564</v>
+        <v>28900</v>
       </c>
       <c r="L108">
-        <v>17937</v>
+        <v>17601</v>
       </c>
       <c r="M108">
         <v>46501</v>
       </c>
-      <c r="O108" s="11">
-        <v>0.61426635986322875</v>
-      </c>
-      <c r="P108" s="11">
-        <v>0.38573364013677125</v>
+      <c r="O108" s="1">
+        <v>0.62149201092449624</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0.37850798907550376</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4692,10 +4688,10 @@
       <c r="F109">
         <v>171</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H109" s="1">
         <v>0.25146198830409355</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="1">
         <v>0.74853801169590639</v>
       </c>
       <c r="K109">
@@ -4707,10 +4703,10 @@
       <c r="M109">
         <v>13485</v>
       </c>
-      <c r="O109" s="11">
+      <c r="O109" s="1">
         <v>0.31523915461624025</v>
       </c>
-      <c r="P109" s="11">
+      <c r="P109" s="1">
         <v>0.6847608453837597</v>
       </c>
     </row>
@@ -4727,10 +4723,10 @@
       <c r="F110">
         <v>69</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110" s="1">
         <v>0.42028985507246375</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I110" s="1">
         <v>0.57971014492753625</v>
       </c>
       <c r="K110">
@@ -4742,10 +4738,10 @@
       <c r="M110">
         <v>6367</v>
       </c>
-      <c r="O110" s="11">
+      <c r="O110" s="1">
         <v>0.48264488770221453</v>
       </c>
-      <c r="P110" s="11">
+      <c r="P110" s="1">
         <v>0.51735511229778541</v>
       </c>
     </row>
@@ -4762,10 +4758,10 @@
       <c r="F111">
         <v>160</v>
       </c>
-      <c r="H111" s="11">
+      <c r="H111" s="1">
         <v>0.85624999999999996</v>
       </c>
-      <c r="I111" s="11">
+      <c r="I111" s="1">
         <v>0.14374999999999999</v>
       </c>
       <c r="K111">
@@ -4777,10 +4773,10 @@
       <c r="M111">
         <v>16149</v>
       </c>
-      <c r="O111" s="11">
+      <c r="O111" s="1">
         <v>0.92600161000681158</v>
       </c>
-      <c r="P111" s="11">
+      <c r="P111" s="1">
         <v>7.3998389993188432E-2</v>
       </c>
     </row>
@@ -4789,34 +4785,34 @@
         <v>119</v>
       </c>
       <c r="D112">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E112">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="F112">
         <v>209</v>
       </c>
-      <c r="H112" s="11">
-        <v>0.39712918660287083</v>
-      </c>
-      <c r="I112" s="11">
-        <v>0.60287081339712922</v>
+      <c r="H112" s="1">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0.36363636363636365</v>
       </c>
       <c r="K112">
-        <v>8715</v>
+        <v>12881</v>
       </c>
       <c r="L112">
-        <v>8459</v>
+        <v>4293</v>
       </c>
       <c r="M112">
         <v>17174</v>
       </c>
-      <c r="O112" s="11">
-        <v>0.50745312681961108</v>
-      </c>
-      <c r="P112" s="11">
-        <v>0.49254687318038898</v>
+      <c r="O112" s="1">
+        <v>0.75002911377663906</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0.24997088622336089</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4824,34 +4820,34 @@
         <v>120</v>
       </c>
       <c r="D113">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E113">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F113">
         <v>961</v>
       </c>
-      <c r="H113" s="11">
-        <v>0.31633714880332986</v>
-      </c>
-      <c r="I113" s="11">
-        <v>0.68366285119667014</v>
+      <c r="H113" s="1">
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.67741935483870963</v>
       </c>
       <c r="K113">
-        <v>29953</v>
+        <v>30402</v>
       </c>
       <c r="L113">
-        <v>45521</v>
+        <v>45072</v>
       </c>
       <c r="M113">
         <v>75474</v>
       </c>
-      <c r="O113" s="11">
-        <v>0.3968651456130588</v>
-      </c>
-      <c r="P113" s="11">
-        <v>0.60313485438694114</v>
+      <c r="O113" s="1">
+        <v>0.4028142141664679</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0.5971857858335321</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -4859,34 +4855,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E114">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F114">
         <v>432</v>
       </c>
-      <c r="H114" s="11">
-        <v>0.58796296296296291</v>
-      </c>
-      <c r="I114" s="11">
-        <v>0.41203703703703703</v>
+      <c r="H114" s="1">
+        <v>0.60879629629629628</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.39120370370370372</v>
       </c>
       <c r="K114">
-        <v>27391</v>
+        <v>28000</v>
       </c>
       <c r="L114">
-        <v>14528</v>
+        <v>13919</v>
       </c>
       <c r="M114">
         <v>41919</v>
       </c>
-      <c r="O114" s="11">
-        <v>0.65342684701448028</v>
-      </c>
-      <c r="P114" s="11">
-        <v>0.34657315298551972</v>
+      <c r="O114" s="1">
+        <v>0.66795486533552806</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0.33204513466447194</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4894,34 +4890,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E115">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F115">
         <v>496</v>
       </c>
-      <c r="H115" s="11">
-        <v>0.36491935483870969</v>
-      </c>
-      <c r="I115" s="11">
-        <v>0.63508064516129037</v>
+      <c r="H115" s="1">
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.61290322580645162</v>
       </c>
       <c r="K115">
-        <v>16956</v>
+        <v>17842</v>
       </c>
       <c r="L115">
-        <v>19237</v>
+        <v>18351</v>
       </c>
       <c r="M115">
         <v>36193</v>
       </c>
-      <c r="O115" s="11">
-        <v>0.468488381731274</v>
-      </c>
-      <c r="P115" s="11">
-        <v>0.53151161826872595</v>
+      <c r="O115" s="1">
+        <v>0.49296825352968804</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0.50703174647031191</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4929,34 +4925,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E116">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F116">
         <v>223</v>
       </c>
-      <c r="H116" s="11">
-        <v>0.37219730941704038</v>
-      </c>
-      <c r="I116" s="11">
-        <v>0.62780269058295968</v>
+      <c r="H116" s="1">
+        <v>0.40807174887892378</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.59192825112107628</v>
       </c>
       <c r="K116">
-        <v>8187</v>
+        <v>8885</v>
       </c>
       <c r="L116">
-        <v>9547</v>
+        <v>8849</v>
       </c>
       <c r="M116">
         <v>17734</v>
       </c>
-      <c r="O116" s="11">
-        <v>0.46165557685801284</v>
-      </c>
-      <c r="P116" s="11">
-        <v>0.53834442314198716</v>
+      <c r="O116" s="1">
+        <v>0.50101499943611139</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0.49898500056388856</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4972,10 +4968,10 @@
       <c r="F117">
         <v>85</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="1">
         <v>0.6</v>
       </c>
-      <c r="I117" s="11">
+      <c r="I117" s="1">
         <v>0.4</v>
       </c>
       <c r="K117">
@@ -4987,10 +4983,10 @@
       <c r="M117">
         <v>7129</v>
       </c>
-      <c r="O117" s="11">
+      <c r="O117" s="1">
         <v>0.72296254734184318</v>
       </c>
-      <c r="P117" s="11">
+      <c r="P117" s="1">
         <v>0.27703745265815682</v>
       </c>
     </row>
@@ -5007,10 +5003,10 @@
       <c r="F118">
         <v>87</v>
       </c>
-      <c r="H118" s="11">
+      <c r="H118" s="1">
         <v>0.68965517241379315</v>
       </c>
-      <c r="I118" s="11">
+      <c r="I118" s="1">
         <v>0.31034482758620691</v>
       </c>
       <c r="K118">
@@ -5022,10 +5018,10 @@
       <c r="M118">
         <v>7737</v>
       </c>
-      <c r="O118" s="11">
+      <c r="O118" s="1">
         <v>0.75003231226573608</v>
       </c>
-      <c r="P118" s="11">
+      <c r="P118" s="1">
         <v>0.24996768773426392</v>
       </c>
     </row>
@@ -5034,34 +5030,34 @@
         <v>126</v>
       </c>
       <c r="D119">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E119">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F119">
         <v>396</v>
       </c>
-      <c r="H119" s="11">
-        <v>0.39393939393939392</v>
-      </c>
-      <c r="I119" s="11">
-        <v>0.60606060606060608</v>
+      <c r="H119" s="1">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.5757575757575758</v>
       </c>
       <c r="K119">
-        <v>16079</v>
+        <v>17267</v>
       </c>
       <c r="L119">
-        <v>18918</v>
+        <v>17730</v>
       </c>
       <c r="M119">
         <v>34997</v>
       </c>
-      <c r="O119" s="11">
-        <v>0.45943938051833016</v>
-      </c>
-      <c r="P119" s="11">
-        <v>0.54056061948166989</v>
+      <c r="O119" s="1">
+        <v>0.49338514729833988</v>
+      </c>
+      <c r="P119" s="1">
+        <v>0.50661485270166018</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -5077,10 +5073,10 @@
       <c r="F120">
         <v>212</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120" s="1">
         <v>0.35377358490566035</v>
       </c>
-      <c r="I120" s="11">
+      <c r="I120" s="1">
         <v>0.64622641509433965</v>
       </c>
       <c r="K120">
@@ -5092,10 +5088,10 @@
       <c r="M120">
         <v>15246</v>
       </c>
-      <c r="O120" s="11">
+      <c r="O120" s="1">
         <v>0.44339498884953432</v>
       </c>
-      <c r="P120" s="11">
+      <c r="P120" s="1">
         <v>0.55660501115046568</v>
       </c>
     </row>
@@ -5112,10 +5108,10 @@
       <c r="F121">
         <v>150</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="1">
         <v>0.32</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I121" s="1">
         <v>0.68</v>
       </c>
       <c r="K121">
@@ -5127,10 +5123,10 @@
       <c r="M121">
         <v>13900</v>
       </c>
-      <c r="O121" s="11">
+      <c r="O121" s="1">
         <v>0.33568345323741006</v>
       </c>
-      <c r="P121" s="11">
+      <c r="P121" s="1">
         <v>0.66431654676258989</v>
       </c>
     </row>
@@ -5147,10 +5143,10 @@
       <c r="F122">
         <v>126</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="1">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122" s="1">
         <v>0.53968253968253965</v>
       </c>
       <c r="K122">
@@ -5162,10 +5158,10 @@
       <c r="M122">
         <v>11464</v>
       </c>
-      <c r="O122" s="11">
+      <c r="O122" s="1">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P122" s="11">
+      <c r="P122" s="1">
         <v>0.46606769016050242</v>
       </c>
     </row>
@@ -5174,39 +5170,39 @@
         <v>130</v>
       </c>
       <c r="B123" s="12"/>
-      <c r="C123" s="15"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="12">
-        <v>4191</v>
+        <v>4350</v>
       </c>
       <c r="E123" s="12">
-        <v>6243</v>
+        <v>6084</v>
       </c>
       <c r="F123" s="12">
         <v>10434</v>
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="13">
-        <v>0.40166762507188042</v>
+        <v>0.41690626797009778</v>
       </c>
       <c r="I123" s="13">
-        <v>0.59833237492811964</v>
-      </c>
-      <c r="J123" s="15"/>
+        <v>0.58309373202990222</v>
+      </c>
+      <c r="J123" s="12"/>
       <c r="K123" s="12">
-        <v>419393</v>
+        <v>432620</v>
       </c>
       <c r="L123" s="12">
-        <v>450229</v>
+        <v>437002</v>
       </c>
       <c r="M123" s="12">
         <v>869622</v>
       </c>
       <c r="N123" s="12"/>
       <c r="O123" s="13">
-        <v>0.48227045773910965</v>
+        <v>0.49748051452240166</v>
       </c>
       <c r="P123" s="13">
-        <v>0.51772954226089041</v>
+        <v>0.50251948547759828</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -5225,10 +5221,10 @@
       <c r="F124">
         <v>143</v>
       </c>
-      <c r="H124" s="11">
+      <c r="H124" s="1">
         <v>0.28671328671328672</v>
       </c>
-      <c r="I124" s="11">
+      <c r="I124" s="1">
         <v>0.71328671328671334</v>
       </c>
       <c r="K124">
@@ -5240,10 +5236,10 @@
       <c r="M124">
         <v>11101</v>
       </c>
-      <c r="O124" s="11">
+      <c r="O124" s="1">
         <v>0.3316818304657238</v>
       </c>
-      <c r="P124" s="11">
+      <c r="P124" s="1">
         <v>0.66831816953427614</v>
       </c>
     </row>
@@ -5260,10 +5256,10 @@
       <c r="F125">
         <v>786</v>
       </c>
-      <c r="H125" s="11">
+      <c r="H125" s="1">
         <v>0.37277353689567427</v>
       </c>
-      <c r="I125" s="11">
+      <c r="I125" s="1">
         <v>0.62722646310432573</v>
       </c>
       <c r="K125">
@@ -5275,10 +5271,10 @@
       <c r="M125">
         <v>72662</v>
       </c>
-      <c r="O125" s="11">
+      <c r="O125" s="1">
         <v>0.43266081307973908</v>
       </c>
-      <c r="P125" s="11">
+      <c r="P125" s="1">
         <v>0.56733918692026097</v>
       </c>
     </row>
@@ -5295,10 +5291,10 @@
       <c r="F126">
         <v>534</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H126" s="1">
         <v>0.31086142322097376</v>
       </c>
-      <c r="I126" s="11">
+      <c r="I126" s="1">
         <v>0.68913857677902624</v>
       </c>
       <c r="K126">
@@ -5310,10 +5306,10 @@
       <c r="M126">
         <v>41286</v>
       </c>
-      <c r="O126" s="11">
+      <c r="O126" s="1">
         <v>0.3927239257859807</v>
       </c>
-      <c r="P126" s="11">
+      <c r="P126" s="1">
         <v>0.6072760742140193</v>
       </c>
     </row>
@@ -5330,10 +5326,10 @@
       <c r="F127">
         <v>224</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H127" s="1">
         <v>0.26785714285714285</v>
       </c>
-      <c r="I127" s="11">
+      <c r="I127" s="1">
         <v>0.7321428571428571</v>
       </c>
       <c r="K127">
@@ -5345,10 +5341,10 @@
       <c r="M127">
         <v>16985</v>
       </c>
-      <c r="O127" s="11">
+      <c r="O127" s="1">
         <v>0.37168089490727113</v>
       </c>
-      <c r="P127" s="11">
+      <c r="P127" s="1">
         <v>0.62831910509272892</v>
       </c>
     </row>
@@ -5357,34 +5353,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E128">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F128">
         <v>209</v>
       </c>
-      <c r="H128" s="11">
-        <v>0.16267942583732056</v>
-      </c>
-      <c r="I128" s="11">
-        <v>0.83732057416267947</v>
+      <c r="H128" s="1">
+        <v>0.17224880382775121</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0.82775119617224879</v>
       </c>
       <c r="K128">
-        <v>3477</v>
+        <v>3597</v>
       </c>
       <c r="L128">
-        <v>13627</v>
+        <v>13507</v>
       </c>
       <c r="M128">
         <v>17104</v>
       </c>
-      <c r="O128" s="11">
-        <v>0.20328578110383536</v>
-      </c>
-      <c r="P128" s="11">
-        <v>0.79671421889616467</v>
+      <c r="O128" s="1">
+        <v>0.21030168381665107</v>
+      </c>
+      <c r="P128" s="1">
+        <v>0.78969831618334896</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5400,10 +5396,10 @@
       <c r="F129">
         <v>481</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="1">
         <v>0.28274428274428276</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129" s="1">
         <v>0.71725571725571724</v>
       </c>
       <c r="K129">
@@ -5415,10 +5411,10 @@
       <c r="M129">
         <v>39422</v>
       </c>
-      <c r="O129" s="11">
+      <c r="O129" s="1">
         <v>0.3692100857389275</v>
       </c>
-      <c r="P129" s="11">
+      <c r="P129" s="1">
         <v>0.63078991426107245</v>
       </c>
     </row>
@@ -5427,34 +5423,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E130">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F130">
         <v>192</v>
       </c>
-      <c r="H130" s="11">
-        <v>0.328125</v>
-      </c>
-      <c r="I130" s="11">
-        <v>0.671875</v>
+      <c r="H130" s="1">
+        <v>0.34895833333333331</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.65104166666666663</v>
       </c>
       <c r="K130">
-        <v>6376</v>
+        <v>6508</v>
       </c>
       <c r="L130">
-        <v>10133</v>
+        <v>10001</v>
       </c>
       <c r="M130">
         <v>16509</v>
       </c>
-      <c r="O130" s="11">
-        <v>0.38621358047125809</v>
-      </c>
-      <c r="P130" s="11">
-        <v>0.61378641952874191</v>
+      <c r="O130" s="1">
+        <v>0.39420921921376217</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0.60579078078623783</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5462,34 +5458,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E131">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F131">
         <v>724</v>
       </c>
-      <c r="H131" s="11">
-        <v>0.34944751381215472</v>
-      </c>
-      <c r="I131" s="11">
-        <v>0.65055248618784534</v>
+      <c r="H131" s="1">
+        <v>0.35497237569060774</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.64502762430939231</v>
       </c>
       <c r="K131">
-        <v>25284</v>
+        <v>25728</v>
       </c>
       <c r="L131">
-        <v>35102</v>
+        <v>34658</v>
       </c>
       <c r="M131">
         <v>60386</v>
       </c>
-      <c r="O131" s="11">
-        <v>0.41870632265756963</v>
-      </c>
-      <c r="P131" s="11">
-        <v>0.58129367734243031</v>
+      <c r="O131" s="1">
+        <v>0.42605902030271919</v>
+      </c>
+      <c r="P131" s="1">
+        <v>0.57394097969728086</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5505,10 +5501,10 @@
       <c r="F132">
         <v>306</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132" s="1">
         <v>0.14705882352941177</v>
       </c>
-      <c r="I132" s="11">
+      <c r="I132" s="1">
         <v>0.8529411764705882</v>
       </c>
       <c r="K132">
@@ -5520,10 +5516,10 @@
       <c r="M132">
         <v>22587</v>
       </c>
-      <c r="O132" s="11">
+      <c r="O132" s="1">
         <v>0.20454243591446408</v>
       </c>
-      <c r="P132" s="11">
+      <c r="P132" s="1">
         <v>0.79545756408553592</v>
       </c>
     </row>
@@ -5532,34 +5528,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E133">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F133">
         <v>431</v>
       </c>
-      <c r="H133" s="11">
-        <v>0.28074245939675174</v>
-      </c>
-      <c r="I133" s="11">
-        <v>0.71925754060324831</v>
+      <c r="H133" s="1">
+        <v>0.29930394431554525</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.70069605568445481</v>
       </c>
       <c r="K133">
-        <v>12209</v>
+        <v>12781</v>
       </c>
       <c r="L133">
-        <v>21702</v>
+        <v>21130</v>
       </c>
       <c r="M133">
         <v>33911</v>
       </c>
-      <c r="O133" s="11">
-        <v>0.36003066851464127</v>
-      </c>
-      <c r="P133" s="11">
-        <v>0.63996933148535873</v>
+      <c r="O133" s="1">
+        <v>0.37689835156733803</v>
+      </c>
+      <c r="P133" s="1">
+        <v>0.62310164843266191</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5567,34 +5563,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E134">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F134">
-        <v>449</v>
-      </c>
-      <c r="H134" s="11">
-        <v>0.32516703786191536</v>
-      </c>
-      <c r="I134" s="11">
-        <v>0.67483296213808464</v>
+        <v>453</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.33774834437086093</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0.66225165562913912</v>
       </c>
       <c r="K134">
-        <v>13431</v>
+        <v>14018</v>
       </c>
       <c r="L134">
-        <v>16610</v>
+        <v>16297</v>
       </c>
       <c r="M134">
-        <v>30041</v>
-      </c>
-      <c r="O134" s="11">
-        <v>0.44708897839619188</v>
-      </c>
-      <c r="P134" s="11">
-        <v>0.55291102160380812</v>
+        <v>30315</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0.4624113475177305</v>
+      </c>
+      <c r="P134" s="1">
+        <v>0.5375886524822695</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5610,10 +5606,10 @@
       <c r="F135">
         <v>193</v>
       </c>
-      <c r="H135" s="11">
+      <c r="H135" s="1">
         <v>0.31088082901554404</v>
       </c>
-      <c r="I135" s="11">
+      <c r="I135" s="1">
         <v>0.68911917098445596</v>
       </c>
       <c r="K135">
@@ -5625,10 +5621,10 @@
       <c r="M135">
         <v>13600</v>
       </c>
-      <c r="O135" s="11">
+      <c r="O135" s="1">
         <v>0.40830882352941178</v>
       </c>
-      <c r="P135" s="11">
+      <c r="P135" s="1">
         <v>0.59169117647058822</v>
       </c>
     </row>
@@ -5645,10 +5641,10 @@
       <c r="F136">
         <v>295</v>
       </c>
-      <c r="H136" s="11">
+      <c r="H136" s="1">
         <v>0.35254237288135593</v>
       </c>
-      <c r="I136" s="11">
+      <c r="I136" s="1">
         <v>0.64745762711864407</v>
       </c>
       <c r="K136">
@@ -5660,10 +5656,10 @@
       <c r="M136">
         <v>24471</v>
       </c>
-      <c r="O136" s="11">
+      <c r="O136" s="1">
         <v>0.44293245065587838</v>
       </c>
-      <c r="P136" s="11">
+      <c r="P136" s="1">
         <v>0.55706754934412162</v>
       </c>
     </row>
@@ -5672,39 +5668,39 @@
         <v>145</v>
       </c>
       <c r="B137" s="12"/>
-      <c r="C137" s="15"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="12">
-        <v>1522</v>
+        <v>1547</v>
       </c>
       <c r="E137" s="12">
-        <v>3445</v>
+        <v>3424</v>
       </c>
       <c r="F137" s="12">
-        <v>4967</v>
+        <v>4971</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="13">
-        <v>0.30642238775921077</v>
+        <v>0.31120498893582782</v>
       </c>
       <c r="I137" s="13">
-        <v>0.69357761224078918</v>
-      </c>
-      <c r="J137" s="15"/>
+        <v>0.68879501106417218</v>
+      </c>
+      <c r="J137" s="12"/>
       <c r="K137" s="12">
-        <v>153991</v>
+        <v>155846</v>
       </c>
       <c r="L137" s="12">
-        <v>246074</v>
+        <v>244493</v>
       </c>
       <c r="M137" s="12">
-        <v>400065</v>
+        <v>400339</v>
       </c>
       <c r="N137" s="12"/>
       <c r="O137" s="13">
-        <v>0.38491495132041043</v>
+        <v>0.38928508089394237</v>
       </c>
       <c r="P137" s="13">
-        <v>0.61508504867958957</v>
+        <v>0.61071491910605757</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5712,39 +5708,39 @@
         <v>5</v>
       </c>
       <c r="B138" s="12"/>
-      <c r="C138" s="15"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="12">
-        <v>20293</v>
+        <v>21085</v>
       </c>
       <c r="E138" s="12">
-        <v>45718</v>
+        <v>44926</v>
       </c>
       <c r="F138" s="12">
         <v>66011</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="13">
-        <v>0.3074184605596037</v>
+        <v>0.3194164608928815</v>
       </c>
       <c r="I138" s="13">
-        <v>0.69258153944039624</v>
-      </c>
-      <c r="J138" s="15"/>
+        <v>0.68058353910711855</v>
+      </c>
+      <c r="J138" s="12"/>
       <c r="K138" s="12">
-        <v>2012864</v>
+        <v>2081222</v>
       </c>
       <c r="L138" s="12">
-        <v>3263072</v>
+        <v>3194714</v>
       </c>
       <c r="M138" s="12">
         <v>5275936</v>
       </c>
       <c r="N138" s="12"/>
       <c r="O138" s="13">
-        <v>0.38151789559236504</v>
+        <v>0.39447445912914791</v>
       </c>
       <c r="P138" s="13">
-        <v>0.61848210440763496</v>
+        <v>0.60552554087085209</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05B4ED8-5895-4796-8BC3-89500A6B4D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB8F68-4D57-475B-B4A5-2B3850023B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EEAB349-0531-4DDB-8633-E82EE94822C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80B67023-6F1E-43A9-9CDB-7BDBF4224FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="149">
   <si>
     <t>GitHub?</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Yorkshire West Riding</t>
+  </si>
+  <si>
+    <t>Yorkshire York</t>
   </si>
   <si>
     <t>England Total</t>
@@ -555,19 +558,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -883,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D891D457-EDFD-470C-9097-3C4B9745BED7}">
-  <dimension ref="A1:P138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506FB11-DBAC-46F3-8717-B04FA4EC0FB7}">
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -897,99 +901,98 @@
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1009,10 +1012,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="11">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1024,10 +1027,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="11">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="11">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1036,34 +1039,34 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.23008849557522124</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.76991150442477874</v>
+      <c r="H5" s="11">
+        <v>0.25663716814159293</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.74336283185840712</v>
       </c>
       <c r="K5">
-        <v>2374</v>
+        <v>2413</v>
       </c>
       <c r="L5">
-        <v>5351</v>
+        <v>5312</v>
       </c>
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="1">
-        <v>0.3073139158576052</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.69268608414239485</v>
+      <c r="O5" s="11">
+        <v>0.31236245954692554</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.68763754045307446</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1076,10 +1079,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1088,10 +1091,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1108,10 +1111,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="11">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="11">
         <v>0.65486725663716816</v>
       </c>
       <c r="K7">
@@ -1123,10 +1126,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="11">
         <v>0.42883233897479606</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="11">
         <v>0.571167661025204</v>
       </c>
     </row>
@@ -1143,10 +1146,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="11">
         <v>0.25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="11">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1158,51 +1161,51 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="11">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="11">
         <v>0.78716744913928016</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>70</v>
-      </c>
-      <c r="E9" s="12">
-        <v>176</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
+        <v>73</v>
+      </c>
+      <c r="E9" s="13">
+        <v>173</v>
+      </c>
+      <c r="F9" s="13">
         <v>246</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13">
-        <v>0.28455284552845528</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0.71544715447154472</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
-        <v>6284</v>
-      </c>
-      <c r="L9" s="12">
-        <v>11345</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
+        <v>0.2967479674796748</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.7032520325203252</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
+        <v>6323</v>
+      </c>
+      <c r="L9" s="13">
+        <v>11306</v>
+      </c>
+      <c r="M9" s="13">
         <v>17629</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13">
-        <v>0.35645810879800327</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0.64354189120199667</v>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14">
+        <v>0.3586703726813773</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.64132962731862275</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1213,34 +1216,34 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E10">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.24939467312348668</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.75060532687651327</v>
+      <c r="H10" s="11">
+        <v>0.29297820823244553</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.70702179176755453</v>
       </c>
       <c r="K10">
-        <v>9816</v>
+        <v>11615</v>
       </c>
       <c r="L10">
-        <v>22413</v>
+        <v>20614</v>
       </c>
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="1">
-        <v>0.30457041794656986</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.6954295820534302</v>
+      <c r="O10" s="11">
+        <v>0.3603897111297279</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.63961028887027216</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1248,34 +1251,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E11">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.20971867007672634</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.79028132992327371</v>
+      <c r="H11" s="11">
+        <v>0.21483375959079284</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.78516624040920713</v>
       </c>
       <c r="K11">
-        <v>16037</v>
+        <v>16319</v>
       </c>
       <c r="L11">
-        <v>44595</v>
+        <v>44313</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="1">
-        <v>0.26449729515767251</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.73550270484232749</v>
+      <c r="O11" s="11">
+        <v>0.26914830452566302</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.73085169547433704</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1283,34 +1286,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E12">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="F12">
         <v>572</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.76923076923076927</v>
+      <c r="H12" s="11">
+        <v>0.2674825174825175</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.7325174825174825</v>
       </c>
       <c r="K12">
-        <v>13071</v>
+        <v>15038</v>
       </c>
       <c r="L12">
-        <v>30694</v>
+        <v>28727</v>
       </c>
       <c r="M12">
         <v>43765</v>
       </c>
-      <c r="O12" s="1">
-        <v>0.29866331543470809</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.70133668456529186</v>
+      <c r="O12" s="11">
+        <v>0.34360790586084772</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.65639209413915234</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1318,34 +1321,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E13">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F13">
         <v>566</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.303886925795053</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.69611307420494695</v>
+      <c r="H13" s="11">
+        <v>0.31978798586572438</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.68021201413427557</v>
       </c>
       <c r="K13">
-        <v>17978</v>
+        <v>18777</v>
       </c>
       <c r="L13">
-        <v>29645</v>
+        <v>28846</v>
       </c>
       <c r="M13">
         <v>47623</v>
       </c>
-      <c r="O13" s="1">
-        <v>0.37750666694664342</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.62249333305335652</v>
+      <c r="O13" s="11">
+        <v>0.39428427440522434</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0.6057157255947756</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1353,34 +1356,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="E14">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="F14">
         <v>1109</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.37150586113615869</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.62849413886384131</v>
+      <c r="H14" s="11">
+        <v>0.39314697926059511</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.60685302073940484</v>
       </c>
       <c r="K14">
-        <v>40416</v>
+        <v>42913</v>
       </c>
       <c r="L14">
-        <v>52055</v>
+        <v>49558</v>
       </c>
       <c r="M14">
         <v>92471</v>
       </c>
-      <c r="O14" s="1">
-        <v>0.43706675606406331</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.56293324393593669</v>
+      <c r="O14" s="11">
+        <v>0.46406981648300549</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0.53593018351699451</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1396,10 +1399,10 @@
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="11">
         <v>0.42034943473792397</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="11">
         <v>0.57965056526207603</v>
       </c>
       <c r="K15">
@@ -1411,10 +1414,10 @@
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="11">
         <v>0.5196165429708508</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="11">
         <v>0.4803834570291492</v>
       </c>
     </row>
@@ -1423,34 +1426,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E16">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.43911439114391143</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.56088560885608851</v>
+      <c r="H16" s="11">
+        <v>0.44741697416974169</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.55258302583025831</v>
       </c>
       <c r="K16">
-        <v>42967</v>
+        <v>43879</v>
       </c>
       <c r="L16">
-        <v>39513</v>
+        <v>38601</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="1">
-        <v>0.52093840931134816</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.47906159068865178</v>
+      <c r="O16" s="11">
+        <v>0.53199563530552862</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.46800436469447138</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1458,34 +1461,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="E17">
-        <v>928</v>
+        <v>893</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.24244897959183673</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.75755102040816324</v>
+      <c r="H17" s="11">
+        <v>0.27102040816326528</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.72897959183673466</v>
       </c>
       <c r="K17">
-        <v>30032</v>
+        <v>33716</v>
       </c>
       <c r="L17">
-        <v>72731</v>
+        <v>69047</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="1">
-        <v>0.29224526337300388</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0.70775473662699606</v>
+      <c r="O17" s="11">
+        <v>0.32809474227105084</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0.67190525772894916</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1493,34 +1496,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="E18">
-        <v>1668</v>
+        <v>1650</v>
       </c>
       <c r="F18">
         <v>2552</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.34639498432601878</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.65360501567398122</v>
+      <c r="H18" s="11">
+        <v>0.35344827586206895</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.64655172413793105</v>
       </c>
       <c r="K18">
-        <v>85343</v>
+        <v>86802</v>
       </c>
       <c r="L18">
-        <v>108926</v>
+        <v>107467</v>
       </c>
       <c r="M18">
         <v>194269</v>
       </c>
-      <c r="O18" s="1">
-        <v>0.43930323417529304</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.56069676582470696</v>
+      <c r="O18" s="11">
+        <v>0.44681343909733412</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0.55318656090266594</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1536,10 +1539,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="11">
         <v>0.30471204188481676</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="11">
         <v>0.69528795811518329</v>
       </c>
       <c r="K19">
@@ -1551,10 +1554,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="11">
         <v>0.39710336860198087</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="11">
         <v>0.60289663139801908</v>
       </c>
     </row>
@@ -1563,34 +1566,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E20">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.35616438356164382</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.64383561643835618</v>
+      <c r="H20" s="11">
+        <v>0.38508371385083712</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.61491628614916283</v>
       </c>
       <c r="K20">
-        <v>23928</v>
+        <v>25362</v>
       </c>
       <c r="L20">
-        <v>30635</v>
+        <v>29201</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="1">
-        <v>0.43853893664204679</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.56146106335795321</v>
+      <c r="O20" s="11">
+        <v>0.4648204827447171</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0.5351795172552829</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1606,10 +1609,10 @@
       <c r="F21">
         <v>1294</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="11">
         <v>0.2975270479134467</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="11">
         <v>0.70247295208655336</v>
       </c>
       <c r="K21">
@@ -1621,10 +1624,10 @@
       <c r="M21">
         <v>101962</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="11">
         <v>0.37110884447146975</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="11">
         <v>0.62889115552853025</v>
       </c>
     </row>
@@ -1633,34 +1636,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="E22">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.2917726887192536</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.70822731128074634</v>
+      <c r="H22" s="11">
+        <v>0.30958439355385919</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.69041560644614075</v>
       </c>
       <c r="K22">
-        <v>34337</v>
+        <v>36485</v>
       </c>
       <c r="L22">
-        <v>61275</v>
+        <v>59127</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="1">
-        <v>0.35912856126846004</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.64087143873153996</v>
+      <c r="O22" s="11">
+        <v>0.38159436054051793</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0.61840563945948213</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1668,34 +1671,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="E23">
-        <v>1353</v>
+        <v>1329</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.21382916908773969</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.78617083091226037</v>
+      <c r="H23" s="11">
+        <v>0.22777454968041835</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.77222545031958167</v>
       </c>
       <c r="K23">
-        <v>36516</v>
+        <v>39139</v>
       </c>
       <c r="L23">
-        <v>94555</v>
+        <v>91932</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="1">
-        <v>0.27859709623028739</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.72140290376971261</v>
+      <c r="O23" s="11">
+        <v>0.29860915076561556</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0.70139084923438444</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1711,10 +1714,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="11">
         <v>0.33728813559322035</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="11">
         <v>0.66271186440677965</v>
       </c>
       <c r="K24">
@@ -1726,10 +1729,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="11">
         <v>0.43102475571502719</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="11">
         <v>0.56897524428497281</v>
       </c>
     </row>
@@ -1738,34 +1741,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E25">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.24601593625498008</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.75398406374501992</v>
+      <c r="H25" s="11">
+        <v>0.25398406374501992</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.74601593625498008</v>
       </c>
       <c r="K25">
-        <v>25693</v>
+        <v>26427</v>
       </c>
       <c r="L25">
-        <v>54103</v>
+        <v>53369</v>
       </c>
       <c r="M25">
         <v>79796</v>
       </c>
-      <c r="O25" s="1">
-        <v>0.32198355807308637</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.67801644192691368</v>
+      <c r="O25" s="11">
+        <v>0.33118201413604692</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0.66881798586395313</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1781,10 +1784,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="11">
         <v>0.35766423357664234</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="11">
         <v>0.64233576642335766</v>
       </c>
       <c r="K26">
@@ -1796,10 +1799,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="11">
         <v>0.46059730250481695</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="11">
         <v>0.53940269749518299</v>
       </c>
     </row>
@@ -1808,34 +1811,34 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="1">
-        <v>0.20318725099601595</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.79681274900398402</v>
+      <c r="H27" s="11">
+        <v>0.26294820717131473</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.73705179282868527</v>
       </c>
       <c r="K27">
-        <v>4628</v>
+        <v>6028</v>
       </c>
       <c r="L27">
-        <v>15103</v>
+        <v>13703</v>
       </c>
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="1">
-        <v>0.23455476154274998</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.76544523845724999</v>
+      <c r="O27" s="11">
+        <v>0.30550909735948506</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0.69449090264051494</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1843,34 +1846,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="E28">
-        <v>1727</v>
+        <v>1685</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.22312190733243364</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.77687809266756636</v>
+      <c r="H28" s="11">
+        <v>0.2420152946468736</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.75798470535312645</v>
       </c>
       <c r="K28">
-        <v>49045</v>
+        <v>53315</v>
       </c>
       <c r="L28">
-        <v>122289</v>
+        <v>118019</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.28625374998540859</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.71374625001459135</v>
+      <c r="O28" s="11">
+        <v>0.31117583200065368</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0.68882416799934632</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1878,34 +1881,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1249</v>
+        <v>1340</v>
       </c>
       <c r="E29">
-        <v>1857</v>
+        <v>1766</v>
       </c>
       <c r="F29">
         <v>3106</v>
       </c>
-      <c r="H29" s="1">
-        <v>0.40212491951062462</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.59787508048937543</v>
+      <c r="H29" s="11">
+        <v>0.43142305215711524</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.56857694784288471</v>
       </c>
       <c r="K29">
-        <v>122286</v>
+        <v>131982</v>
       </c>
       <c r="L29">
-        <v>145976</v>
+        <v>136280</v>
       </c>
       <c r="M29">
         <v>268262</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.45584540486539277</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.54415459513460718</v>
+      <c r="O29" s="11">
+        <v>0.49198917476198639</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0.50801082523801355</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1921,10 +1924,10 @@
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="11">
         <v>0.35742971887550201</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="11">
         <v>0.64257028112449799</v>
       </c>
       <c r="K30">
@@ -1936,10 +1939,10 @@
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="11">
         <v>0.45363279332351497</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="11">
         <v>0.54636720667648497</v>
       </c>
     </row>
@@ -1956,10 +1959,10 @@
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="11">
         <v>0.31853281853281851</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="11">
         <v>0.68146718146718144</v>
       </c>
       <c r="K31">
@@ -1971,10 +1974,10 @@
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="11">
         <v>0.3944465352589735</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="11">
         <v>0.60555346474102645</v>
       </c>
     </row>
@@ -1983,34 +1986,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E32">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.38709677419354838</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.61290322580645162</v>
+      <c r="H32" s="11">
+        <v>0.40986717267552181</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.59013282732447814</v>
       </c>
       <c r="K32">
-        <v>21020</v>
+        <v>22292</v>
       </c>
       <c r="L32">
-        <v>23807</v>
+        <v>22535</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="1">
-        <v>0.46891382425770184</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.53108617574229822</v>
+      <c r="O32" s="11">
+        <v>0.49728957994066075</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0.50271042005933919</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2018,34 +2021,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E33">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="F33">
         <v>1068</v>
       </c>
-      <c r="H33" s="1">
-        <v>0.21348314606741572</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.7865168539325843</v>
+      <c r="H33" s="11">
+        <v>0.23314606741573032</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.7668539325842697</v>
       </c>
       <c r="K33">
-        <v>20611</v>
+        <v>22455</v>
       </c>
       <c r="L33">
-        <v>55319</v>
+        <v>53475</v>
       </c>
       <c r="M33">
         <v>75930</v>
       </c>
-      <c r="O33" s="1">
-        <v>0.27144738575003291</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.72855261424996709</v>
+      <c r="O33" s="11">
+        <v>0.29573291189253259</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0.70426708810746741</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2053,34 +2056,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E34">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="1">
-        <v>0.28483786152497809</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.71516213847502186</v>
+      <c r="H34" s="11">
+        <v>0.2953549517966696</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.7046450482033304</v>
       </c>
       <c r="K34">
-        <v>30925</v>
+        <v>32295</v>
       </c>
       <c r="L34">
-        <v>56513</v>
+        <v>55143</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="1">
-        <v>0.35367917838925866</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.64632082161074134</v>
+      <c r="O34" s="11">
+        <v>0.36934742331709325</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0.63065257668290675</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2088,34 +2091,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E35">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F35">
         <v>785</v>
       </c>
-      <c r="H35" s="1">
-        <v>0.22929936305732485</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.77070063694267521</v>
+      <c r="H35" s="11">
+        <v>0.2445859872611465</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.75541401273885356</v>
       </c>
       <c r="K35">
-        <v>17356</v>
+        <v>18724</v>
       </c>
       <c r="L35">
-        <v>45295</v>
+        <v>43927</v>
       </c>
       <c r="M35">
         <v>62651</v>
       </c>
-      <c r="O35" s="1">
-        <v>0.27702670348438174</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.72297329651561826</v>
+      <c r="O35" s="11">
+        <v>0.29886194952993567</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0.70113805047006428</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2131,10 +2134,10 @@
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="11">
         <v>0.37122128174123337</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="11">
         <v>0.62877871825876663</v>
       </c>
       <c r="K36">
@@ -2146,10 +2149,10 @@
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="11">
         <v>0.48108514754199033</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="11">
         <v>0.51891485245800961</v>
       </c>
     </row>
@@ -2158,34 +2161,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E37">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="1">
-        <v>0.39504373177842567</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.60495626822157433</v>
+      <c r="H37" s="11">
+        <v>0.40379008746355682</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.59620991253644318</v>
       </c>
       <c r="K37">
-        <v>26055</v>
+        <v>26723</v>
       </c>
       <c r="L37">
-        <v>31866</v>
+        <v>31198</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="1">
-        <v>0.44983684673952451</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.55016315326047549</v>
+      <c r="O37" s="11">
+        <v>0.46136979679218243</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0.53863020320781752</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2193,34 +2196,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="E38">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="1">
-        <v>0.24473684210526317</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.75526315789473686</v>
+      <c r="H38" s="11">
+        <v>0.26710526315789473</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.73289473684210527</v>
       </c>
       <c r="K38">
-        <v>18142</v>
+        <v>19798</v>
       </c>
       <c r="L38">
-        <v>37142</v>
+        <v>35486</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="1">
-        <v>0.32816004630634543</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.67183995369365457</v>
+      <c r="O38" s="11">
+        <v>0.35811446349757614</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0.64188553650242386</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2228,34 +2231,34 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="1">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.78947368421052633</v>
+      <c r="H39" s="11">
+        <v>0.29473684210526313</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.70526315789473681</v>
       </c>
       <c r="K39">
-        <v>1761</v>
+        <v>2292</v>
       </c>
       <c r="L39">
-        <v>4945</v>
+        <v>4414</v>
       </c>
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="1">
-        <v>0.26260065612883987</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.73739934387116013</v>
+      <c r="O39" s="11">
+        <v>0.34178347748285121</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0.65821652251714879</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2271,10 +2274,10 @@
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="11">
         <v>0.33880597014925373</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="11">
         <v>0.66119402985074627</v>
       </c>
       <c r="K40">
@@ -2286,10 +2289,10 @@
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="11">
         <v>0.43242637317843674</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="11">
         <v>0.5675736268215632</v>
       </c>
     </row>
@@ -2298,34 +2301,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="E41">
-        <v>1571</v>
+        <v>1537</v>
       </c>
       <c r="F41">
         <v>1956</v>
       </c>
-      <c r="H41" s="1">
-        <v>0.19683026584867075</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.8031697341513292</v>
+      <c r="H41" s="11">
+        <v>0.21421267893660531</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.78578732106339466</v>
       </c>
       <c r="K41">
-        <v>38268</v>
+        <v>41857</v>
       </c>
       <c r="L41">
-        <v>108303</v>
+        <v>104714</v>
       </c>
       <c r="M41">
         <v>146571</v>
       </c>
-      <c r="O41" s="1">
-        <v>0.26108848271486174</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.73891151728513826</v>
+      <c r="O41" s="11">
+        <v>0.28557490908842814</v>
+      </c>
+      <c r="P41" s="11">
+        <v>0.71442509091157191</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2333,34 +2336,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="E42">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="1">
-        <v>0.27733333333333332</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.72266666666666668</v>
+      <c r="H42" s="11">
+        <v>0.30533333333333335</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.69466666666666665</v>
       </c>
       <c r="K42">
-        <v>20826</v>
+        <v>22876</v>
       </c>
       <c r="L42">
-        <v>41605</v>
+        <v>39555</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="1">
-        <v>0.33358427704185423</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.66641572295814577</v>
+      <c r="O42" s="11">
+        <v>0.36642052826320259</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0.63357947173679741</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2368,34 +2371,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E43">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="1">
-        <v>0.21505376344086022</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.78494623655913975</v>
+      <c r="H43" s="11">
+        <v>0.24850657108721624</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.7514934289127837</v>
       </c>
       <c r="K43">
-        <v>17417</v>
+        <v>20301</v>
       </c>
       <c r="L43">
-        <v>46577</v>
+        <v>43693</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="1">
-        <v>0.27216614057567895</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.72783385942432099</v>
+      <c r="O43" s="11">
+        <v>0.31723286558114822</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0.68276713441885173</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2403,34 +2406,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E44">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
-      <c r="H44" s="1">
-        <v>0.14501390544298767</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.85498609455701235</v>
+      <c r="H44" s="11">
+        <v>0.1466030989272944</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.8533969010727056</v>
       </c>
       <c r="K44">
-        <v>36235</v>
+        <v>36595</v>
       </c>
       <c r="L44">
-        <v>149395</v>
+        <v>149035</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="1">
-        <v>0.19520012928944674</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.80479987071055326</v>
+      <c r="O44" s="11">
+        <v>0.19713947099068038</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0.80286052900931959</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2438,34 +2441,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="E45">
-        <v>1697</v>
+        <v>1658</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="1">
-        <v>0.19151977131967604</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.80848022868032399</v>
+      <c r="H45" s="11">
+        <v>0.21010004764173415</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0.78989995235826582</v>
       </c>
       <c r="K45">
-        <v>40017</v>
+        <v>44208</v>
       </c>
       <c r="L45">
-        <v>121357</v>
+        <v>117166</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="1">
-        <v>0.2479767496622752</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.75202325033772477</v>
+      <c r="O45" s="11">
+        <v>0.27394747604942554</v>
+      </c>
+      <c r="P45" s="11">
+        <v>0.7260525239505744</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2473,34 +2476,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E46">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="1">
-        <v>0.28134110787172012</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.71865889212827994</v>
+      <c r="H46" s="11">
+        <v>0.29154518950437319</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0.70845481049562686</v>
       </c>
       <c r="K46">
-        <v>19159</v>
+        <v>19574</v>
       </c>
       <c r="L46">
-        <v>34823</v>
+        <v>34408</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="1">
-        <v>0.35491460116335077</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0.64508539883664928</v>
+      <c r="O46" s="11">
+        <v>0.3626023489311252</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0.6373976510688748</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2516,10 +2519,10 @@
       <c r="F47">
         <v>824</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="11">
         <v>0.26941747572815533</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="11">
         <v>0.73058252427184467</v>
       </c>
       <c r="K47">
@@ -2531,10 +2534,10 @@
       <c r="M47">
         <v>62713</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="11">
         <v>0.31951907897884013</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="11">
         <v>0.68048092102115987</v>
       </c>
     </row>
@@ -2551,10 +2554,10 @@
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="11">
         <v>0.16903073286052009</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="11">
         <v>0.83096926713947994</v>
       </c>
       <c r="K48">
@@ -2566,10 +2569,10 @@
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="11">
         <v>0.20810818834986047</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="11">
         <v>0.79189181165013955</v>
       </c>
     </row>
@@ -2578,34 +2581,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E49">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="1">
-        <v>0.36632200886262922</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.63367799113737078</v>
+      <c r="H49" s="11">
+        <v>0.37518463810930575</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0.6248153618906942</v>
       </c>
       <c r="K49">
-        <v>23918</v>
+        <v>24537</v>
       </c>
       <c r="L49">
-        <v>30274</v>
+        <v>29655</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="1">
-        <v>0.44135665780927075</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.55864334219072931</v>
+      <c r="O49" s="11">
+        <v>0.45277900797165632</v>
+      </c>
+      <c r="P49" s="11">
+        <v>0.54722099202834362</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2613,34 +2616,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E50">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F50">
-        <v>430</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.44418604651162791</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.55581395348837215</v>
+        <v>428</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.45794392523364486</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.54205607476635509</v>
       </c>
       <c r="K50">
-        <v>18614</v>
+        <v>19046</v>
       </c>
       <c r="L50">
-        <v>14831</v>
+        <v>14195</v>
       </c>
       <c r="M50">
-        <v>33445</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0.5565555389445358</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0.4434444610554642</v>
+        <v>33241</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0.57296711891940677</v>
+      </c>
+      <c r="P50" s="11">
+        <v>0.42703288108059323</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2648,182 +2651,182 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="E51">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="F51">
-        <v>1132</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.27120141342756182</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.72879858657243812</v>
+        <v>1124</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0.28558718861209964</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0.71441281138790036</v>
       </c>
       <c r="K51">
-        <v>29764</v>
+        <v>31069</v>
       </c>
       <c r="L51">
-        <v>61369</v>
+        <v>59201</v>
       </c>
       <c r="M51">
-        <v>91133</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.32659958522159921</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.67340041477840085</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90270</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0.34417857538495622</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0.65582142461504378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1845</v>
+        <v>1856</v>
       </c>
       <c r="E52">
-        <v>2028</v>
+        <v>1967</v>
       </c>
       <c r="F52">
-        <v>3873</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.4763749031758327</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.52362509682416736</v>
+        <v>3823</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0.48548260528380854</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.51451739471619151</v>
       </c>
       <c r="K52">
-        <v>189885</v>
+        <v>190683</v>
       </c>
       <c r="L52">
-        <v>158665</v>
+        <v>153767</v>
       </c>
       <c r="M52">
-        <v>348550</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0.54478554009467794</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0.45521445990532206</v>
+        <v>344450</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0.553586877631006</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0.44641312236899405</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12">
-        <v>14107</v>
-      </c>
-      <c r="E53" s="12">
-        <v>33006</v>
-      </c>
-      <c r="F53" s="12">
+      <c r="D53">
+        <v>42</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>60</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="K53">
+        <v>4144</v>
+      </c>
+      <c r="L53">
+        <v>1023</v>
+      </c>
+      <c r="M53">
+        <v>5167</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0.80201277336946009</v>
+      </c>
+      <c r="P53" s="11">
+        <v>0.19798722663053997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13">
+        <v>14764</v>
+      </c>
+      <c r="E54" s="13">
+        <v>32349</v>
+      </c>
+      <c r="F54" s="13">
         <v>47113</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13">
-        <v>0.29942903232653406</v>
-      </c>
-      <c r="I53" s="13">
-        <v>0.70057096767346594</v>
-      </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12">
-        <v>1389248</v>
-      </c>
-      <c r="L53" s="12">
-        <v>2351466</v>
-      </c>
-      <c r="M53" s="12">
+      <c r="G54" s="13"/>
+      <c r="H54" s="14">
+        <v>0.313374227920107</v>
+      </c>
+      <c r="I54" s="14">
+        <v>0.68662577207989306</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13">
+        <v>1454448</v>
+      </c>
+      <c r="L54" s="13">
+        <v>2286266</v>
+      </c>
+      <c r="M54" s="13">
         <v>3740714</v>
       </c>
-      <c r="N53" s="12"/>
-      <c r="O53" s="13">
-        <v>0.37138578356966079</v>
-      </c>
-      <c r="P53" s="13">
-        <v>0.62861421643033921</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="N54" s="13"/>
+      <c r="O54" s="14">
+        <v>0.38881561113733903</v>
+      </c>
+      <c r="P54" s="14">
+        <v>0.61118438886266102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="D54">
-        <v>152</v>
-      </c>
-      <c r="E54">
-        <v>133</v>
-      </c>
-      <c r="F54">
-        <v>285</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="K54">
-        <v>14979</v>
-      </c>
-      <c r="L54">
-        <v>7947</v>
-      </c>
-      <c r="M54">
-        <v>22926</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0.65336299398063336</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0.34663700601936664</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="D55">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="E55">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="F55">
-        <v>82</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.42682926829268292</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.57317073170731703</v>
+        <v>285</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0.46666666666666667</v>
       </c>
       <c r="K55">
-        <v>3274</v>
+        <v>14979</v>
       </c>
       <c r="L55">
-        <v>3756</v>
+        <v>7947</v>
       </c>
       <c r="M55">
-        <v>7030</v>
-      </c>
-      <c r="O55" s="1">
-        <v>0.46571834992887623</v>
-      </c>
-      <c r="P55" s="1">
-        <v>0.53428165007112371</v>
+        <v>22926</v>
+      </c>
+      <c r="O55" s="11">
+        <v>0.65336299398063336</v>
+      </c>
+      <c r="P55" s="11">
+        <v>0.34663700601936664</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2831,34 +2834,34 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E56">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="F56">
-        <v>242</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.18595041322314049</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.81404958677685946</v>
+        <v>82</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0.57317073170731703</v>
       </c>
       <c r="K56">
-        <v>4624</v>
+        <v>3274</v>
       </c>
       <c r="L56">
-        <v>14362</v>
+        <v>3756</v>
       </c>
       <c r="M56">
-        <v>18986</v>
-      </c>
-      <c r="O56" s="1">
-        <v>0.24354787738333508</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0.75645212261666495</v>
+        <v>7030</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0.46571834992887623</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0.53428165007112371</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2866,34 +2869,34 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="F57">
-        <v>68</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.5</v>
+        <v>242</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0.18595041322314049</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0.81404958677685946</v>
       </c>
       <c r="K57">
-        <v>3026</v>
+        <v>4624</v>
       </c>
       <c r="L57">
-        <v>2391</v>
+        <v>14362</v>
       </c>
       <c r="M57">
-        <v>5417</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0.55861177773675463</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0.44138822226324531</v>
+        <v>18986</v>
+      </c>
+      <c r="O57" s="11">
+        <v>0.24354787738333508</v>
+      </c>
+      <c r="P57" s="11">
+        <v>0.75645212261666495</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2901,182 +2904,182 @@
         <v>63</v>
       </c>
       <c r="D58">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F58">
-        <v>163</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.40490797546012269</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.59509202453987731</v>
+        <v>68</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0.5</v>
       </c>
       <c r="K58">
-        <v>6203</v>
+        <v>3026</v>
       </c>
       <c r="L58">
-        <v>7507</v>
+        <v>2391</v>
       </c>
       <c r="M58">
-        <v>13710</v>
-      </c>
-      <c r="O58" s="1">
-        <v>0.4524434719183078</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0.5475565280816922</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5417</v>
+      </c>
+      <c r="O58" s="11">
+        <v>0.55861177773675463</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0.44138822226324531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="D59">
+        <v>66</v>
+      </c>
+      <c r="E59">
+        <v>97</v>
+      </c>
+      <c r="F59">
+        <v>163</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.40490797546012269</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.59509202453987731</v>
+      </c>
+      <c r="K59">
+        <v>6203</v>
+      </c>
+      <c r="L59">
+        <v>7507</v>
+      </c>
+      <c r="M59">
+        <v>13710</v>
+      </c>
+      <c r="O59" s="11">
+        <v>0.4524434719183078</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0.5475565280816922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60">
         <v>37</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>67</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>104</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="11">
         <v>0.35576923076923078</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I60" s="11">
         <v>0.64423076923076927</v>
       </c>
-      <c r="K59">
+      <c r="K60">
         <v>3727</v>
       </c>
-      <c r="L59">
+      <c r="L60">
         <v>3883</v>
       </c>
-      <c r="M59">
+      <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O60" s="11">
         <v>0.48975032851511169</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P60" s="11">
         <v>0.51024967148488831</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12">
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13">
         <v>369</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="13">
         <v>575</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="13">
         <v>944</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13">
+      <c r="G61" s="13"/>
+      <c r="H61" s="14">
         <v>0.39088983050847459</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="14">
         <v>0.60911016949152541</v>
       </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12">
+      <c r="J61" s="13"/>
+      <c r="K61" s="13">
         <v>35833</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L61" s="13">
         <v>39846</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M61" s="13">
         <v>75679</v>
       </c>
-      <c r="N60" s="12"/>
-      <c r="O60" s="13">
+      <c r="N61" s="13"/>
+      <c r="O61" s="14">
         <v>0.47348670040566077</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P61" s="14">
         <v>0.52651329959433923</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="D61">
-        <v>17</v>
-      </c>
-      <c r="E61">
-        <v>20</v>
-      </c>
-      <c r="F61">
-        <v>37</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0.45945945945945948</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="K61">
-        <v>1920</v>
-      </c>
-      <c r="L61">
-        <v>1113</v>
-      </c>
-      <c r="M61">
-        <v>3033</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0.63303659742828877</v>
-      </c>
-      <c r="P61" s="1">
-        <v>0.36696340257171117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>68</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F62">
-        <v>59</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.15254237288135594</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0.84745762711864403</v>
+        <v>37</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0.45945945945945948</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0.54054054054054057</v>
       </c>
       <c r="K62">
-        <v>919</v>
+        <v>1920</v>
       </c>
       <c r="L62">
-        <v>3244</v>
+        <v>1113</v>
       </c>
       <c r="M62">
-        <v>4163</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0.22075426375210186</v>
-      </c>
-      <c r="P62" s="1">
-        <v>0.77924573624789817</v>
+        <v>3033</v>
+      </c>
+      <c r="O62" s="11">
+        <v>0.63303659742828877</v>
+      </c>
+      <c r="P62" s="11">
+        <v>0.36696340257171117</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -3084,34 +3087,34 @@
         <v>69</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F63">
-        <v>88</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0.30681818181818182</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0.69318181818181823</v>
+        <v>59</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.15254237288135594</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0.84745762711864403</v>
       </c>
       <c r="K63">
-        <v>2441</v>
+        <v>919</v>
       </c>
       <c r="L63">
-        <v>3802</v>
+        <v>3244</v>
       </c>
       <c r="M63">
-        <v>6243</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0.39099791766778791</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0.60900208233221209</v>
+        <v>4163</v>
+      </c>
+      <c r="O63" s="11">
+        <v>0.22075426375210186</v>
+      </c>
+      <c r="P63" s="11">
+        <v>0.77924573624789817</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -3119,34 +3122,34 @@
         <v>70</v>
       </c>
       <c r="D64">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="F64">
-        <v>220</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0.8</v>
+        <v>88</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.30681818181818182</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0.69318181818181823</v>
       </c>
       <c r="K64">
-        <v>4165</v>
+        <v>2441</v>
       </c>
       <c r="L64">
-        <v>11273</v>
+        <v>3802</v>
       </c>
       <c r="M64">
-        <v>15438</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0.26978883275035626</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0.73021116724964374</v>
+        <v>6243</v>
+      </c>
+      <c r="O64" s="11">
+        <v>0.39099791766778791</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0.60900208233221209</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
@@ -3154,34 +3157,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E65">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="F65">
-        <v>115</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.31304347826086959</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0.68695652173913047</v>
+        <v>220</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0.8</v>
       </c>
       <c r="K65">
-        <v>2921</v>
+        <v>4165</v>
       </c>
       <c r="L65">
-        <v>4847</v>
+        <v>11273</v>
       </c>
       <c r="M65">
-        <v>7768</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0.37602986611740474</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0.62397013388259526</v>
+        <v>15438</v>
+      </c>
+      <c r="O65" s="11">
+        <v>0.26978883275035626</v>
+      </c>
+      <c r="P65" s="11">
+        <v>0.73021116724964374</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3189,34 +3192,34 @@
         <v>72</v>
       </c>
       <c r="D66">
+        <v>36</v>
+      </c>
+      <c r="E66">
         <v>79</v>
       </c>
-      <c r="E66">
-        <v>192</v>
-      </c>
       <c r="F66">
-        <v>271</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.29151291512915128</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.70848708487084866</v>
+        <v>115</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0.31304347826086959</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.68695652173913047</v>
       </c>
       <c r="K66">
-        <v>7456</v>
+        <v>2921</v>
       </c>
       <c r="L66">
-        <v>12264</v>
+        <v>4847</v>
       </c>
       <c r="M66">
-        <v>19720</v>
-      </c>
-      <c r="O66" s="1">
-        <v>0.37809330628803245</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0.6219066937119675</v>
+        <v>7768</v>
+      </c>
+      <c r="O66" s="11">
+        <v>0.37602986611740474</v>
+      </c>
+      <c r="P66" s="11">
+        <v>0.62397013388259526</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3224,34 +3227,34 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E67">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="F67">
-        <v>100</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0.56999999999999995</v>
+        <v>271</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0.29151291512915128</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0.70848708487084866</v>
       </c>
       <c r="K67">
-        <v>3979</v>
+        <v>7456</v>
       </c>
       <c r="L67">
-        <v>3653</v>
+        <v>12264</v>
       </c>
       <c r="M67">
-        <v>7632</v>
-      </c>
-      <c r="O67" s="1">
-        <v>0.5213574423480084</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0.4786425576519916</v>
+        <v>19720</v>
+      </c>
+      <c r="O67" s="11">
+        <v>0.37809330628803245</v>
+      </c>
+      <c r="P67" s="11">
+        <v>0.6219066937119675</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3259,34 +3262,34 @@
         <v>74</v>
       </c>
       <c r="D68">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E68">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F68">
-        <v>119</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.40336134453781514</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.59663865546218486</v>
+        <v>100</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0.56999999999999995</v>
       </c>
       <c r="K68">
-        <v>4386</v>
+        <v>3979</v>
       </c>
       <c r="L68">
-        <v>4274</v>
+        <v>3653</v>
       </c>
       <c r="M68">
-        <v>8660</v>
-      </c>
-      <c r="O68" s="1">
-        <v>0.50646651270207854</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0.49353348729792146</v>
+        <v>7632</v>
+      </c>
+      <c r="O68" s="11">
+        <v>0.5213574423480084</v>
+      </c>
+      <c r="P68" s="11">
+        <v>0.4786425576519916</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -3294,34 +3297,34 @@
         <v>75</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E69">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F69">
-        <v>46</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0.86956521739130432</v>
+        <v>119</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0.40336134453781514</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.59663865546218486</v>
       </c>
       <c r="K69">
-        <v>717</v>
+        <v>4386</v>
       </c>
       <c r="L69">
-        <v>2209</v>
+        <v>4274</v>
       </c>
       <c r="M69">
-        <v>2926</v>
-      </c>
-      <c r="O69" s="1">
-        <v>0.24504442925495556</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0.75495557074504438</v>
+        <v>8660</v>
+      </c>
+      <c r="O69" s="11">
+        <v>0.50646651270207854</v>
+      </c>
+      <c r="P69" s="11">
+        <v>0.49353348729792146</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -3329,34 +3332,34 @@
         <v>76</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F70">
-        <v>78</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.35897435897435898</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0.64102564102564108</v>
+        <v>46</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0.86956521739130432</v>
       </c>
       <c r="K70">
-        <v>2526</v>
+        <v>717</v>
       </c>
       <c r="L70">
-        <v>3362</v>
+        <v>2209</v>
       </c>
       <c r="M70">
-        <v>5888</v>
-      </c>
-      <c r="O70" s="1">
-        <v>0.42900815217391303</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0.57099184782608692</v>
+        <v>2926</v>
+      </c>
+      <c r="O70" s="11">
+        <v>0.24504442925495556</v>
+      </c>
+      <c r="P70" s="11">
+        <v>0.75495557074504438</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -3364,63 +3367,69 @@
         <v>77</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F71">
-        <v>66</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0.46969696969696972</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0.53030303030303028</v>
+        <v>78</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0.64102564102564108</v>
       </c>
       <c r="K71">
-        <v>2956</v>
+        <v>2526</v>
       </c>
       <c r="L71">
-        <v>2725</v>
+        <v>3362</v>
       </c>
       <c r="M71">
-        <v>5681</v>
-      </c>
-      <c r="O71" s="1">
-        <v>0.52033092765358213</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0.47966907234641787</v>
+        <v>5888</v>
+      </c>
+      <c r="O71" s="11">
+        <v>0.42900815217391303</v>
+      </c>
+      <c r="P71" s="11">
+        <v>0.57099184782608692</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>78</v>
       </c>
+      <c r="D72">
+        <v>31</v>
+      </c>
       <c r="E72">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F72">
-        <v>31</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0.46969696969696972</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.53030303030303028</v>
+      </c>
+      <c r="K72">
+        <v>2956</v>
       </c>
       <c r="L72">
-        <v>2447</v>
+        <v>2725</v>
       </c>
       <c r="M72">
-        <v>2447</v>
-      </c>
-      <c r="O72" s="1">
-        <v>0</v>
-      </c>
-      <c r="P72" s="1">
-        <v>1</v>
+        <v>5681</v>
+      </c>
+      <c r="O72" s="11">
+        <v>0.52033092765358213</v>
+      </c>
+      <c r="P72" s="11">
+        <v>0.47966907234641787</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -3428,27 +3437,27 @@
         <v>79</v>
       </c>
       <c r="E73">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F73">
-        <v>79</v>
-      </c>
-      <c r="H73" s="1">
+        <v>31</v>
+      </c>
+      <c r="H73" s="11">
         <v>0</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="11">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>5888</v>
+        <v>2447</v>
       </c>
       <c r="M73">
-        <v>5888</v>
-      </c>
-      <c r="O73" s="1">
+        <v>2447</v>
+      </c>
+      <c r="O73" s="11">
         <v>0</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3457,27 +3466,27 @@
         <v>80</v>
       </c>
       <c r="E74">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F74">
-        <v>33</v>
-      </c>
-      <c r="H74" s="1">
+        <v>79</v>
+      </c>
+      <c r="H74" s="11">
         <v>0</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="11">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>2443</v>
+        <v>5888</v>
       </c>
       <c r="M74">
-        <v>2443</v>
-      </c>
-      <c r="O74" s="1">
+        <v>5888</v>
+      </c>
+      <c r="O74" s="11">
         <v>0</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3485,35 +3494,29 @@
       <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="D75">
-        <v>17</v>
-      </c>
       <c r="E75">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>52</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0.32692307692307693</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0.67307692307692313</v>
-      </c>
-      <c r="K75">
-        <v>1841</v>
+        <v>33</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>2201</v>
+        <v>2443</v>
       </c>
       <c r="M75">
-        <v>4042</v>
-      </c>
-      <c r="O75" s="1">
-        <v>0.45546759030183076</v>
-      </c>
-      <c r="P75" s="1">
-        <v>0.54453240969816918</v>
+        <v>2443</v>
+      </c>
+      <c r="O75" s="11">
+        <v>0</v>
+      </c>
+      <c r="P75" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -3521,34 +3524,34 @@
         <v>82</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F76">
-        <v>93</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0.27956989247311825</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0.72043010752688175</v>
+        <v>52</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0.32692307692307693</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0.67307692307692313</v>
       </c>
       <c r="K76">
-        <v>2027</v>
+        <v>1841</v>
       </c>
       <c r="L76">
-        <v>4657</v>
+        <v>2201</v>
       </c>
       <c r="M76">
-        <v>6684</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0.30326152004787554</v>
-      </c>
-      <c r="P76" s="1">
-        <v>0.69673847995212446</v>
+        <v>4042</v>
+      </c>
+      <c r="O76" s="11">
+        <v>0.45546759030183076</v>
+      </c>
+      <c r="P76" s="11">
+        <v>0.54453240969816918</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -3556,162 +3559,162 @@
         <v>83</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F77">
-        <v>65</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0.84615384615384615</v>
+        <v>93</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0.27956989247311825</v>
+      </c>
+      <c r="I77" s="11">
+        <v>0.72043010752688175</v>
       </c>
       <c r="K77">
-        <v>1152</v>
+        <v>2027</v>
       </c>
       <c r="L77">
-        <v>4082</v>
+        <v>4657</v>
       </c>
       <c r="M77">
-        <v>5234</v>
-      </c>
-      <c r="O77" s="1">
-        <v>0.22009935040122278</v>
-      </c>
-      <c r="P77" s="1">
-        <v>0.77990064959877725</v>
+        <v>6684</v>
+      </c>
+      <c r="O77" s="11">
+        <v>0.30326152004787554</v>
+      </c>
+      <c r="P77" s="11">
+        <v>0.69673847995212446</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>84</v>
       </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
       <c r="E78">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F78">
-        <v>14</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="K78">
+        <v>1152</v>
       </c>
       <c r="L78">
-        <v>1080</v>
+        <v>4082</v>
       </c>
       <c r="M78">
-        <v>1080</v>
-      </c>
-      <c r="O78" s="1">
-        <v>0</v>
-      </c>
-      <c r="P78" s="1">
-        <v>1</v>
+        <v>5234</v>
+      </c>
+      <c r="O78" s="11">
+        <v>0.22009935040122278</v>
+      </c>
+      <c r="P78" s="11">
+        <v>0.77990064959877725</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="D79">
-        <v>10</v>
-      </c>
       <c r="E79">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F79">
-        <v>37</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0.27027027027027029</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0.72972972972972971</v>
-      </c>
-      <c r="K79">
-        <v>866</v>
+        <v>14</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>1609</v>
+        <v>1080</v>
       </c>
       <c r="M79">
-        <v>2475</v>
-      </c>
-      <c r="O79" s="1">
-        <v>0.34989898989898988</v>
-      </c>
-      <c r="P79" s="1">
-        <v>0.65010101010101007</v>
+        <v>1080</v>
+      </c>
+      <c r="O79" s="11">
+        <v>0</v>
+      </c>
+      <c r="P79" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>86</v>
       </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
       <c r="E80">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F80">
-        <v>31</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0</v>
-      </c>
-      <c r="I80" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="I80" s="11">
+        <v>0.72972972972972971</v>
+      </c>
+      <c r="K80">
+        <v>866</v>
       </c>
       <c r="L80">
-        <v>1846</v>
+        <v>1609</v>
       </c>
       <c r="M80">
-        <v>1846</v>
-      </c>
-      <c r="O80" s="1">
-        <v>0</v>
-      </c>
-      <c r="P80" s="1">
-        <v>1</v>
+        <v>2475</v>
+      </c>
+      <c r="O80" s="11">
+        <v>0.34989898989898988</v>
+      </c>
+      <c r="P80" s="11">
+        <v>0.65010101010101007</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="D81">
-        <v>17</v>
-      </c>
       <c r="E81">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F81">
-        <v>39</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="I81" s="1">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="K81">
-        <v>1809</v>
+        <v>31</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>1472</v>
+        <v>1846</v>
       </c>
       <c r="M81">
-        <v>3281</v>
-      </c>
-      <c r="O81" s="1">
-        <v>0.55135629381286189</v>
-      </c>
-      <c r="P81" s="1">
-        <v>0.44864370618713806</v>
+        <v>1846</v>
+      </c>
+      <c r="O81" s="11">
+        <v>0</v>
+      </c>
+      <c r="P81" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -3719,34 +3722,34 @@
         <v>88</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="F82">
-        <v>130</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0.13846153846153847</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0.86153846153846159</v>
+        <v>39</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="I82" s="11">
+        <v>0.5641025641025641</v>
       </c>
       <c r="K82">
-        <v>1797</v>
+        <v>1809</v>
       </c>
       <c r="L82">
-        <v>7375</v>
+        <v>1472</v>
       </c>
       <c r="M82">
-        <v>9172</v>
-      </c>
-      <c r="O82" s="1">
-        <v>0.19592237243785435</v>
-      </c>
-      <c r="P82" s="1">
-        <v>0.80407762756214562</v>
+        <v>3281</v>
+      </c>
+      <c r="O82" s="11">
+        <v>0.55135629381286189</v>
+      </c>
+      <c r="P82" s="11">
+        <v>0.44864370618713806</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -3754,34 +3757,34 @@
         <v>89</v>
       </c>
       <c r="D83">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E83">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F83">
-        <v>106</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.43396226415094341</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0.56603773584905659</v>
+        <v>130</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="I83" s="11">
+        <v>0.86153846153846159</v>
       </c>
       <c r="K83">
-        <v>4263</v>
+        <v>1797</v>
       </c>
       <c r="L83">
-        <v>4046</v>
+        <v>7375</v>
       </c>
       <c r="M83">
-        <v>8309</v>
-      </c>
-      <c r="O83" s="1">
-        <v>0.51305812973883735</v>
-      </c>
-      <c r="P83" s="1">
-        <v>0.48694187026116259</v>
+        <v>9172</v>
+      </c>
+      <c r="O83" s="11">
+        <v>0.19592237243785435</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0.80407762756214562</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3789,34 +3792,34 @@
         <v>90</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F84">
-        <v>50</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0.6</v>
+        <v>106</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="I84" s="11">
+        <v>0.56603773584905659</v>
       </c>
       <c r="K84">
-        <v>2219</v>
+        <v>4263</v>
       </c>
       <c r="L84">
-        <v>2441</v>
+        <v>4046</v>
       </c>
       <c r="M84">
-        <v>4660</v>
-      </c>
-      <c r="O84" s="1">
-        <v>0.47618025751072962</v>
-      </c>
-      <c r="P84" s="1">
-        <v>0.52381974248927043</v>
+        <v>8309</v>
+      </c>
+      <c r="O84" s="11">
+        <v>0.51305812973883735</v>
+      </c>
+      <c r="P84" s="11">
+        <v>0.48694187026116259</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3824,260 +3827,260 @@
         <v>91</v>
       </c>
       <c r="D85">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F85">
-        <v>76</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0.28947368421052633</v>
-      </c>
-      <c r="I85" s="1">
-        <v>0.71052631578947367</v>
+        <v>50</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I85" s="11">
+        <v>0.6</v>
       </c>
       <c r="K85">
-        <v>2430</v>
+        <v>2219</v>
       </c>
       <c r="L85">
-        <v>4005</v>
+        <v>2441</v>
       </c>
       <c r="M85">
-        <v>6435</v>
-      </c>
-      <c r="O85" s="1">
-        <v>0.3776223776223776</v>
-      </c>
-      <c r="P85" s="1">
-        <v>0.6223776223776224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4660</v>
+      </c>
+      <c r="O85" s="11">
+        <v>0.47618025751072962</v>
+      </c>
+      <c r="P85" s="11">
+        <v>0.52381974248927043</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>92</v>
       </c>
       <c r="D86">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>76</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="K86">
+        <v>2814</v>
+      </c>
+      <c r="L86">
+        <v>3621</v>
+      </c>
+      <c r="M86">
+        <v>6435</v>
+      </c>
+      <c r="O86" s="11">
+        <v>0.43729603729603728</v>
+      </c>
+      <c r="P86" s="11">
+        <v>0.56270396270396272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87">
         <v>30</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>83</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>113</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H87" s="11">
         <v>0.26548672566371684</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I87" s="11">
         <v>0.73451327433628322</v>
       </c>
-      <c r="K86">
+      <c r="K87">
         <v>2611</v>
       </c>
-      <c r="L86">
+      <c r="L87">
         <v>5718</v>
       </c>
-      <c r="M86">
+      <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O87" s="11">
         <v>0.31348301116580624</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P87" s="11">
         <v>0.68651698883419376</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12">
-        <v>584</v>
-      </c>
-      <c r="E87" s="12">
-        <v>1564</v>
-      </c>
-      <c r="F87" s="12">
+    <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13">
+        <v>588</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1560</v>
+      </c>
+      <c r="F88" s="13">
         <v>2148</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13">
-        <v>0.27188081936685288</v>
-      </c>
-      <c r="I87" s="13">
-        <v>0.72811918063314707</v>
-      </c>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12">
-        <v>55401</v>
-      </c>
-      <c r="L87" s="12">
-        <v>104076</v>
-      </c>
-      <c r="M87" s="12">
+      <c r="G88" s="13"/>
+      <c r="H88" s="14">
+        <v>0.27374301675977653</v>
+      </c>
+      <c r="I88" s="14">
+        <v>0.72625698324022347</v>
+      </c>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13">
+        <v>55785</v>
+      </c>
+      <c r="L88" s="13">
+        <v>103692</v>
+      </c>
+      <c r="M88" s="13">
         <v>159477</v>
       </c>
-      <c r="N87" s="12"/>
-      <c r="O87" s="13">
-        <v>0.34739178690344064</v>
-      </c>
-      <c r="P87" s="13">
-        <v>0.65260821309655936</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88">
+      <c r="N88" s="13"/>
+      <c r="O88" s="14">
+        <v>0.34979965763088094</v>
+      </c>
+      <c r="P88" s="14">
+        <v>0.65020034236911906</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89">
         <v>58</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>97</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>155</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H89" s="11">
         <v>0.37419354838709679</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I89" s="11">
         <v>0.62580645161290327</v>
       </c>
-      <c r="K88">
+      <c r="K89">
         <v>5990</v>
       </c>
-      <c r="L88">
+      <c r="L89">
         <v>6486</v>
       </c>
-      <c r="M88">
+      <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O89" s="11">
         <v>0.48012183392112856</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P89" s="11">
         <v>0.51987816607887138</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12">
+    <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13">
         <v>58</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="13">
         <v>97</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="13">
         <v>155</v>
       </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13">
+      <c r="G90" s="13"/>
+      <c r="H90" s="14">
         <v>0.37419354838709679</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="14">
         <v>0.62580645161290327</v>
       </c>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12">
+      <c r="J90" s="13"/>
+      <c r="K90" s="13">
         <v>5990</v>
       </c>
-      <c r="L89" s="12">
+      <c r="L90" s="13">
         <v>6486</v>
       </c>
-      <c r="M89" s="12">
+      <c r="M90" s="13">
         <v>12476</v>
       </c>
-      <c r="N89" s="12"/>
-      <c r="O89" s="13">
+      <c r="N90" s="13"/>
+      <c r="O90" s="14">
         <v>0.48012183392112856</v>
       </c>
-      <c r="P89" s="13">
+      <c r="P90" s="14">
         <v>0.51987816607887138</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>97</v>
       </c>
-      <c r="D90">
-        <v>175</v>
-      </c>
-      <c r="E90">
-        <v>306</v>
-      </c>
-      <c r="F90">
-        <v>481</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0.36382536382536385</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0.63617463617463621</v>
-      </c>
-      <c r="K90">
-        <v>16988</v>
-      </c>
-      <c r="L90">
-        <v>21686</v>
-      </c>
-      <c r="M90">
-        <v>38674</v>
-      </c>
-      <c r="O90" s="1">
-        <v>0.43926151936701657</v>
-      </c>
-      <c r="P90" s="1">
-        <v>0.56073848063298337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>98</v>
       </c>
       <c r="D91">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E91">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F91">
-        <v>460</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0.43043478260869567</v>
-      </c>
-      <c r="I91" s="1">
-        <v>0.56956521739130439</v>
+        <v>481</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0.6216216216216216</v>
       </c>
       <c r="K91">
-        <v>20234</v>
+        <v>17713</v>
       </c>
       <c r="L91">
-        <v>20255</v>
+        <v>20961</v>
       </c>
       <c r="M91">
-        <v>40489</v>
-      </c>
-      <c r="O91" s="1">
-        <v>0.49974067030551506</v>
-      </c>
-      <c r="P91" s="1">
-        <v>0.50025932969448494</v>
+        <v>38674</v>
+      </c>
+      <c r="O91" s="11">
+        <v>0.45800796400682631</v>
+      </c>
+      <c r="P91" s="11">
+        <v>0.54199203599317369</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4085,34 +4088,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>382</v>
+        <v>211</v>
       </c>
       <c r="E92">
-        <v>522</v>
+        <v>249</v>
       </c>
       <c r="F92">
-        <v>904</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0.42256637168141592</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0.57743362831858402</v>
+        <v>460</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0.45869565217391306</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0.54130434782608694</v>
       </c>
       <c r="K92">
-        <v>38943</v>
+        <v>21499</v>
       </c>
       <c r="L92">
-        <v>36583</v>
+        <v>18990</v>
       </c>
       <c r="M92">
-        <v>75526</v>
-      </c>
-      <c r="O92" s="1">
-        <v>0.51562375870561128</v>
-      </c>
-      <c r="P92" s="1">
-        <v>0.48437624129438867</v>
+        <v>40489</v>
+      </c>
+      <c r="O92" s="11">
+        <v>0.53098372397441285</v>
+      </c>
+      <c r="P92" s="11">
+        <v>0.46901627602558721</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4120,34 +4123,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>203</v>
+        <v>390</v>
       </c>
       <c r="E93">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="F93">
-        <v>669</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0.30343796711509718</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0.69656203288490282</v>
+        <v>904</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0.43141592920353983</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0.56858407079646023</v>
       </c>
       <c r="K93">
-        <v>20427</v>
+        <v>39655</v>
       </c>
       <c r="L93">
-        <v>37240</v>
+        <v>35871</v>
       </c>
       <c r="M93">
-        <v>57667</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0.35422338599198849</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0.64577661400801156</v>
+        <v>75526</v>
+      </c>
+      <c r="O93" s="11">
+        <v>0.52505097582289539</v>
+      </c>
+      <c r="P93" s="11">
+        <v>0.47494902417710455</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4155,34 +4158,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="E94">
-        <v>49</v>
+        <v>458</v>
       </c>
       <c r="F94">
-        <v>99</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0.50505050505050508</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0.49494949494949497</v>
+        <v>669</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0.31539611360239161</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0.68460388639760839</v>
       </c>
       <c r="K94">
-        <v>5088</v>
+        <v>21194</v>
       </c>
       <c r="L94">
-        <v>3287</v>
+        <v>36473</v>
       </c>
       <c r="M94">
-        <v>8375</v>
-      </c>
-      <c r="O94" s="1">
-        <v>0.60752238805970149</v>
-      </c>
-      <c r="P94" s="1">
-        <v>0.39247761194029851</v>
+        <v>57667</v>
+      </c>
+      <c r="O94" s="11">
+        <v>0.36752388714516099</v>
+      </c>
+      <c r="P94" s="11">
+        <v>0.63247611285483896</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4190,34 +4193,34 @@
         <v>102</v>
       </c>
       <c r="D95">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E95">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F95">
-        <v>148</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.46621621621621623</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0.53378378378378377</v>
+        <v>99</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0.50505050505050508</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0.49494949494949497</v>
       </c>
       <c r="K95">
-        <v>7061</v>
+        <v>5088</v>
       </c>
       <c r="L95">
-        <v>4988</v>
+        <v>3287</v>
       </c>
       <c r="M95">
-        <v>12049</v>
-      </c>
-      <c r="O95" s="1">
-        <v>0.58602373640966055</v>
-      </c>
-      <c r="P95" s="1">
-        <v>0.41397626359033945</v>
+        <v>8375</v>
+      </c>
+      <c r="O95" s="11">
+        <v>0.60752238805970149</v>
+      </c>
+      <c r="P95" s="11">
+        <v>0.39247761194029851</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -4225,34 +4228,34 @@
         <v>103</v>
       </c>
       <c r="D96">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E96">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F96">
-        <v>97</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0.30927835051546393</v>
-      </c>
-      <c r="I96" s="1">
-        <v>0.69072164948453607</v>
+        <v>148</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0.46621621621621623</v>
+      </c>
+      <c r="I96" s="11">
+        <v>0.53378378378378377</v>
       </c>
       <c r="K96">
-        <v>3078</v>
+        <v>7061</v>
       </c>
       <c r="L96">
-        <v>5093</v>
+        <v>4988</v>
       </c>
       <c r="M96">
-        <v>8171</v>
-      </c>
-      <c r="O96" s="1">
-        <v>0.37669807857055437</v>
-      </c>
-      <c r="P96" s="1">
-        <v>0.62330192142944563</v>
+        <v>12049</v>
+      </c>
+      <c r="O96" s="11">
+        <v>0.58602373640966055</v>
+      </c>
+      <c r="P96" s="11">
+        <v>0.41397626359033945</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -4260,34 +4263,34 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E97">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F97">
-        <v>117</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0.68376068376068377</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0.31623931623931623</v>
+        <v>97</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0.30927835051546393</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0.69072164948453607</v>
       </c>
       <c r="K97">
-        <v>8334</v>
+        <v>3078</v>
       </c>
       <c r="L97">
-        <v>2194</v>
+        <v>5093</v>
       </c>
       <c r="M97">
-        <v>10528</v>
-      </c>
-      <c r="O97" s="1">
-        <v>0.79160334346504557</v>
-      </c>
-      <c r="P97" s="1">
-        <v>0.2083966565349544</v>
+        <v>8171</v>
+      </c>
+      <c r="O97" s="11">
+        <v>0.37669807857055437</v>
+      </c>
+      <c r="P97" s="11">
+        <v>0.62330192142944563</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -4295,34 +4298,34 @@
         <v>105</v>
       </c>
       <c r="D98">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E98">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F98">
-        <v>70</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0.7</v>
+        <v>117</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0.68376068376068377</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0.31623931623931623</v>
       </c>
       <c r="K98">
-        <v>2125</v>
+        <v>8334</v>
       </c>
       <c r="L98">
-        <v>3895</v>
+        <v>2194</v>
       </c>
       <c r="M98">
-        <v>6020</v>
-      </c>
-      <c r="O98" s="1">
-        <v>0.35299003322259137</v>
-      </c>
-      <c r="P98" s="1">
-        <v>0.64700996677740863</v>
+        <v>10528</v>
+      </c>
+      <c r="O98" s="11">
+        <v>0.79160334346504557</v>
+      </c>
+      <c r="P98" s="11">
+        <v>0.2083966565349544</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -4330,34 +4333,34 @@
         <v>106</v>
       </c>
       <c r="D99">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="F99">
-        <v>364</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0.49725274725274726</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0.50274725274725274</v>
+        <v>70</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="I99" s="11">
+        <v>0.7</v>
       </c>
       <c r="K99">
-        <v>15946</v>
+        <v>2125</v>
       </c>
       <c r="L99">
-        <v>10769</v>
+        <v>3895</v>
       </c>
       <c r="M99">
-        <v>26715</v>
-      </c>
-      <c r="O99" s="1">
-        <v>0.59689313119970056</v>
-      </c>
-      <c r="P99" s="1">
-        <v>0.40310686880029944</v>
+        <v>6020</v>
+      </c>
+      <c r="O99" s="11">
+        <v>0.35299003322259137</v>
+      </c>
+      <c r="P99" s="11">
+        <v>0.64700996677740863</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -4365,34 +4368,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="E100">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F100">
-        <v>244</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0.29098360655737704</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0.70901639344262291</v>
+        <v>364</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0.49725274725274726</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0.50274725274725274</v>
       </c>
       <c r="K100">
-        <v>6668</v>
+        <v>15946</v>
       </c>
       <c r="L100">
-        <v>12689</v>
+        <v>10769</v>
       </c>
       <c r="M100">
-        <v>19357</v>
-      </c>
-      <c r="O100" s="1">
-        <v>0.34447486697318802</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0.65552513302681203</v>
+        <v>26715</v>
+      </c>
+      <c r="O100" s="11">
+        <v>0.59689313119970056</v>
+      </c>
+      <c r="P100" s="11">
+        <v>0.40310686880029944</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4400,34 +4403,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E101">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="F101">
-        <v>175</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0.38857142857142857</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0.61142857142857143</v>
+        <v>244</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0.29098360655737704</v>
+      </c>
+      <c r="I101" s="11">
+        <v>0.70901639344262291</v>
       </c>
       <c r="K101">
-        <v>6359</v>
+        <v>6668</v>
       </c>
       <c r="L101">
-        <v>7397</v>
+        <v>12689</v>
       </c>
       <c r="M101">
-        <v>13756</v>
-      </c>
-      <c r="O101" s="1">
-        <v>0.46227100901424834</v>
-      </c>
-      <c r="P101" s="1">
-        <v>0.53772899098575166</v>
+        <v>19357</v>
+      </c>
+      <c r="O101" s="11">
+        <v>0.34447486697318802</v>
+      </c>
+      <c r="P101" s="11">
+        <v>0.65552513302681203</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4435,34 +4438,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="E102">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="F102">
-        <v>381</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0.38057742782152232</v>
-      </c>
-      <c r="I102" s="1">
-        <v>0.61942257217847774</v>
+        <v>175</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0.38857142857142857</v>
+      </c>
+      <c r="I102" s="11">
+        <v>0.61142857142857143</v>
       </c>
       <c r="K102">
-        <v>15497</v>
+        <v>6359</v>
       </c>
       <c r="L102">
-        <v>18347</v>
+        <v>7397</v>
       </c>
       <c r="M102">
-        <v>33844</v>
-      </c>
-      <c r="O102" s="1">
-        <v>0.45789504786668245</v>
-      </c>
-      <c r="P102" s="1">
-        <v>0.54210495213331755</v>
+        <v>13756</v>
+      </c>
+      <c r="O102" s="11">
+        <v>0.46227100901424834</v>
+      </c>
+      <c r="P102" s="11">
+        <v>0.53772899098575166</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4470,34 +4473,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="E103">
-        <v>578</v>
+        <v>225</v>
       </c>
       <c r="F103">
-        <v>892</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0.35201793721973096</v>
-      </c>
-      <c r="I103" s="1">
-        <v>0.64798206278026904</v>
+        <v>381</v>
+      </c>
+      <c r="H103" s="11">
+        <v>0.40944881889763779</v>
+      </c>
+      <c r="I103" s="11">
+        <v>0.59055118110236215</v>
       </c>
       <c r="K103">
-        <v>29440</v>
+        <v>16618</v>
       </c>
       <c r="L103">
-        <v>39844</v>
+        <v>17226</v>
       </c>
       <c r="M103">
-        <v>69284</v>
-      </c>
-      <c r="O103" s="1">
-        <v>0.42491772992321458</v>
-      </c>
-      <c r="P103" s="1">
-        <v>0.57508227007678536</v>
+        <v>33844</v>
+      </c>
+      <c r="O103" s="11">
+        <v>0.49101761021155893</v>
+      </c>
+      <c r="P103" s="11">
+        <v>0.50898238978844113</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4505,34 +4508,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="E104">
-        <v>62</v>
+        <v>569</v>
       </c>
       <c r="F104">
-        <v>145</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0.57241379310344831</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0.42758620689655175</v>
+        <v>892</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0.36210762331838564</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0.63789237668161436</v>
       </c>
       <c r="K104">
-        <v>8421</v>
+        <v>30178</v>
       </c>
       <c r="L104">
-        <v>4184</v>
+        <v>39106</v>
       </c>
       <c r="M104">
-        <v>12605</v>
-      </c>
-      <c r="O104" s="1">
-        <v>0.66806822689408962</v>
-      </c>
-      <c r="P104" s="1">
-        <v>0.33193177310591038</v>
+        <v>69284</v>
+      </c>
+      <c r="O104" s="11">
+        <v>0.43556953986490388</v>
+      </c>
+      <c r="P104" s="11">
+        <v>0.56443046013509612</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4540,34 +4543,34 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F105">
-        <v>48</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I105" s="1">
-        <v>0.52083333333333337</v>
+        <v>145</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0.57241379310344831</v>
+      </c>
+      <c r="I105" s="11">
+        <v>0.42758620689655175</v>
       </c>
       <c r="K105">
-        <v>2321</v>
+        <v>8421</v>
       </c>
       <c r="L105">
-        <v>2248</v>
+        <v>4184</v>
       </c>
       <c r="M105">
-        <v>4569</v>
-      </c>
-      <c r="O105" s="1">
-        <v>0.50798861895381919</v>
-      </c>
-      <c r="P105" s="1">
-        <v>0.49201138104618081</v>
+        <v>12605</v>
+      </c>
+      <c r="O105" s="11">
+        <v>0.66806822689408962</v>
+      </c>
+      <c r="P105" s="11">
+        <v>0.33193177310591038</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -4575,34 +4578,34 @@
         <v>113</v>
       </c>
       <c r="D106">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E106">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="F106">
-        <v>297</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0.32659932659932661</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0.67340067340067344</v>
+        <v>48</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I106" s="11">
+        <v>0.52083333333333337</v>
       </c>
       <c r="K106">
-        <v>8577</v>
+        <v>2321</v>
       </c>
       <c r="L106">
-        <v>15523</v>
+        <v>2248</v>
       </c>
       <c r="M106">
-        <v>24100</v>
-      </c>
-      <c r="O106" s="1">
-        <v>0.3558921161825726</v>
-      </c>
-      <c r="P106" s="1">
-        <v>0.64410788381742734</v>
+        <v>4569</v>
+      </c>
+      <c r="O106" s="11">
+        <v>0.50798861895381919</v>
+      </c>
+      <c r="P106" s="11">
+        <v>0.49201138104618081</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
@@ -4610,34 +4613,34 @@
         <v>114</v>
       </c>
       <c r="D107">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="E107">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="F107">
-        <v>537</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0.41154562383612664</v>
-      </c>
-      <c r="I107" s="1">
-        <v>0.58845437616387342</v>
+        <v>297</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0.32659932659932661</v>
+      </c>
+      <c r="I107" s="11">
+        <v>0.67340067340067344</v>
       </c>
       <c r="K107">
-        <v>22154</v>
+        <v>8577</v>
       </c>
       <c r="L107">
-        <v>24270</v>
+        <v>15523</v>
       </c>
       <c r="M107">
-        <v>46424</v>
-      </c>
-      <c r="O107" s="1">
-        <v>0.47721006376012409</v>
-      </c>
-      <c r="P107" s="1">
-        <v>0.52278993623987591</v>
+        <v>24100</v>
+      </c>
+      <c r="O107" s="11">
+        <v>0.3558921161825726</v>
+      </c>
+      <c r="P107" s="11">
+        <v>0.64410788381742734</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -4645,34 +4648,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="E108">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="F108">
-        <v>529</v>
-      </c>
-      <c r="H108" s="1">
-        <v>0.5311909262759924</v>
-      </c>
-      <c r="I108" s="1">
-        <v>0.46880907372400754</v>
+        <v>537</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0.41154562383612664</v>
+      </c>
+      <c r="I108" s="11">
+        <v>0.58845437616387342</v>
       </c>
       <c r="K108">
-        <v>28900</v>
+        <v>22154</v>
       </c>
       <c r="L108">
-        <v>17601</v>
+        <v>24270</v>
       </c>
       <c r="M108">
-        <v>46501</v>
-      </c>
-      <c r="O108" s="1">
-        <v>0.62149201092449624</v>
-      </c>
-      <c r="P108" s="1">
-        <v>0.37850798907550376</v>
+        <v>46424</v>
+      </c>
+      <c r="O108" s="11">
+        <v>0.47721006376012409</v>
+      </c>
+      <c r="P108" s="11">
+        <v>0.52278993623987591</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4680,34 +4683,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="E109">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="F109">
-        <v>171</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0.25146198830409355</v>
-      </c>
-      <c r="I109" s="1">
-        <v>0.74853801169590639</v>
+        <v>529</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0.5311909262759924</v>
+      </c>
+      <c r="I109" s="11">
+        <v>0.46880907372400754</v>
       </c>
       <c r="K109">
-        <v>4251</v>
+        <v>28900</v>
       </c>
       <c r="L109">
-        <v>9234</v>
+        <v>17601</v>
       </c>
       <c r="M109">
-        <v>13485</v>
-      </c>
-      <c r="O109" s="1">
-        <v>0.31523915461624025</v>
-      </c>
-      <c r="P109" s="1">
-        <v>0.6847608453837597</v>
+        <v>46501</v>
+      </c>
+      <c r="O109" s="11">
+        <v>0.62149201092449624</v>
+      </c>
+      <c r="P109" s="11">
+        <v>0.37850798907550376</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4715,34 +4718,34 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F110">
-        <v>69</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0.42028985507246375</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0.57971014492753625</v>
+        <v>171</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0.25146198830409355</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0.74853801169590639</v>
       </c>
       <c r="K110">
-        <v>3073</v>
+        <v>4251</v>
       </c>
       <c r="L110">
-        <v>3294</v>
+        <v>9234</v>
       </c>
       <c r="M110">
-        <v>6367</v>
-      </c>
-      <c r="O110" s="1">
-        <v>0.48264488770221453</v>
-      </c>
-      <c r="P110" s="1">
-        <v>0.51735511229778541</v>
+        <v>13485</v>
+      </c>
+      <c r="O110" s="11">
+        <v>0.31523915461624025</v>
+      </c>
+      <c r="P110" s="11">
+        <v>0.6847608453837597</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -4750,34 +4753,34 @@
         <v>118</v>
       </c>
       <c r="D111">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F111">
-        <v>160</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0.85624999999999996</v>
-      </c>
-      <c r="I111" s="1">
-        <v>0.14374999999999999</v>
+        <v>69</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0.42028985507246375</v>
+      </c>
+      <c r="I111" s="11">
+        <v>0.57971014492753625</v>
       </c>
       <c r="K111">
-        <v>14954</v>
+        <v>3073</v>
       </c>
       <c r="L111">
-        <v>1195</v>
+        <v>3294</v>
       </c>
       <c r="M111">
-        <v>16149</v>
-      </c>
-      <c r="O111" s="1">
-        <v>0.92600161000681158</v>
-      </c>
-      <c r="P111" s="1">
-        <v>7.3998389993188432E-2</v>
+        <v>6367</v>
+      </c>
+      <c r="O111" s="11">
+        <v>0.48264488770221453</v>
+      </c>
+      <c r="P111" s="11">
+        <v>0.51735511229778541</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
@@ -4785,34 +4788,34 @@
         <v>119</v>
       </c>
       <c r="D112">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E112">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F112">
-        <v>209</v>
-      </c>
-      <c r="H112" s="1">
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="I112" s="1">
-        <v>0.36363636363636365</v>
+        <v>160</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0.14374999999999999</v>
       </c>
       <c r="K112">
-        <v>12881</v>
+        <v>14954</v>
       </c>
       <c r="L112">
-        <v>4293</v>
+        <v>1195</v>
       </c>
       <c r="M112">
-        <v>17174</v>
-      </c>
-      <c r="O112" s="1">
-        <v>0.75002911377663906</v>
-      </c>
-      <c r="P112" s="1">
-        <v>0.24997088622336089</v>
+        <v>16149</v>
+      </c>
+      <c r="O112" s="11">
+        <v>0.92600161000681158</v>
+      </c>
+      <c r="P112" s="11">
+        <v>7.3998389993188432E-2</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4820,34 +4823,34 @@
         <v>120</v>
       </c>
       <c r="D113">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c r="E113">
-        <v>651</v>
+        <v>76</v>
       </c>
       <c r="F113">
-        <v>961</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0.32258064516129031</v>
-      </c>
-      <c r="I113" s="1">
-        <v>0.67741935483870963</v>
+        <v>209</v>
+      </c>
+      <c r="H113" s="11">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="I113" s="11">
+        <v>0.36363636363636365</v>
       </c>
       <c r="K113">
-        <v>30402</v>
+        <v>12881</v>
       </c>
       <c r="L113">
-        <v>45072</v>
+        <v>4293</v>
       </c>
       <c r="M113">
-        <v>75474</v>
-      </c>
-      <c r="O113" s="1">
-        <v>0.4028142141664679</v>
-      </c>
-      <c r="P113" s="1">
-        <v>0.5971857858335321</v>
+        <v>17174</v>
+      </c>
+      <c r="O113" s="11">
+        <v>0.75002911377663906</v>
+      </c>
+      <c r="P113" s="11">
+        <v>0.24997088622336089</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -4855,34 +4858,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="E114">
-        <v>169</v>
+        <v>645</v>
       </c>
       <c r="F114">
-        <v>432</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0.60879629629629628</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0.39120370370370372</v>
+        <v>961</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0.32882414151925077</v>
+      </c>
+      <c r="I114" s="11">
+        <v>0.67117585848074923</v>
       </c>
       <c r="K114">
-        <v>28000</v>
+        <v>31032</v>
       </c>
       <c r="L114">
-        <v>13919</v>
+        <v>44442</v>
       </c>
       <c r="M114">
-        <v>41919</v>
-      </c>
-      <c r="O114" s="1">
-        <v>0.66795486533552806</v>
-      </c>
-      <c r="P114" s="1">
-        <v>0.33204513466447194</v>
+        <v>75474</v>
+      </c>
+      <c r="O114" s="11">
+        <v>0.41116145957548295</v>
+      </c>
+      <c r="P114" s="11">
+        <v>0.588838540424517</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4890,34 +4893,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="E115">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="F115">
-        <v>496</v>
-      </c>
-      <c r="H115" s="1">
-        <v>0.38709677419354838</v>
-      </c>
-      <c r="I115" s="1">
-        <v>0.61290322580645162</v>
+        <v>432</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0.62268518518518523</v>
+      </c>
+      <c r="I115" s="11">
+        <v>0.37731481481481483</v>
       </c>
       <c r="K115">
-        <v>17842</v>
+        <v>28636</v>
       </c>
       <c r="L115">
-        <v>18351</v>
+        <v>13283</v>
       </c>
       <c r="M115">
-        <v>36193</v>
-      </c>
-      <c r="O115" s="1">
-        <v>0.49296825352968804</v>
-      </c>
-      <c r="P115" s="1">
-        <v>0.50703174647031191</v>
+        <v>41919</v>
+      </c>
+      <c r="O115" s="11">
+        <v>0.68312698299100649</v>
+      </c>
+      <c r="P115" s="11">
+        <v>0.31687301700899356</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4925,34 +4928,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="E116">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="F116">
-        <v>223</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0.40807174887892378</v>
-      </c>
-      <c r="I116" s="1">
-        <v>0.59192825112107628</v>
+        <v>496</v>
+      </c>
+      <c r="H116" s="11">
+        <v>0.39314516129032256</v>
+      </c>
+      <c r="I116" s="11">
+        <v>0.60685483870967738</v>
       </c>
       <c r="K116">
-        <v>8885</v>
+        <v>18082</v>
       </c>
       <c r="L116">
-        <v>8849</v>
+        <v>18111</v>
       </c>
       <c r="M116">
-        <v>17734</v>
-      </c>
-      <c r="O116" s="1">
-        <v>0.50101499943611139</v>
-      </c>
-      <c r="P116" s="1">
-        <v>0.49898500056388856</v>
+        <v>36193</v>
+      </c>
+      <c r="O116" s="11">
+        <v>0.49959937004393112</v>
+      </c>
+      <c r="P116" s="11">
+        <v>0.50040062995606882</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4960,34 +4963,34 @@
         <v>124</v>
       </c>
       <c r="D117">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E117">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="F117">
-        <v>85</v>
-      </c>
-      <c r="H117" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0.4</v>
+        <v>223</v>
+      </c>
+      <c r="H117" s="11">
+        <v>0.40807174887892378</v>
+      </c>
+      <c r="I117" s="11">
+        <v>0.59192825112107628</v>
       </c>
       <c r="K117">
-        <v>5154</v>
+        <v>8885</v>
       </c>
       <c r="L117">
-        <v>1975</v>
+        <v>8849</v>
       </c>
       <c r="M117">
-        <v>7129</v>
-      </c>
-      <c r="O117" s="1">
-        <v>0.72296254734184318</v>
-      </c>
-      <c r="P117" s="1">
-        <v>0.27703745265815682</v>
+        <v>17734</v>
+      </c>
+      <c r="O117" s="11">
+        <v>0.50101499943611139</v>
+      </c>
+      <c r="P117" s="11">
+        <v>0.49898500056388856</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -4995,34 +4998,34 @@
         <v>125</v>
       </c>
       <c r="D118">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E118">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F118">
-        <v>87</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0.68965517241379315</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0.31034482758620691</v>
+        <v>85</v>
+      </c>
+      <c r="H118" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I118" s="11">
+        <v>0.4</v>
       </c>
       <c r="K118">
-        <v>5803</v>
+        <v>5154</v>
       </c>
       <c r="L118">
-        <v>1934</v>
+        <v>1975</v>
       </c>
       <c r="M118">
-        <v>7737</v>
-      </c>
-      <c r="O118" s="1">
-        <v>0.75003231226573608</v>
-      </c>
-      <c r="P118" s="1">
-        <v>0.24996768773426392</v>
+        <v>7129</v>
+      </c>
+      <c r="O118" s="11">
+        <v>0.72296254734184318</v>
+      </c>
+      <c r="P118" s="11">
+        <v>0.27703745265815682</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -5030,34 +5033,34 @@
         <v>126</v>
       </c>
       <c r="D119">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="E119">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="F119">
-        <v>396</v>
-      </c>
-      <c r="H119" s="1">
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="I119" s="1">
-        <v>0.5757575757575758</v>
+        <v>87</v>
+      </c>
+      <c r="H119" s="11">
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0.31034482758620691</v>
       </c>
       <c r="K119">
-        <v>17267</v>
+        <v>5803</v>
       </c>
       <c r="L119">
-        <v>17730</v>
+        <v>1934</v>
       </c>
       <c r="M119">
-        <v>34997</v>
-      </c>
-      <c r="O119" s="1">
-        <v>0.49338514729833988</v>
-      </c>
-      <c r="P119" s="1">
-        <v>0.50661485270166018</v>
+        <v>7737</v>
+      </c>
+      <c r="O119" s="11">
+        <v>0.75003231226573608</v>
+      </c>
+      <c r="P119" s="11">
+        <v>0.24996768773426392</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -5065,34 +5068,34 @@
         <v>127</v>
       </c>
       <c r="D120">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="E120">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="F120">
-        <v>212</v>
-      </c>
-      <c r="H120" s="1">
-        <v>0.35377358490566035</v>
-      </c>
-      <c r="I120" s="1">
-        <v>0.64622641509433965</v>
+        <v>396</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0.4621212121212121</v>
+      </c>
+      <c r="I120" s="11">
+        <v>0.53787878787878785</v>
       </c>
       <c r="K120">
-        <v>6760</v>
+        <v>18836</v>
       </c>
       <c r="L120">
-        <v>8486</v>
+        <v>16161</v>
       </c>
       <c r="M120">
-        <v>15246</v>
-      </c>
-      <c r="O120" s="1">
-        <v>0.44339498884953432</v>
-      </c>
-      <c r="P120" s="1">
-        <v>0.55660501115046568</v>
+        <v>34997</v>
+      </c>
+      <c r="O120" s="11">
+        <v>0.53821756150527189</v>
+      </c>
+      <c r="P120" s="11">
+        <v>0.46178243849472811</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -5100,182 +5103,182 @@
         <v>128</v>
       </c>
       <c r="D121">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E121">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="F121">
-        <v>150</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0.68</v>
+        <v>212</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0.35377358490566035</v>
+      </c>
+      <c r="I121" s="11">
+        <v>0.64622641509433965</v>
       </c>
       <c r="K121">
-        <v>4666</v>
+        <v>6760</v>
       </c>
       <c r="L121">
-        <v>9234</v>
+        <v>8486</v>
       </c>
       <c r="M121">
-        <v>13900</v>
-      </c>
-      <c r="O121" s="1">
-        <v>0.33568345323741006</v>
-      </c>
-      <c r="P121" s="1">
-        <v>0.66431654676258989</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15246</v>
+      </c>
+      <c r="O121" s="11">
+        <v>0.44339498884953432</v>
+      </c>
+      <c r="P121" s="11">
+        <v>0.55660501115046568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>129</v>
       </c>
       <c r="D122">
+        <v>48</v>
+      </c>
+      <c r="E122">
+        <v>102</v>
+      </c>
+      <c r="F122">
+        <v>150</v>
+      </c>
+      <c r="H122" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="I122" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="K122">
+        <v>4666</v>
+      </c>
+      <c r="L122">
+        <v>9234</v>
+      </c>
+      <c r="M122">
+        <v>13900</v>
+      </c>
+      <c r="O122" s="11">
+        <v>0.33568345323741006</v>
+      </c>
+      <c r="P122" s="11">
+        <v>0.66431654676258989</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123">
         <v>58</v>
       </c>
-      <c r="E122">
+      <c r="E123">
         <v>68</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <v>126</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H123" s="11">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I123" s="11">
         <v>0.53968253968253965</v>
       </c>
-      <c r="K122">
+      <c r="K123">
         <v>6121</v>
       </c>
-      <c r="L122">
+      <c r="L123">
         <v>5343</v>
       </c>
-      <c r="M122">
+      <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O123" s="11">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P123" s="11">
         <v>0.46606769016050242</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12">
-        <v>4350</v>
-      </c>
-      <c r="E123" s="12">
-        <v>6084</v>
-      </c>
-      <c r="F123" s="12">
+    <row r="124" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13">
+        <v>4436</v>
+      </c>
+      <c r="E124" s="13">
+        <v>5998</v>
+      </c>
+      <c r="F124" s="13">
         <v>10434</v>
       </c>
-      <c r="G123" s="12"/>
-      <c r="H123" s="13">
-        <v>0.41690626797009778</v>
-      </c>
-      <c r="I123" s="13">
-        <v>0.58309373202990222</v>
-      </c>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12">
-        <v>432620</v>
-      </c>
-      <c r="L123" s="12">
-        <v>437002</v>
-      </c>
-      <c r="M123" s="12">
+      <c r="G124" s="13"/>
+      <c r="H124" s="14">
+        <v>0.4251485528081273</v>
+      </c>
+      <c r="I124" s="14">
+        <v>0.57485144719187276</v>
+      </c>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13">
+        <v>441023</v>
+      </c>
+      <c r="L124" s="13">
+        <v>428599</v>
+      </c>
+      <c r="M124" s="13">
         <v>869622</v>
       </c>
-      <c r="N123" s="12"/>
-      <c r="O123" s="13">
-        <v>0.49748051452240166</v>
-      </c>
-      <c r="P123" s="13">
-        <v>0.50251948547759828</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="N124" s="13"/>
+      <c r="O124" s="14">
+        <v>0.50714333354031982</v>
+      </c>
+      <c r="P124" s="14">
+        <v>0.49285666645968018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>132</v>
       </c>
-      <c r="D124">
-        <v>41</v>
-      </c>
-      <c r="E124">
-        <v>102</v>
-      </c>
-      <c r="F124">
-        <v>143</v>
-      </c>
-      <c r="H124" s="1">
-        <v>0.28671328671328672</v>
-      </c>
-      <c r="I124" s="1">
-        <v>0.71328671328671334</v>
-      </c>
-      <c r="K124">
-        <v>3682</v>
-      </c>
-      <c r="L124">
-        <v>7419</v>
-      </c>
-      <c r="M124">
-        <v>11101</v>
-      </c>
-      <c r="O124" s="1">
-        <v>0.3316818304657238</v>
-      </c>
-      <c r="P124" s="1">
-        <v>0.66831816953427614</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>133</v>
       </c>
       <c r="D125">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="E125">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="F125">
-        <v>786</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0.37277353689567427</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0.62722646310432573</v>
+        <v>143</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0.30069930069930068</v>
+      </c>
+      <c r="I125" s="11">
+        <v>0.69930069930069927</v>
       </c>
       <c r="K125">
-        <v>31438</v>
+        <v>3799</v>
       </c>
       <c r="L125">
-        <v>41224</v>
+        <v>7302</v>
       </c>
       <c r="M125">
-        <v>72662</v>
-      </c>
-      <c r="O125" s="1">
-        <v>0.43266081307973908</v>
-      </c>
-      <c r="P125" s="1">
-        <v>0.56733918692026097</v>
+        <v>11101</v>
+      </c>
+      <c r="O125" s="11">
+        <v>0.34222142149355916</v>
+      </c>
+      <c r="P125" s="11">
+        <v>0.65777857850644084</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -5283,34 +5286,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="E126">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="F126">
-        <v>534</v>
-      </c>
-      <c r="H126" s="1">
-        <v>0.31086142322097376</v>
-      </c>
-      <c r="I126" s="1">
-        <v>0.68913857677902624</v>
+        <v>786</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0.38676844783715014</v>
+      </c>
+      <c r="I126" s="11">
+        <v>0.61323155216284986</v>
       </c>
       <c r="K126">
-        <v>16214</v>
+        <v>32597</v>
       </c>
       <c r="L126">
-        <v>25072</v>
+        <v>40065</v>
       </c>
       <c r="M126">
-        <v>41286</v>
-      </c>
-      <c r="O126" s="1">
-        <v>0.3927239257859807</v>
-      </c>
-      <c r="P126" s="1">
-        <v>0.6072760742140193</v>
+        <v>72662</v>
+      </c>
+      <c r="O126" s="11">
+        <v>0.44861137871239437</v>
+      </c>
+      <c r="P126" s="11">
+        <v>0.55138862128760557</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5318,34 +5321,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="E127">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="F127">
-        <v>224</v>
-      </c>
-      <c r="H127" s="1">
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="I127" s="1">
-        <v>0.7321428571428571</v>
+        <v>534</v>
+      </c>
+      <c r="H127" s="11">
+        <v>0.32209737827715357</v>
+      </c>
+      <c r="I127" s="11">
+        <v>0.67790262172284643</v>
       </c>
       <c r="K127">
-        <v>6313</v>
+        <v>16785</v>
       </c>
       <c r="L127">
-        <v>10672</v>
+        <v>24501</v>
       </c>
       <c r="M127">
-        <v>16985</v>
-      </c>
-      <c r="O127" s="1">
-        <v>0.37168089490727113</v>
-      </c>
-      <c r="P127" s="1">
-        <v>0.62831910509272892</v>
+        <v>41286</v>
+      </c>
+      <c r="O127" s="11">
+        <v>0.40655427990117715</v>
+      </c>
+      <c r="P127" s="11">
+        <v>0.59344572009882279</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5353,34 +5356,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E128">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F128">
-        <v>209</v>
-      </c>
-      <c r="H128" s="1">
-        <v>0.17224880382775121</v>
-      </c>
-      <c r="I128" s="1">
-        <v>0.82775119617224879</v>
+        <v>224</v>
+      </c>
+      <c r="H128" s="11">
+        <v>0.3080357142857143</v>
+      </c>
+      <c r="I128" s="11">
+        <v>0.6919642857142857</v>
       </c>
       <c r="K128">
-        <v>3597</v>
+        <v>7389</v>
       </c>
       <c r="L128">
-        <v>13507</v>
+        <v>9596</v>
       </c>
       <c r="M128">
-        <v>17104</v>
-      </c>
-      <c r="O128" s="1">
-        <v>0.21030168381665107</v>
-      </c>
-      <c r="P128" s="1">
-        <v>0.78969831618334896</v>
+        <v>16985</v>
+      </c>
+      <c r="O128" s="11">
+        <v>0.43503090962614072</v>
+      </c>
+      <c r="P128" s="11">
+        <v>0.56496909037385934</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5388,34 +5391,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="E129">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="F129">
-        <v>481</v>
-      </c>
-      <c r="H129" s="1">
-        <v>0.28274428274428276</v>
-      </c>
-      <c r="I129" s="1">
-        <v>0.71725571725571724</v>
+        <v>209</v>
+      </c>
+      <c r="H129" s="11">
+        <v>0.17224880382775121</v>
+      </c>
+      <c r="I129" s="11">
+        <v>0.82775119617224879</v>
       </c>
       <c r="K129">
-        <v>14555</v>
+        <v>3597</v>
       </c>
       <c r="L129">
-        <v>24867</v>
+        <v>13507</v>
       </c>
       <c r="M129">
-        <v>39422</v>
-      </c>
-      <c r="O129" s="1">
-        <v>0.3692100857389275</v>
-      </c>
-      <c r="P129" s="1">
-        <v>0.63078991426107245</v>
+        <v>17104</v>
+      </c>
+      <c r="O129" s="11">
+        <v>0.21030168381665107</v>
+      </c>
+      <c r="P129" s="11">
+        <v>0.78969831618334896</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5423,34 +5426,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="E130">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="F130">
-        <v>192</v>
-      </c>
-      <c r="H130" s="1">
-        <v>0.34895833333333331</v>
-      </c>
-      <c r="I130" s="1">
-        <v>0.65104166666666663</v>
+        <v>481</v>
+      </c>
+      <c r="H130" s="11">
+        <v>0.28274428274428276</v>
+      </c>
+      <c r="I130" s="11">
+        <v>0.71725571725571724</v>
       </c>
       <c r="K130">
-        <v>6508</v>
+        <v>14555</v>
       </c>
       <c r="L130">
-        <v>10001</v>
+        <v>24867</v>
       </c>
       <c r="M130">
-        <v>16509</v>
-      </c>
-      <c r="O130" s="1">
-        <v>0.39420921921376217</v>
-      </c>
-      <c r="P130" s="1">
-        <v>0.60579078078623783</v>
+        <v>39422</v>
+      </c>
+      <c r="O130" s="11">
+        <v>0.3692100857389275</v>
+      </c>
+      <c r="P130" s="11">
+        <v>0.63078991426107245</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5458,34 +5461,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="E131">
-        <v>467</v>
+        <v>119</v>
       </c>
       <c r="F131">
-        <v>724</v>
-      </c>
-      <c r="H131" s="1">
-        <v>0.35497237569060774</v>
-      </c>
-      <c r="I131" s="1">
-        <v>0.64502762430939231</v>
+        <v>192</v>
+      </c>
+      <c r="H131" s="11">
+        <v>0.38020833333333331</v>
+      </c>
+      <c r="I131" s="11">
+        <v>0.61979166666666663</v>
       </c>
       <c r="K131">
-        <v>25728</v>
+        <v>7180</v>
       </c>
       <c r="L131">
-        <v>34658</v>
+        <v>9329</v>
       </c>
       <c r="M131">
-        <v>60386</v>
-      </c>
-      <c r="O131" s="1">
-        <v>0.42605902030271919</v>
-      </c>
-      <c r="P131" s="1">
-        <v>0.57394097969728086</v>
+        <v>16509</v>
+      </c>
+      <c r="O131" s="11">
+        <v>0.43491428917560121</v>
+      </c>
+      <c r="P131" s="11">
+        <v>0.56508571082439885</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5493,34 +5496,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="E132">
-        <v>261</v>
+        <v>463</v>
       </c>
       <c r="F132">
-        <v>306</v>
-      </c>
-      <c r="H132" s="1">
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="I132" s="1">
-        <v>0.8529411764705882</v>
+        <v>724</v>
+      </c>
+      <c r="H132" s="11">
+        <v>0.36049723756906077</v>
+      </c>
+      <c r="I132" s="11">
+        <v>0.63950276243093918</v>
       </c>
       <c r="K132">
-        <v>4620</v>
+        <v>26040</v>
       </c>
       <c r="L132">
-        <v>17967</v>
+        <v>34346</v>
       </c>
       <c r="M132">
-        <v>22587</v>
-      </c>
-      <c r="O132" s="1">
-        <v>0.20454243591446408</v>
-      </c>
-      <c r="P132" s="1">
-        <v>0.79545756408553592</v>
+        <v>60386</v>
+      </c>
+      <c r="O132" s="11">
+        <v>0.43122578081012153</v>
+      </c>
+      <c r="P132" s="11">
+        <v>0.56877421918987847</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5528,34 +5531,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="E133">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="F133">
-        <v>431</v>
-      </c>
-      <c r="H133" s="1">
-        <v>0.29930394431554525</v>
-      </c>
-      <c r="I133" s="1">
-        <v>0.70069605568445481</v>
+        <v>306</v>
+      </c>
+      <c r="H133" s="11">
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="I133" s="11">
+        <v>0.84313725490196079</v>
       </c>
       <c r="K133">
-        <v>12781</v>
+        <v>4748</v>
       </c>
       <c r="L133">
-        <v>21130</v>
+        <v>17839</v>
       </c>
       <c r="M133">
-        <v>33911</v>
-      </c>
-      <c r="O133" s="1">
-        <v>0.37689835156733803</v>
-      </c>
-      <c r="P133" s="1">
-        <v>0.62310164843266191</v>
+        <v>22587</v>
+      </c>
+      <c r="O133" s="11">
+        <v>0.21020941249391242</v>
+      </c>
+      <c r="P133" s="11">
+        <v>0.78979058750608755</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5563,34 +5566,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E134">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F134">
-        <v>453</v>
-      </c>
-      <c r="H134" s="1">
-        <v>0.33774834437086093</v>
-      </c>
-      <c r="I134" s="1">
-        <v>0.66225165562913912</v>
+        <v>431</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0.29930394431554525</v>
+      </c>
+      <c r="I134" s="11">
+        <v>0.70069605568445481</v>
       </c>
       <c r="K134">
-        <v>14018</v>
+        <v>12781</v>
       </c>
       <c r="L134">
-        <v>16297</v>
+        <v>21130</v>
       </c>
       <c r="M134">
-        <v>30315</v>
-      </c>
-      <c r="O134" s="1">
-        <v>0.4624113475177305</v>
-      </c>
-      <c r="P134" s="1">
-        <v>0.5375886524822695</v>
+        <v>33911</v>
+      </c>
+      <c r="O134" s="11">
+        <v>0.37689835156733803</v>
+      </c>
+      <c r="P134" s="11">
+        <v>0.62310164843266191</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5598,149 +5601,184 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="E135">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="F135">
-        <v>193</v>
-      </c>
-      <c r="H135" s="1">
-        <v>0.31088082901554404</v>
-      </c>
-      <c r="I135" s="1">
-        <v>0.68911917098445596</v>
+        <v>453</v>
+      </c>
+      <c r="H135" s="11">
+        <v>0.33774834437086093</v>
+      </c>
+      <c r="I135" s="11">
+        <v>0.66225165562913912</v>
       </c>
       <c r="K135">
-        <v>5553</v>
+        <v>14018</v>
       </c>
       <c r="L135">
-        <v>8047</v>
+        <v>16297</v>
       </c>
       <c r="M135">
-        <v>13600</v>
-      </c>
-      <c r="O135" s="1">
-        <v>0.40830882352941178</v>
-      </c>
-      <c r="P135" s="1">
-        <v>0.59169117647058822</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30315</v>
+      </c>
+      <c r="O135" s="11">
+        <v>0.4624113475177305</v>
+      </c>
+      <c r="P135" s="11">
+        <v>0.5375886524822695</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>144</v>
       </c>
       <c r="D136">
+        <v>60</v>
+      </c>
+      <c r="E136">
+        <v>133</v>
+      </c>
+      <c r="F136">
+        <v>193</v>
+      </c>
+      <c r="H136" s="11">
+        <v>0.31088082901554404</v>
+      </c>
+      <c r="I136" s="11">
+        <v>0.68911917098445596</v>
+      </c>
+      <c r="K136">
+        <v>5553</v>
+      </c>
+      <c r="L136">
+        <v>8047</v>
+      </c>
+      <c r="M136">
+        <v>13600</v>
+      </c>
+      <c r="O136" s="11">
+        <v>0.40830882352941178</v>
+      </c>
+      <c r="P136" s="11">
+        <v>0.59169117647058822</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137">
         <v>104</v>
       </c>
-      <c r="E136">
+      <c r="E137">
         <v>191</v>
       </c>
-      <c r="F136">
+      <c r="F137">
         <v>295</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H137" s="11">
         <v>0.35254237288135593</v>
       </c>
-      <c r="I136" s="1">
+      <c r="I137" s="11">
         <v>0.64745762711864407</v>
       </c>
-      <c r="K136">
+      <c r="K137">
         <v>10839</v>
       </c>
-      <c r="L136">
+      <c r="L137">
         <v>13632</v>
       </c>
-      <c r="M136">
+      <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O136" s="1">
+      <c r="O137" s="11">
         <v>0.44293245065587838</v>
       </c>
-      <c r="P136" s="1">
+      <c r="P137" s="11">
         <v>0.55706754934412162</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12">
-        <v>1547</v>
-      </c>
-      <c r="E137" s="12">
-        <v>3424</v>
-      </c>
-      <c r="F137" s="12">
+    <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13">
+        <v>1588</v>
+      </c>
+      <c r="E138" s="13">
+        <v>3383</v>
+      </c>
+      <c r="F138" s="13">
         <v>4971</v>
       </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="13">
-        <v>0.31120498893582782</v>
-      </c>
-      <c r="I137" s="13">
-        <v>0.68879501106417218</v>
-      </c>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12">
-        <v>155846</v>
-      </c>
-      <c r="L137" s="12">
-        <v>244493</v>
-      </c>
-      <c r="M137" s="12">
+      <c r="G138" s="13"/>
+      <c r="H138" s="14">
+        <v>0.31945282639307987</v>
+      </c>
+      <c r="I138" s="14">
+        <v>0.68054717360692019</v>
+      </c>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13">
+        <v>159881</v>
+      </c>
+      <c r="L138" s="13">
+        <v>240458</v>
+      </c>
+      <c r="M138" s="13">
         <v>400339</v>
       </c>
-      <c r="N137" s="12"/>
-      <c r="O137" s="13">
-        <v>0.38928508089394237</v>
-      </c>
-      <c r="P137" s="13">
-        <v>0.61071491910605757</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="N138" s="13"/>
+      <c r="O138" s="14">
+        <v>0.39936403897696704</v>
+      </c>
+      <c r="P138" s="14">
+        <v>0.60063596102303296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12">
-        <v>21085</v>
-      </c>
-      <c r="E138" s="12">
-        <v>44926</v>
-      </c>
-      <c r="F138" s="12">
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13">
+        <v>21876</v>
+      </c>
+      <c r="E139" s="13">
+        <v>44135</v>
+      </c>
+      <c r="F139" s="13">
         <v>66011</v>
       </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="13">
-        <v>0.3194164608928815</v>
-      </c>
-      <c r="I138" s="13">
-        <v>0.68058353910711855</v>
-      </c>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12">
-        <v>2081222</v>
-      </c>
-      <c r="L138" s="12">
-        <v>3194714</v>
-      </c>
-      <c r="M138" s="12">
+      <c r="G139" s="13"/>
+      <c r="H139" s="14">
+        <v>0.33139931223583946</v>
+      </c>
+      <c r="I139" s="14">
+        <v>0.66860068776416048</v>
+      </c>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13">
+        <v>2159283</v>
+      </c>
+      <c r="L139" s="13">
+        <v>3116653</v>
+      </c>
+      <c r="M139" s="13">
         <v>5275936</v>
       </c>
-      <c r="N138" s="12"/>
-      <c r="O138" s="13">
-        <v>0.39447445912914791</v>
-      </c>
-      <c r="P138" s="13">
-        <v>0.60552554087085209</v>
+      <c r="N139" s="13"/>
+      <c r="O139" s="14">
+        <v>0.40927012761337517</v>
+      </c>
+      <c r="P139" s="14">
+        <v>0.59072987238662489</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB8F68-4D57-475B-B4A5-2B3850023B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D552216-3CD1-48A0-8005-64AEAA8E4D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80B67023-6F1E-43A9-9CDB-7BDBF4224FAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23C152F5-6B60-4FCD-B392-2232EAC77B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2506FB11-DBAC-46F3-8717-B04FA4EC0FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74D085F-2208-4135-AF41-46D6F04A4F33}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -901,14 +901,16 @@
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -978,7 +980,7 @@
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1012,10 +1014,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1027,10 +1029,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="12">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="12">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1039,34 +1041,34 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="11">
-        <v>0.25663716814159293</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.74336283185840712</v>
+      <c r="H5" s="12">
+        <v>0.2831858407079646</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.7168141592920354</v>
       </c>
       <c r="K5">
-        <v>2413</v>
+        <v>2617</v>
       </c>
       <c r="L5">
-        <v>5312</v>
+        <v>5108</v>
       </c>
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="11">
-        <v>0.31236245954692554</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0.68763754045307446</v>
+      <c r="O5" s="12">
+        <v>0.33877022653721683</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.66122977346278322</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1079,10 +1081,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1091,10 +1093,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="12">
         <v>0</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1103,34 +1105,34 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="11">
-        <v>0.34513274336283184</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.65486725663716816</v>
+      <c r="H7" s="12">
+        <v>0.38938053097345132</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.61061946902654862</v>
       </c>
       <c r="K7">
-        <v>3522</v>
+        <v>3953</v>
       </c>
       <c r="L7">
-        <v>4691</v>
+        <v>4260</v>
       </c>
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="11">
-        <v>0.42883233897479606</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0.571167661025204</v>
+      <c r="O7" s="12">
+        <v>0.48131011810544261</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0.51868988189455745</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1146,10 +1148,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>0.25</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="12">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1161,10 +1163,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="12">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="12">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1175,37 +1177,37 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E9" s="13">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F9" s="13">
         <v>246</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
-        <v>0.2967479674796748</v>
+        <v>0.32926829268292684</v>
       </c>
       <c r="I9" s="14">
-        <v>0.7032520325203252</v>
+        <v>0.67073170731707321</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13">
-        <v>6323</v>
+        <v>6958</v>
       </c>
       <c r="L9" s="13">
-        <v>11306</v>
+        <v>10671</v>
       </c>
       <c r="M9" s="13">
         <v>17629</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14">
-        <v>0.3586703726813773</v>
+        <v>0.39469056667990243</v>
       </c>
       <c r="P9" s="14">
-        <v>0.64132962731862275</v>
+        <v>0.60530943332009757</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1224,10 +1226,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <v>0.29297820823244553</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="12">
         <v>0.70702179176755453</v>
       </c>
       <c r="K10">
@@ -1239,10 +1241,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="12">
         <v>0.3603897111297279</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="12">
         <v>0.63961028887027216</v>
       </c>
     </row>
@@ -1251,34 +1253,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E11">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="11">
-        <v>0.21483375959079284</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.78516624040920713</v>
+      <c r="H11" s="12">
+        <v>0.23017902813299232</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.76982097186700771</v>
       </c>
       <c r="K11">
-        <v>16319</v>
+        <v>17293</v>
       </c>
       <c r="L11">
-        <v>44313</v>
+        <v>43339</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="11">
-        <v>0.26914830452566302</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0.73085169547433704</v>
+      <c r="O11" s="12">
+        <v>0.2852124290803536</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.7147875709196464</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1286,34 +1288,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E12">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="F12">
         <v>572</v>
       </c>
-      <c r="H12" s="11">
-        <v>0.2674825174825175</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.7325174825174825</v>
+      <c r="H12" s="12">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.70454545454545459</v>
       </c>
       <c r="K12">
-        <v>15038</v>
+        <v>16629</v>
       </c>
       <c r="L12">
-        <v>28727</v>
+        <v>27136</v>
       </c>
       <c r="M12">
         <v>43765</v>
       </c>
-      <c r="O12" s="11">
-        <v>0.34360790586084772</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0.65639209413915234</v>
+      <c r="O12" s="12">
+        <v>0.37996115617502568</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.62003884382497432</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1321,34 +1323,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E13">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F13">
         <v>566</v>
       </c>
-      <c r="H13" s="11">
-        <v>0.31978798586572438</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.68021201413427557</v>
+      <c r="H13" s="12">
+        <v>0.35159010600706714</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.64840989399293292</v>
       </c>
       <c r="K13">
-        <v>18777</v>
+        <v>20168</v>
       </c>
       <c r="L13">
-        <v>28846</v>
+        <v>27455</v>
       </c>
       <c r="M13">
         <v>47623</v>
       </c>
-      <c r="O13" s="11">
-        <v>0.39428427440522434</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0.6057157255947756</v>
+      <c r="O13" s="12">
+        <v>0.42349285009344223</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.57650714990655771</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1356,34 +1358,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="E14">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="F14">
         <v>1109</v>
       </c>
-      <c r="H14" s="11">
-        <v>0.39314697926059511</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.60685302073940484</v>
+      <c r="H14" s="12">
+        <v>0.41118124436429215</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.58881875563570785</v>
       </c>
       <c r="K14">
-        <v>42913</v>
+        <v>44735</v>
       </c>
       <c r="L14">
-        <v>49558</v>
+        <v>47736</v>
       </c>
       <c r="M14">
         <v>92471</v>
       </c>
-      <c r="O14" s="11">
-        <v>0.46406981648300549</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0.53593018351699451</v>
+      <c r="O14" s="12">
+        <v>0.48377329108585393</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.51622670891414602</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1391,34 +1393,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E15">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="11">
-        <v>0.42034943473792397</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.57965056526207603</v>
+      <c r="H15" s="12">
+        <v>0.42754367934224047</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.57245632065775953</v>
       </c>
       <c r="K15">
-        <v>38647</v>
+        <v>39215</v>
       </c>
       <c r="L15">
-        <v>35729</v>
+        <v>35161</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="11">
-        <v>0.5196165429708508</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0.4803834570291492</v>
+      <c r="O15" s="12">
+        <v>0.52725341508013335</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.4727465849198666</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1426,34 +1428,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="E16">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="11">
-        <v>0.44741697416974169</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0.55258302583025831</v>
+      <c r="H16" s="12">
+        <v>0.48339483394833949</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.51660516605166051</v>
       </c>
       <c r="K16">
-        <v>43879</v>
+        <v>46852</v>
       </c>
       <c r="L16">
-        <v>38601</v>
+        <v>35628</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="11">
-        <v>0.53199563530552862</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0.46800436469447138</v>
+      <c r="O16" s="12">
+        <v>0.56804073714839964</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.43195926285160041</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1461,34 +1463,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="E17">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="11">
-        <v>0.27102040816326528</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0.72897959183673466</v>
+      <c r="H17" s="12">
+        <v>0.28816326530612246</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.71183673469387754</v>
       </c>
       <c r="K17">
-        <v>33716</v>
+        <v>35302</v>
       </c>
       <c r="L17">
-        <v>69047</v>
+        <v>67461</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="11">
-        <v>0.32809474227105084</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0.67190525772894916</v>
+      <c r="O17" s="12">
+        <v>0.34352831271955858</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.65647168728044136</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1496,34 +1498,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>902</v>
+        <v>944</v>
       </c>
       <c r="E18">
-        <v>1650</v>
+        <v>1608</v>
       </c>
       <c r="F18">
         <v>2552</v>
       </c>
-      <c r="H18" s="11">
-        <v>0.35344827586206895</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0.64655172413793105</v>
+      <c r="H18" s="12">
+        <v>0.36990595611285265</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.63009404388714729</v>
       </c>
       <c r="K18">
-        <v>86802</v>
+        <v>90292</v>
       </c>
       <c r="L18">
-        <v>107467</v>
+        <v>103977</v>
       </c>
       <c r="M18">
         <v>194269</v>
       </c>
-      <c r="O18" s="11">
-        <v>0.44681343909733412</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0.55318656090266594</v>
+      <c r="O18" s="12">
+        <v>0.4647782198909759</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0.5352217801090241</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1531,34 +1533,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E19">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="11">
-        <v>0.30471204188481676</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0.69528795811518329</v>
+      <c r="H19" s="12">
+        <v>0.32984293193717279</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.67015706806282727</v>
       </c>
       <c r="K19">
-        <v>28186</v>
+        <v>30061</v>
       </c>
       <c r="L19">
-        <v>42793</v>
+        <v>40918</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="11">
-        <v>0.39710336860198087</v>
-      </c>
-      <c r="P19" s="11">
-        <v>0.60289663139801908</v>
+      <c r="O19" s="12">
+        <v>0.42351963256737907</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.57648036743262088</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1566,34 +1568,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="E20">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="11">
-        <v>0.38508371385083712</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0.61491628614916283</v>
+      <c r="H20" s="12">
+        <v>0.42009132420091322</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.57990867579908678</v>
       </c>
       <c r="K20">
-        <v>25362</v>
+        <v>27239</v>
       </c>
       <c r="L20">
-        <v>29201</v>
+        <v>27324</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="11">
-        <v>0.4648204827447171</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0.5351795172552829</v>
+      <c r="O20" s="12">
+        <v>0.49922108388468378</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0.50077891611531622</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1601,34 +1603,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E21">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F21">
-        <v>1294</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0.2975270479134467</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0.70247295208655336</v>
+        <v>1295</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.30501930501930502</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.69498069498069504</v>
       </c>
       <c r="K21">
-        <v>37839</v>
+        <v>38582</v>
       </c>
       <c r="L21">
-        <v>64123</v>
+        <v>63464</v>
       </c>
       <c r="M21">
-        <v>101962</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0.37110884447146975</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0.62889115552853025</v>
+        <v>102046</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0.37808439331281973</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0.62191560668718027</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1636,34 +1638,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="E22">
-        <v>814</v>
+        <v>764</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="11">
-        <v>0.30958439355385919</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0.69041560644614075</v>
+      <c r="H22" s="12">
+        <v>0.35199321458863442</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0.64800678541136558</v>
       </c>
       <c r="K22">
-        <v>36485</v>
+        <v>40712</v>
       </c>
       <c r="L22">
-        <v>59127</v>
+        <v>54900</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="11">
-        <v>0.38159436054051793</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0.61840563945948213</v>
+      <c r="O22" s="12">
+        <v>0.4258042923482408</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.5741957076517592</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1671,34 +1673,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>392</v>
+        <v>476</v>
       </c>
       <c r="E23">
-        <v>1329</v>
+        <v>1245</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="11">
-        <v>0.22777454968041835</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0.77222545031958167</v>
+      <c r="H23" s="12">
+        <v>0.27658338175479374</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.72341661824520631</v>
       </c>
       <c r="K23">
-        <v>39139</v>
+        <v>45778</v>
       </c>
       <c r="L23">
-        <v>91932</v>
+        <v>85293</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="11">
-        <v>0.29860915076561556</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0.70139084923438444</v>
+      <c r="O23" s="12">
+        <v>0.34926108750219348</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.65073891249780658</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1706,34 +1708,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E24">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="11">
-        <v>0.33728813559322035</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0.66271186440677965</v>
+      <c r="H24" s="12">
+        <v>0.35084745762711866</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.64915254237288134</v>
       </c>
       <c r="K24">
-        <v>19100</v>
+        <v>19866</v>
       </c>
       <c r="L24">
-        <v>25213</v>
+        <v>24447</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="11">
-        <v>0.43102475571502719</v>
-      </c>
-      <c r="P24" s="11">
-        <v>0.56897524428497281</v>
+      <c r="O24" s="12">
+        <v>0.44831087942590209</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0.55168912057409791</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1741,34 +1743,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="E25">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
-      <c r="H25" s="11">
-        <v>0.25398406374501992</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0.74601593625498008</v>
+      <c r="H25" s="12">
+        <v>0.27988047808764938</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.72011952191235062</v>
       </c>
       <c r="K25">
-        <v>26427</v>
+        <v>28945</v>
       </c>
       <c r="L25">
-        <v>53369</v>
+        <v>50851</v>
       </c>
       <c r="M25">
         <v>79796</v>
       </c>
-      <c r="O25" s="11">
-        <v>0.33118201413604692</v>
-      </c>
-      <c r="P25" s="11">
-        <v>0.66881798586395313</v>
+      <c r="O25" s="12">
+        <v>0.36273748057546745</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0.6372625194245326</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1776,34 +1778,34 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="11">
-        <v>0.35766423357664234</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0.64233576642335766</v>
+      <c r="H26" s="12">
+        <v>0.38686131386861317</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.61313868613138689</v>
       </c>
       <c r="K26">
-        <v>4781</v>
+        <v>5069</v>
       </c>
       <c r="L26">
-        <v>5599</v>
+        <v>5311</v>
       </c>
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="11">
-        <v>0.46059730250481695</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0.53940269749518299</v>
+      <c r="O26" s="12">
+        <v>0.48834296724470133</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0.51165703275529861</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -1811,34 +1813,34 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E27">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="11">
-        <v>0.26294820717131473</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0.73705179282868527</v>
+      <c r="H27" s="12">
+        <v>0.34262948207171312</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.65737051792828682</v>
       </c>
       <c r="K27">
-        <v>6028</v>
+        <v>7798</v>
       </c>
       <c r="L27">
-        <v>13703</v>
+        <v>11933</v>
       </c>
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="11">
-        <v>0.30550909735948506</v>
-      </c>
-      <c r="P27" s="11">
-        <v>0.69449090264051494</v>
+      <c r="O27" s="12">
+        <v>0.39521565049921442</v>
+      </c>
+      <c r="P27" s="12">
+        <v>0.60478434950078552</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1846,34 +1848,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="E28">
-        <v>1685</v>
+        <v>1615</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
-      <c r="H28" s="11">
-        <v>0.2420152946468736</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0.75798470535312645</v>
+      <c r="H28" s="12">
+        <v>0.27350427350427353</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.72649572649572647</v>
       </c>
       <c r="K28">
-        <v>53315</v>
+        <v>59545</v>
       </c>
       <c r="L28">
-        <v>118019</v>
+        <v>111789</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="11">
-        <v>0.31117583200065368</v>
-      </c>
-      <c r="P28" s="11">
-        <v>0.68882416799934632</v>
+      <c r="O28" s="12">
+        <v>0.34753755821961785</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0.65246244178038215</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1881,34 +1883,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1340</v>
+        <v>1422</v>
       </c>
       <c r="E29">
-        <v>1766</v>
+        <v>1684</v>
       </c>
       <c r="F29">
         <v>3106</v>
       </c>
-      <c r="H29" s="11">
-        <v>0.43142305215711524</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0.56857694784288471</v>
+      <c r="H29" s="12">
+        <v>0.45782356728911783</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.54217643271088212</v>
       </c>
       <c r="K29">
-        <v>131982</v>
+        <v>139257</v>
       </c>
       <c r="L29">
-        <v>136280</v>
+        <v>129005</v>
       </c>
       <c r="M29">
         <v>268262</v>
       </c>
-      <c r="O29" s="11">
-        <v>0.49198917476198639</v>
-      </c>
-      <c r="P29" s="11">
-        <v>0.50801082523801355</v>
+      <c r="O29" s="12">
+        <v>0.51910818528155311</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.48089181471844689</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1916,34 +1918,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E30">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="11">
-        <v>0.35742971887550201</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0.64257028112449799</v>
+      <c r="H30" s="12">
+        <v>0.37751004016064255</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0.6224899598393574</v>
       </c>
       <c r="K30">
-        <v>18481</v>
+        <v>19377</v>
       </c>
       <c r="L30">
-        <v>22259</v>
+        <v>21363</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="11">
-        <v>0.45363279332351497</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.54636720667648497</v>
+      <c r="O30" s="12">
+        <v>0.47562592047128127</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0.52437407952871873</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1951,34 +1953,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="E31">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="11">
-        <v>0.31853281853281851</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0.68146718146718144</v>
+      <c r="H31" s="12">
+        <v>0.33494208494208494</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.66505791505791501</v>
       </c>
       <c r="K31">
-        <v>33539</v>
+        <v>35146</v>
       </c>
       <c r="L31">
-        <v>51489</v>
+        <v>49882</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="11">
-        <v>0.3944465352589735</v>
-      </c>
-      <c r="P31" s="11">
-        <v>0.60555346474102645</v>
+      <c r="O31" s="12">
+        <v>0.41334619184268712</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0.58665380815731294</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1986,34 +1988,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E32">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="11">
-        <v>0.40986717267552181</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0.59013282732447814</v>
+      <c r="H32" s="12">
+        <v>0.42504743833017078</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.57495256166982922</v>
       </c>
       <c r="K32">
-        <v>22292</v>
+        <v>23017</v>
       </c>
       <c r="L32">
-        <v>22535</v>
+        <v>21810</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="11">
-        <v>0.49728957994066075</v>
-      </c>
-      <c r="P32" s="11">
-        <v>0.50271042005933919</v>
+      <c r="O32" s="12">
+        <v>0.5134628683605863</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0.48653713163941376</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2021,34 +2023,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E33">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="F33">
-        <v>1068</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0.23314606741573032</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0.7668539325842697</v>
+        <v>1067</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0.25960637300843487</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0.74039362699156519</v>
       </c>
       <c r="K33">
-        <v>22455</v>
+        <v>25064</v>
       </c>
       <c r="L33">
-        <v>53475</v>
+        <v>50782</v>
       </c>
       <c r="M33">
-        <v>75930</v>
-      </c>
-      <c r="O33" s="11">
-        <v>0.29573291189253259</v>
-      </c>
-      <c r="P33" s="11">
-        <v>0.70426708810746741</v>
+        <v>75846</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0.33045908815230862</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0.66954091184769138</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2056,34 +2058,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="E34">
-        <v>804</v>
+        <v>740</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="11">
-        <v>0.2953549517966696</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0.7046450482033304</v>
+      <c r="H34" s="12">
+        <v>0.35144609991235759</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.64855390008764247</v>
       </c>
       <c r="K34">
-        <v>32295</v>
+        <v>37736</v>
       </c>
       <c r="L34">
-        <v>55143</v>
+        <v>49702</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="11">
-        <v>0.36934742331709325</v>
-      </c>
-      <c r="P34" s="11">
-        <v>0.63065257668290675</v>
+      <c r="O34" s="12">
+        <v>0.43157437269836912</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0.56842562730163082</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2091,34 +2093,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E35">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F35">
         <v>785</v>
       </c>
-      <c r="H35" s="11">
-        <v>0.2445859872611465</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0.75541401273885356</v>
+      <c r="H35" s="12">
+        <v>0.24968152866242038</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0.75031847133757967</v>
       </c>
       <c r="K35">
-        <v>18724</v>
+        <v>19036</v>
       </c>
       <c r="L35">
-        <v>43927</v>
+        <v>43615</v>
       </c>
       <c r="M35">
         <v>62651</v>
       </c>
-      <c r="O35" s="11">
-        <v>0.29886194952993567</v>
-      </c>
-      <c r="P35" s="11">
-        <v>0.70113805047006428</v>
+      <c r="O35" s="12">
+        <v>0.30384191792629006</v>
+      </c>
+      <c r="P35" s="12">
+        <v>0.69615808207370988</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2126,34 +2128,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E36">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="11">
-        <v>0.37122128174123337</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0.62877871825876663</v>
+      <c r="H36" s="12">
+        <v>0.38694074969770254</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0.61305925030229746</v>
       </c>
       <c r="K36">
-        <v>31335</v>
+        <v>32497</v>
       </c>
       <c r="L36">
-        <v>33799</v>
+        <v>32637</v>
       </c>
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="11">
-        <v>0.48108514754199033</v>
-      </c>
-      <c r="P36" s="11">
-        <v>0.51891485245800961</v>
+      <c r="O36" s="12">
+        <v>0.49892529247397671</v>
+      </c>
+      <c r="P36" s="12">
+        <v>0.50107470752602323</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2161,34 +2163,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E37">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="11">
-        <v>0.40379008746355682</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0.59620991253644318</v>
+      <c r="H37" s="12">
+        <v>0.43002915451895046</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0.56997084548104959</v>
       </c>
       <c r="K37">
-        <v>26723</v>
+        <v>28473</v>
       </c>
       <c r="L37">
-        <v>31198</v>
+        <v>29448</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="11">
-        <v>0.46136979679218243</v>
-      </c>
-      <c r="P37" s="11">
-        <v>0.53863020320781752</v>
+      <c r="O37" s="12">
+        <v>0.49158336354690008</v>
+      </c>
+      <c r="P37" s="12">
+        <v>0.50841663645309987</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2196,34 +2198,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E38">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="11">
-        <v>0.26710526315789473</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0.73289473684210527</v>
+      <c r="H38" s="12">
+        <v>0.2868421052631579</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0.7131578947368421</v>
       </c>
       <c r="K38">
-        <v>19798</v>
+        <v>20962</v>
       </c>
       <c r="L38">
-        <v>35486</v>
+        <v>34322</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="11">
-        <v>0.35811446349757614</v>
-      </c>
-      <c r="P38" s="11">
-        <v>0.64188553650242386</v>
+      <c r="O38" s="12">
+        <v>0.37916937992909339</v>
+      </c>
+      <c r="P38" s="12">
+        <v>0.62083062007090661</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2231,34 +2233,34 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="11">
-        <v>0.29473684210526313</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0.70526315789473681</v>
+      <c r="H39" s="12">
+        <v>0.3473684210526316</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0.65263157894736845</v>
       </c>
       <c r="K39">
-        <v>2292</v>
+        <v>2786</v>
       </c>
       <c r="L39">
-        <v>4414</v>
+        <v>3920</v>
       </c>
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="11">
-        <v>0.34178347748285121</v>
-      </c>
-      <c r="P39" s="11">
-        <v>0.65821652251714879</v>
+      <c r="O39" s="12">
+        <v>0.41544885177453028</v>
+      </c>
+      <c r="P39" s="12">
+        <v>0.58455114822546972</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2266,34 +2268,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E40">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="11">
-        <v>0.33880597014925373</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0.66119402985074627</v>
+      <c r="H40" s="12">
+        <v>0.36716417910447763</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0.63283582089552237</v>
       </c>
       <c r="K40">
-        <v>21217</v>
+        <v>22750</v>
       </c>
       <c r="L40">
-        <v>27848</v>
+        <v>26315</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="11">
-        <v>0.43242637317843674</v>
-      </c>
-      <c r="P40" s="11">
-        <v>0.5675736268215632</v>
+      <c r="O40" s="12">
+        <v>0.46367064098644656</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0.5363293590135535</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2301,34 +2303,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="E41">
-        <v>1537</v>
+        <v>1492</v>
       </c>
       <c r="F41">
         <v>1956</v>
       </c>
-      <c r="H41" s="11">
-        <v>0.21421267893660531</v>
-      </c>
-      <c r="I41" s="11">
-        <v>0.78578732106339466</v>
+      <c r="H41" s="12">
+        <v>0.23721881390593047</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0.76278118609406953</v>
       </c>
       <c r="K41">
-        <v>41857</v>
+        <v>45695</v>
       </c>
       <c r="L41">
-        <v>104714</v>
+        <v>100876</v>
       </c>
       <c r="M41">
         <v>146571</v>
       </c>
-      <c r="O41" s="11">
-        <v>0.28557490908842814</v>
-      </c>
-      <c r="P41" s="11">
-        <v>0.71442509091157191</v>
+      <c r="O41" s="12">
+        <v>0.31176017083870616</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0.68823982916129389</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2336,34 +2338,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E42">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="11">
-        <v>0.30533333333333335</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0.69466666666666665</v>
+      <c r="H42" s="12">
+        <v>0.32933333333333331</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0.67066666666666663</v>
       </c>
       <c r="K42">
-        <v>22876</v>
+        <v>24523</v>
       </c>
       <c r="L42">
-        <v>39555</v>
+        <v>37908</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="11">
-        <v>0.36642052826320259</v>
-      </c>
-      <c r="P42" s="11">
-        <v>0.63357947173679741</v>
+      <c r="O42" s="12">
+        <v>0.39280165302493952</v>
+      </c>
+      <c r="P42" s="12">
+        <v>0.60719834697506048</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2371,34 +2373,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="E43">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="11">
-        <v>0.24850657108721624</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0.7514934289127837</v>
+      <c r="H43" s="12">
+        <v>0.27240143369175629</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0.72759856630824371</v>
       </c>
       <c r="K43">
-        <v>20301</v>
+        <v>22076</v>
       </c>
       <c r="L43">
-        <v>43693</v>
+        <v>41918</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="11">
-        <v>0.31723286558114822</v>
-      </c>
-      <c r="P43" s="11">
-        <v>0.68276713441885173</v>
+      <c r="O43" s="12">
+        <v>0.34496984092258648</v>
+      </c>
+      <c r="P43" s="12">
+        <v>0.65503015907741347</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2406,34 +2408,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="E44">
-        <v>2148</v>
+        <v>2070</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
-      <c r="H44" s="11">
-        <v>0.1466030989272944</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0.8533969010727056</v>
+      <c r="H44" s="12">
+        <v>0.17759237187127533</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0.8224076281287247</v>
       </c>
       <c r="K44">
-        <v>36595</v>
+        <v>43658</v>
       </c>
       <c r="L44">
-        <v>149035</v>
+        <v>141972</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="11">
-        <v>0.19713947099068038</v>
-      </c>
-      <c r="P44" s="11">
-        <v>0.80286052900931959</v>
+      <c r="O44" s="12">
+        <v>0.2351882777568281</v>
+      </c>
+      <c r="P44" s="12">
+        <v>0.76481172224317195</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2441,34 +2443,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="E45">
-        <v>1658</v>
+        <v>1593</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="11">
-        <v>0.21010004764173415</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0.78989995235826582</v>
+      <c r="H45" s="12">
+        <v>0.24106717484516435</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0.75893282515483562</v>
       </c>
       <c r="K45">
-        <v>44208</v>
+        <v>49557</v>
       </c>
       <c r="L45">
-        <v>117166</v>
+        <v>111817</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="11">
-        <v>0.27394747604942554</v>
-      </c>
-      <c r="P45" s="11">
-        <v>0.7260525239505744</v>
+      <c r="O45" s="12">
+        <v>0.30709407959150792</v>
+      </c>
+      <c r="P45" s="12">
+        <v>0.69290592040849208</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2476,34 +2478,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E46">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="11">
-        <v>0.29154518950437319</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0.70845481049562686</v>
+      <c r="H46" s="12">
+        <v>0.3498542274052478</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0.65014577259475215</v>
       </c>
       <c r="K46">
-        <v>19574</v>
+        <v>23401</v>
       </c>
       <c r="L46">
-        <v>34408</v>
+        <v>30581</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="11">
-        <v>0.3626023489311252</v>
-      </c>
-      <c r="P46" s="11">
-        <v>0.6373976510688748</v>
+      <c r="O46" s="12">
+        <v>0.43349635063539699</v>
+      </c>
+      <c r="P46" s="12">
+        <v>0.56650364936460307</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2511,34 +2513,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E47">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F47">
         <v>824</v>
       </c>
-      <c r="H47" s="11">
-        <v>0.26941747572815533</v>
-      </c>
-      <c r="I47" s="11">
-        <v>0.73058252427184467</v>
+      <c r="H47" s="12">
+        <v>0.2803398058252427</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0.71966019417475724</v>
       </c>
       <c r="K47">
-        <v>20038</v>
+        <v>20478</v>
       </c>
       <c r="L47">
-        <v>42675</v>
+        <v>42235</v>
       </c>
       <c r="M47">
         <v>62713</v>
       </c>
-      <c r="O47" s="11">
-        <v>0.31951907897884013</v>
-      </c>
-      <c r="P47" s="11">
-        <v>0.68048092102115987</v>
+      <c r="O47" s="12">
+        <v>0.32653516814695516</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0.67346483185304484</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2546,34 +2548,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E48">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="11">
-        <v>0.16903073286052009</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0.83096926713947994</v>
+      <c r="H48" s="12">
+        <v>0.22458628841607564</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0.77541371158392436</v>
       </c>
       <c r="K48">
-        <v>14019</v>
+        <v>18071</v>
       </c>
       <c r="L48">
-        <v>53345</v>
+        <v>49293</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="11">
-        <v>0.20810818834986047</v>
-      </c>
-      <c r="P48" s="11">
-        <v>0.79189181165013955</v>
+      <c r="O48" s="12">
+        <v>0.2682590107475803</v>
+      </c>
+      <c r="P48" s="12">
+        <v>0.7317409892524197</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2581,34 +2583,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="E49">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="11">
-        <v>0.37518463810930575</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0.6248153618906942</v>
+      <c r="H49" s="12">
+        <v>0.40324963072378139</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0.59675036927621861</v>
       </c>
       <c r="K49">
-        <v>24537</v>
+        <v>26420</v>
       </c>
       <c r="L49">
-        <v>29655</v>
+        <v>27772</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="11">
-        <v>0.45277900797165632</v>
-      </c>
-      <c r="P49" s="11">
-        <v>0.54722099202834362</v>
+      <c r="O49" s="12">
+        <v>0.48752583407144967</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0.51247416592855033</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2616,34 +2618,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="E50">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="11">
-        <v>0.45794392523364486</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0.54205607476635509</v>
+      <c r="H50" s="12">
+        <v>0.5210280373831776</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0.47897196261682246</v>
       </c>
       <c r="K50">
-        <v>19046</v>
+        <v>21044</v>
       </c>
       <c r="L50">
-        <v>14195</v>
+        <v>12197</v>
       </c>
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="11">
-        <v>0.57296711891940677</v>
-      </c>
-      <c r="P50" s="11">
-        <v>0.42703288108059323</v>
+      <c r="O50" s="12">
+        <v>0.63307361391053218</v>
+      </c>
+      <c r="P50" s="12">
+        <v>0.36692638608946782</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2651,34 +2653,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="E51">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="11">
-        <v>0.28558718861209964</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0.71441281138790036</v>
+      <c r="H51" s="12">
+        <v>0.31494661921708184</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0.68505338078291811</v>
       </c>
       <c r="K51">
-        <v>31069</v>
+        <v>33992</v>
       </c>
       <c r="L51">
-        <v>59201</v>
+        <v>56278</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="11">
-        <v>0.34417857538495622</v>
-      </c>
-      <c r="P51" s="11">
-        <v>0.65582142461504378</v>
+      <c r="O51" s="12">
+        <v>0.37655921125512354</v>
+      </c>
+      <c r="P51" s="12">
+        <v>0.62344078874487652</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2686,34 +2688,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1856</v>
+        <v>1915</v>
       </c>
       <c r="E52">
-        <v>1967</v>
+        <v>1908</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
-      <c r="H52" s="11">
-        <v>0.48548260528380854</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0.51451739471619151</v>
+      <c r="H52" s="12">
+        <v>0.50091551137849855</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0.49908448862150145</v>
       </c>
       <c r="K52">
-        <v>190683</v>
+        <v>196101</v>
       </c>
       <c r="L52">
-        <v>153767</v>
+        <v>148349</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
-      <c r="O52" s="11">
-        <v>0.553586877631006</v>
-      </c>
-      <c r="P52" s="11">
-        <v>0.44641312236899405</v>
+      <c r="O52" s="12">
+        <v>0.56931630134997824</v>
+      </c>
+      <c r="P52" s="12">
+        <v>0.43068369865002176</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2721,34 +2723,34 @@
         <v>57</v>
       </c>
       <c r="D53">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="I53" s="11">
-        <v>0.3</v>
+      <c r="H53" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0.2</v>
       </c>
       <c r="K53">
-        <v>4144</v>
+        <v>4628</v>
       </c>
       <c r="L53">
-        <v>1023</v>
+        <v>539</v>
       </c>
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="11">
-        <v>0.80201277336946009</v>
-      </c>
-      <c r="P53" s="11">
-        <v>0.19798722663053997</v>
+      <c r="O53" s="12">
+        <v>0.89568414940971552</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0.1043158505902845</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2758,37 +2760,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>14764</v>
+        <v>16007</v>
       </c>
       <c r="E54" s="13">
-        <v>32349</v>
+        <v>31106</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.313374227920107</v>
+        <v>0.33975760405832783</v>
       </c>
       <c r="I54" s="14">
-        <v>0.68662577207989306</v>
+        <v>0.66024239594167211</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1454448</v>
+        <v>1561441</v>
       </c>
       <c r="L54" s="13">
-        <v>2286266</v>
+        <v>2179273</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.38881561113733903</v>
+        <v>0.41741790471017032</v>
       </c>
       <c r="P54" s="14">
-        <v>0.61118438886266102</v>
+        <v>0.58258209528982974</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2799,34 +2801,34 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E55">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="11">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0.46666666666666667</v>
+      <c r="H55" s="12">
+        <v>0.54385964912280704</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0.45614035087719296</v>
       </c>
       <c r="K55">
-        <v>14979</v>
+        <v>15095</v>
       </c>
       <c r="L55">
-        <v>7947</v>
+        <v>7831</v>
       </c>
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="11">
-        <v>0.65336299398063336</v>
-      </c>
-      <c r="P55" s="11">
-        <v>0.34663700601936664</v>
+      <c r="O55" s="12">
+        <v>0.65842275146122309</v>
+      </c>
+      <c r="P55" s="12">
+        <v>0.34157724853877691</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2842,10 +2844,10 @@
       <c r="F56">
         <v>82</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="12">
         <v>0.42682926829268292</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="12">
         <v>0.57317073170731703</v>
       </c>
       <c r="K56">
@@ -2857,10 +2859,10 @@
       <c r="M56">
         <v>7030</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="12">
         <v>0.46571834992887623</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="12">
         <v>0.53428165007112371</v>
       </c>
     </row>
@@ -2869,34 +2871,34 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E57">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="11">
-        <v>0.18595041322314049</v>
-      </c>
-      <c r="I57" s="11">
-        <v>0.81404958677685946</v>
+      <c r="H57" s="12">
+        <v>0.21900826446280991</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0.78099173553719003</v>
       </c>
       <c r="K57">
-        <v>4624</v>
+        <v>5536</v>
       </c>
       <c r="L57">
-        <v>14362</v>
+        <v>13450</v>
       </c>
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="11">
-        <v>0.24354787738333508</v>
-      </c>
-      <c r="P57" s="11">
-        <v>0.75645212261666495</v>
+      <c r="O57" s="12">
+        <v>0.29158327188454652</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0.70841672811545353</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2912,10 +2914,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="12">
         <v>0.5</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="12">
         <v>0.5</v>
       </c>
       <c r="K58">
@@ -2927,10 +2929,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="12">
         <v>0.55861177773675463</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="12">
         <v>0.44138822226324531</v>
       </c>
     </row>
@@ -2947,10 +2949,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="12">
         <v>0.40490797546012269</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="12">
         <v>0.59509202453987731</v>
       </c>
       <c r="K59">
@@ -2962,10 +2964,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="12">
         <v>0.4524434719183078</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="12">
         <v>0.5475565280816922</v>
       </c>
     </row>
@@ -2974,34 +2976,34 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E60">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="11">
-        <v>0.35576923076923078</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.64423076923076927</v>
+      <c r="H60" s="12">
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0.55769230769230771</v>
       </c>
       <c r="K60">
-        <v>3727</v>
+        <v>4447</v>
       </c>
       <c r="L60">
-        <v>3883</v>
+        <v>3163</v>
       </c>
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="11">
-        <v>0.48975032851511169</v>
-      </c>
-      <c r="P60" s="11">
-        <v>0.51024967148488831</v>
+      <c r="O60" s="12">
+        <v>0.58436268068331143</v>
+      </c>
+      <c r="P60" s="12">
+        <v>0.41563731931668857</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3011,37 +3013,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E61" s="13">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="F61" s="13">
         <v>944</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.39088983050847459</v>
+        <v>0.41207627118644069</v>
       </c>
       <c r="I61" s="14">
-        <v>0.60911016949152541</v>
+        <v>0.58792372881355937</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>35833</v>
+        <v>37581</v>
       </c>
       <c r="L61" s="13">
-        <v>39846</v>
+        <v>38098</v>
       </c>
       <c r="M61" s="13">
         <v>75679</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.47348670040566077</v>
+        <v>0.49658425719155908</v>
       </c>
       <c r="P61" s="14">
-        <v>0.52651329959433923</v>
+        <v>0.50341574280844092</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3060,10 +3062,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="12">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="12">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3075,10 +3077,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O62" s="12">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="11">
+      <c r="P62" s="12">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3095,10 +3097,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="12">
         <v>0.15254237288135594</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="12">
         <v>0.84745762711864403</v>
       </c>
       <c r="K63">
@@ -3110,10 +3112,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O63" s="12">
         <v>0.22075426375210186</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P63" s="12">
         <v>0.77924573624789817</v>
       </c>
     </row>
@@ -3130,10 +3132,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="12">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="12">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3145,10 +3147,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O64" s="12">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P64" s="12">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3165,10 +3167,10 @@
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="12">
         <v>0.2</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="12">
         <v>0.8</v>
       </c>
       <c r="K65">
@@ -3180,10 +3182,10 @@
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O65" s="12">
         <v>0.26978883275035626</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P65" s="12">
         <v>0.73021116724964374</v>
       </c>
     </row>
@@ -3200,10 +3202,10 @@
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="12">
         <v>0.31304347826086959</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="12">
         <v>0.68695652173913047</v>
       </c>
       <c r="K66">
@@ -3215,10 +3217,10 @@
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="11">
+      <c r="O66" s="12">
         <v>0.37602986611740474</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P66" s="12">
         <v>0.62397013388259526</v>
       </c>
     </row>
@@ -3227,34 +3229,34 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E67">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="11">
-        <v>0.29151291512915128</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0.70848708487084866</v>
+      <c r="H67" s="12">
+        <v>0.30627306273062732</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0.69372693726937273</v>
       </c>
       <c r="K67">
-        <v>7456</v>
+        <v>7613</v>
       </c>
       <c r="L67">
-        <v>12264</v>
+        <v>12107</v>
       </c>
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="11">
-        <v>0.37809330628803245</v>
-      </c>
-      <c r="P67" s="11">
-        <v>0.6219066937119675</v>
+      <c r="O67" s="12">
+        <v>0.38605476673427991</v>
+      </c>
+      <c r="P67" s="12">
+        <v>0.61394523326572004</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3270,10 +3272,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="12">
         <v>0.43</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="12">
         <v>0.56999999999999995</v>
       </c>
       <c r="K68">
@@ -3285,10 +3287,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O68" s="12">
         <v>0.5213574423480084</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P68" s="12">
         <v>0.4786425576519916</v>
       </c>
     </row>
@@ -3305,10 +3307,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="12">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="12">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3320,10 +3322,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O69" s="12">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P69" s="12">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3340,10 +3342,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="12">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="12">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3355,10 +3357,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O70" s="12">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P70" s="12">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3375,10 +3377,10 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="12">
         <v>0.35897435897435898</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="12">
         <v>0.64102564102564108</v>
       </c>
       <c r="K71">
@@ -3390,10 +3392,10 @@
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="11">
+      <c r="O71" s="12">
         <v>0.42900815217391303</v>
       </c>
-      <c r="P71" s="11">
+      <c r="P71" s="12">
         <v>0.57099184782608692</v>
       </c>
     </row>
@@ -3402,34 +3404,34 @@
         <v>78</v>
       </c>
       <c r="D72">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E72">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="11">
-        <v>0.46969696969696972</v>
-      </c>
-      <c r="I72" s="11">
-        <v>0.53030303030303028</v>
+      <c r="H72" s="12">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0.48484848484848486</v>
       </c>
       <c r="K72">
-        <v>2956</v>
+        <v>3232</v>
       </c>
       <c r="L72">
-        <v>2725</v>
+        <v>2449</v>
       </c>
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="11">
-        <v>0.52033092765358213</v>
-      </c>
-      <c r="P72" s="11">
-        <v>0.47966907234641787</v>
+      <c r="O72" s="12">
+        <v>0.56891392360499915</v>
+      </c>
+      <c r="P72" s="12">
+        <v>0.43108607639500091</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -3442,10 +3444,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="12">
         <v>0</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="12">
         <v>1</v>
       </c>
       <c r="L73">
@@ -3454,10 +3456,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O73" s="12">
         <v>0</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P73" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3471,10 +3473,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="12">
         <v>0</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="12">
         <v>1</v>
       </c>
       <c r="L74">
@@ -3483,10 +3485,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O74" s="12">
         <v>0</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P74" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3500,10 +3502,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="12">
         <v>0</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="12">
         <v>1</v>
       </c>
       <c r="L75">
@@ -3512,10 +3514,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O75" s="12">
         <v>0</v>
       </c>
-      <c r="P75" s="11">
+      <c r="P75" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3524,34 +3526,34 @@
         <v>82</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="11">
-        <v>0.32692307692307693</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0.67307692307692313</v>
+      <c r="H76" s="12">
+        <v>0.40384615384615385</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0.59615384615384615</v>
       </c>
       <c r="K76">
-        <v>1841</v>
+        <v>2113</v>
       </c>
       <c r="L76">
-        <v>2201</v>
+        <v>1929</v>
       </c>
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="11">
-        <v>0.45546759030183076</v>
-      </c>
-      <c r="P76" s="11">
-        <v>0.54453240969816918</v>
+      <c r="O76" s="12">
+        <v>0.52276100940128645</v>
+      </c>
+      <c r="P76" s="12">
+        <v>0.4772389905987135</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -3567,10 +3569,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="12">
         <v>0.27956989247311825</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="12">
         <v>0.72043010752688175</v>
       </c>
       <c r="K77">
@@ -3582,10 +3584,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O77" s="12">
         <v>0.30326152004787554</v>
       </c>
-      <c r="P77" s="11">
+      <c r="P77" s="12">
         <v>0.69673847995212446</v>
       </c>
     </row>
@@ -3594,63 +3596,69 @@
         <v>84</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="11">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0.84615384615384615</v>
+      <c r="H78" s="12">
+        <v>0.2153846153846154</v>
+      </c>
+      <c r="I78" s="12">
+        <v>0.7846153846153846</v>
       </c>
       <c r="K78">
-        <v>1152</v>
+        <v>1536</v>
       </c>
       <c r="L78">
-        <v>4082</v>
+        <v>3698</v>
       </c>
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="11">
-        <v>0.22009935040122278</v>
-      </c>
-      <c r="P78" s="11">
-        <v>0.77990064959877725</v>
+      <c r="O78" s="12">
+        <v>0.29346580053496368</v>
+      </c>
+      <c r="P78" s="12">
+        <v>0.70653419946503626</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>85</v>
       </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
       <c r="E79">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F79">
         <v>14</v>
       </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>1</v>
+      <c r="H79" s="12">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I79" s="12">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K79">
+        <v>368</v>
       </c>
       <c r="L79">
-        <v>1080</v>
+        <v>712</v>
       </c>
       <c r="M79">
         <v>1080</v>
       </c>
-      <c r="O79" s="11">
-        <v>0</v>
-      </c>
-      <c r="P79" s="11">
-        <v>1</v>
+      <c r="O79" s="12">
+        <v>0.34074074074074073</v>
+      </c>
+      <c r="P79" s="12">
+        <v>0.65925925925925921</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -3666,10 +3674,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="12">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="12">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3681,10 +3689,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="11">
+      <c r="O80" s="12">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="11">
+      <c r="P80" s="12">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3698,10 +3706,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="12">
         <v>0</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="12">
         <v>1</v>
       </c>
       <c r="L81">
@@ -3710,10 +3718,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="11">
+      <c r="O81" s="12">
         <v>0</v>
       </c>
-      <c r="P81" s="11">
+      <c r="P81" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3730,10 +3738,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="12">
         <v>0.4358974358974359</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="12">
         <v>0.5641025641025641</v>
       </c>
       <c r="K82">
@@ -3745,10 +3753,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="11">
+      <c r="O82" s="12">
         <v>0.55135629381286189</v>
       </c>
-      <c r="P82" s="11">
+      <c r="P82" s="12">
         <v>0.44864370618713806</v>
       </c>
     </row>
@@ -3757,34 +3765,34 @@
         <v>89</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E83">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="11">
-        <v>0.13846153846153847</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0.86153846153846159</v>
+      <c r="H83" s="12">
+        <v>0.18461538461538463</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0.81538461538461537</v>
       </c>
       <c r="K83">
-        <v>1797</v>
+        <v>2220</v>
       </c>
       <c r="L83">
-        <v>7375</v>
+        <v>6952</v>
       </c>
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="11">
-        <v>0.19592237243785435</v>
-      </c>
-      <c r="P83" s="11">
-        <v>0.80407762756214562</v>
+      <c r="O83" s="12">
+        <v>0.2420409943305713</v>
+      </c>
+      <c r="P83" s="12">
+        <v>0.75795900566942864</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3800,10 +3808,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="12">
         <v>0.43396226415094341</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84" s="12">
         <v>0.56603773584905659</v>
       </c>
       <c r="K84">
@@ -3815,10 +3823,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="11">
+      <c r="O84" s="12">
         <v>0.51305812973883735</v>
       </c>
-      <c r="P84" s="11">
+      <c r="P84" s="12">
         <v>0.48694187026116259</v>
       </c>
     </row>
@@ -3835,10 +3843,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="12">
         <v>0.4</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I85" s="12">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3850,10 +3858,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="11">
+      <c r="O85" s="12">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="11">
+      <c r="P85" s="12">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3870,10 +3878,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="12">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86" s="12">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3885,10 +3893,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="11">
+      <c r="O86" s="12">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="11">
+      <c r="P86" s="12">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3905,10 +3913,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="12">
         <v>0.26548672566371684</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I87" s="12">
         <v>0.73451327433628322</v>
       </c>
       <c r="K87">
@@ -3920,10 +3928,10 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="11">
+      <c r="O87" s="12">
         <v>0.31348301116580624</v>
       </c>
-      <c r="P87" s="11">
+      <c r="P87" s="12">
         <v>0.68651698883419376</v>
       </c>
     </row>
@@ -3934,37 +3942,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="E88" s="13">
-        <v>1560</v>
+        <v>1535</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.27374301675977653</v>
+        <v>0.28538175046554937</v>
       </c>
       <c r="I88" s="14">
-        <v>0.72625698324022347</v>
+        <v>0.71461824953445063</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>55785</v>
+        <v>57665</v>
       </c>
       <c r="L88" s="13">
-        <v>103692</v>
+        <v>101812</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.34979965763088094</v>
+        <v>0.36158819140064086</v>
       </c>
       <c r="P88" s="14">
-        <v>0.65020034236911906</v>
+        <v>0.6384118085993592</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3975,34 +3983,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E89">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="11">
-        <v>0.37419354838709679</v>
-      </c>
-      <c r="I89" s="11">
-        <v>0.62580645161290327</v>
+      <c r="H89" s="12">
+        <v>0.40645161290322579</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0.59354838709677415</v>
       </c>
       <c r="K89">
-        <v>5990</v>
+        <v>6532</v>
       </c>
       <c r="L89">
-        <v>6486</v>
+        <v>5944</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="11">
-        <v>0.48012183392112856</v>
-      </c>
-      <c r="P89" s="11">
-        <v>0.51987816607887138</v>
+      <c r="O89" s="12">
+        <v>0.52356524527092019</v>
+      </c>
+      <c r="P89" s="12">
+        <v>0.47643475472907981</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4012,37 +4020,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E90" s="13">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.37419354838709679</v>
+        <v>0.40645161290322579</v>
       </c>
       <c r="I90" s="14">
-        <v>0.62580645161290327</v>
+        <v>0.59354838709677415</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>5990</v>
+        <v>6532</v>
       </c>
       <c r="L90" s="13">
-        <v>6486</v>
+        <v>5944</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.48012183392112856</v>
+        <v>0.52356524527092019</v>
       </c>
       <c r="P90" s="14">
-        <v>0.51987816607887138</v>
+        <v>0.47643475472907981</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4053,34 +4061,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E91">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="11">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="I91" s="11">
-        <v>0.6216216216216216</v>
+      <c r="H91" s="12">
+        <v>0.4178794178794179</v>
+      </c>
+      <c r="I91" s="12">
+        <v>0.58212058212058215</v>
       </c>
       <c r="K91">
-        <v>17713</v>
+        <v>19011</v>
       </c>
       <c r="L91">
-        <v>20961</v>
+        <v>19663</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="11">
-        <v>0.45800796400682631</v>
-      </c>
-      <c r="P91" s="11">
-        <v>0.54199203599317369</v>
+      <c r="O91" s="12">
+        <v>0.49157056420334072</v>
+      </c>
+      <c r="P91" s="12">
+        <v>0.50842943579665922</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4088,34 +4096,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E92">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="11">
-        <v>0.45869565217391306</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0.54130434782608694</v>
+      <c r="H92" s="12">
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="I92" s="12">
+        <v>0.52173913043478259</v>
       </c>
       <c r="K92">
-        <v>21499</v>
+        <v>22152</v>
       </c>
       <c r="L92">
-        <v>18990</v>
+        <v>18337</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="11">
-        <v>0.53098372397441285</v>
-      </c>
-      <c r="P92" s="11">
-        <v>0.46901627602558721</v>
+      <c r="O92" s="12">
+        <v>0.54711156116476078</v>
+      </c>
+      <c r="P92" s="12">
+        <v>0.45288843883523922</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4123,34 +4131,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="E93">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
-      <c r="H93" s="11">
-        <v>0.43141592920353983</v>
-      </c>
-      <c r="I93" s="11">
-        <v>0.56858407079646023</v>
+      <c r="H93" s="12">
+        <v>0.47234513274336282</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0.52765486725663713</v>
       </c>
       <c r="K93">
-        <v>39655</v>
+        <v>42834</v>
       </c>
       <c r="L93">
-        <v>35871</v>
+        <v>32692</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
-      <c r="O93" s="11">
-        <v>0.52505097582289539</v>
-      </c>
-      <c r="P93" s="11">
-        <v>0.47494902417710455</v>
+      <c r="O93" s="12">
+        <v>0.5671424410136906</v>
+      </c>
+      <c r="P93" s="12">
+        <v>0.43285755898630934</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4158,34 +4166,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E94">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="11">
-        <v>0.31539611360239161</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0.68460388639760839</v>
+      <c r="H94" s="12">
+        <v>0.32137518684603888</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0.67862481315396117</v>
       </c>
       <c r="K94">
-        <v>21194</v>
+        <v>21581</v>
       </c>
       <c r="L94">
-        <v>36473</v>
+        <v>36086</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="11">
-        <v>0.36752388714516099</v>
-      </c>
-      <c r="P94" s="11">
-        <v>0.63247611285483896</v>
+      <c r="O94" s="12">
+        <v>0.37423483101253752</v>
+      </c>
+      <c r="P94" s="12">
+        <v>0.62576516898746248</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4201,10 +4209,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="12">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="12">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4216,10 +4224,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="11">
+      <c r="O95" s="12">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="11">
+      <c r="P95" s="12">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4228,34 +4236,34 @@
         <v>103</v>
       </c>
       <c r="D96">
+        <v>79</v>
+      </c>
+      <c r="E96">
         <v>69</v>
-      </c>
-      <c r="E96">
-        <v>79</v>
       </c>
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="12">
+        <v>0.53378378378378377</v>
+      </c>
+      <c r="I96" s="12">
         <v>0.46621621621621623</v>
       </c>
-      <c r="I96" s="11">
-        <v>0.53378378378378377</v>
-      </c>
       <c r="K96">
-        <v>7061</v>
+        <v>7652</v>
       </c>
       <c r="L96">
-        <v>4988</v>
+        <v>4397</v>
       </c>
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="11">
-        <v>0.58602373640966055</v>
-      </c>
-      <c r="P96" s="11">
-        <v>0.41397626359033945</v>
+      <c r="O96" s="12">
+        <v>0.63507345007884475</v>
+      </c>
+      <c r="P96" s="12">
+        <v>0.36492654992115531</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -4263,34 +4271,34 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E97">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="11">
-        <v>0.30927835051546393</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0.69072164948453607</v>
+      <c r="H97" s="12">
+        <v>0.39175257731958762</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0.60824742268041232</v>
       </c>
       <c r="K97">
-        <v>3078</v>
+        <v>3834</v>
       </c>
       <c r="L97">
-        <v>5093</v>
+        <v>4337</v>
       </c>
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="11">
-        <v>0.37669807857055437</v>
-      </c>
-      <c r="P97" s="11">
-        <v>0.62330192142944563</v>
+      <c r="O97" s="12">
+        <v>0.469220413658059</v>
+      </c>
+      <c r="P97" s="12">
+        <v>0.530779586341941</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -4306,10 +4314,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="12">
         <v>0.68376068376068377</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="12">
         <v>0.31623931623931623</v>
       </c>
       <c r="K98">
@@ -4321,10 +4329,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="11">
+      <c r="O98" s="12">
         <v>0.79160334346504557</v>
       </c>
-      <c r="P98" s="11">
+      <c r="P98" s="12">
         <v>0.2083966565349544</v>
       </c>
     </row>
@@ -4341,10 +4349,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="12">
         <v>0.3</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="12">
         <v>0.7</v>
       </c>
       <c r="K99">
@@ -4356,10 +4364,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="11">
+      <c r="O99" s="12">
         <v>0.35299003322259137</v>
       </c>
-      <c r="P99" s="11">
+      <c r="P99" s="12">
         <v>0.64700996677740863</v>
       </c>
     </row>
@@ -4368,34 +4376,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E100">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="11">
-        <v>0.49725274725274726</v>
-      </c>
-      <c r="I100" s="11">
-        <v>0.50274725274725274</v>
+      <c r="H100" s="12">
+        <v>0.51098901098901095</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0.48901098901098899</v>
       </c>
       <c r="K100">
-        <v>15946</v>
+        <v>16183</v>
       </c>
       <c r="L100">
-        <v>10769</v>
+        <v>10532</v>
       </c>
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="11">
-        <v>0.59689313119970056</v>
-      </c>
-      <c r="P100" s="11">
-        <v>0.40310686880029944</v>
+      <c r="O100" s="12">
+        <v>0.60576455174995325</v>
+      </c>
+      <c r="P100" s="12">
+        <v>0.3942354482500468</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4403,34 +4411,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E101">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="11">
-        <v>0.29098360655737704</v>
-      </c>
-      <c r="I101" s="11">
-        <v>0.70901639344262291</v>
+      <c r="H101" s="12">
+        <v>0.34426229508196721</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0.65573770491803274</v>
       </c>
       <c r="K101">
-        <v>6668</v>
+        <v>7878</v>
       </c>
       <c r="L101">
-        <v>12689</v>
+        <v>11479</v>
       </c>
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="11">
-        <v>0.34447486697318802</v>
-      </c>
-      <c r="P101" s="11">
-        <v>0.65552513302681203</v>
+      <c r="O101" s="12">
+        <v>0.40698455339153794</v>
+      </c>
+      <c r="P101" s="12">
+        <v>0.59301544660846206</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4438,34 +4446,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E102">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="11">
-        <v>0.38857142857142857</v>
-      </c>
-      <c r="I102" s="11">
-        <v>0.61142857142857143</v>
+      <c r="H102" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0.6</v>
       </c>
       <c r="K102">
-        <v>6359</v>
+        <v>6527</v>
       </c>
       <c r="L102">
-        <v>7397</v>
+        <v>7229</v>
       </c>
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="11">
-        <v>0.46227100901424834</v>
-      </c>
-      <c r="P102" s="11">
-        <v>0.53772899098575166</v>
+      <c r="O102" s="12">
+        <v>0.47448386158767081</v>
+      </c>
+      <c r="P102" s="12">
+        <v>0.52551613841232914</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4473,34 +4481,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E103">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="11">
-        <v>0.40944881889763779</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0.59055118110236215</v>
+      <c r="H103" s="12">
+        <v>0.43307086614173229</v>
+      </c>
+      <c r="I103" s="12">
+        <v>0.56692913385826771</v>
       </c>
       <c r="K103">
-        <v>16618</v>
+        <v>17324</v>
       </c>
       <c r="L103">
-        <v>17226</v>
+        <v>16520</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="11">
-        <v>0.49101761021155893</v>
-      </c>
-      <c r="P103" s="11">
-        <v>0.50898238978844113</v>
+      <c r="O103" s="12">
+        <v>0.51187802860182008</v>
+      </c>
+      <c r="P103" s="12">
+        <v>0.48812197139817987</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4516,10 +4524,10 @@
       <c r="F104">
         <v>892</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="12">
         <v>0.36210762331838564</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I104" s="12">
         <v>0.63789237668161436</v>
       </c>
       <c r="K104">
@@ -4531,10 +4539,10 @@
       <c r="M104">
         <v>69284</v>
       </c>
-      <c r="O104" s="11">
+      <c r="O104" s="12">
         <v>0.43556953986490388</v>
       </c>
-      <c r="P104" s="11">
+      <c r="P104" s="12">
         <v>0.56443046013509612</v>
       </c>
     </row>
@@ -4543,34 +4551,34 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E105">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="11">
-        <v>0.57241379310344831</v>
-      </c>
-      <c r="I105" s="11">
-        <v>0.42758620689655175</v>
+      <c r="H105" s="12">
+        <v>0.59310344827586203</v>
+      </c>
+      <c r="I105" s="12">
+        <v>0.40689655172413791</v>
       </c>
       <c r="K105">
-        <v>8421</v>
+        <v>8661</v>
       </c>
       <c r="L105">
-        <v>4184</v>
+        <v>3944</v>
       </c>
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="11">
-        <v>0.66806822689408962</v>
-      </c>
-      <c r="P105" s="11">
-        <v>0.33193177310591038</v>
+      <c r="O105" s="12">
+        <v>0.68710829036096788</v>
+      </c>
+      <c r="P105" s="12">
+        <v>0.31289170963903212</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -4586,10 +4594,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I106" s="12">
         <v>0.52083333333333337</v>
       </c>
       <c r="K106">
@@ -4601,10 +4609,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="11">
+      <c r="O106" s="12">
         <v>0.50798861895381919</v>
       </c>
-      <c r="P106" s="11">
+      <c r="P106" s="12">
         <v>0.49201138104618081</v>
       </c>
     </row>
@@ -4613,34 +4621,34 @@
         <v>114</v>
       </c>
       <c r="D107">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E107">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="11">
-        <v>0.32659932659932661</v>
-      </c>
-      <c r="I107" s="11">
-        <v>0.67340067340067344</v>
+      <c r="H107" s="12">
+        <v>0.34680134680134678</v>
+      </c>
+      <c r="I107" s="12">
+        <v>0.65319865319865322</v>
       </c>
       <c r="K107">
-        <v>8577</v>
+        <v>9002</v>
       </c>
       <c r="L107">
-        <v>15523</v>
+        <v>15098</v>
       </c>
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="11">
-        <v>0.3558921161825726</v>
-      </c>
-      <c r="P107" s="11">
-        <v>0.64410788381742734</v>
+      <c r="O107" s="12">
+        <v>0.37352697095435683</v>
+      </c>
+      <c r="P107" s="12">
+        <v>0.62647302904564317</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -4648,34 +4656,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E108">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="11">
-        <v>0.41154562383612664</v>
-      </c>
-      <c r="I108" s="11">
-        <v>0.58845437616387342</v>
+      <c r="H108" s="12">
+        <v>0.42830540037243947</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0.57169459962756053</v>
       </c>
       <c r="K108">
-        <v>22154</v>
+        <v>22953</v>
       </c>
       <c r="L108">
-        <v>24270</v>
+        <v>23471</v>
       </c>
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="11">
-        <v>0.47721006376012409</v>
-      </c>
-      <c r="P108" s="11">
-        <v>0.52278993623987591</v>
+      <c r="O108" s="12">
+        <v>0.49442098914354643</v>
+      </c>
+      <c r="P108" s="12">
+        <v>0.50557901085645351</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4683,34 +4691,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E109">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="11">
-        <v>0.5311909262759924</v>
-      </c>
-      <c r="I109" s="11">
-        <v>0.46880907372400754</v>
+      <c r="H109" s="12">
+        <v>0.55009451795841213</v>
+      </c>
+      <c r="I109" s="12">
+        <v>0.44990548204158792</v>
       </c>
       <c r="K109">
-        <v>28900</v>
+        <v>29872</v>
       </c>
       <c r="L109">
-        <v>17601</v>
+        <v>16629</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="11">
-        <v>0.62149201092449624</v>
-      </c>
-      <c r="P109" s="11">
-        <v>0.37850798907550376</v>
+      <c r="O109" s="12">
+        <v>0.64239478720887722</v>
+      </c>
+      <c r="P109" s="12">
+        <v>0.35760521279112278</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4726,10 +4734,10 @@
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110" s="12">
         <v>0.25146198830409355</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I110" s="12">
         <v>0.74853801169590639</v>
       </c>
       <c r="K110">
@@ -4741,10 +4749,10 @@
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="11">
+      <c r="O110" s="12">
         <v>0.31523915461624025</v>
       </c>
-      <c r="P110" s="11">
+      <c r="P110" s="12">
         <v>0.6847608453837597</v>
       </c>
     </row>
@@ -4753,34 +4761,34 @@
         <v>118</v>
       </c>
       <c r="D111">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="11">
-        <v>0.42028985507246375</v>
-      </c>
-      <c r="I111" s="11">
-        <v>0.57971014492753625</v>
+      <c r="H111" s="12">
+        <v>0.49275362318840582</v>
+      </c>
+      <c r="I111" s="12">
+        <v>0.50724637681159424</v>
       </c>
       <c r="K111">
-        <v>3073</v>
+        <v>3385</v>
       </c>
       <c r="L111">
-        <v>3294</v>
+        <v>2982</v>
       </c>
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="11">
-        <v>0.48264488770221453</v>
-      </c>
-      <c r="P111" s="11">
-        <v>0.51735511229778541</v>
+      <c r="O111" s="12">
+        <v>0.53164755771949113</v>
+      </c>
+      <c r="P111" s="12">
+        <v>0.46835244228050887</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
@@ -4796,10 +4804,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112" s="12">
         <v>0.85624999999999996</v>
       </c>
-      <c r="I112" s="11">
+      <c r="I112" s="12">
         <v>0.14374999999999999</v>
       </c>
       <c r="K112">
@@ -4811,10 +4819,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="11">
+      <c r="O112" s="12">
         <v>0.92600161000681158</v>
       </c>
-      <c r="P112" s="11">
+      <c r="P112" s="12">
         <v>7.3998389993188432E-2</v>
       </c>
     </row>
@@ -4831,10 +4839,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113" s="12">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="11">
+      <c r="I113" s="12">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4846,10 +4854,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="11">
+      <c r="O113" s="12">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="11">
+      <c r="P113" s="12">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4858,34 +4866,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E114">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="11">
-        <v>0.32882414151925077</v>
-      </c>
-      <c r="I114" s="11">
-        <v>0.67117585848074923</v>
+      <c r="H114" s="12">
+        <v>0.34235171696149846</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0.65764828303850154</v>
       </c>
       <c r="K114">
-        <v>31032</v>
+        <v>31821</v>
       </c>
       <c r="L114">
-        <v>44442</v>
+        <v>43653</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="11">
-        <v>0.41116145957548295</v>
-      </c>
-      <c r="P114" s="11">
-        <v>0.588838540424517</v>
+      <c r="O114" s="12">
+        <v>0.42161539073058274</v>
+      </c>
+      <c r="P114" s="12">
+        <v>0.57838460926941726</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4893,34 +4901,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E115">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="11">
-        <v>0.62268518518518523</v>
-      </c>
-      <c r="I115" s="11">
-        <v>0.37731481481481483</v>
+      <c r="H115" s="12">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="I115" s="12">
+        <v>0.37037037037037035</v>
       </c>
       <c r="K115">
-        <v>28636</v>
+        <v>28888</v>
       </c>
       <c r="L115">
-        <v>13283</v>
+        <v>13031</v>
       </c>
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="11">
-        <v>0.68312698299100649</v>
-      </c>
-      <c r="P115" s="11">
-        <v>0.31687301700899356</v>
+      <c r="O115" s="12">
+        <v>0.68913857677902624</v>
+      </c>
+      <c r="P115" s="12">
+        <v>0.31086142322097376</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4936,10 +4944,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="11">
+      <c r="H116" s="12">
         <v>0.39314516129032256</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="12">
         <v>0.60685483870967738</v>
       </c>
       <c r="K116">
@@ -4951,10 +4959,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="11">
+      <c r="O116" s="12">
         <v>0.49959937004393112</v>
       </c>
-      <c r="P116" s="11">
+      <c r="P116" s="12">
         <v>0.50040062995606882</v>
       </c>
     </row>
@@ -4971,10 +4979,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="12">
         <v>0.40807174887892378</v>
       </c>
-      <c r="I117" s="11">
+      <c r="I117" s="12">
         <v>0.59192825112107628</v>
       </c>
       <c r="K117">
@@ -4986,10 +4994,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="11">
+      <c r="O117" s="12">
         <v>0.50101499943611139</v>
       </c>
-      <c r="P117" s="11">
+      <c r="P117" s="12">
         <v>0.49898500056388856</v>
       </c>
     </row>
@@ -4998,34 +5006,34 @@
         <v>125</v>
       </c>
       <c r="D118">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E118">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="I118" s="11">
-        <v>0.4</v>
+      <c r="H118" s="12">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="I118" s="12">
+        <v>0.3411764705882353</v>
       </c>
       <c r="K118">
-        <v>5154</v>
+        <v>5646</v>
       </c>
       <c r="L118">
-        <v>1975</v>
+        <v>1483</v>
       </c>
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="11">
-        <v>0.72296254734184318</v>
-      </c>
-      <c r="P118" s="11">
-        <v>0.27703745265815682</v>
+      <c r="O118" s="12">
+        <v>0.79197643428250808</v>
+      </c>
+      <c r="P118" s="12">
+        <v>0.20802356571749192</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -5041,10 +5049,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="11">
+      <c r="H119" s="12">
         <v>0.68965517241379315</v>
       </c>
-      <c r="I119" s="11">
+      <c r="I119" s="12">
         <v>0.31034482758620691</v>
       </c>
       <c r="K119">
@@ -5056,10 +5064,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="11">
+      <c r="O119" s="12">
         <v>0.75003231226573608</v>
       </c>
-      <c r="P119" s="11">
+      <c r="P119" s="12">
         <v>0.24996768773426392</v>
       </c>
     </row>
@@ -5068,34 +5076,34 @@
         <v>127</v>
       </c>
       <c r="D120">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E120">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="11">
-        <v>0.4621212121212121</v>
-      </c>
-      <c r="I120" s="11">
-        <v>0.53787878787878785</v>
+      <c r="H120" s="12">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="I120" s="12">
+        <v>0.51515151515151514</v>
       </c>
       <c r="K120">
-        <v>18836</v>
+        <v>19552</v>
       </c>
       <c r="L120">
-        <v>16161</v>
+        <v>15445</v>
       </c>
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="11">
-        <v>0.53821756150527189</v>
-      </c>
-      <c r="P120" s="11">
-        <v>0.46178243849472811</v>
+      <c r="O120" s="12">
+        <v>0.55867645798211274</v>
+      </c>
+      <c r="P120" s="12">
+        <v>0.44132354201788726</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -5111,10 +5119,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="12">
         <v>0.35377358490566035</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I121" s="12">
         <v>0.64622641509433965</v>
       </c>
       <c r="K121">
@@ -5126,10 +5134,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="11">
+      <c r="O121" s="12">
         <v>0.44339498884953432</v>
       </c>
-      <c r="P121" s="11">
+      <c r="P121" s="12">
         <v>0.55660501115046568</v>
       </c>
     </row>
@@ -5146,10 +5154,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="12">
         <v>0.32</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122" s="12">
         <v>0.68</v>
       </c>
       <c r="K122">
@@ -5161,10 +5169,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="11">
+      <c r="O122" s="12">
         <v>0.33568345323741006</v>
       </c>
-      <c r="P122" s="11">
+      <c r="P122" s="12">
         <v>0.66431654676258989</v>
       </c>
     </row>
@@ -5181,10 +5189,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="11">
+      <c r="H123" s="12">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I123" s="11">
+      <c r="I123" s="12">
         <v>0.53968253968253965</v>
       </c>
       <c r="K123">
@@ -5196,10 +5204,10 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="11">
+      <c r="O123" s="12">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P123" s="11">
+      <c r="P123" s="12">
         <v>0.46606769016050242</v>
       </c>
     </row>
@@ -5210,37 +5218,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>4436</v>
+        <v>4615</v>
       </c>
       <c r="E124" s="13">
-        <v>5998</v>
+        <v>5819</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.4251485528081273</v>
+        <v>0.44230400613379339</v>
       </c>
       <c r="I124" s="14">
-        <v>0.57485144719187276</v>
+        <v>0.55769599386620661</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>441023</v>
+        <v>455205</v>
       </c>
       <c r="L124" s="13">
-        <v>428599</v>
+        <v>414417</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.50714333354031982</v>
+        <v>0.52345156861256958</v>
       </c>
       <c r="P124" s="14">
-        <v>0.49285666645968018</v>
+        <v>0.47654843138743042</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5251,34 +5259,34 @@
         <v>133</v>
       </c>
       <c r="D125">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E125">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="11">
-        <v>0.30069930069930068</v>
-      </c>
-      <c r="I125" s="11">
-        <v>0.69930069930069927</v>
+      <c r="H125" s="12">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0.53846153846153844</v>
       </c>
       <c r="K125">
-        <v>3799</v>
+        <v>5553</v>
       </c>
       <c r="L125">
-        <v>7302</v>
+        <v>5548</v>
       </c>
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="11">
-        <v>0.34222142149355916</v>
-      </c>
-      <c r="P125" s="11">
-        <v>0.65777857850644084</v>
+      <c r="O125" s="12">
+        <v>0.50022520493649225</v>
+      </c>
+      <c r="P125" s="12">
+        <v>0.4997747950635078</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -5286,34 +5294,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E126">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="11">
-        <v>0.38676844783715014</v>
-      </c>
-      <c r="I126" s="11">
-        <v>0.61323155216284986</v>
+      <c r="H126" s="12">
+        <v>0.3931297709923664</v>
+      </c>
+      <c r="I126" s="12">
+        <v>0.60687022900763354</v>
       </c>
       <c r="K126">
-        <v>32597</v>
+        <v>33203</v>
       </c>
       <c r="L126">
-        <v>40065</v>
+        <v>39459</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="11">
-        <v>0.44861137871239437</v>
-      </c>
-      <c r="P126" s="11">
-        <v>0.55138862128760557</v>
+      <c r="O126" s="12">
+        <v>0.45695136384905455</v>
+      </c>
+      <c r="P126" s="12">
+        <v>0.54304863615094545</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5321,34 +5329,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="E127">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="11">
-        <v>0.32209737827715357</v>
-      </c>
-      <c r="I127" s="11">
-        <v>0.67790262172284643</v>
+      <c r="H127" s="12">
+        <v>0.4101123595505618</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0.5898876404494382</v>
       </c>
       <c r="K127">
-        <v>16785</v>
+        <v>20694</v>
       </c>
       <c r="L127">
-        <v>24501</v>
+        <v>20592</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
-      <c r="O127" s="11">
-        <v>0.40655427990117715</v>
-      </c>
-      <c r="P127" s="11">
-        <v>0.59344572009882279</v>
+      <c r="O127" s="12">
+        <v>0.50123528556895802</v>
+      </c>
+      <c r="P127" s="12">
+        <v>0.49876471443104198</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5364,10 +5372,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="12">
         <v>0.3080357142857143</v>
       </c>
-      <c r="I128" s="11">
+      <c r="I128" s="12">
         <v>0.6919642857142857</v>
       </c>
       <c r="K128">
@@ -5379,10 +5387,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="11">
+      <c r="O128" s="12">
         <v>0.43503090962614072</v>
       </c>
-      <c r="P128" s="11">
+      <c r="P128" s="12">
         <v>0.56496909037385934</v>
       </c>
     </row>
@@ -5391,34 +5399,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E129">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="11">
-        <v>0.17224880382775121</v>
-      </c>
-      <c r="I129" s="11">
-        <v>0.82775119617224879</v>
+      <c r="H129" s="12">
+        <v>0.24401913875598086</v>
+      </c>
+      <c r="I129" s="12">
+        <v>0.75598086124401909</v>
       </c>
       <c r="K129">
-        <v>3597</v>
+        <v>4625</v>
       </c>
       <c r="L129">
-        <v>13507</v>
+        <v>12479</v>
       </c>
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="11">
-        <v>0.21030168381665107</v>
-      </c>
-      <c r="P129" s="11">
-        <v>0.78969831618334896</v>
+      <c r="O129" s="12">
+        <v>0.27040458372310572</v>
+      </c>
+      <c r="P129" s="12">
+        <v>0.72959541627689428</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5426,34 +5434,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E130">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F130">
         <v>481</v>
       </c>
-      <c r="H130" s="11">
-        <v>0.28274428274428276</v>
-      </c>
-      <c r="I130" s="11">
-        <v>0.71725571725571724</v>
+      <c r="H130" s="12">
+        <v>0.32016632016632018</v>
+      </c>
+      <c r="I130" s="12">
+        <v>0.67983367983367982</v>
       </c>
       <c r="K130">
-        <v>14555</v>
+        <v>15871</v>
       </c>
       <c r="L130">
-        <v>24867</v>
+        <v>23551</v>
       </c>
       <c r="M130">
         <v>39422</v>
       </c>
-      <c r="O130" s="11">
-        <v>0.3692100857389275</v>
-      </c>
-      <c r="P130" s="11">
-        <v>0.63078991426107245</v>
+      <c r="O130" s="12">
+        <v>0.40259246106235097</v>
+      </c>
+      <c r="P130" s="12">
+        <v>0.59740753893764897</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5461,34 +5469,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E131">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="11">
-        <v>0.38020833333333331</v>
-      </c>
-      <c r="I131" s="11">
-        <v>0.61979166666666663</v>
+      <c r="H131" s="12">
+        <v>0.40625</v>
+      </c>
+      <c r="I131" s="12">
+        <v>0.59375</v>
       </c>
       <c r="K131">
-        <v>7180</v>
+        <v>7636</v>
       </c>
       <c r="L131">
-        <v>9329</v>
+        <v>8873</v>
       </c>
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="11">
-        <v>0.43491428917560121</v>
-      </c>
-      <c r="P131" s="11">
-        <v>0.56508571082439885</v>
+      <c r="O131" s="12">
+        <v>0.46253558664970623</v>
+      </c>
+      <c r="P131" s="12">
+        <v>0.53746441335029382</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5496,34 +5504,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E132">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="11">
-        <v>0.36049723756906077</v>
-      </c>
-      <c r="I132" s="11">
-        <v>0.63950276243093918</v>
+      <c r="H132" s="12">
+        <v>0.38259668508287292</v>
+      </c>
+      <c r="I132" s="12">
+        <v>0.61740331491712708</v>
       </c>
       <c r="K132">
-        <v>26040</v>
+        <v>27375</v>
       </c>
       <c r="L132">
-        <v>34346</v>
+        <v>33011</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="11">
-        <v>0.43122578081012153</v>
-      </c>
-      <c r="P132" s="11">
-        <v>0.56877421918987847</v>
+      <c r="O132" s="12">
+        <v>0.45333355413506443</v>
+      </c>
+      <c r="P132" s="12">
+        <v>0.54666644586493562</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5531,34 +5539,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E133">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F133">
         <v>306</v>
       </c>
-      <c r="H133" s="11">
-        <v>0.15686274509803921</v>
-      </c>
-      <c r="I133" s="11">
-        <v>0.84313725490196079</v>
+      <c r="H133" s="12">
+        <v>0.17320261437908496</v>
+      </c>
+      <c r="I133" s="12">
+        <v>0.82679738562091498</v>
       </c>
       <c r="K133">
-        <v>4748</v>
+        <v>5360</v>
       </c>
       <c r="L133">
-        <v>17839</v>
+        <v>17227</v>
       </c>
       <c r="M133">
         <v>22587</v>
       </c>
-      <c r="O133" s="11">
-        <v>0.21020941249391242</v>
-      </c>
-      <c r="P133" s="11">
-        <v>0.78979058750608755</v>
+      <c r="O133" s="12">
+        <v>0.23730464426439987</v>
+      </c>
+      <c r="P133" s="12">
+        <v>0.7626953557356001</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5566,34 +5574,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E134">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="11">
-        <v>0.29930394431554525</v>
-      </c>
-      <c r="I134" s="11">
-        <v>0.70069605568445481</v>
+      <c r="H134" s="12">
+        <v>0.3433874709976798</v>
+      </c>
+      <c r="I134" s="12">
+        <v>0.65661252900232014</v>
       </c>
       <c r="K134">
-        <v>12781</v>
+        <v>14233</v>
       </c>
       <c r="L134">
-        <v>21130</v>
+        <v>19678</v>
       </c>
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="11">
-        <v>0.37689835156733803</v>
-      </c>
-      <c r="P134" s="11">
-        <v>0.62310164843266191</v>
+      <c r="O134" s="12">
+        <v>0.41971631623956829</v>
+      </c>
+      <c r="P134" s="12">
+        <v>0.58028368376043171</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5601,34 +5609,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E135">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
-      <c r="H135" s="11">
-        <v>0.33774834437086093</v>
-      </c>
-      <c r="I135" s="11">
-        <v>0.66225165562913912</v>
+      <c r="H135" s="12">
+        <v>0.3443708609271523</v>
+      </c>
+      <c r="I135" s="12">
+        <v>0.6556291390728477</v>
       </c>
       <c r="K135">
-        <v>14018</v>
+        <v>14222</v>
       </c>
       <c r="L135">
-        <v>16297</v>
+        <v>16093</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="11">
-        <v>0.4624113475177305</v>
-      </c>
-      <c r="P135" s="11">
-        <v>0.5375886524822695</v>
+      <c r="O135" s="12">
+        <v>0.46914068942767606</v>
+      </c>
+      <c r="P135" s="12">
+        <v>0.53085931057232394</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5636,34 +5644,34 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E136">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="11">
-        <v>0.31088082901554404</v>
-      </c>
-      <c r="I136" s="11">
-        <v>0.68911917098445596</v>
+      <c r="H136" s="12">
+        <v>0.36787564766839376</v>
+      </c>
+      <c r="I136" s="12">
+        <v>0.63212435233160624</v>
       </c>
       <c r="K136">
-        <v>5553</v>
+        <v>6522</v>
       </c>
       <c r="L136">
-        <v>8047</v>
+        <v>7078</v>
       </c>
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="11">
-        <v>0.40830882352941178</v>
-      </c>
-      <c r="P136" s="11">
-        <v>0.59169117647058822</v>
+      <c r="O136" s="12">
+        <v>0.47955882352941176</v>
+      </c>
+      <c r="P136" s="12">
+        <v>0.52044117647058818</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5679,10 +5687,10 @@
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H137" s="12">
         <v>0.35254237288135593</v>
       </c>
-      <c r="I137" s="11">
+      <c r="I137" s="12">
         <v>0.64745762711864407</v>
       </c>
       <c r="K137">
@@ -5694,10 +5702,10 @@
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="11">
+      <c r="O137" s="12">
         <v>0.44293245065587838</v>
       </c>
-      <c r="P137" s="11">
+      <c r="P137" s="12">
         <v>0.55706754934412162</v>
       </c>
     </row>
@@ -5708,37 +5716,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>1588</v>
+        <v>1755</v>
       </c>
       <c r="E138" s="13">
-        <v>3383</v>
+        <v>3216</v>
       </c>
       <c r="F138" s="13">
         <v>4971</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.31945282639307987</v>
+        <v>0.35304767652383828</v>
       </c>
       <c r="I138" s="14">
-        <v>0.68054717360692019</v>
+        <v>0.64695232347616172</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>159881</v>
+        <v>173522</v>
       </c>
       <c r="L138" s="13">
-        <v>240458</v>
+        <v>226817</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.39936403897696704</v>
+        <v>0.43343766158180941</v>
       </c>
       <c r="P138" s="14">
-        <v>0.60063596102303296</v>
+        <v>0.56656233841819059</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5748,37 +5756,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>21876</v>
+        <v>23523</v>
       </c>
       <c r="E139" s="13">
-        <v>44135</v>
+        <v>42488</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.33139931223583946</v>
+        <v>0.35634969929254218</v>
       </c>
       <c r="I139" s="14">
-        <v>0.66860068776416048</v>
+        <v>0.64365030070745788</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2159283</v>
+        <v>2298904</v>
       </c>
       <c r="L139" s="13">
-        <v>3116653</v>
+        <v>2977032</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.40927012761337517</v>
+        <v>0.43573386788619117</v>
       </c>
       <c r="P139" s="14">
-        <v>0.59072987238662489</v>
+        <v>0.56426613211380883</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D552216-3CD1-48A0-8005-64AEAA8E4D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACBCE36-2922-48CC-8A55-FD941AEF5CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23C152F5-6B60-4FCD-B392-2232EAC77B7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F8A09AB-775F-423B-BC72-281AD2EB69B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,28 +887,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74D085F-2208-4135-AF41-46D6F04A4F33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2571D476-BC8C-4902-BBB4-FF09685147B0}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1253,34 +1254,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E11">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
       <c r="H11" s="12">
-        <v>0.23017902813299232</v>
+        <v>0.24168797953964194</v>
       </c>
       <c r="I11" s="12">
-        <v>0.76982097186700771</v>
+        <v>0.75831202046035806</v>
       </c>
       <c r="K11">
-        <v>17293</v>
+        <v>18129</v>
       </c>
       <c r="L11">
-        <v>43339</v>
+        <v>42503</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
       <c r="O11" s="12">
-        <v>0.2852124290803536</v>
+        <v>0.29900052777411268</v>
       </c>
       <c r="P11" s="12">
-        <v>0.7147875709196464</v>
+        <v>0.70099947222588732</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1288,34 +1289,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E12">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F12">
         <v>572</v>
       </c>
       <c r="H12" s="12">
-        <v>0.29545454545454547</v>
+        <v>0.31293706293706292</v>
       </c>
       <c r="I12" s="12">
-        <v>0.70454545454545459</v>
+        <v>0.68706293706293708</v>
       </c>
       <c r="K12">
-        <v>16629</v>
+        <v>17213</v>
       </c>
       <c r="L12">
-        <v>27136</v>
+        <v>26552</v>
       </c>
       <c r="M12">
         <v>43765</v>
       </c>
       <c r="O12" s="12">
-        <v>0.37996115617502568</v>
+        <v>0.39330515251913628</v>
       </c>
       <c r="P12" s="12">
-        <v>0.62003884382497432</v>
+        <v>0.60669484748086366</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1428,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="E16">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
       <c r="H16" s="12">
-        <v>0.48339483394833949</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="12">
-        <v>0.51660516605166051</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>46852</v>
+        <v>47290</v>
       </c>
       <c r="L16">
-        <v>35628</v>
+        <v>35190</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
       <c r="O16" s="12">
-        <v>0.56804073714839964</v>
+        <v>0.57335111542192052</v>
       </c>
       <c r="P16" s="12">
-        <v>0.43195926285160041</v>
+        <v>0.42664888457807953</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1498,34 +1499,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E18">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="F18">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="H18" s="12">
-        <v>0.36990595611285265</v>
+        <v>0.37122696981575853</v>
       </c>
       <c r="I18" s="12">
-        <v>0.63009404388714729</v>
+        <v>0.62877303018424147</v>
       </c>
       <c r="K18">
-        <v>90292</v>
+        <v>90568</v>
       </c>
       <c r="L18">
-        <v>103977</v>
+        <v>103653</v>
       </c>
       <c r="M18">
-        <v>194269</v>
+        <v>194221</v>
       </c>
       <c r="O18" s="12">
-        <v>0.4647782198909759</v>
+        <v>0.46631414728582388</v>
       </c>
       <c r="P18" s="12">
-        <v>0.5352217801090241</v>
+        <v>0.53368585271417612</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1533,34 +1534,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E19">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
       <c r="H19" s="12">
-        <v>0.32984293193717279</v>
+        <v>0.34031413612565448</v>
       </c>
       <c r="I19" s="12">
-        <v>0.67015706806282727</v>
+        <v>0.65968586387434558</v>
       </c>
       <c r="K19">
-        <v>30061</v>
+        <v>30771</v>
       </c>
       <c r="L19">
-        <v>40918</v>
+        <v>40208</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
       <c r="O19" s="12">
-        <v>0.42351963256737907</v>
+        <v>0.43352259118894321</v>
       </c>
       <c r="P19" s="12">
-        <v>0.57648036743262088</v>
+        <v>0.56647740881105679</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1568,34 +1569,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E20">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
       <c r="H20" s="12">
-        <v>0.42009132420091322</v>
+        <v>0.42465753424657532</v>
       </c>
       <c r="I20" s="12">
-        <v>0.57990867579908678</v>
+        <v>0.57534246575342463</v>
       </c>
       <c r="K20">
-        <v>27239</v>
+        <v>27443</v>
       </c>
       <c r="L20">
-        <v>27324</v>
+        <v>27120</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
       <c r="O20" s="12">
-        <v>0.49922108388468378</v>
+        <v>0.50295988123820168</v>
       </c>
       <c r="P20" s="12">
-        <v>0.50077891611531622</v>
+        <v>0.49704011876179827</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1673,34 +1674,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="E23">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
       <c r="H23" s="12">
-        <v>0.27658338175479374</v>
+        <v>0.28529924462521788</v>
       </c>
       <c r="I23" s="12">
-        <v>0.72341661824520631</v>
+        <v>0.71470075537478206</v>
       </c>
       <c r="K23">
-        <v>45778</v>
+        <v>46898</v>
       </c>
       <c r="L23">
-        <v>85293</v>
+        <v>84173</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
       <c r="O23" s="12">
-        <v>0.34926108750219348</v>
+        <v>0.35780607457027108</v>
       </c>
       <c r="P23" s="12">
-        <v>0.65073891249780658</v>
+        <v>0.64219392542972897</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1708,34 +1709,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E24">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
       <c r="H24" s="12">
-        <v>0.35084745762711866</v>
+        <v>0.35762711864406782</v>
       </c>
       <c r="I24" s="12">
-        <v>0.64915254237288134</v>
+        <v>0.64237288135593218</v>
       </c>
       <c r="K24">
-        <v>19866</v>
+        <v>20105</v>
       </c>
       <c r="L24">
-        <v>24447</v>
+        <v>24208</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
       <c r="O24" s="12">
-        <v>0.44831087942590209</v>
+        <v>0.45370433055762416</v>
       </c>
       <c r="P24" s="12">
-        <v>0.55168912057409791</v>
+        <v>0.54629566944237584</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1743,34 +1744,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E25">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
       <c r="H25" s="12">
-        <v>0.27988047808764938</v>
+        <v>0.28984063745019922</v>
       </c>
       <c r="I25" s="12">
-        <v>0.72011952191235062</v>
+        <v>0.71015936254980083</v>
       </c>
       <c r="K25">
-        <v>28945</v>
+        <v>29491</v>
       </c>
       <c r="L25">
-        <v>50851</v>
+        <v>50305</v>
       </c>
       <c r="M25">
         <v>79796</v>
       </c>
       <c r="O25" s="12">
-        <v>0.36273748057546745</v>
+        <v>0.36957992881848717</v>
       </c>
       <c r="P25" s="12">
-        <v>0.6372625194245326</v>
+        <v>0.63042007118151289</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1778,34 +1779,34 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>137</v>
       </c>
       <c r="H26" s="12">
-        <v>0.38686131386861317</v>
+        <v>0.40875912408759124</v>
       </c>
       <c r="I26" s="12">
-        <v>0.61313868613138689</v>
+        <v>0.59124087591240881</v>
       </c>
       <c r="K26">
-        <v>5069</v>
+        <v>5254</v>
       </c>
       <c r="L26">
-        <v>5311</v>
+        <v>5126</v>
       </c>
       <c r="M26">
         <v>10380</v>
       </c>
       <c r="O26" s="12">
-        <v>0.48834296724470133</v>
+        <v>0.5061657032755299</v>
       </c>
       <c r="P26" s="12">
-        <v>0.51165703275529861</v>
+        <v>0.49383429672447016</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -1848,34 +1849,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E28">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
       <c r="H28" s="12">
-        <v>0.27350427350427353</v>
+        <v>0.27440395861448491</v>
       </c>
       <c r="I28" s="12">
-        <v>0.72649572649572647</v>
+        <v>0.72559604138551503</v>
       </c>
       <c r="K28">
-        <v>59545</v>
+        <v>59685</v>
       </c>
       <c r="L28">
-        <v>111789</v>
+        <v>111649</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="12">
-        <v>0.34753755821961785</v>
+        <v>0.34835467566274059</v>
       </c>
       <c r="P28" s="12">
-        <v>0.65246244178038215</v>
+        <v>0.65164532433725941</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1883,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1422</v>
+        <v>1450</v>
       </c>
       <c r="E29">
-        <v>1684</v>
+        <v>1657</v>
       </c>
       <c r="F29">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="H29" s="12">
-        <v>0.45782356728911783</v>
+        <v>0.46668812359188927</v>
       </c>
       <c r="I29" s="12">
-        <v>0.54217643271088212</v>
+        <v>0.53331187640811073</v>
       </c>
       <c r="K29">
-        <v>139257</v>
+        <v>141656</v>
       </c>
       <c r="L29">
-        <v>129005</v>
+        <v>126649</v>
       </c>
       <c r="M29">
-        <v>268262</v>
+        <v>268305</v>
       </c>
       <c r="O29" s="12">
-        <v>0.51910818528155311</v>
+        <v>0.52796630700136038</v>
       </c>
       <c r="P29" s="12">
-        <v>0.48089181471844689</v>
+        <v>0.47203369299863962</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1953,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="E31">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="12">
-        <v>0.33494208494208494</v>
+        <v>0.3532818532818533</v>
       </c>
       <c r="I31" s="12">
-        <v>0.66505791505791501</v>
+        <v>0.64671814671814676</v>
       </c>
       <c r="K31">
-        <v>35146</v>
+        <v>36730</v>
       </c>
       <c r="L31">
-        <v>49882</v>
+        <v>48298</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="12">
-        <v>0.41334619184268712</v>
+        <v>0.43197534929670228</v>
       </c>
       <c r="P31" s="12">
-        <v>0.58665380815731294</v>
+        <v>0.56802465070329777</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1988,34 +1989,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E32">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
       <c r="H32" s="12">
-        <v>0.42504743833017078</v>
+        <v>0.42694497153700189</v>
       </c>
       <c r="I32" s="12">
-        <v>0.57495256166982922</v>
+        <v>0.57305502846299805</v>
       </c>
       <c r="K32">
-        <v>23017</v>
+        <v>23085</v>
       </c>
       <c r="L32">
-        <v>21810</v>
+        <v>21742</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
       <c r="O32" s="12">
-        <v>0.5134628683605863</v>
+        <v>0.51497981127445513</v>
       </c>
       <c r="P32" s="12">
-        <v>0.48653713163941376</v>
+        <v>0.48502018872554487</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2023,34 +2024,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E33">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
       <c r="H33" s="12">
-        <v>0.25960637300843487</v>
+        <v>0.26429240862230552</v>
       </c>
       <c r="I33" s="12">
-        <v>0.74039362699156519</v>
+        <v>0.73570759137769448</v>
       </c>
       <c r="K33">
-        <v>25064</v>
+        <v>25525</v>
       </c>
       <c r="L33">
-        <v>50782</v>
+        <v>50321</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
       <c r="O33" s="12">
-        <v>0.33045908815230862</v>
+        <v>0.33653719378741132</v>
       </c>
       <c r="P33" s="12">
-        <v>0.66954091184769138</v>
+        <v>0.66346280621258868</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2093,34 +2094,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E35">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F35">
         <v>785</v>
       </c>
       <c r="H35" s="12">
-        <v>0.24968152866242038</v>
+        <v>0.25732484076433121</v>
       </c>
       <c r="I35" s="12">
-        <v>0.75031847133757967</v>
+        <v>0.74267515923566874</v>
       </c>
       <c r="K35">
-        <v>19036</v>
+        <v>19393</v>
       </c>
       <c r="L35">
-        <v>43615</v>
+        <v>43258</v>
       </c>
       <c r="M35">
         <v>62651</v>
       </c>
       <c r="O35" s="12">
-        <v>0.30384191792629006</v>
+        <v>0.30954015099519561</v>
       </c>
       <c r="P35" s="12">
-        <v>0.69615808207370988</v>
+        <v>0.69045984900480439</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2128,34 +2129,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E36">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F36">
         <v>827</v>
       </c>
       <c r="H36" s="12">
-        <v>0.38694074969770254</v>
+        <v>0.39056831922611851</v>
       </c>
       <c r="I36" s="12">
-        <v>0.61305925030229746</v>
+        <v>0.60943168077388155</v>
       </c>
       <c r="K36">
-        <v>32497</v>
+        <v>32677</v>
       </c>
       <c r="L36">
-        <v>32637</v>
+        <v>32457</v>
       </c>
       <c r="M36">
         <v>65134</v>
       </c>
       <c r="O36" s="12">
-        <v>0.49892529247397671</v>
+        <v>0.50168882611232224</v>
       </c>
       <c r="P36" s="12">
-        <v>0.50107470752602323</v>
+        <v>0.49831117388767771</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2198,34 +2199,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E38">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
       <c r="H38" s="12">
-        <v>0.2868421052631579</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="I38" s="12">
-        <v>0.7131578947368421</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="K38">
-        <v>20962</v>
+        <v>21059</v>
       </c>
       <c r="L38">
-        <v>34322</v>
+        <v>34225</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
       <c r="O38" s="12">
-        <v>0.37916937992909339</v>
+        <v>0.38092395629838649</v>
       </c>
       <c r="P38" s="12">
-        <v>0.62083062007090661</v>
+        <v>0.61907604370161351</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2233,34 +2234,34 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <v>95</v>
       </c>
       <c r="H39" s="12">
-        <v>0.3473684210526316</v>
+        <v>0.37894736842105264</v>
       </c>
       <c r="I39" s="12">
-        <v>0.65263157894736845</v>
+        <v>0.62105263157894741</v>
       </c>
       <c r="K39">
-        <v>2786</v>
+        <v>3096</v>
       </c>
       <c r="L39">
-        <v>3920</v>
+        <v>3610</v>
       </c>
       <c r="M39">
         <v>6706</v>
       </c>
       <c r="O39" s="12">
-        <v>0.41544885177453028</v>
+        <v>0.46167611094542199</v>
       </c>
       <c r="P39" s="12">
-        <v>0.58455114822546972</v>
+        <v>0.53832388905457795</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2303,34 +2304,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E41">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F41">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="H41" s="12">
-        <v>0.23721881390593047</v>
+        <v>0.23811957077158916</v>
       </c>
       <c r="I41" s="12">
-        <v>0.76278118609406953</v>
+        <v>0.76188042922841082</v>
       </c>
       <c r="K41">
-        <v>45695</v>
+        <v>45791</v>
       </c>
       <c r="L41">
-        <v>100876</v>
+        <v>100828</v>
       </c>
       <c r="M41">
-        <v>146571</v>
+        <v>146619</v>
       </c>
       <c r="O41" s="12">
-        <v>0.31176017083870616</v>
+        <v>0.31231286531759184</v>
       </c>
       <c r="P41" s="12">
-        <v>0.68823982916129389</v>
+        <v>0.68768713468240816</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2338,34 +2339,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E42">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
       <c r="H42" s="12">
-        <v>0.32933333333333331</v>
+        <v>0.33866666666666667</v>
       </c>
       <c r="I42" s="12">
-        <v>0.67066666666666663</v>
+        <v>0.66133333333333333</v>
       </c>
       <c r="K42">
-        <v>24523</v>
+        <v>25034</v>
       </c>
       <c r="L42">
-        <v>37908</v>
+        <v>37397</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
       <c r="O42" s="12">
-        <v>0.39280165302493952</v>
+        <v>0.40098668930499271</v>
       </c>
       <c r="P42" s="12">
-        <v>0.60719834697506048</v>
+        <v>0.59901331069500729</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2373,34 +2374,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E43">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
       <c r="H43" s="12">
-        <v>0.27240143369175629</v>
+        <v>0.28793309438470727</v>
       </c>
       <c r="I43" s="12">
-        <v>0.72759856630824371</v>
+        <v>0.71206690561529273</v>
       </c>
       <c r="K43">
-        <v>22076</v>
+        <v>23034</v>
       </c>
       <c r="L43">
-        <v>41918</v>
+        <v>40960</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
       <c r="O43" s="12">
-        <v>0.34496984092258648</v>
+        <v>0.3599399943744726</v>
       </c>
       <c r="P43" s="12">
-        <v>0.65503015907741347</v>
+        <v>0.64006000562552734</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2443,34 +2444,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="E45">
-        <v>1593</v>
+        <v>1573</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
       <c r="H45" s="12">
-        <v>0.24106717484516435</v>
+        <v>0.25059552167698906</v>
       </c>
       <c r="I45" s="12">
-        <v>0.75893282515483562</v>
+        <v>0.74940447832301094</v>
       </c>
       <c r="K45">
-        <v>49557</v>
+        <v>50705</v>
       </c>
       <c r="L45">
-        <v>111817</v>
+        <v>110669</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
       <c r="O45" s="12">
-        <v>0.30709407959150792</v>
+        <v>0.31420798889536111</v>
       </c>
       <c r="P45" s="12">
-        <v>0.69290592040849208</v>
+        <v>0.68579201110463894</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2478,34 +2479,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E46">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
       <c r="H46" s="12">
-        <v>0.3498542274052478</v>
+        <v>0.35276967930029157</v>
       </c>
       <c r="I46" s="12">
-        <v>0.65014577259475215</v>
+        <v>0.64723032069970843</v>
       </c>
       <c r="K46">
-        <v>23401</v>
+        <v>23585</v>
       </c>
       <c r="L46">
-        <v>30581</v>
+        <v>30397</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
       <c r="O46" s="12">
-        <v>0.43349635063539699</v>
+        <v>0.43690489422400058</v>
       </c>
       <c r="P46" s="12">
-        <v>0.56650364936460307</v>
+        <v>0.56309510577599942</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2513,34 +2514,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E47">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F47">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H47" s="12">
-        <v>0.2803398058252427</v>
+        <v>0.2867557715674362</v>
       </c>
       <c r="I47" s="12">
-        <v>0.71966019417475724</v>
+        <v>0.71324422843256374</v>
       </c>
       <c r="K47">
-        <v>20478</v>
+        <v>20917</v>
       </c>
       <c r="L47">
-        <v>42235</v>
+        <v>41753</v>
       </c>
       <c r="M47">
-        <v>62713</v>
+        <v>62670</v>
       </c>
       <c r="O47" s="12">
-        <v>0.32653516814695516</v>
+        <v>0.33376416148077231</v>
       </c>
       <c r="P47" s="12">
-        <v>0.67346483185304484</v>
+        <v>0.66623583851922774</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2548,34 +2549,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E48">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
       <c r="H48" s="12">
-        <v>0.22458628841607564</v>
+        <v>0.23404255319148937</v>
       </c>
       <c r="I48" s="12">
-        <v>0.77541371158392436</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="K48">
-        <v>18071</v>
+        <v>18707</v>
       </c>
       <c r="L48">
-        <v>49293</v>
+        <v>48657</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
       <c r="O48" s="12">
-        <v>0.2682590107475803</v>
+        <v>0.27770025532925596</v>
       </c>
       <c r="P48" s="12">
-        <v>0.7317409892524197</v>
+        <v>0.72229974467074398</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2583,34 +2584,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E49">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
       <c r="H49" s="12">
-        <v>0.40324963072378139</v>
+        <v>0.40768094534711963</v>
       </c>
       <c r="I49" s="12">
-        <v>0.59675036927621861</v>
+        <v>0.59231905465288037</v>
       </c>
       <c r="K49">
-        <v>26420</v>
+        <v>26616</v>
       </c>
       <c r="L49">
-        <v>27772</v>
+        <v>27576</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
       <c r="O49" s="12">
-        <v>0.48752583407144967</v>
+        <v>0.49114260407440213</v>
       </c>
       <c r="P49" s="12">
-        <v>0.51247416592855033</v>
+        <v>0.50885739592559787</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2618,34 +2619,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E50">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F50">
         <v>428</v>
       </c>
       <c r="H50" s="12">
-        <v>0.5210280373831776</v>
+        <v>0.52570093457943923</v>
       </c>
       <c r="I50" s="12">
-        <v>0.47897196261682246</v>
+        <v>0.47429906542056077</v>
       </c>
       <c r="K50">
-        <v>21044</v>
+        <v>21151</v>
       </c>
       <c r="L50">
-        <v>12197</v>
+        <v>12090</v>
       </c>
       <c r="M50">
         <v>33241</v>
       </c>
       <c r="O50" s="12">
-        <v>0.63307361391053218</v>
+        <v>0.63629253030895583</v>
       </c>
       <c r="P50" s="12">
-        <v>0.36692638608946782</v>
+        <v>0.36370746969104417</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2653,34 +2654,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E51">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
       <c r="H51" s="12">
-        <v>0.31494661921708184</v>
+        <v>0.3220640569395018</v>
       </c>
       <c r="I51" s="12">
-        <v>0.68505338078291811</v>
+        <v>0.6779359430604982</v>
       </c>
       <c r="K51">
-        <v>33992</v>
+        <v>34561</v>
       </c>
       <c r="L51">
-        <v>56278</v>
+        <v>55709</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
       <c r="O51" s="12">
-        <v>0.37655921125512354</v>
+        <v>0.38286252354048966</v>
       </c>
       <c r="P51" s="12">
-        <v>0.62344078874487652</v>
+        <v>0.61713747645951034</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2688,34 +2689,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1915</v>
+        <v>1921</v>
       </c>
       <c r="E52">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="12">
-        <v>0.50091551137849855</v>
+        <v>0.50248495945592464</v>
       </c>
       <c r="I52" s="12">
-        <v>0.49908448862150145</v>
+        <v>0.49751504054407536</v>
       </c>
       <c r="K52">
-        <v>196101</v>
+        <v>196547</v>
       </c>
       <c r="L52">
-        <v>148349</v>
+        <v>147903</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
       <c r="O52" s="12">
-        <v>0.56931630134997824</v>
+        <v>0.57061111917549712</v>
       </c>
       <c r="P52" s="12">
-        <v>0.43068369865002176</v>
+        <v>0.42938888082450283</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2760,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>16007</v>
+        <v>16237</v>
       </c>
       <c r="E54" s="13">
-        <v>31106</v>
+        <v>30876</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.33975760405832783</v>
+        <v>0.34463948379428183</v>
       </c>
       <c r="I54" s="14">
-        <v>0.66024239594167211</v>
+        <v>0.65536051620571811</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1561441</v>
+        <v>1577465</v>
       </c>
       <c r="L54" s="13">
-        <v>2179273</v>
+        <v>2163249</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.41741790471017032</v>
+        <v>0.42170157889643528</v>
       </c>
       <c r="P54" s="14">
-        <v>0.58258209528982974</v>
+        <v>0.57829842110356477</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3765,34 +3766,34 @@
         <v>89</v>
       </c>
       <c r="D83">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F83">
         <v>130</v>
       </c>
       <c r="H83" s="12">
-        <v>0.18461538461538463</v>
+        <v>0.2</v>
       </c>
       <c r="I83" s="12">
-        <v>0.81538461538461537</v>
+        <v>0.8</v>
       </c>
       <c r="K83">
-        <v>2220</v>
+        <v>2400</v>
       </c>
       <c r="L83">
-        <v>6952</v>
+        <v>6772</v>
       </c>
       <c r="M83">
         <v>9172</v>
       </c>
       <c r="O83" s="12">
-        <v>0.2420409943305713</v>
+        <v>0.26166593981683384</v>
       </c>
       <c r="P83" s="12">
-        <v>0.75795900566942864</v>
+        <v>0.73833406018316616</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3800,34 +3801,34 @@
         <v>90</v>
       </c>
       <c r="D84">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84">
         <v>106</v>
       </c>
       <c r="H84" s="12">
-        <v>0.43396226415094341</v>
+        <v>0.47169811320754718</v>
       </c>
       <c r="I84" s="12">
-        <v>0.56603773584905659</v>
+        <v>0.52830188679245282</v>
       </c>
       <c r="K84">
-        <v>4263</v>
+        <v>4647</v>
       </c>
       <c r="L84">
-        <v>4046</v>
+        <v>3662</v>
       </c>
       <c r="M84">
         <v>8309</v>
       </c>
       <c r="O84" s="12">
-        <v>0.51305812973883735</v>
+        <v>0.55927307738596699</v>
       </c>
       <c r="P84" s="12">
-        <v>0.48694187026116259</v>
+        <v>0.44072692261403296</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3942,37 +3943,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E88" s="13">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.28538175046554937</v>
+        <v>0.28817504655493481</v>
       </c>
       <c r="I88" s="14">
-        <v>0.71461824953445063</v>
+        <v>0.71182495344506513</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>57665</v>
+        <v>58229</v>
       </c>
       <c r="L88" s="13">
-        <v>101812</v>
+        <v>101248</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.36158819140064086</v>
+        <v>0.36512475153156881</v>
       </c>
       <c r="P88" s="14">
-        <v>0.6384118085993592</v>
+        <v>0.63487524846843113</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4061,34 +4062,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E91">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
       <c r="H91" s="12">
-        <v>0.4178794178794179</v>
+        <v>0.42203742203742206</v>
       </c>
       <c r="I91" s="12">
-        <v>0.58212058212058215</v>
+        <v>0.57796257796257799</v>
       </c>
       <c r="K91">
-        <v>19011</v>
+        <v>19107</v>
       </c>
       <c r="L91">
-        <v>19663</v>
+        <v>19567</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
       <c r="O91" s="12">
-        <v>0.49157056420334072</v>
+        <v>0.49405285204530175</v>
       </c>
       <c r="P91" s="12">
-        <v>0.50842943579665922</v>
+        <v>0.5059471479546982</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4096,34 +4097,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E92">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
       <c r="H92" s="12">
-        <v>0.47826086956521741</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="I92" s="12">
-        <v>0.52173913043478259</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="K92">
-        <v>22152</v>
+        <v>22883</v>
       </c>
       <c r="L92">
-        <v>18337</v>
+        <v>17606</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
       <c r="O92" s="12">
-        <v>0.54711156116476078</v>
+        <v>0.56516584751413967</v>
       </c>
       <c r="P92" s="12">
-        <v>0.45288843883523922</v>
+        <v>0.43483415248586038</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4131,34 +4132,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E93">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
       <c r="H93" s="12">
-        <v>0.47234513274336282</v>
+        <v>0.47787610619469029</v>
       </c>
       <c r="I93" s="12">
-        <v>0.52765486725663713</v>
+        <v>0.52212389380530977</v>
       </c>
       <c r="K93">
-        <v>42834</v>
+        <v>43039</v>
       </c>
       <c r="L93">
-        <v>32692</v>
+        <v>32487</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
       <c r="O93" s="12">
-        <v>0.5671424410136906</v>
+        <v>0.56985673807695358</v>
       </c>
       <c r="P93" s="12">
-        <v>0.43285755898630934</v>
+        <v>0.43014326192304636</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4166,34 +4167,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E94">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
       <c r="H94" s="12">
-        <v>0.32137518684603888</v>
+        <v>0.3273542600896861</v>
       </c>
       <c r="I94" s="12">
-        <v>0.67862481315396117</v>
+        <v>0.67264573991031396</v>
       </c>
       <c r="K94">
-        <v>21581</v>
+        <v>21769</v>
       </c>
       <c r="L94">
-        <v>36086</v>
+        <v>35898</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
       <c r="O94" s="12">
-        <v>0.37423483101253752</v>
+        <v>0.37749492777498395</v>
       </c>
       <c r="P94" s="12">
-        <v>0.62576516898746248</v>
+        <v>0.62250507222501605</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4271,34 +4272,34 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E97">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F97">
         <v>97</v>
       </c>
       <c r="H97" s="12">
-        <v>0.39175257731958762</v>
+        <v>0.41237113402061853</v>
       </c>
       <c r="I97" s="12">
-        <v>0.60824742268041232</v>
+        <v>0.58762886597938147</v>
       </c>
       <c r="K97">
-        <v>3834</v>
+        <v>3906</v>
       </c>
       <c r="L97">
-        <v>4337</v>
+        <v>4265</v>
       </c>
       <c r="M97">
         <v>8171</v>
       </c>
       <c r="O97" s="12">
-        <v>0.469220413658059</v>
+        <v>0.47803206461877373</v>
       </c>
       <c r="P97" s="12">
-        <v>0.530779586341941</v>
+        <v>0.52196793538122632</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -4376,34 +4377,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E100">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F100">
         <v>364</v>
       </c>
       <c r="H100" s="12">
-        <v>0.51098901098901095</v>
+        <v>0.52472527472527475</v>
       </c>
       <c r="I100" s="12">
-        <v>0.48901098901098899</v>
+        <v>0.47527472527472525</v>
       </c>
       <c r="K100">
-        <v>16183</v>
+        <v>16451</v>
       </c>
       <c r="L100">
-        <v>10532</v>
+        <v>10264</v>
       </c>
       <c r="M100">
         <v>26715</v>
       </c>
       <c r="O100" s="12">
-        <v>0.60576455174995325</v>
+        <v>0.61579636908104063</v>
       </c>
       <c r="P100" s="12">
-        <v>0.3942354482500468</v>
+        <v>0.38420363091895937</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4516,34 +4517,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E104">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F104">
         <v>892</v>
       </c>
       <c r="H104" s="12">
-        <v>0.36210762331838564</v>
+        <v>0.36547085201793722</v>
       </c>
       <c r="I104" s="12">
-        <v>0.63789237668161436</v>
+        <v>0.63452914798206284</v>
       </c>
       <c r="K104">
-        <v>30178</v>
+        <v>30428</v>
       </c>
       <c r="L104">
-        <v>39106</v>
+        <v>38856</v>
       </c>
       <c r="M104">
         <v>69284</v>
       </c>
       <c r="O104" s="12">
-        <v>0.43556953986490388</v>
+        <v>0.43917787656601814</v>
       </c>
       <c r="P104" s="12">
-        <v>0.56443046013509612</v>
+        <v>0.56082212343398186</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4691,34 +4692,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E109">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
       <c r="H109" s="12">
-        <v>0.55009451795841213</v>
+        <v>0.57088846880907373</v>
       </c>
       <c r="I109" s="12">
-        <v>0.44990548204158792</v>
+        <v>0.42911153119092627</v>
       </c>
       <c r="K109">
-        <v>29872</v>
+        <v>30746</v>
       </c>
       <c r="L109">
-        <v>16629</v>
+        <v>15755</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
       <c r="O109" s="12">
-        <v>0.64239478720887722</v>
+        <v>0.66119008193372186</v>
       </c>
       <c r="P109" s="12">
-        <v>0.35760521279112278</v>
+        <v>0.33880991806627814</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4796,34 +4797,34 @@
         <v>119</v>
       </c>
       <c r="D112">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F112">
         <v>160</v>
       </c>
       <c r="H112" s="12">
-        <v>0.85624999999999996</v>
+        <v>0.86875000000000002</v>
       </c>
       <c r="I112" s="12">
-        <v>0.14374999999999999</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="K112">
-        <v>14954</v>
+        <v>15146</v>
       </c>
       <c r="L112">
-        <v>1195</v>
+        <v>1003</v>
       </c>
       <c r="M112">
         <v>16149</v>
       </c>
       <c r="O112" s="12">
-        <v>0.92600161000681158</v>
+        <v>0.93789089107684687</v>
       </c>
       <c r="P112" s="12">
-        <v>7.3998389993188432E-2</v>
+        <v>6.2109108923153133E-2</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4866,34 +4867,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="E114">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
       <c r="H114" s="12">
-        <v>0.34235171696149846</v>
+        <v>0.36420395421436003</v>
       </c>
       <c r="I114" s="12">
-        <v>0.65764828303850154</v>
+        <v>0.63579604578563997</v>
       </c>
       <c r="K114">
-        <v>31821</v>
+        <v>33458</v>
       </c>
       <c r="L114">
-        <v>43653</v>
+        <v>42016</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
       <c r="O114" s="12">
-        <v>0.42161539073058274</v>
+        <v>0.44330497919813444</v>
       </c>
       <c r="P114" s="12">
-        <v>0.57838460926941726</v>
+        <v>0.5566950208018655</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4901,34 +4902,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E115">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F115">
         <v>432</v>
       </c>
       <c r="H115" s="12">
-        <v>0.62962962962962965</v>
+        <v>0.63657407407407407</v>
       </c>
       <c r="I115" s="12">
-        <v>0.37037037037037035</v>
+        <v>0.36342592592592593</v>
       </c>
       <c r="K115">
-        <v>28888</v>
+        <v>29140</v>
       </c>
       <c r="L115">
-        <v>13031</v>
+        <v>12779</v>
       </c>
       <c r="M115">
         <v>41919</v>
       </c>
       <c r="O115" s="12">
-        <v>0.68913857677902624</v>
+        <v>0.69515017056704598</v>
       </c>
       <c r="P115" s="12">
-        <v>0.31086142322097376</v>
+        <v>0.30484982943295402</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -5041,34 +5042,34 @@
         <v>126</v>
       </c>
       <c r="D119">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E119">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F119">
         <v>87</v>
       </c>
       <c r="H119" s="12">
-        <v>0.68965517241379315</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="I119" s="12">
-        <v>0.31034482758620691</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K119">
-        <v>5803</v>
+        <v>6258</v>
       </c>
       <c r="L119">
-        <v>1934</v>
+        <v>1479</v>
       </c>
       <c r="M119">
         <v>7737</v>
       </c>
       <c r="O119" s="12">
-        <v>0.75003231226573608</v>
+        <v>0.80884063590538968</v>
       </c>
       <c r="P119" s="12">
-        <v>0.24996768773426392</v>
+        <v>0.19115936409461032</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -5076,34 +5077,34 @@
         <v>127</v>
       </c>
       <c r="D120">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E120">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F120">
         <v>396</v>
       </c>
       <c r="H120" s="12">
-        <v>0.48484848484848486</v>
+        <v>0.52020202020202022</v>
       </c>
       <c r="I120" s="12">
-        <v>0.51515151515151514</v>
+        <v>0.47979797979797978</v>
       </c>
       <c r="K120">
-        <v>19552</v>
+        <v>20805</v>
       </c>
       <c r="L120">
-        <v>15445</v>
+        <v>14192</v>
       </c>
       <c r="M120">
         <v>34997</v>
       </c>
       <c r="O120" s="12">
-        <v>0.55867645798211274</v>
+        <v>0.59447952681658423</v>
       </c>
       <c r="P120" s="12">
-        <v>0.44132354201788726</v>
+        <v>0.40552047318341572</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -5218,37 +5219,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>4615</v>
+        <v>4701</v>
       </c>
       <c r="E124" s="13">
-        <v>5819</v>
+        <v>5733</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.44230400613379339</v>
+        <v>0.45054629097182286</v>
       </c>
       <c r="I124" s="14">
-        <v>0.55769599386620661</v>
+        <v>0.54945370902817714</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>455205</v>
+        <v>461678</v>
       </c>
       <c r="L124" s="13">
-        <v>414417</v>
+        <v>407944</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.52345156861256958</v>
+        <v>0.5308950325543742</v>
       </c>
       <c r="P124" s="14">
-        <v>0.47654843138743042</v>
+        <v>0.4691049674456258</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5329,34 +5330,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E127">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
       <c r="H127" s="12">
-        <v>0.4101123595505618</v>
+        <v>0.41385767790262173</v>
       </c>
       <c r="I127" s="12">
-        <v>0.5898876404494382</v>
+        <v>0.58614232209737827</v>
       </c>
       <c r="K127">
-        <v>20694</v>
+        <v>20814</v>
       </c>
       <c r="L127">
-        <v>20592</v>
+        <v>20472</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
       <c r="O127" s="12">
-        <v>0.50123528556895802</v>
+        <v>0.50414183984885919</v>
       </c>
       <c r="P127" s="12">
-        <v>0.49876471443104198</v>
+        <v>0.49585816015114081</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5364,34 +5365,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E128">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F128">
         <v>224</v>
       </c>
       <c r="H128" s="12">
-        <v>0.3080357142857143</v>
+        <v>0.35267857142857145</v>
       </c>
       <c r="I128" s="12">
-        <v>0.6919642857142857</v>
+        <v>0.6473214285714286</v>
       </c>
       <c r="K128">
-        <v>7389</v>
+        <v>8341</v>
       </c>
       <c r="L128">
-        <v>9596</v>
+        <v>8644</v>
       </c>
       <c r="M128">
         <v>16985</v>
       </c>
       <c r="O128" s="12">
-        <v>0.43503090962614072</v>
+        <v>0.49108036502796587</v>
       </c>
       <c r="P128" s="12">
-        <v>0.56496909037385934</v>
+        <v>0.50891963497203418</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5399,34 +5400,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E129">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F129">
         <v>209</v>
       </c>
       <c r="H129" s="12">
-        <v>0.24401913875598086</v>
+        <v>0.26794258373205743</v>
       </c>
       <c r="I129" s="12">
-        <v>0.75598086124401909</v>
+        <v>0.73205741626794263</v>
       </c>
       <c r="K129">
-        <v>4625</v>
+        <v>5033</v>
       </c>
       <c r="L129">
-        <v>12479</v>
+        <v>12071</v>
       </c>
       <c r="M129">
         <v>17104</v>
       </c>
       <c r="O129" s="12">
-        <v>0.27040458372310572</v>
+        <v>0.29425865294667913</v>
       </c>
       <c r="P129" s="12">
-        <v>0.72959541627689428</v>
+        <v>0.70574134705332081</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5469,34 +5470,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E131">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F131">
         <v>192</v>
       </c>
       <c r="H131" s="12">
-        <v>0.40625</v>
+        <v>0.421875</v>
       </c>
       <c r="I131" s="12">
-        <v>0.59375</v>
+        <v>0.578125</v>
       </c>
       <c r="K131">
-        <v>7636</v>
+        <v>7924</v>
       </c>
       <c r="L131">
-        <v>8873</v>
+        <v>8585</v>
       </c>
       <c r="M131">
         <v>16509</v>
       </c>
       <c r="O131" s="12">
-        <v>0.46253558664970623</v>
+        <v>0.47998061663335151</v>
       </c>
       <c r="P131" s="12">
-        <v>0.53746441335029382</v>
+        <v>0.52001938336664855</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5609,34 +5610,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E135">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
       <c r="H135" s="12">
-        <v>0.3443708609271523</v>
+        <v>0.35540838852097129</v>
       </c>
       <c r="I135" s="12">
-        <v>0.6556291390728477</v>
+        <v>0.64459161147902866</v>
       </c>
       <c r="K135">
-        <v>14222</v>
+        <v>14702</v>
       </c>
       <c r="L135">
-        <v>16093</v>
+        <v>15613</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
       <c r="O135" s="12">
-        <v>0.46914068942767606</v>
+        <v>0.48497443509813626</v>
       </c>
       <c r="P135" s="12">
-        <v>0.53085931057232394</v>
+        <v>0.5150255649018638</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5674,79 +5675,79 @@
         <v>0.52044117647058818</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>145</v>
       </c>
       <c r="D137">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E137">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F137">
         <v>295</v>
       </c>
       <c r="H137" s="12">
-        <v>0.35254237288135593</v>
+        <v>0.35932203389830508</v>
       </c>
       <c r="I137" s="12">
-        <v>0.64745762711864407</v>
+        <v>0.64067796610169492</v>
       </c>
       <c r="K137">
-        <v>10839</v>
+        <v>10859</v>
       </c>
       <c r="L137">
-        <v>13632</v>
+        <v>13612</v>
       </c>
       <c r="M137">
         <v>24471</v>
       </c>
       <c r="O137" s="12">
-        <v>0.44293245065587838</v>
+        <v>0.44374974459564381</v>
       </c>
       <c r="P137" s="12">
-        <v>0.55706754934412162</v>
+        <v>0.55625025540435613</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13">
-        <v>1755</v>
-      </c>
-      <c r="E138" s="13">
-        <v>3216</v>
-      </c>
-      <c r="F138" s="13">
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7">
+        <v>1782</v>
+      </c>
+      <c r="E138" s="7">
+        <v>3189</v>
+      </c>
+      <c r="F138" s="7">
         <v>4971</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="14">
-        <v>0.35304767652383828</v>
-      </c>
-      <c r="I138" s="14">
-        <v>0.64695232347616172</v>
-      </c>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13">
-        <v>173522</v>
-      </c>
-      <c r="L138" s="13">
-        <v>226817</v>
-      </c>
-      <c r="M138" s="13">
+      <c r="G138" s="7"/>
+      <c r="H138" s="8">
+        <v>0.35847917923958961</v>
+      </c>
+      <c r="I138" s="8">
+        <v>0.64152082076041039</v>
+      </c>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7">
+        <v>175790</v>
+      </c>
+      <c r="L138" s="7">
+        <v>224549</v>
+      </c>
+      <c r="M138" s="7">
         <v>400339</v>
       </c>
-      <c r="N138" s="13"/>
-      <c r="O138" s="14">
-        <v>0.43343766158180941</v>
-      </c>
-      <c r="P138" s="14">
-        <v>0.56656233841819059</v>
+      <c r="N138" s="7"/>
+      <c r="O138" s="8">
+        <v>0.43910286032587381</v>
+      </c>
+      <c r="P138" s="8">
+        <v>0.56089713967412613</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5756,37 +5757,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>23523</v>
+        <v>23872</v>
       </c>
       <c r="E139" s="13">
-        <v>42488</v>
+        <v>42139</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.35634969929254218</v>
+        <v>0.36163669691415068</v>
       </c>
       <c r="I139" s="14">
-        <v>0.64365030070745788</v>
+        <v>0.63836330308584932</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2298904</v>
+        <v>2324233</v>
       </c>
       <c r="L139" s="13">
-        <v>2977032</v>
+        <v>2951703</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.43573386788619117</v>
+        <v>0.44053472218010226</v>
       </c>
       <c r="P139" s="14">
-        <v>0.56426613211380883</v>
+        <v>0.55946527781989774</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACBCE36-2922-48CC-8A55-FD941AEF5CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCAC88-C2B2-45E9-98BB-5643898032AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F8A09AB-775F-423B-BC72-281AD2EB69B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02E07A9F-9225-432E-A100-383EB2D74E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,10 +476,10 @@
     <t>Wales Total</t>
   </si>
   <si>
+    <t>Monthly Reading counts</t>
+  </si>
+  <si>
     <t>Sheet counts</t>
-  </si>
-  <si>
-    <t>Monthly Reading counts</t>
   </si>
 </sst>
 </file>
@@ -515,13 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,18 +560,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -887,14 +887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2571D476-BC8C-4902-BBB4-FF09685147B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55FF01-3C0B-43D3-A586-705F7D1F771E}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,97 +905,98 @@
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1015,10 +1016,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1030,10 +1031,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="1">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="1">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1050,10 +1051,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="1">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="1">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1065,10 +1066,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="1">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="1">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1082,10 +1083,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1094,10 +1095,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1114,10 +1115,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="1">
         <v>0.38938053097345132</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="1">
         <v>0.61061946902654862</v>
       </c>
       <c r="K7">
@@ -1129,10 +1130,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="1">
         <v>0.48131011810544261</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="1">
         <v>0.51868988189455745</v>
       </c>
     </row>
@@ -1149,10 +1150,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="1">
         <v>0.25</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="1">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1164,10 +1165,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="1">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="1">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1219,34 +1220,34 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E10">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="12">
-        <v>0.29297820823244553</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0.70702179176755453</v>
+      <c r="H10" s="1">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.64406779661016944</v>
       </c>
       <c r="K10">
-        <v>11615</v>
+        <v>14025</v>
       </c>
       <c r="L10">
-        <v>20614</v>
+        <v>18204</v>
       </c>
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="12">
-        <v>0.3603897111297279</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0.63961028887027216</v>
+      <c r="O10" s="1">
+        <v>0.43516708554407524</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.56483291445592476</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1254,34 +1255,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E11">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="12">
-        <v>0.24168797953964194</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.75831202046035806</v>
+      <c r="H11" s="1">
+        <v>0.25191815856777494</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.74808184143222511</v>
       </c>
       <c r="K11">
-        <v>18129</v>
+        <v>18784</v>
       </c>
       <c r="L11">
-        <v>42503</v>
+        <v>41848</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="12">
-        <v>0.29900052777411268</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0.70099947222588732</v>
+      <c r="O11" s="1">
+        <v>0.30980340414302676</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.69019659585697324</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1297,10 +1298,10 @@
       <c r="F12">
         <v>572</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="1">
         <v>0.31293706293706292</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="1">
         <v>0.68706293706293708</v>
       </c>
       <c r="K12">
@@ -1312,10 +1313,10 @@
       <c r="M12">
         <v>43765</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="1">
         <v>0.39330515251913628</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="1">
         <v>0.60669484748086366</v>
       </c>
     </row>
@@ -1324,34 +1325,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E13">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F13">
-        <v>566</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0.35159010600706714</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.64840989399293292</v>
+        <v>567</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.35626102292768957</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.64373897707231043</v>
       </c>
       <c r="K13">
-        <v>20168</v>
+        <v>20420</v>
       </c>
       <c r="L13">
-        <v>27455</v>
+        <v>27263</v>
       </c>
       <c r="M13">
-        <v>47623</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0.42349285009344223</v>
-      </c>
-      <c r="P13" s="12">
-        <v>0.57650714990655771</v>
+        <v>47683</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.42824486714342636</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.57175513285657364</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1359,34 +1360,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E14">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="F14">
         <v>1109</v>
       </c>
-      <c r="H14" s="12">
-        <v>0.41118124436429215</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0.58881875563570785</v>
+      <c r="H14" s="1">
+        <v>0.42470694319206492</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.57529305680793508</v>
       </c>
       <c r="K14">
-        <v>44735</v>
+        <v>45932</v>
       </c>
       <c r="L14">
-        <v>47736</v>
+        <v>46539</v>
       </c>
       <c r="M14">
         <v>92471</v>
       </c>
-      <c r="O14" s="12">
-        <v>0.48377329108585393</v>
-      </c>
-      <c r="P14" s="12">
-        <v>0.51622670891414602</v>
+      <c r="O14" s="1">
+        <v>0.4967178899330601</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.5032821100669399</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1394,34 +1395,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E15">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="12">
-        <v>0.42754367934224047</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0.57245632065775953</v>
+      <c r="H15" s="1">
+        <v>0.43782117163412126</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.56217882836587874</v>
       </c>
       <c r="K15">
-        <v>39215</v>
+        <v>39971</v>
       </c>
       <c r="L15">
-        <v>35161</v>
+        <v>34405</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="12">
-        <v>0.52725341508013335</v>
-      </c>
-      <c r="P15" s="12">
-        <v>0.4727465849198666</v>
+      <c r="O15" s="1">
+        <v>0.53741798429600951</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.46258201570399055</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1429,34 +1430,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E16">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.5</v>
+      <c r="H16" s="1">
+        <v>0.52490774907749083</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.47509225092250923</v>
       </c>
       <c r="K16">
-        <v>47290</v>
+        <v>49331</v>
       </c>
       <c r="L16">
-        <v>35190</v>
+        <v>33149</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="12">
-        <v>0.57335111542192052</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0.42664888457807953</v>
+      <c r="O16" s="1">
+        <v>0.59809650824442284</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.4019034917555771</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1464,34 +1465,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E17">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="12">
-        <v>0.28816326530612246</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0.71183673469387754</v>
+      <c r="H17" s="1">
+        <v>0.29551020408163264</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.70448979591836736</v>
       </c>
       <c r="K17">
-        <v>35302</v>
+        <v>35603</v>
       </c>
       <c r="L17">
-        <v>67461</v>
+        <v>67160</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="12">
-        <v>0.34352831271955858</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0.65647168728044136</v>
+      <c r="O17" s="1">
+        <v>0.34645738252094627</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.65354261747905373</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1499,34 +1500,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="E18">
-        <v>1604</v>
+        <v>1586</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="12">
-        <v>0.37122696981575853</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0.62877303018424147</v>
+      <c r="H18" s="1">
+        <v>0.37828302626421012</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.62171697373578994</v>
       </c>
       <c r="K18">
-        <v>90568</v>
+        <v>91540</v>
       </c>
       <c r="L18">
-        <v>103653</v>
+        <v>102681</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="12">
-        <v>0.46631414728582388</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0.53368585271417612</v>
+      <c r="O18" s="1">
+        <v>0.47131875543839236</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.5286812445616077</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1534,34 +1535,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E19">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="12">
-        <v>0.34031413612565448</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0.65968586387434558</v>
+      <c r="H19" s="1">
+        <v>0.34345549738219894</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.65654450261780106</v>
       </c>
       <c r="K19">
-        <v>30771</v>
+        <v>30975</v>
       </c>
       <c r="L19">
-        <v>40208</v>
+        <v>40004</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="12">
-        <v>0.43352259118894321</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.56647740881105679</v>
+      <c r="O19" s="1">
+        <v>0.43639668070837856</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.56360331929162144</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1577,10 +1578,10 @@
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="1">
         <v>0.42465753424657532</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="1">
         <v>0.57534246575342463</v>
       </c>
       <c r="K20">
@@ -1592,10 +1593,10 @@
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="1">
         <v>0.50295988123820168</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="1">
         <v>0.49704011876179827</v>
       </c>
     </row>
@@ -1604,34 +1605,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E21">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F21">
         <v>1295</v>
       </c>
-      <c r="H21" s="12">
-        <v>0.30501930501930502</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0.69498069498069504</v>
+      <c r="H21" s="1">
+        <v>0.30656370656370657</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.69343629343629343</v>
       </c>
       <c r="K21">
-        <v>38582</v>
+        <v>38690</v>
       </c>
       <c r="L21">
-        <v>63464</v>
+        <v>63356</v>
       </c>
       <c r="M21">
         <v>102046</v>
       </c>
-      <c r="O21" s="12">
-        <v>0.37808439331281973</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0.62191560668718027</v>
+      <c r="O21" s="1">
+        <v>0.37914273954883093</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.62085726045116907</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1639,34 +1640,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E22">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="12">
-        <v>0.35199321458863442</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0.64800678541136558</v>
+      <c r="H22" s="1">
+        <v>0.35877862595419846</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.64122137404580148</v>
       </c>
       <c r="K22">
-        <v>40712</v>
+        <v>41230</v>
       </c>
       <c r="L22">
-        <v>54900</v>
+        <v>54382</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="12">
-        <v>0.4258042923482408</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0.5741957076517592</v>
+      <c r="O22" s="1">
+        <v>0.431222022340292</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.56877797765970795</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1674,34 +1675,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E23">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="12">
-        <v>0.28529924462521788</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0.71470075537478206</v>
+      <c r="H23" s="1">
+        <v>0.29169087739686228</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.70830912260313772</v>
       </c>
       <c r="K23">
-        <v>46898</v>
+        <v>47660</v>
       </c>
       <c r="L23">
-        <v>84173</v>
+        <v>83411</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="12">
-        <v>0.35780607457027108</v>
-      </c>
-      <c r="P23" s="12">
-        <v>0.64219392542972897</v>
+      <c r="O23" s="1">
+        <v>0.36361971755765959</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.63638028244234046</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1717,10 +1718,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="1">
         <v>0.35762711864406782</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="1">
         <v>0.64237288135593218</v>
       </c>
       <c r="K24">
@@ -1732,10 +1733,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="1">
         <v>0.45370433055762416</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="1">
         <v>0.54629566944237584</v>
       </c>
     </row>
@@ -1744,34 +1745,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E25">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
-      <c r="H25" s="12">
-        <v>0.28984063745019922</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0.71015936254980083</v>
+      <c r="H25" s="1">
+        <v>0.2958167330677291</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.70418326693227096</v>
       </c>
       <c r="K25">
-        <v>29491</v>
+        <v>30065</v>
       </c>
       <c r="L25">
-        <v>50305</v>
+        <v>49731</v>
       </c>
       <c r="M25">
         <v>79796</v>
       </c>
-      <c r="O25" s="12">
-        <v>0.36957992881848717</v>
-      </c>
-      <c r="P25" s="12">
-        <v>0.63042007118151289</v>
+      <c r="O25" s="1">
+        <v>0.37677327184320014</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.6232267281567998</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1787,10 +1788,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="1">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="1">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1802,10 +1803,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="1">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="1">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1822,10 +1823,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="1">
         <v>0.34262948207171312</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="1">
         <v>0.65737051792828682</v>
       </c>
       <c r="K27">
@@ -1837,10 +1838,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="1">
         <v>0.39521565049921442</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="1">
         <v>0.60478434950078552</v>
       </c>
     </row>
@@ -1849,34 +1850,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="E28">
-        <v>1613</v>
+        <v>1578</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
-      <c r="H28" s="12">
-        <v>0.27440395861448491</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0.72559604138551503</v>
+      <c r="H28" s="1">
+        <v>0.2901484480431849</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.70985155195681515</v>
       </c>
       <c r="K28">
-        <v>59685</v>
+        <v>62239</v>
       </c>
       <c r="L28">
-        <v>111649</v>
+        <v>109095</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="12">
-        <v>0.34835467566274059</v>
-      </c>
-      <c r="P28" s="12">
-        <v>0.65164532433725941</v>
+      <c r="O28" s="1">
+        <v>0.36326123244656633</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.63673876755343362</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1884,34 +1885,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1450</v>
+        <v>1518</v>
       </c>
       <c r="E29">
-        <v>1657</v>
+        <v>1589</v>
       </c>
       <c r="F29">
         <v>3107</v>
       </c>
-      <c r="H29" s="12">
-        <v>0.46668812359188927</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0.53331187640811073</v>
+      <c r="H29" s="1">
+        <v>0.48857418731895719</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.51142581268104281</v>
       </c>
       <c r="K29">
-        <v>141656</v>
+        <v>148457</v>
       </c>
       <c r="L29">
-        <v>126649</v>
+        <v>119848</v>
       </c>
       <c r="M29">
         <v>268305</v>
       </c>
-      <c r="O29" s="12">
-        <v>0.52796630700136038</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0.47203369299863962</v>
+      <c r="O29" s="1">
+        <v>0.55331432511507428</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.44668567488492572</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1919,34 +1920,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E30">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="12">
-        <v>0.37751004016064255</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0.6224899598393574</v>
+      <c r="H30" s="1">
+        <v>0.38755020080321284</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.6124497991967871</v>
       </c>
       <c r="K30">
-        <v>19377</v>
+        <v>19976</v>
       </c>
       <c r="L30">
-        <v>21363</v>
+        <v>20764</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="12">
-        <v>0.47562592047128127</v>
-      </c>
-      <c r="P30" s="12">
-        <v>0.52437407952871873</v>
+      <c r="O30" s="1">
+        <v>0.49032891507118309</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.50967108492881685</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1954,34 +1955,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E31">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="12">
-        <v>0.3532818532818533</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0.64671814671814676</v>
+      <c r="H31" s="1">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.6428571428571429</v>
       </c>
       <c r="K31">
-        <v>36730</v>
+        <v>37123</v>
       </c>
       <c r="L31">
-        <v>48298</v>
+        <v>47905</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="12">
-        <v>0.43197534929670228</v>
-      </c>
-      <c r="P31" s="12">
-        <v>0.56802465070329777</v>
+      <c r="O31" s="1">
+        <v>0.43659735616502798</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.56340264383497196</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1989,34 +1990,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="E32">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="12">
-        <v>0.42694497153700189</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0.57305502846299805</v>
+      <c r="H32" s="1">
+        <v>0.50094876660341559</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.49905123339658441</v>
       </c>
       <c r="K32">
-        <v>23085</v>
+        <v>26824</v>
       </c>
       <c r="L32">
-        <v>21742</v>
+        <v>18003</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="12">
-        <v>0.51497981127445513</v>
-      </c>
-      <c r="P32" s="12">
-        <v>0.48502018872554487</v>
+      <c r="O32" s="1">
+        <v>0.5983893635532157</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.4016106364467843</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2024,34 +2025,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="E33">
-        <v>785</v>
+        <v>698</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
-      <c r="H33" s="12">
-        <v>0.26429240862230552</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0.73570759137769448</v>
+      <c r="H33" s="1">
+        <v>0.3458294283036551</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.65417057169634485</v>
       </c>
       <c r="K33">
-        <v>25525</v>
+        <v>33980</v>
       </c>
       <c r="L33">
-        <v>50321</v>
+        <v>41866</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
-      <c r="O33" s="12">
-        <v>0.33653719378741132</v>
-      </c>
-      <c r="P33" s="12">
-        <v>0.66346280621258868</v>
+      <c r="O33" s="1">
+        <v>0.44801307913403476</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.55198692086596524</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2059,34 +2060,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="E34">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="12">
-        <v>0.35144609991235759</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0.64855390008764247</v>
+      <c r="H34" s="1">
+        <v>0.3619631901840491</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.6380368098159509</v>
       </c>
       <c r="K34">
-        <v>37736</v>
+        <v>38781</v>
       </c>
       <c r="L34">
-        <v>49702</v>
+        <v>48657</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="12">
-        <v>0.43157437269836912</v>
-      </c>
-      <c r="P34" s="12">
-        <v>0.56842562730163082</v>
+      <c r="O34" s="1">
+        <v>0.44352569820901666</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.55647430179098334</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2097,31 +2098,31 @@
         <v>202</v>
       </c>
       <c r="E35">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F35">
-        <v>785</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0.25732484076433121</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0.74267515923566874</v>
+        <v>784</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.25765306122448978</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.74234693877551017</v>
       </c>
       <c r="K35">
         <v>19393</v>
       </c>
       <c r="L35">
-        <v>43258</v>
+        <v>43198</v>
       </c>
       <c r="M35">
-        <v>62651</v>
-      </c>
-      <c r="O35" s="12">
-        <v>0.30954015099519561</v>
-      </c>
-      <c r="P35" s="12">
-        <v>0.69045984900480439</v>
+        <v>62591</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.30983687750635075</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.69016312249364919</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2129,34 +2130,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="E36">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="12">
-        <v>0.39056831922611851</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0.60943168077388155</v>
+      <c r="H36" s="1">
+        <v>0.44377267230955258</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.55622732769044736</v>
       </c>
       <c r="K36">
-        <v>32677</v>
+        <v>36779</v>
       </c>
       <c r="L36">
-        <v>32457</v>
+        <v>28355</v>
       </c>
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="12">
-        <v>0.50168882611232224</v>
-      </c>
-      <c r="P36" s="12">
-        <v>0.49831117388767771</v>
+      <c r="O36" s="1">
+        <v>0.56466668713728618</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.43533331286271382</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2164,34 +2165,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="E37">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="12">
-        <v>0.43002915451895046</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0.56997084548104959</v>
+      <c r="H37" s="1">
+        <v>0.45918367346938777</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.54081632653061229</v>
       </c>
       <c r="K37">
-        <v>28473</v>
+        <v>29936</v>
       </c>
       <c r="L37">
-        <v>29448</v>
+        <v>27985</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="12">
-        <v>0.49158336354690008</v>
-      </c>
-      <c r="P37" s="12">
-        <v>0.50841663645309987</v>
+      <c r="O37" s="1">
+        <v>0.516841905353844</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.48315809464615594</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2207,10 +2208,10 @@
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="1">
         <v>0.28947368421052633</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="1">
         <v>0.71052631578947367</v>
       </c>
       <c r="K38">
@@ -2222,10 +2223,10 @@
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="1">
         <v>0.38092395629838649</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="1">
         <v>0.61907604370161351</v>
       </c>
     </row>
@@ -2234,34 +2235,34 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="12">
-        <v>0.37894736842105264</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0.62105263157894741</v>
+      <c r="H39" s="1">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.57894736842105265</v>
       </c>
       <c r="K39">
-        <v>3096</v>
+        <v>3492</v>
       </c>
       <c r="L39">
-        <v>3610</v>
+        <v>3214</v>
       </c>
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="12">
-        <v>0.46167611094542199</v>
-      </c>
-      <c r="P39" s="12">
-        <v>0.53832388905457795</v>
+      <c r="O39" s="1">
+        <v>0.52072770653146438</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.47927229346853562</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2269,34 +2270,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E40">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="12">
-        <v>0.36716417910447763</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0.63283582089552237</v>
+      <c r="H40" s="1">
+        <v>0.38059701492537312</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.61940298507462688</v>
       </c>
       <c r="K40">
-        <v>22750</v>
+        <v>23426</v>
       </c>
       <c r="L40">
-        <v>26315</v>
+        <v>25639</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="12">
-        <v>0.46367064098644656</v>
-      </c>
-      <c r="P40" s="12">
-        <v>0.5363293590135535</v>
+      <c r="O40" s="1">
+        <v>0.47744828289004382</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.52255171710995618</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2304,34 +2305,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="E41">
-        <v>1491</v>
+        <v>1475</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="12">
-        <v>0.23811957077158916</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0.76188042922841082</v>
+      <c r="H41" s="1">
+        <v>0.24629535002554931</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.75370464997445064</v>
       </c>
       <c r="K41">
-        <v>45791</v>
+        <v>47053</v>
       </c>
       <c r="L41">
-        <v>100828</v>
+        <v>99566</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="12">
-        <v>0.31231286531759184</v>
-      </c>
-      <c r="P41" s="12">
-        <v>0.68768713468240816</v>
+      <c r="O41" s="1">
+        <v>0.32092020815856065</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.67907979184143941</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2347,10 +2348,10 @@
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="1">
         <v>0.33866666666666667</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="1">
         <v>0.66133333333333333</v>
       </c>
       <c r="K42">
@@ -2362,10 +2363,10 @@
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="1">
         <v>0.40098668930499271</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="1">
         <v>0.59901331069500729</v>
       </c>
     </row>
@@ -2374,34 +2375,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="E43">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="12">
-        <v>0.28793309438470727</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0.71206690561529273</v>
+      <c r="H43" s="1">
+        <v>0.30824372759856633</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.69175627240143367</v>
       </c>
       <c r="K43">
-        <v>23034</v>
+        <v>24490</v>
       </c>
       <c r="L43">
-        <v>40960</v>
+        <v>39504</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="12">
-        <v>0.3599399943744726</v>
-      </c>
-      <c r="P43" s="12">
-        <v>0.64006000562552734</v>
+      <c r="O43" s="1">
+        <v>0.38269212738694253</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.61730787261305753</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2409,34 +2410,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="E44">
-        <v>2070</v>
+        <v>2055</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
-      <c r="H44" s="12">
-        <v>0.17759237187127533</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0.8224076281287247</v>
+      <c r="H44" s="1">
+        <v>0.1835518474374255</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.81644815256257453</v>
       </c>
       <c r="K44">
-        <v>43658</v>
+        <v>44758</v>
       </c>
       <c r="L44">
-        <v>141972</v>
+        <v>140872</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="12">
-        <v>0.2351882777568281</v>
-      </c>
-      <c r="P44" s="12">
-        <v>0.76481172224317195</v>
+      <c r="O44" s="1">
+        <v>0.24111404406615311</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.75888595593384689</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2444,34 +2445,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="E45">
-        <v>1573</v>
+        <v>1532</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="12">
-        <v>0.25059552167698906</v>
-      </c>
-      <c r="I45" s="12">
-        <v>0.74940447832301094</v>
+      <c r="H45" s="1">
+        <v>0.27012863268222964</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.72987136731777036</v>
       </c>
       <c r="K45">
-        <v>50705</v>
+        <v>54527</v>
       </c>
       <c r="L45">
-        <v>110669</v>
+        <v>106847</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="12">
-        <v>0.31420798889536111</v>
-      </c>
-      <c r="P45" s="12">
-        <v>0.68579201110463894</v>
+      <c r="O45" s="1">
+        <v>0.3378921015777015</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.66210789842229856</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2479,34 +2480,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E46">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="12">
-        <v>0.35276967930029157</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0.64723032069970843</v>
+      <c r="H46" s="1">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.6428571428571429</v>
       </c>
       <c r="K46">
-        <v>23585</v>
+        <v>23825</v>
       </c>
       <c r="L46">
-        <v>30397</v>
+        <v>30157</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="12">
-        <v>0.43690489422400058</v>
-      </c>
-      <c r="P46" s="12">
-        <v>0.56309510577599942</v>
+      <c r="O46" s="1">
+        <v>0.44135082064391834</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.5586491793560816</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2514,34 +2515,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E47">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="12">
-        <v>0.2867557715674362</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0.71324422843256374</v>
+      <c r="H47" s="1">
+        <v>0.2976913730255164</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.7023086269744836</v>
       </c>
       <c r="K47">
-        <v>20917</v>
+        <v>21243</v>
       </c>
       <c r="L47">
-        <v>41753</v>
+        <v>41427</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="12">
-        <v>0.33376416148077231</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0.66623583851922774</v>
+      <c r="O47" s="1">
+        <v>0.33896601244614649</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.66103398755385356</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2549,34 +2550,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E48">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="12">
-        <v>0.23404255319148937</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0.76595744680851063</v>
+      <c r="H48" s="1">
+        <v>0.25177304964539005</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.74822695035460995</v>
       </c>
       <c r="K48">
-        <v>18707</v>
+        <v>19995</v>
       </c>
       <c r="L48">
-        <v>48657</v>
+        <v>47369</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="12">
-        <v>0.27770025532925596</v>
-      </c>
-      <c r="P48" s="12">
-        <v>0.72229974467074398</v>
+      <c r="O48" s="1">
+        <v>0.29682026007956774</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.70317973992043226</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2592,10 +2593,10 @@
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="1">
         <v>0.40768094534711963</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="1">
         <v>0.59231905465288037</v>
       </c>
       <c r="K49">
@@ -2607,10 +2608,10 @@
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="1">
         <v>0.49114260407440213</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="1">
         <v>0.50885739592559787</v>
       </c>
     </row>
@@ -2619,34 +2620,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E50">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="12">
-        <v>0.52570093457943923</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0.47429906542056077</v>
+      <c r="H50" s="1">
+        <v>0.53504672897196259</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.46495327102803741</v>
       </c>
       <c r="K50">
-        <v>21151</v>
+        <v>21312</v>
       </c>
       <c r="L50">
-        <v>12090</v>
+        <v>11929</v>
       </c>
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="12">
-        <v>0.63629253030895583</v>
-      </c>
-      <c r="P50" s="12">
-        <v>0.36370746969104417</v>
+      <c r="O50" s="1">
+        <v>0.64113594657200446</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.35886405342799554</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2654,34 +2655,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E51">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="12">
-        <v>0.3220640569395018</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0.6779359430604982</v>
+      <c r="H51" s="1">
+        <v>0.34074733096085408</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.65925266903914592</v>
       </c>
       <c r="K51">
-        <v>34561</v>
+        <v>36483</v>
       </c>
       <c r="L51">
-        <v>55709</v>
+        <v>53787</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="12">
-        <v>0.38286252354048966</v>
-      </c>
-      <c r="P51" s="12">
-        <v>0.61713747645951034</v>
+      <c r="O51" s="1">
+        <v>0.40415420405450314</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.5958457959454968</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2689,34 +2690,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1921</v>
+        <v>1969</v>
       </c>
       <c r="E52">
-        <v>1902</v>
+        <v>1854</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
-      <c r="H52" s="12">
-        <v>0.50248495945592464</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0.49751504054407536</v>
+      <c r="H52" s="1">
+        <v>0.51504054407533351</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.48495945592466649</v>
       </c>
       <c r="K52">
-        <v>196547</v>
+        <v>200404</v>
       </c>
       <c r="L52">
-        <v>147903</v>
+        <v>144046</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
-      <c r="O52" s="12">
-        <v>0.57061111917549712</v>
-      </c>
-      <c r="P52" s="12">
-        <v>0.42938888082450283</v>
+      <c r="O52" s="1">
+        <v>0.58180868050515311</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.41819131949484684</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,10 +2733,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="1">
         <v>0.8</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="1">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2747,10 +2748,10 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="1">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="1">
         <v>0.1043158505902845</v>
       </c>
     </row>
@@ -2761,37 +2762,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>16237</v>
+        <v>16899</v>
       </c>
       <c r="E54" s="13">
-        <v>30876</v>
+        <v>30214</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.34463948379428183</v>
+        <v>0.35869080720820157</v>
       </c>
       <c r="I54" s="14">
-        <v>0.65536051620571811</v>
+        <v>0.64130919279179843</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1577465</v>
+        <v>1633872</v>
       </c>
       <c r="L54" s="13">
-        <v>2163249</v>
+        <v>2106842</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.42170157889643528</v>
+        <v>0.43678078570027007</v>
       </c>
       <c r="P54" s="14">
-        <v>0.57829842110356477</v>
+        <v>0.56321921429972999</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2802,34 +2803,34 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E55">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="12">
-        <v>0.54385964912280704</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0.45614035087719296</v>
+      <c r="H55" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.4</v>
       </c>
       <c r="K55">
-        <v>15095</v>
+        <v>16131</v>
       </c>
       <c r="L55">
-        <v>7831</v>
+        <v>6795</v>
       </c>
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="12">
-        <v>0.65842275146122309</v>
-      </c>
-      <c r="P55" s="12">
-        <v>0.34157724853877691</v>
+      <c r="O55" s="1">
+        <v>0.70361161999476574</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.29638838000523421</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2837,34 +2838,34 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E56">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F56">
         <v>82</v>
       </c>
-      <c r="H56" s="12">
-        <v>0.42682926829268292</v>
-      </c>
-      <c r="I56" s="12">
-        <v>0.57317073170731703</v>
+      <c r="H56" s="1">
+        <v>0.52439024390243905</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.47560975609756095</v>
       </c>
       <c r="K56">
-        <v>3274</v>
+        <v>4101</v>
       </c>
       <c r="L56">
-        <v>3756</v>
+        <v>2929</v>
       </c>
       <c r="M56">
         <v>7030</v>
       </c>
-      <c r="O56" s="12">
-        <v>0.46571834992887623</v>
-      </c>
-      <c r="P56" s="12">
-        <v>0.53428165007112371</v>
+      <c r="O56" s="1">
+        <v>0.58335704125177812</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.41664295874822188</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2872,34 +2873,34 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E57">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="12">
-        <v>0.21900826446280991</v>
-      </c>
-      <c r="I57" s="12">
-        <v>0.78099173553719003</v>
+      <c r="H57" s="1">
+        <v>0.25206611570247933</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.74793388429752061</v>
       </c>
       <c r="K57">
-        <v>5536</v>
+        <v>6287</v>
       </c>
       <c r="L57">
-        <v>13450</v>
+        <v>12699</v>
       </c>
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="12">
-        <v>0.29158327188454652</v>
-      </c>
-      <c r="P57" s="12">
-        <v>0.70841672811545353</v>
+      <c r="O57" s="1">
+        <v>0.33113873380385545</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.6688612661961445</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2915,10 +2916,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="1">
         <v>0.5</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="1">
         <v>0.5</v>
       </c>
       <c r="K58">
@@ -2930,10 +2931,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="1">
         <v>0.55861177773675463</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="1">
         <v>0.44138822226324531</v>
       </c>
     </row>
@@ -2942,34 +2943,34 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="12">
-        <v>0.40490797546012269</v>
-      </c>
-      <c r="I59" s="12">
-        <v>0.59509202453987731</v>
+      <c r="H59" s="1">
+        <v>0.3987730061349693</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.60122699386503065</v>
       </c>
       <c r="K59">
-        <v>6203</v>
+        <v>6191</v>
       </c>
       <c r="L59">
-        <v>7507</v>
+        <v>7519</v>
       </c>
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="12">
-        <v>0.4524434719183078</v>
-      </c>
-      <c r="P59" s="12">
-        <v>0.5475565280816922</v>
+      <c r="O59" s="1">
+        <v>0.45156819839533185</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.54843180160466809</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2985,10 +2986,10 @@
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="1">
         <v>0.44230769230769229</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="1">
         <v>0.55769230769230771</v>
       </c>
       <c r="K60">
@@ -3000,10 +3001,10 @@
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O60" s="1">
         <v>0.58436268068331143</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="1">
         <v>0.41563731931668857</v>
       </c>
     </row>
@@ -3014,37 +3015,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="E61" s="13">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="F61" s="13">
         <v>944</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.41207627118644069</v>
+        <v>0.44491525423728812</v>
       </c>
       <c r="I61" s="14">
-        <v>0.58792372881355937</v>
+        <v>0.55508474576271183</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>37581</v>
+        <v>40183</v>
       </c>
       <c r="L61" s="13">
-        <v>38098</v>
+        <v>35496</v>
       </c>
       <c r="M61" s="13">
         <v>75679</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.49658425719155908</v>
+        <v>0.53096631826530483</v>
       </c>
       <c r="P61" s="14">
-        <v>0.50341574280844092</v>
+        <v>0.46903368173469523</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3063,10 +3064,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="1">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="1">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3078,10 +3079,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O62" s="1">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="1">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3098,10 +3099,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="1">
         <v>0.15254237288135594</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="1">
         <v>0.84745762711864403</v>
       </c>
       <c r="K63">
@@ -3113,10 +3114,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O63" s="1">
         <v>0.22075426375210186</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63" s="1">
         <v>0.77924573624789817</v>
       </c>
     </row>
@@ -3133,10 +3134,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="1">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="1">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3148,10 +3149,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O64" s="1">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P64" s="1">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3160,34 +3161,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E65">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0.8</v>
+      <c r="H65" s="1">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.78181818181818186</v>
       </c>
       <c r="K65">
-        <v>4165</v>
+        <v>4477</v>
       </c>
       <c r="L65">
-        <v>11273</v>
+        <v>10961</v>
       </c>
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="12">
-        <v>0.26978883275035626</v>
-      </c>
-      <c r="P65" s="12">
-        <v>0.73021116724964374</v>
+      <c r="O65" s="1">
+        <v>0.28999870449540094</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.71000129550459901</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3203,10 +3204,10 @@
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="1">
         <v>0.31304347826086959</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="1">
         <v>0.68695652173913047</v>
       </c>
       <c r="K66">
@@ -3218,10 +3219,10 @@
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="12">
+      <c r="O66" s="1">
         <v>0.37602986611740474</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66" s="1">
         <v>0.62397013388259526</v>
       </c>
     </row>
@@ -3238,10 +3239,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="1">
         <v>0.30627306273062732</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="1">
         <v>0.69372693726937273</v>
       </c>
       <c r="K67">
@@ -3253,10 +3254,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="1">
         <v>0.38605476673427991</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="1">
         <v>0.61394523326572004</v>
       </c>
     </row>
@@ -3265,34 +3266,34 @@
         <v>74</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="12">
-        <v>0.43</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0.56999999999999995</v>
+      <c r="H68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.5</v>
       </c>
       <c r="K68">
-        <v>3979</v>
+        <v>4594</v>
       </c>
       <c r="L68">
-        <v>3653</v>
+        <v>3038</v>
       </c>
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="12">
-        <v>0.5213574423480084</v>
-      </c>
-      <c r="P68" s="12">
-        <v>0.4786425576519916</v>
+      <c r="O68" s="1">
+        <v>0.60193920335429774</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.39806079664570232</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -3308,10 +3309,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="1">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="1">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3323,10 +3324,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O69" s="1">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="12">
+      <c r="P69" s="1">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3343,10 +3344,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="1">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="1">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3358,10 +3359,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="1">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="1">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3370,34 +3371,34 @@
         <v>77</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="12">
-        <v>0.35897435897435898</v>
-      </c>
-      <c r="I71" s="12">
-        <v>0.64102564102564108</v>
+      <c r="H71" s="1">
+        <v>0.37179487179487181</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.62820512820512819</v>
       </c>
       <c r="K71">
-        <v>2526</v>
+        <v>2646</v>
       </c>
       <c r="L71">
-        <v>3362</v>
+        <v>3242</v>
       </c>
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="12">
-        <v>0.42900815217391303</v>
-      </c>
-      <c r="P71" s="12">
-        <v>0.57099184782608692</v>
+      <c r="O71" s="1">
+        <v>0.44938858695652173</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0.55061141304347827</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -3413,10 +3414,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="1">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="1">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3428,10 +3429,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="12">
+      <c r="O72" s="1">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="1">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3445,10 +3446,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="1">
         <v>0</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="L73">
@@ -3457,10 +3458,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="12">
+      <c r="O73" s="1">
         <v>0</v>
       </c>
-      <c r="P73" s="12">
+      <c r="P73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3468,58 +3469,70 @@
       <c r="B74" t="s">
         <v>80</v>
       </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
       <c r="E74">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="12">
-        <v>0</v>
-      </c>
-      <c r="I74" s="12">
-        <v>1</v>
+      <c r="H74" s="1">
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.94936708860759489</v>
+      </c>
+      <c r="K74">
+        <v>406</v>
       </c>
       <c r="L74">
-        <v>5888</v>
+        <v>5482</v>
       </c>
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="12">
-        <v>0</v>
-      </c>
-      <c r="P74" s="12">
-        <v>1</v>
+      <c r="O74" s="1">
+        <v>6.8953804347826081E-2</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0.93104619565217395</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>81</v>
       </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
       <c r="E75">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12">
-        <v>1</v>
+      <c r="H75" s="1">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="K75">
+        <v>429</v>
       </c>
       <c r="L75">
-        <v>2443</v>
+        <v>2014</v>
       </c>
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="12">
-        <v>0</v>
-      </c>
-      <c r="P75" s="12">
-        <v>1</v>
+      <c r="O75" s="1">
+        <v>0.17560376586164553</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0.8243962341383545</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -3535,10 +3548,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="1">
         <v>0.40384615384615385</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="1">
         <v>0.59615384615384615</v>
       </c>
       <c r="K76">
@@ -3550,10 +3563,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="12">
+      <c r="O76" s="1">
         <v>0.52276100940128645</v>
       </c>
-      <c r="P76" s="12">
+      <c r="P76" s="1">
         <v>0.4772389905987135</v>
       </c>
     </row>
@@ -3562,34 +3575,34 @@
         <v>83</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="12">
-        <v>0.27956989247311825</v>
-      </c>
-      <c r="I77" s="12">
-        <v>0.72043010752688175</v>
+      <c r="H77" s="1">
+        <v>0.30107526881720431</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.69892473118279574</v>
       </c>
       <c r="K77">
-        <v>2027</v>
+        <v>2099</v>
       </c>
       <c r="L77">
-        <v>4657</v>
+        <v>4585</v>
       </c>
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="12">
-        <v>0.30326152004787554</v>
-      </c>
-      <c r="P77" s="12">
-        <v>0.69673847995212446</v>
+      <c r="O77" s="1">
+        <v>0.31403351286654696</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0.68596648713345298</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -3597,34 +3610,34 @@
         <v>84</v>
       </c>
       <c r="D78">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="12">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="I78" s="12">
-        <v>0.7846153846153846</v>
+      <c r="H78" s="1">
+        <v>0.26153846153846155</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.7384615384615385</v>
       </c>
       <c r="K78">
-        <v>1536</v>
+        <v>1726</v>
       </c>
       <c r="L78">
-        <v>3698</v>
+        <v>3508</v>
       </c>
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="12">
-        <v>0.29346580053496368</v>
-      </c>
-      <c r="P78" s="12">
-        <v>0.70653419946503626</v>
+      <c r="O78" s="1">
+        <v>0.32976690867405428</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0.67023309132594577</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -3640,10 +3653,10 @@
       <c r="F79">
         <v>14</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="1">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="1">
         <v>0.7142857142857143</v>
       </c>
       <c r="K79">
@@ -3655,10 +3668,10 @@
       <c r="M79">
         <v>1080</v>
       </c>
-      <c r="O79" s="12">
+      <c r="O79" s="1">
         <v>0.34074074074074073</v>
       </c>
-      <c r="P79" s="12">
+      <c r="P79" s="1">
         <v>0.65925925925925921</v>
       </c>
     </row>
@@ -3675,10 +3688,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="1">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="1">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3690,10 +3703,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="12">
+      <c r="O80" s="1">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="12">
+      <c r="P80" s="1">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3707,10 +3720,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="1">
         <v>0</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="1">
         <v>1</v>
       </c>
       <c r="L81">
@@ -3719,10 +3732,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="12">
+      <c r="O81" s="1">
         <v>0</v>
       </c>
-      <c r="P81" s="12">
+      <c r="P81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3739,10 +3752,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="1">
         <v>0.4358974358974359</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="1">
         <v>0.5641025641025641</v>
       </c>
       <c r="K82">
@@ -3754,10 +3767,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="12">
+      <c r="O82" s="1">
         <v>0.55135629381286189</v>
       </c>
-      <c r="P82" s="12">
+      <c r="P82" s="1">
         <v>0.44864370618713806</v>
       </c>
     </row>
@@ -3774,10 +3787,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="1">
         <v>0.2</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="1">
         <v>0.8</v>
       </c>
       <c r="K83">
@@ -3789,10 +3802,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="12">
+      <c r="O83" s="1">
         <v>0.26166593981683384</v>
       </c>
-      <c r="P83" s="12">
+      <c r="P83" s="1">
         <v>0.73833406018316616</v>
       </c>
     </row>
@@ -3801,34 +3814,34 @@
         <v>90</v>
       </c>
       <c r="D84">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E84">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="12">
-        <v>0.47169811320754718</v>
-      </c>
-      <c r="I84" s="12">
-        <v>0.52830188679245282</v>
+      <c r="H84" s="1">
+        <v>0.51886792452830188</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.48113207547169812</v>
       </c>
       <c r="K84">
-        <v>4647</v>
+        <v>5067</v>
       </c>
       <c r="L84">
-        <v>3662</v>
+        <v>3242</v>
       </c>
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="12">
-        <v>0.55927307738596699</v>
-      </c>
-      <c r="P84" s="12">
-        <v>0.44072692261403296</v>
+      <c r="O84" s="1">
+        <v>0.60982067637501502</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0.39017932362498498</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3844,10 +3857,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="1">
         <v>0.4</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="1">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3859,10 +3872,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="12">
+      <c r="O85" s="1">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="12">
+      <c r="P85" s="1">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3879,10 +3892,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="1">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="1">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3894,10 +3907,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="12">
+      <c r="O86" s="1">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="12">
+      <c r="P86" s="1">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3906,34 +3919,34 @@
         <v>93</v>
       </c>
       <c r="D87">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E87">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="12">
-        <v>0.26548672566371684</v>
-      </c>
-      <c r="I87" s="12">
-        <v>0.73451327433628322</v>
+      <c r="H87" s="1">
+        <v>0.34513274336283184</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.65486725663716816</v>
       </c>
       <c r="K87">
-        <v>2611</v>
+        <v>3535</v>
       </c>
       <c r="L87">
-        <v>5718</v>
+        <v>4794</v>
       </c>
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="12">
-        <v>0.31348301116580624</v>
-      </c>
-      <c r="P87" s="12">
-        <v>0.68651698883419376</v>
+      <c r="O87" s="1">
+        <v>0.42442069876335692</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0.57557930123664303</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3943,37 +3956,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="E88" s="13">
-        <v>1529</v>
+        <v>1486</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.28817504655493481</v>
+        <v>0.30819366852886404</v>
       </c>
       <c r="I88" s="14">
-        <v>0.71182495344506513</v>
+        <v>0.6918063314711359</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>58229</v>
+        <v>61717</v>
       </c>
       <c r="L88" s="13">
-        <v>101248</v>
+        <v>97760</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.36512475153156881</v>
+        <v>0.38699624397248505</v>
       </c>
       <c r="P88" s="14">
-        <v>0.63487524846843113</v>
+        <v>0.61300375602751489</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3992,10 +4005,10 @@
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="1">
         <v>0.40645161290322579</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="1">
         <v>0.59354838709677415</v>
       </c>
       <c r="K89">
@@ -4007,10 +4020,10 @@
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="12">
+      <c r="O89" s="1">
         <v>0.52356524527092019</v>
       </c>
-      <c r="P89" s="12">
+      <c r="P89" s="1">
         <v>0.47643475472907981</v>
       </c>
     </row>
@@ -4070,10 +4083,10 @@
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="1">
         <v>0.42203742203742206</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="1">
         <v>0.57796257796257799</v>
       </c>
       <c r="K91">
@@ -4085,10 +4098,10 @@
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="12">
+      <c r="O91" s="1">
         <v>0.49405285204530175</v>
       </c>
-      <c r="P91" s="12">
+      <c r="P91" s="1">
         <v>0.5059471479546982</v>
       </c>
     </row>
@@ -4097,34 +4110,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="E92">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="12">
-        <v>0.4956521739130435</v>
-      </c>
-      <c r="I92" s="12">
-        <v>0.5043478260869565</v>
+      <c r="H92" s="1">
+        <v>0.54565217391304344</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.45434782608695651</v>
       </c>
       <c r="K92">
-        <v>22883</v>
+        <v>24509</v>
       </c>
       <c r="L92">
-        <v>17606</v>
+        <v>15980</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="12">
-        <v>0.56516584751413967</v>
-      </c>
-      <c r="P92" s="12">
-        <v>0.43483415248586038</v>
+      <c r="O92" s="1">
+        <v>0.60532490306009035</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.3946750969399096</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4132,34 +4145,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="E93">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
-      <c r="H93" s="12">
-        <v>0.47787610619469029</v>
-      </c>
-      <c r="I93" s="12">
-        <v>0.52212389380530977</v>
+      <c r="H93" s="1">
+        <v>0.49336283185840707</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.50663716814159288</v>
       </c>
       <c r="K93">
-        <v>43039</v>
+        <v>44235</v>
       </c>
       <c r="L93">
-        <v>32487</v>
+        <v>31291</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
-      <c r="O93" s="12">
-        <v>0.56985673807695358</v>
-      </c>
-      <c r="P93" s="12">
-        <v>0.43014326192304636</v>
+      <c r="O93" s="1">
+        <v>0.58569234435823425</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.41430765564176575</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4167,34 +4180,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E94">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="12">
-        <v>0.3273542600896861</v>
-      </c>
-      <c r="I94" s="12">
-        <v>0.67264573991031396</v>
+      <c r="H94" s="1">
+        <v>0.33482810164424515</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.66517189835575485</v>
       </c>
       <c r="K94">
-        <v>21769</v>
+        <v>22102</v>
       </c>
       <c r="L94">
-        <v>35898</v>
+        <v>35565</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="12">
-        <v>0.37749492777498395</v>
-      </c>
-      <c r="P94" s="12">
-        <v>0.62250507222501605</v>
+      <c r="O94" s="1">
+        <v>0.38326946087016839</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0.61673053912983167</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4210,10 +4223,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="1">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="1">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4225,10 +4238,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="12">
+      <c r="O95" s="1">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="12">
+      <c r="P95" s="1">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4245,10 +4258,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="1">
         <v>0.53378378378378377</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="1">
         <v>0.46621621621621623</v>
       </c>
       <c r="K96">
@@ -4260,10 +4273,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="12">
+      <c r="O96" s="1">
         <v>0.63507345007884475</v>
       </c>
-      <c r="P96" s="12">
+      <c r="P96" s="1">
         <v>0.36492654992115531</v>
       </c>
     </row>
@@ -4280,10 +4293,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="1">
         <v>0.41237113402061853</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="1">
         <v>0.58762886597938147</v>
       </c>
       <c r="K97">
@@ -4295,10 +4308,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="12">
+      <c r="O97" s="1">
         <v>0.47803206461877373</v>
       </c>
-      <c r="P97" s="12">
+      <c r="P97" s="1">
         <v>0.52196793538122632</v>
       </c>
     </row>
@@ -4307,34 +4320,34 @@
         <v>105</v>
       </c>
       <c r="D98">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E98">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="12">
-        <v>0.68376068376068377</v>
-      </c>
-      <c r="I98" s="12">
-        <v>0.31623931623931623</v>
+      <c r="H98" s="1">
+        <v>0.72649572649572647</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.27350427350427353</v>
       </c>
       <c r="K98">
-        <v>8334</v>
+        <v>8874</v>
       </c>
       <c r="L98">
-        <v>2194</v>
+        <v>1654</v>
       </c>
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="12">
-        <v>0.79160334346504557</v>
-      </c>
-      <c r="P98" s="12">
-        <v>0.2083966565349544</v>
+      <c r="O98" s="1">
+        <v>0.84289513677811545</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0.15710486322188449</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -4350,10 +4363,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="1">
         <v>0.3</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="1">
         <v>0.7</v>
       </c>
       <c r="K99">
@@ -4365,10 +4378,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="12">
+      <c r="O99" s="1">
         <v>0.35299003322259137</v>
       </c>
-      <c r="P99" s="12">
+      <c r="P99" s="1">
         <v>0.64700996677740863</v>
       </c>
     </row>
@@ -4385,10 +4398,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="1">
         <v>0.52472527472527475</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="1">
         <v>0.47527472527472525</v>
       </c>
       <c r="K100">
@@ -4400,10 +4413,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="12">
+      <c r="O100" s="1">
         <v>0.61579636908104063</v>
       </c>
-      <c r="P100" s="12">
+      <c r="P100" s="1">
         <v>0.38420363091895937</v>
       </c>
     </row>
@@ -4412,34 +4425,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E101">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="12">
-        <v>0.34426229508196721</v>
-      </c>
-      <c r="I101" s="12">
-        <v>0.65573770491803274</v>
+      <c r="H101" s="1">
+        <v>0.35655737704918034</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.64344262295081966</v>
       </c>
       <c r="K101">
-        <v>7878</v>
+        <v>8147</v>
       </c>
       <c r="L101">
-        <v>11479</v>
+        <v>11210</v>
       </c>
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="12">
-        <v>0.40698455339153794</v>
-      </c>
-      <c r="P101" s="12">
-        <v>0.59301544660846206</v>
+      <c r="O101" s="1">
+        <v>0.42088133491760088</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0.57911866508239918</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4455,10 +4468,10 @@
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102" s="1">
         <v>0.4</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="1">
         <v>0.6</v>
       </c>
       <c r="K102">
@@ -4470,10 +4483,10 @@
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="12">
+      <c r="O102" s="1">
         <v>0.47448386158767081</v>
       </c>
-      <c r="P102" s="12">
+      <c r="P102" s="1">
         <v>0.52551613841232914</v>
       </c>
     </row>
@@ -4482,34 +4495,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E103">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="12">
-        <v>0.43307086614173229</v>
-      </c>
-      <c r="I103" s="12">
-        <v>0.56692913385826771</v>
+      <c r="H103" s="1">
+        <v>0.44094488188976377</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.55905511811023623</v>
       </c>
       <c r="K103">
-        <v>17324</v>
+        <v>17548</v>
       </c>
       <c r="L103">
-        <v>16520</v>
+        <v>16296</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="12">
-        <v>0.51187802860182008</v>
-      </c>
-      <c r="P103" s="12">
-        <v>0.48812197139817987</v>
+      <c r="O103" s="1">
+        <v>0.51849663160382931</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0.48150336839617064</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4517,34 +4530,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="E104">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="F104">
         <v>892</v>
       </c>
-      <c r="H104" s="12">
-        <v>0.36547085201793722</v>
-      </c>
-      <c r="I104" s="12">
-        <v>0.63452914798206284</v>
+      <c r="H104" s="1">
+        <v>0.4170403587443946</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.5829596412556054</v>
       </c>
       <c r="K104">
-        <v>30428</v>
+        <v>33600</v>
       </c>
       <c r="L104">
-        <v>38856</v>
+        <v>35684</v>
       </c>
       <c r="M104">
         <v>69284</v>
       </c>
-      <c r="O104" s="12">
-        <v>0.43917787656601814</v>
-      </c>
-      <c r="P104" s="12">
-        <v>0.56082212343398186</v>
+      <c r="O104" s="1">
+        <v>0.48496045262975579</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0.51503954737024427</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4552,34 +4565,34 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E105">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="12">
-        <v>0.59310344827586203</v>
-      </c>
-      <c r="I105" s="12">
-        <v>0.40689655172413791</v>
+      <c r="H105" s="1">
+        <v>0.60689655172413792</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.39310344827586208</v>
       </c>
       <c r="K105">
-        <v>8661</v>
+        <v>8726</v>
       </c>
       <c r="L105">
-        <v>3944</v>
+        <v>3879</v>
       </c>
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="12">
-        <v>0.68710829036096788</v>
-      </c>
-      <c r="P105" s="12">
-        <v>0.31289170963903212</v>
+      <c r="O105" s="1">
+        <v>0.69226497421658073</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0.30773502578341927</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -4587,34 +4600,34 @@
         <v>113</v>
       </c>
       <c r="D106">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E106">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="12">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I106" s="12">
-        <v>0.52083333333333337</v>
+      <c r="H106" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.4375</v>
       </c>
       <c r="K106">
-        <v>2321</v>
+        <v>2681</v>
       </c>
       <c r="L106">
-        <v>2248</v>
+        <v>1888</v>
       </c>
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="12">
-        <v>0.50798861895381919</v>
-      </c>
-      <c r="P106" s="12">
-        <v>0.49201138104618081</v>
+      <c r="O106" s="1">
+        <v>0.58678047712847448</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0.41321952287152552</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
@@ -4630,10 +4643,10 @@
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="1">
         <v>0.34680134680134678</v>
       </c>
-      <c r="I107" s="12">
+      <c r="I107" s="1">
         <v>0.65319865319865322</v>
       </c>
       <c r="K107">
@@ -4645,10 +4658,10 @@
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="12">
+      <c r="O107" s="1">
         <v>0.37352697095435683</v>
       </c>
-      <c r="P107" s="12">
+      <c r="P107" s="1">
         <v>0.62647302904564317</v>
       </c>
     </row>
@@ -4657,34 +4670,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E108">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="12">
-        <v>0.42830540037243947</v>
-      </c>
-      <c r="I108" s="12">
-        <v>0.57169459962756053</v>
+      <c r="H108" s="1">
+        <v>0.43202979515828677</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.56797020484171323</v>
       </c>
       <c r="K108">
-        <v>22953</v>
+        <v>23073</v>
       </c>
       <c r="L108">
-        <v>23471</v>
+        <v>23351</v>
       </c>
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="12">
-        <v>0.49442098914354643</v>
-      </c>
-      <c r="P108" s="12">
-        <v>0.50557901085645351</v>
+      <c r="O108" s="1">
+        <v>0.49700585903842842</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0.50299414096157158</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4692,34 +4705,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E109">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="12">
-        <v>0.57088846880907373</v>
-      </c>
-      <c r="I109" s="12">
-        <v>0.42911153119092627</v>
+      <c r="H109" s="1">
+        <v>0.57655954631379958</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0.42344045368620037</v>
       </c>
       <c r="K109">
-        <v>30746</v>
+        <v>30938</v>
       </c>
       <c r="L109">
-        <v>15755</v>
+        <v>15563</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="12">
-        <v>0.66119008193372186</v>
-      </c>
-      <c r="P109" s="12">
-        <v>0.33880991806627814</v>
+      <c r="O109" s="1">
+        <v>0.66531902539730325</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0.33468097460269669</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4727,34 +4740,34 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E110">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="12">
-        <v>0.25146198830409355</v>
-      </c>
-      <c r="I110" s="12">
-        <v>0.74853801169590639</v>
+      <c r="H110" s="1">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.68421052631578949</v>
       </c>
       <c r="K110">
-        <v>4251</v>
+        <v>5078</v>
       </c>
       <c r="L110">
-        <v>9234</v>
+        <v>8407</v>
       </c>
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="12">
-        <v>0.31523915461624025</v>
-      </c>
-      <c r="P110" s="12">
-        <v>0.6847608453837597</v>
+      <c r="O110" s="1">
+        <v>0.37656655543196144</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0.62343344456803851</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -4770,10 +4783,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="1">
         <v>0.49275362318840582</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="1">
         <v>0.50724637681159424</v>
       </c>
       <c r="K111">
@@ -4785,10 +4798,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="12">
+      <c r="O111" s="1">
         <v>0.53164755771949113</v>
       </c>
-      <c r="P111" s="12">
+      <c r="P111" s="1">
         <v>0.46835244228050887</v>
       </c>
     </row>
@@ -4805,10 +4818,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="1">
         <v>0.86875000000000002</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="1">
         <v>0.13125000000000001</v>
       </c>
       <c r="K112">
@@ -4820,10 +4833,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="12">
+      <c r="O112" s="1">
         <v>0.93789089107684687</v>
       </c>
-      <c r="P112" s="12">
+      <c r="P112" s="1">
         <v>6.2109108923153133E-2</v>
       </c>
     </row>
@@ -4840,10 +4853,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="1">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="12">
+      <c r="I113" s="1">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4855,10 +4868,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="12">
+      <c r="O113" s="1">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="12">
+      <c r="P113" s="1">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4867,34 +4880,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E114">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="12">
-        <v>0.36420395421436003</v>
-      </c>
-      <c r="I114" s="12">
-        <v>0.63579604578563997</v>
+      <c r="H114" s="1">
+        <v>0.37773152965660772</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.62226847034339228</v>
       </c>
       <c r="K114">
-        <v>33458</v>
+        <v>34390</v>
       </c>
       <c r="L114">
-        <v>42016</v>
+        <v>41084</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="12">
-        <v>0.44330497919813444</v>
-      </c>
-      <c r="P114" s="12">
-        <v>0.5566950208018655</v>
+      <c r="O114" s="1">
+        <v>0.45565360256512177</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0.54434639743487823</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4902,34 +4915,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E115">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="12">
-        <v>0.63657407407407407</v>
-      </c>
-      <c r="I115" s="12">
-        <v>0.36342592592592593</v>
+      <c r="H115" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.35416666666666669</v>
       </c>
       <c r="K115">
-        <v>29140</v>
+        <v>29289</v>
       </c>
       <c r="L115">
-        <v>12779</v>
+        <v>12630</v>
       </c>
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="12">
-        <v>0.69515017056704598</v>
-      </c>
-      <c r="P115" s="12">
-        <v>0.30484982943295402</v>
+      <c r="O115" s="1">
+        <v>0.69870464467186721</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0.30129535532813284</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4937,34 +4950,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E116">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="12">
-        <v>0.39314516129032256</v>
-      </c>
-      <c r="I116" s="12">
-        <v>0.60685483870967738</v>
+      <c r="H116" s="1">
+        <v>0.39919354838709675</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.60080645161290325</v>
       </c>
       <c r="K116">
-        <v>18082</v>
+        <v>18343</v>
       </c>
       <c r="L116">
-        <v>18111</v>
+        <v>17850</v>
       </c>
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="12">
-        <v>0.49959937004393112</v>
-      </c>
-      <c r="P116" s="12">
-        <v>0.50040062995606882</v>
+      <c r="O116" s="1">
+        <v>0.50681070925317051</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0.49318929074682949</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4972,34 +4985,34 @@
         <v>124</v>
       </c>
       <c r="D117">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E117">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="12">
-        <v>0.40807174887892378</v>
-      </c>
-      <c r="I117" s="12">
-        <v>0.59192825112107628</v>
+      <c r="H117" s="1">
+        <v>0.42152466367713004</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.57847533632286996</v>
       </c>
       <c r="K117">
-        <v>8885</v>
+        <v>9113</v>
       </c>
       <c r="L117">
-        <v>8849</v>
+        <v>8621</v>
       </c>
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="12">
-        <v>0.50101499943611139</v>
-      </c>
-      <c r="P117" s="12">
-        <v>0.49898500056388856</v>
+      <c r="O117" s="1">
+        <v>0.51387165896018949</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0.48612834103981051</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -5015,10 +5028,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="1">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="1">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5030,10 +5043,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="12">
+      <c r="O118" s="1">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="12">
+      <c r="P118" s="1">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5050,10 +5063,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="1">
         <v>0.75862068965517238</v>
       </c>
-      <c r="I119" s="12">
+      <c r="I119" s="1">
         <v>0.2413793103448276</v>
       </c>
       <c r="K119">
@@ -5065,10 +5078,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="12">
+      <c r="O119" s="1">
         <v>0.80884063590538968</v>
       </c>
-      <c r="P119" s="12">
+      <c r="P119" s="1">
         <v>0.19115936409461032</v>
       </c>
     </row>
@@ -5085,10 +5098,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="1">
         <v>0.52020202020202022</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="1">
         <v>0.47979797979797978</v>
       </c>
       <c r="K120">
@@ -5100,10 +5113,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="12">
+      <c r="O120" s="1">
         <v>0.59447952681658423</v>
       </c>
-      <c r="P120" s="12">
+      <c r="P120" s="1">
         <v>0.40552047318341572</v>
       </c>
     </row>
@@ -5112,34 +5125,34 @@
         <v>128</v>
       </c>
       <c r="D121">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E121">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="12">
-        <v>0.35377358490566035</v>
-      </c>
-      <c r="I121" s="12">
-        <v>0.64622641509433965</v>
+      <c r="H121" s="1">
+        <v>0.38207547169811323</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.61792452830188682</v>
       </c>
       <c r="K121">
-        <v>6760</v>
+        <v>7277</v>
       </c>
       <c r="L121">
-        <v>8486</v>
+        <v>7969</v>
       </c>
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="12">
-        <v>0.44339498884953432</v>
-      </c>
-      <c r="P121" s="12">
-        <v>0.55660501115046568</v>
+      <c r="O121" s="1">
+        <v>0.47730552276006821</v>
+      </c>
+      <c r="P121" s="1">
+        <v>0.52269447723993179</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -5155,10 +5168,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="1">
         <v>0.32</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="1">
         <v>0.68</v>
       </c>
       <c r="K122">
@@ -5170,10 +5183,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="12">
+      <c r="O122" s="1">
         <v>0.33568345323741006</v>
       </c>
-      <c r="P122" s="12">
+      <c r="P122" s="1">
         <v>0.66431654676258989</v>
       </c>
     </row>
@@ -5190,10 +5203,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="1">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I123" s="12">
+      <c r="I123" s="1">
         <v>0.53968253968253965</v>
       </c>
       <c r="K123">
@@ -5205,10 +5218,10 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="12">
+      <c r="O123" s="1">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P123" s="12">
+      <c r="P123" s="1">
         <v>0.46606769016050242</v>
       </c>
     </row>
@@ -5219,37 +5232,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>4701</v>
+        <v>4851</v>
       </c>
       <c r="E124" s="13">
-        <v>5733</v>
+        <v>5583</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.45054629097182286</v>
+        <v>0.46492236917768831</v>
       </c>
       <c r="I124" s="14">
-        <v>0.54945370902817714</v>
+        <v>0.53507763082231163</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>461678</v>
+        <v>472689</v>
       </c>
       <c r="L124" s="13">
-        <v>407944</v>
+        <v>396933</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.5308950325543742</v>
+        <v>0.54355685573732038</v>
       </c>
       <c r="P124" s="14">
-        <v>0.4691049674456258</v>
+        <v>0.45644314426267962</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5268,10 +5281,10 @@
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="1">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="1">
         <v>0.53846153846153844</v>
       </c>
       <c r="K125">
@@ -5283,10 +5296,10 @@
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="12">
+      <c r="O125" s="1">
         <v>0.50022520493649225</v>
       </c>
-      <c r="P125" s="12">
+      <c r="P125" s="1">
         <v>0.4997747950635078</v>
       </c>
     </row>
@@ -5295,34 +5308,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E126">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="12">
-        <v>0.3931297709923664</v>
-      </c>
-      <c r="I126" s="12">
-        <v>0.60687022900763354</v>
+      <c r="H126" s="1">
+        <v>0.39694656488549618</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.60305343511450382</v>
       </c>
       <c r="K126">
-        <v>33203</v>
+        <v>33527</v>
       </c>
       <c r="L126">
-        <v>39459</v>
+        <v>39135</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="12">
-        <v>0.45695136384905455</v>
-      </c>
-      <c r="P126" s="12">
-        <v>0.54304863615094545</v>
+      <c r="O126" s="1">
+        <v>0.46141036580330846</v>
+      </c>
+      <c r="P126" s="1">
+        <v>0.53858963419669148</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5338,10 +5351,10 @@
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="1">
         <v>0.41385767790262173</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="1">
         <v>0.58614232209737827</v>
       </c>
       <c r="K127">
@@ -5353,10 +5366,10 @@
       <c r="M127">
         <v>41286</v>
       </c>
-      <c r="O127" s="12">
+      <c r="O127" s="1">
         <v>0.50414183984885919</v>
       </c>
-      <c r="P127" s="12">
+      <c r="P127" s="1">
         <v>0.49585816015114081</v>
       </c>
     </row>
@@ -5365,34 +5378,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E128">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="12">
-        <v>0.35267857142857145</v>
-      </c>
-      <c r="I128" s="12">
-        <v>0.6473214285714286</v>
+      <c r="H128" s="1">
+        <v>0.36607142857142855</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0.6339285714285714</v>
       </c>
       <c r="K128">
-        <v>8341</v>
+        <v>8612</v>
       </c>
       <c r="L128">
-        <v>8644</v>
+        <v>8373</v>
       </c>
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="12">
-        <v>0.49108036502796587</v>
-      </c>
-      <c r="P128" s="12">
-        <v>0.50891963497203418</v>
+      <c r="O128" s="1">
+        <v>0.5070356196644098</v>
+      </c>
+      <c r="P128" s="1">
+        <v>0.4929643803355902</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5400,34 +5413,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E129">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="12">
-        <v>0.26794258373205743</v>
-      </c>
-      <c r="I129" s="12">
-        <v>0.73205741626794263</v>
+      <c r="H129" s="1">
+        <v>0.29665071770334928</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.70334928229665072</v>
       </c>
       <c r="K129">
-        <v>5033</v>
+        <v>5610</v>
       </c>
       <c r="L129">
-        <v>12071</v>
+        <v>11494</v>
       </c>
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="12">
-        <v>0.29425865294667913</v>
-      </c>
-      <c r="P129" s="12">
-        <v>0.70574134705332081</v>
+      <c r="O129" s="1">
+        <v>0.3279934518241347</v>
+      </c>
+      <c r="P129" s="1">
+        <v>0.67200654817586525</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5435,34 +5448,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E130">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="F130">
         <v>481</v>
       </c>
-      <c r="H130" s="12">
-        <v>0.32016632016632018</v>
-      </c>
-      <c r="I130" s="12">
-        <v>0.67983367983367982</v>
+      <c r="H130" s="1">
+        <v>0.367983367983368</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.63201663201663205</v>
       </c>
       <c r="K130">
-        <v>15871</v>
+        <v>17597</v>
       </c>
       <c r="L130">
-        <v>23551</v>
+        <v>21825</v>
       </c>
       <c r="M130">
         <v>39422</v>
       </c>
-      <c r="O130" s="12">
-        <v>0.40259246106235097</v>
-      </c>
-      <c r="P130" s="12">
-        <v>0.59740753893764897</v>
+      <c r="O130" s="1">
+        <v>0.44637512049109634</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0.55362487950890371</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5470,34 +5483,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E131">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="12">
-        <v>0.421875</v>
-      </c>
-      <c r="I131" s="12">
-        <v>0.578125</v>
+      <c r="H131" s="1">
+        <v>0.453125</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.546875</v>
       </c>
       <c r="K131">
-        <v>7924</v>
+        <v>8460</v>
       </c>
       <c r="L131">
-        <v>8585</v>
+        <v>8049</v>
       </c>
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="12">
-        <v>0.47998061663335151</v>
-      </c>
-      <c r="P131" s="12">
-        <v>0.52001938336664855</v>
+      <c r="O131" s="1">
+        <v>0.51244775576958024</v>
+      </c>
+      <c r="P131" s="1">
+        <v>0.48755224423041976</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5505,34 +5518,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E132">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="12">
-        <v>0.38259668508287292</v>
-      </c>
-      <c r="I132" s="12">
-        <v>0.61740331491712708</v>
+      <c r="H132" s="1">
+        <v>0.39502762430939226</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0.60497237569060769</v>
       </c>
       <c r="K132">
-        <v>27375</v>
+        <v>28449</v>
       </c>
       <c r="L132">
-        <v>33011</v>
+        <v>31937</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="12">
-        <v>0.45333355413506443</v>
-      </c>
-      <c r="P132" s="12">
-        <v>0.54666644586493562</v>
+      <c r="O132" s="1">
+        <v>0.4711191335740072</v>
+      </c>
+      <c r="P132" s="1">
+        <v>0.52888086642599275</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5548,10 +5561,10 @@
       <c r="F133">
         <v>306</v>
       </c>
-      <c r="H133" s="12">
+      <c r="H133" s="1">
         <v>0.17320261437908496</v>
       </c>
-      <c r="I133" s="12">
+      <c r="I133" s="1">
         <v>0.82679738562091498</v>
       </c>
       <c r="K133">
@@ -5563,10 +5576,10 @@
       <c r="M133">
         <v>22587</v>
       </c>
-      <c r="O133" s="12">
+      <c r="O133" s="1">
         <v>0.23730464426439987</v>
       </c>
-      <c r="P133" s="12">
+      <c r="P133" s="1">
         <v>0.7626953557356001</v>
       </c>
     </row>
@@ -5575,34 +5588,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E134">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="12">
-        <v>0.3433874709976798</v>
-      </c>
-      <c r="I134" s="12">
-        <v>0.65661252900232014</v>
+      <c r="H134" s="1">
+        <v>0.3642691415313225</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0.6357308584686775</v>
       </c>
       <c r="K134">
-        <v>14233</v>
+        <v>15071</v>
       </c>
       <c r="L134">
-        <v>19678</v>
+        <v>18840</v>
       </c>
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="12">
-        <v>0.41971631623956829</v>
-      </c>
-      <c r="P134" s="12">
-        <v>0.58028368376043171</v>
+      <c r="O134" s="1">
+        <v>0.44442806169089677</v>
+      </c>
+      <c r="P134" s="1">
+        <v>0.55557193830910323</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5610,34 +5623,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E135">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
-      <c r="H135" s="12">
-        <v>0.35540838852097129</v>
-      </c>
-      <c r="I135" s="12">
-        <v>0.64459161147902866</v>
+      <c r="H135" s="1">
+        <v>0.37527593818984545</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.6247240618101545</v>
       </c>
       <c r="K135">
-        <v>14702</v>
+        <v>15383</v>
       </c>
       <c r="L135">
-        <v>15613</v>
+        <v>14932</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="12">
-        <v>0.48497443509813626</v>
-      </c>
-      <c r="P135" s="12">
-        <v>0.5150255649018638</v>
+      <c r="O135" s="1">
+        <v>0.50743856176810165</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0.49256143823189841</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5645,109 +5658,109 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E136">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="12">
-        <v>0.36787564766839376</v>
-      </c>
-      <c r="I136" s="12">
-        <v>0.63212435233160624</v>
+      <c r="H136" s="1">
+        <v>0.39378238341968913</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0.60621761658031093</v>
       </c>
       <c r="K136">
-        <v>6522</v>
+        <v>6725</v>
       </c>
       <c r="L136">
-        <v>7078</v>
+        <v>6875</v>
       </c>
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="12">
-        <v>0.47955882352941176</v>
-      </c>
-      <c r="P136" s="12">
-        <v>0.52044117647058818</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O136" s="1">
+        <v>0.49448529411764708</v>
+      </c>
+      <c r="P136" s="1">
+        <v>0.50551470588235292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>145</v>
       </c>
       <c r="D137">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E137">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="12">
-        <v>0.35932203389830508</v>
-      </c>
-      <c r="I137" s="12">
-        <v>0.64067796610169492</v>
+      <c r="H137" s="1">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0.6271186440677966</v>
       </c>
       <c r="K137">
-        <v>10859</v>
+        <v>11231</v>
       </c>
       <c r="L137">
-        <v>13612</v>
+        <v>13240</v>
       </c>
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="12">
-        <v>0.44374974459564381</v>
-      </c>
-      <c r="P137" s="12">
-        <v>0.55625025540435613</v>
+      <c r="O137" s="1">
+        <v>0.45895141187528093</v>
+      </c>
+      <c r="P137" s="1">
+        <v>0.54104858812471901</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7">
-        <v>1782</v>
-      </c>
-      <c r="E138" s="7">
-        <v>3189</v>
-      </c>
-      <c r="F138" s="7">
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13">
+        <v>1859</v>
+      </c>
+      <c r="E138" s="13">
+        <v>3112</v>
+      </c>
+      <c r="F138" s="13">
         <v>4971</v>
       </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8">
-        <v>0.35847917923958961</v>
-      </c>
-      <c r="I138" s="8">
-        <v>0.64152082076041039</v>
-      </c>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7">
-        <v>175790</v>
-      </c>
-      <c r="L138" s="7">
-        <v>224549</v>
-      </c>
-      <c r="M138" s="7">
+      <c r="G138" s="13"/>
+      <c r="H138" s="14">
+        <v>0.37396902031784351</v>
+      </c>
+      <c r="I138" s="14">
+        <v>0.62603097968215649</v>
+      </c>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13">
+        <v>182392</v>
+      </c>
+      <c r="L138" s="13">
+        <v>217947</v>
+      </c>
+      <c r="M138" s="13">
         <v>400339</v>
       </c>
-      <c r="N138" s="7"/>
-      <c r="O138" s="8">
-        <v>0.43910286032587381</v>
-      </c>
-      <c r="P138" s="8">
-        <v>0.56089713967412613</v>
+      <c r="N138" s="13"/>
+      <c r="O138" s="14">
+        <v>0.45559388418315477</v>
+      </c>
+      <c r="P138" s="14">
+        <v>0.54440611581684517</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5757,37 +5770,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>23872</v>
+        <v>24835</v>
       </c>
       <c r="E139" s="13">
-        <v>42139</v>
+        <v>41176</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.36163669691415068</v>
+        <v>0.37622517459211341</v>
       </c>
       <c r="I139" s="14">
-        <v>0.63836330308584932</v>
+        <v>0.62377482540788654</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2324233</v>
+        <v>2404343</v>
       </c>
       <c r="L139" s="13">
-        <v>2951703</v>
+        <v>2871593</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.44053472218010226</v>
+        <v>0.45571875777113291</v>
       </c>
       <c r="P139" s="14">
-        <v>0.55946527781989774</v>
+        <v>0.54428124222886709</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCAC88-C2B2-45E9-98BB-5643898032AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B794939-671E-490D-A8B9-44CCF7EE1ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02E07A9F-9225-432E-A100-383EB2D74E61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11EFD6CB-A5DD-4FEB-A899-97965B9BD5FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,10 +476,10 @@
     <t>Wales Total</t>
   </si>
   <si>
+    <t>Sheet counts</t>
+  </si>
+  <si>
     <t>Monthly Reading counts</t>
-  </si>
-  <si>
-    <t>Sheet counts</t>
   </si>
 </sst>
 </file>
@@ -515,13 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,17 +561,17 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55FF01-3C0B-43D3-A586-705F7D1F771E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7696A2F7-DF59-4FCC-8A25-BF361BCEDC39}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -905,7 +905,6 @@
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
@@ -916,87 +915,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="K1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1360,34 +1359,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E14">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F14">
         <v>1109</v>
       </c>
       <c r="H14" s="1">
-        <v>0.42470694319206492</v>
+        <v>0.42651036970243461</v>
       </c>
       <c r="I14" s="1">
-        <v>0.57529305680793508</v>
+        <v>0.57348963029756539</v>
       </c>
       <c r="K14">
-        <v>45932</v>
+        <v>46004</v>
       </c>
       <c r="L14">
-        <v>46539</v>
+        <v>46467</v>
       </c>
       <c r="M14">
         <v>92471</v>
       </c>
       <c r="O14" s="1">
-        <v>0.4967178899330601</v>
+        <v>0.49749651242011012</v>
       </c>
       <c r="P14" s="1">
-        <v>0.5032821100669399</v>
+        <v>0.50250348757988994</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1500,34 +1499,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="E18">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
       <c r="H18" s="1">
-        <v>0.37828302626421012</v>
+        <v>0.38024304194433556</v>
       </c>
       <c r="I18" s="1">
-        <v>0.62171697373578994</v>
+        <v>0.61975695805566444</v>
       </c>
       <c r="K18">
-        <v>91540</v>
+        <v>91902</v>
       </c>
       <c r="L18">
-        <v>102681</v>
+        <v>102319</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
       <c r="O18" s="1">
-        <v>0.47131875543839236</v>
+        <v>0.47318261156105673</v>
       </c>
       <c r="P18" s="1">
-        <v>0.5286812445616077</v>
+        <v>0.52681738843894321</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1640,34 +1639,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="E22">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
       <c r="H22" s="1">
-        <v>0.35877862595419846</v>
+        <v>0.37404580152671757</v>
       </c>
       <c r="I22" s="1">
-        <v>0.64122137404580148</v>
+        <v>0.62595419847328249</v>
       </c>
       <c r="K22">
-        <v>41230</v>
+        <v>42595</v>
       </c>
       <c r="L22">
-        <v>54382</v>
+        <v>53017</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
       <c r="O22" s="1">
-        <v>0.431222022340292</v>
+        <v>0.44549847299502154</v>
       </c>
       <c r="P22" s="1">
-        <v>0.56877797765970795</v>
+        <v>0.55450152700497846</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1675,34 +1674,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E23">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
       <c r="H23" s="1">
-        <v>0.29169087739686228</v>
+        <v>0.29575828006972688</v>
       </c>
       <c r="I23" s="1">
-        <v>0.70830912260313772</v>
+        <v>0.70424171993027307</v>
       </c>
       <c r="K23">
-        <v>47660</v>
+        <v>48213</v>
       </c>
       <c r="L23">
-        <v>83411</v>
+        <v>82858</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
       <c r="O23" s="1">
-        <v>0.36361971755765959</v>
+        <v>0.36783880492252291</v>
       </c>
       <c r="P23" s="1">
-        <v>0.63638028244234046</v>
+        <v>0.63216119507747714</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1710,34 +1709,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E24">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
       <c r="H24" s="1">
-        <v>0.35762711864406782</v>
+        <v>0.36271186440677966</v>
       </c>
       <c r="I24" s="1">
-        <v>0.64237288135593218</v>
+        <v>0.63728813559322028</v>
       </c>
       <c r="K24">
-        <v>20105</v>
+        <v>20247</v>
       </c>
       <c r="L24">
-        <v>24208</v>
+        <v>24066</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
       <c r="O24" s="1">
-        <v>0.45370433055762416</v>
+        <v>0.45690880779906573</v>
       </c>
       <c r="P24" s="1">
-        <v>0.54629566944237584</v>
+        <v>0.54309119220093427</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1850,34 +1849,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="E28">
-        <v>1578</v>
+        <v>1545</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
       <c r="H28" s="1">
-        <v>0.2901484480431849</v>
+        <v>0.30499325236167341</v>
       </c>
       <c r="I28" s="1">
-        <v>0.70985155195681515</v>
+        <v>0.69500674763832659</v>
       </c>
       <c r="K28">
-        <v>62239</v>
+        <v>65057</v>
       </c>
       <c r="L28">
-        <v>109095</v>
+        <v>106277</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="1">
-        <v>0.36326123244656633</v>
+        <v>0.37970863926599507</v>
       </c>
       <c r="P28" s="1">
-        <v>0.63673876755343362</v>
+        <v>0.62029136073400493</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1885,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="E29">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="F29">
         <v>3107</v>
       </c>
       <c r="H29" s="1">
-        <v>0.48857418731895719</v>
+        <v>0.4905053105889926</v>
       </c>
       <c r="I29" s="1">
-        <v>0.51142581268104281</v>
+        <v>0.5094946894110074</v>
       </c>
       <c r="K29">
-        <v>148457</v>
+        <v>148985</v>
       </c>
       <c r="L29">
-        <v>119848</v>
+        <v>119320</v>
       </c>
       <c r="M29">
         <v>268305</v>
       </c>
       <c r="O29" s="1">
-        <v>0.55331432511507428</v>
+        <v>0.55528223477013106</v>
       </c>
       <c r="P29" s="1">
-        <v>0.44668567488492572</v>
+        <v>0.444717765229869</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1955,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E31">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="1">
-        <v>0.35714285714285715</v>
+        <v>0.35810810810810811</v>
       </c>
       <c r="I31" s="1">
-        <v>0.6428571428571429</v>
+        <v>0.64189189189189189</v>
       </c>
       <c r="K31">
-        <v>37123</v>
+        <v>37243</v>
       </c>
       <c r="L31">
-        <v>47905</v>
+        <v>47785</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="1">
-        <v>0.43659735616502798</v>
+        <v>0.43800865597215033</v>
       </c>
       <c r="P31" s="1">
-        <v>0.56340264383497196</v>
+        <v>0.56199134402784967</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1990,34 +1989,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E32">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
       <c r="H32" s="1">
-        <v>0.50094876660341559</v>
+        <v>0.50664136622390887</v>
       </c>
       <c r="I32" s="1">
-        <v>0.49905123339658441</v>
+        <v>0.49335863377609107</v>
       </c>
       <c r="K32">
-        <v>26824</v>
+        <v>27187</v>
       </c>
       <c r="L32">
-        <v>18003</v>
+        <v>17640</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
       <c r="O32" s="1">
-        <v>0.5983893635532157</v>
+        <v>0.60648716175519213</v>
       </c>
       <c r="P32" s="1">
-        <v>0.4016106364467843</v>
+        <v>0.39351283824480782</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2025,34 +2024,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E33">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
       <c r="H33" s="1">
-        <v>0.3458294283036551</v>
+        <v>0.35426429240862228</v>
       </c>
       <c r="I33" s="1">
-        <v>0.65417057169634485</v>
+        <v>0.64573570759137766</v>
       </c>
       <c r="K33">
-        <v>33980</v>
+        <v>35337</v>
       </c>
       <c r="L33">
-        <v>41866</v>
+        <v>40509</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
       <c r="O33" s="1">
-        <v>0.44801307913403476</v>
+        <v>0.46590459615536745</v>
       </c>
       <c r="P33" s="1">
-        <v>0.55198692086596524</v>
+        <v>0.5340954038446325</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2095,34 +2094,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E35">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F35">
         <v>784</v>
       </c>
       <c r="H35" s="1">
-        <v>0.25765306122448978</v>
+        <v>0.26530612244897961</v>
       </c>
       <c r="I35" s="1">
-        <v>0.74234693877551017</v>
+        <v>0.73469387755102045</v>
       </c>
       <c r="K35">
-        <v>19393</v>
+        <v>19962</v>
       </c>
       <c r="L35">
-        <v>43198</v>
+        <v>42629</v>
       </c>
       <c r="M35">
         <v>62591</v>
       </c>
       <c r="O35" s="1">
-        <v>0.30983687750635075</v>
+        <v>0.31892764135418833</v>
       </c>
       <c r="P35" s="1">
-        <v>0.69016312249364919</v>
+        <v>0.68107235864581173</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2200,34 +2199,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E38">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
       <c r="H38" s="1">
-        <v>0.28947368421052633</v>
+        <v>0.30394736842105263</v>
       </c>
       <c r="I38" s="1">
-        <v>0.71052631578947367</v>
+        <v>0.69605263157894737</v>
       </c>
       <c r="K38">
-        <v>21059</v>
+        <v>21849</v>
       </c>
       <c r="L38">
-        <v>34225</v>
+        <v>33435</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
       <c r="O38" s="1">
-        <v>0.38092395629838649</v>
+        <v>0.39521380507922726</v>
       </c>
       <c r="P38" s="1">
-        <v>0.61907604370161351</v>
+        <v>0.60478619492077279</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2270,34 +2269,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>255</v>
+        <v>418</v>
       </c>
       <c r="E40">
-        <v>415</v>
+        <v>252</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
       <c r="H40" s="1">
-        <v>0.38059701492537312</v>
+        <v>0.62388059701492538</v>
       </c>
       <c r="I40" s="1">
-        <v>0.61940298507462688</v>
+        <v>0.37611940298507462</v>
       </c>
       <c r="K40">
-        <v>23426</v>
+        <v>37077</v>
       </c>
       <c r="L40">
-        <v>25639</v>
+        <v>11988</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
       <c r="O40" s="1">
-        <v>0.47744828289004382</v>
+        <v>0.75567104860898804</v>
       </c>
       <c r="P40" s="1">
-        <v>0.52255171710995618</v>
+        <v>0.24432895139101193</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2305,34 +2304,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="E41">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
       <c r="H41" s="1">
-        <v>0.24629535002554931</v>
+        <v>0.25396014307613696</v>
       </c>
       <c r="I41" s="1">
-        <v>0.75370464997445064</v>
+        <v>0.7460398569238631</v>
       </c>
       <c r="K41">
-        <v>47053</v>
+        <v>48149</v>
       </c>
       <c r="L41">
-        <v>99566</v>
+        <v>98470</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
       <c r="O41" s="1">
-        <v>0.32092020815856065</v>
+        <v>0.32839536485721493</v>
       </c>
       <c r="P41" s="1">
-        <v>0.67907979184143941</v>
+        <v>0.67160463514278501</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2425,19 +2424,19 @@
         <v>0.81644815256257453</v>
       </c>
       <c r="K44">
-        <v>44758</v>
+        <v>44795</v>
       </c>
       <c r="L44">
-        <v>140872</v>
+        <v>140835</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
       <c r="O44" s="1">
-        <v>0.24111404406615311</v>
+        <v>0.24131336529655767</v>
       </c>
       <c r="P44" s="1">
-        <v>0.75888595593384689</v>
+        <v>0.75868663470344233</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2445,34 +2444,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E45">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
       <c r="H45" s="1">
-        <v>0.27012863268222964</v>
+        <v>0.27060505002382085</v>
       </c>
       <c r="I45" s="1">
-        <v>0.72987136731777036</v>
+        <v>0.72939494997617915</v>
       </c>
       <c r="K45">
-        <v>54527</v>
+        <v>54629</v>
       </c>
       <c r="L45">
-        <v>106847</v>
+        <v>106745</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
       <c r="O45" s="1">
-        <v>0.3378921015777015</v>
+        <v>0.33852417365870585</v>
       </c>
       <c r="P45" s="1">
-        <v>0.66210789842229856</v>
+        <v>0.66147582634129409</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2515,34 +2514,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E47">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
       <c r="H47" s="1">
-        <v>0.2976913730255164</v>
+        <v>0.30133657351154314</v>
       </c>
       <c r="I47" s="1">
-        <v>0.7023086269744836</v>
+        <v>0.69866342648845692</v>
       </c>
       <c r="K47">
-        <v>21243</v>
+        <v>21471</v>
       </c>
       <c r="L47">
-        <v>41427</v>
+        <v>41199</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
       <c r="O47" s="1">
-        <v>0.33896601244614649</v>
+        <v>0.34260411680229774</v>
       </c>
       <c r="P47" s="1">
-        <v>0.66103398755385356</v>
+        <v>0.65739588319770226</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2550,34 +2549,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E48">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
       <c r="H48" s="1">
-        <v>0.25177304964539005</v>
+        <v>0.25413711583924348</v>
       </c>
       <c r="I48" s="1">
-        <v>0.74822695035460995</v>
+        <v>0.74586288416075652</v>
       </c>
       <c r="K48">
-        <v>19995</v>
+        <v>20132</v>
       </c>
       <c r="L48">
-        <v>47369</v>
+        <v>47232</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
       <c r="O48" s="1">
-        <v>0.29682026007956774</v>
+        <v>0.29885398729291612</v>
       </c>
       <c r="P48" s="1">
-        <v>0.70317973992043226</v>
+        <v>0.70114601270708388</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2620,34 +2619,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E50">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F50">
         <v>428</v>
       </c>
       <c r="H50" s="1">
-        <v>0.53504672897196259</v>
+        <v>0.53971962616822433</v>
       </c>
       <c r="I50" s="1">
-        <v>0.46495327102803741</v>
+        <v>0.46028037383177572</v>
       </c>
       <c r="K50">
-        <v>21312</v>
+        <v>21420</v>
       </c>
       <c r="L50">
-        <v>11929</v>
+        <v>11821</v>
       </c>
       <c r="M50">
         <v>33241</v>
       </c>
       <c r="O50" s="1">
-        <v>0.64113594657200446</v>
+        <v>0.64438494630125442</v>
       </c>
       <c r="P50" s="1">
-        <v>0.35886405342799554</v>
+        <v>0.35561505369874552</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2690,34 +2689,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1969</v>
+        <v>1987</v>
       </c>
       <c r="E52">
-        <v>1854</v>
+        <v>1836</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="1">
-        <v>0.51504054407533351</v>
+        <v>0.51974888830761179</v>
       </c>
       <c r="I52" s="1">
-        <v>0.48495945592466649</v>
+        <v>0.48025111169238816</v>
       </c>
       <c r="K52">
-        <v>200404</v>
+        <v>202233</v>
       </c>
       <c r="L52">
-        <v>144046</v>
+        <v>142217</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
       <c r="O52" s="1">
-        <v>0.58180868050515311</v>
+        <v>0.58711859486137319</v>
       </c>
       <c r="P52" s="1">
-        <v>0.41819131949484684</v>
+        <v>0.41288140513862681</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2762,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>16899</v>
+        <v>17207</v>
       </c>
       <c r="E54" s="13">
-        <v>30214</v>
+        <v>29906</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.35869080720820157</v>
+        <v>0.36522828094156601</v>
       </c>
       <c r="I54" s="14">
-        <v>0.64130919279179843</v>
+        <v>0.63477171905843399</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1633872</v>
+        <v>1660099</v>
       </c>
       <c r="L54" s="13">
-        <v>2106842</v>
+        <v>2080615</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.43678078570027007</v>
+        <v>0.44379201403796176</v>
       </c>
       <c r="P54" s="14">
-        <v>0.56321921429972999</v>
+        <v>0.55620798596203824</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4145,34 +4144,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E93">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
       <c r="H93" s="1">
-        <v>0.49336283185840707</v>
+        <v>0.49889380530973454</v>
       </c>
       <c r="I93" s="1">
-        <v>0.50663716814159288</v>
+        <v>0.50110619469026552</v>
       </c>
       <c r="K93">
-        <v>44235</v>
+        <v>44410</v>
       </c>
       <c r="L93">
-        <v>31291</v>
+        <v>31116</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
       <c r="O93" s="1">
-        <v>0.58569234435823425</v>
+        <v>0.58800942721711724</v>
       </c>
       <c r="P93" s="1">
-        <v>0.41430765564176575</v>
+        <v>0.4119905727828827</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4180,34 +4179,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E94">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
       <c r="H94" s="1">
-        <v>0.33482810164424515</v>
+        <v>0.34828101644245141</v>
       </c>
       <c r="I94" s="1">
-        <v>0.66517189835575485</v>
+        <v>0.65171898355754854</v>
       </c>
       <c r="K94">
-        <v>22102</v>
+        <v>22772</v>
       </c>
       <c r="L94">
-        <v>35565</v>
+        <v>34895</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
       <c r="O94" s="1">
-        <v>0.38326946087016839</v>
+        <v>0.39488789082144032</v>
       </c>
       <c r="P94" s="1">
-        <v>0.61673053912983167</v>
+        <v>0.60511210917855962</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4250,34 +4249,34 @@
         <v>103</v>
       </c>
       <c r="D96">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E96">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F96">
         <v>148</v>
       </c>
       <c r="H96" s="1">
-        <v>0.53378378378378377</v>
+        <v>0.58783783783783783</v>
       </c>
       <c r="I96" s="1">
-        <v>0.46621621621621623</v>
+        <v>0.41216216216216217</v>
       </c>
       <c r="K96">
-        <v>7652</v>
+        <v>8437</v>
       </c>
       <c r="L96">
-        <v>4397</v>
+        <v>3612</v>
       </c>
       <c r="M96">
         <v>12049</v>
       </c>
       <c r="O96" s="1">
-        <v>0.63507345007884475</v>
+        <v>0.70022408498630595</v>
       </c>
       <c r="P96" s="1">
-        <v>0.36492654992115531</v>
+        <v>0.29977591501369411</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -4320,34 +4319,34 @@
         <v>105</v>
       </c>
       <c r="D98">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E98">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F98">
         <v>117</v>
       </c>
       <c r="H98" s="1">
-        <v>0.72649572649572647</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="I98" s="1">
-        <v>0.27350427350427353</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="K98">
-        <v>8874</v>
+        <v>9111</v>
       </c>
       <c r="L98">
-        <v>1654</v>
+        <v>1417</v>
       </c>
       <c r="M98">
         <v>10528</v>
       </c>
       <c r="O98" s="1">
-        <v>0.84289513677811545</v>
+        <v>0.86540653495440734</v>
       </c>
       <c r="P98" s="1">
-        <v>0.15710486322188449</v>
+        <v>0.13459346504559269</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -4390,34 +4389,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E100">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F100">
         <v>364</v>
       </c>
       <c r="H100" s="1">
-        <v>0.52472527472527475</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="I100" s="1">
-        <v>0.47527472527472525</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="K100">
-        <v>16451</v>
+        <v>16777</v>
       </c>
       <c r="L100">
-        <v>10264</v>
+        <v>9938</v>
       </c>
       <c r="M100">
         <v>26715</v>
       </c>
       <c r="O100" s="1">
-        <v>0.61579636908104063</v>
+        <v>0.62799925135691559</v>
       </c>
       <c r="P100" s="1">
-        <v>0.38420363091895937</v>
+        <v>0.37200074864308441</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4425,34 +4424,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E101">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F101">
         <v>244</v>
       </c>
       <c r="H101" s="1">
-        <v>0.35655737704918034</v>
+        <v>0.36475409836065575</v>
       </c>
       <c r="I101" s="1">
-        <v>0.64344262295081966</v>
+        <v>0.63524590163934425</v>
       </c>
       <c r="K101">
-        <v>8147</v>
+        <v>8219</v>
       </c>
       <c r="L101">
-        <v>11210</v>
+        <v>11138</v>
       </c>
       <c r="M101">
         <v>19357</v>
       </c>
       <c r="O101" s="1">
-        <v>0.42088133491760088</v>
+        <v>0.42460091956398205</v>
       </c>
       <c r="P101" s="1">
-        <v>0.57911866508239918</v>
+        <v>0.57539908043601795</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4495,34 +4494,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E103">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
       <c r="H103" s="1">
-        <v>0.44094488188976377</v>
+        <v>0.45144356955380577</v>
       </c>
       <c r="I103" s="1">
-        <v>0.55905511811023623</v>
+        <v>0.54855643044619418</v>
       </c>
       <c r="K103">
-        <v>17548</v>
+        <v>17824</v>
       </c>
       <c r="L103">
-        <v>16296</v>
+        <v>16020</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
       <c r="O103" s="1">
-        <v>0.51849663160382931</v>
+        <v>0.52665169601701922</v>
       </c>
       <c r="P103" s="1">
-        <v>0.48150336839617064</v>
+        <v>0.47334830398298072</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4530,34 +4529,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="E104">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="F104">
         <v>892</v>
       </c>
       <c r="H104" s="1">
-        <v>0.4170403587443946</v>
+        <v>0.45964125560538116</v>
       </c>
       <c r="I104" s="1">
-        <v>0.5829596412556054</v>
+        <v>0.54035874439461884</v>
       </c>
       <c r="K104">
-        <v>33600</v>
+        <v>36930</v>
       </c>
       <c r="L104">
-        <v>35684</v>
+        <v>32354</v>
       </c>
       <c r="M104">
         <v>69284</v>
       </c>
       <c r="O104" s="1">
-        <v>0.48496045262975579</v>
+        <v>0.53302349748859768</v>
       </c>
       <c r="P104" s="1">
-        <v>0.51503954737024427</v>
+        <v>0.46697650251140232</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4670,34 +4669,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E108">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
       <c r="H108" s="1">
-        <v>0.43202979515828677</v>
+        <v>0.43575418994413406</v>
       </c>
       <c r="I108" s="1">
-        <v>0.56797020484171323</v>
+        <v>0.56424581005586594</v>
       </c>
       <c r="K108">
-        <v>23073</v>
+        <v>23109</v>
       </c>
       <c r="L108">
-        <v>23351</v>
+        <v>23315</v>
       </c>
       <c r="M108">
         <v>46424</v>
       </c>
       <c r="O108" s="1">
-        <v>0.49700585903842842</v>
+        <v>0.49778132000689301</v>
       </c>
       <c r="P108" s="1">
-        <v>0.50299414096157158</v>
+        <v>0.50221867999310699</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4740,34 +4739,34 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E110">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F110">
         <v>171</v>
       </c>
       <c r="H110" s="1">
-        <v>0.31578947368421051</v>
+        <v>0.40935672514619881</v>
       </c>
       <c r="I110" s="1">
-        <v>0.68421052631578949</v>
+        <v>0.59064327485380119</v>
       </c>
       <c r="K110">
-        <v>5078</v>
+        <v>6305</v>
       </c>
       <c r="L110">
-        <v>8407</v>
+        <v>7180</v>
       </c>
       <c r="M110">
         <v>13485</v>
       </c>
       <c r="O110" s="1">
-        <v>0.37656655543196144</v>
+        <v>0.46755654430849092</v>
       </c>
       <c r="P110" s="1">
-        <v>0.62343344456803851</v>
+        <v>0.53244345569150908</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -4880,34 +4879,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E114">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
       <c r="H114" s="1">
-        <v>0.37773152965660772</v>
+        <v>0.38085327783558792</v>
       </c>
       <c r="I114" s="1">
-        <v>0.62226847034339228</v>
+        <v>0.61914672216441202</v>
       </c>
       <c r="K114">
-        <v>34390</v>
+        <v>34616</v>
       </c>
       <c r="L114">
-        <v>41084</v>
+        <v>40858</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
       <c r="O114" s="1">
-        <v>0.45565360256512177</v>
+        <v>0.45864801123565729</v>
       </c>
       <c r="P114" s="1">
-        <v>0.54434639743487823</v>
+        <v>0.54135198876434265</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4950,34 +4949,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E116">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F116">
         <v>496</v>
       </c>
       <c r="H116" s="1">
-        <v>0.39919354838709675</v>
+        <v>0.40927419354838712</v>
       </c>
       <c r="I116" s="1">
-        <v>0.60080645161290325</v>
+        <v>0.59072580645161288</v>
       </c>
       <c r="K116">
-        <v>18343</v>
+        <v>18736</v>
       </c>
       <c r="L116">
-        <v>17850</v>
+        <v>17457</v>
       </c>
       <c r="M116">
         <v>36193</v>
       </c>
       <c r="O116" s="1">
-        <v>0.50681070925317051</v>
+        <v>0.51766916254524353</v>
       </c>
       <c r="P116" s="1">
-        <v>0.49318929074682949</v>
+        <v>0.48233083745475647</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -5125,34 +5124,34 @@
         <v>128</v>
       </c>
       <c r="D121">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E121">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F121">
         <v>212</v>
       </c>
       <c r="H121" s="1">
-        <v>0.38207547169811323</v>
+        <v>0.39150943396226418</v>
       </c>
       <c r="I121" s="1">
-        <v>0.61792452830188682</v>
+        <v>0.60849056603773588</v>
       </c>
       <c r="K121">
-        <v>7277</v>
+        <v>7373</v>
       </c>
       <c r="L121">
-        <v>7969</v>
+        <v>7873</v>
       </c>
       <c r="M121">
         <v>15246</v>
       </c>
       <c r="O121" s="1">
-        <v>0.47730552276006821</v>
+        <v>0.48360225632952908</v>
       </c>
       <c r="P121" s="1">
-        <v>0.52269447723993179</v>
+        <v>0.51639774367047098</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -5232,37 +5231,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>4851</v>
+        <v>4955</v>
       </c>
       <c r="E124" s="13">
-        <v>5583</v>
+        <v>5479</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.46492236917768831</v>
+        <v>0.47488978340042171</v>
       </c>
       <c r="I124" s="14">
-        <v>0.53507763082231163</v>
+        <v>0.52511021659957835</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>472689</v>
+        <v>480538</v>
       </c>
       <c r="L124" s="13">
-        <v>396933</v>
+        <v>389084</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.54355685573732038</v>
+        <v>0.55258261635515205</v>
       </c>
       <c r="P124" s="14">
-        <v>0.45644314426267962</v>
+        <v>0.44741738364484801</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5308,34 +5307,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E126">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
       <c r="H126" s="1">
-        <v>0.39694656488549618</v>
+        <v>0.40076335877862596</v>
       </c>
       <c r="I126" s="1">
-        <v>0.60305343511450382</v>
+        <v>0.5992366412213741</v>
       </c>
       <c r="K126">
-        <v>33527</v>
+        <v>33707</v>
       </c>
       <c r="L126">
-        <v>39135</v>
+        <v>38955</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
       <c r="O126" s="1">
-        <v>0.46141036580330846</v>
+        <v>0.46388758911122735</v>
       </c>
       <c r="P126" s="1">
-        <v>0.53858963419669148</v>
+        <v>0.53611241088877271</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5378,34 +5377,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E128">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F128">
         <v>224</v>
       </c>
       <c r="H128" s="1">
-        <v>0.36607142857142855</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="I128" s="1">
-        <v>0.6339285714285714</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K128">
-        <v>8612</v>
+        <v>9198</v>
       </c>
       <c r="L128">
-        <v>8373</v>
+        <v>7787</v>
       </c>
       <c r="M128">
         <v>16985</v>
       </c>
       <c r="O128" s="1">
-        <v>0.5070356196644098</v>
+        <v>0.54153664998528117</v>
       </c>
       <c r="P128" s="1">
-        <v>0.4929643803355902</v>
+        <v>0.45846335001471888</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5553,34 +5552,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E133">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F133">
         <v>306</v>
       </c>
       <c r="H133" s="1">
-        <v>0.17320261437908496</v>
+        <v>0.18627450980392157</v>
       </c>
       <c r="I133" s="1">
-        <v>0.82679738562091498</v>
+        <v>0.81372549019607843</v>
       </c>
       <c r="K133">
-        <v>5360</v>
+        <v>5644</v>
       </c>
       <c r="L133">
-        <v>17227</v>
+        <v>16943</v>
       </c>
       <c r="M133">
         <v>22587</v>
       </c>
       <c r="O133" s="1">
-        <v>0.23730464426439987</v>
+        <v>0.24987824855005092</v>
       </c>
       <c r="P133" s="1">
-        <v>0.7626953557356001</v>
+        <v>0.75012175144994908</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5730,37 +5729,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>1859</v>
+        <v>1872</v>
       </c>
       <c r="E138" s="13">
-        <v>3112</v>
+        <v>3099</v>
       </c>
       <c r="F138" s="13">
         <v>4971</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.37396902031784351</v>
+        <v>0.37658418829209417</v>
       </c>
       <c r="I138" s="14">
-        <v>0.62603097968215649</v>
+        <v>0.62341581170790583</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>182392</v>
+        <v>183442</v>
       </c>
       <c r="L138" s="13">
-        <v>217947</v>
+        <v>216897</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.45559388418315477</v>
+        <v>0.45821666137948092</v>
       </c>
       <c r="P138" s="14">
-        <v>0.54440611581684517</v>
+        <v>0.54178333862051908</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5770,37 +5769,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>24835</v>
+        <v>25260</v>
       </c>
       <c r="E139" s="13">
-        <v>41176</v>
+        <v>40751</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.37622517459211341</v>
+        <v>0.38266349547802642</v>
       </c>
       <c r="I139" s="14">
-        <v>0.62377482540788654</v>
+        <v>0.61733650452197364</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2404343</v>
+        <v>2439469</v>
       </c>
       <c r="L139" s="13">
-        <v>2871593</v>
+        <v>2836467</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.45571875777113291</v>
+        <v>0.46237653375628512</v>
       </c>
       <c r="P139" s="14">
-        <v>0.54428124222886709</v>
+        <v>0.53762346624371482</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B794939-671E-490D-A8B9-44CCF7EE1ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE1CC47-F05E-4273-B602-AB16FFB4FE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11EFD6CB-A5DD-4FEB-A899-97965B9BD5FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AEA88A0-3633-4E54-9F67-A5D94C64BFE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -561,13 +562,13 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -887,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7696A2F7-DF59-4FCC-8A25-BF361BCEDC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE76D3D8-0441-40B4-8512-DBA26E5FE4C4}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -907,51 +908,49 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="9"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1219,34 +1218,34 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E10">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F10">
         <v>413</v>
       </c>
       <c r="H10" s="1">
-        <v>0.3559322033898305</v>
+        <v>0.38740920096852299</v>
       </c>
       <c r="I10" s="1">
-        <v>0.64406779661016944</v>
+        <v>0.61259079903147695</v>
       </c>
       <c r="K10">
-        <v>14025</v>
+        <v>14979</v>
       </c>
       <c r="L10">
-        <v>18204</v>
+        <v>17250</v>
       </c>
       <c r="M10">
         <v>32229</v>
       </c>
       <c r="O10" s="1">
-        <v>0.43516708554407524</v>
+        <v>0.46476775574792889</v>
       </c>
       <c r="P10" s="1">
-        <v>0.56483291445592476</v>
+        <v>0.53523224425207117</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1324,34 +1323,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E13">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F13">
         <v>567</v>
       </c>
       <c r="H13" s="1">
-        <v>0.35626102292768957</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="I13" s="1">
-        <v>0.64373897707231043</v>
+        <v>0.63492063492063489</v>
       </c>
       <c r="K13">
-        <v>20420</v>
+        <v>20480</v>
       </c>
       <c r="L13">
-        <v>27263</v>
+        <v>27203</v>
       </c>
       <c r="M13">
         <v>47683</v>
       </c>
       <c r="O13" s="1">
-        <v>0.42824486714342636</v>
+        <v>0.4295031772329761</v>
       </c>
       <c r="P13" s="1">
-        <v>0.57175513285657364</v>
+        <v>0.57049682276702385</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1359,34 +1358,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E14">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="F14">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H14" s="1">
-        <v>0.42651036970243461</v>
+        <v>0.43541102077687444</v>
       </c>
       <c r="I14" s="1">
-        <v>0.57348963029756539</v>
+        <v>0.56458897922312556</v>
       </c>
       <c r="K14">
-        <v>46004</v>
+        <v>46925</v>
       </c>
       <c r="L14">
-        <v>46467</v>
+        <v>45434</v>
       </c>
       <c r="M14">
-        <v>92471</v>
+        <v>92359</v>
       </c>
       <c r="O14" s="1">
-        <v>0.49749651242011012</v>
+        <v>0.50807176344481864</v>
       </c>
       <c r="P14" s="1">
-        <v>0.50250348757988994</v>
+        <v>0.49192823655518142</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1394,34 +1393,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E15">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
       <c r="H15" s="1">
-        <v>0.43782117163412126</v>
+        <v>0.44295991778006166</v>
       </c>
       <c r="I15" s="1">
-        <v>0.56217882836587874</v>
+        <v>0.55704008221993828</v>
       </c>
       <c r="K15">
-        <v>39971</v>
+        <v>40304</v>
       </c>
       <c r="L15">
-        <v>34405</v>
+        <v>34072</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
       <c r="O15" s="1">
-        <v>0.53741798429600951</v>
+        <v>0.54189523502205017</v>
       </c>
       <c r="P15" s="1">
-        <v>0.46258201570399055</v>
+        <v>0.45810476497794989</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1429,34 +1428,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="E16">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
       <c r="H16" s="1">
-        <v>0.52490774907749083</v>
+        <v>0.54151291512915134</v>
       </c>
       <c r="I16" s="1">
-        <v>0.47509225092250923</v>
+        <v>0.45848708487084872</v>
       </c>
       <c r="K16">
-        <v>49331</v>
+        <v>50620</v>
       </c>
       <c r="L16">
-        <v>33149</v>
+        <v>31860</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
       <c r="O16" s="1">
-        <v>0.59809650824442284</v>
+        <v>0.61372453928225024</v>
       </c>
       <c r="P16" s="1">
-        <v>0.4019034917555771</v>
+        <v>0.38627546071774976</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1464,34 +1463,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E17">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
       <c r="H17" s="1">
-        <v>0.29551020408163264</v>
+        <v>0.3069387755102041</v>
       </c>
       <c r="I17" s="1">
-        <v>0.70448979591836736</v>
+        <v>0.6930612244897959</v>
       </c>
       <c r="K17">
-        <v>35603</v>
+        <v>36459</v>
       </c>
       <c r="L17">
-        <v>67160</v>
+        <v>66304</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
       <c r="O17" s="1">
-        <v>0.34645738252094627</v>
+        <v>0.35478722886642078</v>
       </c>
       <c r="P17" s="1">
-        <v>0.65354261747905373</v>
+        <v>0.64521277113357922</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1499,34 +1498,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="E18">
-        <v>1581</v>
+        <v>1559</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
       <c r="H18" s="1">
-        <v>0.38024304194433556</v>
+        <v>0.38886711093688747</v>
       </c>
       <c r="I18" s="1">
-        <v>0.61975695805566444</v>
+        <v>0.61113288906311247</v>
       </c>
       <c r="K18">
-        <v>91902</v>
+        <v>93521</v>
       </c>
       <c r="L18">
-        <v>102319</v>
+        <v>100700</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
       <c r="O18" s="1">
-        <v>0.47318261156105673</v>
+        <v>0.48151847637485135</v>
       </c>
       <c r="P18" s="1">
-        <v>0.52681738843894321</v>
+        <v>0.51848152362514865</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1569,34 +1568,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E20">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
       <c r="H20" s="1">
-        <v>0.42465753424657532</v>
+        <v>0.42922374429223742</v>
       </c>
       <c r="I20" s="1">
-        <v>0.57534246575342463</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="K20">
-        <v>27443</v>
+        <v>27559</v>
       </c>
       <c r="L20">
-        <v>27120</v>
+        <v>27004</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
       <c r="O20" s="1">
-        <v>0.50295988123820168</v>
+        <v>0.5050858640470649</v>
       </c>
       <c r="P20" s="1">
-        <v>0.49704011876179827</v>
+        <v>0.49491413595293515</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1604,34 +1603,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E21">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F21">
         <v>1295</v>
       </c>
       <c r="H21" s="1">
-        <v>0.30656370656370657</v>
+        <v>0.30965250965250968</v>
       </c>
       <c r="I21" s="1">
-        <v>0.69343629343629343</v>
+        <v>0.69034749034749032</v>
       </c>
       <c r="K21">
-        <v>38690</v>
+        <v>39086</v>
       </c>
       <c r="L21">
-        <v>63356</v>
+        <v>62960</v>
       </c>
       <c r="M21">
         <v>102046</v>
       </c>
       <c r="O21" s="1">
-        <v>0.37914273954883093</v>
+        <v>0.38302334241420538</v>
       </c>
       <c r="P21" s="1">
-        <v>0.62085726045116907</v>
+        <v>0.61697665758579467</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1639,34 +1638,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E22">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
       <c r="H22" s="1">
-        <v>0.37404580152671757</v>
+        <v>0.37659033078880405</v>
       </c>
       <c r="I22" s="1">
-        <v>0.62595419847328249</v>
+        <v>0.62340966921119589</v>
       </c>
       <c r="K22">
-        <v>42595</v>
+        <v>42775</v>
       </c>
       <c r="L22">
-        <v>53017</v>
+        <v>52837</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
       <c r="O22" s="1">
-        <v>0.44549847299502154</v>
+        <v>0.44738108187256831</v>
       </c>
       <c r="P22" s="1">
-        <v>0.55450152700497846</v>
+        <v>0.55261891812743169</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1674,34 +1673,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="E23">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
       <c r="H23" s="1">
-        <v>0.29575828006972688</v>
+        <v>0.30389308541545612</v>
       </c>
       <c r="I23" s="1">
-        <v>0.70424171993027307</v>
+        <v>0.69610691458454388</v>
       </c>
       <c r="K23">
-        <v>48213</v>
+        <v>49330</v>
       </c>
       <c r="L23">
-        <v>82858</v>
+        <v>81741</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
       <c r="O23" s="1">
-        <v>0.36783880492252291</v>
+        <v>0.37636090363238245</v>
       </c>
       <c r="P23" s="1">
-        <v>0.63216119507747714</v>
+        <v>0.6236390963676175</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1744,34 +1743,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="E25">
-        <v>707</v>
+        <v>591</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
       <c r="H25" s="1">
-        <v>0.2958167330677291</v>
+        <v>0.4113545816733068</v>
       </c>
       <c r="I25" s="1">
-        <v>0.70418326693227096</v>
+        <v>0.58864541832669326</v>
       </c>
       <c r="K25">
-        <v>30065</v>
+        <v>39975</v>
       </c>
       <c r="L25">
-        <v>49731</v>
+        <v>39821</v>
       </c>
       <c r="M25">
         <v>79796</v>
       </c>
       <c r="O25" s="1">
-        <v>0.37677327184320014</v>
+        <v>0.50096496064965668</v>
       </c>
       <c r="P25" s="1">
-        <v>0.6232267281567998</v>
+        <v>0.49903503935034338</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1849,34 +1848,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="E28">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
       <c r="H28" s="1">
-        <v>0.30499325236167341</v>
+        <v>0.30814215024741343</v>
       </c>
       <c r="I28" s="1">
-        <v>0.69500674763832659</v>
+        <v>0.69185784975258657</v>
       </c>
       <c r="K28">
-        <v>65057</v>
+        <v>65436</v>
       </c>
       <c r="L28">
-        <v>106277</v>
+        <v>105898</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="1">
-        <v>0.37970863926599507</v>
+        <v>0.38192069291559178</v>
       </c>
       <c r="P28" s="1">
-        <v>0.62029136073400493</v>
+        <v>0.61807930708440828</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1884,34 +1883,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="E29">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="F29">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="H29" s="1">
-        <v>0.4905053105889926</v>
+        <v>0.49211965262142165</v>
       </c>
       <c r="I29" s="1">
-        <v>0.5094946894110074</v>
+        <v>0.50788034737857835</v>
       </c>
       <c r="K29">
-        <v>148985</v>
+        <v>149377</v>
       </c>
       <c r="L29">
-        <v>119320</v>
+        <v>119040</v>
       </c>
       <c r="M29">
-        <v>268305</v>
+        <v>268417</v>
       </c>
       <c r="O29" s="1">
-        <v>0.55528223477013106</v>
+        <v>0.5565109512437737</v>
       </c>
       <c r="P29" s="1">
-        <v>0.444717765229869</v>
+        <v>0.4434890487562263</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1919,34 +1918,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E30">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
       <c r="H30" s="1">
-        <v>0.38755020080321284</v>
+        <v>0.40963855421686746</v>
       </c>
       <c r="I30" s="1">
-        <v>0.6124497991967871</v>
+        <v>0.59036144578313254</v>
       </c>
       <c r="K30">
-        <v>19976</v>
+        <v>20791</v>
       </c>
       <c r="L30">
-        <v>20764</v>
+        <v>19949</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
       <c r="O30" s="1">
-        <v>0.49032891507118309</v>
+        <v>0.51033382425134999</v>
       </c>
       <c r="P30" s="1">
-        <v>0.50967108492881685</v>
+        <v>0.48966617574864996</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1954,34 +1953,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E31">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="1">
-        <v>0.35810810810810811</v>
+        <v>0.36196911196911197</v>
       </c>
       <c r="I31" s="1">
-        <v>0.64189189189189189</v>
+        <v>0.63803088803088803</v>
       </c>
       <c r="K31">
-        <v>37243</v>
+        <v>37651</v>
       </c>
       <c r="L31">
-        <v>47785</v>
+        <v>47377</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="1">
-        <v>0.43800865597215033</v>
+        <v>0.44280707531636637</v>
       </c>
       <c r="P31" s="1">
-        <v>0.56199134402784967</v>
+        <v>0.55719292468363357</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2024,34 +2023,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="E33">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
       <c r="H33" s="1">
-        <v>0.35426429240862228</v>
+        <v>0.38425492033739456</v>
       </c>
       <c r="I33" s="1">
-        <v>0.64573570759137766</v>
+        <v>0.61574507966260539</v>
       </c>
       <c r="K33">
-        <v>35337</v>
+        <v>37049</v>
       </c>
       <c r="L33">
-        <v>40509</v>
+        <v>38797</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
       <c r="O33" s="1">
-        <v>0.46590459615536745</v>
+        <v>0.48847665005405688</v>
       </c>
       <c r="P33" s="1">
-        <v>0.5340954038446325</v>
+        <v>0.51152334994594306</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2059,34 +2058,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E34">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="1">
-        <v>0.3619631901840491</v>
+        <v>0.36283961437335671</v>
       </c>
       <c r="I34" s="1">
-        <v>0.6380368098159509</v>
+        <v>0.63716038562664334</v>
       </c>
       <c r="K34">
-        <v>38781</v>
+        <v>38873</v>
       </c>
       <c r="L34">
-        <v>48657</v>
+        <v>48565</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
       <c r="O34" s="1">
-        <v>0.44352569820901666</v>
+        <v>0.44457787232095886</v>
       </c>
       <c r="P34" s="1">
-        <v>0.55647430179098334</v>
+        <v>0.5554221276790412</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2094,34 +2093,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>208</v>
+        <v>364</v>
       </c>
       <c r="E35">
-        <v>576</v>
+        <v>420</v>
       </c>
       <c r="F35">
         <v>784</v>
       </c>
       <c r="H35" s="1">
-        <v>0.26530612244897961</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="I35" s="1">
-        <v>0.73469387755102045</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="K35">
-        <v>19962</v>
+        <v>34184</v>
       </c>
       <c r="L35">
-        <v>42629</v>
+        <v>28407</v>
       </c>
       <c r="M35">
         <v>62591</v>
       </c>
       <c r="O35" s="1">
-        <v>0.31892764135418833</v>
+        <v>0.54614880733651805</v>
       </c>
       <c r="P35" s="1">
-        <v>0.68107235864581173</v>
+        <v>0.45385119266348195</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2129,34 +2128,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="E36">
-        <v>460</v>
+        <v>417</v>
       </c>
       <c r="F36">
         <v>827</v>
       </c>
       <c r="H36" s="1">
-        <v>0.44377267230955258</v>
+        <v>0.49576783555018139</v>
       </c>
       <c r="I36" s="1">
-        <v>0.55622732769044736</v>
+        <v>0.50423216444981867</v>
       </c>
       <c r="K36">
-        <v>36779</v>
+        <v>40623</v>
       </c>
       <c r="L36">
-        <v>28355</v>
+        <v>24511</v>
       </c>
       <c r="M36">
         <v>65134</v>
       </c>
       <c r="O36" s="1">
-        <v>0.56466668713728618</v>
+        <v>0.62368348328062151</v>
       </c>
       <c r="P36" s="1">
-        <v>0.43533331286271382</v>
+        <v>0.37631651671937849</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2164,34 +2163,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E37">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
       <c r="H37" s="1">
-        <v>0.45918367346938777</v>
+        <v>0.46647230320699706</v>
       </c>
       <c r="I37" s="1">
-        <v>0.54081632653061229</v>
+        <v>0.53352769679300294</v>
       </c>
       <c r="K37">
-        <v>29936</v>
+        <v>30368</v>
       </c>
       <c r="L37">
-        <v>27985</v>
+        <v>27553</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
       <c r="O37" s="1">
-        <v>0.516841905353844</v>
+        <v>0.52430034011843718</v>
       </c>
       <c r="P37" s="1">
-        <v>0.48315809464615594</v>
+        <v>0.47569965988156282</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2199,34 +2198,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E38">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
       <c r="H38" s="1">
-        <v>0.30394736842105263</v>
+        <v>0.30921052631578949</v>
       </c>
       <c r="I38" s="1">
-        <v>0.69605263157894737</v>
+        <v>0.69078947368421051</v>
       </c>
       <c r="K38">
-        <v>21849</v>
+        <v>22207</v>
       </c>
       <c r="L38">
-        <v>33435</v>
+        <v>33077</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
       <c r="O38" s="1">
-        <v>0.39521380507922726</v>
+        <v>0.40168945807105128</v>
       </c>
       <c r="P38" s="1">
-        <v>0.60478619492077279</v>
+        <v>0.59831054192894872</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2234,34 +2233,34 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E39">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F39">
         <v>95</v>
       </c>
       <c r="H39" s="1">
-        <v>0.42105263157894735</v>
+        <v>0.58947368421052626</v>
       </c>
       <c r="I39" s="1">
-        <v>0.57894736842105265</v>
+        <v>0.41052631578947368</v>
       </c>
       <c r="K39">
-        <v>3492</v>
+        <v>4472</v>
       </c>
       <c r="L39">
-        <v>3214</v>
+        <v>2234</v>
       </c>
       <c r="M39">
         <v>6706</v>
       </c>
       <c r="O39" s="1">
-        <v>0.52072770653146438</v>
+        <v>0.66686549358783176</v>
       </c>
       <c r="P39" s="1">
-        <v>0.47927229346853562</v>
+        <v>0.33313450641216819</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2269,34 +2268,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="E40">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
       <c r="H40" s="1">
-        <v>0.62388059701492538</v>
+        <v>0.65373134328358207</v>
       </c>
       <c r="I40" s="1">
-        <v>0.37611940298507462</v>
+        <v>0.34626865671641793</v>
       </c>
       <c r="K40">
-        <v>37077</v>
+        <v>38895</v>
       </c>
       <c r="L40">
-        <v>11988</v>
+        <v>10170</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
       <c r="O40" s="1">
-        <v>0.75567104860898804</v>
+        <v>0.79272393763375115</v>
       </c>
       <c r="P40" s="1">
-        <v>0.24432895139101193</v>
+        <v>0.20727606236624885</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2304,34 +2303,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E41">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
       <c r="H41" s="1">
-        <v>0.25396014307613696</v>
+        <v>0.25907000510986206</v>
       </c>
       <c r="I41" s="1">
-        <v>0.7460398569238631</v>
+        <v>0.740929994890138</v>
       </c>
       <c r="K41">
-        <v>48149</v>
+        <v>49069</v>
       </c>
       <c r="L41">
-        <v>98470</v>
+        <v>97550</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
       <c r="O41" s="1">
-        <v>0.32839536485721493</v>
+        <v>0.33467013142907809</v>
       </c>
       <c r="P41" s="1">
-        <v>0.67160463514278501</v>
+        <v>0.66532986857092191</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2339,34 +2338,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E42">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
       <c r="H42" s="1">
-        <v>0.33866666666666667</v>
+        <v>0.34266666666666667</v>
       </c>
       <c r="I42" s="1">
-        <v>0.66133333333333333</v>
+        <v>0.65733333333333333</v>
       </c>
       <c r="K42">
-        <v>25034</v>
+        <v>25280</v>
       </c>
       <c r="L42">
-        <v>37397</v>
+        <v>37151</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
       <c r="O42" s="1">
-        <v>0.40098668930499271</v>
+        <v>0.4049270394515545</v>
       </c>
       <c r="P42" s="1">
-        <v>0.59901331069500729</v>
+        <v>0.5950729605484455</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2409,34 +2408,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E44">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
       <c r="H44" s="1">
-        <v>0.1835518474374255</v>
+        <v>0.18553833929280891</v>
       </c>
       <c r="I44" s="1">
-        <v>0.81644815256257453</v>
+        <v>0.81446166070719106</v>
       </c>
       <c r="K44">
-        <v>44795</v>
+        <v>45290</v>
       </c>
       <c r="L44">
-        <v>140835</v>
+        <v>140340</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
       <c r="O44" s="1">
-        <v>0.24131336529655767</v>
+        <v>0.24397996013575393</v>
       </c>
       <c r="P44" s="1">
-        <v>0.75868663470344233</v>
+        <v>0.75602003986424604</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2444,34 +2443,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E45">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
       <c r="H45" s="1">
-        <v>0.27060505002382085</v>
+        <v>0.27441638875655072</v>
       </c>
       <c r="I45" s="1">
-        <v>0.72939494997617915</v>
+        <v>0.72558361124344928</v>
       </c>
       <c r="K45">
-        <v>54629</v>
+        <v>55238</v>
       </c>
       <c r="L45">
-        <v>106745</v>
+        <v>106136</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
       <c r="O45" s="1">
-        <v>0.33852417365870585</v>
+        <v>0.34229801578940844</v>
       </c>
       <c r="P45" s="1">
-        <v>0.66147582634129409</v>
+        <v>0.65770198421059156</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2479,34 +2478,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E46">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
       <c r="H46" s="1">
-        <v>0.35714285714285715</v>
+        <v>0.36880466472303208</v>
       </c>
       <c r="I46" s="1">
-        <v>0.6428571428571429</v>
+        <v>0.63119533527696792</v>
       </c>
       <c r="K46">
-        <v>23825</v>
+        <v>24533</v>
       </c>
       <c r="L46">
-        <v>30157</v>
+        <v>29449</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
       <c r="O46" s="1">
-        <v>0.44135082064391834</v>
+        <v>0.4544663035826757</v>
       </c>
       <c r="P46" s="1">
-        <v>0.5586491793560816</v>
+        <v>0.5455336964173243</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2549,34 +2548,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E48">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
       <c r="H48" s="1">
-        <v>0.25413711583924348</v>
+        <v>0.2635933806146572</v>
       </c>
       <c r="I48" s="1">
-        <v>0.74586288416075652</v>
+        <v>0.7364066193853428</v>
       </c>
       <c r="K48">
-        <v>20132</v>
+        <v>20640</v>
       </c>
       <c r="L48">
-        <v>47232</v>
+        <v>46724</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
       <c r="O48" s="1">
-        <v>0.29885398729291612</v>
+        <v>0.30639510717890861</v>
       </c>
       <c r="P48" s="1">
-        <v>0.70114601270708388</v>
+        <v>0.69360489282109139</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2619,34 +2618,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E50">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50">
         <v>428</v>
       </c>
       <c r="H50" s="1">
-        <v>0.53971962616822433</v>
+        <v>0.53738317757009346</v>
       </c>
       <c r="I50" s="1">
-        <v>0.46028037383177572</v>
+        <v>0.46261682242990654</v>
       </c>
       <c r="K50">
-        <v>21420</v>
+        <v>21384</v>
       </c>
       <c r="L50">
-        <v>11821</v>
+        <v>11857</v>
       </c>
       <c r="M50">
         <v>33241</v>
       </c>
       <c r="O50" s="1">
-        <v>0.64438494630125442</v>
+        <v>0.64330194639150451</v>
       </c>
       <c r="P50" s="1">
-        <v>0.35561505369874552</v>
+        <v>0.35669805360849555</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2689,34 +2688,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="E52">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="1">
-        <v>0.51974888830761179</v>
+        <v>0.52027203766675389</v>
       </c>
       <c r="I52" s="1">
-        <v>0.48025111169238816</v>
+        <v>0.47972796233324616</v>
       </c>
       <c r="K52">
-        <v>202233</v>
+        <v>202278</v>
       </c>
       <c r="L52">
-        <v>142217</v>
+        <v>142172</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
       <c r="O52" s="1">
-        <v>0.58711859486137319</v>
+        <v>0.58724923791551753</v>
       </c>
       <c r="P52" s="1">
-        <v>0.41288140513862681</v>
+        <v>0.41275076208448253</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2761,37 +2760,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>17207</v>
+        <v>17781</v>
       </c>
       <c r="E54" s="13">
-        <v>29906</v>
+        <v>29332</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.36522828094156601</v>
+        <v>0.37741175471738159</v>
       </c>
       <c r="I54" s="14">
-        <v>0.63477171905843399</v>
+        <v>0.62258824528261836</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1660099</v>
+        <v>1706797</v>
       </c>
       <c r="L54" s="13">
-        <v>2080615</v>
+        <v>2033917</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.44379201403796176</v>
+        <v>0.45627572704034575</v>
       </c>
       <c r="P54" s="14">
-        <v>0.55620798596203824</v>
+        <v>0.5437242729596542</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2942,34 +2941,34 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E59">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F59">
         <v>163</v>
       </c>
       <c r="H59" s="1">
-        <v>0.3987730061349693</v>
+        <v>0.46012269938650308</v>
       </c>
       <c r="I59" s="1">
-        <v>0.60122699386503065</v>
+        <v>0.53987730061349692</v>
       </c>
       <c r="K59">
-        <v>6191</v>
+        <v>7243</v>
       </c>
       <c r="L59">
-        <v>7519</v>
+        <v>6467</v>
       </c>
       <c r="M59">
         <v>13710</v>
       </c>
       <c r="O59" s="1">
-        <v>0.45156819839533185</v>
+        <v>0.52830051057622174</v>
       </c>
       <c r="P59" s="1">
-        <v>0.54843180160466809</v>
+        <v>0.47169948942377826</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,37 +3013,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E61" s="13">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F61" s="13">
         <v>944</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.44491525423728812</v>
+        <v>0.45550847457627119</v>
       </c>
       <c r="I61" s="14">
-        <v>0.55508474576271183</v>
+        <v>0.54449152542372881</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>40183</v>
+        <v>41235</v>
       </c>
       <c r="L61" s="13">
-        <v>35496</v>
+        <v>34444</v>
       </c>
       <c r="M61" s="13">
         <v>75679</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.53096631826530483</v>
+        <v>0.54486713619366012</v>
       </c>
       <c r="P61" s="14">
-        <v>0.46903368173469523</v>
+        <v>0.45513286380633994</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3160,34 +3159,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E65">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F65">
         <v>220</v>
       </c>
       <c r="H65" s="1">
-        <v>0.21818181818181817</v>
+        <v>0.23636363636363636</v>
       </c>
       <c r="I65" s="1">
-        <v>0.78181818181818186</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="K65">
-        <v>4477</v>
+        <v>4692</v>
       </c>
       <c r="L65">
-        <v>10961</v>
+        <v>10746</v>
       </c>
       <c r="M65">
         <v>15438</v>
       </c>
       <c r="O65" s="1">
-        <v>0.28999870449540094</v>
+        <v>0.30392537893509525</v>
       </c>
       <c r="P65" s="1">
-        <v>0.71000129550459901</v>
+        <v>0.69607462106490481</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3230,34 +3229,34 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E67">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F67">
         <v>271</v>
       </c>
       <c r="H67" s="1">
-        <v>0.30627306273062732</v>
+        <v>0.3210332103321033</v>
       </c>
       <c r="I67" s="1">
-        <v>0.69372693726937273</v>
+        <v>0.6789667896678967</v>
       </c>
       <c r="K67">
-        <v>7613</v>
+        <v>7998</v>
       </c>
       <c r="L67">
-        <v>12107</v>
+        <v>11722</v>
       </c>
       <c r="M67">
         <v>19720</v>
       </c>
       <c r="O67" s="1">
-        <v>0.38605476673427991</v>
+        <v>0.40557809330628802</v>
       </c>
       <c r="P67" s="1">
-        <v>0.61394523326572004</v>
+        <v>0.59442190669371198</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3955,37 +3954,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E88" s="13">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.30819366852886404</v>
+        <v>0.31191806331471134</v>
       </c>
       <c r="I88" s="14">
-        <v>0.6918063314711359</v>
+        <v>0.68808193668528861</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>61717</v>
+        <v>62317</v>
       </c>
       <c r="L88" s="13">
-        <v>97760</v>
+        <v>97160</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.38699624397248505</v>
+        <v>0.39075854198411059</v>
       </c>
       <c r="P88" s="14">
-        <v>0.61300375602751489</v>
+        <v>0.60924145801588947</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3996,34 +3995,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E89">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
       <c r="H89" s="1">
-        <v>0.40645161290322579</v>
+        <v>0.4258064516129032</v>
       </c>
       <c r="I89" s="1">
-        <v>0.59354838709677415</v>
+        <v>0.5741935483870968</v>
       </c>
       <c r="K89">
-        <v>6532</v>
+        <v>6639</v>
       </c>
       <c r="L89">
-        <v>5944</v>
+        <v>5837</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
       <c r="O89" s="1">
-        <v>0.52356524527092019</v>
+        <v>0.5321417120872074</v>
       </c>
       <c r="P89" s="1">
-        <v>0.47643475472907981</v>
+        <v>0.46785828791279255</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4033,37 +4032,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E90" s="13">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.40645161290322579</v>
+        <v>0.4258064516129032</v>
       </c>
       <c r="I90" s="14">
-        <v>0.59354838709677415</v>
+        <v>0.5741935483870968</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>6532</v>
+        <v>6639</v>
       </c>
       <c r="L90" s="13">
-        <v>5944</v>
+        <v>5837</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.52356524527092019</v>
+        <v>0.5321417120872074</v>
       </c>
       <c r="P90" s="14">
-        <v>0.47643475472907981</v>
+        <v>0.46785828791279255</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4109,34 +4108,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E92">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
       <c r="H92" s="1">
-        <v>0.54565217391304344</v>
+        <v>0.56086956521739129</v>
       </c>
       <c r="I92" s="1">
-        <v>0.45434782608695651</v>
+        <v>0.43913043478260871</v>
       </c>
       <c r="K92">
-        <v>24509</v>
+        <v>24787</v>
       </c>
       <c r="L92">
-        <v>15980</v>
+        <v>15702</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
       <c r="O92" s="1">
-        <v>0.60532490306009035</v>
+        <v>0.61219096544740548</v>
       </c>
       <c r="P92" s="1">
-        <v>0.3946750969399096</v>
+        <v>0.38780903455259452</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4179,34 +4178,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E94">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
       <c r="H94" s="1">
-        <v>0.34828101644245141</v>
+        <v>0.3632286995515695</v>
       </c>
       <c r="I94" s="1">
-        <v>0.65171898355754854</v>
+        <v>0.63677130044843044</v>
       </c>
       <c r="K94">
-        <v>22772</v>
+        <v>23806</v>
       </c>
       <c r="L94">
-        <v>34895</v>
+        <v>33861</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
       <c r="O94" s="1">
-        <v>0.39488789082144032</v>
+        <v>0.41281842301489585</v>
       </c>
       <c r="P94" s="1">
-        <v>0.60511210917855962</v>
+        <v>0.58718157698510409</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4284,34 +4283,34 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E97">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>97</v>
       </c>
       <c r="H97" s="1">
-        <v>0.41237113402061853</v>
+        <v>0.42268041237113402</v>
       </c>
       <c r="I97" s="1">
-        <v>0.58762886597938147</v>
+        <v>0.57731958762886593</v>
       </c>
       <c r="K97">
-        <v>3906</v>
+        <v>4025</v>
       </c>
       <c r="L97">
-        <v>4265</v>
+        <v>4146</v>
       </c>
       <c r="M97">
         <v>8171</v>
       </c>
       <c r="O97" s="1">
-        <v>0.47803206461877373</v>
+        <v>0.49259576551217721</v>
       </c>
       <c r="P97" s="1">
-        <v>0.52196793538122632</v>
+        <v>0.50740423448782279</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -4319,34 +4318,34 @@
         <v>105</v>
       </c>
       <c r="D98">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E98">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F98">
         <v>117</v>
       </c>
       <c r="H98" s="1">
-        <v>0.76923076923076927</v>
+        <v>0.80341880341880345</v>
       </c>
       <c r="I98" s="1">
-        <v>0.23076923076923078</v>
+        <v>0.19658119658119658</v>
       </c>
       <c r="K98">
-        <v>9111</v>
+        <v>9492</v>
       </c>
       <c r="L98">
-        <v>1417</v>
+        <v>1036</v>
       </c>
       <c r="M98">
         <v>10528</v>
       </c>
       <c r="O98" s="1">
-        <v>0.86540653495440734</v>
+        <v>0.90159574468085102</v>
       </c>
       <c r="P98" s="1">
-        <v>0.13459346504559269</v>
+        <v>9.8404255319148939E-2</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -4354,34 +4353,34 @@
         <v>106</v>
       </c>
       <c r="D99">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E99">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F99">
         <v>70</v>
       </c>
       <c r="H99" s="1">
-        <v>0.3</v>
+        <v>0.47142857142857142</v>
       </c>
       <c r="I99" s="1">
-        <v>0.7</v>
+        <v>0.52857142857142858</v>
       </c>
       <c r="K99">
-        <v>2125</v>
+        <v>2993</v>
       </c>
       <c r="L99">
-        <v>3895</v>
+        <v>3027</v>
       </c>
       <c r="M99">
         <v>6020</v>
       </c>
       <c r="O99" s="1">
-        <v>0.35299003322259137</v>
+        <v>0.49717607973421929</v>
       </c>
       <c r="P99" s="1">
-        <v>0.64700996677740863</v>
+        <v>0.50282392026578071</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -4494,34 +4493,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E103">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
       <c r="H103" s="1">
-        <v>0.45144356955380577</v>
+        <v>0.47244094488188976</v>
       </c>
       <c r="I103" s="1">
-        <v>0.54855643044619418</v>
+        <v>0.52755905511811019</v>
       </c>
       <c r="K103">
-        <v>17824</v>
+        <v>18458</v>
       </c>
       <c r="L103">
-        <v>16020</v>
+        <v>15386</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
       <c r="O103" s="1">
-        <v>0.52665169601701922</v>
+        <v>0.54538470629949176</v>
       </c>
       <c r="P103" s="1">
-        <v>0.47334830398298072</v>
+        <v>0.45461529370050824</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4529,34 +4528,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E104">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F104">
         <v>892</v>
       </c>
       <c r="H104" s="1">
-        <v>0.45964125560538116</v>
+        <v>0.46300448430493274</v>
       </c>
       <c r="I104" s="1">
-        <v>0.54035874439461884</v>
+        <v>0.53699551569506732</v>
       </c>
       <c r="K104">
-        <v>36930</v>
+        <v>37150</v>
       </c>
       <c r="L104">
-        <v>32354</v>
+        <v>32134</v>
       </c>
       <c r="M104">
         <v>69284</v>
       </c>
       <c r="O104" s="1">
-        <v>0.53302349748859768</v>
+        <v>0.5361988337855782</v>
       </c>
       <c r="P104" s="1">
-        <v>0.46697650251140232</v>
+        <v>0.4638011662144218</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4564,34 +4563,34 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E105">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F105">
         <v>145</v>
       </c>
       <c r="H105" s="1">
-        <v>0.60689655172413792</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="I105" s="1">
-        <v>0.39310344827586208</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="K105">
-        <v>8726</v>
+        <v>8861</v>
       </c>
       <c r="L105">
-        <v>3879</v>
+        <v>3744</v>
       </c>
       <c r="M105">
         <v>12605</v>
       </c>
       <c r="O105" s="1">
-        <v>0.69226497421658073</v>
+        <v>0.7029750099166997</v>
       </c>
       <c r="P105" s="1">
-        <v>0.30773502578341927</v>
+        <v>0.2970249900833003</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -4634,34 +4633,34 @@
         <v>114</v>
       </c>
       <c r="D107">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E107">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F107">
         <v>297</v>
       </c>
       <c r="H107" s="1">
-        <v>0.34680134680134678</v>
+        <v>0.36026936026936029</v>
       </c>
       <c r="I107" s="1">
-        <v>0.65319865319865322</v>
+        <v>0.63973063973063971</v>
       </c>
       <c r="K107">
-        <v>9002</v>
+        <v>9362</v>
       </c>
       <c r="L107">
-        <v>15098</v>
+        <v>14738</v>
       </c>
       <c r="M107">
         <v>24100</v>
       </c>
       <c r="O107" s="1">
-        <v>0.37352697095435683</v>
+        <v>0.38846473029045642</v>
       </c>
       <c r="P107" s="1">
-        <v>0.62647302904564317</v>
+        <v>0.61153526970954353</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -4669,19 +4668,19 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E108">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
       <c r="H108" s="1">
-        <v>0.43575418994413406</v>
+        <v>0.43947858472998136</v>
       </c>
       <c r="I108" s="1">
-        <v>0.56424581005586594</v>
+        <v>0.56052141527001864</v>
       </c>
       <c r="K108">
         <v>23109</v>
@@ -4704,34 +4703,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E109">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
       <c r="H109" s="1">
-        <v>0.57655954631379958</v>
+        <v>0.61436672967863892</v>
       </c>
       <c r="I109" s="1">
-        <v>0.42344045368620037</v>
+        <v>0.38563327032136108</v>
       </c>
       <c r="K109">
-        <v>30938</v>
+        <v>32005</v>
       </c>
       <c r="L109">
-        <v>15563</v>
+        <v>14496</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
       <c r="O109" s="1">
-        <v>0.66531902539730325</v>
+        <v>0.68826476849960216</v>
       </c>
       <c r="P109" s="1">
-        <v>0.33468097460269669</v>
+        <v>0.31173523150039784</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4879,34 +4878,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E114">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
       <c r="H114" s="1">
-        <v>0.38085327783558792</v>
+        <v>0.39125910509885536</v>
       </c>
       <c r="I114" s="1">
-        <v>0.61914672216441202</v>
+        <v>0.60874089490114469</v>
       </c>
       <c r="K114">
-        <v>34616</v>
+        <v>35360</v>
       </c>
       <c r="L114">
-        <v>40858</v>
+        <v>40114</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
       <c r="O114" s="1">
-        <v>0.45864801123565729</v>
+        <v>0.46850571057582746</v>
       </c>
       <c r="P114" s="1">
-        <v>0.54135198876434265</v>
+        <v>0.53149428942417254</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4949,34 +4948,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E116">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F116">
         <v>496</v>
       </c>
       <c r="H116" s="1">
-        <v>0.40927419354838712</v>
+        <v>0.41733870967741937</v>
       </c>
       <c r="I116" s="1">
-        <v>0.59072580645161288</v>
+        <v>0.58266129032258063</v>
       </c>
       <c r="K116">
-        <v>18736</v>
+        <v>19156</v>
       </c>
       <c r="L116">
-        <v>17457</v>
+        <v>17037</v>
       </c>
       <c r="M116">
         <v>36193</v>
       </c>
       <c r="O116" s="1">
-        <v>0.51766916254524353</v>
+        <v>0.5292736164451689</v>
       </c>
       <c r="P116" s="1">
-        <v>0.48233083745475647</v>
+        <v>0.47072638355483104</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4984,34 +4983,34 @@
         <v>124</v>
       </c>
       <c r="D117">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E117">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F117">
         <v>223</v>
       </c>
       <c r="H117" s="1">
-        <v>0.42152466367713004</v>
+        <v>0.56502242152466364</v>
       </c>
       <c r="I117" s="1">
-        <v>0.57847533632286996</v>
+        <v>0.4349775784753363</v>
       </c>
       <c r="K117">
-        <v>9113</v>
+        <v>12451</v>
       </c>
       <c r="L117">
-        <v>8621</v>
+        <v>5283</v>
       </c>
       <c r="M117">
         <v>17734</v>
       </c>
       <c r="O117" s="1">
-        <v>0.51387165896018949</v>
+        <v>0.70209766550129693</v>
       </c>
       <c r="P117" s="1">
-        <v>0.48612834103981051</v>
+        <v>0.29790233449870307</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -5054,34 +5053,34 @@
         <v>126</v>
       </c>
       <c r="D119">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E119">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F119">
         <v>87</v>
       </c>
       <c r="H119" s="1">
-        <v>0.75862068965517238</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="I119" s="1">
-        <v>0.2413793103448276</v>
+        <v>0.19540229885057472</v>
       </c>
       <c r="K119">
-        <v>6258</v>
+        <v>6692</v>
       </c>
       <c r="L119">
-        <v>1479</v>
+        <v>1045</v>
       </c>
       <c r="M119">
         <v>7737</v>
       </c>
       <c r="O119" s="1">
-        <v>0.80884063590538968</v>
+        <v>0.86493472922321313</v>
       </c>
       <c r="P119" s="1">
-        <v>0.19115936409461032</v>
+        <v>0.13506527077678687</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -5124,34 +5123,34 @@
         <v>128</v>
       </c>
       <c r="D121">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E121">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F121">
         <v>212</v>
       </c>
       <c r="H121" s="1">
-        <v>0.39150943396226418</v>
+        <v>0.41037735849056606</v>
       </c>
       <c r="I121" s="1">
-        <v>0.60849056603773588</v>
+        <v>0.589622641509434</v>
       </c>
       <c r="K121">
-        <v>7373</v>
+        <v>7805</v>
       </c>
       <c r="L121">
-        <v>7873</v>
+        <v>7441</v>
       </c>
       <c r="M121">
         <v>15246</v>
       </c>
       <c r="O121" s="1">
-        <v>0.48360225632952908</v>
+        <v>0.51193755739210289</v>
       </c>
       <c r="P121" s="1">
-        <v>0.51639774367047098</v>
+        <v>0.48806244260789716</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -5231,37 +5230,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>4955</v>
+        <v>5082</v>
       </c>
       <c r="E124" s="13">
-        <v>5479</v>
+        <v>5352</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.47488978340042171</v>
+        <v>0.4870615296147211</v>
       </c>
       <c r="I124" s="14">
-        <v>0.52511021659957835</v>
+        <v>0.51293847038527884</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>480538</v>
+        <v>491002</v>
       </c>
       <c r="L124" s="13">
-        <v>389084</v>
+        <v>378620</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.55258261635515205</v>
+        <v>0.56461543061238106</v>
       </c>
       <c r="P124" s="14">
-        <v>0.44741738364484801</v>
+        <v>0.43538456938761899</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5307,34 +5306,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="E126">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
       <c r="H126" s="1">
-        <v>0.40076335877862596</v>
+        <v>0.4592875318066158</v>
       </c>
       <c r="I126" s="1">
-        <v>0.5992366412213741</v>
+        <v>0.54071246819338425</v>
       </c>
       <c r="K126">
-        <v>33707</v>
+        <v>38461</v>
       </c>
       <c r="L126">
-        <v>38955</v>
+        <v>34201</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
       <c r="O126" s="1">
-        <v>0.46388758911122735</v>
+        <v>0.52931380914370652</v>
       </c>
       <c r="P126" s="1">
-        <v>0.53611241088877271</v>
+        <v>0.47068619085629354</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5342,34 +5341,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E127">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
       <c r="H127" s="1">
-        <v>0.41385767790262173</v>
+        <v>0.43820224719101125</v>
       </c>
       <c r="I127" s="1">
-        <v>0.58614232209737827</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="K127">
-        <v>20814</v>
+        <v>22109</v>
       </c>
       <c r="L127">
-        <v>20472</v>
+        <v>19177</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
       <c r="O127" s="1">
-        <v>0.50414183984885919</v>
+        <v>0.53550840478612605</v>
       </c>
       <c r="P127" s="1">
-        <v>0.49585816015114081</v>
+        <v>0.46449159521387395</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5412,34 +5411,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E129">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F129">
         <v>209</v>
       </c>
       <c r="H129" s="1">
-        <v>0.29665071770334928</v>
+        <v>0.30622009569377989</v>
       </c>
       <c r="I129" s="1">
-        <v>0.70334928229665072</v>
+        <v>0.69377990430622005</v>
       </c>
       <c r="K129">
-        <v>5610</v>
+        <v>5711</v>
       </c>
       <c r="L129">
-        <v>11494</v>
+        <v>11393</v>
       </c>
       <c r="M129">
         <v>17104</v>
       </c>
       <c r="O129" s="1">
-        <v>0.3279934518241347</v>
+        <v>0.33389850327408793</v>
       </c>
       <c r="P129" s="1">
-        <v>0.67200654817586525</v>
+        <v>0.66610149672591201</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5447,34 +5446,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E130">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F130">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H130" s="1">
-        <v>0.367983367983368</v>
+        <v>0.37708333333333333</v>
       </c>
       <c r="I130" s="1">
-        <v>0.63201663201663205</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="K130">
-        <v>17597</v>
+        <v>17928</v>
       </c>
       <c r="L130">
-        <v>21825</v>
+        <v>21374</v>
       </c>
       <c r="M130">
-        <v>39422</v>
+        <v>39302</v>
       </c>
       <c r="O130" s="1">
-        <v>0.44637512049109634</v>
+        <v>0.45615999185792072</v>
       </c>
       <c r="P130" s="1">
-        <v>0.55362487950890371</v>
+        <v>0.54384000814207933</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5482,34 +5481,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E131">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F131">
         <v>192</v>
       </c>
       <c r="H131" s="1">
-        <v>0.453125</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="I131" s="1">
-        <v>0.546875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="K131">
-        <v>8460</v>
+        <v>9060</v>
       </c>
       <c r="L131">
-        <v>8049</v>
+        <v>7449</v>
       </c>
       <c r="M131">
         <v>16509</v>
       </c>
       <c r="O131" s="1">
-        <v>0.51244775576958024</v>
+        <v>0.5487915682355079</v>
       </c>
       <c r="P131" s="1">
-        <v>0.48755224423041976</v>
+        <v>0.4512084317644921</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5517,34 +5516,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="E132">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
       <c r="H132" s="1">
-        <v>0.39502762430939226</v>
+        <v>0.43508287292817682</v>
       </c>
       <c r="I132" s="1">
-        <v>0.60497237569060769</v>
+        <v>0.56491712707182318</v>
       </c>
       <c r="K132">
-        <v>28449</v>
+        <v>30850</v>
       </c>
       <c r="L132">
-        <v>31937</v>
+        <v>29536</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
       <c r="O132" s="1">
-        <v>0.4711191335740072</v>
+        <v>0.51088000529924149</v>
       </c>
       <c r="P132" s="1">
-        <v>0.52888086642599275</v>
+        <v>0.48911999470075845</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5552,34 +5551,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E133">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F133">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H133" s="1">
-        <v>0.18627450980392157</v>
+        <v>0.23452768729641693</v>
       </c>
       <c r="I133" s="1">
-        <v>0.81372549019607843</v>
+        <v>0.76547231270358307</v>
       </c>
       <c r="K133">
-        <v>5644</v>
+        <v>7238</v>
       </c>
       <c r="L133">
-        <v>16943</v>
+        <v>15469</v>
       </c>
       <c r="M133">
-        <v>22587</v>
+        <v>22707</v>
       </c>
       <c r="O133" s="1">
-        <v>0.24987824855005092</v>
+        <v>0.31875633064693709</v>
       </c>
       <c r="P133" s="1">
-        <v>0.75012175144994908</v>
+        <v>0.68124366935306291</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5587,34 +5586,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E134">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="F134">
         <v>431</v>
       </c>
       <c r="H134" s="1">
-        <v>0.3642691415313225</v>
+        <v>0.41299303944315546</v>
       </c>
       <c r="I134" s="1">
-        <v>0.6357308584686775</v>
+        <v>0.58700696055684454</v>
       </c>
       <c r="K134">
-        <v>15071</v>
+        <v>17405</v>
       </c>
       <c r="L134">
-        <v>18840</v>
+        <v>16506</v>
       </c>
       <c r="M134">
         <v>33911</v>
       </c>
       <c r="O134" s="1">
-        <v>0.44442806169089677</v>
+        <v>0.51325528589543212</v>
       </c>
       <c r="P134" s="1">
-        <v>0.55557193830910323</v>
+        <v>0.48674471410456782</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5622,34 +5621,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E135">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
       <c r="H135" s="1">
-        <v>0.37527593818984545</v>
+        <v>0.46799116997792495</v>
       </c>
       <c r="I135" s="1">
-        <v>0.6247240618101545</v>
+        <v>0.53200883002207511</v>
       </c>
       <c r="K135">
-        <v>15383</v>
+        <v>19134</v>
       </c>
       <c r="L135">
-        <v>14932</v>
+        <v>11181</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
       <c r="O135" s="1">
-        <v>0.50743856176810165</v>
+        <v>0.63117268678871841</v>
       </c>
       <c r="P135" s="1">
-        <v>0.49256143823189841</v>
+        <v>0.36882731321128154</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5657,34 +5656,34 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E136">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F136">
         <v>193</v>
       </c>
       <c r="H136" s="1">
-        <v>0.39378238341968913</v>
+        <v>0.43005181347150256</v>
       </c>
       <c r="I136" s="1">
-        <v>0.60621761658031093</v>
+        <v>0.56994818652849744</v>
       </c>
       <c r="K136">
-        <v>6725</v>
+        <v>7396</v>
       </c>
       <c r="L136">
-        <v>6875</v>
+        <v>6204</v>
       </c>
       <c r="M136">
         <v>13600</v>
       </c>
       <c r="O136" s="1">
-        <v>0.49448529411764708</v>
+        <v>0.54382352941176471</v>
       </c>
       <c r="P136" s="1">
-        <v>0.50551470588235292</v>
+        <v>0.45617647058823529</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5692,34 +5691,34 @@
         <v>145</v>
       </c>
       <c r="D137">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E137">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F137">
         <v>295</v>
       </c>
       <c r="H137" s="1">
-        <v>0.3728813559322034</v>
+        <v>0.39661016949152544</v>
       </c>
       <c r="I137" s="1">
-        <v>0.6271186440677966</v>
+        <v>0.60338983050847461</v>
       </c>
       <c r="K137">
-        <v>11231</v>
+        <v>11748</v>
       </c>
       <c r="L137">
-        <v>13240</v>
+        <v>12723</v>
       </c>
       <c r="M137">
         <v>24471</v>
       </c>
       <c r="O137" s="1">
-        <v>0.45895141187528093</v>
+        <v>0.48007846021821748</v>
       </c>
       <c r="P137" s="1">
-        <v>0.54104858812471901</v>
+        <v>0.51992153978178257</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5729,37 +5728,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>1872</v>
+        <v>2063</v>
       </c>
       <c r="E138" s="13">
-        <v>3099</v>
+        <v>2908</v>
       </c>
       <c r="F138" s="13">
         <v>4971</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.37658418829209417</v>
+        <v>0.41500704083685375</v>
       </c>
       <c r="I138" s="14">
-        <v>0.62341581170790583</v>
+        <v>0.5849929591631462</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>183442</v>
+        <v>201791</v>
       </c>
       <c r="L138" s="13">
-        <v>216897</v>
+        <v>198548</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.45821666137948092</v>
+        <v>0.50405031735604078</v>
       </c>
       <c r="P138" s="14">
-        <v>0.54178333862051908</v>
+        <v>0.49594968264395922</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5769,37 +5768,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>25260</v>
+        <v>26173</v>
       </c>
       <c r="E139" s="13">
-        <v>40751</v>
+        <v>39838</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.38266349547802642</v>
+        <v>0.39649452363999937</v>
       </c>
       <c r="I139" s="14">
-        <v>0.61733650452197364</v>
+        <v>0.60350547636000063</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2439469</v>
+        <v>2516739</v>
       </c>
       <c r="L139" s="13">
-        <v>2836467</v>
+        <v>2759197</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.46237653375628512</v>
+        <v>0.47702227623686111</v>
       </c>
       <c r="P139" s="14">
-        <v>0.53762346624371482</v>
+        <v>0.52297772376313889</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE1CC47-F05E-4273-B602-AB16FFB4FE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85872C4C-5C8A-4974-9C64-6F5A2BC06FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AEA88A0-3633-4E54-9F67-A5D94C64BFE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAF7D468-4977-4F0B-8145-274FDB38B68C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -573,6 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -888,14 +888,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE76D3D8-0441-40B4-8512-DBA26E5FE4C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888A7E1E-9B66-4B31-A610-D8DC378DD21D}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,95 +906,97 @@
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1014,10 +1016,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1029,10 +1031,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="12">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="12">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1049,10 +1051,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="12">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="12">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1064,10 +1066,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="12">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="12">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1081,10 +1083,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1093,10 +1095,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="12">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1113,10 +1115,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="12">
         <v>0.38938053097345132</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="12">
         <v>0.61061946902654862</v>
       </c>
       <c r="K7">
@@ -1128,10 +1130,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="12">
         <v>0.48131011810544261</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="12">
         <v>0.51868988189455745</v>
       </c>
     </row>
@@ -1148,10 +1150,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="12">
         <v>0.25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="12">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1163,10 +1165,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="12">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="12">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1226,10 +1228,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="12">
         <v>0.38740920096852299</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="12">
         <v>0.61259079903147695</v>
       </c>
       <c r="K10">
@@ -1241,10 +1243,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="12">
         <v>0.46476775574792889</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="12">
         <v>0.53523224425207117</v>
       </c>
     </row>
@@ -1261,10 +1263,10 @@
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="12">
         <v>0.25191815856777494</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="12">
         <v>0.74808184143222511</v>
       </c>
       <c r="K11">
@@ -1276,10 +1278,10 @@
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="12">
         <v>0.30980340414302676</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="12">
         <v>0.69019659585697324</v>
       </c>
     </row>
@@ -1296,10 +1298,10 @@
       <c r="F12">
         <v>572</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="12">
         <v>0.31293706293706292</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="12">
         <v>0.68706293706293708</v>
       </c>
       <c r="K12">
@@ -1311,10 +1313,10 @@
       <c r="M12">
         <v>43765</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="12">
         <v>0.39330515251913628</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="12">
         <v>0.60669484748086366</v>
       </c>
     </row>
@@ -1323,34 +1325,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E13">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.36507936507936506</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.63492063492063489</v>
+      <c r="H13" s="12">
+        <v>0.37918871252204583</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.62081128747795411</v>
       </c>
       <c r="K13">
-        <v>20480</v>
+        <v>21415</v>
       </c>
       <c r="L13">
-        <v>27203</v>
+        <v>26268</v>
       </c>
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="1">
-        <v>0.4295031772329761</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.57049682276702385</v>
+      <c r="O13" s="12">
+        <v>0.44911184279512617</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.55088815720487383</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1366,10 +1368,10 @@
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="12">
         <v>0.43541102077687444</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="12">
         <v>0.56458897922312556</v>
       </c>
       <c r="K14">
@@ -1381,10 +1383,10 @@
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="12">
         <v>0.50807176344481864</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="12">
         <v>0.49192823655518142</v>
       </c>
     </row>
@@ -1401,10 +1403,10 @@
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="12">
         <v>0.44295991778006166</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="12">
         <v>0.55704008221993828</v>
       </c>
       <c r="K15">
@@ -1416,10 +1418,10 @@
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="12">
         <v>0.54189523502205017</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="12">
         <v>0.45810476497794989</v>
       </c>
     </row>
@@ -1428,34 +1430,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="E16">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.54151291512915134</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.45848708487084872</v>
+      <c r="H16" s="12">
+        <v>0.56365313653136528</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.43634686346863466</v>
       </c>
       <c r="K16">
-        <v>50620</v>
+        <v>52645</v>
       </c>
       <c r="L16">
-        <v>31860</v>
+        <v>29835</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="1">
-        <v>0.61372453928225024</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.38627546071774976</v>
+      <c r="O16" s="12">
+        <v>0.63827594568380208</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.36172405431619786</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1471,10 +1473,10 @@
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="12">
         <v>0.3069387755102041</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="12">
         <v>0.6930612244897959</v>
       </c>
       <c r="K17">
@@ -1486,10 +1488,10 @@
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="12">
         <v>0.35478722886642078</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="12">
         <v>0.64521277113357922</v>
       </c>
     </row>
@@ -1498,34 +1500,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="E18">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.38886711093688747</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.61113288906311247</v>
+      <c r="H18" s="12">
+        <v>0.39317914543316346</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.60682085456683654</v>
       </c>
       <c r="K18">
-        <v>93521</v>
+        <v>94351</v>
       </c>
       <c r="L18">
-        <v>100700</v>
+        <v>99870</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="1">
-        <v>0.48151847637485135</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.51848152362514865</v>
+      <c r="O18" s="12">
+        <v>0.4857919586450487</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0.51420804135495135</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1541,10 +1543,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="12">
         <v>0.34345549738219894</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="12">
         <v>0.65654450261780106</v>
       </c>
       <c r="K19">
@@ -1556,10 +1558,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="12">
         <v>0.43639668070837856</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="12">
         <v>0.56360331929162144</v>
       </c>
     </row>
@@ -1576,10 +1578,10 @@
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="12">
         <v>0.42922374429223742</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="12">
         <v>0.57077625570776258</v>
       </c>
       <c r="K20">
@@ -1591,10 +1593,10 @@
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="12">
         <v>0.5050858640470649</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="12">
         <v>0.49491413595293515</v>
       </c>
     </row>
@@ -1611,10 +1613,10 @@
       <c r="F21">
         <v>1295</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="12">
         <v>0.30965250965250968</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="12">
         <v>0.69034749034749032</v>
       </c>
       <c r="K21">
@@ -1626,10 +1628,10 @@
       <c r="M21">
         <v>102046</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="12">
         <v>0.38302334241420538</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="12">
         <v>0.61697665758579467</v>
       </c>
     </row>
@@ -1638,34 +1640,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E22">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.37659033078880405</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.62340966921119589</v>
+      <c r="H22" s="12">
+        <v>0.38252756573367258</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0.61747243426632736</v>
       </c>
       <c r="K22">
-        <v>42775</v>
+        <v>43309</v>
       </c>
       <c r="L22">
-        <v>52837</v>
+        <v>52303</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="1">
-        <v>0.44738108187256831</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.55261891812743169</v>
+      <c r="O22" s="12">
+        <v>0.45296615487595698</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.54703384512404296</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1681,10 +1683,10 @@
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="12">
         <v>0.30389308541545612</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="12">
         <v>0.69610691458454388</v>
       </c>
       <c r="K23">
@@ -1696,10 +1698,10 @@
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="12">
         <v>0.37636090363238245</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="12">
         <v>0.6236390963676175</v>
       </c>
     </row>
@@ -1716,10 +1718,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="12">
         <v>0.36271186440677966</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="12">
         <v>0.63728813559322028</v>
       </c>
       <c r="K24">
@@ -1731,10 +1733,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="12">
         <v>0.45690880779906573</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="12">
         <v>0.54309119220093427</v>
       </c>
     </row>
@@ -1751,10 +1753,10 @@
       <c r="F25">
         <v>1004</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="12">
         <v>0.4113545816733068</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="12">
         <v>0.58864541832669326</v>
       </c>
       <c r="K25">
@@ -1766,10 +1768,10 @@
       <c r="M25">
         <v>79796</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="12">
         <v>0.50096496064965668</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="12">
         <v>0.49903503935034338</v>
       </c>
     </row>
@@ -1786,10 +1788,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="12">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="12">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1801,10 +1803,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="12">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="12">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1821,10 +1823,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="12">
         <v>0.34262948207171312</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="12">
         <v>0.65737051792828682</v>
       </c>
       <c r="K27">
@@ -1836,10 +1838,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="12">
         <v>0.39521565049921442</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="12">
         <v>0.60478434950078552</v>
       </c>
     </row>
@@ -1848,34 +1850,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="E28">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.30814215024741343</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.69185784975258657</v>
+      <c r="H28" s="12">
+        <v>0.31129104813315339</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.68870895186684655</v>
       </c>
       <c r="K28">
-        <v>65436</v>
+        <v>66102</v>
       </c>
       <c r="L28">
-        <v>105898</v>
+        <v>105232</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.38192069291559178</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.61807930708440828</v>
+      <c r="O28" s="12">
+        <v>0.3858078373235902</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0.61419216267640986</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1883,34 +1885,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1530</v>
+        <v>1542</v>
       </c>
       <c r="E29">
-        <v>1579</v>
+        <v>1567</v>
       </c>
       <c r="F29">
         <v>3109</v>
       </c>
-      <c r="H29" s="1">
-        <v>0.49211965262142165</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.50788034737857835</v>
+      <c r="H29" s="12">
+        <v>0.49597941460276618</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.50402058539723382</v>
       </c>
       <c r="K29">
-        <v>149377</v>
+        <v>150224</v>
       </c>
       <c r="L29">
-        <v>119040</v>
+        <v>118193</v>
       </c>
       <c r="M29">
         <v>268417</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.5565109512437737</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.4434890487562263</v>
+      <c r="O29" s="12">
+        <v>0.55966648908228611</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.44033351091771383</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1918,34 +1920,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E30">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="1">
-        <v>0.40963855421686746</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.59036144578313254</v>
+      <c r="H30" s="12">
+        <v>0.41767068273092367</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0.58232931726907633</v>
       </c>
       <c r="K30">
-        <v>20791</v>
+        <v>21137</v>
       </c>
       <c r="L30">
-        <v>19949</v>
+        <v>19603</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="1">
-        <v>0.51033382425134999</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.48966617574864996</v>
+      <c r="O30" s="12">
+        <v>0.51882670594010805</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0.48117329405989201</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1961,10 +1963,10 @@
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="12">
         <v>0.36196911196911197</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="12">
         <v>0.63803088803088803</v>
       </c>
       <c r="K31">
@@ -1976,10 +1978,10 @@
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="12">
         <v>0.44280707531636637</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="12">
         <v>0.55719292468363357</v>
       </c>
     </row>
@@ -1988,34 +1990,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E32">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.50664136622390887</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.49335863377609107</v>
+      <c r="H32" s="12">
+        <v>0.51802656546489567</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.48197343453510438</v>
       </c>
       <c r="K32">
-        <v>27187</v>
+        <v>27919</v>
       </c>
       <c r="L32">
-        <v>17640</v>
+        <v>16908</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="1">
-        <v>0.60648716175519213</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.39351283824480782</v>
+      <c r="O32" s="12">
+        <v>0.62281660606331002</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0.37718339393668993</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2023,34 +2025,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E33">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
-      <c r="H33" s="1">
-        <v>0.38425492033739456</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.61574507966260539</v>
+      <c r="H33" s="12">
+        <v>0.38612933458294285</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0.61387066541705715</v>
       </c>
       <c r="K33">
-        <v>37049</v>
+        <v>37148</v>
       </c>
       <c r="L33">
-        <v>38797</v>
+        <v>38698</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
-      <c r="O33" s="1">
-        <v>0.48847665005405688</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.51152334994594306</v>
+      <c r="O33" s="12">
+        <v>0.48978192653534797</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0.51021807346465209</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2058,34 +2060,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="E34">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="1">
-        <v>0.36283961437335671</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.63716038562664334</v>
+      <c r="H34" s="12">
+        <v>0.38124452234881684</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.61875547765118322</v>
       </c>
       <c r="K34">
-        <v>38873</v>
+        <v>40520</v>
       </c>
       <c r="L34">
-        <v>48565</v>
+        <v>46918</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="1">
-        <v>0.44457787232095886</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.5554221276790412</v>
+      <c r="O34" s="12">
+        <v>0.46341407625974979</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0.53658592374025027</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2101,10 +2103,10 @@
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="12">
         <v>0.4642857142857143</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="12">
         <v>0.5357142857142857</v>
       </c>
       <c r="K35">
@@ -2116,10 +2118,10 @@
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="12">
         <v>0.54614880733651805</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="12">
         <v>0.45385119266348195</v>
       </c>
     </row>
@@ -2136,10 +2138,10 @@
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="12">
         <v>0.49576783555018139</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="12">
         <v>0.50423216444981867</v>
       </c>
       <c r="K36">
@@ -2151,10 +2153,10 @@
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="12">
         <v>0.62368348328062151</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="12">
         <v>0.37631651671937849</v>
       </c>
     </row>
@@ -2171,10 +2173,10 @@
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="12">
         <v>0.46647230320699706</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="12">
         <v>0.53352769679300294</v>
       </c>
       <c r="K37">
@@ -2186,10 +2188,10 @@
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="12">
         <v>0.52430034011843718</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="12">
         <v>0.47569965988156282</v>
       </c>
     </row>
@@ -2206,10 +2208,10 @@
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="12">
         <v>0.30921052631578949</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="12">
         <v>0.69078947368421051</v>
       </c>
       <c r="K38">
@@ -2221,10 +2223,10 @@
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="12">
         <v>0.40168945807105128</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="12">
         <v>0.59831054192894872</v>
       </c>
     </row>
@@ -2241,10 +2243,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="12">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="12">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2256,10 +2258,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="12">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="12">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2268,34 +2270,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E40">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="1">
-        <v>0.65373134328358207</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.34626865671641793</v>
+      <c r="H40" s="12">
+        <v>0.66119402985074627</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0.33880597014925373</v>
       </c>
       <c r="K40">
-        <v>38895</v>
+        <v>39308</v>
       </c>
       <c r="L40">
-        <v>10170</v>
+        <v>9757</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="1">
-        <v>0.79272393763375115</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.20727606236624885</v>
+      <c r="O40" s="12">
+        <v>0.80114134311627438</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0.19885865688372567</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2311,10 +2313,10 @@
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="12">
         <v>0.25907000510986206</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="12">
         <v>0.740929994890138</v>
       </c>
       <c r="K41">
@@ -2326,10 +2328,10 @@
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="12">
         <v>0.33467013142907809</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="12">
         <v>0.66532986857092191</v>
       </c>
     </row>
@@ -2346,10 +2348,10 @@
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="12">
         <v>0.34266666666666667</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="12">
         <v>0.65733333333333333</v>
       </c>
       <c r="K42">
@@ -2361,10 +2363,10 @@
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="12">
         <v>0.4049270394515545</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="12">
         <v>0.5950729605484455</v>
       </c>
     </row>
@@ -2373,34 +2375,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E43">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="1">
-        <v>0.30824372759856633</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.69175627240143367</v>
+      <c r="H43" s="12">
+        <v>0.31063321385902032</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0.68936678614097968</v>
       </c>
       <c r="K43">
-        <v>24490</v>
+        <v>24550</v>
       </c>
       <c r="L43">
-        <v>39504</v>
+        <v>39444</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="1">
-        <v>0.38269212738694253</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.61730787261305753</v>
+      <c r="O43" s="12">
+        <v>0.38362971528580803</v>
+      </c>
+      <c r="P43" s="12">
+        <v>0.61637028471419197</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2408,34 +2410,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E44">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="F44">
         <v>2517</v>
       </c>
-      <c r="H44" s="1">
-        <v>0.18553833929280891</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.81446166070719106</v>
+      <c r="H44" s="12">
+        <v>0.18792212951926898</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0.81207787048073099</v>
       </c>
       <c r="K44">
-        <v>45290</v>
+        <v>45937</v>
       </c>
       <c r="L44">
-        <v>140340</v>
+        <v>139693</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="1">
-        <v>0.24397996013575393</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.75602003986424604</v>
+      <c r="O44" s="12">
+        <v>0.24746538813769325</v>
+      </c>
+      <c r="P44" s="12">
+        <v>0.75253461186230675</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2443,34 +2445,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E45">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="1">
-        <v>0.27441638875655072</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.72558361124344928</v>
+      <c r="H45" s="12">
+        <v>0.27584564078132445</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0.72415435921867555</v>
       </c>
       <c r="K45">
-        <v>55238</v>
+        <v>55454</v>
       </c>
       <c r="L45">
-        <v>106136</v>
+        <v>105920</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="1">
-        <v>0.34229801578940844</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.65770198421059156</v>
+      <c r="O45" s="12">
+        <v>0.34363652137271183</v>
+      </c>
+      <c r="P45" s="12">
+        <v>0.65636347862728817</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2486,10 +2488,10 @@
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="12">
         <v>0.36880466472303208</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="12">
         <v>0.63119533527696792</v>
       </c>
       <c r="K46">
@@ -2501,10 +2503,10 @@
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="12">
         <v>0.4544663035826757</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="12">
         <v>0.5455336964173243</v>
       </c>
     </row>
@@ -2513,34 +2515,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E47">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="1">
-        <v>0.30133657351154314</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.69866342648845692</v>
+      <c r="H47" s="12">
+        <v>0.32320777642770354</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0.67679222357229651</v>
       </c>
       <c r="K47">
-        <v>21471</v>
+        <v>22885</v>
       </c>
       <c r="L47">
-        <v>41199</v>
+        <v>39785</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="1">
-        <v>0.34260411680229774</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0.65739588319770226</v>
+      <c r="O47" s="12">
+        <v>0.36516674644965691</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0.63483325355034304</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2556,10 +2558,10 @@
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="12">
         <v>0.2635933806146572</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="12">
         <v>0.7364066193853428</v>
       </c>
       <c r="K48">
@@ -2571,10 +2573,10 @@
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="12">
         <v>0.30639510717890861</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="12">
         <v>0.69360489282109139</v>
       </c>
     </row>
@@ -2591,10 +2593,10 @@
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="12">
         <v>0.40768094534711963</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="12">
         <v>0.59231905465288037</v>
       </c>
       <c r="K49">
@@ -2606,10 +2608,10 @@
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="12">
         <v>0.49114260407440213</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="12">
         <v>0.50885739592559787</v>
       </c>
     </row>
@@ -2618,34 +2620,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E50">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="1">
-        <v>0.53738317757009346</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.46261682242990654</v>
+      <c r="H50" s="12">
+        <v>0.54439252336448596</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0.45560747663551404</v>
       </c>
       <c r="K50">
-        <v>21384</v>
+        <v>21627</v>
       </c>
       <c r="L50">
-        <v>11857</v>
+        <v>11614</v>
       </c>
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="1">
-        <v>0.64330194639150451</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0.35669805360849555</v>
+      <c r="O50" s="12">
+        <v>0.65061219578231699</v>
+      </c>
+      <c r="P50" s="12">
+        <v>0.34938780421768301</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2653,34 +2655,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E51">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="1">
-        <v>0.34074733096085408</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.65925266903914592</v>
+      <c r="H51" s="12">
+        <v>0.34608540925266906</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0.65391459074733094</v>
       </c>
       <c r="K51">
-        <v>36483</v>
+        <v>37017</v>
       </c>
       <c r="L51">
-        <v>53787</v>
+        <v>53253</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="1">
-        <v>0.40415420405450314</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.5958457959454968</v>
+      <c r="O51" s="12">
+        <v>0.41006979062811566</v>
+      </c>
+      <c r="P51" s="12">
+        <v>0.58993020937188434</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2696,10 +2698,10 @@
       <c r="F52">
         <v>3823</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="12">
         <v>0.52027203766675389</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="12">
         <v>0.47972796233324616</v>
       </c>
       <c r="K52">
@@ -2711,10 +2713,10 @@
       <c r="M52">
         <v>344450</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="12">
         <v>0.58724923791551753</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="12">
         <v>0.41275076208448253</v>
       </c>
     </row>
@@ -2731,10 +2733,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="12">
         <v>0.8</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="12">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2746,10 +2748,10 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="12">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="12">
         <v>0.1043158505902845</v>
       </c>
     </row>
@@ -2760,37 +2762,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>17781</v>
+        <v>17926</v>
       </c>
       <c r="E54" s="13">
-        <v>29332</v>
+        <v>29187</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.37741175471738159</v>
+        <v>0.38048946150743956</v>
       </c>
       <c r="I54" s="14">
-        <v>0.62258824528261836</v>
+        <v>0.61951053849256044</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1706797</v>
+        <v>1718985</v>
       </c>
       <c r="L54" s="13">
-        <v>2033917</v>
+        <v>2021729</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.45627572704034575</v>
+        <v>0.45953392854946945</v>
       </c>
       <c r="P54" s="14">
-        <v>0.5437242729596542</v>
+        <v>0.54046607145053061</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2809,10 +2811,10 @@
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="12">
         <v>0.6</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="12">
         <v>0.4</v>
       </c>
       <c r="K55">
@@ -2824,10 +2826,10 @@
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="12">
         <v>0.70361161999476574</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="12">
         <v>0.29638838000523421</v>
       </c>
     </row>
@@ -2844,10 +2846,10 @@
       <c r="F56">
         <v>82</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="12">
         <v>0.52439024390243905</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="12">
         <v>0.47560975609756095</v>
       </c>
       <c r="K56">
@@ -2859,10 +2861,10 @@
       <c r="M56">
         <v>7030</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="12">
         <v>0.58335704125177812</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="12">
         <v>0.41664295874822188</v>
       </c>
     </row>
@@ -2879,10 +2881,10 @@
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="12">
         <v>0.25206611570247933</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="12">
         <v>0.74793388429752061</v>
       </c>
       <c r="K57">
@@ -2894,10 +2896,10 @@
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="12">
         <v>0.33113873380385545</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="12">
         <v>0.6688612661961445</v>
       </c>
     </row>
@@ -2914,10 +2916,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="12">
         <v>0.5</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="12">
         <v>0.5</v>
       </c>
       <c r="K58">
@@ -2929,10 +2931,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="12">
         <v>0.55861177773675463</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="12">
         <v>0.44138822226324531</v>
       </c>
     </row>
@@ -2949,10 +2951,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="12">
         <v>0.46012269938650308</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="12">
         <v>0.53987730061349692</v>
       </c>
       <c r="K59">
@@ -2964,10 +2966,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="12">
         <v>0.52830051057622174</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="12">
         <v>0.47169948942377826</v>
       </c>
     </row>
@@ -2984,10 +2986,10 @@
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="12">
         <v>0.44230769230769229</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="12">
         <v>0.55769230769230771</v>
       </c>
       <c r="K60">
@@ -2999,10 +3001,10 @@
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="12">
         <v>0.58436268068331143</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="12">
         <v>0.41563731931668857</v>
       </c>
     </row>
@@ -3062,10 +3064,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="12">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="12">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3077,10 +3079,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="12">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="12">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3097,10 +3099,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="12">
         <v>0.15254237288135594</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="12">
         <v>0.84745762711864403</v>
       </c>
       <c r="K63">
@@ -3112,10 +3114,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="12">
         <v>0.22075426375210186</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="12">
         <v>0.77924573624789817</v>
       </c>
     </row>
@@ -3132,10 +3134,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="12">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="12">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3147,10 +3149,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="12">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="12">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3167,10 +3169,10 @@
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="12">
         <v>0.23636363636363636</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="12">
         <v>0.76363636363636367</v>
       </c>
       <c r="K65">
@@ -3182,10 +3184,10 @@
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="12">
         <v>0.30392537893509525</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="12">
         <v>0.69607462106490481</v>
       </c>
     </row>
@@ -3194,34 +3196,34 @@
         <v>72</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E66">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="1">
-        <v>0.31304347826086959</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.68695652173913047</v>
+      <c r="H66" s="12">
+        <v>0.33913043478260868</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0.66086956521739126</v>
       </c>
       <c r="K66">
-        <v>2921</v>
+        <v>3093</v>
       </c>
       <c r="L66">
-        <v>4847</v>
+        <v>4675</v>
       </c>
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="1">
-        <v>0.37602986611740474</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0.62397013388259526</v>
+      <c r="O66" s="12">
+        <v>0.39817198764160661</v>
+      </c>
+      <c r="P66" s="12">
+        <v>0.60182801235839345</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3237,10 +3239,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="12">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="12">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3252,10 +3254,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="12">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="12">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3272,10 +3274,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="12">
         <v>0.5</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="12">
         <v>0.5</v>
       </c>
       <c r="K68">
@@ -3287,10 +3289,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="12">
         <v>0.60193920335429774</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="12">
         <v>0.39806079664570232</v>
       </c>
     </row>
@@ -3307,10 +3309,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="12">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="12">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3322,10 +3324,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="12">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="12">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3342,10 +3344,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="12">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="12">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3357,10 +3359,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="12">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="12">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3369,34 +3371,34 @@
         <v>77</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E71">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="1">
-        <v>0.37179487179487181</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0.62820512820512819</v>
+      <c r="H71" s="12">
+        <v>0.39743589743589741</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0.60256410256410253</v>
       </c>
       <c r="K71">
-        <v>2646</v>
+        <v>2754</v>
       </c>
       <c r="L71">
-        <v>3242</v>
+        <v>3134</v>
       </c>
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="1">
-        <v>0.44938858695652173</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0.55061141304347827</v>
+      <c r="O71" s="12">
+        <v>0.46773097826086957</v>
+      </c>
+      <c r="P71" s="12">
+        <v>0.53226902173913049</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -3412,10 +3414,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="12">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="12">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3427,10 +3429,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="12">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="12">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3444,10 +3446,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="12">
         <v>0</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="12">
         <v>1</v>
       </c>
       <c r="L73">
@@ -3456,10 +3458,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="12">
         <v>0</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3476,10 +3478,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="12">
         <v>5.0632911392405063E-2</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="12">
         <v>0.94936708860759489</v>
       </c>
       <c r="K74">
@@ -3491,10 +3493,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="12">
         <v>6.8953804347826081E-2</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="12">
         <v>0.93104619565217395</v>
       </c>
     </row>
@@ -3511,10 +3513,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="12">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="12">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3526,10 +3528,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="12">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="12">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3546,10 +3548,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="12">
         <v>0.40384615384615385</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="12">
         <v>0.59615384615384615</v>
       </c>
       <c r="K76">
@@ -3561,10 +3563,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="12">
         <v>0.52276100940128645</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="12">
         <v>0.4772389905987135</v>
       </c>
     </row>
@@ -3581,10 +3583,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="12">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="12">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3596,10 +3598,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="12">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="12">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3616,10 +3618,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="12">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="12">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3631,10 +3633,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="12">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="12">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3651,10 +3653,10 @@
       <c r="F79">
         <v>14</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="12">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="12">
         <v>0.7142857142857143</v>
       </c>
       <c r="K79">
@@ -3666,10 +3668,10 @@
       <c r="M79">
         <v>1080</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="12">
         <v>0.34074074074074073</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79" s="12">
         <v>0.65925925925925921</v>
       </c>
     </row>
@@ -3686,10 +3688,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="12">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="12">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3701,10 +3703,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="12">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="12">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3718,10 +3720,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="12">
         <v>0</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="12">
         <v>1</v>
       </c>
       <c r="L81">
@@ -3730,10 +3732,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="12">
         <v>0</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3750,10 +3752,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="12">
         <v>0.4358974358974359</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="12">
         <v>0.5641025641025641</v>
       </c>
       <c r="K82">
@@ -3765,10 +3767,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82" s="12">
         <v>0.55135629381286189</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82" s="12">
         <v>0.44864370618713806</v>
       </c>
     </row>
@@ -3785,10 +3787,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="12">
         <v>0.2</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="12">
         <v>0.8</v>
       </c>
       <c r="K83">
@@ -3800,10 +3802,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="12">
         <v>0.26166593981683384</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="12">
         <v>0.73833406018316616</v>
       </c>
     </row>
@@ -3820,10 +3822,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="12">
         <v>0.51886792452830188</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="12">
         <v>0.48113207547169812</v>
       </c>
       <c r="K84">
@@ -3835,10 +3837,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="12">
         <v>0.60982067637501502</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="12">
         <v>0.39017932362498498</v>
       </c>
     </row>
@@ -3855,10 +3857,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="12">
         <v>0.4</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="12">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3870,10 +3872,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="12">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="12">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3890,10 +3892,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="12">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="12">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3905,10 +3907,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="12">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="12">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3925,10 +3927,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="12">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="12">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3940,10 +3942,10 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="12">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="12">
         <v>0.57557930123664303</v>
       </c>
     </row>
@@ -3954,37 +3956,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E88" s="13">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.31191806331471134</v>
+        <v>0.31424581005586594</v>
       </c>
       <c r="I88" s="14">
-        <v>0.68808193668528861</v>
+        <v>0.68575418994413406</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>62317</v>
+        <v>62597</v>
       </c>
       <c r="L88" s="13">
-        <v>97160</v>
+        <v>96880</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.39075854198411059</v>
+        <v>0.39251428105620245</v>
       </c>
       <c r="P88" s="14">
-        <v>0.60924145801588947</v>
+        <v>0.60748571894379755</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3995,34 +3997,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E89">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="1">
-        <v>0.4258064516129032</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0.5741935483870968</v>
+      <c r="H89" s="12">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0.54838709677419351</v>
       </c>
       <c r="K89">
-        <v>6639</v>
+        <v>6843</v>
       </c>
       <c r="L89">
-        <v>5837</v>
+        <v>5633</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="1">
-        <v>0.5321417120872074</v>
-      </c>
-      <c r="P89" s="1">
-        <v>0.46785828791279255</v>
+      <c r="O89" s="12">
+        <v>0.54849310676498875</v>
+      </c>
+      <c r="P89" s="12">
+        <v>0.4515068932350112</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4032,37 +4034,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E90" s="13">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.4258064516129032</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="I90" s="14">
-        <v>0.5741935483870968</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>6639</v>
+        <v>6843</v>
       </c>
       <c r="L90" s="13">
-        <v>5837</v>
+        <v>5633</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.5321417120872074</v>
+        <v>0.54849310676498875</v>
       </c>
       <c r="P90" s="14">
-        <v>0.46785828791279255</v>
+        <v>0.4515068932350112</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4073,34 +4075,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E91">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="1">
-        <v>0.42203742203742206</v>
-      </c>
-      <c r="I91" s="1">
-        <v>0.57796257796257799</v>
+      <c r="H91" s="12">
+        <v>0.43659043659043661</v>
+      </c>
+      <c r="I91" s="12">
+        <v>0.56340956340956339</v>
       </c>
       <c r="K91">
-        <v>19107</v>
+        <v>19638</v>
       </c>
       <c r="L91">
-        <v>19567</v>
+        <v>19036</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="1">
-        <v>0.49405285204530175</v>
-      </c>
-      <c r="P91" s="1">
-        <v>0.5059471479546982</v>
+      <c r="O91" s="12">
+        <v>0.50778300667114862</v>
+      </c>
+      <c r="P91" s="12">
+        <v>0.49221699332885144</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4116,10 +4118,10 @@
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="12">
         <v>0.56086956521739129</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="12">
         <v>0.43913043478260871</v>
       </c>
       <c r="K92">
@@ -4131,10 +4133,10 @@
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O92" s="12">
         <v>0.61219096544740548</v>
       </c>
-      <c r="P92" s="1">
+      <c r="P92" s="12">
         <v>0.38780903455259452</v>
       </c>
     </row>
@@ -4143,34 +4145,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="E93">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
-      <c r="H93" s="1">
-        <v>0.49889380530973454</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0.50110619469026552</v>
+      <c r="H93" s="12">
+        <v>0.50884955752212391</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0.49115044247787609</v>
       </c>
       <c r="K93">
-        <v>44410</v>
+        <v>45133</v>
       </c>
       <c r="L93">
-        <v>31116</v>
+        <v>30393</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
-      <c r="O93" s="1">
-        <v>0.58800942721711724</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0.4119905727828827</v>
+      <c r="O93" s="12">
+        <v>0.59758228954267401</v>
+      </c>
+      <c r="P93" s="12">
+        <v>0.40241771045732594</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4186,10 +4188,10 @@
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="12">
         <v>0.3632286995515695</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="12">
         <v>0.63677130044843044</v>
       </c>
       <c r="K94">
@@ -4201,10 +4203,10 @@
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O94" s="12">
         <v>0.41281842301489585</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P94" s="12">
         <v>0.58718157698510409</v>
       </c>
     </row>
@@ -4221,10 +4223,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="12">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="12">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4236,10 +4238,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="12">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P95" s="12">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4256,10 +4258,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="12">
         <v>0.58783783783783783</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="12">
         <v>0.41216216216216217</v>
       </c>
       <c r="K96">
@@ -4271,10 +4273,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="12">
         <v>0.70022408498630595</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P96" s="12">
         <v>0.29977591501369411</v>
       </c>
     </row>
@@ -4283,34 +4285,34 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E97">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="1">
-        <v>0.42268041237113402</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0.57731958762886593</v>
+      <c r="H97" s="12">
+        <v>0.84536082474226804</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0.15463917525773196</v>
       </c>
       <c r="K97">
-        <v>4025</v>
+        <v>7633</v>
       </c>
       <c r="L97">
-        <v>4146</v>
+        <v>538</v>
       </c>
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="1">
-        <v>0.49259576551217721</v>
-      </c>
-      <c r="P97" s="1">
-        <v>0.50740423448782279</v>
+      <c r="O97" s="12">
+        <v>0.93415738587688169</v>
+      </c>
+      <c r="P97" s="12">
+        <v>6.5842614123118343E-2</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -4326,10 +4328,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="12">
         <v>0.80341880341880345</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="12">
         <v>0.19658119658119658</v>
       </c>
       <c r="K98">
@@ -4341,10 +4343,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="12">
         <v>0.90159574468085102</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P98" s="12">
         <v>9.8404255319148939E-2</v>
       </c>
     </row>
@@ -4361,10 +4363,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="12">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="12">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4376,10 +4378,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99" s="12">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P99" s="12">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4396,10 +4398,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="12">
         <v>0.53846153846153844</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="12">
         <v>0.46153846153846156</v>
       </c>
       <c r="K100">
@@ -4411,10 +4413,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O100" s="12">
         <v>0.62799925135691559</v>
       </c>
-      <c r="P100" s="1">
+      <c r="P100" s="12">
         <v>0.37200074864308441</v>
       </c>
     </row>
@@ -4431,10 +4433,10 @@
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="12">
         <v>0.36475409836065575</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="12">
         <v>0.63524590163934425</v>
       </c>
       <c r="K101">
@@ -4446,10 +4448,10 @@
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O101" s="12">
         <v>0.42460091956398205</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P101" s="12">
         <v>0.57539908043601795</v>
       </c>
     </row>
@@ -4466,10 +4468,10 @@
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="12">
         <v>0.4</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="12">
         <v>0.6</v>
       </c>
       <c r="K102">
@@ -4481,10 +4483,10 @@
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="1">
+      <c r="O102" s="12">
         <v>0.47448386158767081</v>
       </c>
-      <c r="P102" s="1">
+      <c r="P102" s="12">
         <v>0.52551613841232914</v>
       </c>
     </row>
@@ -4501,10 +4503,10 @@
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="12">
         <v>0.47244094488188976</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="12">
         <v>0.52755905511811019</v>
       </c>
       <c r="K103">
@@ -4516,10 +4518,10 @@
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="12">
         <v>0.54538470629949176</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P103" s="12">
         <v>0.45461529370050824</v>
       </c>
     </row>
@@ -4528,34 +4530,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E104">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F104">
         <v>892</v>
       </c>
-      <c r="H104" s="1">
-        <v>0.46300448430493274</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0.53699551569506732</v>
+      <c r="H104" s="12">
+        <v>0.46748878923766818</v>
+      </c>
+      <c r="I104" s="12">
+        <v>0.53251121076233188</v>
       </c>
       <c r="K104">
-        <v>37150</v>
+        <v>37599</v>
       </c>
       <c r="L104">
-        <v>32134</v>
+        <v>31685</v>
       </c>
       <c r="M104">
         <v>69284</v>
       </c>
-      <c r="O104" s="1">
-        <v>0.5361988337855782</v>
-      </c>
-      <c r="P104" s="1">
-        <v>0.4638011662144218</v>
+      <c r="O104" s="12">
+        <v>0.54267940650077939</v>
+      </c>
+      <c r="P104" s="12">
+        <v>0.45732059349922061</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4571,10 +4573,10 @@
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="12">
         <v>0.62068965517241381</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="12">
         <v>0.37931034482758619</v>
       </c>
       <c r="K105">
@@ -4586,10 +4588,10 @@
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105" s="12">
         <v>0.7029750099166997</v>
       </c>
-      <c r="P105" s="1">
+      <c r="P105" s="12">
         <v>0.2970249900833003</v>
       </c>
     </row>
@@ -4606,10 +4608,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="12">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="12">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4621,10 +4623,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O106" s="12">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P106" s="12">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4641,10 +4643,10 @@
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="12">
         <v>0.36026936026936029</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="12">
         <v>0.63973063973063971</v>
       </c>
       <c r="K107">
@@ -4656,10 +4658,10 @@
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107" s="12">
         <v>0.38846473029045642</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P107" s="12">
         <v>0.61153526970954353</v>
       </c>
     </row>
@@ -4676,10 +4678,10 @@
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="12">
         <v>0.43947858472998136</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="12">
         <v>0.56052141527001864</v>
       </c>
       <c r="K108">
@@ -4691,10 +4693,10 @@
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="1">
+      <c r="O108" s="12">
         <v>0.49778132000689301</v>
       </c>
-      <c r="P108" s="1">
+      <c r="P108" s="12">
         <v>0.50221867999310699</v>
       </c>
     </row>
@@ -4711,10 +4713,10 @@
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="12">
         <v>0.61436672967863892</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="12">
         <v>0.38563327032136108</v>
       </c>
       <c r="K109">
@@ -4726,10 +4728,10 @@
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="1">
+      <c r="O109" s="12">
         <v>0.68826476849960216</v>
       </c>
-      <c r="P109" s="1">
+      <c r="P109" s="12">
         <v>0.31173523150039784</v>
       </c>
     </row>
@@ -4746,10 +4748,10 @@
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="12">
         <v>0.40935672514619881</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="12">
         <v>0.59064327485380119</v>
       </c>
       <c r="K110">
@@ -4761,10 +4763,10 @@
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="1">
+      <c r="O110" s="12">
         <v>0.46755654430849092</v>
       </c>
-      <c r="P110" s="1">
+      <c r="P110" s="12">
         <v>0.53244345569150908</v>
       </c>
     </row>
@@ -4781,10 +4783,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="12">
         <v>0.49275362318840582</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="12">
         <v>0.50724637681159424</v>
       </c>
       <c r="K111">
@@ -4796,10 +4798,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="1">
+      <c r="O111" s="12">
         <v>0.53164755771949113</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P111" s="12">
         <v>0.46835244228050887</v>
       </c>
     </row>
@@ -4816,10 +4818,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="12">
         <v>0.86875000000000002</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="12">
         <v>0.13125000000000001</v>
       </c>
       <c r="K112">
@@ -4831,10 +4833,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="1">
+      <c r="O112" s="12">
         <v>0.93789089107684687</v>
       </c>
-      <c r="P112" s="1">
+      <c r="P112" s="12">
         <v>6.2109108923153133E-2</v>
       </c>
     </row>
@@ -4851,10 +4853,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="12">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="12">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4866,10 +4868,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113" s="12">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="1">
+      <c r="P113" s="12">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4878,34 +4880,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E114">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="1">
-        <v>0.39125910509885536</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0.60874089490114469</v>
+      <c r="H114" s="12">
+        <v>0.39750260145681582</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0.60249739854318418</v>
       </c>
       <c r="K114">
-        <v>35360</v>
+        <v>35933</v>
       </c>
       <c r="L114">
-        <v>40114</v>
+        <v>39541</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="1">
-        <v>0.46850571057582746</v>
-      </c>
-      <c r="P114" s="1">
-        <v>0.53149428942417254</v>
+      <c r="O114" s="12">
+        <v>0.47609772901926489</v>
+      </c>
+      <c r="P114" s="12">
+        <v>0.52390227098073505</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4921,10 +4923,10 @@
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="12">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="12">
         <v>0.35416666666666669</v>
       </c>
       <c r="K115">
@@ -4936,10 +4938,10 @@
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="1">
+      <c r="O115" s="12">
         <v>0.69870464467186721</v>
       </c>
-      <c r="P115" s="1">
+      <c r="P115" s="12">
         <v>0.30129535532813284</v>
       </c>
     </row>
@@ -4956,10 +4958,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="12">
         <v>0.41733870967741937</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="12">
         <v>0.58266129032258063</v>
       </c>
       <c r="K116">
@@ -4971,10 +4973,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="1">
+      <c r="O116" s="12">
         <v>0.5292736164451689</v>
       </c>
-      <c r="P116" s="1">
+      <c r="P116" s="12">
         <v>0.47072638355483104</v>
       </c>
     </row>
@@ -4991,10 +4993,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="12">
         <v>0.56502242152466364</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="12">
         <v>0.4349775784753363</v>
       </c>
       <c r="K117">
@@ -5006,10 +5008,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="1">
+      <c r="O117" s="12">
         <v>0.70209766550129693</v>
       </c>
-      <c r="P117" s="1">
+      <c r="P117" s="12">
         <v>0.29790233449870307</v>
       </c>
     </row>
@@ -5026,10 +5028,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="12">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="12">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5041,10 +5043,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="1">
+      <c r="O118" s="12">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="1">
+      <c r="P118" s="12">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5061,10 +5063,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="12">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="12">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5076,10 +5078,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119" s="12">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="1">
+      <c r="P119" s="12">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5096,10 +5098,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="12">
         <v>0.52020202020202022</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="12">
         <v>0.47979797979797978</v>
       </c>
       <c r="K120">
@@ -5111,10 +5113,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="1">
+      <c r="O120" s="12">
         <v>0.59447952681658423</v>
       </c>
-      <c r="P120" s="1">
+      <c r="P120" s="12">
         <v>0.40552047318341572</v>
       </c>
     </row>
@@ -5123,34 +5125,34 @@
         <v>128</v>
       </c>
       <c r="D121">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E121">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="1">
-        <v>0.41037735849056606</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0.589622641509434</v>
+      <c r="H121" s="12">
+        <v>0.52830188679245282</v>
+      </c>
+      <c r="I121" s="12">
+        <v>0.47169811320754718</v>
       </c>
       <c r="K121">
-        <v>7805</v>
+        <v>9947</v>
       </c>
       <c r="L121">
-        <v>7441</v>
+        <v>5299</v>
       </c>
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="1">
-        <v>0.51193755739210289</v>
-      </c>
-      <c r="P121" s="1">
-        <v>0.48806244260789716</v>
+      <c r="O121" s="12">
+        <v>0.65243342516069791</v>
+      </c>
+      <c r="P121" s="12">
+        <v>0.34756657483930209</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -5166,10 +5168,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="12">
         <v>0.32</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="12">
         <v>0.68</v>
       </c>
       <c r="K122">
@@ -5181,10 +5183,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O122" s="12">
         <v>0.33568345323741006</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P122" s="12">
         <v>0.66431654676258989</v>
       </c>
     </row>
@@ -5201,10 +5203,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="12">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="12">
         <v>0.53968253968253965</v>
       </c>
       <c r="K123">
@@ -5216,10 +5218,10 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="1">
+      <c r="O123" s="12">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P123" s="1">
+      <c r="P123" s="12">
         <v>0.46606769016050242</v>
       </c>
     </row>
@@ -5230,37 +5232,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5082</v>
+        <v>5174</v>
       </c>
       <c r="E124" s="13">
-        <v>5352</v>
+        <v>5260</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.4870615296147211</v>
+        <v>0.49587885758098527</v>
       </c>
       <c r="I124" s="14">
-        <v>0.51293847038527884</v>
+        <v>0.50412114241901473</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>491002</v>
+        <v>499028</v>
       </c>
       <c r="L124" s="13">
-        <v>378620</v>
+        <v>370594</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.56461543061238106</v>
+        <v>0.57384472793926555</v>
       </c>
       <c r="P124" s="14">
-        <v>0.43538456938761899</v>
+        <v>0.42615527206073445</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5279,10 +5281,10 @@
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="12">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="12">
         <v>0.53846153846153844</v>
       </c>
       <c r="K125">
@@ -5294,10 +5296,10 @@
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="1">
+      <c r="O125" s="12">
         <v>0.50022520493649225</v>
       </c>
-      <c r="P125" s="1">
+      <c r="P125" s="12">
         <v>0.4997747950635078</v>
       </c>
     </row>
@@ -5314,10 +5316,10 @@
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="12">
         <v>0.4592875318066158</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="12">
         <v>0.54071246819338425</v>
       </c>
       <c r="K126">
@@ -5329,10 +5331,10 @@
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="1">
+      <c r="O126" s="12">
         <v>0.52931380914370652</v>
       </c>
-      <c r="P126" s="1">
+      <c r="P126" s="12">
         <v>0.47068619085629354</v>
       </c>
     </row>
@@ -5341,34 +5343,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E127">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="1">
-        <v>0.43820224719101125</v>
-      </c>
-      <c r="I127" s="1">
-        <v>0.5617977528089888</v>
+      <c r="H127" s="12">
+        <v>0.44007490636704122</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0.55992509363295884</v>
       </c>
       <c r="K127">
-        <v>22109</v>
+        <v>22126</v>
       </c>
       <c r="L127">
-        <v>19177</v>
+        <v>19160</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
-      <c r="O127" s="1">
-        <v>0.53550840478612605</v>
-      </c>
-      <c r="P127" s="1">
-        <v>0.46449159521387395</v>
+      <c r="O127" s="12">
+        <v>0.53592016664244535</v>
+      </c>
+      <c r="P127" s="12">
+        <v>0.46407983335755459</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5384,10 +5386,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="12">
         <v>0.39285714285714285</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="12">
         <v>0.6071428571428571</v>
       </c>
       <c r="K128">
@@ -5399,10 +5401,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="1">
+      <c r="O128" s="12">
         <v>0.54153664998528117</v>
       </c>
-      <c r="P128" s="1">
+      <c r="P128" s="12">
         <v>0.45846335001471888</v>
       </c>
     </row>
@@ -5419,10 +5421,10 @@
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="12">
         <v>0.30622009569377989</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="12">
         <v>0.69377990430622005</v>
       </c>
       <c r="K129">
@@ -5434,10 +5436,10 @@
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="1">
+      <c r="O129" s="12">
         <v>0.33389850327408793</v>
       </c>
-      <c r="P129" s="1">
+      <c r="P129" s="12">
         <v>0.66610149672591201</v>
       </c>
     </row>
@@ -5454,10 +5456,10 @@
       <c r="F130">
         <v>480</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="12">
         <v>0.37708333333333333</v>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="12">
         <v>0.62291666666666667</v>
       </c>
       <c r="K130">
@@ -5469,10 +5471,10 @@
       <c r="M130">
         <v>39302</v>
       </c>
-      <c r="O130" s="1">
+      <c r="O130" s="12">
         <v>0.45615999185792072</v>
       </c>
-      <c r="P130" s="1">
+      <c r="P130" s="12">
         <v>0.54384000814207933</v>
       </c>
     </row>
@@ -5489,10 +5491,10 @@
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="12">
         <v>0.52083333333333337</v>
       </c>
       <c r="K131">
@@ -5504,10 +5506,10 @@
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="1">
+      <c r="O131" s="12">
         <v>0.5487915682355079</v>
       </c>
-      <c r="P131" s="1">
+      <c r="P131" s="12">
         <v>0.4512084317644921</v>
       </c>
     </row>
@@ -5516,34 +5518,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E132">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="1">
-        <v>0.43508287292817682</v>
-      </c>
-      <c r="I132" s="1">
-        <v>0.56491712707182318</v>
+      <c r="H132" s="12">
+        <v>0.44751381215469616</v>
+      </c>
+      <c r="I132" s="12">
+        <v>0.5524861878453039</v>
       </c>
       <c r="K132">
-        <v>30850</v>
+        <v>31894</v>
       </c>
       <c r="L132">
-        <v>29536</v>
+        <v>28492</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="1">
-        <v>0.51088000529924149</v>
-      </c>
-      <c r="P132" s="1">
-        <v>0.48911999470075845</v>
+      <c r="O132" s="12">
+        <v>0.52816878084324181</v>
+      </c>
+      <c r="P132" s="12">
+        <v>0.47183121915675819</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5559,10 +5561,10 @@
       <c r="F133">
         <v>307</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="12">
         <v>0.23452768729641693</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="12">
         <v>0.76547231270358307</v>
       </c>
       <c r="K133">
@@ -5574,10 +5576,10 @@
       <c r="M133">
         <v>22707</v>
       </c>
-      <c r="O133" s="1">
+      <c r="O133" s="12">
         <v>0.31875633064693709</v>
       </c>
-      <c r="P133" s="1">
+      <c r="P133" s="12">
         <v>0.68124366935306291</v>
       </c>
     </row>
@@ -5594,10 +5596,10 @@
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="12">
         <v>0.41299303944315546</v>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="12">
         <v>0.58700696055684454</v>
       </c>
       <c r="K134">
@@ -5609,10 +5611,10 @@
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="1">
+      <c r="O134" s="12">
         <v>0.51325528589543212</v>
       </c>
-      <c r="P134" s="1">
+      <c r="P134" s="12">
         <v>0.48674471410456782</v>
       </c>
     </row>
@@ -5629,10 +5631,10 @@
       <c r="F135">
         <v>453</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="12">
         <v>0.46799116997792495</v>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="12">
         <v>0.53200883002207511</v>
       </c>
       <c r="K135">
@@ -5644,10 +5646,10 @@
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="1">
+      <c r="O135" s="12">
         <v>0.63117268678871841</v>
       </c>
-      <c r="P135" s="1">
+      <c r="P135" s="12">
         <v>0.36882731321128154</v>
       </c>
     </row>
@@ -5656,34 +5658,34 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E136">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="1">
-        <v>0.43005181347150256</v>
-      </c>
-      <c r="I136" s="1">
-        <v>0.56994818652849744</v>
+      <c r="H136" s="12">
+        <v>0.47150259067357514</v>
+      </c>
+      <c r="I136" s="12">
+        <v>0.52849740932642486</v>
       </c>
       <c r="K136">
-        <v>7396</v>
+        <v>7984</v>
       </c>
       <c r="L136">
-        <v>6204</v>
+        <v>5616</v>
       </c>
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="1">
-        <v>0.54382352941176471</v>
-      </c>
-      <c r="P136" s="1">
-        <v>0.45617647058823529</v>
+      <c r="O136" s="12">
+        <v>0.58705882352941174</v>
+      </c>
+      <c r="P136" s="12">
+        <v>0.41294117647058826</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5699,10 +5701,10 @@
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="12">
         <v>0.39661016949152544</v>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="12">
         <v>0.60338983050847461</v>
       </c>
       <c r="K137">
@@ -5714,10 +5716,10 @@
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="1">
+      <c r="O137" s="12">
         <v>0.48007846021821748</v>
       </c>
-      <c r="P137" s="1">
+      <c r="P137" s="12">
         <v>0.51992153978178257</v>
       </c>
     </row>
@@ -5728,37 +5730,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2063</v>
+        <v>2081</v>
       </c>
       <c r="E138" s="13">
-        <v>2908</v>
+        <v>2890</v>
       </c>
       <c r="F138" s="13">
         <v>4971</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.41500704083685375</v>
+        <v>0.41862804264735465</v>
       </c>
       <c r="I138" s="14">
-        <v>0.5849929591631462</v>
+        <v>0.58137195735264535</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>201791</v>
+        <v>203440</v>
       </c>
       <c r="L138" s="13">
-        <v>198548</v>
+        <v>196899</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.50405031735604078</v>
+        <v>0.50816932649579483</v>
       </c>
       <c r="P138" s="14">
-        <v>0.49594968264395922</v>
+        <v>0.49183067350420517</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5768,37 +5770,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>26173</v>
+        <v>26437</v>
       </c>
       <c r="E139" s="13">
-        <v>39838</v>
+        <v>39574</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.39649452363999937</v>
+        <v>0.40049385708442531</v>
       </c>
       <c r="I139" s="14">
-        <v>0.60350547636000063</v>
+        <v>0.59950614291557469</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2516739</v>
+        <v>2539086</v>
       </c>
       <c r="L139" s="13">
-        <v>2759197</v>
+        <v>2736850</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.47702227623686111</v>
+        <v>0.48125792276479473</v>
       </c>
       <c r="P139" s="14">
-        <v>0.52297772376313889</v>
+        <v>0.51874207723520527</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85872C4C-5C8A-4974-9C64-6F5A2BC06FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9886F199-C04B-4E8F-B9EB-8C90A86BAB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAF7D468-4977-4F0B-8145-274FDB38B68C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E68164E-6FE4-4FF0-B74B-C68B15A632B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,29 +888,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888A7E1E-9B66-4B31-A610-D8DC378DD21D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7A1E76-949D-4E30-B98B-D493378830BE}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1220,34 +1219,34 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="E10">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="F10">
         <v>413</v>
       </c>
       <c r="H10" s="12">
-        <v>0.38740920096852299</v>
+        <v>0.58837772397094434</v>
       </c>
       <c r="I10" s="12">
-        <v>0.61259079903147695</v>
+        <v>0.41162227602905571</v>
       </c>
       <c r="K10">
-        <v>14979</v>
+        <v>21946</v>
       </c>
       <c r="L10">
-        <v>17250</v>
+        <v>10283</v>
       </c>
       <c r="M10">
         <v>32229</v>
       </c>
       <c r="O10" s="12">
-        <v>0.46476775574792889</v>
+        <v>0.68093952651338852</v>
       </c>
       <c r="P10" s="12">
-        <v>0.53523224425207117</v>
+        <v>0.31906047348661143</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1255,34 +1254,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
       <c r="H11" s="12">
-        <v>0.25191815856777494</v>
+        <v>0.25575447570332482</v>
       </c>
       <c r="I11" s="12">
-        <v>0.74808184143222511</v>
+        <v>0.74424552429667523</v>
       </c>
       <c r="K11">
-        <v>18784</v>
+        <v>19048</v>
       </c>
       <c r="L11">
-        <v>41848</v>
+        <v>41584</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
       <c r="O11" s="12">
-        <v>0.30980340414302676</v>
+        <v>0.3141575405726349</v>
       </c>
       <c r="P11" s="12">
-        <v>0.69019659585697324</v>
+        <v>0.6858424594273651</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1290,34 +1289,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E12">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F12">
         <v>572</v>
       </c>
       <c r="H12" s="12">
-        <v>0.31293706293706292</v>
+        <v>0.32867132867132864</v>
       </c>
       <c r="I12" s="12">
-        <v>0.68706293706293708</v>
+        <v>0.67132867132867136</v>
       </c>
       <c r="K12">
-        <v>17213</v>
+        <v>17656</v>
       </c>
       <c r="L12">
-        <v>26552</v>
+        <v>26109</v>
       </c>
       <c r="M12">
         <v>43765</v>
       </c>
       <c r="O12" s="12">
-        <v>0.39330515251913628</v>
+        <v>0.40342739632126129</v>
       </c>
       <c r="P12" s="12">
-        <v>0.60669484748086366</v>
+        <v>0.59657260367873877</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1360,34 +1359,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="E14">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="F14">
         <v>1107</v>
       </c>
       <c r="H14" s="12">
-        <v>0.43541102077687444</v>
+        <v>0.45528455284552843</v>
       </c>
       <c r="I14" s="12">
-        <v>0.56458897922312556</v>
+        <v>0.54471544715447151</v>
       </c>
       <c r="K14">
-        <v>46925</v>
+        <v>48506</v>
       </c>
       <c r="L14">
-        <v>45434</v>
+        <v>43853</v>
       </c>
       <c r="M14">
         <v>92359</v>
       </c>
       <c r="O14" s="12">
-        <v>0.50807176344481864</v>
+        <v>0.52518974869801538</v>
       </c>
       <c r="P14" s="12">
-        <v>0.49192823655518142</v>
+        <v>0.47481025130198462</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1395,34 +1394,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E15">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
       <c r="H15" s="12">
-        <v>0.44295991778006166</v>
+        <v>0.45529290853031862</v>
       </c>
       <c r="I15" s="12">
-        <v>0.55704008221993828</v>
+        <v>0.54470709146968144</v>
       </c>
       <c r="K15">
-        <v>40304</v>
+        <v>40823</v>
       </c>
       <c r="L15">
-        <v>34072</v>
+        <v>33553</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
       <c r="O15" s="12">
-        <v>0.54189523502205017</v>
+        <v>0.54887329245993333</v>
       </c>
       <c r="P15" s="12">
-        <v>0.45810476497794989</v>
+        <v>0.45112670754006667</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1430,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="E16">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
       <c r="H16" s="12">
-        <v>0.56365313653136528</v>
+        <v>0.58763837638376382</v>
       </c>
       <c r="I16" s="12">
-        <v>0.43634686346863466</v>
+        <v>0.41236162361623618</v>
       </c>
       <c r="K16">
-        <v>52645</v>
+        <v>54019</v>
       </c>
       <c r="L16">
-        <v>29835</v>
+        <v>28461</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
       <c r="O16" s="12">
-        <v>0.63827594568380208</v>
+        <v>0.65493452958292919</v>
       </c>
       <c r="P16" s="12">
-        <v>0.36172405431619786</v>
+        <v>0.34506547041707081</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1465,34 +1464,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E17">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
       <c r="H17" s="12">
-        <v>0.3069387755102041</v>
+        <v>0.31673469387755104</v>
       </c>
       <c r="I17" s="12">
-        <v>0.6930612244897959</v>
+        <v>0.68326530612244896</v>
       </c>
       <c r="K17">
-        <v>36459</v>
+        <v>37429</v>
       </c>
       <c r="L17">
-        <v>66304</v>
+        <v>65334</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
       <c r="O17" s="12">
-        <v>0.35478722886642078</v>
+        <v>0.36422642390743748</v>
       </c>
       <c r="P17" s="12">
-        <v>0.64521277113357922</v>
+        <v>0.63577357609256246</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1500,34 +1499,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="E18">
-        <v>1548</v>
+        <v>1524</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
       <c r="H18" s="12">
-        <v>0.39317914543316346</v>
+        <v>0.40258722069776559</v>
       </c>
       <c r="I18" s="12">
-        <v>0.60682085456683654</v>
+        <v>0.59741277930223446</v>
       </c>
       <c r="K18">
-        <v>94351</v>
+        <v>96439</v>
       </c>
       <c r="L18">
-        <v>99870</v>
+        <v>97782</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
       <c r="O18" s="12">
-        <v>0.4857919586450487</v>
+        <v>0.49654259838019577</v>
       </c>
       <c r="P18" s="12">
-        <v>0.51420804135495135</v>
+        <v>0.50345740161980423</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1535,34 +1534,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E19">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
       <c r="H19" s="12">
-        <v>0.34345549738219894</v>
+        <v>0.35497382198952881</v>
       </c>
       <c r="I19" s="12">
-        <v>0.65654450261780106</v>
+        <v>0.64502617801047124</v>
       </c>
       <c r="K19">
-        <v>30975</v>
+        <v>31666</v>
       </c>
       <c r="L19">
-        <v>40004</v>
+        <v>39313</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
       <c r="O19" s="12">
-        <v>0.43639668070837856</v>
+        <v>0.44613195452175997</v>
       </c>
       <c r="P19" s="12">
-        <v>0.56360331929162144</v>
+        <v>0.55386804547824009</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1605,34 +1604,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E21">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F21">
         <v>1295</v>
       </c>
       <c r="H21" s="12">
-        <v>0.30965250965250968</v>
+        <v>0.31274131274131273</v>
       </c>
       <c r="I21" s="12">
-        <v>0.69034749034749032</v>
+        <v>0.68725868725868722</v>
       </c>
       <c r="K21">
-        <v>39086</v>
+        <v>39362</v>
       </c>
       <c r="L21">
-        <v>62960</v>
+        <v>62684</v>
       </c>
       <c r="M21">
         <v>102046</v>
       </c>
       <c r="O21" s="12">
-        <v>0.38302334241420538</v>
+        <v>0.38572800501734511</v>
       </c>
       <c r="P21" s="12">
-        <v>0.61697665758579467</v>
+        <v>0.61427199498265483</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1640,34 +1639,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E22">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
       <c r="H22" s="12">
-        <v>0.38252756573367258</v>
+        <v>0.38422391857506361</v>
       </c>
       <c r="I22" s="12">
-        <v>0.61747243426632736</v>
+        <v>0.61577608142493634</v>
       </c>
       <c r="K22">
-        <v>43309</v>
+        <v>43477</v>
       </c>
       <c r="L22">
-        <v>52303</v>
+        <v>52135</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
       <c r="O22" s="12">
-        <v>0.45296615487595698</v>
+        <v>0.45472325649500062</v>
       </c>
       <c r="P22" s="12">
-        <v>0.54703384512404296</v>
+        <v>0.54527674350499933</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1675,34 +1674,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="E23">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
       <c r="H23" s="12">
-        <v>0.30389308541545612</v>
+        <v>0.31144683323649042</v>
       </c>
       <c r="I23" s="12">
-        <v>0.69610691458454388</v>
+        <v>0.68855316676350964</v>
       </c>
       <c r="K23">
-        <v>49330</v>
+        <v>50563</v>
       </c>
       <c r="L23">
-        <v>81741</v>
+        <v>80508</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
       <c r="O23" s="12">
-        <v>0.37636090363238245</v>
+        <v>0.38576801886000717</v>
       </c>
       <c r="P23" s="12">
-        <v>0.6236390963676175</v>
+        <v>0.61423198113999278</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1710,34 +1709,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E24">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
       <c r="H24" s="12">
-        <v>0.36271186440677966</v>
+        <v>0.38305084745762713</v>
       </c>
       <c r="I24" s="12">
-        <v>0.63728813559322028</v>
+        <v>0.61694915254237293</v>
       </c>
       <c r="K24">
-        <v>20247</v>
+        <v>21383</v>
       </c>
       <c r="L24">
-        <v>24066</v>
+        <v>22930</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
       <c r="O24" s="12">
-        <v>0.45690880779906573</v>
+        <v>0.48254462573059825</v>
       </c>
       <c r="P24" s="12">
-        <v>0.54309119220093427</v>
+        <v>0.5174553742694018</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1850,34 +1849,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>692</v>
+        <v>715</v>
       </c>
       <c r="E28">
-        <v>1531</v>
+        <v>1509</v>
       </c>
       <c r="F28">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="H28" s="12">
-        <v>0.31129104813315339</v>
+        <v>0.32149280575539568</v>
       </c>
       <c r="I28" s="12">
-        <v>0.68870895186684655</v>
+        <v>0.67850719424460426</v>
       </c>
       <c r="K28">
-        <v>66102</v>
+        <v>67841</v>
       </c>
       <c r="L28">
-        <v>105232</v>
+        <v>103493</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="12">
-        <v>0.3858078373235902</v>
+        <v>0.39595760327780827</v>
       </c>
       <c r="P28" s="12">
-        <v>0.61419216267640986</v>
+        <v>0.60404239672219173</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1885,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1542</v>
+        <v>1571</v>
       </c>
       <c r="E29">
-        <v>1567</v>
+        <v>1538</v>
       </c>
       <c r="F29">
         <v>3109</v>
       </c>
       <c r="H29" s="12">
-        <v>0.49597941460276618</v>
+        <v>0.50530717272434866</v>
       </c>
       <c r="I29" s="12">
-        <v>0.50402058539723382</v>
+        <v>0.49469282727565134</v>
       </c>
       <c r="K29">
-        <v>150224</v>
+        <v>152664</v>
       </c>
       <c r="L29">
-        <v>118193</v>
+        <v>115753</v>
       </c>
       <c r="M29">
         <v>268417</v>
       </c>
       <c r="O29" s="12">
-        <v>0.55966648908228611</v>
+        <v>0.56875682240692649</v>
       </c>
       <c r="P29" s="12">
-        <v>0.44033351091771383</v>
+        <v>0.43124317759307346</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1955,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="E31">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="12">
-        <v>0.36196911196911197</v>
+        <v>0.3716216216216216</v>
       </c>
       <c r="I31" s="12">
-        <v>0.63803088803088803</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="K31">
-        <v>37651</v>
+        <v>38718</v>
       </c>
       <c r="L31">
-        <v>47377</v>
+        <v>46310</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="12">
-        <v>0.44280707531636637</v>
+        <v>0.45535588276802935</v>
       </c>
       <c r="P31" s="12">
-        <v>0.55719292468363357</v>
+        <v>0.54464411723197059</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2025,34 +2024,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="E33">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
       <c r="H33" s="12">
-        <v>0.38612933458294285</v>
+        <v>0.39737582005623245</v>
       </c>
       <c r="I33" s="12">
-        <v>0.61387066541705715</v>
+        <v>0.6026241799437676</v>
       </c>
       <c r="K33">
-        <v>37148</v>
+        <v>37399</v>
       </c>
       <c r="L33">
-        <v>38698</v>
+        <v>38447</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
       <c r="O33" s="12">
-        <v>0.48978192653534797</v>
+        <v>0.49309126387680302</v>
       </c>
       <c r="P33" s="12">
-        <v>0.51021807346465209</v>
+        <v>0.50690873612319698</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2060,34 +2059,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E34">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="12">
-        <v>0.38124452234881684</v>
+        <v>0.39263803680981596</v>
       </c>
       <c r="I34" s="12">
-        <v>0.61875547765118322</v>
+        <v>0.6073619631901841</v>
       </c>
       <c r="K34">
-        <v>40520</v>
+        <v>41575</v>
       </c>
       <c r="L34">
-        <v>46918</v>
+        <v>45863</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
       <c r="O34" s="12">
-        <v>0.46341407625974979</v>
+        <v>0.47547976852169538</v>
       </c>
       <c r="P34" s="12">
-        <v>0.53658592374025027</v>
+        <v>0.52452023147830462</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2095,34 +2094,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E35">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F35">
         <v>784</v>
       </c>
       <c r="H35" s="12">
-        <v>0.4642857142857143</v>
+        <v>0.47066326530612246</v>
       </c>
       <c r="I35" s="12">
-        <v>0.5357142857142857</v>
+        <v>0.52933673469387754</v>
       </c>
       <c r="K35">
-        <v>34184</v>
+        <v>34326</v>
       </c>
       <c r="L35">
-        <v>28407</v>
+        <v>28265</v>
       </c>
       <c r="M35">
         <v>62591</v>
       </c>
       <c r="O35" s="12">
-        <v>0.54614880733651805</v>
+        <v>0.54841750411401002</v>
       </c>
       <c r="P35" s="12">
-        <v>0.45385119266348195</v>
+        <v>0.45158249588598998</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2130,34 +2129,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E36">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F36">
         <v>827</v>
       </c>
       <c r="H36" s="12">
-        <v>0.49576783555018139</v>
+        <v>0.49697702539298672</v>
       </c>
       <c r="I36" s="12">
-        <v>0.50423216444981867</v>
+        <v>0.50302297460701328</v>
       </c>
       <c r="K36">
-        <v>40623</v>
+        <v>40659</v>
       </c>
       <c r="L36">
-        <v>24511</v>
+        <v>24475</v>
       </c>
       <c r="M36">
         <v>65134</v>
       </c>
       <c r="O36" s="12">
-        <v>0.62368348328062151</v>
+        <v>0.62423619000829056</v>
       </c>
       <c r="P36" s="12">
-        <v>0.37631651671937849</v>
+        <v>0.37576380999170939</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2200,34 +2199,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E38">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
       <c r="H38" s="12">
-        <v>0.30921052631578949</v>
+        <v>0.31447368421052629</v>
       </c>
       <c r="I38" s="12">
-        <v>0.69078947368421051</v>
+        <v>0.68552631578947365</v>
       </c>
       <c r="K38">
-        <v>22207</v>
+        <v>22639</v>
       </c>
       <c r="L38">
-        <v>33077</v>
+        <v>32645</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
       <c r="O38" s="12">
-        <v>0.40168945807105128</v>
+        <v>0.40950365386006804</v>
       </c>
       <c r="P38" s="12">
-        <v>0.59831054192894872</v>
+        <v>0.59049634613993196</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2270,34 +2269,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E40">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
       <c r="H40" s="12">
-        <v>0.66119402985074627</v>
+        <v>0.66417910447761197</v>
       </c>
       <c r="I40" s="12">
-        <v>0.33880597014925373</v>
+        <v>0.33582089552238809</v>
       </c>
       <c r="K40">
-        <v>39308</v>
+        <v>39336</v>
       </c>
       <c r="L40">
-        <v>9757</v>
+        <v>9729</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
       <c r="O40" s="12">
-        <v>0.80114134311627438</v>
+        <v>0.80171201467441144</v>
       </c>
       <c r="P40" s="12">
-        <v>0.19885865688372567</v>
+        <v>0.1982879853255885</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2305,34 +2304,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E41">
-        <v>1450</v>
+        <v>1430</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
       <c r="H41" s="12">
-        <v>0.25907000510986206</v>
+        <v>0.2692897291773122</v>
       </c>
       <c r="I41" s="12">
-        <v>0.740929994890138</v>
+        <v>0.7307102708226878</v>
       </c>
       <c r="K41">
-        <v>49069</v>
+        <v>50690</v>
       </c>
       <c r="L41">
-        <v>97550</v>
+        <v>95929</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
       <c r="O41" s="12">
-        <v>0.33467013142907809</v>
+        <v>0.34572599731276299</v>
       </c>
       <c r="P41" s="12">
-        <v>0.66532986857092191</v>
+        <v>0.65427400268723701</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2340,34 +2339,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E42">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
       <c r="H42" s="12">
-        <v>0.34266666666666667</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="I42" s="12">
-        <v>0.65733333333333333</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="K42">
-        <v>25280</v>
+        <v>25886</v>
       </c>
       <c r="L42">
-        <v>37151</v>
+        <v>36545</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
       <c r="O42" s="12">
-        <v>0.4049270394515545</v>
+        <v>0.41463375566625554</v>
       </c>
       <c r="P42" s="12">
-        <v>0.5950729605484455</v>
+        <v>0.5853662443337444</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2375,34 +2374,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E43">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
       <c r="H43" s="12">
-        <v>0.31063321385902032</v>
+        <v>0.31302270011947431</v>
       </c>
       <c r="I43" s="12">
-        <v>0.68936678614097968</v>
+        <v>0.68697729988052569</v>
       </c>
       <c r="K43">
-        <v>24550</v>
+        <v>24778</v>
       </c>
       <c r="L43">
-        <v>39444</v>
+        <v>39216</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
       <c r="O43" s="12">
-        <v>0.38362971528580803</v>
+        <v>0.38719254930149699</v>
       </c>
       <c r="P43" s="12">
-        <v>0.61637028471419197</v>
+        <v>0.61280745069850295</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2410,34 +2409,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="E44">
-        <v>2044</v>
+        <v>2015</v>
       </c>
       <c r="F44">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="H44" s="12">
-        <v>0.18792212951926898</v>
+        <v>0.19912559618441972</v>
       </c>
       <c r="I44" s="12">
-        <v>0.81207787048073099</v>
+        <v>0.80087440381558028</v>
       </c>
       <c r="K44">
-        <v>45937</v>
+        <v>47430</v>
       </c>
       <c r="L44">
-        <v>139693</v>
+        <v>138200</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
       <c r="O44" s="12">
-        <v>0.24746538813769325</v>
+        <v>0.25550826913753166</v>
       </c>
       <c r="P44" s="12">
-        <v>0.75253461186230675</v>
+        <v>0.74449173086246834</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2445,34 +2444,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E45">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
       <c r="H45" s="12">
-        <v>0.27584564078132445</v>
+        <v>0.28156264888041926</v>
       </c>
       <c r="I45" s="12">
-        <v>0.72415435921867555</v>
+        <v>0.71843735111958074</v>
       </c>
       <c r="K45">
-        <v>55454</v>
+        <v>56417</v>
       </c>
       <c r="L45">
-        <v>105920</v>
+        <v>104957</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
       <c r="O45" s="12">
-        <v>0.34363652137271183</v>
+        <v>0.34960402543160607</v>
       </c>
       <c r="P45" s="12">
-        <v>0.65636347862728817</v>
+        <v>0.65039597456839393</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2480,34 +2479,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E46">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
       <c r="H46" s="12">
-        <v>0.36880466472303208</v>
+        <v>0.37026239067055394</v>
       </c>
       <c r="I46" s="12">
-        <v>0.63119533527696792</v>
+        <v>0.62973760932944611</v>
       </c>
       <c r="K46">
-        <v>24533</v>
+        <v>24569</v>
       </c>
       <c r="L46">
-        <v>29449</v>
+        <v>29413</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
       <c r="O46" s="12">
-        <v>0.4544663035826757</v>
+        <v>0.45513319254566337</v>
       </c>
       <c r="P46" s="12">
-        <v>0.5455336964173243</v>
+        <v>0.54486680745433658</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2515,34 +2514,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E47">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
       <c r="H47" s="12">
-        <v>0.32320777642770354</v>
+        <v>0.33049817739975701</v>
       </c>
       <c r="I47" s="12">
-        <v>0.67679222357229651</v>
+        <v>0.66950182260024305</v>
       </c>
       <c r="K47">
-        <v>22885</v>
+        <v>23391</v>
       </c>
       <c r="L47">
-        <v>39785</v>
+        <v>39279</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
       <c r="O47" s="12">
-        <v>0.36516674644965691</v>
+        <v>0.37324078506462421</v>
       </c>
       <c r="P47" s="12">
-        <v>0.63483325355034304</v>
+        <v>0.62675921493537579</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2550,34 +2549,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E48">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
       <c r="H48" s="12">
-        <v>0.2635933806146572</v>
+        <v>0.26950354609929078</v>
       </c>
       <c r="I48" s="12">
-        <v>0.7364066193853428</v>
+        <v>0.73049645390070927</v>
       </c>
       <c r="K48">
-        <v>20640</v>
+        <v>21216</v>
       </c>
       <c r="L48">
-        <v>46724</v>
+        <v>46148</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
       <c r="O48" s="12">
-        <v>0.30639510717890861</v>
+        <v>0.31494566830948278</v>
       </c>
       <c r="P48" s="12">
-        <v>0.69360489282109139</v>
+        <v>0.68505433169051722</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2620,34 +2619,34 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="E50">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F50">
         <v>428</v>
       </c>
       <c r="H50" s="12">
-        <v>0.54439252336448596</v>
+        <v>0.60280373831775702</v>
       </c>
       <c r="I50" s="12">
-        <v>0.45560747663551404</v>
+        <v>0.39719626168224298</v>
       </c>
       <c r="K50">
-        <v>21627</v>
+        <v>23799</v>
       </c>
       <c r="L50">
-        <v>11614</v>
+        <v>9442</v>
       </c>
       <c r="M50">
         <v>33241</v>
       </c>
       <c r="O50" s="12">
-        <v>0.65061219578231699</v>
+        <v>0.71595319033723415</v>
       </c>
       <c r="P50" s="12">
-        <v>0.34938780421768301</v>
+        <v>0.28404680966276585</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2655,34 +2654,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E51">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
       <c r="H51" s="12">
-        <v>0.34608540925266906</v>
+        <v>0.35409252669039148</v>
       </c>
       <c r="I51" s="12">
-        <v>0.65391459074733094</v>
+        <v>0.64590747330960852</v>
       </c>
       <c r="K51">
-        <v>37017</v>
+        <v>37946</v>
       </c>
       <c r="L51">
-        <v>53253</v>
+        <v>52324</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
       <c r="O51" s="12">
-        <v>0.41006979062811566</v>
+        <v>0.42036113880580483</v>
       </c>
       <c r="P51" s="12">
-        <v>0.58993020937188434</v>
+        <v>0.57963886119419517</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2690,34 +2689,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="E52">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="12">
-        <v>0.52027203766675389</v>
+        <v>0.52288778446246398</v>
       </c>
       <c r="I52" s="12">
-        <v>0.47972796233324616</v>
+        <v>0.47711221553753597</v>
       </c>
       <c r="K52">
-        <v>202278</v>
+        <v>203022</v>
       </c>
       <c r="L52">
-        <v>142172</v>
+        <v>141428</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
       <c r="O52" s="12">
-        <v>0.58724923791551753</v>
+        <v>0.58940920307736977</v>
       </c>
       <c r="P52" s="12">
-        <v>0.41275076208448253</v>
+        <v>0.41059079692263029</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2762,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>17926</v>
+        <v>18386</v>
       </c>
       <c r="E54" s="13">
-        <v>29187</v>
+        <v>28727</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.38048946150743956</v>
+        <v>0.3902532209793475</v>
       </c>
       <c r="I54" s="14">
-        <v>0.61951053849256044</v>
+        <v>0.60974677902065244</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1718985</v>
+        <v>1753759</v>
       </c>
       <c r="L54" s="13">
-        <v>2021729</v>
+        <v>1986955</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.45953392854946945</v>
+        <v>0.4688300148046603</v>
       </c>
       <c r="P54" s="14">
-        <v>0.54046607145053061</v>
+        <v>0.53116998519533976</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2943,34 +2942,34 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E59">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F59">
         <v>163</v>
       </c>
       <c r="H59" s="12">
-        <v>0.46012269938650308</v>
+        <v>0.50306748466257667</v>
       </c>
       <c r="I59" s="12">
-        <v>0.53987730061349692</v>
+        <v>0.49693251533742333</v>
       </c>
       <c r="K59">
-        <v>7243</v>
+        <v>7731</v>
       </c>
       <c r="L59">
-        <v>6467</v>
+        <v>5979</v>
       </c>
       <c r="M59">
         <v>13710</v>
       </c>
       <c r="O59" s="12">
-        <v>0.52830051057622174</v>
+        <v>0.56389496717724286</v>
       </c>
       <c r="P59" s="12">
-        <v>0.47169948942377826</v>
+        <v>0.43610503282275709</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,34 +2977,34 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E60">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F60">
         <v>104</v>
       </c>
       <c r="H60" s="12">
-        <v>0.44230769230769229</v>
+        <v>0.51923076923076927</v>
       </c>
       <c r="I60" s="12">
-        <v>0.55769230769230771</v>
+        <v>0.48076923076923078</v>
       </c>
       <c r="K60">
-        <v>4447</v>
+        <v>4982</v>
       </c>
       <c r="L60">
-        <v>3163</v>
+        <v>2628</v>
       </c>
       <c r="M60">
         <v>7610</v>
       </c>
       <c r="O60" s="12">
-        <v>0.58436268068331143</v>
+        <v>0.65466491458607101</v>
       </c>
       <c r="P60" s="12">
-        <v>0.41563731931668857</v>
+        <v>0.34533508541392904</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3015,37 +3014,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E61" s="13">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="F61" s="13">
         <v>944</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.45550847457627119</v>
+        <v>0.47139830508474578</v>
       </c>
       <c r="I61" s="14">
-        <v>0.54449152542372881</v>
+        <v>0.52860169491525422</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>41235</v>
+        <v>42258</v>
       </c>
       <c r="L61" s="13">
-        <v>34444</v>
+        <v>33421</v>
       </c>
       <c r="M61" s="13">
         <v>75679</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.54486713619366012</v>
+        <v>0.55838475666961773</v>
       </c>
       <c r="P61" s="14">
-        <v>0.45513286380633994</v>
+        <v>0.44161524333038227</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3997,34 +3996,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E89">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
       <c r="H89" s="12">
-        <v>0.45161290322580644</v>
+        <v>0.47096774193548385</v>
       </c>
       <c r="I89" s="12">
-        <v>0.54838709677419351</v>
+        <v>0.52903225806451615</v>
       </c>
       <c r="K89">
-        <v>6843</v>
+        <v>7143</v>
       </c>
       <c r="L89">
-        <v>5633</v>
+        <v>5333</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
       <c r="O89" s="12">
-        <v>0.54849310676498875</v>
+        <v>0.57253927540878491</v>
       </c>
       <c r="P89" s="12">
-        <v>0.4515068932350112</v>
+        <v>0.42746072459121515</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4034,37 +4033,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E90" s="13">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.45161290322580644</v>
+        <v>0.47096774193548385</v>
       </c>
       <c r="I90" s="14">
-        <v>0.54838709677419351</v>
+        <v>0.52903225806451615</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>6843</v>
+        <v>7143</v>
       </c>
       <c r="L90" s="13">
-        <v>5633</v>
+        <v>5333</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.54849310676498875</v>
+        <v>0.57253927540878491</v>
       </c>
       <c r="P90" s="14">
-        <v>0.4515068932350112</v>
+        <v>0.42746072459121515</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4075,34 +4074,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E91">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
       <c r="H91" s="12">
-        <v>0.43659043659043661</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I91" s="12">
-        <v>0.56340956340956339</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="K91">
-        <v>19638</v>
+        <v>20074</v>
       </c>
       <c r="L91">
-        <v>19036</v>
+        <v>18600</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
       <c r="O91" s="12">
-        <v>0.50778300667114862</v>
+        <v>0.51905673062005486</v>
       </c>
       <c r="P91" s="12">
-        <v>0.49221699332885144</v>
+        <v>0.48094326937994519</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4110,34 +4109,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E92">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
       <c r="H92" s="12">
-        <v>0.56086956521739129</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="I92" s="12">
-        <v>0.43913043478260871</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="K92">
-        <v>24787</v>
+        <v>24929</v>
       </c>
       <c r="L92">
-        <v>15702</v>
+        <v>15560</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
       <c r="O92" s="12">
-        <v>0.61219096544740548</v>
+        <v>0.61569809083948723</v>
       </c>
       <c r="P92" s="12">
-        <v>0.38780903455259452</v>
+        <v>0.38430190916051271</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4180,34 +4179,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E94">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
       <c r="H94" s="12">
-        <v>0.3632286995515695</v>
+        <v>0.36771300448430494</v>
       </c>
       <c r="I94" s="12">
-        <v>0.63677130044843044</v>
+        <v>0.63228699551569512</v>
       </c>
       <c r="K94">
-        <v>23806</v>
+        <v>24084</v>
       </c>
       <c r="L94">
-        <v>33861</v>
+        <v>33583</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
       <c r="O94" s="12">
-        <v>0.41281842301489585</v>
+        <v>0.41763920439766244</v>
       </c>
       <c r="P94" s="12">
-        <v>0.58718157698510409</v>
+        <v>0.58236079560233756</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4250,34 +4249,34 @@
         <v>103</v>
       </c>
       <c r="D96">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E96">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F96">
         <v>148</v>
       </c>
       <c r="H96" s="12">
-        <v>0.58783783783783783</v>
+        <v>0.59459459459459463</v>
       </c>
       <c r="I96" s="12">
-        <v>0.41216216216216217</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="K96">
-        <v>8437</v>
+        <v>8485</v>
       </c>
       <c r="L96">
-        <v>3612</v>
+        <v>3564</v>
       </c>
       <c r="M96">
         <v>12049</v>
       </c>
       <c r="O96" s="12">
-        <v>0.70022408498630595</v>
+        <v>0.70420781807618893</v>
       </c>
       <c r="P96" s="12">
-        <v>0.29977591501369411</v>
+        <v>0.29579218192381113</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -4425,34 +4424,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E101">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F101">
         <v>244</v>
       </c>
       <c r="H101" s="12">
-        <v>0.36475409836065575</v>
+        <v>0.37295081967213117</v>
       </c>
       <c r="I101" s="12">
-        <v>0.63524590163934425</v>
+        <v>0.62704918032786883</v>
       </c>
       <c r="K101">
-        <v>8219</v>
+        <v>8256</v>
       </c>
       <c r="L101">
-        <v>11138</v>
+        <v>11101</v>
       </c>
       <c r="M101">
         <v>19357</v>
       </c>
       <c r="O101" s="12">
-        <v>0.42460091956398205</v>
+        <v>0.42651237278503901</v>
       </c>
       <c r="P101" s="12">
-        <v>0.57539908043601795</v>
+        <v>0.57348762721496105</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4495,34 +4494,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E103">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
       <c r="H103" s="12">
-        <v>0.47244094488188976</v>
+        <v>0.53018372703412076</v>
       </c>
       <c r="I103" s="12">
-        <v>0.52755905511811019</v>
+        <v>0.46981627296587924</v>
       </c>
       <c r="K103">
-        <v>18458</v>
+        <v>20348</v>
       </c>
       <c r="L103">
-        <v>15386</v>
+        <v>13496</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
       <c r="O103" s="12">
-        <v>0.54538470629949176</v>
+        <v>0.60122916912894453</v>
       </c>
       <c r="P103" s="12">
-        <v>0.45461529370050824</v>
+        <v>0.39877083087105542</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4775,34 +4774,34 @@
         <v>118</v>
       </c>
       <c r="D111">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E111">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F111">
         <v>69</v>
       </c>
       <c r="H111" s="12">
-        <v>0.49275362318840582</v>
+        <v>0.55072463768115942</v>
       </c>
       <c r="I111" s="12">
-        <v>0.50724637681159424</v>
+        <v>0.44927536231884058</v>
       </c>
       <c r="K111">
-        <v>3385</v>
+        <v>3817</v>
       </c>
       <c r="L111">
-        <v>2982</v>
+        <v>2550</v>
       </c>
       <c r="M111">
         <v>6367</v>
       </c>
       <c r="O111" s="12">
-        <v>0.53164755771949113</v>
+        <v>0.59949740851264333</v>
       </c>
       <c r="P111" s="12">
-        <v>0.46835244228050887</v>
+        <v>0.40050259148735667</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
@@ -4880,34 +4879,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="E114">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
       <c r="H114" s="12">
-        <v>0.39750260145681582</v>
+        <v>0.42455775234131116</v>
       </c>
       <c r="I114" s="12">
-        <v>0.60249739854318418</v>
+        <v>0.5754422476586889</v>
       </c>
       <c r="K114">
-        <v>35933</v>
+        <v>38472</v>
       </c>
       <c r="L114">
-        <v>39541</v>
+        <v>37002</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
       <c r="O114" s="12">
-        <v>0.47609772901926489</v>
+        <v>0.50973845297718423</v>
       </c>
       <c r="P114" s="12">
-        <v>0.52390227098073505</v>
+        <v>0.49026154702281582</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4985,34 +4984,34 @@
         <v>124</v>
       </c>
       <c r="D117">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E117">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F117">
         <v>223</v>
       </c>
       <c r="H117" s="12">
-        <v>0.56502242152466364</v>
+        <v>0.56950672645739908</v>
       </c>
       <c r="I117" s="12">
-        <v>0.4349775784753363</v>
+        <v>0.43049327354260092</v>
       </c>
       <c r="K117">
-        <v>12451</v>
+        <v>12499</v>
       </c>
       <c r="L117">
-        <v>5283</v>
+        <v>5235</v>
       </c>
       <c r="M117">
         <v>17734</v>
       </c>
       <c r="O117" s="12">
-        <v>0.70209766550129693</v>
+        <v>0.70480433066426074</v>
       </c>
       <c r="P117" s="12">
-        <v>0.29790233449870307</v>
+        <v>0.29519566933573926</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -5232,37 +5231,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5174</v>
+        <v>5247</v>
       </c>
       <c r="E124" s="13">
-        <v>5260</v>
+        <v>5187</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.49587885758098527</v>
+        <v>0.5028752156411731</v>
       </c>
       <c r="I124" s="14">
-        <v>0.50412114241901473</v>
+        <v>0.4971247843588269</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>499028</v>
+        <v>504878</v>
       </c>
       <c r="L124" s="13">
-        <v>370594</v>
+        <v>364744</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.57384472793926555</v>
+        <v>0.58057178866220038</v>
       </c>
       <c r="P124" s="14">
-        <v>0.42615527206073445</v>
+        <v>0.41942821133779962</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5308,34 +5307,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E126">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
       <c r="H126" s="12">
-        <v>0.4592875318066158</v>
+        <v>0.46564885496183206</v>
       </c>
       <c r="I126" s="12">
-        <v>0.54071246819338425</v>
+        <v>0.53435114503816794</v>
       </c>
       <c r="K126">
-        <v>38461</v>
+        <v>39073</v>
       </c>
       <c r="L126">
-        <v>34201</v>
+        <v>33589</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
       <c r="O126" s="12">
-        <v>0.52931380914370652</v>
+        <v>0.53773636839063055</v>
       </c>
       <c r="P126" s="12">
-        <v>0.47068619085629354</v>
+        <v>0.4622636316093694</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5343,34 +5342,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E127">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
       <c r="H127" s="12">
-        <v>0.44007490636704122</v>
+        <v>0.44756554307116103</v>
       </c>
       <c r="I127" s="12">
-        <v>0.55992509363295884</v>
+        <v>0.55243445692883897</v>
       </c>
       <c r="K127">
-        <v>22126</v>
+        <v>22488</v>
       </c>
       <c r="L127">
-        <v>19160</v>
+        <v>18798</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
       <c r="O127" s="12">
-        <v>0.53592016664244535</v>
+        <v>0.54468827205348058</v>
       </c>
       <c r="P127" s="12">
-        <v>0.46407983335755459</v>
+        <v>0.45531172794651942</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5448,34 +5447,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E130">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F130">
         <v>480</v>
       </c>
       <c r="H130" s="12">
-        <v>0.37708333333333333</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="I130" s="12">
-        <v>0.62291666666666667</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="K130">
-        <v>17928</v>
+        <v>18316</v>
       </c>
       <c r="L130">
-        <v>21374</v>
+        <v>20986</v>
       </c>
       <c r="M130">
         <v>39302</v>
       </c>
       <c r="O130" s="12">
-        <v>0.45615999185792072</v>
+        <v>0.46603226298916084</v>
       </c>
       <c r="P130" s="12">
-        <v>0.54384000814207933</v>
+        <v>0.53396773701083911</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5553,34 +5552,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E133">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F133">
         <v>307</v>
       </c>
       <c r="H133" s="12">
-        <v>0.23452768729641693</v>
+        <v>0.26058631921824105</v>
       </c>
       <c r="I133" s="12">
-        <v>0.76547231270358307</v>
+        <v>0.73941368078175895</v>
       </c>
       <c r="K133">
-        <v>7238</v>
+        <v>7584</v>
       </c>
       <c r="L133">
-        <v>15469</v>
+        <v>15123</v>
       </c>
       <c r="M133">
         <v>22707</v>
       </c>
       <c r="O133" s="12">
-        <v>0.31875633064693709</v>
+        <v>0.33399392257894039</v>
       </c>
       <c r="P133" s="12">
-        <v>0.68124366935306291</v>
+        <v>0.66600607742105955</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5588,34 +5587,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E134">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F134">
         <v>431</v>
       </c>
       <c r="H134" s="12">
-        <v>0.41299303944315546</v>
+        <v>0.42459396751740142</v>
       </c>
       <c r="I134" s="12">
-        <v>0.58700696055684454</v>
+        <v>0.57540603248259858</v>
       </c>
       <c r="K134">
-        <v>17405</v>
+        <v>17789</v>
       </c>
       <c r="L134">
-        <v>16506</v>
+        <v>16122</v>
       </c>
       <c r="M134">
         <v>33911</v>
       </c>
       <c r="O134" s="12">
-        <v>0.51325528589543212</v>
+        <v>0.52457904514759224</v>
       </c>
       <c r="P134" s="12">
-        <v>0.48674471410456782</v>
+        <v>0.47542095485240776</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5658,34 +5657,34 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E136">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F136">
         <v>193</v>
       </c>
       <c r="H136" s="12">
-        <v>0.47150259067357514</v>
+        <v>0.48704663212435234</v>
       </c>
       <c r="I136" s="12">
-        <v>0.52849740932642486</v>
+        <v>0.51295336787564771</v>
       </c>
       <c r="K136">
-        <v>7984</v>
+        <v>8196</v>
       </c>
       <c r="L136">
-        <v>5616</v>
+        <v>5404</v>
       </c>
       <c r="M136">
         <v>13600</v>
       </c>
       <c r="O136" s="12">
-        <v>0.58705882352941174</v>
+        <v>0.60264705882352942</v>
       </c>
       <c r="P136" s="12">
-        <v>0.41294117647058826</v>
+        <v>0.39735294117647058</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5730,37 +5729,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2081</v>
+        <v>2110</v>
       </c>
       <c r="E138" s="13">
-        <v>2890</v>
+        <v>2861</v>
       </c>
       <c r="F138" s="13">
         <v>4971</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.41862804264735465</v>
+        <v>0.42446187889760612</v>
       </c>
       <c r="I138" s="14">
-        <v>0.58137195735264535</v>
+        <v>0.57553812110239388</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>203440</v>
+        <v>205744</v>
       </c>
       <c r="L138" s="13">
-        <v>196899</v>
+        <v>194595</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.50816932649579483</v>
+        <v>0.51392444902944756</v>
       </c>
       <c r="P138" s="14">
-        <v>0.49183067350420517</v>
+        <v>0.48607555097055244</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5770,37 +5769,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>26437</v>
+        <v>27017</v>
       </c>
       <c r="E139" s="13">
-        <v>39574</v>
+        <v>38994</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.40049385708442531</v>
+        <v>0.40928027146990653</v>
       </c>
       <c r="I139" s="14">
-        <v>0.59950614291557469</v>
+        <v>0.59071972853009347</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2539086</v>
+        <v>2583337</v>
       </c>
       <c r="L139" s="13">
-        <v>2736850</v>
+        <v>2692599</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.48125792276479473</v>
+        <v>0.48964524967702411</v>
       </c>
       <c r="P139" s="14">
-        <v>0.51874207723520527</v>
+        <v>0.51035475032297584</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9886F199-C04B-4E8F-B9EB-8C90A86BAB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69503BEF-7958-46DB-8509-B8A2EC9DAA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E68164E-6FE4-4FF0-B74B-C68B15A632B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19B20AB5-5515-4FFF-9DCF-4E298FC6429B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,14 +888,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7A1E76-949D-4E30-B98B-D493378830BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3366451-F8EA-448B-9F0C-23ED808438AF}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +905,7 @@
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="12" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
@@ -1106,34 +1106,34 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>113</v>
       </c>
       <c r="H7" s="12">
-        <v>0.38938053097345132</v>
+        <v>0.4336283185840708</v>
       </c>
       <c r="I7" s="12">
-        <v>0.61061946902654862</v>
+        <v>0.5663716814159292</v>
       </c>
       <c r="K7">
-        <v>3953</v>
+        <v>4361</v>
       </c>
       <c r="L7">
-        <v>4260</v>
+        <v>3852</v>
       </c>
       <c r="M7">
         <v>8213</v>
       </c>
       <c r="O7" s="12">
-        <v>0.48131011810544261</v>
+        <v>0.53098745890661148</v>
       </c>
       <c r="P7" s="12">
-        <v>0.51868988189455745</v>
+        <v>0.46901254109338852</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1178,37 +1178,37 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E9" s="13">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F9" s="13">
         <v>246</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
-        <v>0.32926829268292684</v>
+        <v>0.34959349593495936</v>
       </c>
       <c r="I9" s="14">
-        <v>0.67073170731707321</v>
+        <v>0.65040650406504064</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13">
-        <v>6958</v>
+        <v>7366</v>
       </c>
       <c r="L9" s="13">
-        <v>10671</v>
+        <v>10263</v>
       </c>
       <c r="M9" s="13">
         <v>17629</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14">
-        <v>0.39469056667990243</v>
+        <v>0.41783425038289185</v>
       </c>
       <c r="P9" s="14">
-        <v>0.60530943332009757</v>
+        <v>0.58216574961710821</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1254,34 +1254,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="E11">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
       <c r="H11" s="12">
-        <v>0.25575447570332482</v>
+        <v>0.32225063938618925</v>
       </c>
       <c r="I11" s="12">
-        <v>0.74424552429667523</v>
+        <v>0.67774936061381075</v>
       </c>
       <c r="K11">
-        <v>19048</v>
+        <v>24188</v>
       </c>
       <c r="L11">
-        <v>41584</v>
+        <v>36444</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
       <c r="O11" s="12">
-        <v>0.3141575405726349</v>
+        <v>0.39893125742182345</v>
       </c>
       <c r="P11" s="12">
-        <v>0.6858424594273651</v>
+        <v>0.60106874257817655</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1289,34 +1289,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E12">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F12">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H12" s="12">
-        <v>0.32867132867132864</v>
+        <v>0.33797909407665505</v>
       </c>
       <c r="I12" s="12">
-        <v>0.67132867132867136</v>
+        <v>0.66202090592334495</v>
       </c>
       <c r="K12">
-        <v>17656</v>
+        <v>18027</v>
       </c>
       <c r="L12">
-        <v>26109</v>
+        <v>25834</v>
       </c>
       <c r="M12">
-        <v>43765</v>
+        <v>43861</v>
       </c>
       <c r="O12" s="12">
-        <v>0.40342739632126129</v>
+        <v>0.41100294110941382</v>
       </c>
       <c r="P12" s="12">
-        <v>0.59657260367873877</v>
+        <v>0.58899705889058618</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1324,34 +1324,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E13">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="F13">
         <v>567</v>
       </c>
       <c r="H13" s="12">
-        <v>0.37918871252204583</v>
+        <v>0.42151675485008816</v>
       </c>
       <c r="I13" s="12">
-        <v>0.62081128747795411</v>
+        <v>0.57848324514991178</v>
       </c>
       <c r="K13">
-        <v>21415</v>
+        <v>24141</v>
       </c>
       <c r="L13">
-        <v>26268</v>
+        <v>23542</v>
       </c>
       <c r="M13">
         <v>47683</v>
       </c>
       <c r="O13" s="12">
-        <v>0.44911184279512617</v>
+        <v>0.50628106453033572</v>
       </c>
       <c r="P13" s="12">
-        <v>0.55088815720487383</v>
+        <v>0.49371893546966422</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1359,34 +1359,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="E14">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="F14">
         <v>1107</v>
       </c>
       <c r="H14" s="12">
-        <v>0.45528455284552843</v>
+        <v>0.48509485094850946</v>
       </c>
       <c r="I14" s="12">
-        <v>0.54471544715447151</v>
+        <v>0.51490514905149054</v>
       </c>
       <c r="K14">
-        <v>48506</v>
+        <v>51632</v>
       </c>
       <c r="L14">
-        <v>43853</v>
+        <v>40727</v>
       </c>
       <c r="M14">
         <v>92359</v>
       </c>
       <c r="O14" s="12">
-        <v>0.52518974869801538</v>
+        <v>0.55903593585898503</v>
       </c>
       <c r="P14" s="12">
-        <v>0.47481025130198462</v>
+        <v>0.44096406414101497</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1394,34 +1394,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E15">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
       <c r="H15" s="12">
-        <v>0.45529290853031862</v>
+        <v>0.46248715313463518</v>
       </c>
       <c r="I15" s="12">
-        <v>0.54470709146968144</v>
+        <v>0.53751284686536482</v>
       </c>
       <c r="K15">
-        <v>40823</v>
+        <v>41507</v>
       </c>
       <c r="L15">
-        <v>33553</v>
+        <v>32869</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
       <c r="O15" s="12">
-        <v>0.54887329245993333</v>
+        <v>0.55806980746477364</v>
       </c>
       <c r="P15" s="12">
-        <v>0.45112670754006667</v>
+        <v>0.44193019253522642</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1429,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="E16">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
       <c r="H16" s="12">
-        <v>0.58763837638376382</v>
+        <v>0.59778597785977861</v>
       </c>
       <c r="I16" s="12">
-        <v>0.41236162361623618</v>
+        <v>0.40221402214022139</v>
       </c>
       <c r="K16">
-        <v>54019</v>
+        <v>55085</v>
       </c>
       <c r="L16">
-        <v>28461</v>
+        <v>27395</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
       <c r="O16" s="12">
-        <v>0.65493452958292919</v>
+        <v>0.6678588748787585</v>
       </c>
       <c r="P16" s="12">
-        <v>0.34506547041707081</v>
+        <v>0.3321411251212415</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1464,34 +1464,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="E17">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
       <c r="H17" s="12">
-        <v>0.31673469387755104</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="I17" s="12">
-        <v>0.68326530612244896</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="K17">
-        <v>37429</v>
+        <v>40485</v>
       </c>
       <c r="L17">
-        <v>65334</v>
+        <v>62278</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
       <c r="O17" s="12">
-        <v>0.36422642390743748</v>
+        <v>0.39396475385109425</v>
       </c>
       <c r="P17" s="12">
-        <v>0.63577357609256246</v>
+        <v>0.60603524614890569</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1499,34 +1499,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="E18">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
       <c r="H18" s="12">
-        <v>0.40258722069776559</v>
+        <v>0.40611524892199136</v>
       </c>
       <c r="I18" s="12">
-        <v>0.59741277930223446</v>
+        <v>0.59388475107800864</v>
       </c>
       <c r="K18">
-        <v>96439</v>
+        <v>97459</v>
       </c>
       <c r="L18">
-        <v>97782</v>
+        <v>96762</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
       <c r="O18" s="12">
-        <v>0.49654259838019577</v>
+        <v>0.50179434767610098</v>
       </c>
       <c r="P18" s="12">
-        <v>0.50345740161980423</v>
+        <v>0.49820565232389907</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1534,34 +1534,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E19">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
       <c r="H19" s="12">
-        <v>0.35497382198952881</v>
+        <v>0.36335078534031412</v>
       </c>
       <c r="I19" s="12">
-        <v>0.64502617801047124</v>
+        <v>0.63664921465968582</v>
       </c>
       <c r="K19">
-        <v>31666</v>
+        <v>32157</v>
       </c>
       <c r="L19">
-        <v>39313</v>
+        <v>38822</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
       <c r="O19" s="12">
-        <v>0.44613195452175997</v>
+        <v>0.45304949351216556</v>
       </c>
       <c r="P19" s="12">
-        <v>0.55386804547824009</v>
+        <v>0.54695050648783439</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1569,34 +1569,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="E20">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="F20">
         <v>657</v>
       </c>
       <c r="H20" s="12">
-        <v>0.42922374429223742</v>
+        <v>0.53881278538812782</v>
       </c>
       <c r="I20" s="12">
-        <v>0.57077625570776258</v>
+        <v>0.46118721461187212</v>
       </c>
       <c r="K20">
-        <v>27559</v>
+        <v>34445</v>
       </c>
       <c r="L20">
-        <v>27004</v>
+        <v>20118</v>
       </c>
       <c r="M20">
         <v>54563</v>
       </c>
       <c r="O20" s="12">
-        <v>0.5050858640470649</v>
+        <v>0.63128860216630323</v>
       </c>
       <c r="P20" s="12">
-        <v>0.49491413595293515</v>
+        <v>0.36871139783369683</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1604,34 +1604,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="E21">
-        <v>890</v>
+        <v>851</v>
       </c>
       <c r="F21">
         <v>1295</v>
       </c>
       <c r="H21" s="12">
-        <v>0.31274131274131273</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="I21" s="12">
-        <v>0.68725868725868722</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="K21">
-        <v>39362</v>
+        <v>43404</v>
       </c>
       <c r="L21">
-        <v>62684</v>
+        <v>58642</v>
       </c>
       <c r="M21">
         <v>102046</v>
       </c>
       <c r="O21" s="12">
-        <v>0.38572800501734511</v>
+        <v>0.42533759285028322</v>
       </c>
       <c r="P21" s="12">
-        <v>0.61427199498265483</v>
+        <v>0.57466240714971684</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1639,34 +1639,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="E22">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
       <c r="H22" s="12">
-        <v>0.38422391857506361</v>
+        <v>0.39949109414758271</v>
       </c>
       <c r="I22" s="12">
-        <v>0.61577608142493634</v>
+        <v>0.60050890585241734</v>
       </c>
       <c r="K22">
-        <v>43477</v>
+        <v>45249</v>
       </c>
       <c r="L22">
-        <v>52135</v>
+        <v>50363</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
       <c r="O22" s="12">
-        <v>0.45472325649500062</v>
+        <v>0.47325649500062755</v>
       </c>
       <c r="P22" s="12">
-        <v>0.54527674350499933</v>
+        <v>0.5267435049993725</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1674,34 +1674,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="E23">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
       <c r="H23" s="12">
-        <v>0.31144683323649042</v>
+        <v>0.31609529343404996</v>
       </c>
       <c r="I23" s="12">
-        <v>0.68855316676350964</v>
+        <v>0.68390470656595004</v>
       </c>
       <c r="K23">
-        <v>50563</v>
+        <v>51286</v>
       </c>
       <c r="L23">
-        <v>80508</v>
+        <v>79785</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
       <c r="O23" s="12">
-        <v>0.38576801886000717</v>
+        <v>0.39128411319056083</v>
       </c>
       <c r="P23" s="12">
-        <v>0.61423198113999278</v>
+        <v>0.60871588680943911</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1744,34 +1744,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E25">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F25">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H25" s="12">
-        <v>0.4113545816733068</v>
+        <v>0.41716566866267463</v>
       </c>
       <c r="I25" s="12">
-        <v>0.58864541832669326</v>
+        <v>0.58283433133732532</v>
       </c>
       <c r="K25">
-        <v>39975</v>
+        <v>40527</v>
       </c>
       <c r="L25">
-        <v>39821</v>
+        <v>39173</v>
       </c>
       <c r="M25">
-        <v>79796</v>
+        <v>79700</v>
       </c>
       <c r="O25" s="12">
-        <v>0.50096496064965668</v>
+        <v>0.50849435382685071</v>
       </c>
       <c r="P25" s="12">
-        <v>0.49903503935034338</v>
+        <v>0.49150564617314929</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1814,34 +1814,34 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E27">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F27">
         <v>251</v>
       </c>
       <c r="H27" s="12">
-        <v>0.34262948207171312</v>
+        <v>0.36254980079681276</v>
       </c>
       <c r="I27" s="12">
-        <v>0.65737051792828682</v>
+        <v>0.63745019920318724</v>
       </c>
       <c r="K27">
-        <v>7798</v>
+        <v>8203</v>
       </c>
       <c r="L27">
-        <v>11933</v>
+        <v>11528</v>
       </c>
       <c r="M27">
         <v>19731</v>
       </c>
       <c r="O27" s="12">
-        <v>0.39521565049921442</v>
+        <v>0.41574172621762706</v>
       </c>
       <c r="P27" s="12">
-        <v>0.60478434950078552</v>
+        <v>0.58425827378237294</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1849,34 +1849,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>715</v>
+        <v>766</v>
       </c>
       <c r="E28">
-        <v>1509</v>
+        <v>1458</v>
       </c>
       <c r="F28">
         <v>2224</v>
       </c>
       <c r="H28" s="12">
-        <v>0.32149280575539568</v>
+        <v>0.3444244604316547</v>
       </c>
       <c r="I28" s="12">
-        <v>0.67850719424460426</v>
+        <v>0.65557553956834536</v>
       </c>
       <c r="K28">
-        <v>67841</v>
+        <v>72623</v>
       </c>
       <c r="L28">
-        <v>103493</v>
+        <v>98711</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="12">
-        <v>0.39595760327780827</v>
+        <v>0.42386800051361667</v>
       </c>
       <c r="P28" s="12">
-        <v>0.60404239672219173</v>
+        <v>0.57613199948638327</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1884,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1571</v>
+        <v>1709</v>
       </c>
       <c r="E29">
-        <v>1538</v>
+        <v>1400</v>
       </c>
       <c r="F29">
         <v>3109</v>
       </c>
       <c r="H29" s="12">
-        <v>0.50530717272434866</v>
+        <v>0.54969443550981023</v>
       </c>
       <c r="I29" s="12">
-        <v>0.49469282727565134</v>
+        <v>0.45030556449018977</v>
       </c>
       <c r="K29">
-        <v>152664</v>
+        <v>165953</v>
       </c>
       <c r="L29">
-        <v>115753</v>
+        <v>102464</v>
       </c>
       <c r="M29">
         <v>268417</v>
       </c>
       <c r="O29" s="12">
-        <v>0.56875682240692649</v>
+        <v>0.61826560910821593</v>
       </c>
       <c r="P29" s="12">
-        <v>0.43124317759307346</v>
+        <v>0.38173439089178407</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1919,34 +1919,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E30">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
       <c r="H30" s="12">
-        <v>0.41767068273092367</v>
+        <v>0.43373493975903615</v>
       </c>
       <c r="I30" s="12">
-        <v>0.58232931726907633</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="K30">
-        <v>21137</v>
+        <v>21999</v>
       </c>
       <c r="L30">
-        <v>19603</v>
+        <v>18741</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
       <c r="O30" s="12">
-        <v>0.51882670594010805</v>
+        <v>0.53998527245949923</v>
       </c>
       <c r="P30" s="12">
-        <v>0.48117329405989201</v>
+        <v>0.46001472754050071</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1954,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="E31">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="12">
-        <v>0.3716216216216216</v>
+        <v>0.43339768339768342</v>
       </c>
       <c r="I31" s="12">
-        <v>0.6283783783783784</v>
+        <v>0.56660231660231664</v>
       </c>
       <c r="K31">
-        <v>38718</v>
+        <v>45137</v>
       </c>
       <c r="L31">
-        <v>46310</v>
+        <v>39891</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="12">
-        <v>0.45535588276802935</v>
+        <v>0.53084866161734956</v>
       </c>
       <c r="P31" s="12">
-        <v>0.54464411723197059</v>
+        <v>0.46915133838265044</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1989,34 +1989,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E32">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
       <c r="H32" s="12">
-        <v>0.51802656546489567</v>
+        <v>0.54459203036053128</v>
       </c>
       <c r="I32" s="12">
-        <v>0.48197343453510438</v>
+        <v>0.45540796963946867</v>
       </c>
       <c r="K32">
-        <v>27919</v>
+        <v>29300</v>
       </c>
       <c r="L32">
-        <v>16908</v>
+        <v>15527</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
       <c r="O32" s="12">
-        <v>0.62281660606331002</v>
+        <v>0.6536239320052647</v>
       </c>
       <c r="P32" s="12">
-        <v>0.37718339393668993</v>
+        <v>0.3463760679947353</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2024,34 +2024,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="E33">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
       <c r="H33" s="12">
-        <v>0.39737582005623245</v>
+        <v>0.42361761949390814</v>
       </c>
       <c r="I33" s="12">
-        <v>0.6026241799437676</v>
+        <v>0.57638238050609181</v>
       </c>
       <c r="K33">
-        <v>37399</v>
+        <v>39330</v>
       </c>
       <c r="L33">
-        <v>38447</v>
+        <v>36516</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
       <c r="O33" s="12">
-        <v>0.49309126387680302</v>
+        <v>0.51855074756743924</v>
       </c>
       <c r="P33" s="12">
-        <v>0.50690873612319698</v>
+        <v>0.4814492524325607</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2059,34 +2059,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="E34">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="12">
-        <v>0.39263803680981596</v>
+        <v>0.41454864154250659</v>
       </c>
       <c r="I34" s="12">
-        <v>0.6073619631901841</v>
+        <v>0.58545135845749341</v>
       </c>
       <c r="K34">
-        <v>41575</v>
+        <v>43933</v>
       </c>
       <c r="L34">
-        <v>45863</v>
+        <v>43505</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
       <c r="O34" s="12">
-        <v>0.47547976852169538</v>
+        <v>0.50244744847777856</v>
       </c>
       <c r="P34" s="12">
-        <v>0.52452023147830462</v>
+        <v>0.49755255152222144</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2164,34 +2164,34 @@
         <v>41</v>
       </c>
       <c r="D37">
+        <v>366</v>
+      </c>
+      <c r="E37">
         <v>320</v>
-      </c>
-      <c r="E37">
-        <v>366</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
       <c r="H37" s="12">
+        <v>0.53352769679300294</v>
+      </c>
+      <c r="I37" s="12">
         <v>0.46647230320699706</v>
       </c>
-      <c r="I37" s="12">
-        <v>0.53352769679300294</v>
-      </c>
       <c r="K37">
-        <v>30368</v>
+        <v>35359</v>
       </c>
       <c r="L37">
-        <v>27553</v>
+        <v>22562</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
       <c r="O37" s="12">
-        <v>0.52430034011843718</v>
+        <v>0.61046943250289187</v>
       </c>
       <c r="P37" s="12">
-        <v>0.47569965988156282</v>
+        <v>0.38953056749710813</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2199,34 +2199,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="E38">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
       <c r="H38" s="12">
-        <v>0.31447368421052629</v>
+        <v>0.35657894736842105</v>
       </c>
       <c r="I38" s="12">
-        <v>0.68552631578947365</v>
+        <v>0.64342105263157889</v>
       </c>
       <c r="K38">
-        <v>22639</v>
+        <v>25745</v>
       </c>
       <c r="L38">
-        <v>32645</v>
+        <v>29539</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
       <c r="O38" s="12">
-        <v>0.40950365386006804</v>
+        <v>0.46568627450980393</v>
       </c>
       <c r="P38" s="12">
-        <v>0.59049634613993196</v>
+        <v>0.53431372549019607</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2304,34 +2304,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="E41">
-        <v>1430</v>
+        <v>1355</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
       <c r="H41" s="12">
-        <v>0.2692897291773122</v>
+        <v>0.30761369443025038</v>
       </c>
       <c r="I41" s="12">
-        <v>0.7307102708226878</v>
+        <v>0.69238630556974967</v>
       </c>
       <c r="K41">
-        <v>50690</v>
+        <v>58561</v>
       </c>
       <c r="L41">
-        <v>95929</v>
+        <v>88058</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
       <c r="O41" s="12">
-        <v>0.34572599731276299</v>
+        <v>0.39940935349443113</v>
       </c>
       <c r="P41" s="12">
-        <v>0.65427400268723701</v>
+        <v>0.60059064650556881</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2339,34 +2339,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="E42">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
       <c r="H42" s="12">
-        <v>0.35599999999999998</v>
+        <v>0.41466666666666668</v>
       </c>
       <c r="I42" s="12">
-        <v>0.64400000000000002</v>
+        <v>0.58533333333333337</v>
       </c>
       <c r="K42">
-        <v>25886</v>
+        <v>30539</v>
       </c>
       <c r="L42">
-        <v>36545</v>
+        <v>31892</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
       <c r="O42" s="12">
-        <v>0.41463375566625554</v>
+        <v>0.48916403709695505</v>
       </c>
       <c r="P42" s="12">
-        <v>0.5853662443337444</v>
+        <v>0.510835962903045</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2374,34 +2374,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E43">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
       <c r="H43" s="12">
-        <v>0.31302270011947431</v>
+        <v>0.31899641577060933</v>
       </c>
       <c r="I43" s="12">
-        <v>0.68697729988052569</v>
+        <v>0.68100358422939067</v>
       </c>
       <c r="K43">
-        <v>24778</v>
+        <v>25354</v>
       </c>
       <c r="L43">
-        <v>39216</v>
+        <v>38640</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
       <c r="O43" s="12">
-        <v>0.38719254930149699</v>
+        <v>0.39619339313060598</v>
       </c>
       <c r="P43" s="12">
-        <v>0.61280745069850295</v>
+        <v>0.60380660686939402</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2409,34 +2409,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="E44">
-        <v>2015</v>
+        <v>1967</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
       <c r="H44" s="12">
-        <v>0.19912559618441972</v>
+        <v>0.21820349761526231</v>
       </c>
       <c r="I44" s="12">
-        <v>0.80087440381558028</v>
+        <v>0.78179650238473763</v>
       </c>
       <c r="K44">
-        <v>47430</v>
+        <v>52220</v>
       </c>
       <c r="L44">
-        <v>138200</v>
+        <v>133410</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
       <c r="O44" s="12">
-        <v>0.25550826913753166</v>
+        <v>0.28131228788450141</v>
       </c>
       <c r="P44" s="12">
-        <v>0.74449173086246834</v>
+        <v>0.71868771211549853</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2444,34 +2444,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>591</v>
+        <v>652</v>
       </c>
       <c r="E45">
-        <v>1508</v>
+        <v>1447</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
       <c r="H45" s="12">
-        <v>0.28156264888041926</v>
+        <v>0.31062410671748453</v>
       </c>
       <c r="I45" s="12">
-        <v>0.71843735111958074</v>
+        <v>0.68937589328251547</v>
       </c>
       <c r="K45">
-        <v>56417</v>
+        <v>62389</v>
       </c>
       <c r="L45">
-        <v>104957</v>
+        <v>98985</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
       <c r="O45" s="12">
-        <v>0.34960402543160607</v>
+        <v>0.38661122609590143</v>
       </c>
       <c r="P45" s="12">
-        <v>0.65039597456839393</v>
+        <v>0.61338877390409852</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2479,34 +2479,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E46">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
       <c r="H46" s="12">
-        <v>0.37026239067055394</v>
+        <v>0.39067055393586003</v>
       </c>
       <c r="I46" s="12">
-        <v>0.62973760932944611</v>
+        <v>0.60932944606413997</v>
       </c>
       <c r="K46">
-        <v>24569</v>
+        <v>25961</v>
       </c>
       <c r="L46">
-        <v>29413</v>
+        <v>28021</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
       <c r="O46" s="12">
-        <v>0.45513319254566337</v>
+        <v>0.48091956578118633</v>
       </c>
       <c r="P46" s="12">
-        <v>0.54486680745433658</v>
+        <v>0.51908043421881367</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2514,34 +2514,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="E47">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
       <c r="H47" s="12">
-        <v>0.33049817739975701</v>
+        <v>0.3778857837181045</v>
       </c>
       <c r="I47" s="12">
-        <v>0.66950182260024305</v>
+        <v>0.62211421628189545</v>
       </c>
       <c r="K47">
-        <v>23391</v>
+        <v>27209</v>
       </c>
       <c r="L47">
-        <v>39279</v>
+        <v>35461</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
       <c r="O47" s="12">
-        <v>0.37324078506462421</v>
+        <v>0.43416307643210467</v>
       </c>
       <c r="P47" s="12">
-        <v>0.62675921493537579</v>
+        <v>0.56583692356789528</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2549,34 +2549,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="E48">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
       <c r="H48" s="12">
-        <v>0.26950354609929078</v>
+        <v>0.30141843971631205</v>
       </c>
       <c r="I48" s="12">
-        <v>0.73049645390070927</v>
+        <v>0.6985815602836879</v>
       </c>
       <c r="K48">
-        <v>21216</v>
+        <v>23951</v>
       </c>
       <c r="L48">
-        <v>46148</v>
+        <v>43413</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
       <c r="O48" s="12">
-        <v>0.31494566830948278</v>
+        <v>0.35554598895552519</v>
       </c>
       <c r="P48" s="12">
-        <v>0.68505433169051722</v>
+        <v>0.64445401104447475</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2584,34 +2584,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E49">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
       <c r="H49" s="12">
-        <v>0.40768094534711963</v>
+        <v>0.41358936484490399</v>
       </c>
       <c r="I49" s="12">
-        <v>0.59231905465288037</v>
+        <v>0.58641063515509606</v>
       </c>
       <c r="K49">
-        <v>26616</v>
+        <v>27024</v>
       </c>
       <c r="L49">
-        <v>27576</v>
+        <v>27168</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
       <c r="O49" s="12">
-        <v>0.49114260407440213</v>
+        <v>0.49867139061116034</v>
       </c>
       <c r="P49" s="12">
-        <v>0.50885739592559787</v>
+        <v>0.50132860938883972</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2654,34 +2654,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="E51">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
       <c r="H51" s="12">
-        <v>0.35409252669039148</v>
+        <v>0.38256227758007116</v>
       </c>
       <c r="I51" s="12">
-        <v>0.64590747330960852</v>
+        <v>0.61743772241992878</v>
       </c>
       <c r="K51">
-        <v>37946</v>
+        <v>41285</v>
       </c>
       <c r="L51">
-        <v>52324</v>
+        <v>48985</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
       <c r="O51" s="12">
-        <v>0.42036113880580483</v>
+        <v>0.45735017170710091</v>
       </c>
       <c r="P51" s="12">
-        <v>0.57963886119419517</v>
+        <v>0.54264982829289909</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2689,34 +2689,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>1999</v>
+        <v>2179</v>
       </c>
       <c r="E52">
-        <v>1824</v>
+        <v>1644</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="12">
-        <v>0.52288778446246398</v>
+        <v>0.56997122678524714</v>
       </c>
       <c r="I52" s="12">
-        <v>0.47711221553753597</v>
+        <v>0.4300287732147528</v>
       </c>
       <c r="K52">
-        <v>203022</v>
+        <v>223033</v>
       </c>
       <c r="L52">
-        <v>141428</v>
+        <v>121417</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
       <c r="O52" s="12">
-        <v>0.58940920307736977</v>
+        <v>0.64750471766584405</v>
       </c>
       <c r="P52" s="12">
-        <v>0.41059079692263029</v>
+        <v>0.35249528233415589</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2761,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>18386</v>
+        <v>19650</v>
       </c>
       <c r="E54" s="13">
-        <v>28727</v>
+        <v>27463</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.3902532209793475</v>
+        <v>0.41708233396302508</v>
       </c>
       <c r="I54" s="14">
-        <v>0.60974677902065244</v>
+        <v>0.58291766603697492</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1753759</v>
+        <v>1880503</v>
       </c>
       <c r="L54" s="13">
-        <v>1986955</v>
+        <v>1860211</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.4688300148046603</v>
+        <v>0.50271231641873715</v>
       </c>
       <c r="P54" s="14">
-        <v>0.53116998519533976</v>
+        <v>0.49728768358126285</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3439,29 +3439,35 @@
       <c r="B73" t="s">
         <v>79</v>
       </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
       <c r="E73">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F73">
         <v>31</v>
       </c>
       <c r="H73" s="12">
-        <v>0</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="I73" s="12">
-        <v>1</v>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="K73">
+        <v>1166</v>
       </c>
       <c r="L73">
-        <v>2447</v>
+        <v>1281</v>
       </c>
       <c r="M73">
         <v>2447</v>
       </c>
       <c r="O73" s="12">
-        <v>0</v>
+        <v>0.4765018389865141</v>
       </c>
       <c r="P73" s="12">
-        <v>1</v>
+        <v>0.5234981610134859</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
@@ -3713,29 +3719,35 @@
       <c r="B81" t="s">
         <v>87</v>
       </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
       <c r="E81">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F81">
         <v>31</v>
       </c>
       <c r="H81" s="12">
-        <v>0</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="I81" s="12">
-        <v>1</v>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="K81">
+        <v>979</v>
       </c>
       <c r="L81">
-        <v>1846</v>
+        <v>867</v>
       </c>
       <c r="M81">
         <v>1846</v>
       </c>
       <c r="O81" s="12">
-        <v>0</v>
+        <v>0.53033586132177679</v>
       </c>
       <c r="P81" s="12">
-        <v>1</v>
+        <v>0.46966413867822321</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -3743,34 +3755,34 @@
         <v>88</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82">
         <v>39</v>
       </c>
       <c r="H82" s="12">
-        <v>0.4358974358974359</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I82" s="12">
-        <v>0.5641025641025641</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="K82">
-        <v>1809</v>
+        <v>1929</v>
       </c>
       <c r="L82">
-        <v>1472</v>
+        <v>1352</v>
       </c>
       <c r="M82">
         <v>3281</v>
       </c>
       <c r="O82" s="12">
-        <v>0.55135629381286189</v>
+        <v>0.58793050899116128</v>
       </c>
       <c r="P82" s="12">
-        <v>0.44864370618713806</v>
+        <v>0.41206949100883877</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -3955,37 +3967,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="E88" s="13">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.31424581005586594</v>
+        <v>0.32355679702048418</v>
       </c>
       <c r="I88" s="14">
-        <v>0.68575418994413406</v>
+        <v>0.67644320297951588</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>62597</v>
+        <v>64862</v>
       </c>
       <c r="L88" s="13">
-        <v>96880</v>
+        <v>94615</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.39251428105620245</v>
+        <v>0.40671695605008873</v>
       </c>
       <c r="P88" s="14">
-        <v>0.60748571894379755</v>
+        <v>0.59328304394991127</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3996,34 +4008,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E89">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
       <c r="H89" s="12">
-        <v>0.47096774193548385</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="I89" s="12">
-        <v>0.52903225806451615</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="K89">
-        <v>7143</v>
+        <v>7831</v>
       </c>
       <c r="L89">
-        <v>5333</v>
+        <v>4645</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
       <c r="O89" s="12">
-        <v>0.57253927540878491</v>
+        <v>0.62768515549855719</v>
       </c>
       <c r="P89" s="12">
-        <v>0.42746072459121515</v>
+        <v>0.37231484450144275</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4033,37 +4045,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E90" s="13">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.47096774193548385</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="I90" s="14">
-        <v>0.52903225806451615</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>7143</v>
+        <v>7831</v>
       </c>
       <c r="L90" s="13">
-        <v>5333</v>
+        <v>4645</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.57253927540878491</v>
+        <v>0.62768515549855719</v>
       </c>
       <c r="P90" s="14">
-        <v>0.42746072459121515</v>
+        <v>0.37231484450144275</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4074,34 +4086,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E91">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
       <c r="H91" s="12">
-        <v>0.46153846153846156</v>
+        <v>0.49688149688149691</v>
       </c>
       <c r="I91" s="12">
-        <v>0.53846153846153844</v>
+        <v>0.50311850311850315</v>
       </c>
       <c r="K91">
-        <v>20074</v>
+        <v>21784</v>
       </c>
       <c r="L91">
-        <v>18600</v>
+        <v>16890</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
       <c r="O91" s="12">
-        <v>0.51905673062005486</v>
+        <v>0.56327248280498521</v>
       </c>
       <c r="P91" s="12">
-        <v>0.48094326937994519</v>
+        <v>0.43672751719501474</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4109,34 +4121,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E92">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
       <c r="H92" s="12">
-        <v>0.56521739130434778</v>
+        <v>0.59130434782608698</v>
       </c>
       <c r="I92" s="12">
-        <v>0.43478260869565216</v>
+        <v>0.40869565217391307</v>
       </c>
       <c r="K92">
-        <v>24929</v>
+        <v>26098</v>
       </c>
       <c r="L92">
-        <v>15560</v>
+        <v>14391</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
       <c r="O92" s="12">
-        <v>0.61569809083948723</v>
+        <v>0.6445701301588086</v>
       </c>
       <c r="P92" s="12">
-        <v>0.38430190916051271</v>
+        <v>0.35542986984119146</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4144,34 +4156,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E93">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
       <c r="H93" s="12">
-        <v>0.50884955752212391</v>
+        <v>0.52654867256637172</v>
       </c>
       <c r="I93" s="12">
-        <v>0.49115044247787609</v>
+        <v>0.47345132743362833</v>
       </c>
       <c r="K93">
-        <v>45133</v>
+        <v>46772</v>
       </c>
       <c r="L93">
-        <v>30393</v>
+        <v>28754</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
       <c r="O93" s="12">
-        <v>0.59758228954267401</v>
+        <v>0.61928342557529859</v>
       </c>
       <c r="P93" s="12">
-        <v>0.40241771045732594</v>
+        <v>0.38071657442470141</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4179,34 +4191,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E94">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
       <c r="H94" s="12">
-        <v>0.36771300448430494</v>
+        <v>0.39013452914798208</v>
       </c>
       <c r="I94" s="12">
-        <v>0.63228699551569512</v>
+        <v>0.60986547085201792</v>
       </c>
       <c r="K94">
-        <v>24084</v>
+        <v>25771</v>
       </c>
       <c r="L94">
-        <v>33583</v>
+        <v>31896</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
       <c r="O94" s="12">
-        <v>0.41763920439766244</v>
+        <v>0.44689337055855166</v>
       </c>
       <c r="P94" s="12">
-        <v>0.58236079560233756</v>
+        <v>0.55310662944144828</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4319,34 +4331,34 @@
         <v>105</v>
       </c>
       <c r="D98">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E98">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F98">
         <v>117</v>
       </c>
       <c r="H98" s="12">
-        <v>0.80341880341880345</v>
+        <v>0.83760683760683763</v>
       </c>
       <c r="I98" s="12">
-        <v>0.19658119658119658</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="K98">
-        <v>9492</v>
+        <v>9812</v>
       </c>
       <c r="L98">
-        <v>1036</v>
+        <v>716</v>
       </c>
       <c r="M98">
         <v>10528</v>
       </c>
       <c r="O98" s="12">
-        <v>0.90159574468085102</v>
+        <v>0.93199088145896658</v>
       </c>
       <c r="P98" s="12">
-        <v>9.8404255319148939E-2</v>
+        <v>6.8009118541033434E-2</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -4459,34 +4471,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E102">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F102">
         <v>175</v>
       </c>
       <c r="H102" s="12">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I102" s="12">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K102">
-        <v>6527</v>
+        <v>7128</v>
       </c>
       <c r="L102">
-        <v>7229</v>
+        <v>6628</v>
       </c>
       <c r="M102">
         <v>13756</v>
       </c>
       <c r="O102" s="12">
-        <v>0.47448386158767081</v>
+        <v>0.51817388775806916</v>
       </c>
       <c r="P102" s="12">
-        <v>0.52551613841232914</v>
+        <v>0.48182611224193078</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4494,34 +4506,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E103">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
       <c r="H103" s="12">
-        <v>0.53018372703412076</v>
+        <v>0.55643044619422577</v>
       </c>
       <c r="I103" s="12">
-        <v>0.46981627296587924</v>
+        <v>0.44356955380577429</v>
       </c>
       <c r="K103">
-        <v>20348</v>
+        <v>21456</v>
       </c>
       <c r="L103">
-        <v>13496</v>
+        <v>12388</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
       <c r="O103" s="12">
-        <v>0.60122916912894453</v>
+        <v>0.63396761612102592</v>
       </c>
       <c r="P103" s="12">
-        <v>0.39877083087105542</v>
+        <v>0.36603238387897413</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4529,34 +4541,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E104">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F104">
         <v>892</v>
       </c>
       <c r="H104" s="12">
-        <v>0.46748878923766818</v>
+        <v>0.46860986547085204</v>
       </c>
       <c r="I104" s="12">
-        <v>0.53251121076233188</v>
+        <v>0.53139013452914796</v>
       </c>
       <c r="K104">
-        <v>37599</v>
+        <v>37627</v>
       </c>
       <c r="L104">
-        <v>31685</v>
+        <v>31657</v>
       </c>
       <c r="M104">
         <v>69284</v>
       </c>
       <c r="O104" s="12">
-        <v>0.54267940650077939</v>
+        <v>0.54308354021130423</v>
       </c>
       <c r="P104" s="12">
-        <v>0.45732059349922061</v>
+        <v>0.45691645978869583</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4669,34 +4681,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="E108">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
       <c r="H108" s="12">
-        <v>0.43947858472998136</v>
+        <v>0.48789571694599626</v>
       </c>
       <c r="I108" s="12">
-        <v>0.56052141527001864</v>
+        <v>0.51210428305400368</v>
       </c>
       <c r="K108">
-        <v>23109</v>
+        <v>25878</v>
       </c>
       <c r="L108">
-        <v>23315</v>
+        <v>20546</v>
       </c>
       <c r="M108">
         <v>46424</v>
       </c>
       <c r="O108" s="12">
-        <v>0.49778132000689301</v>
+        <v>0.55742719283129416</v>
       </c>
       <c r="P108" s="12">
-        <v>0.50221867999310699</v>
+        <v>0.44257280716870584</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4704,34 +4716,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="E109">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
       <c r="H109" s="12">
-        <v>0.61436672967863892</v>
+        <v>0.65406427221172025</v>
       </c>
       <c r="I109" s="12">
-        <v>0.38563327032136108</v>
+        <v>0.34593572778827975</v>
       </c>
       <c r="K109">
-        <v>32005</v>
+        <v>34500</v>
       </c>
       <c r="L109">
-        <v>14496</v>
+        <v>12001</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
       <c r="O109" s="12">
-        <v>0.68826476849960216</v>
+        <v>0.74191952861228794</v>
       </c>
       <c r="P109" s="12">
-        <v>0.31173523150039784</v>
+        <v>0.25808047138771212</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4739,34 +4751,34 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E110">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F110">
         <v>171</v>
       </c>
       <c r="H110" s="12">
-        <v>0.40935672514619881</v>
+        <v>0.43859649122807015</v>
       </c>
       <c r="I110" s="12">
-        <v>0.59064327485380119</v>
+        <v>0.56140350877192979</v>
       </c>
       <c r="K110">
-        <v>6305</v>
+        <v>6845</v>
       </c>
       <c r="L110">
-        <v>7180</v>
+        <v>6640</v>
       </c>
       <c r="M110">
         <v>13485</v>
       </c>
       <c r="O110" s="12">
-        <v>0.46755654430849092</v>
+        <v>0.50760103819058211</v>
       </c>
       <c r="P110" s="12">
-        <v>0.53244345569150908</v>
+        <v>0.49239896180941789</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -4879,34 +4891,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="E114">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
       <c r="H114" s="12">
-        <v>0.42455775234131116</v>
+        <v>0.45057232049947971</v>
       </c>
       <c r="I114" s="12">
-        <v>0.5754422476586889</v>
+        <v>0.54942767950052029</v>
       </c>
       <c r="K114">
-        <v>38472</v>
+        <v>41258</v>
       </c>
       <c r="L114">
-        <v>37002</v>
+        <v>34216</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
       <c r="O114" s="12">
-        <v>0.50973845297718423</v>
+        <v>0.54665182711927285</v>
       </c>
       <c r="P114" s="12">
-        <v>0.49026154702281582</v>
+        <v>0.45334817288072715</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4914,34 +4926,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E115">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F115">
         <v>432</v>
       </c>
       <c r="H115" s="12">
-        <v>0.64583333333333337</v>
+        <v>0.66898148148148151</v>
       </c>
       <c r="I115" s="12">
-        <v>0.35416666666666669</v>
+        <v>0.33101851851851855</v>
       </c>
       <c r="K115">
-        <v>29289</v>
+        <v>30452</v>
       </c>
       <c r="L115">
-        <v>12630</v>
+        <v>11467</v>
       </c>
       <c r="M115">
         <v>41919</v>
       </c>
       <c r="O115" s="12">
-        <v>0.69870464467186721</v>
+        <v>0.72644862711419644</v>
       </c>
       <c r="P115" s="12">
-        <v>0.30129535532813284</v>
+        <v>0.27355137288580356</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -5089,34 +5101,34 @@
         <v>127</v>
       </c>
       <c r="D120">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E120">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F120">
         <v>396</v>
       </c>
       <c r="H120" s="12">
-        <v>0.52020202020202022</v>
+        <v>0.56060606060606055</v>
       </c>
       <c r="I120" s="12">
-        <v>0.47979797979797978</v>
+        <v>0.43939393939393939</v>
       </c>
       <c r="K120">
-        <v>20805</v>
+        <v>22487</v>
       </c>
       <c r="L120">
-        <v>14192</v>
+        <v>12510</v>
       </c>
       <c r="M120">
         <v>34997</v>
       </c>
       <c r="O120" s="12">
-        <v>0.59447952681658423</v>
+        <v>0.64254078921050373</v>
       </c>
       <c r="P120" s="12">
-        <v>0.40552047318341572</v>
+        <v>0.35745921078949622</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -5159,34 +5171,34 @@
         <v>129</v>
       </c>
       <c r="D122">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E122">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F122">
         <v>150</v>
       </c>
       <c r="H122" s="12">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="I122" s="12">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
       <c r="K122">
-        <v>4666</v>
+        <v>8022</v>
       </c>
       <c r="L122">
-        <v>9234</v>
+        <v>5878</v>
       </c>
       <c r="M122">
         <v>13900</v>
       </c>
       <c r="O122" s="12">
-        <v>0.33568345323741006</v>
+        <v>0.57712230215827343</v>
       </c>
       <c r="P122" s="12">
-        <v>0.66431654676258989</v>
+        <v>0.42287769784172663</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5231,37 +5243,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5247</v>
+        <v>5462</v>
       </c>
       <c r="E124" s="13">
-        <v>5187</v>
+        <v>4972</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.5028752156411731</v>
+        <v>0.52348092773624688</v>
       </c>
       <c r="I124" s="14">
-        <v>0.4971247843588269</v>
+        <v>0.47651907226375312</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>504878</v>
+        <v>527931</v>
       </c>
       <c r="L124" s="13">
-        <v>364744</v>
+        <v>341691</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.58057178866220038</v>
+        <v>0.60708100761020301</v>
       </c>
       <c r="P124" s="14">
-        <v>0.41942821133779962</v>
+        <v>0.39291899238979694</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5307,34 +5319,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="E126">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
       <c r="H126" s="12">
-        <v>0.46564885496183206</v>
+        <v>0.51781170483460559</v>
       </c>
       <c r="I126" s="12">
-        <v>0.53435114503816794</v>
+        <v>0.48218829516539441</v>
       </c>
       <c r="K126">
-        <v>39073</v>
+        <v>42981</v>
       </c>
       <c r="L126">
-        <v>33589</v>
+        <v>29681</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
       <c r="O126" s="12">
-        <v>0.53773636839063055</v>
+        <v>0.5915196388758911</v>
       </c>
       <c r="P126" s="12">
-        <v>0.4622636316093694</v>
+        <v>0.4084803611241089</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5517,34 +5529,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="E132">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
       <c r="H132" s="12">
-        <v>0.44751381215469616</v>
+        <v>0.46823204419889503</v>
       </c>
       <c r="I132" s="12">
-        <v>0.5524861878453039</v>
+        <v>0.53176795580110492</v>
       </c>
       <c r="K132">
-        <v>31894</v>
+        <v>33490</v>
       </c>
       <c r="L132">
-        <v>28492</v>
+        <v>26896</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
       <c r="O132" s="12">
-        <v>0.52816878084324181</v>
+        <v>0.55459874805418474</v>
       </c>
       <c r="P132" s="12">
-        <v>0.47183121915675819</v>
+        <v>0.44540125194581526</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5587,34 +5599,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E134">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F134">
         <v>431</v>
       </c>
       <c r="H134" s="12">
-        <v>0.42459396751740142</v>
+        <v>0.45707656612529002</v>
       </c>
       <c r="I134" s="12">
-        <v>0.57540603248259858</v>
+        <v>0.54292343387470998</v>
       </c>
       <c r="K134">
-        <v>17789</v>
+        <v>19148</v>
       </c>
       <c r="L134">
-        <v>16122</v>
+        <v>14763</v>
       </c>
       <c r="M134">
         <v>33911</v>
       </c>
       <c r="O134" s="12">
-        <v>0.52457904514759224</v>
+        <v>0.56465453687593992</v>
       </c>
       <c r="P134" s="12">
-        <v>0.47542095485240776</v>
+        <v>0.43534546312406003</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5622,34 +5634,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E135">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
       <c r="H135" s="12">
-        <v>0.46799116997792495</v>
+        <v>0.47461368653421632</v>
       </c>
       <c r="I135" s="12">
-        <v>0.53200883002207511</v>
+        <v>0.52538631346578368</v>
       </c>
       <c r="K135">
-        <v>19134</v>
+        <v>19225</v>
       </c>
       <c r="L135">
-        <v>11181</v>
+        <v>11090</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
       <c r="O135" s="12">
-        <v>0.63117268678871841</v>
+        <v>0.63417450107207651</v>
       </c>
       <c r="P135" s="12">
-        <v>0.36882731321128154</v>
+        <v>0.36582549892792349</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5729,37 +5741,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2110</v>
+        <v>2183</v>
       </c>
       <c r="E138" s="13">
-        <v>2861</v>
+        <v>2788</v>
       </c>
       <c r="F138" s="13">
         <v>4971</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.42446187889760612</v>
+        <v>0.43914705290685979</v>
       </c>
       <c r="I138" s="14">
-        <v>0.57553812110239388</v>
+        <v>0.56085294709314026</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>205744</v>
+        <v>212698</v>
       </c>
       <c r="L138" s="13">
-        <v>194595</v>
+        <v>187641</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.51392444902944756</v>
+        <v>0.53129472771825881</v>
       </c>
       <c r="P138" s="14">
-        <v>0.48607555097055244</v>
+        <v>0.46870527228174125</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5769,37 +5781,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>27017</v>
+        <v>28601</v>
       </c>
       <c r="E139" s="13">
-        <v>38994</v>
+        <v>37410</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.40928027146990653</v>
+        <v>0.43327627213646208</v>
       </c>
       <c r="I139" s="14">
-        <v>0.59071972853009347</v>
+        <v>0.56672372786353786</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2583337</v>
+        <v>2743449</v>
       </c>
       <c r="L139" s="13">
-        <v>2692599</v>
+        <v>2532487</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.48964524967702411</v>
+        <v>0.51999285055770195</v>
       </c>
       <c r="P139" s="14">
-        <v>0.51035475032297584</v>
+        <v>0.480007149442298</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69503BEF-7958-46DB-8509-B8A2EC9DAA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74B55EC-0548-432A-ADD5-C3A24434696C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19B20AB5-5515-4FFF-9DCF-4E298FC6429B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBB03688-11F9-4392-9F13-7AFAC45810B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,28 +888,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3366451-F8EA-448B-9F0C-23ED808438AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F168072-914A-4FE7-BAD4-C39A237113D3}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1254,34 +1255,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E11">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
       <c r="H11" s="12">
-        <v>0.32225063938618925</v>
+        <v>0.32992327365728902</v>
       </c>
       <c r="I11" s="12">
-        <v>0.67774936061381075</v>
+        <v>0.67007672634271098</v>
       </c>
       <c r="K11">
-        <v>24188</v>
+        <v>24704</v>
       </c>
       <c r="L11">
-        <v>36444</v>
+        <v>35928</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
       <c r="O11" s="12">
-        <v>0.39893125742182345</v>
+        <v>0.40744161498878478</v>
       </c>
       <c r="P11" s="12">
-        <v>0.60106874257817655</v>
+        <v>0.59255838501121516</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1289,34 +1290,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="E12">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="F12">
         <v>574</v>
       </c>
       <c r="H12" s="12">
-        <v>0.33797909407665505</v>
+        <v>0.40766550522648082</v>
       </c>
       <c r="I12" s="12">
-        <v>0.66202090592334495</v>
+        <v>0.59233449477351918</v>
       </c>
       <c r="K12">
-        <v>18027</v>
+        <v>21086</v>
       </c>
       <c r="L12">
-        <v>25834</v>
+        <v>22775</v>
       </c>
       <c r="M12">
         <v>43861</v>
       </c>
       <c r="O12" s="12">
-        <v>0.41100294110941382</v>
+        <v>0.48074599302341486</v>
       </c>
       <c r="P12" s="12">
-        <v>0.58899705889058618</v>
+        <v>0.51925400697658508</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1954,34 +1955,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="E31">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="12">
-        <v>0.43339768339768342</v>
+        <v>0.48841698841698844</v>
       </c>
       <c r="I31" s="12">
-        <v>0.56660231660231664</v>
+        <v>0.51158301158301156</v>
       </c>
       <c r="K31">
-        <v>45137</v>
+        <v>50547</v>
       </c>
       <c r="L31">
-        <v>39891</v>
+        <v>34481</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="12">
-        <v>0.53084866161734956</v>
+        <v>0.594474761255116</v>
       </c>
       <c r="P31" s="12">
-        <v>0.46915133838265044</v>
+        <v>0.40552523874488405</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2059,34 +2060,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E34">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="12">
-        <v>0.41454864154250659</v>
+        <v>0.41805433829973709</v>
       </c>
       <c r="I34" s="12">
-        <v>0.58545135845749341</v>
+        <v>0.58194566170026296</v>
       </c>
       <c r="K34">
-        <v>43933</v>
+        <v>44353</v>
       </c>
       <c r="L34">
-        <v>43505</v>
+        <v>43085</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
       <c r="O34" s="12">
-        <v>0.50244744847777856</v>
+        <v>0.50725085203229714</v>
       </c>
       <c r="P34" s="12">
-        <v>0.49755255152222144</v>
+        <v>0.49274914796770281</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2199,34 +2200,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E38">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
       <c r="H38" s="12">
-        <v>0.35657894736842105</v>
+        <v>0.35789473684210527</v>
       </c>
       <c r="I38" s="12">
-        <v>0.64342105263157889</v>
+        <v>0.64210526315789473</v>
       </c>
       <c r="K38">
-        <v>25745</v>
+        <v>25829</v>
       </c>
       <c r="L38">
-        <v>29539</v>
+        <v>29455</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
       <c r="O38" s="12">
-        <v>0.46568627450980393</v>
+        <v>0.46720570146877938</v>
       </c>
       <c r="P38" s="12">
-        <v>0.53431372549019607</v>
+        <v>0.53279429853122062</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2479,34 +2480,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E46">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
       <c r="H46" s="12">
-        <v>0.39067055393586003</v>
+        <v>0.39504373177842567</v>
       </c>
       <c r="I46" s="12">
-        <v>0.60932944606413997</v>
+        <v>0.60495626822157433</v>
       </c>
       <c r="K46">
-        <v>25961</v>
+        <v>26272</v>
       </c>
       <c r="L46">
-        <v>28021</v>
+        <v>27710</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
       <c r="O46" s="12">
-        <v>0.48091956578118633</v>
+        <v>0.48668074543366308</v>
       </c>
       <c r="P46" s="12">
-        <v>0.51908043421881367</v>
+        <v>0.51331925456633698</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2514,34 +2515,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E47">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
       <c r="H47" s="12">
-        <v>0.3778857837181045</v>
+        <v>0.39489671931956255</v>
       </c>
       <c r="I47" s="12">
-        <v>0.62211421628189545</v>
+        <v>0.60510328068043739</v>
       </c>
       <c r="K47">
-        <v>27209</v>
+        <v>28383</v>
       </c>
       <c r="L47">
-        <v>35461</v>
+        <v>34287</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
       <c r="O47" s="12">
-        <v>0.43416307643210467</v>
+        <v>0.45289612254667305</v>
       </c>
       <c r="P47" s="12">
-        <v>0.56583692356789528</v>
+        <v>0.547103877453327</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2689,34 +2690,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>2179</v>
+        <v>2197</v>
       </c>
       <c r="E52">
-        <v>1644</v>
+        <v>1626</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="12">
-        <v>0.56997122678524714</v>
+        <v>0.57467957101752554</v>
       </c>
       <c r="I52" s="12">
-        <v>0.4300287732147528</v>
+        <v>0.42532042898247452</v>
       </c>
       <c r="K52">
-        <v>223033</v>
+        <v>225179</v>
       </c>
       <c r="L52">
-        <v>121417</v>
+        <v>119271</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
       <c r="O52" s="12">
-        <v>0.64750471766584405</v>
+        <v>0.65373493975903618</v>
       </c>
       <c r="P52" s="12">
-        <v>0.35249528233415589</v>
+        <v>0.34626506024096387</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2761,37 +2762,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>19650</v>
+        <v>19793</v>
       </c>
       <c r="E54" s="13">
-        <v>27463</v>
+        <v>27320</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.41708233396302508</v>
+        <v>0.42011758962494428</v>
       </c>
       <c r="I54" s="14">
-        <v>0.58291766603697492</v>
+        <v>0.57988241037505572</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1880503</v>
+        <v>1893623</v>
       </c>
       <c r="L54" s="13">
-        <v>1860211</v>
+        <v>1847091</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.50271231641873715</v>
+        <v>0.50621966822376696</v>
       </c>
       <c r="P54" s="14">
-        <v>0.49728768358126285</v>
+        <v>0.49378033177623309</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3090,34 +3091,34 @@
         <v>69</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>59</v>
       </c>
       <c r="H63" s="12">
-        <v>0.15254237288135594</v>
+        <v>0.20338983050847459</v>
       </c>
       <c r="I63" s="12">
-        <v>0.84745762711864403</v>
+        <v>0.79661016949152541</v>
       </c>
       <c r="K63">
-        <v>919</v>
+        <v>1026</v>
       </c>
       <c r="L63">
-        <v>3244</v>
+        <v>3137</v>
       </c>
       <c r="M63">
         <v>4163</v>
       </c>
       <c r="O63" s="12">
-        <v>0.22075426375210186</v>
+        <v>0.24645688205620947</v>
       </c>
       <c r="P63" s="12">
-        <v>0.77924573624789817</v>
+        <v>0.75354311794379059</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -3475,34 +3476,34 @@
         <v>80</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F74">
         <v>79</v>
       </c>
       <c r="H74" s="12">
-        <v>5.0632911392405063E-2</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="I74" s="12">
-        <v>0.94936708860759489</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="K74">
-        <v>406</v>
+        <v>1643</v>
       </c>
       <c r="L74">
-        <v>5482</v>
+        <v>4245</v>
       </c>
       <c r="M74">
         <v>5888</v>
       </c>
       <c r="O74" s="12">
-        <v>6.8953804347826081E-2</v>
+        <v>0.27904211956521741</v>
       </c>
       <c r="P74" s="12">
-        <v>0.93104619565217395</v>
+        <v>0.72095788043478259</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -3967,37 +3968,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="E88" s="13">
-        <v>1453</v>
+        <v>1435</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.32355679702048418</v>
+        <v>0.33193668528864062</v>
       </c>
       <c r="I88" s="14">
-        <v>0.67644320297951588</v>
+        <v>0.66806331471135938</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>64862</v>
+        <v>66206</v>
       </c>
       <c r="L88" s="13">
-        <v>94615</v>
+        <v>93271</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.40671695605008873</v>
+        <v>0.41514450359612987</v>
       </c>
       <c r="P88" s="14">
-        <v>0.59328304394991127</v>
+        <v>0.58485549640387013</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4156,34 +4157,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E93">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
       <c r="H93" s="12">
-        <v>0.52654867256637172</v>
+        <v>0.5331858407079646</v>
       </c>
       <c r="I93" s="12">
-        <v>0.47345132743362833</v>
+        <v>0.4668141592920354</v>
       </c>
       <c r="K93">
-        <v>46772</v>
+        <v>47230</v>
       </c>
       <c r="L93">
-        <v>28754</v>
+        <v>28296</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
       <c r="O93" s="12">
-        <v>0.61928342557529859</v>
+        <v>0.62534756242883249</v>
       </c>
       <c r="P93" s="12">
-        <v>0.38071657442470141</v>
+        <v>0.37465243757116756</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4541,34 +4542,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="E104">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="F104">
         <v>892</v>
       </c>
       <c r="H104" s="12">
-        <v>0.46860986547085204</v>
+        <v>0.4943946188340807</v>
       </c>
       <c r="I104" s="12">
-        <v>0.53139013452914796</v>
+        <v>0.50560538116591924</v>
       </c>
       <c r="K104">
-        <v>37627</v>
+        <v>39636</v>
       </c>
       <c r="L104">
-        <v>31657</v>
+        <v>29648</v>
       </c>
       <c r="M104">
         <v>69284</v>
       </c>
       <c r="O104" s="12">
-        <v>0.54308354021130423</v>
+        <v>0.57208013394145829</v>
       </c>
       <c r="P104" s="12">
-        <v>0.45691645978869583</v>
+        <v>0.42791986605854165</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -5243,37 +5244,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5462</v>
+        <v>5491</v>
       </c>
       <c r="E124" s="13">
-        <v>4972</v>
+        <v>4943</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.52348092773624688</v>
+        <v>0.52626030285604752</v>
       </c>
       <c r="I124" s="14">
-        <v>0.47651907226375312</v>
+        <v>0.47373969714395248</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>527931</v>
+        <v>530398</v>
       </c>
       <c r="L124" s="13">
-        <v>341691</v>
+        <v>339224</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.60708100761020301</v>
+        <v>0.60991787236293471</v>
       </c>
       <c r="P124" s="14">
-        <v>0.39291899238979694</v>
+        <v>0.39008212763706529</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5319,34 +5320,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E126">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
       <c r="H126" s="12">
-        <v>0.51781170483460559</v>
+        <v>0.5241730279898219</v>
       </c>
       <c r="I126" s="12">
-        <v>0.48218829516539441</v>
+        <v>0.4758269720101781</v>
       </c>
       <c r="K126">
-        <v>42981</v>
+        <v>43569</v>
       </c>
       <c r="L126">
-        <v>29681</v>
+        <v>29093</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
       <c r="O126" s="12">
-        <v>0.5915196388758911</v>
+        <v>0.59961190168175937</v>
       </c>
       <c r="P126" s="12">
-        <v>0.4084803611241089</v>
+        <v>0.40038809831824063</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5354,34 +5355,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E127">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
       <c r="H127" s="12">
-        <v>0.44756554307116103</v>
+        <v>0.48689138576779029</v>
       </c>
       <c r="I127" s="12">
-        <v>0.55243445692883897</v>
+        <v>0.51310861423220977</v>
       </c>
       <c r="K127">
-        <v>22488</v>
+        <v>24133</v>
       </c>
       <c r="L127">
-        <v>18798</v>
+        <v>17153</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
       <c r="O127" s="12">
-        <v>0.54468827205348058</v>
+        <v>0.58453228697379256</v>
       </c>
       <c r="P127" s="12">
-        <v>0.45531172794651942</v>
+        <v>0.41546771302620744</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5389,34 +5390,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E128">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F128">
         <v>224</v>
       </c>
       <c r="H128" s="12">
-        <v>0.39285714285714285</v>
+        <v>0.45089285714285715</v>
       </c>
       <c r="I128" s="12">
-        <v>0.6071428571428571</v>
+        <v>0.5491071428571429</v>
       </c>
       <c r="K128">
-        <v>9198</v>
+        <v>10466</v>
       </c>
       <c r="L128">
-        <v>7787</v>
+        <v>6519</v>
       </c>
       <c r="M128">
         <v>16985</v>
       </c>
       <c r="O128" s="12">
-        <v>0.54153664998528117</v>
+        <v>0.61619075654989697</v>
       </c>
       <c r="P128" s="12">
-        <v>0.45846335001471888</v>
+        <v>0.38380924345010303</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5564,34 +5565,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E133">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="F133">
         <v>307</v>
       </c>
       <c r="H133" s="12">
-        <v>0.26058631921824105</v>
+        <v>0.46905537459283386</v>
       </c>
       <c r="I133" s="12">
-        <v>0.73941368078175895</v>
+        <v>0.53094462540716614</v>
       </c>
       <c r="K133">
-        <v>7584</v>
+        <v>12865</v>
       </c>
       <c r="L133">
-        <v>15123</v>
+        <v>9842</v>
       </c>
       <c r="M133">
         <v>22707</v>
       </c>
       <c r="O133" s="12">
-        <v>0.33399392257894039</v>
+        <v>0.56656537631567361</v>
       </c>
       <c r="P133" s="12">
-        <v>0.66600607742105955</v>
+        <v>0.43343462368432639</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5634,19 +5635,19 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E135">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
       <c r="H135" s="12">
-        <v>0.47461368653421632</v>
+        <v>0.54304635761589404</v>
       </c>
       <c r="I135" s="12">
-        <v>0.52538631346578368</v>
+        <v>0.45695364238410596</v>
       </c>
       <c r="K135">
         <v>19225</v>
@@ -5741,37 +5742,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2183</v>
+        <v>2317</v>
       </c>
       <c r="E138" s="13">
-        <v>2788</v>
+        <v>2654</v>
       </c>
       <c r="F138" s="13">
         <v>4971</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.43914705290685979</v>
+        <v>0.46610339971836651</v>
       </c>
       <c r="I138" s="14">
-        <v>0.56085294709314026</v>
+        <v>0.53389660028163344</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>212698</v>
+        <v>221480</v>
       </c>
       <c r="L138" s="13">
-        <v>187641</v>
+        <v>178859</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.53129472771825881</v>
+        <v>0.55323113661172152</v>
       </c>
       <c r="P138" s="14">
-        <v>0.46870527228174125</v>
+        <v>0.44676886338827843</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,37 +5782,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>28601</v>
+        <v>28925</v>
       </c>
       <c r="E139" s="13">
-        <v>37410</v>
+        <v>37086</v>
       </c>
       <c r="F139" s="13">
         <v>66011</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.43327627213646208</v>
+        <v>0.43818454500007575</v>
       </c>
       <c r="I139" s="14">
-        <v>0.56672372786353786</v>
+        <v>0.56181545499992425</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2743449</v>
+        <v>2769162</v>
       </c>
       <c r="L139" s="13">
-        <v>2532487</v>
+        <v>2506774</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.51999285055770195</v>
+        <v>0.52486648814542103</v>
       </c>
       <c r="P139" s="14">
-        <v>0.480007149442298</v>
+        <v>0.47513351185457897</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74B55EC-0548-432A-ADD5-C3A24434696C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AE17B-AF9E-4BB9-A556-A1088D78D137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBB03688-11F9-4392-9F13-7AFAC45810B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3410F7-3E5F-4D0F-AA66-EB524A87D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,18 +561,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F168072-914A-4FE7-BAD4-C39A237113D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D868C8B-C6F1-47D5-A01D-07EA1A82B2C2}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -902,101 +902,100 @@
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1016,10 +1015,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1031,10 +1030,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="1">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="1">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1051,10 +1050,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="1">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="1">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1066,10 +1065,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="1">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="1">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1083,10 +1082,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1095,10 +1094,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1115,10 +1114,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="1">
         <v>0.4336283185840708</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="1">
         <v>0.5663716814159292</v>
       </c>
       <c r="K7">
@@ -1130,10 +1129,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="1">
         <v>0.53098745890661148</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="1">
         <v>0.46901254109338852</v>
       </c>
     </row>
@@ -1150,10 +1149,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="1">
         <v>0.25</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="1">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1165,10 +1164,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="1">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="1">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1228,10 +1227,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="1">
         <v>0.58837772397094434</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="1">
         <v>0.41162227602905571</v>
       </c>
       <c r="K10">
@@ -1243,10 +1242,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="1">
         <v>0.68093952651338852</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="1">
         <v>0.31906047348661143</v>
       </c>
     </row>
@@ -1255,34 +1254,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E11">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="12">
-        <v>0.32992327365728902</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.67007672634271098</v>
+      <c r="H11" s="1">
+        <v>0.3337595907928389</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.6662404092071611</v>
       </c>
       <c r="K11">
-        <v>24704</v>
+        <v>25009</v>
       </c>
       <c r="L11">
-        <v>35928</v>
+        <v>35623</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="12">
-        <v>0.40744161498878478</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0.59255838501121516</v>
+      <c r="O11" s="1">
+        <v>0.41247196200026387</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.58752803799973607</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1298,10 +1297,10 @@
       <c r="F12">
         <v>574</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="1">
         <v>0.40766550522648082</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="1">
         <v>0.59233449477351918</v>
       </c>
       <c r="K12">
@@ -1313,10 +1312,10 @@
       <c r="M12">
         <v>43861</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="1">
         <v>0.48074599302341486</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="1">
         <v>0.51925400697658508</v>
       </c>
     </row>
@@ -1333,10 +1332,10 @@
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="1">
         <v>0.42151675485008816</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="1">
         <v>0.57848324514991178</v>
       </c>
       <c r="K13">
@@ -1348,10 +1347,10 @@
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="1">
         <v>0.50628106453033572</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="1">
         <v>0.49371893546966422</v>
       </c>
     </row>
@@ -1360,34 +1359,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E14">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="12">
-        <v>0.48509485094850946</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0.51490514905149054</v>
+      <c r="H14" s="1">
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.51219512195121952</v>
       </c>
       <c r="K14">
-        <v>51632</v>
+        <v>51854</v>
       </c>
       <c r="L14">
-        <v>40727</v>
+        <v>40505</v>
       </c>
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="12">
-        <v>0.55903593585898503</v>
-      </c>
-      <c r="P14" s="12">
-        <v>0.44096406414101497</v>
+      <c r="O14" s="1">
+        <v>0.56143959982243208</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.43856040017756798</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1403,10 +1402,10 @@
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="1">
         <v>0.46248715313463518</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="1">
         <v>0.53751284686536482</v>
       </c>
       <c r="K15">
@@ -1418,10 +1417,10 @@
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="1">
         <v>0.55806980746477364</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="1">
         <v>0.44193019253522642</v>
       </c>
     </row>
@@ -1430,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E16">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="12">
-        <v>0.59778597785977861</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.40221402214022139</v>
+      <c r="H16" s="1">
+        <v>0.59963099630996308</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.40036900369003692</v>
       </c>
       <c r="K16">
-        <v>55085</v>
+        <v>55289</v>
       </c>
       <c r="L16">
-        <v>27395</v>
+        <v>27191</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="12">
-        <v>0.6678588748787585</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0.3321411251212415</v>
+      <c r="O16" s="1">
+        <v>0.67033220174587782</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.32966779825412224</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1465,34 +1464,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="E17">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="12">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0.65714285714285714</v>
+      <c r="H17" s="1">
+        <v>0.35183673469387755</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.64816326530612245</v>
       </c>
       <c r="K17">
-        <v>40485</v>
+        <v>41441</v>
       </c>
       <c r="L17">
-        <v>62278</v>
+        <v>61322</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="12">
-        <v>0.39396475385109425</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0.60603524614890569</v>
+      <c r="O17" s="1">
+        <v>0.40326771308739529</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.59673228691260471</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1508,10 +1507,10 @@
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="1">
         <v>0.40611524892199136</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="1">
         <v>0.59388475107800864</v>
       </c>
       <c r="K18">
@@ -1523,10 +1522,10 @@
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="1">
         <v>0.50179434767610098</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="1">
         <v>0.49820565232389907</v>
       </c>
     </row>
@@ -1543,10 +1542,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="1">
         <v>0.36335078534031412</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="1">
         <v>0.63664921465968582</v>
       </c>
       <c r="K19">
@@ -1558,10 +1557,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="1">
         <v>0.45304949351216556</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="1">
         <v>0.54695050648783439</v>
       </c>
     </row>
@@ -1578,10 +1577,10 @@
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="1">
         <v>0.53881278538812782</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="1">
         <v>0.46118721461187212</v>
       </c>
       <c r="K20">
@@ -1593,10 +1592,10 @@
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="1">
         <v>0.63128860216630323</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="1">
         <v>0.36871139783369683</v>
       </c>
     </row>
@@ -1613,10 +1612,10 @@
       <c r="F21">
         <v>1295</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="1">
         <v>0.34285714285714286</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="1">
         <v>0.65714285714285714</v>
       </c>
       <c r="K21">
@@ -1628,10 +1627,10 @@
       <c r="M21">
         <v>102046</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="1">
         <v>0.42533759285028322</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="1">
         <v>0.57466240714971684</v>
       </c>
     </row>
@@ -1640,34 +1639,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E22">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="12">
-        <v>0.39949109414758271</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0.60050890585241734</v>
+      <c r="H22" s="1">
+        <v>0.40712468193384221</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.59287531806615779</v>
       </c>
       <c r="K22">
-        <v>45249</v>
+        <v>46191</v>
       </c>
       <c r="L22">
-        <v>50363</v>
+        <v>49421</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="12">
-        <v>0.47325649500062755</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0.5267435049993725</v>
+      <c r="O22" s="1">
+        <v>0.48310881479312218</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.51689118520687782</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1683,10 +1682,10 @@
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="1">
         <v>0.31609529343404996</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="1">
         <v>0.68390470656595004</v>
       </c>
       <c r="K23">
@@ -1698,10 +1697,10 @@
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="1">
         <v>0.39128411319056083</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="1">
         <v>0.60871588680943911</v>
       </c>
     </row>
@@ -1718,10 +1717,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="1">
         <v>0.38305084745762713</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="1">
         <v>0.61694915254237293</v>
       </c>
       <c r="K24">
@@ -1733,10 +1732,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="1">
         <v>0.48254462573059825</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="1">
         <v>0.5174553742694018</v>
       </c>
     </row>
@@ -1753,10 +1752,10 @@
       <c r="F25">
         <v>1002</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="1">
         <v>0.41716566866267463</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="1">
         <v>0.58283433133732532</v>
       </c>
       <c r="K25">
@@ -1768,10 +1767,10 @@
       <c r="M25">
         <v>79700</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="1">
         <v>0.50849435382685071</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="1">
         <v>0.49150564617314929</v>
       </c>
     </row>
@@ -1788,10 +1787,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="1">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="1">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1803,10 +1802,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="1">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="1">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1823,10 +1822,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="1">
         <v>0.36254980079681276</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="1">
         <v>0.63745019920318724</v>
       </c>
       <c r="K27">
@@ -1838,10 +1837,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="1">
         <v>0.41574172621762706</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="1">
         <v>0.58425827378237294</v>
       </c>
     </row>
@@ -1858,10 +1857,10 @@
       <c r="F28">
         <v>2224</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="1">
         <v>0.3444244604316547</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="1">
         <v>0.65557553956834536</v>
       </c>
       <c r="K28">
@@ -1873,10 +1872,10 @@
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="1">
         <v>0.42386800051361667</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="1">
         <v>0.57613199948638327</v>
       </c>
     </row>
@@ -1885,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="E29">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F29">
         <v>3109</v>
       </c>
-      <c r="H29" s="12">
-        <v>0.54969443550981023</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0.45030556449018977</v>
+      <c r="H29" s="1">
+        <v>0.55130266966870378</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.44869733033129622</v>
       </c>
       <c r="K29">
-        <v>165953</v>
+        <v>166325</v>
       </c>
       <c r="L29">
-        <v>102464</v>
+        <v>102092</v>
       </c>
       <c r="M29">
         <v>268417</v>
       </c>
-      <c r="O29" s="12">
-        <v>0.61826560910821593</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0.38173439089178407</v>
+      <c r="O29" s="1">
+        <v>0.61965151238557914</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.38034848761442086</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1928,10 +1927,10 @@
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="1">
         <v>0.43373493975903615</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="1">
         <v>0.5662650602409639</v>
       </c>
       <c r="K30">
@@ -1943,10 +1942,10 @@
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="1">
         <v>0.53998527245949923</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="1">
         <v>0.46001472754050071</v>
       </c>
     </row>
@@ -1955,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="E31">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="12">
-        <v>0.48841698841698844</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0.51158301158301156</v>
+      <c r="H31" s="1">
+        <v>0.50772200772200771</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.49227799227799229</v>
       </c>
       <c r="K31">
-        <v>50547</v>
+        <v>52231</v>
       </c>
       <c r="L31">
-        <v>34481</v>
+        <v>32797</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="12">
-        <v>0.594474761255116</v>
-      </c>
-      <c r="P31" s="12">
-        <v>0.40552523874488405</v>
+      <c r="O31" s="1">
+        <v>0.61428000188173304</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.3857199981182669</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1990,34 +1989,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E32">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="12">
-        <v>0.54459203036053128</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0.45540796963946867</v>
+      <c r="H32" s="1">
+        <v>0.57305502846299805</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.42694497153700189</v>
       </c>
       <c r="K32">
-        <v>29300</v>
+        <v>30586</v>
       </c>
       <c r="L32">
-        <v>15527</v>
+        <v>14241</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="12">
-        <v>0.6536239320052647</v>
-      </c>
-      <c r="P32" s="12">
-        <v>0.3463760679947353</v>
+      <c r="O32" s="1">
+        <v>0.68231199946460841</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.31768800053539159</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2025,34 +2024,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="E33">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
-      <c r="H33" s="12">
-        <v>0.42361761949390814</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0.57638238050609181</v>
+      <c r="H33" s="1">
+        <v>0.46766635426429243</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.53233364573570763</v>
       </c>
       <c r="K33">
-        <v>39330</v>
+        <v>43661</v>
       </c>
       <c r="L33">
-        <v>36516</v>
+        <v>32185</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
-      <c r="O33" s="12">
-        <v>0.51855074756743924</v>
-      </c>
-      <c r="P33" s="12">
-        <v>0.4814492524325607</v>
+      <c r="O33" s="1">
+        <v>0.57565329747119165</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.42434670252880835</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2060,34 +2059,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E34">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="12">
-        <v>0.41805433829973709</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0.58194566170026296</v>
+      <c r="H34" s="1">
+        <v>0.42331288343558282</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.57668711656441718</v>
       </c>
       <c r="K34">
-        <v>44353</v>
+        <v>44759</v>
       </c>
       <c r="L34">
-        <v>43085</v>
+        <v>42679</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="12">
-        <v>0.50725085203229714</v>
-      </c>
-      <c r="P34" s="12">
-        <v>0.49274914796770281</v>
+      <c r="O34" s="1">
+        <v>0.51189414213499851</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.48810585786500149</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2103,10 +2102,10 @@
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="1">
         <v>0.47066326530612246</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="1">
         <v>0.52933673469387754</v>
       </c>
       <c r="K35">
@@ -2118,10 +2117,10 @@
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="1">
         <v>0.54841750411401002</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="1">
         <v>0.45158249588598998</v>
       </c>
     </row>
@@ -2138,10 +2137,10 @@
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="1">
         <v>0.49697702539298672</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="1">
         <v>0.50302297460701328</v>
       </c>
       <c r="K36">
@@ -2153,10 +2152,10 @@
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="1">
         <v>0.62423619000829056</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="1">
         <v>0.37576380999170939</v>
       </c>
     </row>
@@ -2173,10 +2172,10 @@
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="1">
         <v>0.53352769679300294</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="1">
         <v>0.46647230320699706</v>
       </c>
       <c r="K37">
@@ -2188,10 +2187,10 @@
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="1">
         <v>0.61046943250289187</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="1">
         <v>0.38953056749710813</v>
       </c>
     </row>
@@ -2208,10 +2207,10 @@
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="1">
         <v>0.35789473684210527</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="1">
         <v>0.64210526315789473</v>
       </c>
       <c r="K38">
@@ -2223,10 +2222,10 @@
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="1">
         <v>0.46720570146877938</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="1">
         <v>0.53279429853122062</v>
       </c>
     </row>
@@ -2243,10 +2242,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="1">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="1">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2258,10 +2257,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="1">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="1">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2278,10 +2277,10 @@
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="1">
         <v>0.66417910447761197</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="1">
         <v>0.33582089552238809</v>
       </c>
       <c r="K40">
@@ -2293,10 +2292,10 @@
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="1">
         <v>0.80171201467441144</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="1">
         <v>0.1982879853255885</v>
       </c>
     </row>
@@ -2305,34 +2304,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="E41">
-        <v>1355</v>
+        <v>1337</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="12">
-        <v>0.30761369443025038</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0.69238630556974967</v>
+      <c r="H41" s="1">
+        <v>0.31681144609095552</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.68318855390904443</v>
       </c>
       <c r="K41">
-        <v>58561</v>
+        <v>60183</v>
       </c>
       <c r="L41">
-        <v>88058</v>
+        <v>86436</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="12">
-        <v>0.39940935349443113</v>
-      </c>
-      <c r="P41" s="12">
-        <v>0.60059064650556881</v>
+      <c r="O41" s="1">
+        <v>0.41047203977656377</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.58952796022343623</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2348,10 +2347,10 @@
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="1">
         <v>0.41466666666666668</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="1">
         <v>0.58533333333333337</v>
       </c>
       <c r="K42">
@@ -2363,10 +2362,10 @@
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="1">
         <v>0.48916403709695505</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="1">
         <v>0.510835962903045</v>
       </c>
     </row>
@@ -2375,34 +2374,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E43">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="12">
-        <v>0.31899641577060933</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0.68100358422939067</v>
+      <c r="H43" s="1">
+        <v>0.32377538829151731</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.67622461170848269</v>
       </c>
       <c r="K43">
-        <v>25354</v>
+        <v>25690</v>
       </c>
       <c r="L43">
-        <v>38640</v>
+        <v>38304</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="12">
-        <v>0.39619339313060598</v>
-      </c>
-      <c r="P43" s="12">
-        <v>0.60380660686939402</v>
+      <c r="O43" s="1">
+        <v>0.40144388536425291</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.59855611463574709</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2410,34 +2409,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="E44">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
-      <c r="H44" s="12">
-        <v>0.21820349761526231</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0.78179650238473763</v>
+      <c r="H44" s="1">
+        <v>0.22138314785373608</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.77861685214626386</v>
       </c>
       <c r="K44">
-        <v>52220</v>
+        <v>52976</v>
       </c>
       <c r="L44">
-        <v>133410</v>
+        <v>132654</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="12">
-        <v>0.28131228788450141</v>
-      </c>
-      <c r="P44" s="12">
-        <v>0.71868771211549853</v>
+      <c r="O44" s="1">
+        <v>0.28538490545709205</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.71461509454290795</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2453,10 +2452,10 @@
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="1">
         <v>0.31062410671748453</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="1">
         <v>0.68937589328251547</v>
       </c>
       <c r="K45">
@@ -2468,10 +2467,10 @@
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O45" s="1">
         <v>0.38661122609590143</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="1">
         <v>0.61338877390409852</v>
       </c>
     </row>
@@ -2488,10 +2487,10 @@
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="1">
         <v>0.39504373177842567</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="1">
         <v>0.60495626822157433</v>
       </c>
       <c r="K46">
@@ -2503,10 +2502,10 @@
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="1">
         <v>0.48668074543366308</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="1">
         <v>0.51331925456633698</v>
       </c>
     </row>
@@ -2523,10 +2522,10 @@
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="1">
         <v>0.39489671931956255</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="1">
         <v>0.60510328068043739</v>
       </c>
       <c r="K47">
@@ -2538,10 +2537,10 @@
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="1">
         <v>0.45289612254667305</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="1">
         <v>0.547103877453327</v>
       </c>
     </row>
@@ -2550,34 +2549,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E48">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="12">
-        <v>0.30141843971631205</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0.6985815602836879</v>
+      <c r="H48" s="1">
+        <v>0.30496453900709219</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.69503546099290781</v>
       </c>
       <c r="K48">
-        <v>23951</v>
+        <v>24220</v>
       </c>
       <c r="L48">
-        <v>43413</v>
+        <v>43144</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="12">
-        <v>0.35554598895552519</v>
-      </c>
-      <c r="P48" s="12">
-        <v>0.64445401104447475</v>
+      <c r="O48" s="1">
+        <v>0.35953921976129682</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.64046078023870312</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2585,34 +2584,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E49">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="12">
-        <v>0.41358936484490399</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0.58641063515509606</v>
+      <c r="H49" s="1">
+        <v>0.41802067946824223</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.58197932053175772</v>
       </c>
       <c r="K49">
-        <v>27024</v>
+        <v>27296</v>
       </c>
       <c r="L49">
-        <v>27168</v>
+        <v>26896</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="12">
-        <v>0.49867139061116034</v>
-      </c>
-      <c r="P49" s="12">
-        <v>0.50132860938883972</v>
+      <c r="O49" s="1">
+        <v>0.50369058163566582</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.49630941836433423</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2628,10 +2627,10 @@
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="1">
         <v>0.60280373831775702</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="1">
         <v>0.39719626168224298</v>
       </c>
       <c r="K50">
@@ -2643,10 +2642,10 @@
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="1">
         <v>0.71595319033723415</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P50" s="1">
         <v>0.28404680966276585</v>
       </c>
     </row>
@@ -2655,34 +2654,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E51">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="12">
-        <v>0.38256227758007116</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0.61743772241992878</v>
+      <c r="H51" s="1">
+        <v>0.38967971530249113</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.61032028469750887</v>
       </c>
       <c r="K51">
-        <v>41285</v>
+        <v>41706</v>
       </c>
       <c r="L51">
-        <v>48985</v>
+        <v>48564</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="12">
-        <v>0.45735017170710091</v>
-      </c>
-      <c r="P51" s="12">
-        <v>0.54264982829289909</v>
+      <c r="O51" s="1">
+        <v>0.46201395812562313</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.53798604187437682</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2690,34 +2689,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>2197</v>
+        <v>2211</v>
       </c>
       <c r="E52">
-        <v>1626</v>
+        <v>1612</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
-      <c r="H52" s="12">
-        <v>0.57467957101752554</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0.42532042898247452</v>
+      <c r="H52" s="1">
+        <v>0.57834161653151972</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.42165838346848022</v>
       </c>
       <c r="K52">
-        <v>225179</v>
+        <v>226482</v>
       </c>
       <c r="L52">
-        <v>119271</v>
+        <v>117968</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
-      <c r="O52" s="12">
-        <v>0.65373493975903618</v>
-      </c>
-      <c r="P52" s="12">
-        <v>0.34626506024096387</v>
+      <c r="O52" s="1">
+        <v>0.65751778197125854</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.34248221802874146</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2733,10 +2732,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="1">
         <v>0.8</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="1">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2748,10 +2747,10 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="1">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="1">
         <v>0.1043158505902845</v>
       </c>
     </row>
@@ -2762,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>19793</v>
+        <v>19972</v>
       </c>
       <c r="E54" s="13">
-        <v>27320</v>
+        <v>27141</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.42011758962494428</v>
+        <v>0.42391696559336062</v>
       </c>
       <c r="I54" s="14">
-        <v>0.57988241037505572</v>
+        <v>0.57608303440663933</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1893623</v>
+        <v>1909310</v>
       </c>
       <c r="L54" s="13">
-        <v>1847091</v>
+        <v>1831404</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.50621966822376696</v>
+        <v>0.51041325265711301</v>
       </c>
       <c r="P54" s="14">
-        <v>0.49378033177623309</v>
+        <v>0.48958674734288693</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2811,10 +2810,10 @@
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="1">
         <v>0.6</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="1">
         <v>0.4</v>
       </c>
       <c r="K55">
@@ -2826,10 +2825,10 @@
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="12">
+      <c r="O55" s="1">
         <v>0.70361161999476574</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P55" s="1">
         <v>0.29638838000523421</v>
       </c>
     </row>
@@ -2846,10 +2845,10 @@
       <c r="F56">
         <v>82</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="1">
         <v>0.52439024390243905</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="1">
         <v>0.47560975609756095</v>
       </c>
       <c r="K56">
@@ -2861,10 +2860,10 @@
       <c r="M56">
         <v>7030</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="1">
         <v>0.58335704125177812</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P56" s="1">
         <v>0.41664295874822188</v>
       </c>
     </row>
@@ -2881,10 +2880,10 @@
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="1">
         <v>0.25206611570247933</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="1">
         <v>0.74793388429752061</v>
       </c>
       <c r="K57">
@@ -2896,10 +2895,10 @@
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="1">
         <v>0.33113873380385545</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57" s="1">
         <v>0.6688612661961445</v>
       </c>
     </row>
@@ -2916,10 +2915,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="1">
         <v>0.5</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="1">
         <v>0.5</v>
       </c>
       <c r="K58">
@@ -2931,10 +2930,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="1">
         <v>0.55861177773675463</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="1">
         <v>0.44138822226324531</v>
       </c>
     </row>
@@ -2951,10 +2950,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="1">
         <v>0.50306748466257667</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="1">
         <v>0.49693251533742333</v>
       </c>
       <c r="K59">
@@ -2966,10 +2965,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="1">
         <v>0.56389496717724286</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="1">
         <v>0.43610503282275709</v>
       </c>
     </row>
@@ -2986,10 +2985,10 @@
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="1">
         <v>0.51923076923076927</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="1">
         <v>0.48076923076923078</v>
       </c>
       <c r="K60">
@@ -3001,10 +3000,10 @@
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O60" s="1">
         <v>0.65466491458607101</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="1">
         <v>0.34533508541392904</v>
       </c>
     </row>
@@ -3064,10 +3063,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="1">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="1">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3079,10 +3078,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O62" s="1">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="1">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3099,10 +3098,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="1">
         <v>0.20338983050847459</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="1">
         <v>0.79661016949152541</v>
       </c>
       <c r="K63">
@@ -3114,10 +3113,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O63" s="1">
         <v>0.24645688205620947</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63" s="1">
         <v>0.75354311794379059</v>
       </c>
     </row>
@@ -3134,10 +3133,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="1">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="1">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3149,10 +3148,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O64" s="1">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P64" s="1">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3161,34 +3160,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E65">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="12">
-        <v>0.23636363636363636</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0.76363636363636367</v>
+      <c r="H65" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.75</v>
       </c>
       <c r="K65">
-        <v>4692</v>
+        <v>4971</v>
       </c>
       <c r="L65">
-        <v>10746</v>
+        <v>10467</v>
       </c>
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="12">
-        <v>0.30392537893509525</v>
-      </c>
-      <c r="P65" s="12">
-        <v>0.69607462106490481</v>
+      <c r="O65" s="1">
+        <v>0.3219976680917217</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.6780023319082783</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3204,10 +3203,10 @@
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="1">
         <v>0.33913043478260868</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="1">
         <v>0.66086956521739126</v>
       </c>
       <c r="K66">
@@ -3219,10 +3218,10 @@
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="12">
+      <c r="O66" s="1">
         <v>0.39817198764160661</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66" s="1">
         <v>0.60182801235839345</v>
       </c>
     </row>
@@ -3239,10 +3238,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="1">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="1">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3254,10 +3253,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="1">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="1">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3274,10 +3273,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="1">
         <v>0.5</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="1">
         <v>0.5</v>
       </c>
       <c r="K68">
@@ -3289,10 +3288,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="12">
+      <c r="O68" s="1">
         <v>0.60193920335429774</v>
       </c>
-      <c r="P68" s="12">
+      <c r="P68" s="1">
         <v>0.39806079664570232</v>
       </c>
     </row>
@@ -3309,10 +3308,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="1">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="1">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3324,10 +3323,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O69" s="1">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="12">
+      <c r="P69" s="1">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3344,10 +3343,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="1">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="1">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3359,10 +3358,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="1">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="1">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3379,10 +3378,10 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="1">
         <v>0.39743589743589741</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="1">
         <v>0.60256410256410253</v>
       </c>
       <c r="K71">
@@ -3394,10 +3393,10 @@
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="12">
+      <c r="O71" s="1">
         <v>0.46773097826086957</v>
       </c>
-      <c r="P71" s="12">
+      <c r="P71" s="1">
         <v>0.53226902173913049</v>
       </c>
     </row>
@@ -3414,10 +3413,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="1">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="1">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3429,10 +3428,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="12">
+      <c r="O72" s="1">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="1">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3449,10 +3448,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="1">
         <v>0.32258064516129031</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="1">
         <v>0.67741935483870963</v>
       </c>
       <c r="K73">
@@ -3464,10 +3463,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="12">
+      <c r="O73" s="1">
         <v>0.4765018389865141</v>
       </c>
-      <c r="P73" s="12">
+      <c r="P73" s="1">
         <v>0.5234981610134859</v>
       </c>
     </row>
@@ -3476,34 +3475,34 @@
         <v>80</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="12">
-        <v>0.24050632911392406</v>
-      </c>
-      <c r="I74" s="12">
-        <v>0.759493670886076</v>
+      <c r="H74" s="1">
+        <v>0.25316455696202533</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.74683544303797467</v>
       </c>
       <c r="K74">
-        <v>1643</v>
+        <v>1703</v>
       </c>
       <c r="L74">
-        <v>4245</v>
+        <v>4185</v>
       </c>
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="12">
-        <v>0.27904211956521741</v>
-      </c>
-      <c r="P74" s="12">
-        <v>0.72095788043478259</v>
+      <c r="O74" s="1">
+        <v>0.28923233695652173</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0.71076766304347827</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -3519,10 +3518,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="1">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="1">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3534,10 +3533,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="12">
+      <c r="O75" s="1">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="12">
+      <c r="P75" s="1">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3554,10 +3553,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="1">
         <v>0.40384615384615385</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="1">
         <v>0.59615384615384615</v>
       </c>
       <c r="K76">
@@ -3569,10 +3568,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="12">
+      <c r="O76" s="1">
         <v>0.52276100940128645</v>
       </c>
-      <c r="P76" s="12">
+      <c r="P76" s="1">
         <v>0.4772389905987135</v>
       </c>
     </row>
@@ -3589,10 +3588,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="1">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="1">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3604,10 +3603,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="12">
+      <c r="O77" s="1">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="12">
+      <c r="P77" s="1">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3624,10 +3623,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="1">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="1">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3639,10 +3638,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="12">
+      <c r="O78" s="1">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="12">
+      <c r="P78" s="1">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3659,10 +3658,10 @@
       <c r="F79">
         <v>14</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="1">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="1">
         <v>0.7142857142857143</v>
       </c>
       <c r="K79">
@@ -3674,10 +3673,10 @@
       <c r="M79">
         <v>1080</v>
       </c>
-      <c r="O79" s="12">
+      <c r="O79" s="1">
         <v>0.34074074074074073</v>
       </c>
-      <c r="P79" s="12">
+      <c r="P79" s="1">
         <v>0.65925925925925921</v>
       </c>
     </row>
@@ -3694,10 +3693,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="1">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="1">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3709,10 +3708,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="12">
+      <c r="O80" s="1">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="12">
+      <c r="P80" s="1">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3729,10 +3728,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="1">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="1">
         <v>0.70967741935483875</v>
       </c>
       <c r="K81">
@@ -3744,10 +3743,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="12">
+      <c r="O81" s="1">
         <v>0.53033586132177679</v>
       </c>
-      <c r="P81" s="12">
+      <c r="P81" s="1">
         <v>0.46966413867822321</v>
       </c>
     </row>
@@ -3756,34 +3755,34 @@
         <v>88</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E82">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="12">
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I82" s="12">
-        <v>0.53846153846153844</v>
+      <c r="H82" s="1">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.4358974358974359</v>
       </c>
       <c r="K82">
-        <v>1929</v>
+        <v>2285</v>
       </c>
       <c r="L82">
-        <v>1352</v>
+        <v>996</v>
       </c>
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="12">
-        <v>0.58793050899116128</v>
-      </c>
-      <c r="P82" s="12">
-        <v>0.41206949100883877</v>
+      <c r="O82" s="1">
+        <v>0.69643401402011584</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0.30356598597988416</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -3791,34 +3790,34 @@
         <v>89</v>
       </c>
       <c r="D83">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E83">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="I83" s="12">
-        <v>0.8</v>
+      <c r="H83" s="1">
+        <v>0.22307692307692309</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.77692307692307694</v>
       </c>
       <c r="K83">
-        <v>2400</v>
+        <v>2640</v>
       </c>
       <c r="L83">
-        <v>6772</v>
+        <v>6532</v>
       </c>
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="12">
-        <v>0.26166593981683384</v>
-      </c>
-      <c r="P83" s="12">
-        <v>0.73833406018316616</v>
+      <c r="O83" s="1">
+        <v>0.28783253379851725</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0.71216746620148275</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3834,10 +3833,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="1">
         <v>0.51886792452830188</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I84" s="1">
         <v>0.48113207547169812</v>
       </c>
       <c r="K84">
@@ -3849,10 +3848,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="12">
+      <c r="O84" s="1">
         <v>0.60982067637501502</v>
       </c>
-      <c r="P84" s="12">
+      <c r="P84" s="1">
         <v>0.39017932362498498</v>
       </c>
     </row>
@@ -3869,10 +3868,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="1">
         <v>0.4</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="1">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3884,10 +3883,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="12">
+      <c r="O85" s="1">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="12">
+      <c r="P85" s="1">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3904,10 +3903,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="1">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="1">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3919,10 +3918,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="12">
+      <c r="O86" s="1">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="12">
+      <c r="P86" s="1">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3939,10 +3938,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="1">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="1">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3954,10 +3953,10 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="12">
+      <c r="O87" s="1">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="12">
+      <c r="P87" s="1">
         <v>0.57557930123664303</v>
       </c>
     </row>
@@ -3968,37 +3967,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="E88" s="13">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.33193668528864062</v>
+        <v>0.33705772811918061</v>
       </c>
       <c r="I88" s="14">
-        <v>0.66806331471135938</v>
+        <v>0.66294227188081933</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>66206</v>
+        <v>67141</v>
       </c>
       <c r="L88" s="13">
-        <v>93271</v>
+        <v>92336</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.41514450359612987</v>
+        <v>0.42100741799757957</v>
       </c>
       <c r="P88" s="14">
-        <v>0.58485549640387013</v>
+        <v>0.57899258200242043</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4017,10 +4016,10 @@
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="1">
         <v>0.5161290322580645</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="1">
         <v>0.4838709677419355</v>
       </c>
       <c r="K89">
@@ -4032,10 +4031,10 @@
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="12">
+      <c r="O89" s="1">
         <v>0.62768515549855719</v>
       </c>
-      <c r="P89" s="12">
+      <c r="P89" s="1">
         <v>0.37231484450144275</v>
       </c>
     </row>
@@ -4087,34 +4086,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="E91">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="12">
-        <v>0.49688149688149691</v>
-      </c>
-      <c r="I91" s="12">
-        <v>0.50311850311850315</v>
+      <c r="H91" s="1">
+        <v>0.57380457380457384</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.42619542619542622</v>
       </c>
       <c r="K91">
-        <v>21784</v>
+        <v>25471</v>
       </c>
       <c r="L91">
-        <v>16890</v>
+        <v>13203</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="12">
-        <v>0.56327248280498521</v>
-      </c>
-      <c r="P91" s="12">
-        <v>0.43672751719501474</v>
+      <c r="O91" s="1">
+        <v>0.65860785023530022</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0.34139214976469978</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4122,34 +4121,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E92">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="12">
-        <v>0.59130434782608698</v>
-      </c>
-      <c r="I92" s="12">
-        <v>0.40869565217391307</v>
+      <c r="H92" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.4</v>
       </c>
       <c r="K92">
-        <v>26098</v>
+        <v>26452</v>
       </c>
       <c r="L92">
-        <v>14391</v>
+        <v>14037</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="12">
-        <v>0.6445701301588086</v>
-      </c>
-      <c r="P92" s="12">
-        <v>0.35542986984119146</v>
+      <c r="O92" s="1">
+        <v>0.65331324557287163</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.34668675442712837</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4165,10 +4164,10 @@
       <c r="F93">
         <v>904</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93" s="1">
         <v>0.5331858407079646</v>
       </c>
-      <c r="I93" s="12">
+      <c r="I93" s="1">
         <v>0.4668141592920354</v>
       </c>
       <c r="K93">
@@ -4180,10 +4179,10 @@
       <c r="M93">
         <v>75526</v>
       </c>
-      <c r="O93" s="12">
+      <c r="O93" s="1">
         <v>0.62534756242883249</v>
       </c>
-      <c r="P93" s="12">
+      <c r="P93" s="1">
         <v>0.37465243757116756</v>
       </c>
     </row>
@@ -4200,10 +4199,10 @@
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="1">
         <v>0.39013452914798208</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="1">
         <v>0.60986547085201792</v>
       </c>
       <c r="K94">
@@ -4215,10 +4214,10 @@
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="12">
+      <c r="O94" s="1">
         <v>0.44689337055855166</v>
       </c>
-      <c r="P94" s="12">
+      <c r="P94" s="1">
         <v>0.55310662944144828</v>
       </c>
     </row>
@@ -4235,10 +4234,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="1">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="1">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4250,10 +4249,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="12">
+      <c r="O95" s="1">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="12">
+      <c r="P95" s="1">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4262,34 +4261,34 @@
         <v>103</v>
       </c>
       <c r="D96">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E96">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="12">
-        <v>0.59459459459459463</v>
-      </c>
-      <c r="I96" s="12">
-        <v>0.40540540540540543</v>
+      <c r="H96" s="1">
+        <v>0.7432432432432432</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.25675675675675674</v>
       </c>
       <c r="K96">
-        <v>8485</v>
+        <v>10291</v>
       </c>
       <c r="L96">
-        <v>3564</v>
+        <v>1758</v>
       </c>
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="12">
-        <v>0.70420781807618893</v>
-      </c>
-      <c r="P96" s="12">
-        <v>0.29579218192381113</v>
+      <c r="O96" s="1">
+        <v>0.85409577558303595</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0.14590422441696407</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -4305,10 +4304,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="1">
         <v>0.84536082474226804</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="1">
         <v>0.15463917525773196</v>
       </c>
       <c r="K97">
@@ -4320,10 +4319,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="12">
+      <c r="O97" s="1">
         <v>0.93415738587688169</v>
       </c>
-      <c r="P97" s="12">
+      <c r="P97" s="1">
         <v>6.5842614123118343E-2</v>
       </c>
     </row>
@@ -4340,10 +4339,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="1">
         <v>0.83760683760683763</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="1">
         <v>0.1623931623931624</v>
       </c>
       <c r="K98">
@@ -4355,10 +4354,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="12">
+      <c r="O98" s="1">
         <v>0.93199088145896658</v>
       </c>
-      <c r="P98" s="12">
+      <c r="P98" s="1">
         <v>6.8009118541033434E-2</v>
       </c>
     </row>
@@ -4375,10 +4374,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="1">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="1">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4390,10 +4389,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="12">
+      <c r="O99" s="1">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="12">
+      <c r="P99" s="1">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4410,10 +4409,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="1">
         <v>0.53846153846153844</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="1">
         <v>0.46153846153846156</v>
       </c>
       <c r="K100">
@@ -4425,10 +4424,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="12">
+      <c r="O100" s="1">
         <v>0.62799925135691559</v>
       </c>
-      <c r="P100" s="12">
+      <c r="P100" s="1">
         <v>0.37200074864308441</v>
       </c>
     </row>
@@ -4445,10 +4444,10 @@
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="1">
         <v>0.37295081967213117</v>
       </c>
-      <c r="I101" s="12">
+      <c r="I101" s="1">
         <v>0.62704918032786883</v>
       </c>
       <c r="K101">
@@ -4460,10 +4459,10 @@
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="12">
+      <c r="O101" s="1">
         <v>0.42651237278503901</v>
       </c>
-      <c r="P101" s="12">
+      <c r="P101" s="1">
         <v>0.57348762721496105</v>
       </c>
     </row>
@@ -4480,10 +4479,10 @@
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102" s="1">
         <v>0.44</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="1">
         <v>0.56000000000000005</v>
       </c>
       <c r="K102">
@@ -4495,10 +4494,10 @@
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="12">
+      <c r="O102" s="1">
         <v>0.51817388775806916</v>
       </c>
-      <c r="P102" s="12">
+      <c r="P102" s="1">
         <v>0.48182611224193078</v>
       </c>
     </row>
@@ -4515,10 +4514,10 @@
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="1">
         <v>0.55643044619422577</v>
       </c>
-      <c r="I103" s="12">
+      <c r="I103" s="1">
         <v>0.44356955380577429</v>
       </c>
       <c r="K103">
@@ -4530,10 +4529,10 @@
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="12">
+      <c r="O103" s="1">
         <v>0.63396761612102592</v>
       </c>
-      <c r="P103" s="12">
+      <c r="P103" s="1">
         <v>0.36603238387897413</v>
       </c>
     </row>
@@ -4550,10 +4549,10 @@
       <c r="F104">
         <v>892</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="1">
         <v>0.4943946188340807</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="1">
         <v>0.50560538116591924</v>
       </c>
       <c r="K104">
@@ -4565,10 +4564,10 @@
       <c r="M104">
         <v>69284</v>
       </c>
-      <c r="O104" s="12">
+      <c r="O104" s="1">
         <v>0.57208013394145829</v>
       </c>
-      <c r="P104" s="12">
+      <c r="P104" s="1">
         <v>0.42791986605854165</v>
       </c>
     </row>
@@ -4577,34 +4576,34 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="12">
-        <v>0.62068965517241381</v>
-      </c>
-      <c r="I105" s="12">
-        <v>0.37931034482758619</v>
+      <c r="H105" s="1">
+        <v>0.62758620689655176</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.3724137931034483</v>
       </c>
       <c r="K105">
-        <v>8861</v>
+        <v>8897</v>
       </c>
       <c r="L105">
-        <v>3744</v>
+        <v>3708</v>
       </c>
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="12">
-        <v>0.7029750099166997</v>
-      </c>
-      <c r="P105" s="12">
-        <v>0.2970249900833003</v>
+      <c r="O105" s="1">
+        <v>0.70583101943673143</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0.29416898056326857</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -4620,10 +4619,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="1">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="1">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4635,10 +4634,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="12">
+      <c r="O106" s="1">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="12">
+      <c r="P106" s="1">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4647,34 +4646,34 @@
         <v>114</v>
       </c>
       <c r="D107">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E107">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="12">
-        <v>0.36026936026936029</v>
-      </c>
-      <c r="I107" s="12">
-        <v>0.63973063973063971</v>
+      <c r="H107" s="1">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.62962962962962965</v>
       </c>
       <c r="K107">
-        <v>9362</v>
+        <v>9626</v>
       </c>
       <c r="L107">
-        <v>14738</v>
+        <v>14474</v>
       </c>
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="12">
-        <v>0.38846473029045642</v>
-      </c>
-      <c r="P107" s="12">
-        <v>0.61153526970954353</v>
+      <c r="O107" s="1">
+        <v>0.39941908713692947</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0.60058091286307058</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -4690,10 +4689,10 @@
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="1">
         <v>0.48789571694599626</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="1">
         <v>0.51210428305400368</v>
       </c>
       <c r="K108">
@@ -4705,10 +4704,10 @@
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="12">
+      <c r="O108" s="1">
         <v>0.55742719283129416</v>
       </c>
-      <c r="P108" s="12">
+      <c r="P108" s="1">
         <v>0.44257280716870584</v>
       </c>
     </row>
@@ -4717,34 +4716,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E109">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="12">
-        <v>0.65406427221172025</v>
-      </c>
-      <c r="I109" s="12">
-        <v>0.34593572778827975</v>
+      <c r="H109" s="1">
+        <v>0.6597353497164461</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0.34026465028355385</v>
       </c>
       <c r="K109">
-        <v>34500</v>
+        <v>34638</v>
       </c>
       <c r="L109">
-        <v>12001</v>
+        <v>11863</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="12">
-        <v>0.74191952861228794</v>
-      </c>
-      <c r="P109" s="12">
-        <v>0.25808047138771212</v>
+      <c r="O109" s="1">
+        <v>0.74488720672673703</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0.25511279327326292</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4752,34 +4751,34 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E110">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="12">
-        <v>0.43859649122807015</v>
-      </c>
-      <c r="I110" s="12">
-        <v>0.56140350877192979</v>
+      <c r="H110" s="1">
+        <v>0.46783625730994149</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.53216374269005851</v>
       </c>
       <c r="K110">
-        <v>6845</v>
+        <v>7266</v>
       </c>
       <c r="L110">
-        <v>6640</v>
+        <v>6219</v>
       </c>
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="12">
-        <v>0.50760103819058211</v>
-      </c>
-      <c r="P110" s="12">
-        <v>0.49239896180941789</v>
+      <c r="O110" s="1">
+        <v>0.53882091212458283</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0.46117908787541712</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -4795,10 +4794,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="1">
         <v>0.55072463768115942</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="1">
         <v>0.44927536231884058</v>
       </c>
       <c r="K111">
@@ -4810,10 +4809,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="12">
+      <c r="O111" s="1">
         <v>0.59949740851264333</v>
       </c>
-      <c r="P111" s="12">
+      <c r="P111" s="1">
         <v>0.40050259148735667</v>
       </c>
     </row>
@@ -4830,10 +4829,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="1">
         <v>0.86875000000000002</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="1">
         <v>0.13125000000000001</v>
       </c>
       <c r="K112">
@@ -4845,10 +4844,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="12">
+      <c r="O112" s="1">
         <v>0.93789089107684687</v>
       </c>
-      <c r="P112" s="12">
+      <c r="P112" s="1">
         <v>6.2109108923153133E-2</v>
       </c>
     </row>
@@ -4865,10 +4864,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="1">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="12">
+      <c r="I113" s="1">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4880,10 +4879,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="12">
+      <c r="O113" s="1">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="12">
+      <c r="P113" s="1">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4892,34 +4891,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E114">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="12">
-        <v>0.45057232049947971</v>
-      </c>
-      <c r="I114" s="12">
-        <v>0.54942767950052029</v>
+      <c r="H114" s="1">
+        <v>0.45369406867845996</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.54630593132154004</v>
       </c>
       <c r="K114">
-        <v>41258</v>
+        <v>41486</v>
       </c>
       <c r="L114">
-        <v>34216</v>
+        <v>33988</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="12">
-        <v>0.54665182711927285</v>
-      </c>
-      <c r="P114" s="12">
-        <v>0.45334817288072715</v>
+      <c r="O114" s="1">
+        <v>0.54967273498158309</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0.45032726501841691</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4935,10 +4934,10 @@
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="1">
         <v>0.66898148148148151</v>
       </c>
-      <c r="I115" s="12">
+      <c r="I115" s="1">
         <v>0.33101851851851855</v>
       </c>
       <c r="K115">
@@ -4950,10 +4949,10 @@
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="12">
+      <c r="O115" s="1">
         <v>0.72644862711419644</v>
       </c>
-      <c r="P115" s="12">
+      <c r="P115" s="1">
         <v>0.27355137288580356</v>
       </c>
     </row>
@@ -4970,10 +4969,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="1">
         <v>0.41733870967741937</v>
       </c>
-      <c r="I116" s="12">
+      <c r="I116" s="1">
         <v>0.58266129032258063</v>
       </c>
       <c r="K116">
@@ -4985,10 +4984,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="12">
+      <c r="O116" s="1">
         <v>0.5292736164451689</v>
       </c>
-      <c r="P116" s="12">
+      <c r="P116" s="1">
         <v>0.47072638355483104</v>
       </c>
     </row>
@@ -5005,10 +5004,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="1">
         <v>0.56950672645739908</v>
       </c>
-      <c r="I117" s="12">
+      <c r="I117" s="1">
         <v>0.43049327354260092</v>
       </c>
       <c r="K117">
@@ -5020,10 +5019,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="12">
+      <c r="O117" s="1">
         <v>0.70480433066426074</v>
       </c>
-      <c r="P117" s="12">
+      <c r="P117" s="1">
         <v>0.29519566933573926</v>
       </c>
     </row>
@@ -5040,10 +5039,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="1">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="1">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5055,10 +5054,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="12">
+      <c r="O118" s="1">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="12">
+      <c r="P118" s="1">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5075,10 +5074,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="1">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="12">
+      <c r="I119" s="1">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5090,10 +5089,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="12">
+      <c r="O119" s="1">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="12">
+      <c r="P119" s="1">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5110,10 +5109,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="1">
         <v>0.56060606060606055</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="1">
         <v>0.43939393939393939</v>
       </c>
       <c r="K120">
@@ -5125,10 +5124,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="12">
+      <c r="O120" s="1">
         <v>0.64254078921050373</v>
       </c>
-      <c r="P120" s="12">
+      <c r="P120" s="1">
         <v>0.35745921078949622</v>
       </c>
     </row>
@@ -5145,10 +5144,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="1">
         <v>0.52830188679245282</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="1">
         <v>0.47169811320754718</v>
       </c>
       <c r="K121">
@@ -5160,10 +5159,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="12">
+      <c r="O121" s="1">
         <v>0.65243342516069791</v>
       </c>
-      <c r="P121" s="12">
+      <c r="P121" s="1">
         <v>0.34756657483930209</v>
       </c>
     </row>
@@ -5180,10 +5179,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="1">
         <v>0.52</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="1">
         <v>0.48</v>
       </c>
       <c r="K122">
@@ -5195,10 +5194,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="12">
+      <c r="O122" s="1">
         <v>0.57712230215827343</v>
       </c>
-      <c r="P122" s="12">
+      <c r="P122" s="1">
         <v>0.42287769784172663</v>
       </c>
     </row>
@@ -5215,10 +5214,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="1">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I123" s="12">
+      <c r="I123" s="1">
         <v>0.53968253968253965</v>
       </c>
       <c r="K123">
@@ -5230,10 +5229,10 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="12">
+      <c r="O123" s="1">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P123" s="12">
+      <c r="P123" s="1">
         <v>0.46606769016050242</v>
       </c>
     </row>
@@ -5244,37 +5243,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5491</v>
+        <v>5569</v>
       </c>
       <c r="E124" s="13">
-        <v>4943</v>
+        <v>4865</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.52626030285604752</v>
+        <v>0.53373586352309754</v>
       </c>
       <c r="I124" s="14">
-        <v>0.47373969714395248</v>
+        <v>0.46626413647690246</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>530398</v>
+        <v>537332</v>
       </c>
       <c r="L124" s="13">
-        <v>339224</v>
+        <v>332290</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.60991787236293471</v>
+        <v>0.61789145168820481</v>
       </c>
       <c r="P124" s="14">
-        <v>0.39008212763706529</v>
+        <v>0.38210854831179525</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5293,10 +5292,10 @@
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="1">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="1">
         <v>0.53846153846153844</v>
       </c>
       <c r="K125">
@@ -5308,10 +5307,10 @@
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="12">
+      <c r="O125" s="1">
         <v>0.50022520493649225</v>
       </c>
-      <c r="P125" s="12">
+      <c r="P125" s="1">
         <v>0.4997747950635078</v>
       </c>
     </row>
@@ -5328,10 +5327,10 @@
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="1">
         <v>0.5241730279898219</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="1">
         <v>0.4758269720101781</v>
       </c>
       <c r="K126">
@@ -5343,10 +5342,10 @@
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="12">
+      <c r="O126" s="1">
         <v>0.59961190168175937</v>
       </c>
-      <c r="P126" s="12">
+      <c r="P126" s="1">
         <v>0.40038809831824063</v>
       </c>
     </row>
@@ -5363,10 +5362,10 @@
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="1">
         <v>0.48689138576779029</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="1">
         <v>0.51310861423220977</v>
       </c>
       <c r="K127">
@@ -5378,10 +5377,10 @@
       <c r="M127">
         <v>41286</v>
       </c>
-      <c r="O127" s="12">
+      <c r="O127" s="1">
         <v>0.58453228697379256</v>
       </c>
-      <c r="P127" s="12">
+      <c r="P127" s="1">
         <v>0.41546771302620744</v>
       </c>
     </row>
@@ -5398,10 +5397,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H128" s="1">
         <v>0.45089285714285715</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="1">
         <v>0.5491071428571429</v>
       </c>
       <c r="K128">
@@ -5413,10 +5412,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="12">
+      <c r="O128" s="1">
         <v>0.61619075654989697</v>
       </c>
-      <c r="P128" s="12">
+      <c r="P128" s="1">
         <v>0.38380924345010303</v>
       </c>
     </row>
@@ -5433,10 +5432,10 @@
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H129" s="1">
         <v>0.30622009569377989</v>
       </c>
-      <c r="I129" s="12">
+      <c r="I129" s="1">
         <v>0.69377990430622005</v>
       </c>
       <c r="K129">
@@ -5448,10 +5447,10 @@
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="12">
+      <c r="O129" s="1">
         <v>0.33389850327408793</v>
       </c>
-      <c r="P129" s="12">
+      <c r="P129" s="1">
         <v>0.66610149672591201</v>
       </c>
     </row>
@@ -5468,10 +5467,10 @@
       <c r="F130">
         <v>480</v>
       </c>
-      <c r="H130" s="12">
+      <c r="H130" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="1">
         <v>0.61458333333333337</v>
       </c>
       <c r="K130">
@@ -5483,10 +5482,10 @@
       <c r="M130">
         <v>39302</v>
       </c>
-      <c r="O130" s="12">
+      <c r="O130" s="1">
         <v>0.46603226298916084</v>
       </c>
-      <c r="P130" s="12">
+      <c r="P130" s="1">
         <v>0.53396773701083911</v>
       </c>
     </row>
@@ -5503,10 +5502,10 @@
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="12">
+      <c r="H131" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I131" s="12">
+      <c r="I131" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="K131">
@@ -5518,10 +5517,10 @@
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="12">
+      <c r="O131" s="1">
         <v>0.5487915682355079</v>
       </c>
-      <c r="P131" s="12">
+      <c r="P131" s="1">
         <v>0.4512084317644921</v>
       </c>
     </row>
@@ -5538,10 +5537,10 @@
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="12">
+      <c r="H132" s="1">
         <v>0.46823204419889503</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="1">
         <v>0.53176795580110492</v>
       </c>
       <c r="K132">
@@ -5553,10 +5552,10 @@
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="12">
+      <c r="O132" s="1">
         <v>0.55459874805418474</v>
       </c>
-      <c r="P132" s="12">
+      <c r="P132" s="1">
         <v>0.44540125194581526</v>
       </c>
     </row>
@@ -5568,16 +5567,16 @@
         <v>144</v>
       </c>
       <c r="E133">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F133">
-        <v>307</v>
-      </c>
-      <c r="H133" s="12">
-        <v>0.46905537459283386</v>
-      </c>
-      <c r="I133" s="12">
-        <v>0.53094462540716614</v>
+        <v>309</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.46601941747572817</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.53398058252427183</v>
       </c>
       <c r="K133">
         <v>12865</v>
@@ -5588,10 +5587,10 @@
       <c r="M133">
         <v>22707</v>
       </c>
-      <c r="O133" s="12">
+      <c r="O133" s="1">
         <v>0.56656537631567361</v>
       </c>
-      <c r="P133" s="12">
+      <c r="P133" s="1">
         <v>0.43343462368432639</v>
       </c>
     </row>
@@ -5608,10 +5607,10 @@
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="12">
+      <c r="H134" s="1">
         <v>0.45707656612529002</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="1">
         <v>0.54292343387470998</v>
       </c>
       <c r="K134">
@@ -5623,10 +5622,10 @@
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="12">
+      <c r="O134" s="1">
         <v>0.56465453687593992</v>
       </c>
-      <c r="P134" s="12">
+      <c r="P134" s="1">
         <v>0.43534546312406003</v>
       </c>
     </row>
@@ -5635,34 +5634,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E135">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
-      <c r="H135" s="12">
-        <v>0.54304635761589404</v>
-      </c>
-      <c r="I135" s="12">
-        <v>0.45695364238410596</v>
+      <c r="H135" s="1">
+        <v>0.54746136865342165</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.45253863134657835</v>
       </c>
       <c r="K135">
-        <v>19225</v>
+        <v>19237</v>
       </c>
       <c r="L135">
-        <v>11090</v>
+        <v>11078</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="12">
-        <v>0.63417450107207651</v>
-      </c>
-      <c r="P135" s="12">
-        <v>0.36582549892792349</v>
+      <c r="O135" s="1">
+        <v>0.634570344713838</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0.36542965528616195</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5678,10 +5677,10 @@
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="12">
+      <c r="H136" s="1">
         <v>0.48704663212435234</v>
       </c>
-      <c r="I136" s="12">
+      <c r="I136" s="1">
         <v>0.51295336787564771</v>
       </c>
       <c r="K136">
@@ -5693,10 +5692,10 @@
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="12">
+      <c r="O136" s="1">
         <v>0.60264705882352942</v>
       </c>
-      <c r="P136" s="12">
+      <c r="P136" s="1">
         <v>0.39735294117647058</v>
       </c>
     </row>
@@ -5713,10 +5712,10 @@
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="12">
+      <c r="H137" s="1">
         <v>0.39661016949152544</v>
       </c>
-      <c r="I137" s="12">
+      <c r="I137" s="1">
         <v>0.60338983050847461</v>
       </c>
       <c r="K137">
@@ -5728,10 +5727,10 @@
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="12">
+      <c r="O137" s="1">
         <v>0.48007846021821748</v>
       </c>
-      <c r="P137" s="12">
+      <c r="P137" s="1">
         <v>0.51992153978178257</v>
       </c>
     </row>
@@ -5742,37 +5741,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="E138" s="13">
         <v>2654</v>
       </c>
       <c r="F138" s="13">
-        <v>4971</v>
+        <v>4973</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.46610339971836651</v>
+        <v>0.4663181178363161</v>
       </c>
       <c r="I138" s="14">
-        <v>0.53389660028163344</v>
+        <v>0.53368188216368384</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>221480</v>
+        <v>221492</v>
       </c>
       <c r="L138" s="13">
-        <v>178859</v>
+        <v>178847</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.55323113661172152</v>
+        <v>0.55326111120825106</v>
       </c>
       <c r="P138" s="14">
-        <v>0.44676886338827843</v>
+        <v>0.446738888791749</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5782,37 +5781,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>28925</v>
+        <v>29195</v>
       </c>
       <c r="E139" s="13">
-        <v>37086</v>
+        <v>36818</v>
       </c>
       <c r="F139" s="13">
-        <v>66011</v>
+        <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.43818454500007575</v>
+        <v>0.44226137275991095</v>
       </c>
       <c r="I139" s="14">
-        <v>0.56181545499992425</v>
+        <v>0.55773862724008905</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2769162</v>
+        <v>2792730</v>
       </c>
       <c r="L139" s="13">
-        <v>2506774</v>
+        <v>2483206</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.52486648814542103</v>
+        <v>0.52933356280288468</v>
       </c>
       <c r="P139" s="14">
-        <v>0.47513351185457897</v>
+        <v>0.47066643719711537</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AE17B-AF9E-4BB9-A556-A1088D78D137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CC73CE-1E70-44D3-8982-42E03F3F7C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3410F7-3E5F-4D0F-AA66-EB524A87D8E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{157EAC47-4311-4280-92B7-4B106BE0DAB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,18 +561,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D868C8B-C6F1-47D5-A01D-07EA1A82B2C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED8AE23-0820-4880-AEB9-58DDECE3E087}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -902,100 +902,100 @@
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1015,10 +1015,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1030,10 +1030,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="12">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="12">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1050,10 +1050,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="12">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="12">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1065,10 +1065,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="12">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="12">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1082,10 +1082,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1094,10 +1094,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="12">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1114,10 +1114,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="12">
         <v>0.4336283185840708</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="12">
         <v>0.5663716814159292</v>
       </c>
       <c r="K7">
@@ -1129,10 +1129,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="12">
         <v>0.53098745890661148</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="12">
         <v>0.46901254109338852</v>
       </c>
     </row>
@@ -1149,10 +1149,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="12">
         <v>0.25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="12">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1164,10 +1164,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="12">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="12">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1227,10 +1227,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="12">
         <v>0.58837772397094434</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="12">
         <v>0.41162227602905571</v>
       </c>
       <c r="K10">
@@ -1242,10 +1242,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="12">
         <v>0.68093952651338852</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="12">
         <v>0.31906047348661143</v>
       </c>
     </row>
@@ -1254,34 +1254,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E11">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.3337595907928389</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.6662404092071611</v>
+      <c r="H11" s="12">
+        <v>0.33887468030690537</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.66112531969309463</v>
       </c>
       <c r="K11">
-        <v>25009</v>
+        <v>25333</v>
       </c>
       <c r="L11">
-        <v>35623</v>
+        <v>35299</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="1">
-        <v>0.41247196200026387</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.58752803799973607</v>
+      <c r="O11" s="12">
+        <v>0.41781567489114657</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.58218432510885343</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
       <c r="F12">
         <v>574</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="12">
         <v>0.40766550522648082</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="12">
         <v>0.59233449477351918</v>
       </c>
       <c r="K12">
@@ -1312,10 +1312,10 @@
       <c r="M12">
         <v>43861</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="12">
         <v>0.48074599302341486</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="12">
         <v>0.51925400697658508</v>
       </c>
     </row>
@@ -1324,34 +1324,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E13">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.42151675485008816</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.57848324514991178</v>
+      <c r="H13" s="12">
+        <v>0.43033509700176364</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.56966490299823636</v>
       </c>
       <c r="K13">
-        <v>24141</v>
+        <v>24717</v>
       </c>
       <c r="L13">
-        <v>23542</v>
+        <v>22966</v>
       </c>
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="1">
-        <v>0.50628106453033572</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.49371893546966422</v>
+      <c r="O13" s="12">
+        <v>0.51836084139001326</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.48163915860998679</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1367,10 +1367,10 @@
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="12">
         <v>0.48780487804878048</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="12">
         <v>0.51219512195121952</v>
       </c>
       <c r="K14">
@@ -1382,10 +1382,10 @@
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="12">
         <v>0.56143959982243208</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="12">
         <v>0.43856040017756798</v>
       </c>
     </row>
@@ -1394,34 +1394,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E15">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.46248715313463518</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.53751284686536482</v>
+      <c r="H15" s="12">
+        <v>0.46968139773895168</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.53031860226104832</v>
       </c>
       <c r="K15">
-        <v>41507</v>
+        <v>42062</v>
       </c>
       <c r="L15">
-        <v>32869</v>
+        <v>32314</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="1">
-        <v>0.55806980746477364</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.44193019253522642</v>
+      <c r="O15" s="12">
+        <v>0.56553189200817466</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.43446810799182534</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1429,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E16">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.59963099630996308</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.40036900369003692</v>
+      <c r="H16" s="12">
+        <v>0.60608856088560881</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.39391143911439114</v>
       </c>
       <c r="K16">
-        <v>55289</v>
+        <v>55689</v>
       </c>
       <c r="L16">
-        <v>27191</v>
+        <v>26791</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="1">
-        <v>0.67033220174587782</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.32966779825412224</v>
+      <c r="O16" s="12">
+        <v>0.67518186226964116</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.32481813773035889</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1464,34 +1464,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E17">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.35183673469387755</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.64816326530612245</v>
+      <c r="H17" s="12">
+        <v>0.35510204081632651</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.64489795918367343</v>
       </c>
       <c r="K17">
-        <v>41441</v>
+        <v>41762</v>
       </c>
       <c r="L17">
-        <v>61322</v>
+        <v>61001</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="1">
-        <v>0.40326771308739529</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0.59673228691260471</v>
+      <c r="O17" s="12">
+        <v>0.40639140546694824</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.59360859453305181</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1499,34 +1499,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="E18">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.40611524892199136</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.59388475107800864</v>
+      <c r="H18" s="12">
+        <v>0.40807526460211679</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.59192473539788315</v>
       </c>
       <c r="K18">
-        <v>97459</v>
+        <v>97951</v>
       </c>
       <c r="L18">
-        <v>96762</v>
+        <v>96270</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="1">
-        <v>0.50179434767610098</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.49820565232389907</v>
+      <c r="O18" s="12">
+        <v>0.50432754439530225</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0.49567245560469775</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1534,34 +1534,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E19">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.36335078534031412</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.63664921465968582</v>
+      <c r="H19" s="12">
+        <v>0.36753926701570683</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.63246073298429317</v>
       </c>
       <c r="K19">
-        <v>32157</v>
+        <v>32529</v>
       </c>
       <c r="L19">
-        <v>38822</v>
+        <v>38450</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="1">
-        <v>0.45304949351216556</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0.54695050648783439</v>
+      <c r="O19" s="12">
+        <v>0.45829048028290059</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.54170951971709946</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1577,10 +1577,10 @@
       <c r="F20">
         <v>657</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="12">
         <v>0.53881278538812782</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="12">
         <v>0.46118721461187212</v>
       </c>
       <c r="K20">
@@ -1592,10 +1592,10 @@
       <c r="M20">
         <v>54563</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="12">
         <v>0.63128860216630323</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="12">
         <v>0.36871139783369683</v>
       </c>
     </row>
@@ -1612,10 +1612,10 @@
       <c r="F21">
         <v>1295</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="12">
         <v>0.34285714285714286</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="12">
         <v>0.65714285714285714</v>
       </c>
       <c r="K21">
@@ -1627,10 +1627,10 @@
       <c r="M21">
         <v>102046</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="12">
         <v>0.42533759285028322</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="12">
         <v>0.57466240714971684</v>
       </c>
     </row>
@@ -1639,34 +1639,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E22">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.40712468193384221</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.59287531806615779</v>
+      <c r="H22" s="12">
+        <v>0.41815097540288382</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0.58184902459711618</v>
       </c>
       <c r="K22">
-        <v>46191</v>
+        <v>47674</v>
       </c>
       <c r="L22">
-        <v>49421</v>
+        <v>47938</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="1">
-        <v>0.48310881479312218</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.51689118520687782</v>
+      <c r="O22" s="12">
+        <v>0.49861942015646571</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.50138057984353424</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1674,34 +1674,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="E23">
-        <v>1177</v>
+        <v>1158</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.31609529343404996</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.68390470656595004</v>
+      <c r="H23" s="12">
+        <v>0.3271353864032539</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.6728646135967461</v>
       </c>
       <c r="K23">
-        <v>51286</v>
+        <v>52898</v>
       </c>
       <c r="L23">
-        <v>79785</v>
+        <v>78173</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="1">
-        <v>0.39128411319056083</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.60871588680943911</v>
+      <c r="O23" s="12">
+        <v>0.4035827910064011</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.59641720899359885</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1717,10 +1717,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="12">
         <v>0.38305084745762713</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="12">
         <v>0.61694915254237293</v>
       </c>
       <c r="K24">
@@ -1732,10 +1732,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="12">
         <v>0.48254462573059825</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="12">
         <v>0.5174553742694018</v>
       </c>
     </row>
@@ -1744,34 +1744,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E25">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F25">
         <v>1002</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.41716566866267463</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.58283433133732532</v>
+      <c r="H25" s="12">
+        <v>0.42215568862275449</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.57784431137724546</v>
       </c>
       <c r="K25">
-        <v>40527</v>
+        <v>41091</v>
       </c>
       <c r="L25">
-        <v>39173</v>
+        <v>38609</v>
       </c>
       <c r="M25">
         <v>79700</v>
       </c>
-      <c r="O25" s="1">
-        <v>0.50849435382685071</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.49150564617314929</v>
+      <c r="O25" s="12">
+        <v>0.51557089084065244</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0.48442910915934756</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1787,10 +1787,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="12">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="12">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1802,10 +1802,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="12">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="12">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1822,10 +1822,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="12">
         <v>0.36254980079681276</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="12">
         <v>0.63745019920318724</v>
       </c>
       <c r="K27">
@@ -1837,10 +1837,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="12">
         <v>0.41574172621762706</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="12">
         <v>0.58425827378237294</v>
       </c>
     </row>
@@ -1849,34 +1849,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="E28">
-        <v>1458</v>
+        <v>1436</v>
       </c>
       <c r="F28">
         <v>2224</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.3444244604316547</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.65557553956834536</v>
+      <c r="H28" s="12">
+        <v>0.35431654676258995</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.64568345323741005</v>
       </c>
       <c r="K28">
-        <v>72623</v>
+        <v>75076</v>
       </c>
       <c r="L28">
-        <v>98711</v>
+        <v>96258</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.42386800051361667</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.57613199948638327</v>
+      <c r="O28" s="12">
+        <v>0.43818506542776098</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0.56181493457223897</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1884,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1714</v>
+        <v>1723</v>
       </c>
       <c r="E29">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="F29">
         <v>3109</v>
       </c>
-      <c r="H29" s="1">
-        <v>0.55130266966870378</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.44869733033129622</v>
+      <c r="H29" s="12">
+        <v>0.55419749115471217</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.44580250884528788</v>
       </c>
       <c r="K29">
-        <v>166325</v>
+        <v>167134</v>
       </c>
       <c r="L29">
-        <v>102092</v>
+        <v>101283</v>
       </c>
       <c r="M29">
         <v>268417</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.61965151238557914</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.38034848761442086</v>
+      <c r="O29" s="12">
+        <v>0.6226654794591997</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.3773345205408003</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1927,10 +1927,10 @@
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="12">
         <v>0.43373493975903615</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="12">
         <v>0.5662650602409639</v>
       </c>
       <c r="K30">
@@ -1942,10 +1942,10 @@
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="12">
         <v>0.53998527245949923</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="12">
         <v>0.46001472754050071</v>
       </c>
     </row>
@@ -1954,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E31">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="1">
-        <v>0.50772200772200771</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.49227799227799229</v>
+      <c r="H31" s="12">
+        <v>0.52509652509652505</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.4749034749034749</v>
       </c>
       <c r="K31">
-        <v>52231</v>
+        <v>53720</v>
       </c>
       <c r="L31">
-        <v>32797</v>
+        <v>31308</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="1">
-        <v>0.61428000188173304</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.3857199981182669</v>
+      <c r="O31" s="12">
+        <v>0.63179188032177636</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0.36820811967822364</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1989,34 +1989,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E32">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.57305502846299805</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.42694497153700189</v>
+      <c r="H32" s="12">
+        <v>0.58254269449715368</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.41745730550284632</v>
       </c>
       <c r="K32">
-        <v>30586</v>
+        <v>31198</v>
       </c>
       <c r="L32">
-        <v>14241</v>
+        <v>13629</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="1">
-        <v>0.68231199946460841</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.31768800053539159</v>
+      <c r="O32" s="12">
+        <v>0.69596448568942826</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0.30403551431057174</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2032,10 +2032,10 @@
       <c r="F33">
         <v>1067</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="12">
         <v>0.46766635426429243</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="12">
         <v>0.53233364573570763</v>
       </c>
       <c r="K33">
@@ -2047,10 +2047,10 @@
       <c r="M33">
         <v>75846</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="12">
         <v>0.57565329747119165</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="12">
         <v>0.42434670252880835</v>
       </c>
     </row>
@@ -2059,34 +2059,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E34">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="1">
-        <v>0.42331288343558282</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.57668711656441718</v>
+      <c r="H34" s="12">
+        <v>0.42681858019281332</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.57318141980718673</v>
       </c>
       <c r="K34">
-        <v>44759</v>
+        <v>45068</v>
       </c>
       <c r="L34">
-        <v>42679</v>
+        <v>42370</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="1">
-        <v>0.51189414213499851</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.48810585786500149</v>
+      <c r="O34" s="12">
+        <v>0.51542807475010866</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0.48457192524989134</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2102,10 +2102,10 @@
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="12">
         <v>0.47066326530612246</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="12">
         <v>0.52933673469387754</v>
       </c>
       <c r="K35">
@@ -2117,10 +2117,10 @@
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="12">
         <v>0.54841750411401002</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="12">
         <v>0.45158249588598998</v>
       </c>
     </row>
@@ -2137,10 +2137,10 @@
       <c r="F36">
         <v>827</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="12">
         <v>0.49697702539298672</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="12">
         <v>0.50302297460701328</v>
       </c>
       <c r="K36">
@@ -2152,10 +2152,10 @@
       <c r="M36">
         <v>65134</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="12">
         <v>0.62423619000829056</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="12">
         <v>0.37576380999170939</v>
       </c>
     </row>
@@ -2172,10 +2172,10 @@
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="12">
         <v>0.53352769679300294</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="12">
         <v>0.46647230320699706</v>
       </c>
       <c r="K37">
@@ -2187,10 +2187,10 @@
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="12">
         <v>0.61046943250289187</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="12">
         <v>0.38953056749710813</v>
       </c>
     </row>
@@ -2199,34 +2199,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E38">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="1">
-        <v>0.35789473684210527</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.64210526315789473</v>
+      <c r="H38" s="12">
+        <v>0.37894736842105264</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0.62105263157894741</v>
       </c>
       <c r="K38">
-        <v>25829</v>
+        <v>27017</v>
       </c>
       <c r="L38">
-        <v>29455</v>
+        <v>28267</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="1">
-        <v>0.46720570146877938</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.53279429853122062</v>
+      <c r="O38" s="12">
+        <v>0.48869473988857537</v>
+      </c>
+      <c r="P38" s="12">
+        <v>0.51130526011142463</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2242,10 +2242,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="12">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="12">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2257,10 +2257,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="12">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="12">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2277,10 +2277,10 @@
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="12">
         <v>0.66417910447761197</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="12">
         <v>0.33582089552238809</v>
       </c>
       <c r="K40">
@@ -2292,10 +2292,10 @@
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="12">
         <v>0.80171201467441144</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="12">
         <v>0.1982879853255885</v>
       </c>
     </row>
@@ -2304,34 +2304,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>620</v>
+        <v>747</v>
       </c>
       <c r="E41">
-        <v>1337</v>
+        <v>1210</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="1">
-        <v>0.31681144609095552</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.68318855390904443</v>
+      <c r="H41" s="12">
+        <v>0.38170669391926421</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0.61829330608073585</v>
       </c>
       <c r="K41">
-        <v>60183</v>
+        <v>70466</v>
       </c>
       <c r="L41">
-        <v>86436</v>
+        <v>76153</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="1">
-        <v>0.41047203977656377</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.58952796022343623</v>
+      <c r="O41" s="12">
+        <v>0.48060619701402957</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0.51939380298597049</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2347,10 +2347,10 @@
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="12">
         <v>0.41466666666666668</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="12">
         <v>0.58533333333333337</v>
       </c>
       <c r="K42">
@@ -2362,10 +2362,10 @@
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="12">
         <v>0.48916403709695505</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="12">
         <v>0.510835962903045</v>
       </c>
     </row>
@@ -2374,34 +2374,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E43">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="1">
-        <v>0.32377538829151731</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.67622461170848269</v>
+      <c r="H43" s="12">
+        <v>0.33213859020310632</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0.66786140979689368</v>
       </c>
       <c r="K43">
-        <v>25690</v>
+        <v>26218</v>
       </c>
       <c r="L43">
-        <v>38304</v>
+        <v>37776</v>
       </c>
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="1">
-        <v>0.40144388536425291</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.59855611463574709</v>
+      <c r="O43" s="12">
+        <v>0.40969465887426948</v>
+      </c>
+      <c r="P43" s="12">
+        <v>0.59030534112573052</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2409,34 +2409,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="E44">
-        <v>1959</v>
+        <v>1942</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
-      <c r="H44" s="1">
-        <v>0.22138314785373608</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.77861685214626386</v>
+      <c r="H44" s="12">
+        <v>0.22813990461049286</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0.77186009538950717</v>
       </c>
       <c r="K44">
-        <v>52976</v>
+        <v>54672</v>
       </c>
       <c r="L44">
-        <v>132654</v>
+        <v>130958</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="1">
-        <v>0.28538490545709205</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.71461509454290795</v>
+      <c r="O44" s="12">
+        <v>0.29452135969401499</v>
+      </c>
+      <c r="P44" s="12">
+        <v>0.70547864030598506</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2444,34 +2444,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="E45">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="1">
-        <v>0.31062410671748453</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.68937589328251547</v>
+      <c r="H45" s="12">
+        <v>0.3144354454502144</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0.6855645545497856</v>
       </c>
       <c r="K45">
-        <v>62389</v>
+        <v>63110</v>
       </c>
       <c r="L45">
-        <v>98985</v>
+        <v>98264</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="1">
-        <v>0.38661122609590143</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.61338877390409852</v>
+      <c r="O45" s="12">
+        <v>0.39107910815868729</v>
+      </c>
+      <c r="P45" s="12">
+        <v>0.60892089184131271</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2487,10 +2487,10 @@
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="12">
         <v>0.39504373177842567</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="12">
         <v>0.60495626822157433</v>
       </c>
       <c r="K46">
@@ -2502,10 +2502,10 @@
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="12">
         <v>0.48668074543366308</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="12">
         <v>0.51331925456633698</v>
       </c>
     </row>
@@ -2522,10 +2522,10 @@
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="12">
         <v>0.39489671931956255</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="12">
         <v>0.60510328068043739</v>
       </c>
       <c r="K47">
@@ -2537,10 +2537,10 @@
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="12">
         <v>0.45289612254667305</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="12">
         <v>0.547103877453327</v>
       </c>
     </row>
@@ -2557,10 +2557,10 @@
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="12">
         <v>0.30496453900709219</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="12">
         <v>0.69503546099290781</v>
       </c>
       <c r="K48">
@@ -2572,10 +2572,10 @@
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="12">
         <v>0.35953921976129682</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="12">
         <v>0.64046078023870312</v>
       </c>
     </row>
@@ -2584,34 +2584,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E49">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="1">
-        <v>0.41802067946824223</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.58197932053175772</v>
+      <c r="H49" s="12">
+        <v>0.42688330871491875</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0.57311669128508125</v>
       </c>
       <c r="K49">
-        <v>27296</v>
+        <v>27904</v>
       </c>
       <c r="L49">
-        <v>26896</v>
+        <v>26288</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="1">
-        <v>0.50369058163566582</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.49630941836433423</v>
+      <c r="O49" s="12">
+        <v>0.5149099498080898</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0.48509005019191026</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2627,10 +2627,10 @@
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="12">
         <v>0.60280373831775702</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="12">
         <v>0.39719626168224298</v>
       </c>
       <c r="K50">
@@ -2642,10 +2642,10 @@
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="12">
         <v>0.71595319033723415</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="12">
         <v>0.28404680966276585</v>
       </c>
     </row>
@@ -2654,34 +2654,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E51">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="1">
-        <v>0.38967971530249113</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.61032028469750887</v>
+      <c r="H51" s="12">
+        <v>0.39590747330960852</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0.60409252669039148</v>
       </c>
       <c r="K51">
-        <v>41706</v>
+        <v>42478</v>
       </c>
       <c r="L51">
-        <v>48564</v>
+        <v>47792</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="1">
-        <v>0.46201395812562313</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.53798604187437682</v>
+      <c r="O51" s="12">
+        <v>0.4705660795391603</v>
+      </c>
+      <c r="P51" s="12">
+        <v>0.5294339204608397</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2689,34 +2689,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>2211</v>
+        <v>2229</v>
       </c>
       <c r="E52">
-        <v>1612</v>
+        <v>1594</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
-      <c r="H52" s="1">
-        <v>0.57834161653151972</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.42165838346848022</v>
+      <c r="H52" s="12">
+        <v>0.58304996076379811</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0.41695003923620194</v>
       </c>
       <c r="K52">
-        <v>226482</v>
+        <v>228169</v>
       </c>
       <c r="L52">
-        <v>117968</v>
+        <v>116281</v>
       </c>
       <c r="M52">
         <v>344450</v>
       </c>
-      <c r="O52" s="1">
-        <v>0.65751778197125854</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0.34248221802874146</v>
+      <c r="O52" s="12">
+        <v>0.66241544491217885</v>
+      </c>
+      <c r="P52" s="12">
+        <v>0.33758455508782115</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,10 +2732,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="12">
         <v>0.8</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="12">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2747,10 +2747,10 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="12">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="12">
         <v>0.1043158505902845</v>
       </c>
     </row>
@@ -2761,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>19972</v>
+        <v>20309</v>
       </c>
       <c r="E54" s="13">
-        <v>27141</v>
+        <v>26804</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.42391696559336062</v>
+        <v>0.43106998068473668</v>
       </c>
       <c r="I54" s="14">
-        <v>0.57608303440663933</v>
+        <v>0.56893001931526332</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1909310</v>
+        <v>1939164</v>
       </c>
       <c r="L54" s="13">
-        <v>1831404</v>
+        <v>1801550</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.51041325265711301</v>
+        <v>0.51839408198541781</v>
       </c>
       <c r="P54" s="14">
-        <v>0.48958674734288693</v>
+        <v>0.48160591801458225</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2802,34 +2802,34 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E55">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.4</v>
+      <c r="H55" s="12">
+        <v>0.61403508771929827</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0.38596491228070173</v>
       </c>
       <c r="K55">
-        <v>16131</v>
+        <v>16426</v>
       </c>
       <c r="L55">
-        <v>6795</v>
+        <v>6500</v>
       </c>
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="1">
-        <v>0.70361161999476574</v>
-      </c>
-      <c r="P55" s="1">
-        <v>0.29638838000523421</v>
+      <c r="O55" s="12">
+        <v>0.71647910669109305</v>
+      </c>
+      <c r="P55" s="12">
+        <v>0.2835208933089069</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2845,10 +2845,10 @@
       <c r="F56">
         <v>82</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="12">
         <v>0.52439024390243905</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="12">
         <v>0.47560975609756095</v>
       </c>
       <c r="K56">
@@ -2860,10 +2860,10 @@
       <c r="M56">
         <v>7030</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="12">
         <v>0.58335704125177812</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="12">
         <v>0.41664295874822188</v>
       </c>
     </row>
@@ -2872,34 +2872,34 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E57">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="1">
-        <v>0.25206611570247933</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.74793388429752061</v>
+      <c r="H57" s="12">
+        <v>0.26033057851239672</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0.73966942148760328</v>
       </c>
       <c r="K57">
-        <v>6287</v>
+        <v>6450</v>
       </c>
       <c r="L57">
-        <v>12699</v>
+        <v>12536</v>
       </c>
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="1">
-        <v>0.33113873380385545</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0.6688612661961445</v>
+      <c r="O57" s="12">
+        <v>0.33972400716317286</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0.66027599283682714</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2915,10 +2915,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="12">
         <v>0.5</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="12">
         <v>0.5</v>
       </c>
       <c r="K58">
@@ -2930,10 +2930,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="12">
         <v>0.55861177773675463</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="12">
         <v>0.44138822226324531</v>
       </c>
     </row>
@@ -2950,10 +2950,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="12">
         <v>0.50306748466257667</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="12">
         <v>0.49693251533742333</v>
       </c>
       <c r="K59">
@@ -2965,10 +2965,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="12">
         <v>0.56389496717724286</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="12">
         <v>0.43610503282275709</v>
       </c>
     </row>
@@ -2985,10 +2985,10 @@
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="12">
         <v>0.51923076923076927</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="12">
         <v>0.48076923076923078</v>
       </c>
       <c r="K60">
@@ -3000,10 +3000,10 @@
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="12">
         <v>0.65466491458607101</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="12">
         <v>0.34533508541392904</v>
       </c>
     </row>
@@ -3014,37 +3014,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E61" s="13">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F61" s="13">
         <v>944</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.47139830508474578</v>
+        <v>0.4777542372881356</v>
       </c>
       <c r="I61" s="14">
-        <v>0.52860169491525422</v>
+        <v>0.5222457627118644</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>42258</v>
+        <v>42716</v>
       </c>
       <c r="L61" s="13">
-        <v>33421</v>
+        <v>32963</v>
       </c>
       <c r="M61" s="13">
         <v>75679</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.55838475666961773</v>
+        <v>0.56443663367644925</v>
       </c>
       <c r="P61" s="14">
-        <v>0.44161524333038227</v>
+        <v>0.4355633663235508</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3063,10 +3063,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="12">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="12">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3078,10 +3078,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="12">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="12">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="12">
         <v>0.20338983050847459</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="12">
         <v>0.79661016949152541</v>
       </c>
       <c r="K63">
@@ -3113,10 +3113,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="12">
         <v>0.24645688205620947</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="12">
         <v>0.75354311794379059</v>
       </c>
     </row>
@@ -3133,10 +3133,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="12">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="12">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3148,10 +3148,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="12">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="12">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3160,34 +3160,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E65">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0.75</v>
+      <c r="H65" s="12">
+        <v>0.26818181818181819</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0.73181818181818181</v>
       </c>
       <c r="K65">
-        <v>4971</v>
+        <v>5411</v>
       </c>
       <c r="L65">
-        <v>10467</v>
+        <v>10027</v>
       </c>
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="1">
-        <v>0.3219976680917217</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0.6780023319082783</v>
+      <c r="O65" s="12">
+        <v>0.35049876927063089</v>
+      </c>
+      <c r="P65" s="12">
+        <v>0.64950123072936905</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3203,10 +3203,10 @@
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="12">
         <v>0.33913043478260868</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="12">
         <v>0.66086956521739126</v>
       </c>
       <c r="K66">
@@ -3218,10 +3218,10 @@
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="12">
         <v>0.39817198764160661</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="12">
         <v>0.60182801235839345</v>
       </c>
     </row>
@@ -3238,10 +3238,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="12">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="12">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3253,10 +3253,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="12">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="12">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3273,10 +3273,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="12">
         <v>0.5</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="12">
         <v>0.5</v>
       </c>
       <c r="K68">
@@ -3288,10 +3288,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="12">
         <v>0.60193920335429774</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="12">
         <v>0.39806079664570232</v>
       </c>
     </row>
@@ -3308,10 +3308,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="12">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="12">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3323,10 +3323,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="12">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="12">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3343,10 +3343,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="12">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="12">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3358,10 +3358,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="12">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="12">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3370,34 +3370,34 @@
         <v>77</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E71">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="1">
-        <v>0.39743589743589741</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0.60256410256410253</v>
+      <c r="H71" s="12">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0.53846153846153844</v>
       </c>
       <c r="K71">
-        <v>2754</v>
+        <v>3137</v>
       </c>
       <c r="L71">
-        <v>3134</v>
+        <v>2751</v>
       </c>
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="1">
-        <v>0.46773097826086957</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0.53226902173913049</v>
+      <c r="O71" s="12">
+        <v>0.53277853260869568</v>
+      </c>
+      <c r="P71" s="12">
+        <v>0.46722146739130432</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -3413,10 +3413,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="12">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="12">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3428,10 +3428,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="12">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="12">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3448,10 +3448,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="12">
         <v>0.32258064516129031</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="12">
         <v>0.67741935483870963</v>
       </c>
       <c r="K73">
@@ -3463,10 +3463,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="12">
         <v>0.4765018389865141</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="12">
         <v>0.5234981610134859</v>
       </c>
     </row>
@@ -3483,10 +3483,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="12">
         <v>0.25316455696202533</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="12">
         <v>0.74683544303797467</v>
       </c>
       <c r="K74">
@@ -3498,10 +3498,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="12">
         <v>0.28923233695652173</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="12">
         <v>0.71076766304347827</v>
       </c>
     </row>
@@ -3518,10 +3518,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="12">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="12">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3533,10 +3533,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="12">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="12">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3553,10 +3553,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="12">
         <v>0.40384615384615385</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="12">
         <v>0.59615384615384615</v>
       </c>
       <c r="K76">
@@ -3568,10 +3568,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="12">
         <v>0.52276100940128645</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="12">
         <v>0.4772389905987135</v>
       </c>
     </row>
@@ -3588,10 +3588,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="12">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="12">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3603,10 +3603,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="12">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="12">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3623,10 +3623,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="12">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="12">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3638,10 +3638,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="12">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="12">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3658,10 +3658,10 @@
       <c r="F79">
         <v>14</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="12">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="12">
         <v>0.7142857142857143</v>
       </c>
       <c r="K79">
@@ -3673,10 +3673,10 @@
       <c r="M79">
         <v>1080</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="12">
         <v>0.34074074074074073</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79" s="12">
         <v>0.65925925925925921</v>
       </c>
     </row>
@@ -3693,10 +3693,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="12">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="12">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3708,10 +3708,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="12">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="12">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3728,10 +3728,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="12">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="12">
         <v>0.70967741935483875</v>
       </c>
       <c r="K81">
@@ -3743,10 +3743,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="12">
         <v>0.53033586132177679</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="12">
         <v>0.46966413867822321</v>
       </c>
     </row>
@@ -3755,34 +3755,34 @@
         <v>88</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="1">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0.4358974358974359</v>
+      <c r="H82" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0.33333333333333331</v>
       </c>
       <c r="K82">
-        <v>2285</v>
+        <v>2426</v>
       </c>
       <c r="L82">
-        <v>996</v>
+        <v>855</v>
       </c>
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="1">
-        <v>0.69643401402011584</v>
-      </c>
-      <c r="P82" s="1">
-        <v>0.30356598597988416</v>
+      <c r="O82" s="12">
+        <v>0.73940871685461751</v>
+      </c>
+      <c r="P82" s="12">
+        <v>0.26059128314538249</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -3798,10 +3798,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="12">
         <v>0.22307692307692309</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="12">
         <v>0.77692307692307694</v>
       </c>
       <c r="K83">
@@ -3813,10 +3813,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="12">
         <v>0.28783253379851725</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="12">
         <v>0.71216746620148275</v>
       </c>
     </row>
@@ -3833,10 +3833,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="12">
         <v>0.51886792452830188</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="12">
         <v>0.48113207547169812</v>
       </c>
       <c r="K84">
@@ -3848,10 +3848,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="12">
         <v>0.60982067637501502</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="12">
         <v>0.39017932362498498</v>
       </c>
     </row>
@@ -3868,10 +3868,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="12">
         <v>0.4</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="12">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3883,10 +3883,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="12">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="12">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3903,10 +3903,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="12">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="12">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3918,10 +3918,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="12">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="12">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3938,10 +3938,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="12">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="12">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3953,10 +3953,10 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="12">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="12">
         <v>0.57557930123664303</v>
       </c>
     </row>
@@ -3967,37 +3967,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="E88" s="13">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.33705772811918061</v>
+        <v>0.34310986964618251</v>
       </c>
       <c r="I88" s="14">
-        <v>0.66294227188081933</v>
+        <v>0.65689013035381749</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>67141</v>
+        <v>68105</v>
       </c>
       <c r="L88" s="13">
-        <v>92336</v>
+        <v>91372</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.42100741799757957</v>
+        <v>0.42705217680292457</v>
       </c>
       <c r="P88" s="14">
-        <v>0.57899258200242043</v>
+        <v>0.57294782319707549</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4008,34 +4008,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E89">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="1">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0.4838709677419355</v>
+      <c r="H89" s="12">
+        <v>0.52258064516129032</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0.47741935483870968</v>
       </c>
       <c r="K89">
-        <v>7831</v>
+        <v>7843</v>
       </c>
       <c r="L89">
-        <v>4645</v>
+        <v>4633</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="1">
-        <v>0.62768515549855719</v>
-      </c>
-      <c r="P89" s="1">
-        <v>0.37231484450144275</v>
+      <c r="O89" s="12">
+        <v>0.62864700224430903</v>
+      </c>
+      <c r="P89" s="12">
+        <v>0.37135299775569092</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4045,37 +4045,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E90" s="13">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.5161290322580645</v>
+        <v>0.52258064516129032</v>
       </c>
       <c r="I90" s="14">
-        <v>0.4838709677419355</v>
+        <v>0.47741935483870968</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>7831</v>
+        <v>7843</v>
       </c>
       <c r="L90" s="13">
-        <v>4645</v>
+        <v>4633</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.62768515549855719</v>
+        <v>0.62864700224430903</v>
       </c>
       <c r="P90" s="14">
-        <v>0.37231484450144275</v>
+        <v>0.37135299775569092</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4094,10 +4094,10 @@
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="12">
         <v>0.57380457380457384</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="12">
         <v>0.42619542619542622</v>
       </c>
       <c r="K91">
@@ -4109,10 +4109,10 @@
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O91" s="12">
         <v>0.65860785023530022</v>
       </c>
-      <c r="P91" s="1">
+      <c r="P91" s="12">
         <v>0.34139214976469978</v>
       </c>
     </row>
@@ -4129,10 +4129,10 @@
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="12">
         <v>0.6</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="12">
         <v>0.4</v>
       </c>
       <c r="K92">
@@ -4144,10 +4144,10 @@
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O92" s="12">
         <v>0.65331324557287163</v>
       </c>
-      <c r="P92" s="1">
+      <c r="P92" s="12">
         <v>0.34668675442712837</v>
       </c>
     </row>
@@ -4156,34 +4156,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E93">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F93">
         <v>904</v>
       </c>
-      <c r="H93" s="1">
-        <v>0.5331858407079646</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0.4668141592920354</v>
+      <c r="H93" s="12">
+        <v>0.53539823008849563</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0.46460176991150443</v>
       </c>
       <c r="K93">
-        <v>47230</v>
+        <v>47338</v>
       </c>
       <c r="L93">
-        <v>28296</v>
+        <v>28188</v>
       </c>
       <c r="M93">
         <v>75526</v>
       </c>
-      <c r="O93" s="1">
-        <v>0.62534756242883249</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0.37465243757116756</v>
+      <c r="O93" s="12">
+        <v>0.62677753356460031</v>
+      </c>
+      <c r="P93" s="12">
+        <v>0.37322246643539975</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4191,34 +4191,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E94">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="1">
-        <v>0.39013452914798208</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0.60986547085201792</v>
+      <c r="H94" s="12">
+        <v>0.39312406576980569</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0.60687593423019437</v>
       </c>
       <c r="K94">
-        <v>25771</v>
+        <v>25831</v>
       </c>
       <c r="L94">
-        <v>31896</v>
+        <v>31836</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="1">
-        <v>0.44689337055855166</v>
-      </c>
-      <c r="P94" s="1">
-        <v>0.55310662944144828</v>
+      <c r="O94" s="12">
+        <v>0.44793382697209844</v>
+      </c>
+      <c r="P94" s="12">
+        <v>0.55206617302790162</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4234,10 +4234,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="12">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="12">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4249,10 +4249,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="12">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P95" s="12">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4269,10 +4269,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="12">
         <v>0.7432432432432432</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="12">
         <v>0.25675675675675674</v>
       </c>
       <c r="K96">
@@ -4284,10 +4284,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="12">
         <v>0.85409577558303595</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P96" s="12">
         <v>0.14590422441696407</v>
       </c>
     </row>
@@ -4304,10 +4304,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="12">
         <v>0.84536082474226804</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="12">
         <v>0.15463917525773196</v>
       </c>
       <c r="K97">
@@ -4319,10 +4319,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O97" s="12">
         <v>0.93415738587688169</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P97" s="12">
         <v>6.5842614123118343E-2</v>
       </c>
     </row>
@@ -4339,10 +4339,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="12">
         <v>0.83760683760683763</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="12">
         <v>0.1623931623931624</v>
       </c>
       <c r="K98">
@@ -4354,10 +4354,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="12">
         <v>0.93199088145896658</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P98" s="12">
         <v>6.8009118541033434E-2</v>
       </c>
     </row>
@@ -4374,10 +4374,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="12">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="12">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4389,10 +4389,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99" s="12">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P99" s="12">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4409,10 +4409,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="12">
         <v>0.53846153846153844</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="12">
         <v>0.46153846153846156</v>
       </c>
       <c r="K100">
@@ -4424,10 +4424,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O100" s="12">
         <v>0.62799925135691559</v>
       </c>
-      <c r="P100" s="1">
+      <c r="P100" s="12">
         <v>0.37200074864308441</v>
       </c>
     </row>
@@ -4444,10 +4444,10 @@
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="12">
         <v>0.37295081967213117</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="12">
         <v>0.62704918032786883</v>
       </c>
       <c r="K101">
@@ -4459,10 +4459,10 @@
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O101" s="12">
         <v>0.42651237278503901</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P101" s="12">
         <v>0.57348762721496105</v>
       </c>
     </row>
@@ -4471,34 +4471,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E102">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="I102" s="1">
-        <v>0.56000000000000005</v>
+      <c r="H102" s="12">
+        <v>0.53142857142857147</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0.46857142857142858</v>
       </c>
       <c r="K102">
-        <v>7128</v>
+        <v>8627</v>
       </c>
       <c r="L102">
-        <v>6628</v>
+        <v>5129</v>
       </c>
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="1">
-        <v>0.51817388775806916</v>
-      </c>
-      <c r="P102" s="1">
-        <v>0.48182611224193078</v>
+      <c r="O102" s="12">
+        <v>0.62714451875545218</v>
+      </c>
+      <c r="P102" s="12">
+        <v>0.37285548124454782</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4514,10 +4514,10 @@
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="12">
         <v>0.55643044619422577</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="12">
         <v>0.44356955380577429</v>
       </c>
       <c r="K103">
@@ -4529,10 +4529,10 @@
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="12">
         <v>0.63396761612102592</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P103" s="12">
         <v>0.36603238387897413</v>
       </c>
     </row>
@@ -4549,10 +4549,10 @@
       <c r="F104">
         <v>892</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="12">
         <v>0.4943946188340807</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="12">
         <v>0.50560538116591924</v>
       </c>
       <c r="K104">
@@ -4564,10 +4564,10 @@
       <c r="M104">
         <v>69284</v>
       </c>
-      <c r="O104" s="1">
+      <c r="O104" s="12">
         <v>0.57208013394145829</v>
       </c>
-      <c r="P104" s="1">
+      <c r="P104" s="12">
         <v>0.42791986605854165</v>
       </c>
     </row>
@@ -4584,10 +4584,10 @@
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="12">
         <v>0.62758620689655176</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="12">
         <v>0.3724137931034483</v>
       </c>
       <c r="K105">
@@ -4599,10 +4599,10 @@
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105" s="12">
         <v>0.70583101943673143</v>
       </c>
-      <c r="P105" s="1">
+      <c r="P105" s="12">
         <v>0.29416898056326857</v>
       </c>
     </row>
@@ -4619,10 +4619,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="12">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="12">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4634,10 +4634,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O106" s="12">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P106" s="12">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4654,10 +4654,10 @@
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="12">
         <v>0.37037037037037035</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="12">
         <v>0.62962962962962965</v>
       </c>
       <c r="K107">
@@ -4669,10 +4669,10 @@
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107" s="12">
         <v>0.39941908713692947</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P107" s="12">
         <v>0.60058091286307058</v>
       </c>
     </row>
@@ -4681,34 +4681,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E108">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="1">
-        <v>0.48789571694599626</v>
-      </c>
-      <c r="I108" s="1">
-        <v>0.51210428305400368</v>
+      <c r="H108" s="12">
+        <v>0.49534450651769085</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0.50465549348230909</v>
       </c>
       <c r="K108">
-        <v>25878</v>
+        <v>26166</v>
       </c>
       <c r="L108">
-        <v>20546</v>
+        <v>20258</v>
       </c>
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="1">
-        <v>0.55742719283129416</v>
-      </c>
-      <c r="P108" s="1">
-        <v>0.44257280716870584</v>
+      <c r="O108" s="12">
+        <v>0.5636308805790109</v>
+      </c>
+      <c r="P108" s="12">
+        <v>0.43636911942098916</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4724,10 +4724,10 @@
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="12">
         <v>0.6597353497164461</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="12">
         <v>0.34026465028355385</v>
       </c>
       <c r="K109">
@@ -4739,10 +4739,10 @@
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="1">
+      <c r="O109" s="12">
         <v>0.74488720672673703</v>
       </c>
-      <c r="P109" s="1">
+      <c r="P109" s="12">
         <v>0.25511279327326292</v>
       </c>
     </row>
@@ -4759,10 +4759,10 @@
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="12">
         <v>0.46783625730994149</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="12">
         <v>0.53216374269005851</v>
       </c>
       <c r="K110">
@@ -4774,10 +4774,10 @@
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="1">
+      <c r="O110" s="12">
         <v>0.53882091212458283</v>
       </c>
-      <c r="P110" s="1">
+      <c r="P110" s="12">
         <v>0.46117908787541712</v>
       </c>
     </row>
@@ -4794,10 +4794,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="12">
         <v>0.55072463768115942</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="12">
         <v>0.44927536231884058</v>
       </c>
       <c r="K111">
@@ -4809,10 +4809,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="1">
+      <c r="O111" s="12">
         <v>0.59949740851264333</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P111" s="12">
         <v>0.40050259148735667</v>
       </c>
     </row>
@@ -4829,10 +4829,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="12">
         <v>0.86875000000000002</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="12">
         <v>0.13125000000000001</v>
       </c>
       <c r="K112">
@@ -4844,10 +4844,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="1">
+      <c r="O112" s="12">
         <v>0.93789089107684687</v>
       </c>
-      <c r="P112" s="1">
+      <c r="P112" s="12">
         <v>6.2109108923153133E-2</v>
       </c>
     </row>
@@ -4864,10 +4864,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="12">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="12">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4879,10 +4879,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113" s="12">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="1">
+      <c r="P113" s="12">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4891,34 +4891,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E114">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="1">
-        <v>0.45369406867845996</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0.54630593132154004</v>
+      <c r="H114" s="12">
+        <v>0.45889698231009363</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0.54110301768990632</v>
       </c>
       <c r="K114">
-        <v>41486</v>
+        <v>42038</v>
       </c>
       <c r="L114">
-        <v>33988</v>
+        <v>33436</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="1">
-        <v>0.54967273498158309</v>
-      </c>
-      <c r="P114" s="1">
-        <v>0.45032726501841691</v>
+      <c r="O114" s="12">
+        <v>0.55698651191138671</v>
+      </c>
+      <c r="P114" s="12">
+        <v>0.44301348808861329</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4934,10 +4934,10 @@
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="12">
         <v>0.66898148148148151</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="12">
         <v>0.33101851851851855</v>
       </c>
       <c r="K115">
@@ -4949,10 +4949,10 @@
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="1">
+      <c r="O115" s="12">
         <v>0.72644862711419644</v>
       </c>
-      <c r="P115" s="1">
+      <c r="P115" s="12">
         <v>0.27355137288580356</v>
       </c>
     </row>
@@ -4969,10 +4969,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="12">
         <v>0.41733870967741937</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="12">
         <v>0.58266129032258063</v>
       </c>
       <c r="K116">
@@ -4984,10 +4984,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="1">
+      <c r="O116" s="12">
         <v>0.5292736164451689</v>
       </c>
-      <c r="P116" s="1">
+      <c r="P116" s="12">
         <v>0.47072638355483104</v>
       </c>
     </row>
@@ -4996,34 +4996,34 @@
         <v>124</v>
       </c>
       <c r="D117">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E117">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="1">
-        <v>0.56950672645739908</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0.43049327354260092</v>
+      <c r="H117" s="12">
+        <v>0.5964125560538116</v>
+      </c>
+      <c r="I117" s="12">
+        <v>0.40358744394618834</v>
       </c>
       <c r="K117">
-        <v>12499</v>
+        <v>12827</v>
       </c>
       <c r="L117">
-        <v>5235</v>
+        <v>4907</v>
       </c>
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="1">
-        <v>0.70480433066426074</v>
-      </c>
-      <c r="P117" s="1">
-        <v>0.29519566933573926</v>
+      <c r="O117" s="12">
+        <v>0.72329987594451339</v>
+      </c>
+      <c r="P117" s="12">
+        <v>0.27670012405548666</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -5039,10 +5039,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="12">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="12">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5054,10 +5054,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="1">
+      <c r="O118" s="12">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="1">
+      <c r="P118" s="12">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5074,10 +5074,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="12">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="12">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5089,10 +5089,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119" s="12">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="1">
+      <c r="P119" s="12">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5101,34 +5101,34 @@
         <v>127</v>
       </c>
       <c r="D120">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E120">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="1">
-        <v>0.56060606060606055</v>
-      </c>
-      <c r="I120" s="1">
-        <v>0.43939393939393939</v>
+      <c r="H120" s="12">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="I120" s="12">
+        <v>0.42424242424242425</v>
       </c>
       <c r="K120">
-        <v>22487</v>
+        <v>23134</v>
       </c>
       <c r="L120">
-        <v>12510</v>
+        <v>11863</v>
       </c>
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="1">
-        <v>0.64254078921050373</v>
-      </c>
-      <c r="P120" s="1">
-        <v>0.35745921078949622</v>
+      <c r="O120" s="12">
+        <v>0.661028088121839</v>
+      </c>
+      <c r="P120" s="12">
+        <v>0.338971911878161</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -5144,10 +5144,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="12">
         <v>0.52830188679245282</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="12">
         <v>0.47169811320754718</v>
       </c>
       <c r="K121">
@@ -5159,10 +5159,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="1">
+      <c r="O121" s="12">
         <v>0.65243342516069791</v>
       </c>
-      <c r="P121" s="1">
+      <c r="P121" s="12">
         <v>0.34756657483930209</v>
       </c>
     </row>
@@ -5179,10 +5179,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="12">
         <v>0.52</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="12">
         <v>0.48</v>
       </c>
       <c r="K122">
@@ -5194,10 +5194,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O122" s="12">
         <v>0.57712230215827343</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P122" s="12">
         <v>0.42287769784172663</v>
       </c>
     </row>
@@ -5214,10 +5214,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="12">
         <v>0.46031746031746029</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="12">
         <v>0.53968253968253965</v>
       </c>
       <c r="K123">
@@ -5229,10 +5229,10 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="1">
+      <c r="O123" s="12">
         <v>0.53393230983949758</v>
       </c>
-      <c r="P123" s="1">
+      <c r="P123" s="12">
         <v>0.46606769016050242</v>
       </c>
     </row>
@@ -5243,37 +5243,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5569</v>
+        <v>5610</v>
       </c>
       <c r="E124" s="13">
-        <v>4865</v>
+        <v>4824</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.53373586352309754</v>
+        <v>0.53766532489936747</v>
       </c>
       <c r="I124" s="14">
-        <v>0.46626413647690246</v>
+        <v>0.46233467510063253</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>537332</v>
+        <v>540814</v>
       </c>
       <c r="L124" s="13">
-        <v>332290</v>
+        <v>328808</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.61789145168820481</v>
+        <v>0.62189549022448831</v>
       </c>
       <c r="P124" s="14">
-        <v>0.38210854831179525</v>
+        <v>0.37810450977551163</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5284,34 +5284,34 @@
         <v>133</v>
       </c>
       <c r="D125">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E125">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="1">
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0.53846153846153844</v>
+      <c r="H125" s="12">
+        <v>0.49650349650349651</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0.50349650349650354</v>
       </c>
       <c r="K125">
-        <v>5553</v>
+        <v>6165</v>
       </c>
       <c r="L125">
-        <v>5548</v>
+        <v>4936</v>
       </c>
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="1">
-        <v>0.50022520493649225</v>
-      </c>
-      <c r="P125" s="1">
-        <v>0.4997747950635078</v>
+      <c r="O125" s="12">
+        <v>0.55535537338978469</v>
+      </c>
+      <c r="P125" s="12">
+        <v>0.44464462661021531</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -5327,10 +5327,10 @@
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="12">
         <v>0.5241730279898219</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="12">
         <v>0.4758269720101781</v>
       </c>
       <c r="K126">
@@ -5342,10 +5342,10 @@
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="1">
+      <c r="O126" s="12">
         <v>0.59961190168175937</v>
       </c>
-      <c r="P126" s="1">
+      <c r="P126" s="12">
         <v>0.40038809831824063</v>
       </c>
     </row>
@@ -5354,34 +5354,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E127">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="1">
-        <v>0.48689138576779029</v>
-      </c>
-      <c r="I127" s="1">
-        <v>0.51310861423220977</v>
+      <c r="H127" s="12">
+        <v>0.50374531835205993</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0.49625468164794007</v>
       </c>
       <c r="K127">
-        <v>24133</v>
+        <v>25008</v>
       </c>
       <c r="L127">
-        <v>17153</v>
+        <v>16278</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
-      <c r="O127" s="1">
-        <v>0.58453228697379256</v>
-      </c>
-      <c r="P127" s="1">
-        <v>0.41546771302620744</v>
+      <c r="O127" s="12">
+        <v>0.60572591193140535</v>
+      </c>
+      <c r="P127" s="12">
+        <v>0.39427408806859471</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5389,34 +5389,34 @@
         <v>136</v>
       </c>
       <c r="D128">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E128">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="1">
-        <v>0.45089285714285715</v>
-      </c>
-      <c r="I128" s="1">
-        <v>0.5491071428571429</v>
+      <c r="H128" s="12">
+        <v>0.4955357142857143</v>
+      </c>
+      <c r="I128" s="12">
+        <v>0.5044642857142857</v>
       </c>
       <c r="K128">
-        <v>10466</v>
+        <v>11209</v>
       </c>
       <c r="L128">
-        <v>6519</v>
+        <v>5776</v>
       </c>
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="1">
-        <v>0.61619075654989697</v>
-      </c>
-      <c r="P128" s="1">
-        <v>0.38380924345010303</v>
+      <c r="O128" s="12">
+        <v>0.65993523697380041</v>
+      </c>
+      <c r="P128" s="12">
+        <v>0.34006476302619959</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5432,10 +5432,10 @@
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="12">
         <v>0.30622009569377989</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="12">
         <v>0.69377990430622005</v>
       </c>
       <c r="K129">
@@ -5447,10 +5447,10 @@
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="1">
+      <c r="O129" s="12">
         <v>0.33389850327408793</v>
       </c>
-      <c r="P129" s="1">
+      <c r="P129" s="12">
         <v>0.66610149672591201</v>
       </c>
     </row>
@@ -5467,10 +5467,10 @@
       <c r="F130">
         <v>480</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="12">
         <v>0.38541666666666669</v>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="12">
         <v>0.61458333333333337</v>
       </c>
       <c r="K130">
@@ -5482,10 +5482,10 @@
       <c r="M130">
         <v>39302</v>
       </c>
-      <c r="O130" s="1">
+      <c r="O130" s="12">
         <v>0.46603226298916084</v>
       </c>
-      <c r="P130" s="1">
+      <c r="P130" s="12">
         <v>0.53396773701083911</v>
       </c>
     </row>
@@ -5494,34 +5494,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E131">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I131" s="1">
-        <v>0.52083333333333337</v>
+      <c r="H131" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I131" s="12">
+        <v>0.5</v>
       </c>
       <c r="K131">
-        <v>9060</v>
+        <v>9239</v>
       </c>
       <c r="L131">
-        <v>7449</v>
+        <v>7270</v>
       </c>
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="1">
-        <v>0.5487915682355079</v>
-      </c>
-      <c r="P131" s="1">
-        <v>0.4512084317644921</v>
+      <c r="O131" s="12">
+        <v>0.55963413895450964</v>
+      </c>
+      <c r="P131" s="12">
+        <v>0.44036586104549036</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5529,34 +5529,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E132">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="1">
-        <v>0.46823204419889503</v>
-      </c>
-      <c r="I132" s="1">
-        <v>0.53176795580110492</v>
+      <c r="H132" s="12">
+        <v>0.47928176795580113</v>
+      </c>
+      <c r="I132" s="12">
+        <v>0.52071823204419887</v>
       </c>
       <c r="K132">
-        <v>33490</v>
+        <v>34346</v>
       </c>
       <c r="L132">
-        <v>26896</v>
+        <v>26040</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="1">
-        <v>0.55459874805418474</v>
-      </c>
-      <c r="P132" s="1">
-        <v>0.44540125194581526</v>
+      <c r="O132" s="12">
+        <v>0.56877421918987847</v>
+      </c>
+      <c r="P132" s="12">
+        <v>0.43122578081012153</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5564,34 +5564,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E133">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="F133">
         <v>309</v>
       </c>
-      <c r="H133" s="1">
-        <v>0.46601941747572817</v>
-      </c>
-      <c r="I133" s="1">
-        <v>0.53398058252427183</v>
+      <c r="H133" s="12">
+        <v>0.61488673139158578</v>
+      </c>
+      <c r="I133" s="12">
+        <v>0.38511326860841422</v>
       </c>
       <c r="K133">
-        <v>12865</v>
+        <v>17211</v>
       </c>
       <c r="L133">
-        <v>9842</v>
+        <v>5496</v>
       </c>
       <c r="M133">
         <v>22707</v>
       </c>
-      <c r="O133" s="1">
-        <v>0.56656537631567361</v>
-      </c>
-      <c r="P133" s="1">
-        <v>0.43343462368432639</v>
+      <c r="O133" s="12">
+        <v>0.7579601004095653</v>
+      </c>
+      <c r="P133" s="12">
+        <v>0.24203989959043468</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5607,10 +5607,10 @@
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="12">
         <v>0.45707656612529002</v>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="12">
         <v>0.54292343387470998</v>
       </c>
       <c r="K134">
@@ -5622,10 +5622,10 @@
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="1">
+      <c r="O134" s="12">
         <v>0.56465453687593992</v>
       </c>
-      <c r="P134" s="1">
+      <c r="P134" s="12">
         <v>0.43534546312406003</v>
       </c>
     </row>
@@ -5634,34 +5634,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="E135">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F135">
         <v>453</v>
       </c>
-      <c r="H135" s="1">
-        <v>0.54746136865342165</v>
-      </c>
-      <c r="I135" s="1">
-        <v>0.45253863134657835</v>
+      <c r="H135" s="12">
+        <v>0.5938189845474614</v>
+      </c>
+      <c r="I135" s="12">
+        <v>0.40618101545253865</v>
       </c>
       <c r="K135">
-        <v>19237</v>
+        <v>20474</v>
       </c>
       <c r="L135">
-        <v>11078</v>
+        <v>9841</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="1">
-        <v>0.634570344713838</v>
-      </c>
-      <c r="P135" s="1">
-        <v>0.36542965528616195</v>
+      <c r="O135" s="12">
+        <v>0.67537522678541972</v>
+      </c>
+      <c r="P135" s="12">
+        <v>0.32462477321458022</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5669,34 +5669,34 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E136">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="1">
-        <v>0.48704663212435234</v>
-      </c>
-      <c r="I136" s="1">
-        <v>0.51295336787564771</v>
+      <c r="H136" s="12">
+        <v>0.51813471502590669</v>
+      </c>
+      <c r="I136" s="12">
+        <v>0.48186528497409326</v>
       </c>
       <c r="K136">
-        <v>8196</v>
+        <v>8802</v>
       </c>
       <c r="L136">
-        <v>5404</v>
+        <v>4798</v>
       </c>
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="1">
-        <v>0.60264705882352942</v>
-      </c>
-      <c r="P136" s="1">
-        <v>0.39735294117647058</v>
+      <c r="O136" s="12">
+        <v>0.64720588235294119</v>
+      </c>
+      <c r="P136" s="12">
+        <v>0.35279411764705881</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5704,34 +5704,34 @@
         <v>145</v>
       </c>
       <c r="D137">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E137">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="1">
-        <v>0.39661016949152544</v>
-      </c>
-      <c r="I137" s="1">
-        <v>0.60338983050847461</v>
+      <c r="H137" s="12">
+        <v>0.41355932203389828</v>
+      </c>
+      <c r="I137" s="12">
+        <v>0.58644067796610166</v>
       </c>
       <c r="K137">
-        <v>11748</v>
+        <v>12219</v>
       </c>
       <c r="L137">
-        <v>12723</v>
+        <v>12252</v>
       </c>
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="1">
-        <v>0.48007846021821748</v>
-      </c>
-      <c r="P137" s="1">
-        <v>0.51992153978178257</v>
+      <c r="O137" s="12">
+        <v>0.49932573249969353</v>
+      </c>
+      <c r="P137" s="12">
+        <v>0.50067426750030652</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5741,37 +5741,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2319</v>
+        <v>2433</v>
       </c>
       <c r="E138" s="13">
-        <v>2654</v>
+        <v>2540</v>
       </c>
       <c r="F138" s="13">
         <v>4973</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.4663181178363161</v>
+        <v>0.48924190629398751</v>
       </c>
       <c r="I138" s="14">
-        <v>0.53368188216368384</v>
+        <v>0.51075809370601244</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>221492</v>
+        <v>231417</v>
       </c>
       <c r="L138" s="13">
-        <v>178847</v>
+        <v>168922</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.55326111120825106</v>
+        <v>0.57805260042114304</v>
       </c>
       <c r="P138" s="14">
-        <v>0.446738888791749</v>
+        <v>0.42194739957885691</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,37 +5781,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>29195</v>
+        <v>29707</v>
       </c>
       <c r="E139" s="13">
-        <v>36818</v>
+        <v>36306</v>
       </c>
       <c r="F139" s="13">
         <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.44226137275991095</v>
+        <v>0.45001742081105239</v>
       </c>
       <c r="I139" s="14">
-        <v>0.55773862724008905</v>
+        <v>0.54998257918894766</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2792730</v>
+        <v>2837425</v>
       </c>
       <c r="L139" s="13">
-        <v>2483206</v>
+        <v>2438511</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.52933356280288468</v>
+        <v>0.53780504539857954</v>
       </c>
       <c r="P139" s="14">
-        <v>0.47066643719711537</v>
+        <v>0.46219495460142046</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CC73CE-1E70-44D3-8982-42E03F3F7C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD1465-DEE4-428C-9676-990ACE17B8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{157EAC47-4311-4280-92B7-4B106BE0DAB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F967F19-9481-4C3D-91FA-B1FCDFA43CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,26 +888,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED8AE23-0820-4880-AEB9-58DDECE3E087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1FAECC-6329-484F-81CE-1A6DDCFF0E28}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
@@ -1254,34 +1254,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E11">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
       <c r="H11" s="12">
-        <v>0.33887468030690537</v>
+        <v>0.35038363171355497</v>
       </c>
       <c r="I11" s="12">
-        <v>0.66112531969309463</v>
+        <v>0.64961636828644498</v>
       </c>
       <c r="K11">
-        <v>25333</v>
+        <v>26180</v>
       </c>
       <c r="L11">
-        <v>35299</v>
+        <v>34452</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
       <c r="O11" s="12">
-        <v>0.41781567489114657</v>
+        <v>0.43178519593613934</v>
       </c>
       <c r="P11" s="12">
-        <v>0.58218432510885343</v>
+        <v>0.56821480406386071</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1429,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E16">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
       <c r="H16" s="12">
-        <v>0.60608856088560881</v>
+        <v>0.60885608856088558</v>
       </c>
       <c r="I16" s="12">
-        <v>0.39391143911439114</v>
+        <v>0.39114391143911437</v>
       </c>
       <c r="K16">
-        <v>55689</v>
+        <v>56005</v>
       </c>
       <c r="L16">
-        <v>26791</v>
+        <v>26475</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
       <c r="O16" s="12">
-        <v>0.67518186226964116</v>
+        <v>0.67901309408341415</v>
       </c>
       <c r="P16" s="12">
-        <v>0.32481813773035889</v>
+        <v>0.32098690591658585</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1499,34 +1499,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E18">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
       <c r="H18" s="12">
-        <v>0.40807526460211679</v>
+        <v>0.40925127401019207</v>
       </c>
       <c r="I18" s="12">
-        <v>0.59192473539788315</v>
+        <v>0.59074872598980788</v>
       </c>
       <c r="K18">
-        <v>97951</v>
+        <v>98224</v>
       </c>
       <c r="L18">
-        <v>96270</v>
+        <v>95997</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
       <c r="O18" s="12">
-        <v>0.50432754439530225</v>
+        <v>0.50573315964802978</v>
       </c>
       <c r="P18" s="12">
-        <v>0.49567245560469775</v>
+        <v>0.49426684035197016</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1569,34 +1569,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="E20">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="F20">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="H20" s="12">
-        <v>0.53881278538812782</v>
+        <v>0.62141779788838614</v>
       </c>
       <c r="I20" s="12">
-        <v>0.46118721461187212</v>
+        <v>0.37858220211161386</v>
       </c>
       <c r="K20">
-        <v>34445</v>
+        <v>39084</v>
       </c>
       <c r="L20">
-        <v>20118</v>
+        <v>15778</v>
       </c>
       <c r="M20">
-        <v>54563</v>
+        <v>54862</v>
       </c>
       <c r="O20" s="12">
-        <v>0.63128860216630323</v>
+        <v>0.71240567241442165</v>
       </c>
       <c r="P20" s="12">
-        <v>0.36871139783369683</v>
+        <v>0.28759432758557835</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1744,34 +1744,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E25">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F25">
         <v>1002</v>
       </c>
       <c r="H25" s="12">
-        <v>0.42215568862275449</v>
+        <v>0.42514970059880242</v>
       </c>
       <c r="I25" s="12">
-        <v>0.57784431137724546</v>
+        <v>0.57485029940119758</v>
       </c>
       <c r="K25">
-        <v>41091</v>
+        <v>41381</v>
       </c>
       <c r="L25">
-        <v>38609</v>
+        <v>38319</v>
       </c>
       <c r="M25">
         <v>79700</v>
       </c>
       <c r="O25" s="12">
-        <v>0.51557089084065244</v>
+        <v>0.51920953575909656</v>
       </c>
       <c r="P25" s="12">
-        <v>0.48442910915934756</v>
+        <v>0.48079046424090338</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1849,34 +1849,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E28">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F28">
         <v>2224</v>
       </c>
       <c r="H28" s="12">
-        <v>0.35431654676258995</v>
+        <v>0.35476618705035973</v>
       </c>
       <c r="I28" s="12">
-        <v>0.64568345323741005</v>
+        <v>0.64523381294964033</v>
       </c>
       <c r="K28">
-        <v>75076</v>
+        <v>75196</v>
       </c>
       <c r="L28">
-        <v>96258</v>
+        <v>96138</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="12">
-        <v>0.43818506542776098</v>
+        <v>0.43888545180758054</v>
       </c>
       <c r="P28" s="12">
-        <v>0.56181493457223897</v>
+        <v>0.56111454819241946</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1884,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="E29">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="F29">
         <v>3109</v>
       </c>
       <c r="H29" s="12">
-        <v>0.55419749115471217</v>
+        <v>0.55644901897716303</v>
       </c>
       <c r="I29" s="12">
-        <v>0.44580250884528788</v>
+        <v>0.44355098102283691</v>
       </c>
       <c r="K29">
-        <v>167134</v>
+        <v>167494</v>
       </c>
       <c r="L29">
-        <v>101283</v>
+        <v>100923</v>
       </c>
       <c r="M29">
         <v>268417</v>
       </c>
       <c r="O29" s="12">
-        <v>0.6226654794591997</v>
+        <v>0.62400667617922856</v>
       </c>
       <c r="P29" s="12">
-        <v>0.3773345205408003</v>
+        <v>0.37599332382077139</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1954,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="E31">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
       <c r="H31" s="12">
-        <v>0.52509652509652505</v>
+        <v>0.55115830115830111</v>
       </c>
       <c r="I31" s="12">
-        <v>0.4749034749034749</v>
+        <v>0.44884169884169883</v>
       </c>
       <c r="K31">
-        <v>53720</v>
+        <v>56203</v>
       </c>
       <c r="L31">
-        <v>31308</v>
+        <v>28825</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
       <c r="O31" s="12">
-        <v>0.63179188032177636</v>
+        <v>0.66099402549748321</v>
       </c>
       <c r="P31" s="12">
-        <v>0.36820811967822364</v>
+        <v>0.33900597450251679</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1989,34 +1989,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="E32">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
       <c r="H32" s="12">
-        <v>0.58254269449715368</v>
+        <v>0.62239089184060725</v>
       </c>
       <c r="I32" s="12">
-        <v>0.41745730550284632</v>
+        <v>0.3776091081593928</v>
       </c>
       <c r="K32">
-        <v>31198</v>
+        <v>33503</v>
       </c>
       <c r="L32">
-        <v>13629</v>
+        <v>11324</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
       <c r="O32" s="12">
-        <v>0.69596448568942826</v>
+        <v>0.74738438887277758</v>
       </c>
       <c r="P32" s="12">
-        <v>0.30403551431057174</v>
+        <v>0.25261561112722242</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2024,34 +2024,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="E33">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="F33">
         <v>1067</v>
       </c>
       <c r="H33" s="12">
-        <v>0.46766635426429243</v>
+        <v>0.49109653233364575</v>
       </c>
       <c r="I33" s="12">
-        <v>0.53233364573570763</v>
+        <v>0.5089034676663543</v>
       </c>
       <c r="K33">
-        <v>43661</v>
+        <v>46006</v>
       </c>
       <c r="L33">
-        <v>32185</v>
+        <v>29840</v>
       </c>
       <c r="M33">
         <v>75846</v>
       </c>
       <c r="O33" s="12">
-        <v>0.57565329747119165</v>
+        <v>0.60657121008359038</v>
       </c>
       <c r="P33" s="12">
-        <v>0.42434670252880835</v>
+        <v>0.39342878991640956</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2059,34 +2059,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E34">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="12">
-        <v>0.42681858019281332</v>
+        <v>0.42944785276073622</v>
       </c>
       <c r="I34" s="12">
-        <v>0.57318141980718673</v>
+        <v>0.57055214723926384</v>
       </c>
       <c r="K34">
-        <v>45068</v>
+        <v>45317</v>
       </c>
       <c r="L34">
-        <v>42370</v>
+        <v>42121</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
       <c r="O34" s="12">
-        <v>0.51542807475010866</v>
+        <v>0.51827580685743035</v>
       </c>
       <c r="P34" s="12">
-        <v>0.48457192524989134</v>
+        <v>0.48172419314256959</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2132,31 +2132,31 @@
         <v>411</v>
       </c>
       <c r="E36">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F36">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H36" s="12">
-        <v>0.49697702539298672</v>
+        <v>0.50060901339829478</v>
       </c>
       <c r="I36" s="12">
-        <v>0.50302297460701328</v>
+        <v>0.49939098660170522</v>
       </c>
       <c r="K36">
         <v>40659</v>
       </c>
       <c r="L36">
-        <v>24475</v>
+        <v>24176</v>
       </c>
       <c r="M36">
-        <v>65134</v>
+        <v>64835</v>
       </c>
       <c r="O36" s="12">
-        <v>0.62423619000829056</v>
+        <v>0.62711498419063783</v>
       </c>
       <c r="P36" s="12">
-        <v>0.37576380999170939</v>
+        <v>0.37288501580936223</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2304,34 +2304,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E41">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
       <c r="H41" s="12">
-        <v>0.38170669391926421</v>
+        <v>0.38477261113949923</v>
       </c>
       <c r="I41" s="12">
-        <v>0.61829330608073585</v>
+        <v>0.61522738886050077</v>
       </c>
       <c r="K41">
-        <v>70466</v>
+        <v>70902</v>
       </c>
       <c r="L41">
-        <v>76153</v>
+        <v>75717</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
       <c r="O41" s="12">
-        <v>0.48060619701402957</v>
+        <v>0.48357989073721686</v>
       </c>
       <c r="P41" s="12">
-        <v>0.51939380298597049</v>
+        <v>0.51642010926278314</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2339,34 +2339,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="E42">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
       <c r="H42" s="12">
-        <v>0.41466666666666668</v>
+        <v>0.44533333333333336</v>
       </c>
       <c r="I42" s="12">
-        <v>0.58533333333333337</v>
+        <v>0.55466666666666664</v>
       </c>
       <c r="K42">
-        <v>30539</v>
+        <v>32669</v>
       </c>
       <c r="L42">
-        <v>31892</v>
+        <v>29762</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
       <c r="O42" s="12">
-        <v>0.48916403709695505</v>
+        <v>0.52328170300011212</v>
       </c>
       <c r="P42" s="12">
-        <v>0.510835962903045</v>
+        <v>0.47671829699988788</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2409,34 +2409,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="E44">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
       <c r="H44" s="12">
-        <v>0.22813990461049286</v>
+        <v>0.23052464228934816</v>
       </c>
       <c r="I44" s="12">
-        <v>0.77186009538950717</v>
+        <v>0.76947535771065179</v>
       </c>
       <c r="K44">
-        <v>54672</v>
+        <v>55126</v>
       </c>
       <c r="L44">
-        <v>130958</v>
+        <v>130504</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
       <c r="O44" s="12">
-        <v>0.29452135969401499</v>
+        <v>0.29696708506168185</v>
       </c>
       <c r="P44" s="12">
-        <v>0.70547864030598506</v>
+        <v>0.70303291493831821</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2444,34 +2444,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="E45">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
       <c r="H45" s="12">
-        <v>0.3144354454502144</v>
+        <v>0.31681753215817055</v>
       </c>
       <c r="I45" s="12">
-        <v>0.6855645545497856</v>
+        <v>0.68318246784182945</v>
       </c>
       <c r="K45">
-        <v>63110</v>
+        <v>63542</v>
       </c>
       <c r="L45">
-        <v>98264</v>
+        <v>97832</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
       <c r="O45" s="12">
-        <v>0.39107910815868729</v>
+        <v>0.39375611932529403</v>
       </c>
       <c r="P45" s="12">
-        <v>0.60892089184131271</v>
+        <v>0.60624388067470592</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2761,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>20309</v>
+        <v>20509</v>
       </c>
       <c r="E54" s="13">
-        <v>26804</v>
+        <v>26604</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.43106998068473668</v>
+        <v>0.43531509349860975</v>
       </c>
       <c r="I54" s="14">
-        <v>0.56893001931526332</v>
+        <v>0.56468490650139025</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1939164</v>
+        <v>1956843</v>
       </c>
       <c r="L54" s="13">
-        <v>1801550</v>
+        <v>1783871</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.51839408198541781</v>
+        <v>0.52312018507696656</v>
       </c>
       <c r="P54" s="14">
-        <v>0.48160591801458225</v>
+        <v>0.47687981492303338</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4008,34 +4008,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
       <c r="H89" s="12">
-        <v>0.52258064516129032</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="I89" s="12">
-        <v>0.47741935483870968</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="K89">
-        <v>7843</v>
+        <v>7831</v>
       </c>
       <c r="L89">
-        <v>4633</v>
+        <v>4645</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
       <c r="O89" s="12">
-        <v>0.62864700224430903</v>
+        <v>0.62768515549855719</v>
       </c>
       <c r="P89" s="12">
-        <v>0.37135299775569092</v>
+        <v>0.37231484450144275</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4045,37 +4045,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E90" s="13">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.52258064516129032</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="I90" s="14">
-        <v>0.47741935483870968</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>7843</v>
+        <v>7831</v>
       </c>
       <c r="L90" s="13">
-        <v>4633</v>
+        <v>4645</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.62864700224430903</v>
+        <v>0.62768515549855719</v>
       </c>
       <c r="P90" s="14">
-        <v>0.37135299775569092</v>
+        <v>0.37231484450144275</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4471,34 +4471,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E102">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F102">
         <v>175</v>
       </c>
       <c r="H102" s="12">
-        <v>0.53142857142857147</v>
+        <v>0.5485714285714286</v>
       </c>
       <c r="I102" s="12">
-        <v>0.46857142857142858</v>
+        <v>0.4514285714285714</v>
       </c>
       <c r="K102">
-        <v>8627</v>
+        <v>8900</v>
       </c>
       <c r="L102">
-        <v>5129</v>
+        <v>4856</v>
       </c>
       <c r="M102">
         <v>13756</v>
       </c>
       <c r="O102" s="12">
-        <v>0.62714451875545218</v>
+        <v>0.64699040418726372</v>
       </c>
       <c r="P102" s="12">
-        <v>0.37285548124454782</v>
+        <v>0.35300959581273628</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4961,34 +4961,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E116">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F116">
         <v>496</v>
       </c>
       <c r="H116" s="12">
-        <v>0.41733870967741937</v>
+        <v>0.44556451612903225</v>
       </c>
       <c r="I116" s="12">
-        <v>0.58266129032258063</v>
+        <v>0.55443548387096775</v>
       </c>
       <c r="K116">
-        <v>19156</v>
+        <v>20321</v>
       </c>
       <c r="L116">
-        <v>17037</v>
+        <v>15872</v>
       </c>
       <c r="M116">
         <v>36193</v>
       </c>
       <c r="O116" s="12">
-        <v>0.5292736164451689</v>
+        <v>0.56146216119139059</v>
       </c>
       <c r="P116" s="12">
-        <v>0.47072638355483104</v>
+        <v>0.43853783880860941</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -5136,34 +5136,34 @@
         <v>128</v>
       </c>
       <c r="D121">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E121">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F121">
         <v>212</v>
       </c>
       <c r="H121" s="12">
-        <v>0.52830188679245282</v>
+        <v>0.59433962264150941</v>
       </c>
       <c r="I121" s="12">
-        <v>0.47169811320754718</v>
+        <v>0.40566037735849059</v>
       </c>
       <c r="K121">
-        <v>9947</v>
+        <v>11067</v>
       </c>
       <c r="L121">
-        <v>5299</v>
+        <v>4179</v>
       </c>
       <c r="M121">
         <v>15246</v>
       </c>
       <c r="O121" s="12">
-        <v>0.65243342516069791</v>
+        <v>0.72589531680440766</v>
       </c>
       <c r="P121" s="12">
-        <v>0.34756657483930209</v>
+        <v>0.27410468319559228</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -5243,37 +5243,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5610</v>
+        <v>5641</v>
       </c>
       <c r="E124" s="13">
-        <v>4824</v>
+        <v>4793</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.53766532489936747</v>
+        <v>0.54063638106191303</v>
       </c>
       <c r="I124" s="14">
-        <v>0.46233467510063253</v>
+        <v>0.45936361893808703</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>540814</v>
+        <v>543372</v>
       </c>
       <c r="L124" s="13">
-        <v>328808</v>
+        <v>326250</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.62189549022448831</v>
+        <v>0.62483699814402116</v>
       </c>
       <c r="P124" s="14">
-        <v>0.37810450977551163</v>
+        <v>0.37516300185597878</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5424,34 +5424,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E129">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F129">
         <v>209</v>
       </c>
       <c r="H129" s="12">
-        <v>0.30622009569377989</v>
+        <v>0.31100478468899523</v>
       </c>
       <c r="I129" s="12">
-        <v>0.69377990430622005</v>
+        <v>0.68899521531100483</v>
       </c>
       <c r="K129">
-        <v>5711</v>
+        <v>5735</v>
       </c>
       <c r="L129">
-        <v>11393</v>
+        <v>11369</v>
       </c>
       <c r="M129">
         <v>17104</v>
       </c>
       <c r="O129" s="12">
-        <v>0.33389850327408793</v>
+        <v>0.3353016838166511</v>
       </c>
       <c r="P129" s="12">
-        <v>0.66610149672591201</v>
+        <v>0.66469831618334896</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5462,31 +5462,31 @@
         <v>185</v>
       </c>
       <c r="E130">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F130">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H130" s="12">
-        <v>0.38541666666666669</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="I130" s="12">
-        <v>0.61458333333333337</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="K130">
         <v>18316</v>
       </c>
       <c r="L130">
-        <v>20986</v>
+        <v>21057</v>
       </c>
       <c r="M130">
-        <v>39302</v>
+        <v>39373</v>
       </c>
       <c r="O130" s="12">
-        <v>0.46603226298916084</v>
+        <v>0.46519188276229906</v>
       </c>
       <c r="P130" s="12">
-        <v>0.53396773701083911</v>
+        <v>0.53480811723770094</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5567,31 +5567,31 @@
         <v>190</v>
       </c>
       <c r="E133">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F133">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H133" s="12">
-        <v>0.61488673139158578</v>
+        <v>0.61889250814332253</v>
       </c>
       <c r="I133" s="12">
-        <v>0.38511326860841422</v>
+        <v>0.38110749185667753</v>
       </c>
       <c r="K133">
         <v>17211</v>
       </c>
       <c r="L133">
-        <v>5496</v>
+        <v>5425</v>
       </c>
       <c r="M133">
-        <v>22707</v>
+        <v>22636</v>
       </c>
       <c r="O133" s="12">
-        <v>0.7579601004095653</v>
+        <v>0.76033751546209583</v>
       </c>
       <c r="P133" s="12">
-        <v>0.24203989959043468</v>
+        <v>0.23966248453790423</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5634,34 +5634,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E135">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F135">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H135" s="12">
-        <v>0.5938189845474614</v>
+        <v>0.59691629955947134</v>
       </c>
       <c r="I135" s="12">
-        <v>0.40618101545253865</v>
+        <v>0.40308370044052866</v>
       </c>
       <c r="K135">
-        <v>20474</v>
+        <v>20681</v>
       </c>
       <c r="L135">
-        <v>9841</v>
+        <v>9634</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
       <c r="O135" s="12">
-        <v>0.67537522678541972</v>
+        <v>0.68220352960580566</v>
       </c>
       <c r="P135" s="12">
-        <v>0.32462477321458022</v>
+        <v>0.31779647039419429</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5741,37 +5741,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="E138" s="13">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="F138" s="13">
         <v>4973</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.48924190629398751</v>
+        <v>0.4898451638849789</v>
       </c>
       <c r="I138" s="14">
-        <v>0.51075809370601244</v>
+        <v>0.5101548361150211</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>231417</v>
+        <v>231648</v>
       </c>
       <c r="L138" s="13">
-        <v>168922</v>
+        <v>168691</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.57805260042114304</v>
+        <v>0.57862961140433478</v>
       </c>
       <c r="P138" s="14">
-        <v>0.42194739957885691</v>
+        <v>0.42137038859566517</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,37 +5781,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>29707</v>
+        <v>29940</v>
       </c>
       <c r="E139" s="13">
-        <v>36306</v>
+        <v>36073</v>
       </c>
       <c r="F139" s="13">
         <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.45001742081105239</v>
+        <v>0.45354702861557572</v>
       </c>
       <c r="I139" s="14">
-        <v>0.54998257918894766</v>
+        <v>0.54645297138442428</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2837425</v>
+        <v>2857881</v>
       </c>
       <c r="L139" s="13">
-        <v>2438511</v>
+        <v>2418055</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.53780504539857954</v>
+        <v>0.54168227211247444</v>
       </c>
       <c r="P139" s="14">
-        <v>0.46219495460142046</v>
+        <v>0.45831772788752556</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD1465-DEE4-428C-9676-990ACE17B8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE9E4FE-F4F6-47EC-B23C-7110DDDF3A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F967F19-9481-4C3D-91FA-B1FCDFA43CC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{732EDEDF-A2CE-4B27-8032-E73442FED08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,18 +561,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -888,114 +888,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1FAECC-6329-484F-81CE-1A6DDCFF0E28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AADD3DE-580A-4271-A8EC-B066D48AAD00}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1015,10 +1015,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1030,10 +1030,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="1">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="1">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1050,10 +1050,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="1">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="1">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1065,10 +1065,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="1">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="1">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1082,10 +1082,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1094,10 +1094,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1114,10 +1114,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="1">
         <v>0.4336283185840708</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="1">
         <v>0.5663716814159292</v>
       </c>
       <c r="K7">
@@ -1129,10 +1129,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="1">
         <v>0.53098745890661148</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="1">
         <v>0.46901254109338852</v>
       </c>
     </row>
@@ -1149,10 +1149,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="1">
         <v>0.25</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="1">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1164,10 +1164,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="1">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="1">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1227,10 +1227,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="1">
         <v>0.58837772397094434</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="1">
         <v>0.41162227602905571</v>
       </c>
       <c r="K10">
@@ -1242,10 +1242,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="1">
         <v>0.68093952651338852</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="1">
         <v>0.31906047348661143</v>
       </c>
     </row>
@@ -1254,34 +1254,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="E11">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="12">
-        <v>0.35038363171355497</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.64961636828644498</v>
+      <c r="H11" s="1">
+        <v>0.46675191815856776</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.53324808184143224</v>
       </c>
       <c r="K11">
-        <v>26180</v>
+        <v>34597</v>
       </c>
       <c r="L11">
-        <v>34452</v>
+        <v>26035</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="12">
-        <v>0.43178519593613934</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0.56821480406386071</v>
+      <c r="O11" s="1">
+        <v>0.57060628051194084</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.4293937194880591</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
       <c r="F12">
         <v>574</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="1">
         <v>0.40766550522648082</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="1">
         <v>0.59233449477351918</v>
       </c>
       <c r="K12">
@@ -1312,10 +1312,10 @@
       <c r="M12">
         <v>43861</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="1">
         <v>0.48074599302341486</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="1">
         <v>0.51925400697658508</v>
       </c>
     </row>
@@ -1324,34 +1324,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E13">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="12">
-        <v>0.43033509700176364</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.56966490299823636</v>
+      <c r="H13" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.55555555555555558</v>
       </c>
       <c r="K13">
-        <v>24717</v>
+        <v>25573</v>
       </c>
       <c r="L13">
-        <v>22966</v>
+        <v>22110</v>
       </c>
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="12">
-        <v>0.51836084139001326</v>
-      </c>
-      <c r="P13" s="12">
-        <v>0.48163915860998679</v>
+      <c r="O13" s="1">
+        <v>0.53631273200092278</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.46368726799907722</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1367,10 +1367,10 @@
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="1">
         <v>0.48780487804878048</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="1">
         <v>0.51219512195121952</v>
       </c>
       <c r="K14">
@@ -1382,10 +1382,10 @@
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="1">
         <v>0.56143959982243208</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="1">
         <v>0.43856040017756798</v>
       </c>
     </row>
@@ -1402,10 +1402,10 @@
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="1">
         <v>0.46968139773895168</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="1">
         <v>0.53031860226104832</v>
       </c>
       <c r="K15">
@@ -1417,10 +1417,10 @@
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="1">
         <v>0.56553189200817466</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="1">
         <v>0.43446810799182534</v>
       </c>
     </row>
@@ -1429,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="E16">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="12">
-        <v>0.60885608856088558</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.39114391143911437</v>
+      <c r="H16" s="1">
+        <v>0.61715867158671589</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.38284132841328411</v>
       </c>
       <c r="K16">
-        <v>56005</v>
+        <v>56696</v>
       </c>
       <c r="L16">
-        <v>26475</v>
+        <v>25784</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="12">
-        <v>0.67901309408341415</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0.32098690591658585</v>
+      <c r="O16" s="1">
+        <v>0.68739088263821535</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.31260911736178465</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1464,34 +1464,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E17">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="12">
-        <v>0.35510204081632651</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0.64489795918367343</v>
+      <c r="H17" s="1">
+        <v>0.35918367346938773</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.64081632653061227</v>
       </c>
       <c r="K17">
-        <v>41762</v>
+        <v>42196</v>
       </c>
       <c r="L17">
-        <v>61001</v>
+        <v>60567</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="12">
-        <v>0.40639140546694824</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0.59360859453305181</v>
+      <c r="O17" s="1">
+        <v>0.4106147154131351</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.5893852845868649</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1499,34 +1499,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="E18">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="12">
-        <v>0.40925127401019207</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0.59074872598980788</v>
+      <c r="H18" s="1">
+        <v>0.41199529596236772</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.58800470403763228</v>
       </c>
       <c r="K18">
-        <v>98224</v>
+        <v>98873</v>
       </c>
       <c r="L18">
-        <v>95997</v>
+        <v>95348</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="12">
-        <v>0.50573315964802978</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0.49426684035197016</v>
+      <c r="O18" s="1">
+        <v>0.50907471385689496</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.49092528614310504</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1542,10 +1542,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="1">
         <v>0.36753926701570683</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="1">
         <v>0.63246073298429317</v>
       </c>
       <c r="K19">
@@ -1557,10 +1557,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="1">
         <v>0.45829048028290059</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="1">
         <v>0.54170951971709946</v>
       </c>
     </row>
@@ -1577,10 +1577,10 @@
       <c r="F20">
         <v>663</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="1">
         <v>0.62141779788838614</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="1">
         <v>0.37858220211161386</v>
       </c>
       <c r="K20">
@@ -1592,10 +1592,10 @@
       <c r="M20">
         <v>54862</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="1">
         <v>0.71240567241442165</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="1">
         <v>0.28759432758557835</v>
       </c>
     </row>
@@ -1604,34 +1604,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="E21">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="F21">
-        <v>1295</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0.65714285714285714</v>
+        <v>1290</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.35426356589147284</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.6457364341085271</v>
       </c>
       <c r="K21">
-        <v>43404</v>
+        <v>44504</v>
       </c>
       <c r="L21">
-        <v>58642</v>
+        <v>56979</v>
       </c>
       <c r="M21">
-        <v>102046</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0.42533759285028322</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0.57466240714971684</v>
+        <v>101483</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.43853650365085778</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.56146349634914217</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1639,34 +1639,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="E22">
-        <v>686</v>
+        <v>649</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="12">
-        <v>0.41815097540288382</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0.58184902459711618</v>
+      <c r="H22" s="1">
+        <v>0.44953350296861749</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.55046649703138251</v>
       </c>
       <c r="K22">
-        <v>47674</v>
+        <v>50856</v>
       </c>
       <c r="L22">
-        <v>47938</v>
+        <v>44756</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="12">
-        <v>0.49861942015646571</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0.50138057984353424</v>
+      <c r="O22" s="1">
+        <v>0.53189976153620888</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.46810023846379117</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1682,10 +1682,10 @@
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="1">
         <v>0.3271353864032539</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="1">
         <v>0.6728646135967461</v>
       </c>
       <c r="K23">
@@ -1697,10 +1697,10 @@
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="1">
         <v>0.4035827910064011</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="1">
         <v>0.59641720899359885</v>
       </c>
     </row>
@@ -1717,10 +1717,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="1">
         <v>0.38305084745762713</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="1">
         <v>0.61694915254237293</v>
       </c>
       <c r="K24">
@@ -1732,10 +1732,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="1">
         <v>0.48254462573059825</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="1">
         <v>0.5174553742694018</v>
       </c>
     </row>
@@ -1752,10 +1752,10 @@
       <c r="F25">
         <v>1002</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="1">
         <v>0.42514970059880242</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="1">
         <v>0.57485029940119758</v>
       </c>
       <c r="K25">
@@ -1767,10 +1767,10 @@
       <c r="M25">
         <v>79700</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="1">
         <v>0.51920953575909656</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="1">
         <v>0.48079046424090338</v>
       </c>
     </row>
@@ -1787,10 +1787,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="1">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="1">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1802,10 +1802,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="1">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="1">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1822,10 +1822,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="1">
         <v>0.36254980079681276</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="1">
         <v>0.63745019920318724</v>
       </c>
       <c r="K27">
@@ -1837,10 +1837,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="1">
         <v>0.41574172621762706</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="1">
         <v>0.58425827378237294</v>
       </c>
     </row>
@@ -1849,34 +1849,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="E28">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="F28">
         <v>2224</v>
       </c>
-      <c r="H28" s="12">
-        <v>0.35476618705035973</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0.64523381294964033</v>
+      <c r="H28" s="1">
+        <v>0.3601618705035971</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.63983812949640284</v>
       </c>
       <c r="K28">
-        <v>75196</v>
+        <v>76093</v>
       </c>
       <c r="L28">
-        <v>96138</v>
+        <v>95241</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="12">
-        <v>0.43888545180758054</v>
-      </c>
-      <c r="P28" s="12">
-        <v>0.56111454819241946</v>
+      <c r="O28" s="1">
+        <v>0.44412083999673152</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.55587916000326842</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1884,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="E29">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="F29">
-        <v>3109</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0.55644901897716303</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0.44355098102283691</v>
+        <v>3110</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.55948553054662375</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.44051446945337619</v>
       </c>
       <c r="K29">
-        <v>167494</v>
+        <v>168527</v>
       </c>
       <c r="L29">
-        <v>100923</v>
+        <v>99902</v>
       </c>
       <c r="M29">
-        <v>268417</v>
-      </c>
-      <c r="O29" s="12">
-        <v>0.62400667617922856</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0.37599332382077139</v>
+        <v>268429</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.62782709766828471</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.37217290233171529</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1919,34 +1919,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E30">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="12">
-        <v>0.43373493975903615</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0.5662650602409639</v>
+      <c r="H30" s="1">
+        <v>0.44377510040160645</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.55622489959839361</v>
       </c>
       <c r="K30">
-        <v>21999</v>
+        <v>22508</v>
       </c>
       <c r="L30">
-        <v>18741</v>
+        <v>18232</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="12">
-        <v>0.53998527245949923</v>
-      </c>
-      <c r="P30" s="12">
-        <v>0.46001472754050071</v>
+      <c r="O30" s="1">
+        <v>0.55247913598429066</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.4475208640157094</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1954,34 +1954,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E31">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F31">
         <v>1036</v>
       </c>
-      <c r="H31" s="12">
-        <v>0.55115830115830111</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0.44884169884169883</v>
+      <c r="H31" s="1">
+        <v>0.55212355212355213</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.44787644787644787</v>
       </c>
       <c r="K31">
-        <v>56203</v>
+        <v>56325</v>
       </c>
       <c r="L31">
-        <v>28825</v>
+        <v>28703</v>
       </c>
       <c r="M31">
         <v>85028</v>
       </c>
-      <c r="O31" s="12">
-        <v>0.66099402549748321</v>
-      </c>
-      <c r="P31" s="12">
-        <v>0.33900597450251679</v>
+      <c r="O31" s="1">
+        <v>0.66242884696805759</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.33757115303194241</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1997,26 +1997,26 @@
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="1">
         <v>0.62239089184060725</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="1">
         <v>0.3776091081593928</v>
       </c>
       <c r="K32">
-        <v>33503</v>
+        <v>33622</v>
       </c>
       <c r="L32">
-        <v>11324</v>
+        <v>11205</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="12">
-        <v>0.74738438887277758</v>
-      </c>
-      <c r="P32" s="12">
-        <v>0.25261561112722242</v>
+      <c r="O32" s="1">
+        <v>0.75003903897204804</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.2499609610279519</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2024,34 +2024,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E33">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F33">
-        <v>1067</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0.49109653233364575</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0.5089034676663543</v>
+        <v>1072</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.49533582089552236</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.50466417910447758</v>
       </c>
       <c r="K33">
-        <v>46006</v>
+        <v>46665</v>
       </c>
       <c r="L33">
-        <v>29840</v>
+        <v>29744</v>
       </c>
       <c r="M33">
-        <v>75846</v>
-      </c>
-      <c r="O33" s="12">
-        <v>0.60657121008359038</v>
-      </c>
-      <c r="P33" s="12">
-        <v>0.39342878991640956</v>
+        <v>76409</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.61072648509992278</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.38927351490007722</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="1">
         <v>0.42944785276073622</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="1">
         <v>0.57055214723926384</v>
       </c>
       <c r="K34">
@@ -2082,10 +2082,10 @@
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="1">
         <v>0.51827580685743035</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="1">
         <v>0.48172419314256959</v>
       </c>
     </row>
@@ -2102,10 +2102,10 @@
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="1">
         <v>0.47066326530612246</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="1">
         <v>0.52933673469387754</v>
       </c>
       <c r="K35">
@@ -2117,10 +2117,10 @@
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="1">
         <v>0.54841750411401002</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="1">
         <v>0.45158249588598998</v>
       </c>
     </row>
@@ -2129,34 +2129,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>411</v>
+        <v>486</v>
       </c>
       <c r="E36">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="F36">
         <v>821</v>
       </c>
-      <c r="H36" s="12">
-        <v>0.50060901339829478</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0.49939098660170522</v>
+      <c r="H36" s="1">
+        <v>0.59196102314250909</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.40803897685749085</v>
       </c>
       <c r="K36">
-        <v>40659</v>
+        <v>46586</v>
       </c>
       <c r="L36">
-        <v>24176</v>
+        <v>18249</v>
       </c>
       <c r="M36">
         <v>64835</v>
       </c>
-      <c r="O36" s="12">
-        <v>0.62711498419063783</v>
-      </c>
-      <c r="P36" s="12">
-        <v>0.37288501580936223</v>
+      <c r="O36" s="1">
+        <v>0.71853165728387447</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.28146834271612553</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2164,34 +2164,34 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E37">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="12">
-        <v>0.53352769679300294</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0.46647230320699706</v>
+      <c r="H37" s="1">
+        <v>0.54081632653061229</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.45918367346938777</v>
       </c>
       <c r="K37">
-        <v>35359</v>
+        <v>35882</v>
       </c>
       <c r="L37">
-        <v>22562</v>
+        <v>22039</v>
       </c>
       <c r="M37">
         <v>57921</v>
       </c>
-      <c r="O37" s="12">
-        <v>0.61046943250289187</v>
-      </c>
-      <c r="P37" s="12">
-        <v>0.38953056749710813</v>
+      <c r="O37" s="1">
+        <v>0.61949897273873034</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.38050102726126966</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2207,10 +2207,10 @@
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="1">
         <v>0.37894736842105264</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="1">
         <v>0.62105263157894741</v>
       </c>
       <c r="K38">
@@ -2222,10 +2222,10 @@
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="1">
         <v>0.48869473988857537</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="1">
         <v>0.51130526011142463</v>
       </c>
     </row>
@@ -2242,10 +2242,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="1">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="1">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2257,10 +2257,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="1">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="1">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2277,10 +2277,10 @@
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="1">
         <v>0.66417910447761197</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="1">
         <v>0.33582089552238809</v>
       </c>
       <c r="K40">
@@ -2292,10 +2292,10 @@
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="1">
         <v>0.80171201467441144</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="1">
         <v>0.1982879853255885</v>
       </c>
     </row>
@@ -2312,10 +2312,10 @@
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="1">
         <v>0.38477261113949923</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="1">
         <v>0.61522738886050077</v>
       </c>
       <c r="K41">
@@ -2327,10 +2327,10 @@
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="1">
         <v>0.48357989073721686</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="1">
         <v>0.51642010926278314</v>
       </c>
     </row>
@@ -2347,26 +2347,26 @@
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="1">
         <v>0.44533333333333336</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="1">
         <v>0.55466666666666664</v>
       </c>
       <c r="K42">
-        <v>32669</v>
+        <v>32693</v>
       </c>
       <c r="L42">
-        <v>29762</v>
+        <v>29738</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="12">
-        <v>0.52328170300011212</v>
-      </c>
-      <c r="P42" s="12">
-        <v>0.47671829699988788</v>
+      <c r="O42" s="1">
+        <v>0.52366612740465479</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.47633387259534526</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2382,10 +2382,10 @@
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="1">
         <v>0.33213859020310632</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="1">
         <v>0.66786140979689368</v>
       </c>
       <c r="K43">
@@ -2397,10 +2397,10 @@
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="1">
         <v>0.40969465887426948</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="1">
         <v>0.59030534112573052</v>
       </c>
     </row>
@@ -2409,34 +2409,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="E44">
-        <v>1936</v>
+        <v>1916</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
-      <c r="H44" s="12">
-        <v>0.23052464228934816</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0.76947535771065179</v>
+      <c r="H44" s="1">
+        <v>0.23847376788553259</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.76152623211446746</v>
       </c>
       <c r="K44">
-        <v>55126</v>
+        <v>56811</v>
       </c>
       <c r="L44">
-        <v>130504</v>
+        <v>128819</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="12">
-        <v>0.29696708506168185</v>
-      </c>
-      <c r="P44" s="12">
-        <v>0.70303291493831821</v>
+      <c r="O44" s="1">
+        <v>0.30604428163551151</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.69395571836448855</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2444,34 +2444,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="E45">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="12">
-        <v>0.31681753215817055</v>
-      </c>
-      <c r="I45" s="12">
-        <v>0.68318246784182945</v>
+      <c r="H45" s="1">
+        <v>0.31919961886612674</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.68080038113387331</v>
       </c>
       <c r="K45">
-        <v>63542</v>
+        <v>64010</v>
       </c>
       <c r="L45">
-        <v>97832</v>
+        <v>97364</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="12">
-        <v>0.39375611932529403</v>
-      </c>
-      <c r="P45" s="12">
-        <v>0.60624388067470592</v>
+      <c r="O45" s="1">
+        <v>0.39665621475578472</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.60334378524421528</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2479,34 +2479,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E46">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="12">
-        <v>0.39504373177842567</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0.60495626822157433</v>
+      <c r="H46" s="1">
+        <v>0.39795918367346939</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.60204081632653061</v>
       </c>
       <c r="K46">
-        <v>26272</v>
+        <v>26347</v>
       </c>
       <c r="L46">
-        <v>27710</v>
+        <v>27635</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="12">
-        <v>0.48668074543366308</v>
-      </c>
-      <c r="P46" s="12">
-        <v>0.51331925456633698</v>
+      <c r="O46" s="1">
+        <v>0.48807009743988738</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.51192990256011262</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2514,34 +2514,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E47">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="12">
-        <v>0.39489671931956255</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0.60510328068043739</v>
+      <c r="H47" s="1">
+        <v>0.41190765492102066</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.58809234507897934</v>
       </c>
       <c r="K47">
-        <v>28383</v>
+        <v>29742</v>
       </c>
       <c r="L47">
-        <v>34287</v>
+        <v>32928</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="12">
-        <v>0.45289612254667305</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0.547103877453327</v>
+      <c r="O47" s="1">
+        <v>0.47458113930110102</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.52541886069889898</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2557,10 +2557,10 @@
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="1">
         <v>0.30496453900709219</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="1">
         <v>0.69503546099290781</v>
       </c>
       <c r="K48">
@@ -2572,10 +2572,10 @@
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O48" s="1">
         <v>0.35953921976129682</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P48" s="1">
         <v>0.64046078023870312</v>
       </c>
     </row>
@@ -2592,10 +2592,10 @@
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="1">
         <v>0.42688330871491875</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="1">
         <v>0.57311669128508125</v>
       </c>
       <c r="K49">
@@ -2607,10 +2607,10 @@
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="1">
         <v>0.5149099498080898</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="1">
         <v>0.48509005019191026</v>
       </c>
     </row>
@@ -2627,10 +2627,10 @@
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="1">
         <v>0.60280373831775702</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="1">
         <v>0.39719626168224298</v>
       </c>
       <c r="K50">
@@ -2642,10 +2642,10 @@
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="1">
         <v>0.71595319033723415</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P50" s="1">
         <v>0.28404680966276585</v>
       </c>
     </row>
@@ -2654,34 +2654,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="E51">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="12">
-        <v>0.39590747330960852</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0.60409252669039148</v>
+      <c r="H51" s="1">
+        <v>0.40925266903914592</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.59074733096085408</v>
       </c>
       <c r="K51">
-        <v>42478</v>
+        <v>43962</v>
       </c>
       <c r="L51">
-        <v>47792</v>
+        <v>46308</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="12">
-        <v>0.4705660795391603</v>
-      </c>
-      <c r="P51" s="12">
-        <v>0.5294339204608397</v>
+      <c r="O51" s="1">
+        <v>0.48700564971751414</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.51299435028248586</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2689,34 +2689,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>2229</v>
+        <v>2271</v>
       </c>
       <c r="E52">
-        <v>1594</v>
+        <v>1551</v>
       </c>
       <c r="F52">
-        <v>3823</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0.58304996076379811</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0.41695003923620194</v>
+        <v>3822</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.59419152276295129</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.40580847723704866</v>
       </c>
       <c r="K52">
-        <v>228169</v>
+        <v>232574</v>
       </c>
       <c r="L52">
-        <v>116281</v>
+        <v>111864</v>
       </c>
       <c r="M52">
-        <v>344450</v>
-      </c>
-      <c r="O52" s="12">
-        <v>0.66241544491217885</v>
-      </c>
-      <c r="P52" s="12">
-        <v>0.33758455508782115</v>
+        <v>344438</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.67522747199786315</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.3247725280021368</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,10 +2732,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="1">
         <v>0.8</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="1">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2747,10 +2747,10 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="1">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="1">
         <v>0.1043158505902845</v>
       </c>
     </row>
@@ -2761,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>20509</v>
+        <v>20892</v>
       </c>
       <c r="E54" s="13">
-        <v>26604</v>
+        <v>26221</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.43531509349860975</v>
+        <v>0.44344448453717655</v>
       </c>
       <c r="I54" s="14">
-        <v>0.56468490650139025</v>
+        <v>0.55655551546282345</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1956843</v>
+        <v>1991461</v>
       </c>
       <c r="L54" s="13">
-        <v>1783871</v>
+        <v>1749253</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.52312018507696656</v>
+        <v>0.53237456806374395</v>
       </c>
       <c r="P54" s="14">
-        <v>0.47687981492303338</v>
+        <v>0.467625431936256</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2802,34 +2802,34 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E55">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="12">
-        <v>0.61403508771929827</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0.38596491228070173</v>
+      <c r="H55" s="1">
+        <v>0.62807017543859645</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.3719298245614035</v>
       </c>
       <c r="K55">
-        <v>16426</v>
+        <v>16742</v>
       </c>
       <c r="L55">
-        <v>6500</v>
+        <v>6184</v>
       </c>
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="12">
-        <v>0.71647910669109305</v>
-      </c>
-      <c r="P55" s="12">
-        <v>0.2835208933089069</v>
+      <c r="O55" s="1">
+        <v>0.73026258396580301</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.26973741603419699</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2845,10 +2845,10 @@
       <c r="F56">
         <v>82</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="1">
         <v>0.52439024390243905</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="1">
         <v>0.47560975609756095</v>
       </c>
       <c r="K56">
@@ -2860,10 +2860,10 @@
       <c r="M56">
         <v>7030</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="1">
         <v>0.58335704125177812</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P56" s="1">
         <v>0.41664295874822188</v>
       </c>
     </row>
@@ -2872,34 +2872,34 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E57">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="12">
-        <v>0.26033057851239672</v>
-      </c>
-      <c r="I57" s="12">
-        <v>0.73966942148760328</v>
+      <c r="H57" s="1">
+        <v>0.30991735537190085</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.69008264462809921</v>
       </c>
       <c r="K57">
-        <v>6450</v>
+        <v>7544</v>
       </c>
       <c r="L57">
-        <v>12536</v>
+        <v>11442</v>
       </c>
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="12">
-        <v>0.33972400716317286</v>
-      </c>
-      <c r="P57" s="12">
-        <v>0.66027599283682714</v>
+      <c r="O57" s="1">
+        <v>0.39734541240914356</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.60265458759085644</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2907,34 +2907,34 @@
         <v>63</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I58" s="12">
-        <v>0.5</v>
+      <c r="H58" s="1">
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.44117647058823528</v>
       </c>
       <c r="K58">
-        <v>3026</v>
+        <v>3386</v>
       </c>
       <c r="L58">
-        <v>2391</v>
+        <v>2031</v>
       </c>
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="12">
-        <v>0.55861177773675463</v>
-      </c>
-      <c r="P58" s="12">
-        <v>0.44138822226324531</v>
+      <c r="O58" s="1">
+        <v>0.62506922650913788</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.37493077349086212</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -2942,34 +2942,34 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E59">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="12">
-        <v>0.50306748466257667</v>
-      </c>
-      <c r="I59" s="12">
-        <v>0.49693251533742333</v>
+      <c r="H59" s="1">
+        <v>0.52760736196319014</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.47239263803680981</v>
       </c>
       <c r="K59">
-        <v>7731</v>
+        <v>8223</v>
       </c>
       <c r="L59">
-        <v>5979</v>
+        <v>5487</v>
       </c>
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="12">
-        <v>0.56389496717724286</v>
-      </c>
-      <c r="P59" s="12">
-        <v>0.43610503282275709</v>
+      <c r="O59" s="1">
+        <v>0.59978118161925598</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.40021881838074397</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2977,34 +2977,34 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="12">
-        <v>0.51923076923076927</v>
-      </c>
-      <c r="I60" s="12">
-        <v>0.48076923076923078</v>
+      <c r="H60" s="1">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.44230769230769229</v>
       </c>
       <c r="K60">
-        <v>4982</v>
+        <v>5411</v>
       </c>
       <c r="L60">
-        <v>2628</v>
+        <v>2199</v>
       </c>
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="12">
-        <v>0.65466491458607101</v>
-      </c>
-      <c r="P60" s="12">
-        <v>0.34533508541392904</v>
+      <c r="O60" s="1">
+        <v>0.71103810775295662</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0.28896189224704338</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,37 +3014,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="E61" s="13">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="F61" s="13">
         <v>944</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.4777542372881356</v>
+        <v>0.50741525423728817</v>
       </c>
       <c r="I61" s="14">
-        <v>0.5222457627118644</v>
+        <v>0.49258474576271188</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>42716</v>
+        <v>45407</v>
       </c>
       <c r="L61" s="13">
-        <v>32963</v>
+        <v>30272</v>
       </c>
       <c r="M61" s="13">
         <v>75679</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.56443663367644925</v>
+        <v>0.59999471451789799</v>
       </c>
       <c r="P61" s="14">
-        <v>0.4355633663235508</v>
+        <v>0.40000528548210201</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3063,10 +3063,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="1">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="1">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3078,10 +3078,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O62" s="1">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="1">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="1">
         <v>0.20338983050847459</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="1">
         <v>0.79661016949152541</v>
       </c>
       <c r="K63">
@@ -3113,10 +3113,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O63" s="1">
         <v>0.24645688205620947</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63" s="1">
         <v>0.75354311794379059</v>
       </c>
     </row>
@@ -3133,10 +3133,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="1">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="1">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3148,10 +3148,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O64" s="1">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P64" s="1">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3168,10 +3168,10 @@
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="1">
         <v>0.26818181818181819</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="1">
         <v>0.73181818181818181</v>
       </c>
       <c r="K65">
@@ -3183,10 +3183,10 @@
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="12">
+      <c r="O65" s="1">
         <v>0.35049876927063089</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P65" s="1">
         <v>0.64950123072936905</v>
       </c>
     </row>
@@ -3203,10 +3203,10 @@
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="1">
         <v>0.33913043478260868</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="1">
         <v>0.66086956521739126</v>
       </c>
       <c r="K66">
@@ -3218,10 +3218,10 @@
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="12">
+      <c r="O66" s="1">
         <v>0.39817198764160661</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66" s="1">
         <v>0.60182801235839345</v>
       </c>
     </row>
@@ -3238,10 +3238,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="1">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="1">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3253,10 +3253,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="1">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="1">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3273,10 +3273,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="1">
         <v>0.5</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="1">
         <v>0.5</v>
       </c>
       <c r="K68">
@@ -3288,10 +3288,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="12">
+      <c r="O68" s="1">
         <v>0.60193920335429774</v>
       </c>
-      <c r="P68" s="12">
+      <c r="P68" s="1">
         <v>0.39806079664570232</v>
       </c>
     </row>
@@ -3308,10 +3308,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="1">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="1">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3323,10 +3323,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O69" s="1">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="12">
+      <c r="P69" s="1">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3343,10 +3343,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="1">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="1">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3358,10 +3358,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="1">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="1">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3378,10 +3378,10 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="1">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="1">
         <v>0.53846153846153844</v>
       </c>
       <c r="K71">
@@ -3393,10 +3393,10 @@
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="12">
+      <c r="O71" s="1">
         <v>0.53277853260869568</v>
       </c>
-      <c r="P71" s="12">
+      <c r="P71" s="1">
         <v>0.46722146739130432</v>
       </c>
     </row>
@@ -3413,10 +3413,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="1">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="1">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3428,10 +3428,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="12">
+      <c r="O72" s="1">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="1">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3448,10 +3448,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="1">
         <v>0.32258064516129031</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="1">
         <v>0.67741935483870963</v>
       </c>
       <c r="K73">
@@ -3463,10 +3463,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="12">
+      <c r="O73" s="1">
         <v>0.4765018389865141</v>
       </c>
-      <c r="P73" s="12">
+      <c r="P73" s="1">
         <v>0.5234981610134859</v>
       </c>
     </row>
@@ -3483,10 +3483,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="1">
         <v>0.25316455696202533</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="1">
         <v>0.74683544303797467</v>
       </c>
       <c r="K74">
@@ -3498,10 +3498,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="12">
+      <c r="O74" s="1">
         <v>0.28923233695652173</v>
       </c>
-      <c r="P74" s="12">
+      <c r="P74" s="1">
         <v>0.71076766304347827</v>
       </c>
     </row>
@@ -3518,10 +3518,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="1">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="1">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3533,10 +3533,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="12">
+      <c r="O75" s="1">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="12">
+      <c r="P75" s="1">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3545,34 +3545,34 @@
         <v>82</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="12">
-        <v>0.40384615384615385</v>
-      </c>
-      <c r="I76" s="12">
-        <v>0.59615384615384615</v>
+      <c r="H76" s="1">
+        <v>0.48076923076923078</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.51923076923076927</v>
       </c>
       <c r="K76">
-        <v>2113</v>
+        <v>2413</v>
       </c>
       <c r="L76">
-        <v>1929</v>
+        <v>1629</v>
       </c>
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="12">
-        <v>0.52276100940128645</v>
-      </c>
-      <c r="P76" s="12">
-        <v>0.4772389905987135</v>
+      <c r="O76" s="1">
+        <v>0.59698169223156849</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0.40301830776843145</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -3588,10 +3588,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="1">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="1">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3603,10 +3603,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="12">
+      <c r="O77" s="1">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="12">
+      <c r="P77" s="1">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3623,10 +3623,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="1">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="1">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3638,10 +3638,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="12">
+      <c r="O78" s="1">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="12">
+      <c r="P78" s="1">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3658,10 +3658,10 @@
       <c r="F79">
         <v>14</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="1">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="1">
         <v>0.7142857142857143</v>
       </c>
       <c r="K79">
@@ -3673,10 +3673,10 @@
       <c r="M79">
         <v>1080</v>
       </c>
-      <c r="O79" s="12">
+      <c r="O79" s="1">
         <v>0.34074074074074073</v>
       </c>
-      <c r="P79" s="12">
+      <c r="P79" s="1">
         <v>0.65925925925925921</v>
       </c>
     </row>
@@ -3693,10 +3693,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="1">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="1">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3708,10 +3708,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="12">
+      <c r="O80" s="1">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="12">
+      <c r="P80" s="1">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3728,10 +3728,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="1">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="1">
         <v>0.70967741935483875</v>
       </c>
       <c r="K81">
@@ -3743,10 +3743,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="12">
+      <c r="O81" s="1">
         <v>0.53033586132177679</v>
       </c>
-      <c r="P81" s="12">
+      <c r="P81" s="1">
         <v>0.46966413867822321</v>
       </c>
     </row>
@@ -3763,10 +3763,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="K82">
@@ -3778,10 +3778,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="12">
+      <c r="O82" s="1">
         <v>0.73940871685461751</v>
       </c>
-      <c r="P82" s="12">
+      <c r="P82" s="1">
         <v>0.26059128314538249</v>
       </c>
     </row>
@@ -3798,10 +3798,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="1">
         <v>0.22307692307692309</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="1">
         <v>0.77692307692307694</v>
       </c>
       <c r="K83">
@@ -3813,10 +3813,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="12">
+      <c r="O83" s="1">
         <v>0.28783253379851725</v>
       </c>
-      <c r="P83" s="12">
+      <c r="P83" s="1">
         <v>0.71216746620148275</v>
       </c>
     </row>
@@ -3825,34 +3825,34 @@
         <v>90</v>
       </c>
       <c r="D84">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E84">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="12">
-        <v>0.51886792452830188</v>
-      </c>
-      <c r="I84" s="12">
-        <v>0.48113207547169812</v>
+      <c r="H84" s="1">
+        <v>0.55660377358490565</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.44339622641509435</v>
       </c>
       <c r="K84">
-        <v>5067</v>
+        <v>5558</v>
       </c>
       <c r="L84">
-        <v>3242</v>
+        <v>2751</v>
       </c>
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="12">
-        <v>0.60982067637501502</v>
-      </c>
-      <c r="P84" s="12">
-        <v>0.39017932362498498</v>
+      <c r="O84" s="1">
+        <v>0.66891322662173547</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0.33108677337826453</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3868,10 +3868,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="1">
         <v>0.4</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="1">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3883,10 +3883,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="12">
+      <c r="O85" s="1">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="12">
+      <c r="P85" s="1">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3903,10 +3903,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="1">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="1">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3918,10 +3918,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="12">
+      <c r="O86" s="1">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="12">
+      <c r="P86" s="1">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3938,10 +3938,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="1">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="1">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3953,10 +3953,10 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="12">
+      <c r="O87" s="1">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="12">
+      <c r="P87" s="1">
         <v>0.57557930123664303</v>
       </c>
     </row>
@@ -3967,37 +3967,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="E88" s="13">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.34310986964618251</v>
+        <v>0.3468342644320298</v>
       </c>
       <c r="I88" s="14">
-        <v>0.65689013035381749</v>
+        <v>0.6531657355679702</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>68105</v>
+        <v>68896</v>
       </c>
       <c r="L88" s="13">
-        <v>91372</v>
+        <v>90581</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.42705217680292457</v>
+        <v>0.4320121396815842</v>
       </c>
       <c r="P88" s="14">
-        <v>0.57294782319707549</v>
+        <v>0.56798786031841586</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4008,34 +4008,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E89">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="12">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="I89" s="12">
-        <v>0.4838709677419355</v>
+      <c r="H89" s="1">
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.45161290322580644</v>
       </c>
       <c r="K89">
-        <v>7831</v>
+        <v>8239</v>
       </c>
       <c r="L89">
-        <v>4645</v>
+        <v>4237</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="12">
-        <v>0.62768515549855719</v>
-      </c>
-      <c r="P89" s="12">
-        <v>0.37231484450144275</v>
+      <c r="O89" s="1">
+        <v>0.66038794485411989</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0.33961205514588011</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4045,37 +4045,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E90" s="13">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.5161290322580645</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="I90" s="14">
-        <v>0.4838709677419355</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>7831</v>
+        <v>8239</v>
       </c>
       <c r="L90" s="13">
-        <v>4645</v>
+        <v>4237</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.62768515549855719</v>
+        <v>0.66038794485411989</v>
       </c>
       <c r="P90" s="14">
-        <v>0.37231484450144275</v>
+        <v>0.33961205514588011</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4086,34 +4086,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E91">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="12">
-        <v>0.57380457380457384</v>
-      </c>
-      <c r="I91" s="12">
-        <v>0.42619542619542622</v>
+      <c r="H91" s="1">
+        <v>0.58004158004158002</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.41995841995841998</v>
       </c>
       <c r="K91">
-        <v>25471</v>
+        <v>25847</v>
       </c>
       <c r="L91">
-        <v>13203</v>
+        <v>12827</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="12">
-        <v>0.65860785023530022</v>
-      </c>
-      <c r="P91" s="12">
-        <v>0.34139214976469978</v>
+      <c r="O91" s="1">
+        <v>0.66833014428298076</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0.33166985571701918</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4129,10 +4129,10 @@
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="1">
         <v>0.6</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="1">
         <v>0.4</v>
       </c>
       <c r="K92">
@@ -4144,10 +4144,10 @@
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="12">
+      <c r="O92" s="1">
         <v>0.65331324557287163</v>
       </c>
-      <c r="P92" s="12">
+      <c r="P92" s="1">
         <v>0.34668675442712837</v>
       </c>
     </row>
@@ -4156,34 +4156,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="E93">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="F93">
-        <v>904</v>
-      </c>
-      <c r="H93" s="12">
-        <v>0.53539823008849563</v>
-      </c>
-      <c r="I93" s="12">
-        <v>0.46460176991150443</v>
+        <v>903</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.55703211517165008</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.44296788482834992</v>
       </c>
       <c r="K93">
-        <v>47338</v>
+        <v>49171</v>
       </c>
       <c r="L93">
-        <v>28188</v>
+        <v>26310</v>
       </c>
       <c r="M93">
-        <v>75526</v>
-      </c>
-      <c r="O93" s="12">
-        <v>0.62677753356460031</v>
-      </c>
-      <c r="P93" s="12">
-        <v>0.37322246643539975</v>
+        <v>75481</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0.65143546057948354</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.34856453942051641</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4191,34 +4191,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E94">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="12">
-        <v>0.39312406576980569</v>
-      </c>
-      <c r="I94" s="12">
-        <v>0.60687593423019437</v>
+      <c r="H94" s="1">
+        <v>0.40059790732436473</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.59940209267563527</v>
       </c>
       <c r="K94">
-        <v>25831</v>
+        <v>26262</v>
       </c>
       <c r="L94">
-        <v>31836</v>
+        <v>31405</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="12">
-        <v>0.44793382697209844</v>
-      </c>
-      <c r="P94" s="12">
-        <v>0.55206617302790162</v>
+      <c r="O94" s="1">
+        <v>0.4554077722094092</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0.5445922277905908</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4234,10 +4234,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="1">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="1">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4249,10 +4249,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="12">
+      <c r="O95" s="1">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="12">
+      <c r="P95" s="1">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4269,10 +4269,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="1">
         <v>0.7432432432432432</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="1">
         <v>0.25675675675675674</v>
       </c>
       <c r="K96">
@@ -4284,10 +4284,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="12">
+      <c r="O96" s="1">
         <v>0.85409577558303595</v>
       </c>
-      <c r="P96" s="12">
+      <c r="P96" s="1">
         <v>0.14590422441696407</v>
       </c>
     </row>
@@ -4304,10 +4304,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="1">
         <v>0.84536082474226804</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="1">
         <v>0.15463917525773196</v>
       </c>
       <c r="K97">
@@ -4319,10 +4319,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="12">
+      <c r="O97" s="1">
         <v>0.93415738587688169</v>
       </c>
-      <c r="P97" s="12">
+      <c r="P97" s="1">
         <v>6.5842614123118343E-2</v>
       </c>
     </row>
@@ -4339,10 +4339,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="1">
         <v>0.83760683760683763</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="1">
         <v>0.1623931623931624</v>
       </c>
       <c r="K98">
@@ -4354,10 +4354,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="12">
+      <c r="O98" s="1">
         <v>0.93199088145896658</v>
       </c>
-      <c r="P98" s="12">
+      <c r="P98" s="1">
         <v>6.8009118541033434E-2</v>
       </c>
     </row>
@@ -4374,10 +4374,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="1">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="1">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4389,10 +4389,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="12">
+      <c r="O99" s="1">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="12">
+      <c r="P99" s="1">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4409,10 +4409,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="1">
         <v>0.53846153846153844</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="1">
         <v>0.46153846153846156</v>
       </c>
       <c r="K100">
@@ -4424,10 +4424,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="12">
+      <c r="O100" s="1">
         <v>0.62799925135691559</v>
       </c>
-      <c r="P100" s="12">
+      <c r="P100" s="1">
         <v>0.37200074864308441</v>
       </c>
     </row>
@@ -4444,10 +4444,10 @@
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="1">
         <v>0.37295081967213117</v>
       </c>
-      <c r="I101" s="12">
+      <c r="I101" s="1">
         <v>0.62704918032786883</v>
       </c>
       <c r="K101">
@@ -4459,10 +4459,10 @@
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="12">
+      <c r="O101" s="1">
         <v>0.42651237278503901</v>
       </c>
-      <c r="P101" s="12">
+      <c r="P101" s="1">
         <v>0.57348762721496105</v>
       </c>
     </row>
@@ -4471,34 +4471,34 @@
         <v>109</v>
       </c>
       <c r="D102">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E102">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="12">
-        <v>0.5485714285714286</v>
-      </c>
-      <c r="I102" s="12">
-        <v>0.4514285714285714</v>
+      <c r="H102" s="1">
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.25714285714285712</v>
       </c>
       <c r="K102">
-        <v>8900</v>
+        <v>11599</v>
       </c>
       <c r="L102">
-        <v>4856</v>
+        <v>2157</v>
       </c>
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="12">
-        <v>0.64699040418726372</v>
-      </c>
-      <c r="P102" s="12">
-        <v>0.35300959581273628</v>
+      <c r="O102" s="1">
+        <v>0.84319569642337888</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0.15680430357662112</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -4506,34 +4506,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E103">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="12">
-        <v>0.55643044619422577</v>
-      </c>
-      <c r="I103" s="12">
-        <v>0.44356955380577429</v>
+      <c r="H103" s="1">
+        <v>0.56955380577427817</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.43044619422572178</v>
       </c>
       <c r="K103">
-        <v>21456</v>
+        <v>21936</v>
       </c>
       <c r="L103">
-        <v>12388</v>
+        <v>11908</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="12">
-        <v>0.63396761612102592</v>
-      </c>
-      <c r="P103" s="12">
-        <v>0.36603238387897413</v>
+      <c r="O103" s="1">
+        <v>0.64815033683961709</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0.35184966316038291</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4541,34 +4541,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E104">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F104">
-        <v>892</v>
-      </c>
-      <c r="H104" s="12">
-        <v>0.4943946188340807</v>
-      </c>
-      <c r="I104" s="12">
-        <v>0.50560538116591924</v>
+        <v>893</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.49608062709966405</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.50391937290033595</v>
       </c>
       <c r="K104">
-        <v>39636</v>
+        <v>39801</v>
       </c>
       <c r="L104">
-        <v>29648</v>
+        <v>29528</v>
       </c>
       <c r="M104">
-        <v>69284</v>
-      </c>
-      <c r="O104" s="12">
-        <v>0.57208013394145829</v>
-      </c>
-      <c r="P104" s="12">
-        <v>0.42791986605854165</v>
+        <v>69329</v>
+      </c>
+      <c r="O104" s="1">
+        <v>0.57408876516320728</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0.42591123483679266</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="1">
         <v>0.62758620689655176</v>
       </c>
-      <c r="I105" s="12">
+      <c r="I105" s="1">
         <v>0.3724137931034483</v>
       </c>
       <c r="K105">
@@ -4599,10 +4599,10 @@
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="12">
+      <c r="O105" s="1">
         <v>0.70583101943673143</v>
       </c>
-      <c r="P105" s="12">
+      <c r="P105" s="1">
         <v>0.29416898056326857</v>
       </c>
     </row>
@@ -4619,10 +4619,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="1">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="1">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4634,10 +4634,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="12">
+      <c r="O106" s="1">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="12">
+      <c r="P106" s="1">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4646,34 +4646,34 @@
         <v>114</v>
       </c>
       <c r="D107">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E107">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="12">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="I107" s="12">
-        <v>0.62962962962962965</v>
+      <c r="H107" s="1">
+        <v>0.38720538720538722</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.61279461279461278</v>
       </c>
       <c r="K107">
-        <v>9626</v>
+        <v>10189</v>
       </c>
       <c r="L107">
-        <v>14474</v>
+        <v>13911</v>
       </c>
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="12">
-        <v>0.39941908713692947</v>
-      </c>
-      <c r="P107" s="12">
-        <v>0.60058091286307058</v>
+      <c r="O107" s="1">
+        <v>0.42278008298755188</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0.57721991701244812</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -4689,10 +4689,10 @@
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="1">
         <v>0.49534450651769085</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="1">
         <v>0.50465549348230909</v>
       </c>
       <c r="K108">
@@ -4704,10 +4704,10 @@
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="12">
+      <c r="O108" s="1">
         <v>0.5636308805790109</v>
       </c>
-      <c r="P108" s="12">
+      <c r="P108" s="1">
         <v>0.43636911942098916</v>
       </c>
     </row>
@@ -4724,10 +4724,10 @@
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="1">
         <v>0.6597353497164461</v>
       </c>
-      <c r="I109" s="12">
+      <c r="I109" s="1">
         <v>0.34026465028355385</v>
       </c>
       <c r="K109">
@@ -4739,10 +4739,10 @@
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="12">
+      <c r="O109" s="1">
         <v>0.74488720672673703</v>
       </c>
-      <c r="P109" s="12">
+      <c r="P109" s="1">
         <v>0.25511279327326292</v>
       </c>
     </row>
@@ -4759,10 +4759,10 @@
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="1">
         <v>0.46783625730994149</v>
       </c>
-      <c r="I110" s="12">
+      <c r="I110" s="1">
         <v>0.53216374269005851</v>
       </c>
       <c r="K110">
@@ -4774,10 +4774,10 @@
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="12">
+      <c r="O110" s="1">
         <v>0.53882091212458283</v>
       </c>
-      <c r="P110" s="12">
+      <c r="P110" s="1">
         <v>0.46117908787541712</v>
       </c>
     </row>
@@ -4794,10 +4794,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="1">
         <v>0.55072463768115942</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="1">
         <v>0.44927536231884058</v>
       </c>
       <c r="K111">
@@ -4809,10 +4809,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="12">
+      <c r="O111" s="1">
         <v>0.59949740851264333</v>
       </c>
-      <c r="P111" s="12">
+      <c r="P111" s="1">
         <v>0.40050259148735667</v>
       </c>
     </row>
@@ -4821,34 +4821,34 @@
         <v>119</v>
       </c>
       <c r="D112">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E112">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="12">
-        <v>0.86875000000000002</v>
-      </c>
-      <c r="I112" s="12">
-        <v>0.13125000000000001</v>
+      <c r="H112" s="1">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0.11874999999999999</v>
       </c>
       <c r="K112">
-        <v>15146</v>
+        <v>15302</v>
       </c>
       <c r="L112">
-        <v>1003</v>
+        <v>847</v>
       </c>
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="12">
-        <v>0.93789089107684687</v>
-      </c>
-      <c r="P112" s="12">
-        <v>6.2109108923153133E-2</v>
+      <c r="O112" s="1">
+        <v>0.94755093194625051</v>
+      </c>
+      <c r="P112" s="1">
+        <v>5.2449068053749458E-2</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4864,10 +4864,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="1">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="12">
+      <c r="I113" s="1">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4879,10 +4879,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="12">
+      <c r="O113" s="1">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="12">
+      <c r="P113" s="1">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4891,34 +4891,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E114">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="12">
-        <v>0.45889698231009363</v>
-      </c>
-      <c r="I114" s="12">
-        <v>0.54110301768990632</v>
+      <c r="H114" s="1">
+        <v>0.4672216441207076</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.53277835587929245</v>
       </c>
       <c r="K114">
-        <v>42038</v>
+        <v>42621</v>
       </c>
       <c r="L114">
-        <v>33436</v>
+        <v>32853</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="12">
-        <v>0.55698651191138671</v>
-      </c>
-      <c r="P114" s="12">
-        <v>0.44301348808861329</v>
+      <c r="O114" s="1">
+        <v>0.56471102631369741</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0.43528897368630259</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4934,10 +4934,10 @@
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="1">
         <v>0.66898148148148151</v>
       </c>
-      <c r="I115" s="12">
+      <c r="I115" s="1">
         <v>0.33101851851851855</v>
       </c>
       <c r="K115">
@@ -4949,10 +4949,10 @@
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="12">
+      <c r="O115" s="1">
         <v>0.72644862711419644</v>
       </c>
-      <c r="P115" s="12">
+      <c r="P115" s="1">
         <v>0.27355137288580356</v>
       </c>
     </row>
@@ -4961,34 +4961,34 @@
         <v>123</v>
       </c>
       <c r="D116">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E116">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="12">
-        <v>0.44556451612903225</v>
-      </c>
-      <c r="I116" s="12">
-        <v>0.55443548387096775</v>
+      <c r="H116" s="1">
+        <v>0.44758064516129031</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.55241935483870963</v>
       </c>
       <c r="K116">
-        <v>20321</v>
+        <v>20329</v>
       </c>
       <c r="L116">
-        <v>15872</v>
+        <v>15864</v>
       </c>
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="12">
-        <v>0.56146216119139059</v>
-      </c>
-      <c r="P116" s="12">
-        <v>0.43853783880860941</v>
+      <c r="O116" s="1">
+        <v>0.56168319840853209</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0.43831680159146796</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -5004,10 +5004,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="1">
         <v>0.5964125560538116</v>
       </c>
-      <c r="I117" s="12">
+      <c r="I117" s="1">
         <v>0.40358744394618834</v>
       </c>
       <c r="K117">
@@ -5019,10 +5019,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="12">
+      <c r="O117" s="1">
         <v>0.72329987594451339</v>
       </c>
-      <c r="P117" s="12">
+      <c r="P117" s="1">
         <v>0.27670012405548666</v>
       </c>
     </row>
@@ -5039,10 +5039,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="1">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="1">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5054,10 +5054,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="12">
+      <c r="O118" s="1">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="12">
+      <c r="P118" s="1">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5074,10 +5074,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="1">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="12">
+      <c r="I119" s="1">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5089,10 +5089,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="12">
+      <c r="O119" s="1">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="12">
+      <c r="P119" s="1">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5109,10 +5109,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="1">
         <v>0.5757575757575758</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="1">
         <v>0.42424242424242425</v>
       </c>
       <c r="K120">
@@ -5124,10 +5124,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="12">
+      <c r="O120" s="1">
         <v>0.661028088121839</v>
       </c>
-      <c r="P120" s="12">
+      <c r="P120" s="1">
         <v>0.338971911878161</v>
       </c>
     </row>
@@ -5144,10 +5144,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="1">
         <v>0.59433962264150941</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="1">
         <v>0.40566037735849059</v>
       </c>
       <c r="K121">
@@ -5159,10 +5159,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="12">
+      <c r="O121" s="1">
         <v>0.72589531680440766</v>
       </c>
-      <c r="P121" s="12">
+      <c r="P121" s="1">
         <v>0.27410468319559228</v>
       </c>
     </row>
@@ -5179,10 +5179,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="1">
         <v>0.52</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="1">
         <v>0.48</v>
       </c>
       <c r="K122">
@@ -5194,10 +5194,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="12">
+      <c r="O122" s="1">
         <v>0.57712230215827343</v>
       </c>
-      <c r="P122" s="12">
+      <c r="P122" s="1">
         <v>0.42287769784172663</v>
       </c>
     </row>
@@ -5206,34 +5206,34 @@
         <v>130</v>
       </c>
       <c r="D123">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E123">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="12">
-        <v>0.46031746031746029</v>
-      </c>
-      <c r="I123" s="12">
-        <v>0.53968253968253965</v>
+      <c r="H123" s="1">
+        <v>0.49206349206349204</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.50793650793650791</v>
       </c>
       <c r="K123">
-        <v>6121</v>
+        <v>6609</v>
       </c>
       <c r="L123">
-        <v>5343</v>
+        <v>4855</v>
       </c>
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="12">
-        <v>0.53393230983949758</v>
-      </c>
-      <c r="P123" s="12">
-        <v>0.46606769016050242</v>
+      <c r="O123" s="1">
+        <v>0.57650034891835311</v>
+      </c>
+      <c r="P123" s="1">
+        <v>0.42349965108164689</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5243,37 +5243,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5641</v>
+        <v>5729</v>
       </c>
       <c r="E124" s="13">
-        <v>4793</v>
+        <v>4705</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.54063638106191303</v>
+        <v>0.54907034694268742</v>
       </c>
       <c r="I124" s="14">
-        <v>0.45936361893808703</v>
+        <v>0.45092965305731264</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>543372</v>
+        <v>551154</v>
       </c>
       <c r="L124" s="13">
-        <v>326250</v>
+        <v>318468</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.62483699814402116</v>
+        <v>0.63378571379288928</v>
       </c>
       <c r="P124" s="14">
-        <v>0.37516300185597878</v>
+        <v>0.36621428620711066</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5284,34 +5284,34 @@
         <v>133</v>
       </c>
       <c r="D125">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E125">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="12">
-        <v>0.49650349650349651</v>
-      </c>
-      <c r="I125" s="12">
-        <v>0.50349650349650354</v>
+      <c r="H125" s="1">
+        <v>0.70629370629370625</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0.2937062937062937</v>
       </c>
       <c r="K125">
-        <v>6165</v>
+        <v>8900</v>
       </c>
       <c r="L125">
-        <v>4936</v>
+        <v>2201</v>
       </c>
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="12">
-        <v>0.55535537338978469</v>
-      </c>
-      <c r="P125" s="12">
-        <v>0.44464462661021531</v>
+      <c r="O125" s="1">
+        <v>0.80172957391226018</v>
+      </c>
+      <c r="P125" s="1">
+        <v>0.19827042608773984</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -5319,34 +5319,34 @@
         <v>134</v>
       </c>
       <c r="D126">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="E126">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="12">
-        <v>0.5241730279898219</v>
-      </c>
-      <c r="I126" s="12">
-        <v>0.4758269720101781</v>
+      <c r="H126" s="1">
+        <v>0.5661577608142494</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.43384223918575066</v>
       </c>
       <c r="K126">
-        <v>43569</v>
+        <v>47124</v>
       </c>
       <c r="L126">
-        <v>29093</v>
+        <v>25538</v>
       </c>
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="12">
-        <v>0.59961190168175937</v>
-      </c>
-      <c r="P126" s="12">
-        <v>0.40038809831824063</v>
+      <c r="O126" s="1">
+        <v>0.64853706201315686</v>
+      </c>
+      <c r="P126" s="1">
+        <v>0.35146293798684319</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5354,34 +5354,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E127">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="12">
-        <v>0.50374531835205993</v>
-      </c>
-      <c r="I127" s="12">
-        <v>0.49625468164794007</v>
+      <c r="H127" s="1">
+        <v>0.53745318352059923</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0.46254681647940077</v>
       </c>
       <c r="K127">
-        <v>25008</v>
+        <v>26756</v>
       </c>
       <c r="L127">
-        <v>16278</v>
+        <v>14530</v>
       </c>
       <c r="M127">
         <v>41286</v>
       </c>
-      <c r="O127" s="12">
-        <v>0.60572591193140535</v>
-      </c>
-      <c r="P127" s="12">
-        <v>0.39427408806859471</v>
+      <c r="O127" s="1">
+        <v>0.64806471927529918</v>
+      </c>
+      <c r="P127" s="1">
+        <v>0.35193528072470087</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5397,10 +5397,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H128" s="1">
         <v>0.4955357142857143</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="1">
         <v>0.5044642857142857</v>
       </c>
       <c r="K128">
@@ -5412,10 +5412,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="12">
+      <c r="O128" s="1">
         <v>0.65993523697380041</v>
       </c>
-      <c r="P128" s="12">
+      <c r="P128" s="1">
         <v>0.34006476302619959</v>
       </c>
     </row>
@@ -5424,34 +5424,34 @@
         <v>137</v>
       </c>
       <c r="D129">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="E129">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="12">
-        <v>0.31100478468899523</v>
-      </c>
-      <c r="I129" s="12">
-        <v>0.68899521531100483</v>
+      <c r="H129" s="1">
+        <v>0.77990430622009566</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.22009569377990432</v>
       </c>
       <c r="K129">
-        <v>5735</v>
+        <v>15292</v>
       </c>
       <c r="L129">
-        <v>11369</v>
+        <v>1812</v>
       </c>
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="12">
-        <v>0.3353016838166511</v>
-      </c>
-      <c r="P129" s="12">
-        <v>0.66469831618334896</v>
+      <c r="O129" s="1">
+        <v>0.89405986903648271</v>
+      </c>
+      <c r="P129" s="1">
+        <v>0.1059401309635173</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5459,34 +5459,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E130">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F130">
         <v>481</v>
       </c>
-      <c r="H130" s="12">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="I130" s="12">
-        <v>0.61538461538461542</v>
+      <c r="H130" s="1">
+        <v>0.42203742203742206</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.57796257796257799</v>
       </c>
       <c r="K130">
-        <v>18316</v>
+        <v>20210</v>
       </c>
       <c r="L130">
-        <v>21057</v>
+        <v>19163</v>
       </c>
       <c r="M130">
         <v>39373</v>
       </c>
-      <c r="O130" s="12">
-        <v>0.46519188276229906</v>
-      </c>
-      <c r="P130" s="12">
-        <v>0.53480811723770094</v>
+      <c r="O130" s="1">
+        <v>0.51329591344322256</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0.48670408655677749</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5502,10 +5502,10 @@
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="12">
+      <c r="H131" s="1">
         <v>0.5</v>
       </c>
-      <c r="I131" s="12">
+      <c r="I131" s="1">
         <v>0.5</v>
       </c>
       <c r="K131">
@@ -5517,10 +5517,10 @@
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="12">
+      <c r="O131" s="1">
         <v>0.55963413895450964</v>
       </c>
-      <c r="P131" s="12">
+      <c r="P131" s="1">
         <v>0.44036586104549036</v>
       </c>
     </row>
@@ -5529,34 +5529,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E132">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="12">
-        <v>0.47928176795580113</v>
-      </c>
-      <c r="I132" s="12">
-        <v>0.52071823204419887</v>
+      <c r="H132" s="1">
+        <v>0.48480662983425415</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0.51519337016574585</v>
       </c>
       <c r="K132">
-        <v>34346</v>
+        <v>34682</v>
       </c>
       <c r="L132">
-        <v>26040</v>
+        <v>25704</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="12">
-        <v>0.56877421918987847</v>
-      </c>
-      <c r="P132" s="12">
-        <v>0.43122578081012153</v>
+      <c r="O132" s="1">
+        <v>0.57433842281323488</v>
+      </c>
+      <c r="P132" s="1">
+        <v>0.42566157718676512</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5564,34 +5564,34 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E133">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F133">
         <v>307</v>
       </c>
-      <c r="H133" s="12">
-        <v>0.61889250814332253</v>
-      </c>
-      <c r="I133" s="12">
-        <v>0.38110749185667753</v>
+      <c r="H133" s="1">
+        <v>0.65798045602605859</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.34201954397394135</v>
       </c>
       <c r="K133">
-        <v>17211</v>
+        <v>17981</v>
       </c>
       <c r="L133">
-        <v>5425</v>
+        <v>4655</v>
       </c>
       <c r="M133">
         <v>22636</v>
       </c>
-      <c r="O133" s="12">
-        <v>0.76033751546209583</v>
-      </c>
-      <c r="P133" s="12">
-        <v>0.23966248453790423</v>
+      <c r="O133" s="1">
+        <v>0.79435412617070156</v>
+      </c>
+      <c r="P133" s="1">
+        <v>0.20564587382929847</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5607,10 +5607,10 @@
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="12">
+      <c r="H134" s="1">
         <v>0.45707656612529002</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="1">
         <v>0.54292343387470998</v>
       </c>
       <c r="K134">
@@ -5622,10 +5622,10 @@
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="12">
+      <c r="O134" s="1">
         <v>0.56465453687593992</v>
       </c>
-      <c r="P134" s="12">
+      <c r="P134" s="1">
         <v>0.43534546312406003</v>
       </c>
     </row>
@@ -5634,34 +5634,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="E135">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="F135">
         <v>454</v>
       </c>
-      <c r="H135" s="12">
-        <v>0.59691629955947134</v>
-      </c>
-      <c r="I135" s="12">
-        <v>0.40308370044052866</v>
+      <c r="H135" s="1">
+        <v>0.68942731277533043</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.31057268722466963</v>
       </c>
       <c r="K135">
-        <v>20681</v>
+        <v>23330</v>
       </c>
       <c r="L135">
-        <v>9634</v>
+        <v>6985</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="12">
-        <v>0.68220352960580566</v>
-      </c>
-      <c r="P135" s="12">
-        <v>0.31779647039419429</v>
+      <c r="O135" s="1">
+        <v>0.76958601352465772</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0.23041398647534225</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5669,34 +5669,34 @@
         <v>144</v>
       </c>
       <c r="D136">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E136">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="12">
-        <v>0.51813471502590669</v>
-      </c>
-      <c r="I136" s="12">
-        <v>0.48186528497409326</v>
+      <c r="H136" s="1">
+        <v>0.62176165803108807</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0.37823834196891193</v>
       </c>
       <c r="K136">
-        <v>8802</v>
+        <v>10330</v>
       </c>
       <c r="L136">
-        <v>4798</v>
+        <v>3270</v>
       </c>
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="12">
-        <v>0.64720588235294119</v>
-      </c>
-      <c r="P136" s="12">
-        <v>0.35279411764705881</v>
+      <c r="O136" s="1">
+        <v>0.75955882352941173</v>
+      </c>
+      <c r="P136" s="1">
+        <v>0.24044117647058824</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5704,34 +5704,34 @@
         <v>145</v>
       </c>
       <c r="D137">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E137">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="12">
-        <v>0.41355932203389828</v>
-      </c>
-      <c r="I137" s="12">
-        <v>0.58644067796610166</v>
+      <c r="H137" s="1">
+        <v>0.43050847457627117</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0.56949152542372883</v>
       </c>
       <c r="K137">
-        <v>12219</v>
+        <v>12795</v>
       </c>
       <c r="L137">
-        <v>12252</v>
+        <v>11676</v>
       </c>
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="12">
-        <v>0.49932573249969353</v>
-      </c>
-      <c r="P137" s="12">
-        <v>0.50067426750030652</v>
+      <c r="O137" s="1">
+        <v>0.52286379796493809</v>
+      </c>
+      <c r="P137" s="1">
+        <v>0.47713620203506191</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5741,37 +5741,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2436</v>
+        <v>2716</v>
       </c>
       <c r="E138" s="13">
-        <v>2537</v>
+        <v>2257</v>
       </c>
       <c r="F138" s="13">
         <v>4973</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.4898451638849789</v>
+        <v>0.54614920571083858</v>
       </c>
       <c r="I138" s="14">
-        <v>0.5101548361150211</v>
+        <v>0.45385079428916147</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>231648</v>
+        <v>256996</v>
       </c>
       <c r="L138" s="13">
-        <v>168691</v>
+        <v>143343</v>
       </c>
       <c r="M138" s="13">
         <v>400339</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.57862961140433478</v>
+        <v>0.64194595080669137</v>
       </c>
       <c r="P138" s="14">
-        <v>0.42137038859566517</v>
+        <v>0.35805404919330869</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,37 +5781,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>29940</v>
+        <v>30732</v>
       </c>
       <c r="E139" s="13">
-        <v>36073</v>
+        <v>35281</v>
       </c>
       <c r="F139" s="13">
         <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.45354702861557572</v>
+        <v>0.46554466544468515</v>
       </c>
       <c r="I139" s="14">
-        <v>0.54645297138442428</v>
+        <v>0.53445533455531491</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2857881</v>
+        <v>2929519</v>
       </c>
       <c r="L139" s="13">
-        <v>2418055</v>
+        <v>2346417</v>
       </c>
       <c r="M139" s="13">
         <v>5275936</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.54168227211247444</v>
+        <v>0.55526052628386702</v>
       </c>
       <c r="P139" s="14">
-        <v>0.45831772788752556</v>
+        <v>0.44473947371613304</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE9E4FE-F4F6-47EC-B23C-7110DDDF3A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0AB9563-A6C2-47C5-9AE9-AECF8C59304C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{732EDEDF-A2CE-4B27-8032-E73442FED08A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4520A161-8830-452A-8D7E-8ABD728C2263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,18 +561,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -888,114 +888,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AADD3DE-580A-4271-A8EC-B066D48AAD00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AAED27-4889-41DE-8DB1-46145701C103}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1015,10 +1015,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="K4">
@@ -1030,10 +1030,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="12">
         <v>0.30619684082624543</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="12">
         <v>0.69380315917375457</v>
       </c>
     </row>
@@ -1050,10 +1050,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="12">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="12">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1065,10 +1065,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="12">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="12">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1082,10 +1082,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="12">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1094,10 +1094,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="12">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1114,10 +1114,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="12">
         <v>0.4336283185840708</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="12">
         <v>0.5663716814159292</v>
       </c>
       <c r="K7">
@@ -1129,10 +1129,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="12">
         <v>0.53098745890661148</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="12">
         <v>0.46901254109338852</v>
       </c>
     </row>
@@ -1149,10 +1149,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="12">
         <v>0.25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="12">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -1164,10 +1164,10 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="12">
         <v>0.21283255086071987</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="12">
         <v>0.78716744913928016</v>
       </c>
     </row>
@@ -1227,10 +1227,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="12">
         <v>0.58837772397094434</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="12">
         <v>0.41162227602905571</v>
       </c>
       <c r="K10">
@@ -1242,10 +1242,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="12">
         <v>0.68093952651338852</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="12">
         <v>0.31906047348661143</v>
       </c>
     </row>
@@ -1262,10 +1262,10 @@
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="12">
         <v>0.46675191815856776</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="12">
         <v>0.53324808184143224</v>
       </c>
       <c r="K11">
@@ -1277,10 +1277,10 @@
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="12">
         <v>0.57060628051194084</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="12">
         <v>0.4293937194880591</v>
       </c>
     </row>
@@ -1297,10 +1297,10 @@
       <c r="F12">
         <v>574</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="12">
         <v>0.40766550522648082</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="12">
         <v>0.59233449477351918</v>
       </c>
       <c r="K12">
@@ -1312,10 +1312,10 @@
       <c r="M12">
         <v>43861</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="12">
         <v>0.48074599302341486</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="12">
         <v>0.51925400697658508</v>
       </c>
     </row>
@@ -1332,10 +1332,10 @@
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="12">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="12">
         <v>0.55555555555555558</v>
       </c>
       <c r="K13">
@@ -1347,10 +1347,10 @@
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="12">
         <v>0.53631273200092278</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="12">
         <v>0.46368726799907722</v>
       </c>
     </row>
@@ -1367,10 +1367,10 @@
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="12">
         <v>0.48780487804878048</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="12">
         <v>0.51219512195121952</v>
       </c>
       <c r="K14">
@@ -1382,10 +1382,10 @@
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="12">
         <v>0.56143959982243208</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="12">
         <v>0.43856040017756798</v>
       </c>
     </row>
@@ -1402,10 +1402,10 @@
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="12">
         <v>0.46968139773895168</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="12">
         <v>0.53031860226104832</v>
       </c>
       <c r="K15">
@@ -1417,10 +1417,10 @@
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="12">
         <v>0.56553189200817466</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="12">
         <v>0.43446810799182534</v>
       </c>
     </row>
@@ -1429,34 +1429,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E16">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.61715867158671589</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.38284132841328411</v>
+      <c r="H16" s="12">
+        <v>0.61808118081180807</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.38191881918819187</v>
       </c>
       <c r="K16">
-        <v>56696</v>
+        <v>56768</v>
       </c>
       <c r="L16">
-        <v>25784</v>
+        <v>25712</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="1">
-        <v>0.68739088263821535</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.31260911736178465</v>
+      <c r="O16" s="12">
+        <v>0.68826382153249277</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.31173617846750729</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1472,10 +1472,10 @@
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="12">
         <v>0.35918367346938773</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="12">
         <v>0.64081632653061227</v>
       </c>
       <c r="K17">
@@ -1487,10 +1487,10 @@
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="12">
         <v>0.4106147154131351</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="12">
         <v>0.5893852845868649</v>
       </c>
     </row>
@@ -1507,10 +1507,10 @@
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="12">
         <v>0.41199529596236772</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="12">
         <v>0.58800470403763228</v>
       </c>
       <c r="K18">
@@ -1522,10 +1522,10 @@
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="12">
         <v>0.50907471385689496</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="12">
         <v>0.49092528614310504</v>
       </c>
     </row>
@@ -1542,10 +1542,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="12">
         <v>0.36753926701570683</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="12">
         <v>0.63246073298429317</v>
       </c>
       <c r="K19">
@@ -1557,10 +1557,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="12">
         <v>0.45829048028290059</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="12">
         <v>0.54170951971709946</v>
       </c>
     </row>
@@ -1569,34 +1569,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E20">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F20">
         <v>663</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.62141779788838614</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.37858220211161386</v>
+      <c r="H20" s="12">
+        <v>0.62745098039215685</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.37254901960784315</v>
       </c>
       <c r="K20">
-        <v>39084</v>
+        <v>39402</v>
       </c>
       <c r="L20">
-        <v>15778</v>
+        <v>15460</v>
       </c>
       <c r="M20">
         <v>54862</v>
       </c>
-      <c r="O20" s="1">
-        <v>0.71240567241442165</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.28759432758557835</v>
+      <c r="O20" s="12">
+        <v>0.71820203419488904</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0.28179796580511102</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1612,10 +1612,10 @@
       <c r="F21">
         <v>1290</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="12">
         <v>0.35426356589147284</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="12">
         <v>0.6457364341085271</v>
       </c>
       <c r="K21">
@@ -1627,10 +1627,10 @@
       <c r="M21">
         <v>101483</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="12">
         <v>0.43853650365085778</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="12">
         <v>0.56146349634914217</v>
       </c>
     </row>
@@ -1647,10 +1647,10 @@
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="12">
         <v>0.44953350296861749</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="12">
         <v>0.55046649703138251</v>
       </c>
       <c r="K22">
@@ -1662,10 +1662,10 @@
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="12">
         <v>0.53189976153620888</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="12">
         <v>0.46810023846379117</v>
       </c>
     </row>
@@ -1682,10 +1682,10 @@
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="12">
         <v>0.3271353864032539</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="12">
         <v>0.6728646135967461</v>
       </c>
       <c r="K23">
@@ -1697,10 +1697,10 @@
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="12">
         <v>0.4035827910064011</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="12">
         <v>0.59641720899359885</v>
       </c>
     </row>
@@ -1717,10 +1717,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="12">
         <v>0.38305084745762713</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="12">
         <v>0.61694915254237293</v>
       </c>
       <c r="K24">
@@ -1732,10 +1732,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="12">
         <v>0.48254462573059825</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="12">
         <v>0.5174553742694018</v>
       </c>
     </row>
@@ -1752,10 +1752,10 @@
       <c r="F25">
         <v>1002</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="12">
         <v>0.42514970059880242</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="12">
         <v>0.57485029940119758</v>
       </c>
       <c r="K25">
@@ -1767,10 +1767,10 @@
       <c r="M25">
         <v>79700</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="12">
         <v>0.51920953575909656</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="12">
         <v>0.48079046424090338</v>
       </c>
     </row>
@@ -1787,10 +1787,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="12">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="12">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1802,10 +1802,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="12">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="12">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1822,10 +1822,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="12">
         <v>0.36254980079681276</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="12">
         <v>0.63745019920318724</v>
       </c>
       <c r="K27">
@@ -1837,10 +1837,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="12">
         <v>0.41574172621762706</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="12">
         <v>0.58425827378237294</v>
       </c>
     </row>
@@ -1857,10 +1857,10 @@
       <c r="F28">
         <v>2224</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="12">
         <v>0.3601618705035971</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="12">
         <v>0.63983812949640284</v>
       </c>
       <c r="K28">
@@ -1872,10 +1872,10 @@
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="12">
         <v>0.44412083999673152</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="12">
         <v>0.55587916000326842</v>
       </c>
     </row>
@@ -1884,34 +1884,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="E29">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F29">
         <v>3110</v>
       </c>
-      <c r="H29" s="1">
-        <v>0.55948553054662375</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.44051446945337619</v>
+      <c r="H29" s="12">
+        <v>0.55980707395498397</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.44019292604501609</v>
       </c>
       <c r="K29">
-        <v>168527</v>
+        <v>168577</v>
       </c>
       <c r="L29">
-        <v>99902</v>
+        <v>99852</v>
       </c>
       <c r="M29">
         <v>268429</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.62782709766828471</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.37217290233171529</v>
+      <c r="O29" s="12">
+        <v>0.62801336666306551</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.37198663333693455</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1927,10 +1927,10 @@
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="12">
         <v>0.44377510040160645</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="12">
         <v>0.55622489959839361</v>
       </c>
       <c r="K30">
@@ -1942,10 +1942,10 @@
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="12">
         <v>0.55247913598429066</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="12">
         <v>0.4475208640157094</v>
       </c>
     </row>
@@ -1957,31 +1957,31 @@
         <v>572</v>
       </c>
       <c r="E31">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F31">
-        <v>1036</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.55212355212355213</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.44787644787644787</v>
+        <v>1037</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.55159112825458056</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.44840887174541949</v>
       </c>
       <c r="K31">
         <v>56325</v>
       </c>
       <c r="L31">
-        <v>28703</v>
+        <v>28811</v>
       </c>
       <c r="M31">
-        <v>85028</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.66242884696805759</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.33757115303194241</v>
+        <v>85136</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0.66158851719601575</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0.3384114828039842</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="12">
         <v>0.62239089184060725</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="12">
         <v>0.3776091081593928</v>
       </c>
       <c r="K32">
@@ -2012,10 +2012,10 @@
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="12">
         <v>0.75003903897204804</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="12">
         <v>0.2499609610279519</v>
       </c>
     </row>
@@ -2032,10 +2032,10 @@
       <c r="F33">
         <v>1072</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="12">
         <v>0.49533582089552236</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="12">
         <v>0.50466417910447758</v>
       </c>
       <c r="K33">
@@ -2047,10 +2047,10 @@
       <c r="M33">
         <v>76409</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="12">
         <v>0.61072648509992278</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="12">
         <v>0.38927351490007722</v>
       </c>
     </row>
@@ -2067,10 +2067,10 @@
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="12">
         <v>0.42944785276073622</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="12">
         <v>0.57055214723926384</v>
       </c>
       <c r="K34">
@@ -2082,10 +2082,10 @@
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="12">
         <v>0.51827580685743035</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="12">
         <v>0.48172419314256959</v>
       </c>
     </row>
@@ -2102,10 +2102,10 @@
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="12">
         <v>0.47066326530612246</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="12">
         <v>0.52933673469387754</v>
       </c>
       <c r="K35">
@@ -2117,10 +2117,10 @@
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="12">
         <v>0.54841750411401002</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="12">
         <v>0.45158249588598998</v>
       </c>
     </row>
@@ -2137,10 +2137,10 @@
       <c r="F36">
         <v>821</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="12">
         <v>0.59196102314250909</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="12">
         <v>0.40803897685749085</v>
       </c>
       <c r="K36">
@@ -2152,10 +2152,10 @@
       <c r="M36">
         <v>64835</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="12">
         <v>0.71853165728387447</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="12">
         <v>0.28146834271612553</v>
       </c>
     </row>
@@ -2172,26 +2172,26 @@
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="12">
         <v>0.54081632653061229</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="12">
         <v>0.45918367346938777</v>
       </c>
       <c r="K37">
         <v>35882</v>
       </c>
       <c r="L37">
-        <v>22039</v>
+        <v>22037</v>
       </c>
       <c r="M37">
-        <v>57921</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.61949897273873034</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.38050102726126966</v>
+        <v>57919</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0.61952036464717963</v>
+      </c>
+      <c r="P37" s="12">
+        <v>0.38047963535282031</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2207,10 +2207,10 @@
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="12">
         <v>0.37894736842105264</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="12">
         <v>0.62105263157894741</v>
       </c>
       <c r="K38">
@@ -2222,10 +2222,10 @@
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="12">
         <v>0.48869473988857537</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="12">
         <v>0.51130526011142463</v>
       </c>
     </row>
@@ -2242,10 +2242,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="12">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="12">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2257,10 +2257,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="12">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="12">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2277,10 +2277,10 @@
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="12">
         <v>0.66417910447761197</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="12">
         <v>0.33582089552238809</v>
       </c>
       <c r="K40">
@@ -2292,10 +2292,10 @@
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="12">
         <v>0.80171201467441144</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="12">
         <v>0.1982879853255885</v>
       </c>
     </row>
@@ -2312,10 +2312,10 @@
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="12">
         <v>0.38477261113949923</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="12">
         <v>0.61522738886050077</v>
       </c>
       <c r="K41">
@@ -2327,10 +2327,10 @@
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="12">
         <v>0.48357989073721686</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="12">
         <v>0.51642010926278314</v>
       </c>
     </row>
@@ -2347,10 +2347,10 @@
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="12">
         <v>0.44533333333333336</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="12">
         <v>0.55466666666666664</v>
       </c>
       <c r="K42">
@@ -2362,10 +2362,10 @@
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="12">
         <v>0.52366612740465479</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="12">
         <v>0.47633387259534526</v>
       </c>
     </row>
@@ -2382,10 +2382,10 @@
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="12">
         <v>0.33213859020310632</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="12">
         <v>0.66786140979689368</v>
       </c>
       <c r="K43">
@@ -2397,10 +2397,10 @@
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="12">
         <v>0.40969465887426948</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="12">
         <v>0.59030534112573052</v>
       </c>
     </row>
@@ -2417,10 +2417,10 @@
       <c r="F44">
         <v>2516</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="12">
         <v>0.23847376788553259</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="12">
         <v>0.76152623211446746</v>
       </c>
       <c r="K44">
@@ -2432,10 +2432,10 @@
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="12">
         <v>0.30604428163551151</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="12">
         <v>0.69395571836448855</v>
       </c>
     </row>
@@ -2452,10 +2452,10 @@
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="12">
         <v>0.31919961886612674</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="12">
         <v>0.68080038113387331</v>
       </c>
       <c r="K45">
@@ -2467,10 +2467,10 @@
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="12">
         <v>0.39665621475578472</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="12">
         <v>0.60334378524421528</v>
       </c>
     </row>
@@ -2487,10 +2487,10 @@
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="12">
         <v>0.39795918367346939</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="12">
         <v>0.60204081632653061</v>
       </c>
       <c r="K46">
@@ -2502,10 +2502,10 @@
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="12">
         <v>0.48807009743988738</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="12">
         <v>0.51192990256011262</v>
       </c>
     </row>
@@ -2522,10 +2522,10 @@
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="12">
         <v>0.41190765492102066</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="12">
         <v>0.58809234507897934</v>
       </c>
       <c r="K47">
@@ -2537,10 +2537,10 @@
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="12">
         <v>0.47458113930110102</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="12">
         <v>0.52541886069889898</v>
       </c>
     </row>
@@ -2557,10 +2557,10 @@
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="12">
         <v>0.30496453900709219</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="12">
         <v>0.69503546099290781</v>
       </c>
       <c r="K48">
@@ -2572,10 +2572,10 @@
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="12">
         <v>0.35953921976129682</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="12">
         <v>0.64046078023870312</v>
       </c>
     </row>
@@ -2592,10 +2592,10 @@
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="12">
         <v>0.42688330871491875</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="12">
         <v>0.57311669128508125</v>
       </c>
       <c r="K49">
@@ -2607,10 +2607,10 @@
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="12">
         <v>0.5149099498080898</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="12">
         <v>0.48509005019191026</v>
       </c>
     </row>
@@ -2627,10 +2627,10 @@
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="12">
         <v>0.60280373831775702</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="12">
         <v>0.39719626168224298</v>
       </c>
       <c r="K50">
@@ -2642,10 +2642,10 @@
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="12">
         <v>0.71595319033723415</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="12">
         <v>0.28404680966276585</v>
       </c>
     </row>
@@ -2662,10 +2662,10 @@
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="12">
         <v>0.40925266903914592</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="12">
         <v>0.59074733096085408</v>
       </c>
       <c r="K51">
@@ -2677,10 +2677,10 @@
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="12">
         <v>0.48700564971751414</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="12">
         <v>0.51299435028248586</v>
       </c>
     </row>
@@ -2692,31 +2692,31 @@
         <v>2271</v>
       </c>
       <c r="E52">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F52">
-        <v>3822</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.59419152276295129</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.40580847723704866</v>
+        <v>3821</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.59434702957341012</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0.40565297042658988</v>
       </c>
       <c r="K52">
         <v>232574</v>
       </c>
       <c r="L52">
-        <v>111864</v>
+        <v>111758</v>
       </c>
       <c r="M52">
-        <v>344438</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0.67522747199786315</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0.3247725280021368</v>
+        <v>344332</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0.67543533566441694</v>
+      </c>
+      <c r="P52" s="12">
+        <v>0.32456466433558312</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,10 +2732,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="12">
         <v>0.8</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="12">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2747,10 +2747,10 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="12">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="12">
         <v>0.1043158505902845</v>
       </c>
     </row>
@@ -2761,37 +2761,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>20892</v>
+        <v>20898</v>
       </c>
       <c r="E54" s="13">
-        <v>26221</v>
+        <v>26215</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.44344448453717655</v>
+        <v>0.44357183792159277</v>
       </c>
       <c r="I54" s="14">
-        <v>0.55655551546282345</v>
+        <v>0.55642816207840728</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1991461</v>
+        <v>1991901</v>
       </c>
       <c r="L54" s="13">
-        <v>1749253</v>
+        <v>1748813</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.53237456806374395</v>
+        <v>0.53249219266696146</v>
       </c>
       <c r="P54" s="14">
-        <v>0.467625431936256</v>
+        <v>0.46750780733303854</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2802,34 +2802,34 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E55">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="1">
-        <v>0.62807017543859645</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.3719298245614035</v>
+      <c r="H55" s="12">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0.36842105263157893</v>
       </c>
       <c r="K55">
-        <v>16742</v>
+        <v>16766</v>
       </c>
       <c r="L55">
-        <v>6184</v>
+        <v>6160</v>
       </c>
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="1">
-        <v>0.73026258396580301</v>
-      </c>
-      <c r="P55" s="1">
-        <v>0.26973741603419699</v>
+      <c r="O55" s="12">
+        <v>0.73130943034109741</v>
+      </c>
+      <c r="P55" s="12">
+        <v>0.26869056965890253</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2845,10 +2845,10 @@
       <c r="F56">
         <v>82</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="12">
         <v>0.52439024390243905</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="12">
         <v>0.47560975609756095</v>
       </c>
       <c r="K56">
@@ -2860,10 +2860,10 @@
       <c r="M56">
         <v>7030</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="12">
         <v>0.58335704125177812</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="12">
         <v>0.41664295874822188</v>
       </c>
     </row>
@@ -2880,10 +2880,10 @@
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="12">
         <v>0.30991735537190085</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="12">
         <v>0.69008264462809921</v>
       </c>
       <c r="K57">
@@ -2895,10 +2895,10 @@
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="12">
         <v>0.39734541240914356</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="12">
         <v>0.60265458759085644</v>
       </c>
     </row>
@@ -2915,10 +2915,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="12">
         <v>0.55882352941176472</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="12">
         <v>0.44117647058823528</v>
       </c>
       <c r="K58">
@@ -2930,10 +2930,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="12">
         <v>0.62506922650913788</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="12">
         <v>0.37493077349086212</v>
       </c>
     </row>
@@ -2950,10 +2950,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="12">
         <v>0.52760736196319014</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="12">
         <v>0.47239263803680981</v>
       </c>
       <c r="K59">
@@ -2965,10 +2965,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="12">
         <v>0.59978118161925598</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="12">
         <v>0.40021881838074397</v>
       </c>
     </row>
@@ -2985,10 +2985,10 @@
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="12">
         <v>0.55769230769230771</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="12">
         <v>0.44230769230769229</v>
       </c>
       <c r="K60">
@@ -3000,10 +3000,10 @@
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="12">
         <v>0.71103810775295662</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="12">
         <v>0.28896189224704338</v>
       </c>
     </row>
@@ -3014,37 +3014,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E61" s="13">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F61" s="13">
         <v>944</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.50741525423728817</v>
+        <v>0.50847457627118642</v>
       </c>
       <c r="I61" s="14">
-        <v>0.49258474576271188</v>
+        <v>0.49152542372881358</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>45407</v>
+        <v>45431</v>
       </c>
       <c r="L61" s="13">
-        <v>30272</v>
+        <v>30248</v>
       </c>
       <c r="M61" s="13">
         <v>75679</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.59999471451789799</v>
+        <v>0.60031184344402011</v>
       </c>
       <c r="P61" s="14">
-        <v>0.40000528548210201</v>
+        <v>0.39968815655597989</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3063,10 +3063,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="12">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="12">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3078,10 +3078,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="12">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="12">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="12">
         <v>0.20338983050847459</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="12">
         <v>0.79661016949152541</v>
       </c>
       <c r="K63">
@@ -3113,10 +3113,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="12">
         <v>0.24645688205620947</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="12">
         <v>0.75354311794379059</v>
       </c>
     </row>
@@ -3133,10 +3133,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="12">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="12">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3148,10 +3148,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="12">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="12">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3168,10 +3168,10 @@
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="12">
         <v>0.26818181818181819</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="12">
         <v>0.73181818181818181</v>
       </c>
       <c r="K65">
@@ -3183,10 +3183,10 @@
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="12">
         <v>0.35049876927063089</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="12">
         <v>0.64950123072936905</v>
       </c>
     </row>
@@ -3195,34 +3195,34 @@
         <v>72</v>
       </c>
       <c r="D66">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E66">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="1">
-        <v>0.33913043478260868</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.66086956521739126</v>
+      <c r="H66" s="12">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0.65217391304347827</v>
       </c>
       <c r="K66">
-        <v>3093</v>
+        <v>3189</v>
       </c>
       <c r="L66">
-        <v>4675</v>
+        <v>4579</v>
       </c>
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="1">
-        <v>0.39817198764160661</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0.60182801235839345</v>
+      <c r="O66" s="12">
+        <v>0.41053038105046347</v>
+      </c>
+      <c r="P66" s="12">
+        <v>0.58946961894953653</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3238,10 +3238,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="12">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="12">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3253,10 +3253,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="12">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="12">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3273,10 +3273,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="12">
         <v>0.5</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="12">
         <v>0.5</v>
       </c>
       <c r="K68">
@@ -3288,10 +3288,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="12">
         <v>0.60193920335429774</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="12">
         <v>0.39806079664570232</v>
       </c>
     </row>
@@ -3308,10 +3308,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="12">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="12">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3323,10 +3323,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="12">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="12">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3343,10 +3343,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="12">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="12">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3358,10 +3358,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="12">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="12">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3378,10 +3378,10 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="12">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="12">
         <v>0.53846153846153844</v>
       </c>
       <c r="K71">
@@ -3393,10 +3393,10 @@
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="12">
         <v>0.53277853260869568</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71" s="12">
         <v>0.46722146739130432</v>
       </c>
     </row>
@@ -3413,10 +3413,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="12">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="12">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3428,10 +3428,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="12">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="12">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3448,10 +3448,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="12">
         <v>0.32258064516129031</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="12">
         <v>0.67741935483870963</v>
       </c>
       <c r="K73">
@@ -3463,10 +3463,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="12">
         <v>0.4765018389865141</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="12">
         <v>0.5234981610134859</v>
       </c>
     </row>
@@ -3483,10 +3483,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="12">
         <v>0.25316455696202533</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="12">
         <v>0.74683544303797467</v>
       </c>
       <c r="K74">
@@ -3498,10 +3498,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="12">
         <v>0.28923233695652173</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="12">
         <v>0.71076766304347827</v>
       </c>
     </row>
@@ -3518,10 +3518,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="12">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="12">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3533,10 +3533,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="12">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="12">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3553,10 +3553,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="12">
         <v>0.48076923076923078</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="12">
         <v>0.51923076923076927</v>
       </c>
       <c r="K76">
@@ -3568,10 +3568,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="12">
         <v>0.59698169223156849</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="12">
         <v>0.40301830776843145</v>
       </c>
     </row>
@@ -3588,10 +3588,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="12">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="12">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3603,10 +3603,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="12">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="12">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3623,10 +3623,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="12">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="12">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3638,10 +3638,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="12">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="12">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3658,10 +3658,10 @@
       <c r="F79">
         <v>14</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="12">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="12">
         <v>0.7142857142857143</v>
       </c>
       <c r="K79">
@@ -3673,10 +3673,10 @@
       <c r="M79">
         <v>1080</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="12">
         <v>0.34074074074074073</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79" s="12">
         <v>0.65925925925925921</v>
       </c>
     </row>
@@ -3693,10 +3693,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="12">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="12">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3708,10 +3708,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="12">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="12">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3728,10 +3728,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="12">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="12">
         <v>0.70967741935483875</v>
       </c>
       <c r="K81">
@@ -3743,10 +3743,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="12">
         <v>0.53033586132177679</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="12">
         <v>0.46966413867822321</v>
       </c>
     </row>
@@ -3763,10 +3763,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="12">
         <v>0.33333333333333331</v>
       </c>
       <c r="K82">
@@ -3778,10 +3778,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82" s="12">
         <v>0.73940871685461751</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82" s="12">
         <v>0.26059128314538249</v>
       </c>
     </row>
@@ -3798,10 +3798,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="12">
         <v>0.22307692307692309</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="12">
         <v>0.77692307692307694</v>
       </c>
       <c r="K83">
@@ -3813,10 +3813,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="12">
         <v>0.28783253379851725</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="12">
         <v>0.71216746620148275</v>
       </c>
     </row>
@@ -3833,10 +3833,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="12">
         <v>0.55660377358490565</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="12">
         <v>0.44339622641509435</v>
       </c>
       <c r="K84">
@@ -3848,10 +3848,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="12">
         <v>0.66891322662173547</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="12">
         <v>0.33108677337826453</v>
       </c>
     </row>
@@ -3868,10 +3868,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="12">
         <v>0.4</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="12">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3883,10 +3883,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="12">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="12">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3903,10 +3903,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="12">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="12">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3918,10 +3918,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="12">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="12">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3938,10 +3938,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="12">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="12">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3953,10 +3953,10 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="12">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="12">
         <v>0.57557930123664303</v>
       </c>
     </row>
@@ -3967,37 +3967,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E88" s="13">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F88" s="13">
         <v>2148</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.3468342644320298</v>
+        <v>0.3472998137802607</v>
       </c>
       <c r="I88" s="14">
-        <v>0.6531657355679702</v>
+        <v>0.65270018621973924</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>68896</v>
+        <v>68992</v>
       </c>
       <c r="L88" s="13">
-        <v>90581</v>
+        <v>90485</v>
       </c>
       <c r="M88" s="13">
         <v>159477</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.4320121396815842</v>
+        <v>0.43261410736344424</v>
       </c>
       <c r="P88" s="14">
-        <v>0.56798786031841586</v>
+        <v>0.5673858926365557</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4016,10 +4016,10 @@
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="12">
         <v>0.54838709677419351</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="12">
         <v>0.45161290322580644</v>
       </c>
       <c r="K89">
@@ -4031,10 +4031,10 @@
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O89" s="12">
         <v>0.66038794485411989</v>
       </c>
-      <c r="P89" s="1">
+      <c r="P89" s="12">
         <v>0.33961205514588011</v>
       </c>
     </row>
@@ -4094,10 +4094,10 @@
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="12">
         <v>0.58004158004158002</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="12">
         <v>0.41995841995841998</v>
       </c>
       <c r="K91">
@@ -4109,10 +4109,10 @@
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O91" s="12">
         <v>0.66833014428298076</v>
       </c>
-      <c r="P91" s="1">
+      <c r="P91" s="12">
         <v>0.33166985571701918</v>
       </c>
     </row>
@@ -4129,10 +4129,10 @@
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="12">
         <v>0.6</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="12">
         <v>0.4</v>
       </c>
       <c r="K92">
@@ -4144,10 +4144,10 @@
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O92" s="12">
         <v>0.65331324557287163</v>
       </c>
-      <c r="P92" s="1">
+      <c r="P92" s="12">
         <v>0.34668675442712837</v>
       </c>
     </row>
@@ -4156,34 +4156,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E93">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F93">
         <v>903</v>
       </c>
-      <c r="H93" s="1">
-        <v>0.55703211517165008</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0.44296788482834992</v>
+      <c r="H93" s="12">
+        <v>0.56146179401993357</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0.43853820598006643</v>
       </c>
       <c r="K93">
-        <v>49171</v>
+        <v>49580</v>
       </c>
       <c r="L93">
-        <v>26310</v>
+        <v>25901</v>
       </c>
       <c r="M93">
         <v>75481</v>
       </c>
-      <c r="O93" s="1">
-        <v>0.65143546057948354</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0.34856453942051641</v>
+      <c r="O93" s="12">
+        <v>0.65685404273923242</v>
+      </c>
+      <c r="P93" s="12">
+        <v>0.34314595726076763</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4199,10 +4199,10 @@
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="12">
         <v>0.40059790732436473</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="12">
         <v>0.59940209267563527</v>
       </c>
       <c r="K94">
@@ -4214,10 +4214,10 @@
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O94" s="12">
         <v>0.4554077722094092</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P94" s="12">
         <v>0.5445922277905908</v>
       </c>
     </row>
@@ -4234,10 +4234,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="12">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="12">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4249,10 +4249,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="12">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P95" s="12">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4269,10 +4269,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="12">
         <v>0.7432432432432432</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="12">
         <v>0.25675675675675674</v>
       </c>
       <c r="K96">
@@ -4284,10 +4284,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="12">
         <v>0.85409577558303595</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P96" s="12">
         <v>0.14590422441696407</v>
       </c>
     </row>
@@ -4304,10 +4304,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="12">
         <v>0.84536082474226804</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="12">
         <v>0.15463917525773196</v>
       </c>
       <c r="K97">
@@ -4319,10 +4319,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O97" s="12">
         <v>0.93415738587688169</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P97" s="12">
         <v>6.5842614123118343E-2</v>
       </c>
     </row>
@@ -4339,10 +4339,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="12">
         <v>0.83760683760683763</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="12">
         <v>0.1623931623931624</v>
       </c>
       <c r="K98">
@@ -4354,10 +4354,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="12">
         <v>0.93199088145896658</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P98" s="12">
         <v>6.8009118541033434E-2</v>
       </c>
     </row>
@@ -4374,10 +4374,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="12">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="12">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4389,10 +4389,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99" s="12">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P99" s="12">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4409,10 +4409,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="12">
         <v>0.53846153846153844</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="12">
         <v>0.46153846153846156</v>
       </c>
       <c r="K100">
@@ -4424,10 +4424,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O100" s="12">
         <v>0.62799925135691559</v>
       </c>
-      <c r="P100" s="1">
+      <c r="P100" s="12">
         <v>0.37200074864308441</v>
       </c>
     </row>
@@ -4436,34 +4436,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E101">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="1">
-        <v>0.37295081967213117</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0.62704918032786883</v>
+      <c r="H101" s="12">
+        <v>0.40163934426229508</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0.59836065573770492</v>
       </c>
       <c r="K101">
-        <v>8256</v>
+        <v>8931</v>
       </c>
       <c r="L101">
-        <v>11101</v>
+        <v>10426</v>
       </c>
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="1">
-        <v>0.42651237278503901</v>
-      </c>
-      <c r="P101" s="1">
-        <v>0.57348762721496105</v>
+      <c r="O101" s="12">
+        <v>0.4613834788448623</v>
+      </c>
+      <c r="P101" s="12">
+        <v>0.5386165211551377</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4479,10 +4479,10 @@
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="12">
         <v>0.74285714285714288</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="12">
         <v>0.25714285714285712</v>
       </c>
       <c r="K102">
@@ -4494,10 +4494,10 @@
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="1">
+      <c r="O102" s="12">
         <v>0.84319569642337888</v>
       </c>
-      <c r="P102" s="1">
+      <c r="P102" s="12">
         <v>0.15680430357662112</v>
       </c>
     </row>
@@ -4514,10 +4514,10 @@
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="12">
         <v>0.56955380577427817</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="12">
         <v>0.43044619422572178</v>
       </c>
       <c r="K103">
@@ -4529,10 +4529,10 @@
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="12">
         <v>0.64815033683961709</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P103" s="12">
         <v>0.35184966316038291</v>
       </c>
     </row>
@@ -4541,34 +4541,34 @@
         <v>111</v>
       </c>
       <c r="D104">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="E104">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="F104">
         <v>893</v>
       </c>
-      <c r="H104" s="1">
-        <v>0.49608062709966405</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0.50391937290033595</v>
+      <c r="H104" s="12">
+        <v>0.54759238521836506</v>
+      </c>
+      <c r="I104" s="12">
+        <v>0.45240761478163494</v>
       </c>
       <c r="K104">
-        <v>39801</v>
+        <v>43839</v>
       </c>
       <c r="L104">
-        <v>29528</v>
+        <v>25490</v>
       </c>
       <c r="M104">
         <v>69329</v>
       </c>
-      <c r="O104" s="1">
-        <v>0.57408876516320728</v>
-      </c>
-      <c r="P104" s="1">
-        <v>0.42591123483679266</v>
+      <c r="O104" s="12">
+        <v>0.63233279003014609</v>
+      </c>
+      <c r="P104" s="12">
+        <v>0.36766720996985386</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="12">
         <v>0.62758620689655176</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="12">
         <v>0.3724137931034483</v>
       </c>
       <c r="K105">
@@ -4599,10 +4599,10 @@
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105" s="12">
         <v>0.70583101943673143</v>
       </c>
-      <c r="P105" s="1">
+      <c r="P105" s="12">
         <v>0.29416898056326857</v>
       </c>
     </row>
@@ -4619,10 +4619,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="12">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="12">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4634,10 +4634,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O106" s="12">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P106" s="12">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4654,10 +4654,10 @@
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="12">
         <v>0.38720538720538722</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="12">
         <v>0.61279461279461278</v>
       </c>
       <c r="K107">
@@ -4669,10 +4669,10 @@
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107" s="12">
         <v>0.42278008298755188</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P107" s="12">
         <v>0.57721991701244812</v>
       </c>
     </row>
@@ -4689,10 +4689,10 @@
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="12">
         <v>0.49534450651769085</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="12">
         <v>0.50465549348230909</v>
       </c>
       <c r="K108">
@@ -4704,10 +4704,10 @@
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="1">
+      <c r="O108" s="12">
         <v>0.5636308805790109</v>
       </c>
-      <c r="P108" s="1">
+      <c r="P108" s="12">
         <v>0.43636911942098916</v>
       </c>
     </row>
@@ -4716,34 +4716,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E109">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="1">
-        <v>0.6597353497164461</v>
-      </c>
-      <c r="I109" s="1">
-        <v>0.34026465028355385</v>
+      <c r="H109" s="12">
+        <v>0.66351606805293006</v>
+      </c>
+      <c r="I109" s="12">
+        <v>0.33648393194706994</v>
       </c>
       <c r="K109">
-        <v>34638</v>
+        <v>34664</v>
       </c>
       <c r="L109">
-        <v>11863</v>
+        <v>11837</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="1">
-        <v>0.74488720672673703</v>
-      </c>
-      <c r="P109" s="1">
-        <v>0.25511279327326292</v>
+      <c r="O109" s="12">
+        <v>0.74544633448743036</v>
+      </c>
+      <c r="P109" s="12">
+        <v>0.25455366551256964</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4751,34 +4751,34 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E110">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="1">
-        <v>0.46783625730994149</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0.53216374269005851</v>
+      <c r="H110" s="12">
+        <v>0.49122807017543857</v>
+      </c>
+      <c r="I110" s="12">
+        <v>0.50877192982456143</v>
       </c>
       <c r="K110">
-        <v>7266</v>
+        <v>7403</v>
       </c>
       <c r="L110">
-        <v>6219</v>
+        <v>6082</v>
       </c>
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="1">
-        <v>0.53882091212458283</v>
-      </c>
-      <c r="P110" s="1">
-        <v>0.46117908787541712</v>
+      <c r="O110" s="12">
+        <v>0.54898034853540967</v>
+      </c>
+      <c r="P110" s="12">
+        <v>0.45101965146459028</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -4794,10 +4794,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="12">
         <v>0.55072463768115942</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="12">
         <v>0.44927536231884058</v>
       </c>
       <c r="K111">
@@ -4809,10 +4809,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="1">
+      <c r="O111" s="12">
         <v>0.59949740851264333</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P111" s="12">
         <v>0.40050259148735667</v>
       </c>
     </row>
@@ -4829,10 +4829,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="12">
         <v>0.88124999999999998</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="12">
         <v>0.11874999999999999</v>
       </c>
       <c r="K112">
@@ -4844,10 +4844,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="1">
+      <c r="O112" s="12">
         <v>0.94755093194625051</v>
       </c>
-      <c r="P112" s="1">
+      <c r="P112" s="12">
         <v>5.2449068053749458E-2</v>
       </c>
     </row>
@@ -4864,10 +4864,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="12">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="12">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4879,10 +4879,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113" s="12">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="1">
+      <c r="P113" s="12">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4891,34 +4891,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E114">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="1">
-        <v>0.4672216441207076</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0.53277835587929245</v>
+      <c r="H114" s="12">
+        <v>0.47762747138397504</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0.52237252861602501</v>
       </c>
       <c r="K114">
-        <v>42621</v>
+        <v>43161</v>
       </c>
       <c r="L114">
-        <v>32853</v>
+        <v>32313</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="1">
-        <v>0.56471102631369741</v>
-      </c>
-      <c r="P114" s="1">
-        <v>0.43528897368630259</v>
+      <c r="O114" s="12">
+        <v>0.57186580809285315</v>
+      </c>
+      <c r="P114" s="12">
+        <v>0.42813419190714685</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4934,10 +4934,10 @@
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="12">
         <v>0.66898148148148151</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="12">
         <v>0.33101851851851855</v>
       </c>
       <c r="K115">
@@ -4949,10 +4949,10 @@
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="1">
+      <c r="O115" s="12">
         <v>0.72644862711419644</v>
       </c>
-      <c r="P115" s="1">
+      <c r="P115" s="12">
         <v>0.27355137288580356</v>
       </c>
     </row>
@@ -4969,10 +4969,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="12">
         <v>0.44758064516129031</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="12">
         <v>0.55241935483870963</v>
       </c>
       <c r="K116">
@@ -4984,10 +4984,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="1">
+      <c r="O116" s="12">
         <v>0.56168319840853209</v>
       </c>
-      <c r="P116" s="1">
+      <c r="P116" s="12">
         <v>0.43831680159146796</v>
       </c>
     </row>
@@ -5004,10 +5004,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="12">
         <v>0.5964125560538116</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="12">
         <v>0.40358744394618834</v>
       </c>
       <c r="K117">
@@ -5019,10 +5019,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="1">
+      <c r="O117" s="12">
         <v>0.72329987594451339</v>
       </c>
-      <c r="P117" s="1">
+      <c r="P117" s="12">
         <v>0.27670012405548666</v>
       </c>
     </row>
@@ -5039,10 +5039,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="12">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="12">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5054,10 +5054,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="1">
+      <c r="O118" s="12">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="1">
+      <c r="P118" s="12">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5074,10 +5074,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="12">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="12">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5089,10 +5089,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119" s="12">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="1">
+      <c r="P119" s="12">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5109,10 +5109,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="12">
         <v>0.5757575757575758</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="12">
         <v>0.42424242424242425</v>
       </c>
       <c r="K120">
@@ -5124,10 +5124,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="1">
+      <c r="O120" s="12">
         <v>0.661028088121839</v>
       </c>
-      <c r="P120" s="1">
+      <c r="P120" s="12">
         <v>0.338971911878161</v>
       </c>
     </row>
@@ -5144,10 +5144,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="12">
         <v>0.59433962264150941</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="12">
         <v>0.40566037735849059</v>
       </c>
       <c r="K121">
@@ -5159,10 +5159,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="1">
+      <c r="O121" s="12">
         <v>0.72589531680440766</v>
       </c>
-      <c r="P121" s="1">
+      <c r="P121" s="12">
         <v>0.27410468319559228</v>
       </c>
     </row>
@@ -5179,10 +5179,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="12">
         <v>0.52</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="12">
         <v>0.48</v>
       </c>
       <c r="K122">
@@ -5194,10 +5194,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O122" s="12">
         <v>0.57712230215827343</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P122" s="12">
         <v>0.42287769784172663</v>
       </c>
     </row>
@@ -5214,10 +5214,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="12">
         <v>0.49206349206349204</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="12">
         <v>0.50793650793650791</v>
       </c>
       <c r="K123">
@@ -5229,10 +5229,10 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="1">
+      <c r="O123" s="12">
         <v>0.57650034891835311</v>
       </c>
-      <c r="P123" s="1">
+      <c r="P123" s="12">
         <v>0.42349965108164689</v>
       </c>
     </row>
@@ -5243,37 +5243,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5729</v>
+        <v>5802</v>
       </c>
       <c r="E124" s="13">
-        <v>4705</v>
+        <v>4632</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.54907034694268742</v>
+        <v>0.55606670500287525</v>
       </c>
       <c r="I124" s="14">
-        <v>0.45092965305731264</v>
+        <v>0.44393329499712481</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>551154</v>
+        <v>556979</v>
       </c>
       <c r="L124" s="13">
-        <v>318468</v>
+        <v>312643</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.63378571379288928</v>
+        <v>0.64048402639307656</v>
       </c>
       <c r="P124" s="14">
-        <v>0.36621428620711066</v>
+        <v>0.35951597360692344</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5292,10 +5292,10 @@
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="12">
         <v>0.70629370629370625</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="12">
         <v>0.2937062937062937</v>
       </c>
       <c r="K125">
@@ -5307,10 +5307,10 @@
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="1">
+      <c r="O125" s="12">
         <v>0.80172957391226018</v>
       </c>
-      <c r="P125" s="1">
+      <c r="P125" s="12">
         <v>0.19827042608773984</v>
       </c>
     </row>
@@ -5327,10 +5327,10 @@
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="12">
         <v>0.5661577608142494</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="12">
         <v>0.43384223918575066</v>
       </c>
       <c r="K126">
@@ -5342,10 +5342,10 @@
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="1">
+      <c r="O126" s="12">
         <v>0.64853706201315686</v>
       </c>
-      <c r="P126" s="1">
+      <c r="P126" s="12">
         <v>0.35146293798684319</v>
       </c>
     </row>
@@ -5362,26 +5362,26 @@
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="12">
         <v>0.53745318352059923</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="12">
         <v>0.46254681647940077</v>
       </c>
       <c r="K127">
         <v>26756</v>
       </c>
       <c r="L127">
-        <v>14530</v>
+        <v>14531</v>
       </c>
       <c r="M127">
-        <v>41286</v>
-      </c>
-      <c r="O127" s="1">
-        <v>0.64806471927529918</v>
-      </c>
-      <c r="P127" s="1">
-        <v>0.35193528072470087</v>
+        <v>41287</v>
+      </c>
+      <c r="O127" s="12">
+        <v>0.64804902269479492</v>
+      </c>
+      <c r="P127" s="12">
+        <v>0.35195097730520503</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5397,10 +5397,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="12">
         <v>0.4955357142857143</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="12">
         <v>0.5044642857142857</v>
       </c>
       <c r="K128">
@@ -5412,10 +5412,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="1">
+      <c r="O128" s="12">
         <v>0.65993523697380041</v>
       </c>
-      <c r="P128" s="1">
+      <c r="P128" s="12">
         <v>0.34006476302619959</v>
       </c>
     </row>
@@ -5432,10 +5432,10 @@
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="12">
         <v>0.77990430622009566</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="12">
         <v>0.22009569377990432</v>
       </c>
       <c r="K129">
@@ -5447,10 +5447,10 @@
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="1">
+      <c r="O129" s="12">
         <v>0.89405986903648271</v>
       </c>
-      <c r="P129" s="1">
+      <c r="P129" s="12">
         <v>0.1059401309635173</v>
       </c>
     </row>
@@ -5467,10 +5467,10 @@
       <c r="F130">
         <v>481</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="12">
         <v>0.42203742203742206</v>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="12">
         <v>0.57796257796257799</v>
       </c>
       <c r="K130">
@@ -5482,10 +5482,10 @@
       <c r="M130">
         <v>39373</v>
       </c>
-      <c r="O130" s="1">
+      <c r="O130" s="12">
         <v>0.51329591344322256</v>
       </c>
-      <c r="P130" s="1">
+      <c r="P130" s="12">
         <v>0.48670408655677749</v>
       </c>
     </row>
@@ -5502,10 +5502,10 @@
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="12">
         <v>0.5</v>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="12">
         <v>0.5</v>
       </c>
       <c r="K131">
@@ -5517,10 +5517,10 @@
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="1">
+      <c r="O131" s="12">
         <v>0.55963413895450964</v>
       </c>
-      <c r="P131" s="1">
+      <c r="P131" s="12">
         <v>0.44036586104549036</v>
       </c>
     </row>
@@ -5537,10 +5537,10 @@
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="12">
         <v>0.48480662983425415</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="12">
         <v>0.51519337016574585</v>
       </c>
       <c r="K132">
@@ -5552,10 +5552,10 @@
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="1">
+      <c r="O132" s="12">
         <v>0.57433842281323488</v>
       </c>
-      <c r="P132" s="1">
+      <c r="P132" s="12">
         <v>0.42566157718676512</v>
       </c>
     </row>
@@ -5572,10 +5572,10 @@
       <c r="F133">
         <v>307</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="12">
         <v>0.65798045602605859</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="12">
         <v>0.34201954397394135</v>
       </c>
       <c r="K133">
@@ -5587,10 +5587,10 @@
       <c r="M133">
         <v>22636</v>
       </c>
-      <c r="O133" s="1">
+      <c r="O133" s="12">
         <v>0.79435412617070156</v>
       </c>
-      <c r="P133" s="1">
+      <c r="P133" s="12">
         <v>0.20564587382929847</v>
       </c>
     </row>
@@ -5599,34 +5599,34 @@
         <v>142</v>
       </c>
       <c r="D134">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E134">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="1">
-        <v>0.45707656612529002</v>
-      </c>
-      <c r="I134" s="1">
-        <v>0.54292343387470998</v>
+      <c r="H134" s="12">
+        <v>0.47563805104408352</v>
+      </c>
+      <c r="I134" s="12">
+        <v>0.52436194895591648</v>
       </c>
       <c r="K134">
-        <v>19148</v>
+        <v>19897</v>
       </c>
       <c r="L134">
-        <v>14763</v>
+        <v>14014</v>
       </c>
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="1">
-        <v>0.56465453687593992</v>
-      </c>
-      <c r="P134" s="1">
-        <v>0.43534546312406003</v>
+      <c r="O134" s="12">
+        <v>0.58674176520892929</v>
+      </c>
+      <c r="P134" s="12">
+        <v>0.41325823479107077</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5642,10 +5642,10 @@
       <c r="F135">
         <v>454</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="12">
         <v>0.68942731277533043</v>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="12">
         <v>0.31057268722466963</v>
       </c>
       <c r="K135">
@@ -5657,10 +5657,10 @@
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="1">
+      <c r="O135" s="12">
         <v>0.76958601352465772</v>
       </c>
-      <c r="P135" s="1">
+      <c r="P135" s="12">
         <v>0.23041398647534225</v>
       </c>
     </row>
@@ -5677,10 +5677,10 @@
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="12">
         <v>0.62176165803108807</v>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="12">
         <v>0.37823834196891193</v>
       </c>
       <c r="K136">
@@ -5692,10 +5692,10 @@
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="1">
+      <c r="O136" s="12">
         <v>0.75955882352941173</v>
       </c>
-      <c r="P136" s="1">
+      <c r="P136" s="12">
         <v>0.24044117647058824</v>
       </c>
     </row>
@@ -5712,10 +5712,10 @@
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="12">
         <v>0.43050847457627117</v>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="12">
         <v>0.56949152542372883</v>
       </c>
       <c r="K137">
@@ -5727,10 +5727,10 @@
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="1">
+      <c r="O137" s="12">
         <v>0.52286379796493809</v>
       </c>
-      <c r="P137" s="1">
+      <c r="P137" s="12">
         <v>0.47713620203506191</v>
       </c>
     </row>
@@ -5741,37 +5741,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2716</v>
+        <v>2724</v>
       </c>
       <c r="E138" s="13">
-        <v>2257</v>
+        <v>2249</v>
       </c>
       <c r="F138" s="13">
         <v>4973</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.54614920571083858</v>
+        <v>0.54775789262014885</v>
       </c>
       <c r="I138" s="14">
-        <v>0.45385079428916147</v>
+        <v>0.45224210737985121</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>256996</v>
+        <v>257745</v>
       </c>
       <c r="L138" s="13">
-        <v>143343</v>
+        <v>142595</v>
       </c>
       <c r="M138" s="13">
-        <v>400339</v>
+        <v>400340</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.64194595080669137</v>
+        <v>0.6438152570315232</v>
       </c>
       <c r="P138" s="14">
-        <v>0.35805404919330869</v>
+        <v>0.3561847429684768</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,37 +5781,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>30732</v>
+        <v>30821</v>
       </c>
       <c r="E139" s="13">
-        <v>35281</v>
+        <v>35192</v>
       </c>
       <c r="F139" s="13">
         <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.46554466544468515</v>
+        <v>0.46689288473482493</v>
       </c>
       <c r="I139" s="14">
-        <v>0.53445533455531491</v>
+        <v>0.53310711526517507</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2929519</v>
+        <v>2936653</v>
       </c>
       <c r="L139" s="13">
-        <v>2346417</v>
+        <v>2339284</v>
       </c>
       <c r="M139" s="13">
-        <v>5275936</v>
+        <v>5275937</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.55526052628386702</v>
+        <v>0.55661259791388717</v>
       </c>
       <c r="P139" s="14">
-        <v>0.44473947371613304</v>
+        <v>0.44338740208611288</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0AB9563-A6C2-47C5-9AE9-AECF8C59304C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC716A4E-006D-4028-B99D-B9D07E19CB79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4520A161-8830-452A-8D7E-8ABD728C2263}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FDBED0D-502A-45BF-A27F-55B7A2423249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,6 +561,7 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -572,7 +573,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -888,114 +888,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AAED27-4889-41DE-8DB1-46145701C103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF8C78F-2AB1-409D-ACCE-A64D241FCF84}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1007,34 +1007,28 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.66666666666666663</v>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>252</v>
-      </c>
-      <c r="L4">
-        <v>571</v>
+        <v>823</v>
       </c>
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="12">
-        <v>0.30619684082624543</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.69380315917375457</v>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1050,10 +1044,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="1">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="1">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1065,10 +1059,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="1">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="1">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1076,29 +1070,29 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="K6">
         <v>229</v>
       </c>
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1114,10 +1108,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="1">
         <v>0.4336283185840708</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="1">
         <v>0.5663716814159292</v>
       </c>
       <c r="K7">
@@ -1129,10 +1123,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="1">
         <v>0.53098745890661148</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="1">
         <v>0.46901254109338852</v>
       </c>
     </row>
@@ -1141,34 +1135,34 @@
         <v>11</v>
       </c>
       <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>2</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.25</v>
       </c>
-      <c r="I8" s="12">
-        <v>0.75</v>
-      </c>
       <c r="K8">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="L8">
-        <v>503</v>
+        <v>228</v>
       </c>
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="12">
-        <v>0.21283255086071987</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0.78716744913928016</v>
+      <c r="O8" s="1">
+        <v>0.64319248826291076</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.35680751173708919</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1178,37 +1172,37 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E9" s="13">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F9" s="13">
         <v>246</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
-        <v>0.34959349593495936</v>
+        <v>0.40243902439024393</v>
       </c>
       <c r="I9" s="14">
-        <v>0.65040650406504064</v>
+        <v>0.59756097560975607</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13">
-        <v>7366</v>
+        <v>8441</v>
       </c>
       <c r="L9" s="13">
-        <v>10263</v>
+        <v>9188</v>
       </c>
       <c r="M9" s="13">
         <v>17629</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14">
-        <v>0.41783425038289185</v>
+        <v>0.47881331896307222</v>
       </c>
       <c r="P9" s="14">
-        <v>0.58216574961710821</v>
+        <v>0.52118668103692778</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1227,10 +1221,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="1">
         <v>0.58837772397094434</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="1">
         <v>0.41162227602905571</v>
       </c>
       <c r="K10">
@@ -1242,10 +1236,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="1">
         <v>0.68093952651338852</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="1">
         <v>0.31906047348661143</v>
       </c>
     </row>
@@ -1262,10 +1256,10 @@
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="1">
         <v>0.46675191815856776</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="1">
         <v>0.53324808184143224</v>
       </c>
       <c r="K11">
@@ -1277,10 +1271,10 @@
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="1">
         <v>0.57060628051194084</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="1">
         <v>0.4293937194880591</v>
       </c>
     </row>
@@ -1297,10 +1291,10 @@
       <c r="F12">
         <v>574</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="1">
         <v>0.40766550522648082</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="1">
         <v>0.59233449477351918</v>
       </c>
       <c r="K12">
@@ -1312,10 +1306,10 @@
       <c r="M12">
         <v>43861</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="1">
         <v>0.48074599302341486</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="1">
         <v>0.51925400697658508</v>
       </c>
     </row>
@@ -1332,10 +1326,10 @@
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="1">
         <v>0.55555555555555558</v>
       </c>
       <c r="K13">
@@ -1347,10 +1341,10 @@
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="1">
         <v>0.53631273200092278</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="1">
         <v>0.46368726799907722</v>
       </c>
     </row>
@@ -1359,34 +1353,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="E14">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="12">
-        <v>0.48780487804878048</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0.51219512195121952</v>
+      <c r="H14" s="1">
+        <v>0.4977416440831075</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.5022583559168925</v>
       </c>
       <c r="K14">
-        <v>51854</v>
+        <v>52767</v>
       </c>
       <c r="L14">
-        <v>40505</v>
+        <v>39592</v>
       </c>
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="12">
-        <v>0.56143959982243208</v>
-      </c>
-      <c r="P14" s="12">
-        <v>0.43856040017756798</v>
+      <c r="O14" s="1">
+        <v>0.57132493855498656</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.42867506144501349</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1394,34 +1388,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E15">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="12">
-        <v>0.46968139773895168</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0.53031860226104832</v>
+      <c r="H15" s="1">
+        <v>0.473792394655704</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.526207605344296</v>
       </c>
       <c r="K15">
-        <v>42062</v>
+        <v>42446</v>
       </c>
       <c r="L15">
-        <v>32314</v>
+        <v>31930</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="12">
-        <v>0.56553189200817466</v>
-      </c>
-      <c r="P15" s="12">
-        <v>0.43446810799182534</v>
+      <c r="O15" s="1">
+        <v>0.57069484780036572</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.42930515219963428</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1429,34 +1423,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="E16">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="12">
-        <v>0.61808118081180807</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.38191881918819187</v>
+      <c r="H16" s="1">
+        <v>0.70110701107011075</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.2988929889298893</v>
       </c>
       <c r="K16">
-        <v>56768</v>
+        <v>65374</v>
       </c>
       <c r="L16">
-        <v>25712</v>
+        <v>17106</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="12">
-        <v>0.68826382153249277</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0.31173617846750729</v>
+      <c r="O16" s="1">
+        <v>0.79260426770126091</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.20739573229873909</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1472,10 +1466,10 @@
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="1">
         <v>0.35918367346938773</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="1">
         <v>0.64081632653061227</v>
       </c>
       <c r="K17">
@@ -1487,10 +1481,10 @@
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="1">
         <v>0.4106147154131351</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="1">
         <v>0.5893852845868649</v>
       </c>
     </row>
@@ -1507,10 +1501,10 @@
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="1">
         <v>0.41199529596236772</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="1">
         <v>0.58800470403763228</v>
       </c>
       <c r="K18">
@@ -1522,10 +1516,10 @@
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="1">
         <v>0.50907471385689496</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="1">
         <v>0.49092528614310504</v>
       </c>
     </row>
@@ -1542,10 +1536,10 @@
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="1">
         <v>0.36753926701570683</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="1">
         <v>0.63246073298429317</v>
       </c>
       <c r="K19">
@@ -1557,10 +1551,10 @@
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="1">
         <v>0.45829048028290059</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="1">
         <v>0.54170951971709946</v>
       </c>
     </row>
@@ -1569,34 +1563,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="E20">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F20">
         <v>663</v>
       </c>
-      <c r="H20" s="12">
-        <v>0.62745098039215685</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0.37254901960784315</v>
+      <c r="H20" s="1">
+        <v>0.64404223227752644</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.35595776772247362</v>
       </c>
       <c r="K20">
-        <v>39402</v>
+        <v>40384</v>
       </c>
       <c r="L20">
-        <v>15460</v>
+        <v>14478</v>
       </c>
       <c r="M20">
         <v>54862</v>
       </c>
-      <c r="O20" s="12">
-        <v>0.71820203419488904</v>
-      </c>
-      <c r="P20" s="12">
-        <v>0.28179796580511102</v>
+      <c r="O20" s="1">
+        <v>0.7361014910138165</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.2638985089861835</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1612,10 +1606,10 @@
       <c r="F21">
         <v>1290</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="1">
         <v>0.35426356589147284</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="1">
         <v>0.6457364341085271</v>
       </c>
       <c r="K21">
@@ -1627,10 +1621,10 @@
       <c r="M21">
         <v>101483</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="1">
         <v>0.43853650365085778</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="1">
         <v>0.56146349634914217</v>
       </c>
     </row>
@@ -1647,10 +1641,10 @@
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="1">
         <v>0.44953350296861749</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="1">
         <v>0.55046649703138251</v>
       </c>
       <c r="K22">
@@ -1662,10 +1656,10 @@
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="1">
         <v>0.53189976153620888</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="1">
         <v>0.46810023846379117</v>
       </c>
     </row>
@@ -1674,34 +1668,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E23">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="12">
-        <v>0.3271353864032539</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0.6728646135967461</v>
+      <c r="H23" s="1">
+        <v>0.3294596165020337</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.6705403834979663</v>
       </c>
       <c r="K23">
-        <v>52898</v>
+        <v>53342</v>
       </c>
       <c r="L23">
-        <v>78173</v>
+        <v>77729</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="12">
-        <v>0.4035827910064011</v>
-      </c>
-      <c r="P23" s="12">
-        <v>0.59641720899359885</v>
+      <c r="O23" s="1">
+        <v>0.40697026802267472</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.59302973197732523</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1717,10 +1711,10 @@
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="1">
         <v>0.38305084745762713</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="1">
         <v>0.61694915254237293</v>
       </c>
       <c r="K24">
@@ -1732,10 +1726,10 @@
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="1">
         <v>0.48254462573059825</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="1">
         <v>0.5174553742694018</v>
       </c>
     </row>
@@ -1752,10 +1746,10 @@
       <c r="F25">
         <v>1002</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="1">
         <v>0.42514970059880242</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="1">
         <v>0.57485029940119758</v>
       </c>
       <c r="K25">
@@ -1767,10 +1761,10 @@
       <c r="M25">
         <v>79700</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="1">
         <v>0.51920953575909656</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="1">
         <v>0.48079046424090338</v>
       </c>
     </row>
@@ -1787,10 +1781,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="1">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="1">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1802,10 +1796,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="1">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="1">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1822,10 +1816,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="1">
         <v>0.36254980079681276</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="1">
         <v>0.63745019920318724</v>
       </c>
       <c r="K27">
@@ -1837,10 +1831,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="1">
         <v>0.41574172621762706</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="1">
         <v>0.58425827378237294</v>
       </c>
     </row>
@@ -1857,10 +1851,10 @@
       <c r="F28">
         <v>2224</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="1">
         <v>0.3601618705035971</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="1">
         <v>0.63983812949640284</v>
       </c>
       <c r="K28">
@@ -1872,10 +1866,10 @@
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="1">
         <v>0.44412083999673152</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="1">
         <v>0.55587916000326842</v>
       </c>
     </row>
@@ -1884,34 +1878,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1741</v>
+        <v>1842</v>
       </c>
       <c r="E29">
-        <v>1369</v>
+        <v>1268</v>
       </c>
       <c r="F29">
         <v>3110</v>
       </c>
-      <c r="H29" s="12">
-        <v>0.55980707395498397</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0.44019292604501609</v>
+      <c r="H29" s="1">
+        <v>0.59228295819935695</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.40771704180064311</v>
       </c>
       <c r="K29">
-        <v>168577</v>
+        <v>178301</v>
       </c>
       <c r="L29">
-        <v>99852</v>
+        <v>90128</v>
       </c>
       <c r="M29">
         <v>268429</v>
       </c>
-      <c r="O29" s="12">
-        <v>0.62801336666306551</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0.37198663333693455</v>
+      <c r="O29" s="1">
+        <v>0.66423896076802436</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.3357610392319757</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1927,10 +1921,10 @@
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="1">
         <v>0.44377510040160645</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="1">
         <v>0.55622489959839361</v>
       </c>
       <c r="K30">
@@ -1942,10 +1936,10 @@
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="1">
         <v>0.55247913598429066</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="1">
         <v>0.4475208640157094</v>
       </c>
     </row>
@@ -1954,34 +1948,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="E31">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="F31">
         <v>1037</v>
       </c>
-      <c r="H31" s="12">
-        <v>0.55159112825458056</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0.44840887174541949</v>
+      <c r="H31" s="1">
+        <v>0.58727097396335581</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.41272902603664419</v>
       </c>
       <c r="K31">
-        <v>56325</v>
+        <v>59903</v>
       </c>
       <c r="L31">
-        <v>28811</v>
+        <v>25233</v>
       </c>
       <c r="M31">
         <v>85136</v>
       </c>
-      <c r="O31" s="12">
-        <v>0.66158851719601575</v>
-      </c>
-      <c r="P31" s="12">
-        <v>0.3384114828039842</v>
+      <c r="O31" s="1">
+        <v>0.70361539184363842</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.29638460815636158</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1997,10 +1991,10 @@
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="1">
         <v>0.62239089184060725</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="1">
         <v>0.3776091081593928</v>
       </c>
       <c r="K32">
@@ -2012,10 +2006,10 @@
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="1">
         <v>0.75003903897204804</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="1">
         <v>0.2499609610279519</v>
       </c>
     </row>
@@ -2024,34 +2018,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E33">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F33">
         <v>1072</v>
       </c>
-      <c r="H33" s="12">
-        <v>0.49533582089552236</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0.50466417910447758</v>
+      <c r="H33" s="1">
+        <v>0.49906716417910446</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.50093283582089554</v>
       </c>
       <c r="K33">
-        <v>46665</v>
+        <v>47025</v>
       </c>
       <c r="L33">
-        <v>29744</v>
+        <v>29384</v>
       </c>
       <c r="M33">
         <v>76409</v>
       </c>
-      <c r="O33" s="12">
-        <v>0.61072648509992278</v>
-      </c>
-      <c r="P33" s="12">
-        <v>0.38927351490007722</v>
+      <c r="O33" s="1">
+        <v>0.61543797196665317</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.38456202803334688</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2067,10 +2061,10 @@
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="1">
         <v>0.42944785276073622</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="1">
         <v>0.57055214723926384</v>
       </c>
       <c r="K34">
@@ -2082,10 +2076,10 @@
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="1">
         <v>0.51827580685743035</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="1">
         <v>0.48172419314256959</v>
       </c>
     </row>
@@ -2102,10 +2096,10 @@
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="1">
         <v>0.47066326530612246</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="1">
         <v>0.52933673469387754</v>
       </c>
       <c r="K35">
@@ -2117,10 +2111,10 @@
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="1">
         <v>0.54841750411401002</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="1">
         <v>0.45158249588598998</v>
       </c>
     </row>
@@ -2129,34 +2123,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E36">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F36">
         <v>821</v>
       </c>
-      <c r="H36" s="12">
-        <v>0.59196102314250909</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0.40803897685749085</v>
+      <c r="H36" s="1">
+        <v>0.60657734470158342</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.39342265529841658</v>
       </c>
       <c r="K36">
-        <v>46586</v>
+        <v>47618</v>
       </c>
       <c r="L36">
-        <v>18249</v>
+        <v>17217</v>
       </c>
       <c r="M36">
         <v>64835</v>
       </c>
-      <c r="O36" s="12">
-        <v>0.71853165728387447</v>
-      </c>
-      <c r="P36" s="12">
-        <v>0.28146834271612553</v>
+      <c r="O36" s="1">
+        <v>0.73444898588725227</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.26555101411274773</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2172,10 +2166,10 @@
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="1">
         <v>0.54081632653061229</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="1">
         <v>0.45918367346938777</v>
       </c>
       <c r="K37">
@@ -2187,10 +2181,10 @@
       <c r="M37">
         <v>57919</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="1">
         <v>0.61952036464717963</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="1">
         <v>0.38047963535282031</v>
       </c>
     </row>
@@ -2199,34 +2193,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E38">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="12">
-        <v>0.37894736842105264</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0.62105263157894741</v>
+      <c r="H38" s="1">
+        <v>0.38684210526315788</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.61315789473684212</v>
       </c>
       <c r="K38">
-        <v>27017</v>
+        <v>27488</v>
       </c>
       <c r="L38">
-        <v>28267</v>
+        <v>27796</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="12">
-        <v>0.48869473988857537</v>
-      </c>
-      <c r="P38" s="12">
-        <v>0.51130526011142463</v>
+      <c r="O38" s="1">
+        <v>0.49721438390854494</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.502785616091455</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2242,10 +2236,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="1">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="1">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2257,10 +2251,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="1">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="1">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2269,34 +2263,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E40">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="12">
-        <v>0.66417910447761197</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0.33582089552238809</v>
+      <c r="H40" s="1">
+        <v>0.66567164179104477</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.33432835820895523</v>
       </c>
       <c r="K40">
-        <v>39336</v>
+        <v>39339</v>
       </c>
       <c r="L40">
-        <v>9729</v>
+        <v>9726</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="12">
-        <v>0.80171201467441144</v>
-      </c>
-      <c r="P40" s="12">
-        <v>0.1982879853255885</v>
+      <c r="O40" s="1">
+        <v>0.80177315805564042</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.19822684194435952</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2312,10 +2306,10 @@
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="1">
         <v>0.38477261113949923</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="1">
         <v>0.61522738886050077</v>
       </c>
       <c r="K41">
@@ -2327,10 +2321,10 @@
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="1">
         <v>0.48357989073721686</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="1">
         <v>0.51642010926278314</v>
       </c>
     </row>
@@ -2339,34 +2333,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E42">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="12">
-        <v>0.44533333333333336</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0.55466666666666664</v>
+      <c r="H42" s="1">
+        <v>0.44933333333333331</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.55066666666666664</v>
       </c>
       <c r="K42">
-        <v>32693</v>
+        <v>32867</v>
       </c>
       <c r="L42">
-        <v>29738</v>
+        <v>29564</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="12">
-        <v>0.52366612740465479</v>
-      </c>
-      <c r="P42" s="12">
-        <v>0.47633387259534526</v>
+      <c r="O42" s="1">
+        <v>0.52645320433758869</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.47354679566241131</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2382,10 +2376,10 @@
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="1">
         <v>0.33213859020310632</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="1">
         <v>0.66786140979689368</v>
       </c>
       <c r="K43">
@@ -2397,10 +2391,10 @@
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="1">
         <v>0.40969465887426948</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="1">
         <v>0.59030534112573052</v>
       </c>
     </row>
@@ -2417,10 +2411,10 @@
       <c r="F44">
         <v>2516</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="1">
         <v>0.23847376788553259</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="1">
         <v>0.76152623211446746</v>
       </c>
       <c r="K44">
@@ -2432,10 +2426,10 @@
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="1">
         <v>0.30604428163551151</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="1">
         <v>0.69395571836448855</v>
       </c>
     </row>
@@ -2452,10 +2446,10 @@
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="1">
         <v>0.31919961886612674</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="1">
         <v>0.68080038113387331</v>
       </c>
       <c r="K45">
@@ -2467,10 +2461,10 @@
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O45" s="1">
         <v>0.39665621475578472</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="1">
         <v>0.60334378524421528</v>
       </c>
     </row>
@@ -2487,10 +2481,10 @@
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="1">
         <v>0.39795918367346939</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="1">
         <v>0.60204081632653061</v>
       </c>
       <c r="K46">
@@ -2502,10 +2496,10 @@
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="1">
         <v>0.48807009743988738</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="1">
         <v>0.51192990256011262</v>
       </c>
     </row>
@@ -2514,34 +2508,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E47">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="12">
-        <v>0.41190765492102066</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0.58809234507897934</v>
+      <c r="H47" s="1">
+        <v>0.42770352369380316</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.57229647630619684</v>
       </c>
       <c r="K47">
-        <v>29742</v>
+        <v>30922</v>
       </c>
       <c r="L47">
-        <v>32928</v>
+        <v>31748</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="12">
-        <v>0.47458113930110102</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0.52541886069889898</v>
+      <c r="O47" s="1">
+        <v>0.49340992500398917</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.50659007499601083</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2549,34 +2543,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E48">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="12">
-        <v>0.30496453900709219</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0.69503546099290781</v>
+      <c r="H48" s="1">
+        <v>0.30969267139479906</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.69030732860520094</v>
       </c>
       <c r="K48">
-        <v>24220</v>
+        <v>24519</v>
       </c>
       <c r="L48">
-        <v>43144</v>
+        <v>42845</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="12">
-        <v>0.35953921976129682</v>
-      </c>
-      <c r="P48" s="12">
-        <v>0.64046078023870312</v>
+      <c r="O48" s="1">
+        <v>0.36397779229261923</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.63602220770738083</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2592,10 +2586,10 @@
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="1">
         <v>0.42688330871491875</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="1">
         <v>0.57311669128508125</v>
       </c>
       <c r="K49">
@@ -2607,10 +2601,10 @@
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="1">
         <v>0.5149099498080898</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="1">
         <v>0.48509005019191026</v>
       </c>
     </row>
@@ -2627,10 +2621,10 @@
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="1">
         <v>0.60280373831775702</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="1">
         <v>0.39719626168224298</v>
       </c>
       <c r="K50">
@@ -2642,10 +2636,10 @@
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="1">
         <v>0.71595319033723415</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P50" s="1">
         <v>0.28404680966276585</v>
       </c>
     </row>
@@ -2654,34 +2648,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="E51">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="12">
-        <v>0.40925266903914592</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0.59074733096085408</v>
+      <c r="H51" s="1">
+        <v>0.4208185053380783</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.5791814946619217</v>
       </c>
       <c r="K51">
-        <v>43962</v>
+        <v>45161</v>
       </c>
       <c r="L51">
-        <v>46308</v>
+        <v>45109</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="12">
-        <v>0.48700564971751414</v>
-      </c>
-      <c r="P51" s="12">
-        <v>0.51299435028248586</v>
+      <c r="O51" s="1">
+        <v>0.50028802481444556</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.49971197518555444</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2689,34 +2683,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="E52">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F52">
         <v>3821</v>
       </c>
-      <c r="H52" s="12">
-        <v>0.59434702957341012</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0.40565297042658988</v>
+      <c r="H52" s="1">
+        <v>0.59539387594870452</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.40460612405129548</v>
       </c>
       <c r="K52">
-        <v>232574</v>
+        <v>233030</v>
       </c>
       <c r="L52">
-        <v>111758</v>
+        <v>111302</v>
       </c>
       <c r="M52">
         <v>344332</v>
       </c>
-      <c r="O52" s="12">
-        <v>0.67543533566441694</v>
-      </c>
-      <c r="P52" s="12">
-        <v>0.32456466433558312</v>
+      <c r="O52" s="1">
+        <v>0.67675963895310343</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.32324036104689657</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,10 +2726,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="1">
         <v>0.8</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="1">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2747,10 +2741,10 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="1">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="1">
         <v>0.1043158505902845</v>
       </c>
     </row>
@@ -2761,37 +2755,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>20898</v>
+        <v>21216</v>
       </c>
       <c r="E54" s="13">
-        <v>26215</v>
+        <v>25897</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.44357183792159277</v>
+        <v>0.45032156729565087</v>
       </c>
       <c r="I54" s="14">
-        <v>0.55642816207840728</v>
+        <v>0.54967843270434913</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>1991901</v>
+        <v>2021706</v>
       </c>
       <c r="L54" s="13">
-        <v>1748813</v>
+        <v>1719008</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.53249219266696146</v>
+        <v>0.54045992289172606</v>
       </c>
       <c r="P54" s="14">
-        <v>0.46750780733303854</v>
+        <v>0.45954007710827399</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2802,34 +2796,34 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E55">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="12">
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0.36842105263157893</v>
+      <c r="H55" s="1">
+        <v>0.70877192982456139</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.29122807017543861</v>
       </c>
       <c r="K55">
-        <v>16766</v>
+        <v>18418</v>
       </c>
       <c r="L55">
-        <v>6160</v>
+        <v>4508</v>
       </c>
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="12">
-        <v>0.73130943034109741</v>
-      </c>
-      <c r="P55" s="12">
-        <v>0.26869056965890253</v>
+      <c r="O55" s="1">
+        <v>0.80336735584053043</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.1966326441594696</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2837,34 +2831,34 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E56">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>82</v>
-      </c>
-      <c r="H56" s="12">
-        <v>0.52439024390243905</v>
-      </c>
-      <c r="I56" s="12">
-        <v>0.47560975609756095</v>
+        <v>81</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.80246913580246915</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.19753086419753085</v>
       </c>
       <c r="K56">
-        <v>4101</v>
+        <v>5803</v>
       </c>
       <c r="L56">
-        <v>2929</v>
+        <v>1107</v>
       </c>
       <c r="M56">
-        <v>7030</v>
-      </c>
-      <c r="O56" s="12">
-        <v>0.58335704125177812</v>
-      </c>
-      <c r="P56" s="12">
-        <v>0.41664295874822188</v>
+        <v>6910</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.83979739507959483</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.16020260492040522</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2872,34 +2866,34 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="12">
-        <v>0.30991735537190085</v>
-      </c>
-      <c r="I57" s="12">
-        <v>0.69008264462809921</v>
+      <c r="H57" s="1">
+        <v>0.30578512396694213</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.69421487603305787</v>
       </c>
       <c r="K57">
-        <v>7544</v>
+        <v>7487</v>
       </c>
       <c r="L57">
-        <v>11442</v>
+        <v>11499</v>
       </c>
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="12">
-        <v>0.39734541240914356</v>
-      </c>
-      <c r="P57" s="12">
-        <v>0.60265458759085644</v>
+      <c r="O57" s="1">
+        <v>0.39434320025281788</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.60565679974718212</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2907,34 +2901,34 @@
         <v>63</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="12">
-        <v>0.55882352941176472</v>
-      </c>
-      <c r="I58" s="12">
-        <v>0.44117647058823528</v>
+      <c r="H58" s="1">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.29411764705882354</v>
       </c>
       <c r="K58">
-        <v>3386</v>
+        <v>4166</v>
       </c>
       <c r="L58">
-        <v>2031</v>
+        <v>1251</v>
       </c>
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="12">
-        <v>0.62506922650913788</v>
-      </c>
-      <c r="P58" s="12">
-        <v>0.37493077349086212</v>
+      <c r="O58" s="1">
+        <v>0.76906036551596824</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.23093963448403176</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -2950,10 +2944,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="1">
         <v>0.52760736196319014</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="1">
         <v>0.47239263803680981</v>
       </c>
       <c r="K59">
@@ -2965,10 +2959,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="1">
         <v>0.59978118161925598</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="1">
         <v>0.40021881838074397</v>
       </c>
     </row>
@@ -2977,34 +2971,34 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E60">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="12">
-        <v>0.55769230769230771</v>
-      </c>
-      <c r="I60" s="12">
-        <v>0.44230769230769229</v>
+      <c r="H60" s="1">
+        <v>0.56730769230769229</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.43269230769230771</v>
       </c>
       <c r="K60">
-        <v>5411</v>
+        <v>5462</v>
       </c>
       <c r="L60">
-        <v>2199</v>
+        <v>2148</v>
       </c>
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="12">
-        <v>0.71103810775295662</v>
-      </c>
-      <c r="P60" s="12">
-        <v>0.28896189224704338</v>
+      <c r="O60" s="1">
+        <v>0.71773981603153747</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0.28226018396846253</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,37 +3008,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="E61" s="13">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="F61" s="13">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.50847457627118642</v>
+        <v>0.56627783669141041</v>
       </c>
       <c r="I61" s="14">
-        <v>0.49152542372881358</v>
+        <v>0.43372216330858959</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>45431</v>
+        <v>49559</v>
       </c>
       <c r="L61" s="13">
-        <v>30248</v>
+        <v>26000</v>
       </c>
       <c r="M61" s="13">
-        <v>75679</v>
+        <v>75559</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.60031184344402011</v>
+        <v>0.65589803994229678</v>
       </c>
       <c r="P61" s="14">
-        <v>0.39968815655597989</v>
+        <v>0.34410196005770327</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3063,10 +3057,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="1">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="1">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3078,10 +3072,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O62" s="1">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="1">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3098,10 +3092,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="1">
         <v>0.20338983050847459</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="1">
         <v>0.79661016949152541</v>
       </c>
       <c r="K63">
@@ -3113,10 +3107,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O63" s="1">
         <v>0.24645688205620947</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63" s="1">
         <v>0.75354311794379059</v>
       </c>
     </row>
@@ -3133,10 +3127,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="1">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="1">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3148,10 +3142,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O64" s="1">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P64" s="1">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3160,34 +3154,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E65">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="12">
-        <v>0.26818181818181819</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0.73181818181818181</v>
+      <c r="H65" s="1">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.72727272727272729</v>
       </c>
       <c r="K65">
-        <v>5411</v>
+        <v>5531</v>
       </c>
       <c r="L65">
-        <v>10027</v>
+        <v>9907</v>
       </c>
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="12">
-        <v>0.35049876927063089</v>
-      </c>
-      <c r="P65" s="12">
-        <v>0.64950123072936905</v>
+      <c r="O65" s="1">
+        <v>0.35827179686487887</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.64172820313512113</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3203,10 +3197,10 @@
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="1">
         <v>0.34782608695652173</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="1">
         <v>0.65217391304347827</v>
       </c>
       <c r="K66">
@@ -3218,10 +3212,10 @@
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="12">
+      <c r="O66" s="1">
         <v>0.41053038105046347</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66" s="1">
         <v>0.58946961894953653</v>
       </c>
     </row>
@@ -3238,10 +3232,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="1">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="1">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3253,10 +3247,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="1">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="1">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3265,34 +3259,34 @@
         <v>74</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0.5</v>
+      <c r="H68" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.48</v>
       </c>
       <c r="K68">
-        <v>4594</v>
+        <v>4750</v>
       </c>
       <c r="L68">
-        <v>3038</v>
+        <v>2882</v>
       </c>
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="12">
-        <v>0.60193920335429774</v>
-      </c>
-      <c r="P68" s="12">
-        <v>0.39806079664570232</v>
+      <c r="O68" s="1">
+        <v>0.62237945492662472</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.37762054507337528</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -3308,10 +3302,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="1">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="1">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3323,10 +3317,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O69" s="1">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="12">
+      <c r="P69" s="1">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3343,10 +3337,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="1">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="1">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3358,10 +3352,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="1">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="1">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3378,10 +3372,10 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="1">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="1">
         <v>0.53846153846153844</v>
       </c>
       <c r="K71">
@@ -3393,10 +3387,10 @@
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="12">
+      <c r="O71" s="1">
         <v>0.53277853260869568</v>
       </c>
-      <c r="P71" s="12">
+      <c r="P71" s="1">
         <v>0.46722146739130432</v>
       </c>
     </row>
@@ -3413,10 +3407,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="1">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="1">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3428,10 +3422,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="12">
+      <c r="O72" s="1">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="1">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3448,10 +3442,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="1">
         <v>0.32258064516129031</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="1">
         <v>0.67741935483870963</v>
       </c>
       <c r="K73">
@@ -3463,10 +3457,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="12">
+      <c r="O73" s="1">
         <v>0.4765018389865141</v>
       </c>
-      <c r="P73" s="12">
+      <c r="P73" s="1">
         <v>0.5234981610134859</v>
       </c>
     </row>
@@ -3483,10 +3477,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="1">
         <v>0.25316455696202533</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="1">
         <v>0.74683544303797467</v>
       </c>
       <c r="K74">
@@ -3498,10 +3492,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="12">
+      <c r="O74" s="1">
         <v>0.28923233695652173</v>
       </c>
-      <c r="P74" s="12">
+      <c r="P74" s="1">
         <v>0.71076766304347827</v>
       </c>
     </row>
@@ -3518,10 +3512,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="1">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="1">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3533,10 +3527,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="12">
+      <c r="O75" s="1">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="12">
+      <c r="P75" s="1">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3553,10 +3547,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="1">
         <v>0.48076923076923078</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="1">
         <v>0.51923076923076927</v>
       </c>
       <c r="K76">
@@ -3568,10 +3562,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="12">
+      <c r="O76" s="1">
         <v>0.59698169223156849</v>
       </c>
-      <c r="P76" s="12">
+      <c r="P76" s="1">
         <v>0.40301830776843145</v>
       </c>
     </row>
@@ -3588,10 +3582,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="1">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="1">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3603,10 +3597,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="12">
+      <c r="O77" s="1">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="12">
+      <c r="P77" s="1">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3623,10 +3617,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="1">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="1">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3638,10 +3632,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="12">
+      <c r="O78" s="1">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="12">
+      <c r="P78" s="1">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3650,34 +3644,34 @@
         <v>85</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F79">
-        <v>14</v>
-      </c>
-      <c r="H79" s="12">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I79" s="12">
-        <v>0.7142857142857143</v>
+        <v>15</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.4</v>
       </c>
       <c r="K79">
-        <v>368</v>
+        <v>884</v>
       </c>
       <c r="L79">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="M79">
-        <v>1080</v>
-      </c>
-      <c r="O79" s="12">
-        <v>0.34074074074074073</v>
-      </c>
-      <c r="P79" s="12">
-        <v>0.65925925925925921</v>
+        <v>1200</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0.73666666666666669</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0.26333333333333331</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -3693,10 +3687,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="1">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="1">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3708,10 +3702,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="12">
+      <c r="O80" s="1">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="12">
+      <c r="P80" s="1">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3728,10 +3722,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="1">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="1">
         <v>0.70967741935483875</v>
       </c>
       <c r="K81">
@@ -3743,10 +3737,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="12">
+      <c r="O81" s="1">
         <v>0.53033586132177679</v>
       </c>
-      <c r="P81" s="12">
+      <c r="P81" s="1">
         <v>0.46966413867822321</v>
       </c>
     </row>
@@ -3763,10 +3757,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="K82">
@@ -3778,10 +3772,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="12">
+      <c r="O82" s="1">
         <v>0.73940871685461751</v>
       </c>
-      <c r="P82" s="12">
+      <c r="P82" s="1">
         <v>0.26059128314538249</v>
       </c>
     </row>
@@ -3798,10 +3792,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="1">
         <v>0.22307692307692309</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="1">
         <v>0.77692307692307694</v>
       </c>
       <c r="K83">
@@ -3813,10 +3807,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="12">
+      <c r="O83" s="1">
         <v>0.28783253379851725</v>
       </c>
-      <c r="P83" s="12">
+      <c r="P83" s="1">
         <v>0.71216746620148275</v>
       </c>
     </row>
@@ -3833,10 +3827,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="1">
         <v>0.55660377358490565</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I84" s="1">
         <v>0.44339622641509435</v>
       </c>
       <c r="K84">
@@ -3848,10 +3842,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="12">
+      <c r="O84" s="1">
         <v>0.66891322662173547</v>
       </c>
-      <c r="P84" s="12">
+      <c r="P84" s="1">
         <v>0.33108677337826453</v>
       </c>
     </row>
@@ -3868,10 +3862,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="1">
         <v>0.4</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="1">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3883,10 +3877,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="12">
+      <c r="O85" s="1">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="12">
+      <c r="P85" s="1">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3903,10 +3897,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="1">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="1">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3918,10 +3912,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="12">
+      <c r="O86" s="1">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="12">
+      <c r="P86" s="1">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3938,10 +3932,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="1">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="1">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3953,10 +3947,10 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="12">
+      <c r="O87" s="1">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="12">
+      <c r="P87" s="1">
         <v>0.57557930123664303</v>
       </c>
     </row>
@@ -3967,37 +3961,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="E88" s="13">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="F88" s="13">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.3472998137802607</v>
+        <v>0.35086086551884599</v>
       </c>
       <c r="I88" s="14">
-        <v>0.65270018621973924</v>
+        <v>0.64913913448115401</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>68992</v>
+        <v>69784</v>
       </c>
       <c r="L88" s="13">
-        <v>90485</v>
+        <v>89813</v>
       </c>
       <c r="M88" s="13">
-        <v>159477</v>
+        <v>159597</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.43261410736344424</v>
+        <v>0.43725132677932543</v>
       </c>
       <c r="P88" s="14">
-        <v>0.5673858926365557</v>
+        <v>0.56274867322067457</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4016,10 +4010,10 @@
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="1">
         <v>0.54838709677419351</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="1">
         <v>0.45161290322580644</v>
       </c>
       <c r="K89">
@@ -4031,10 +4025,10 @@
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="12">
+      <c r="O89" s="1">
         <v>0.66038794485411989</v>
       </c>
-      <c r="P89" s="12">
+      <c r="P89" s="1">
         <v>0.33961205514588011</v>
       </c>
     </row>
@@ -4094,10 +4088,10 @@
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="1">
         <v>0.58004158004158002</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="1">
         <v>0.41995841995841998</v>
       </c>
       <c r="K91">
@@ -4109,10 +4103,10 @@
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="12">
+      <c r="O91" s="1">
         <v>0.66833014428298076</v>
       </c>
-      <c r="P91" s="12">
+      <c r="P91" s="1">
         <v>0.33166985571701918</v>
       </c>
     </row>
@@ -4121,34 +4115,34 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E92">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="I92" s="12">
-        <v>0.4</v>
+      <c r="H92" s="1">
+        <v>0.63478260869565217</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.36521739130434783</v>
       </c>
       <c r="K92">
-        <v>26452</v>
+        <v>27919</v>
       </c>
       <c r="L92">
-        <v>14037</v>
+        <v>12570</v>
       </c>
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="12">
-        <v>0.65331324557287163</v>
-      </c>
-      <c r="P92" s="12">
-        <v>0.34668675442712837</v>
+      <c r="O92" s="1">
+        <v>0.68954530860233643</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.31045469139766357</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4156,34 +4150,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="E93">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F93">
         <v>903</v>
       </c>
-      <c r="H93" s="12">
-        <v>0.56146179401993357</v>
-      </c>
-      <c r="I93" s="12">
-        <v>0.43853820598006643</v>
+      <c r="H93" s="1">
+        <v>0.58028792912513838</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.41971207087486156</v>
       </c>
       <c r="K93">
-        <v>49580</v>
+        <v>51039</v>
       </c>
       <c r="L93">
-        <v>25901</v>
+        <v>24442</v>
       </c>
       <c r="M93">
         <v>75481</v>
       </c>
-      <c r="O93" s="12">
-        <v>0.65685404273923242</v>
-      </c>
-      <c r="P93" s="12">
-        <v>0.34314595726076763</v>
+      <c r="O93" s="1">
+        <v>0.67618341039466889</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.32381658960533116</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4191,34 +4185,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E94">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="12">
-        <v>0.40059790732436473</v>
-      </c>
-      <c r="I94" s="12">
-        <v>0.59940209267563527</v>
+      <c r="H94" s="1">
+        <v>0.41106128550074739</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.58893871449925261</v>
       </c>
       <c r="K94">
-        <v>26262</v>
+        <v>26828</v>
       </c>
       <c r="L94">
-        <v>31405</v>
+        <v>30839</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="12">
-        <v>0.4554077722094092</v>
-      </c>
-      <c r="P94" s="12">
-        <v>0.5445922277905908</v>
+      <c r="O94" s="1">
+        <v>0.46522274437720013</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0.53477725562279987</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4234,10 +4228,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="1">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="1">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4249,10 +4243,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="12">
+      <c r="O95" s="1">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="12">
+      <c r="P95" s="1">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4269,10 +4263,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="1">
         <v>0.7432432432432432</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="1">
         <v>0.25675675675675674</v>
       </c>
       <c r="K96">
@@ -4284,10 +4278,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="12">
+      <c r="O96" s="1">
         <v>0.85409577558303595</v>
       </c>
-      <c r="P96" s="12">
+      <c r="P96" s="1">
         <v>0.14590422441696407</v>
       </c>
     </row>
@@ -4304,10 +4298,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="1">
         <v>0.84536082474226804</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="1">
         <v>0.15463917525773196</v>
       </c>
       <c r="K97">
@@ -4319,10 +4313,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="12">
+      <c r="O97" s="1">
         <v>0.93415738587688169</v>
       </c>
-      <c r="P97" s="12">
+      <c r="P97" s="1">
         <v>6.5842614123118343E-2</v>
       </c>
     </row>
@@ -4339,10 +4333,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="1">
         <v>0.83760683760683763</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="1">
         <v>0.1623931623931624</v>
       </c>
       <c r="K98">
@@ -4354,10 +4348,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="12">
+      <c r="O98" s="1">
         <v>0.93199088145896658</v>
       </c>
-      <c r="P98" s="12">
+      <c r="P98" s="1">
         <v>6.8009118541033434E-2</v>
       </c>
     </row>
@@ -4374,10 +4368,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="1">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="1">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4389,10 +4383,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="12">
+      <c r="O99" s="1">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="12">
+      <c r="P99" s="1">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4409,10 +4403,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="1">
         <v>0.53846153846153844</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="1">
         <v>0.46153846153846156</v>
       </c>
       <c r="K100">
@@ -4424,10 +4418,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="12">
+      <c r="O100" s="1">
         <v>0.62799925135691559</v>
       </c>
-      <c r="P100" s="12">
+      <c r="P100" s="1">
         <v>0.37200074864308441</v>
       </c>
     </row>
@@ -4444,10 +4438,10 @@
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="1">
         <v>0.40163934426229508</v>
       </c>
-      <c r="I101" s="12">
+      <c r="I101" s="1">
         <v>0.59836065573770492</v>
       </c>
       <c r="K101">
@@ -4459,10 +4453,10 @@
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="12">
+      <c r="O101" s="1">
         <v>0.4613834788448623</v>
       </c>
-      <c r="P101" s="12">
+      <c r="P101" s="1">
         <v>0.5386165211551377</v>
       </c>
     </row>
@@ -4479,10 +4473,10 @@
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102" s="1">
         <v>0.74285714285714288</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="1">
         <v>0.25714285714285712</v>
       </c>
       <c r="K102">
@@ -4494,10 +4488,10 @@
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="12">
+      <c r="O102" s="1">
         <v>0.84319569642337888</v>
       </c>
-      <c r="P102" s="12">
+      <c r="P102" s="1">
         <v>0.15680430357662112</v>
       </c>
     </row>
@@ -4514,10 +4508,10 @@
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="1">
         <v>0.56955380577427817</v>
       </c>
-      <c r="I103" s="12">
+      <c r="I103" s="1">
         <v>0.43044619422572178</v>
       </c>
       <c r="K103">
@@ -4529,10 +4523,10 @@
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="12">
+      <c r="O103" s="1">
         <v>0.64815033683961709</v>
       </c>
-      <c r="P103" s="12">
+      <c r="P103" s="1">
         <v>0.35184966316038291</v>
       </c>
     </row>
@@ -4549,10 +4543,10 @@
       <c r="F104">
         <v>893</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="1">
         <v>0.54759238521836506</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="1">
         <v>0.45240761478163494</v>
       </c>
       <c r="K104">
@@ -4564,10 +4558,10 @@
       <c r="M104">
         <v>69329</v>
       </c>
-      <c r="O104" s="12">
+      <c r="O104" s="1">
         <v>0.63233279003014609</v>
       </c>
-      <c r="P104" s="12">
+      <c r="P104" s="1">
         <v>0.36766720996985386</v>
       </c>
     </row>
@@ -4584,10 +4578,10 @@
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="1">
         <v>0.62758620689655176</v>
       </c>
-      <c r="I105" s="12">
+      <c r="I105" s="1">
         <v>0.3724137931034483</v>
       </c>
       <c r="K105">
@@ -4599,10 +4593,10 @@
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="12">
+      <c r="O105" s="1">
         <v>0.70583101943673143</v>
       </c>
-      <c r="P105" s="12">
+      <c r="P105" s="1">
         <v>0.29416898056326857</v>
       </c>
     </row>
@@ -4619,10 +4613,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="1">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="1">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4634,10 +4628,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="12">
+      <c r="O106" s="1">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="12">
+      <c r="P106" s="1">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4654,10 +4648,10 @@
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="1">
         <v>0.38720538720538722</v>
       </c>
-      <c r="I107" s="12">
+      <c r="I107" s="1">
         <v>0.61279461279461278</v>
       </c>
       <c r="K107">
@@ -4669,10 +4663,10 @@
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="12">
+      <c r="O107" s="1">
         <v>0.42278008298755188</v>
       </c>
-      <c r="P107" s="12">
+      <c r="P107" s="1">
         <v>0.57721991701244812</v>
       </c>
     </row>
@@ -4681,34 +4675,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E108">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="12">
-        <v>0.49534450651769085</v>
-      </c>
-      <c r="I108" s="12">
-        <v>0.50465549348230909</v>
+      <c r="H108" s="1">
+        <v>0.4972067039106145</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.5027932960893855</v>
       </c>
       <c r="K108">
-        <v>26166</v>
+        <v>26250</v>
       </c>
       <c r="L108">
-        <v>20258</v>
+        <v>20174</v>
       </c>
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="12">
-        <v>0.5636308805790109</v>
-      </c>
-      <c r="P108" s="12">
-        <v>0.43636911942098916</v>
+      <c r="O108" s="1">
+        <v>0.56544028950542824</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0.43455971049457176</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4724,10 +4718,10 @@
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="1">
         <v>0.66351606805293006</v>
       </c>
-      <c r="I109" s="12">
+      <c r="I109" s="1">
         <v>0.33648393194706994</v>
       </c>
       <c r="K109">
@@ -4739,10 +4733,10 @@
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="12">
+      <c r="O109" s="1">
         <v>0.74544633448743036</v>
       </c>
-      <c r="P109" s="12">
+      <c r="P109" s="1">
         <v>0.25455366551256964</v>
       </c>
     </row>
@@ -4759,10 +4753,10 @@
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="1">
         <v>0.49122807017543857</v>
       </c>
-      <c r="I110" s="12">
+      <c r="I110" s="1">
         <v>0.50877192982456143</v>
       </c>
       <c r="K110">
@@ -4774,10 +4768,10 @@
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="12">
+      <c r="O110" s="1">
         <v>0.54898034853540967</v>
       </c>
-      <c r="P110" s="12">
+      <c r="P110" s="1">
         <v>0.45101965146459028</v>
       </c>
     </row>
@@ -4794,10 +4788,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="1">
         <v>0.55072463768115942</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="1">
         <v>0.44927536231884058</v>
       </c>
       <c r="K111">
@@ -4809,10 +4803,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="12">
+      <c r="O111" s="1">
         <v>0.59949740851264333</v>
       </c>
-      <c r="P111" s="12">
+      <c r="P111" s="1">
         <v>0.40050259148735667</v>
       </c>
     </row>
@@ -4829,10 +4823,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="1">
         <v>0.88124999999999998</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="1">
         <v>0.11874999999999999</v>
       </c>
       <c r="K112">
@@ -4844,10 +4838,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="12">
+      <c r="O112" s="1">
         <v>0.94755093194625051</v>
       </c>
-      <c r="P112" s="12">
+      <c r="P112" s="1">
         <v>5.2449068053749458E-2</v>
       </c>
     </row>
@@ -4864,10 +4858,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="1">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="12">
+      <c r="I113" s="1">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4879,10 +4873,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="12">
+      <c r="O113" s="1">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="12">
+      <c r="P113" s="1">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4899,10 +4893,10 @@
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="12">
+      <c r="H114" s="1">
         <v>0.47762747138397504</v>
       </c>
-      <c r="I114" s="12">
+      <c r="I114" s="1">
         <v>0.52237252861602501</v>
       </c>
       <c r="K114">
@@ -4914,10 +4908,10 @@
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="12">
+      <c r="O114" s="1">
         <v>0.57186580809285315</v>
       </c>
-      <c r="P114" s="12">
+      <c r="P114" s="1">
         <v>0.42813419190714685</v>
       </c>
     </row>
@@ -4934,10 +4928,10 @@
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="1">
         <v>0.66898148148148151</v>
       </c>
-      <c r="I115" s="12">
+      <c r="I115" s="1">
         <v>0.33101851851851855</v>
       </c>
       <c r="K115">
@@ -4949,10 +4943,10 @@
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="12">
+      <c r="O115" s="1">
         <v>0.72644862711419644</v>
       </c>
-      <c r="P115" s="12">
+      <c r="P115" s="1">
         <v>0.27355137288580356</v>
       </c>
     </row>
@@ -4969,10 +4963,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="1">
         <v>0.44758064516129031</v>
       </c>
-      <c r="I116" s="12">
+      <c r="I116" s="1">
         <v>0.55241935483870963</v>
       </c>
       <c r="K116">
@@ -4984,10 +4978,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="12">
+      <c r="O116" s="1">
         <v>0.56168319840853209</v>
       </c>
-      <c r="P116" s="12">
+      <c r="P116" s="1">
         <v>0.43831680159146796</v>
       </c>
     </row>
@@ -5004,10 +4998,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="1">
         <v>0.5964125560538116</v>
       </c>
-      <c r="I117" s="12">
+      <c r="I117" s="1">
         <v>0.40358744394618834</v>
       </c>
       <c r="K117">
@@ -5019,10 +5013,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="12">
+      <c r="O117" s="1">
         <v>0.72329987594451339</v>
       </c>
-      <c r="P117" s="12">
+      <c r="P117" s="1">
         <v>0.27670012405548666</v>
       </c>
     </row>
@@ -5039,10 +5033,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="1">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="1">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5054,10 +5048,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="12">
+      <c r="O118" s="1">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="12">
+      <c r="P118" s="1">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5074,10 +5068,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="1">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="12">
+      <c r="I119" s="1">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5089,10 +5083,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="12">
+      <c r="O119" s="1">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="12">
+      <c r="P119" s="1">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5109,10 +5103,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="1">
         <v>0.5757575757575758</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="1">
         <v>0.42424242424242425</v>
       </c>
       <c r="K120">
@@ -5124,10 +5118,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="12">
+      <c r="O120" s="1">
         <v>0.661028088121839</v>
       </c>
-      <c r="P120" s="12">
+      <c r="P120" s="1">
         <v>0.338971911878161</v>
       </c>
     </row>
@@ -5144,10 +5138,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="1">
         <v>0.59433962264150941</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="1">
         <v>0.40566037735849059</v>
       </c>
       <c r="K121">
@@ -5159,10 +5153,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="12">
+      <c r="O121" s="1">
         <v>0.72589531680440766</v>
       </c>
-      <c r="P121" s="12">
+      <c r="P121" s="1">
         <v>0.27410468319559228</v>
       </c>
     </row>
@@ -5179,10 +5173,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="1">
         <v>0.52</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="1">
         <v>0.48</v>
       </c>
       <c r="K122">
@@ -5194,10 +5188,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="12">
+      <c r="O122" s="1">
         <v>0.57712230215827343</v>
       </c>
-      <c r="P122" s="12">
+      <c r="P122" s="1">
         <v>0.42287769784172663</v>
       </c>
     </row>
@@ -5206,34 +5200,34 @@
         <v>130</v>
       </c>
       <c r="D123">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E123">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="12">
-        <v>0.49206349206349204</v>
-      </c>
-      <c r="I123" s="12">
-        <v>0.50793650793650791</v>
+      <c r="H123" s="1">
+        <v>0.81746031746031744</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.18253968253968253</v>
       </c>
       <c r="K123">
-        <v>6609</v>
+        <v>10039</v>
       </c>
       <c r="L123">
-        <v>4855</v>
+        <v>1425</v>
       </c>
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="12">
-        <v>0.57650034891835311</v>
-      </c>
-      <c r="P123" s="12">
-        <v>0.42349965108164689</v>
+      <c r="O123" s="1">
+        <v>0.87569783670621071</v>
+      </c>
+      <c r="P123" s="1">
+        <v>0.12430216329378925</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5243,37 +5237,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>5802</v>
+        <v>5884</v>
       </c>
       <c r="E124" s="13">
-        <v>4632</v>
+        <v>4550</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.55606670500287525</v>
+        <v>0.56392562775541499</v>
       </c>
       <c r="I124" s="14">
-        <v>0.44393329499712481</v>
+        <v>0.43607437224458501</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>556979</v>
+        <v>563985</v>
       </c>
       <c r="L124" s="13">
-        <v>312643</v>
+        <v>305637</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.64048402639307656</v>
+        <v>0.64854040031185967</v>
       </c>
       <c r="P124" s="14">
-        <v>0.35951597360692344</v>
+        <v>0.35145959968814039</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5292,10 +5286,10 @@
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="1">
         <v>0.70629370629370625</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="1">
         <v>0.2937062937062937</v>
       </c>
       <c r="K125">
@@ -5307,10 +5301,10 @@
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="12">
+      <c r="O125" s="1">
         <v>0.80172957391226018</v>
       </c>
-      <c r="P125" s="12">
+      <c r="P125" s="1">
         <v>0.19827042608773984</v>
       </c>
     </row>
@@ -5327,10 +5321,10 @@
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="1">
         <v>0.5661577608142494</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="1">
         <v>0.43384223918575066</v>
       </c>
       <c r="K126">
@@ -5342,10 +5336,10 @@
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="12">
+      <c r="O126" s="1">
         <v>0.64853706201315686</v>
       </c>
-      <c r="P126" s="12">
+      <c r="P126" s="1">
         <v>0.35146293798684319</v>
       </c>
     </row>
@@ -5362,10 +5356,10 @@
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="1">
         <v>0.53745318352059923</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="1">
         <v>0.46254681647940077</v>
       </c>
       <c r="K127">
@@ -5377,10 +5371,10 @@
       <c r="M127">
         <v>41287</v>
       </c>
-      <c r="O127" s="12">
+      <c r="O127" s="1">
         <v>0.64804902269479492</v>
       </c>
-      <c r="P127" s="12">
+      <c r="P127" s="1">
         <v>0.35195097730520503</v>
       </c>
     </row>
@@ -5397,10 +5391,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H128" s="1">
         <v>0.4955357142857143</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="1">
         <v>0.5044642857142857</v>
       </c>
       <c r="K128">
@@ -5412,10 +5406,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="12">
+      <c r="O128" s="1">
         <v>0.65993523697380041</v>
       </c>
-      <c r="P128" s="12">
+      <c r="P128" s="1">
         <v>0.34006476302619959</v>
       </c>
     </row>
@@ -5432,10 +5426,10 @@
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H129" s="1">
         <v>0.77990430622009566</v>
       </c>
-      <c r="I129" s="12">
+      <c r="I129" s="1">
         <v>0.22009569377990432</v>
       </c>
       <c r="K129">
@@ -5447,10 +5441,10 @@
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="12">
+      <c r="O129" s="1">
         <v>0.89405986903648271</v>
       </c>
-      <c r="P129" s="12">
+      <c r="P129" s="1">
         <v>0.1059401309635173</v>
       </c>
     </row>
@@ -5467,10 +5461,10 @@
       <c r="F130">
         <v>481</v>
       </c>
-      <c r="H130" s="12">
+      <c r="H130" s="1">
         <v>0.42203742203742206</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="1">
         <v>0.57796257796257799</v>
       </c>
       <c r="K130">
@@ -5482,10 +5476,10 @@
       <c r="M130">
         <v>39373</v>
       </c>
-      <c r="O130" s="12">
+      <c r="O130" s="1">
         <v>0.51329591344322256</v>
       </c>
-      <c r="P130" s="12">
+      <c r="P130" s="1">
         <v>0.48670408655677749</v>
       </c>
     </row>
@@ -5494,34 +5488,34 @@
         <v>139</v>
       </c>
       <c r="D131">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E131">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I131" s="12">
-        <v>0.5</v>
+      <c r="H131" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.46875</v>
       </c>
       <c r="K131">
-        <v>9239</v>
+        <v>9795</v>
       </c>
       <c r="L131">
-        <v>7270</v>
+        <v>6714</v>
       </c>
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="12">
-        <v>0.55963413895450964</v>
-      </c>
-      <c r="P131" s="12">
-        <v>0.44036586104549036</v>
+      <c r="O131" s="1">
+        <v>0.59331273850626931</v>
+      </c>
+      <c r="P131" s="1">
+        <v>0.40668726149373069</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -5529,34 +5523,34 @@
         <v>140</v>
       </c>
       <c r="D132">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E132">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="12">
-        <v>0.48480662983425415</v>
-      </c>
-      <c r="I132" s="12">
-        <v>0.51519337016574585</v>
+      <c r="H132" s="1">
+        <v>0.48756906077348067</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0.51243093922651939</v>
       </c>
       <c r="K132">
-        <v>34682</v>
+        <v>34706</v>
       </c>
       <c r="L132">
-        <v>25704</v>
+        <v>25680</v>
       </c>
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="12">
-        <v>0.57433842281323488</v>
-      </c>
-      <c r="P132" s="12">
-        <v>0.42566157718676512</v>
+      <c r="O132" s="1">
+        <v>0.5747358659291889</v>
+      </c>
+      <c r="P132" s="1">
+        <v>0.4252641340708111</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5572,10 +5566,10 @@
       <c r="F133">
         <v>307</v>
       </c>
-      <c r="H133" s="12">
+      <c r="H133" s="1">
         <v>0.65798045602605859</v>
       </c>
-      <c r="I133" s="12">
+      <c r="I133" s="1">
         <v>0.34201954397394135</v>
       </c>
       <c r="K133">
@@ -5587,10 +5581,10 @@
       <c r="M133">
         <v>22636</v>
       </c>
-      <c r="O133" s="12">
+      <c r="O133" s="1">
         <v>0.79435412617070156</v>
       </c>
-      <c r="P133" s="12">
+      <c r="P133" s="1">
         <v>0.20564587382929847</v>
       </c>
     </row>
@@ -5607,10 +5601,10 @@
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="12">
+      <c r="H134" s="1">
         <v>0.47563805104408352</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="1">
         <v>0.52436194895591648</v>
       </c>
       <c r="K134">
@@ -5622,10 +5616,10 @@
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="12">
+      <c r="O134" s="1">
         <v>0.58674176520892929</v>
       </c>
-      <c r="P134" s="12">
+      <c r="P134" s="1">
         <v>0.41325823479107077</v>
       </c>
     </row>
@@ -5634,34 +5628,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E135">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F135">
         <v>454</v>
       </c>
-      <c r="H135" s="12">
-        <v>0.68942731277533043</v>
-      </c>
-      <c r="I135" s="12">
-        <v>0.31057268722466963</v>
+      <c r="H135" s="1">
+        <v>0.72026431718061679</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.27973568281938327</v>
       </c>
       <c r="K135">
-        <v>23330</v>
+        <v>24397</v>
       </c>
       <c r="L135">
-        <v>6985</v>
+        <v>5918</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="12">
-        <v>0.76958601352465772</v>
-      </c>
-      <c r="P135" s="12">
-        <v>0.23041398647534225</v>
+      <c r="O135" s="1">
+        <v>0.80478311067128483</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0.19521688932871517</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5677,10 +5671,10 @@
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="12">
+      <c r="H136" s="1">
         <v>0.62176165803108807</v>
       </c>
-      <c r="I136" s="12">
+      <c r="I136" s="1">
         <v>0.37823834196891193</v>
       </c>
       <c r="K136">
@@ -5692,10 +5686,10 @@
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="12">
+      <c r="O136" s="1">
         <v>0.75955882352941173</v>
       </c>
-      <c r="P136" s="12">
+      <c r="P136" s="1">
         <v>0.24044117647058824</v>
       </c>
     </row>
@@ -5704,34 +5698,34 @@
         <v>145</v>
       </c>
       <c r="D137">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="E137">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="12">
-        <v>0.43050847457627117</v>
-      </c>
-      <c r="I137" s="12">
-        <v>0.56949152542372883</v>
+      <c r="H137" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0.4</v>
       </c>
       <c r="K137">
-        <v>12795</v>
+        <v>17185</v>
       </c>
       <c r="L137">
-        <v>11676</v>
+        <v>7286</v>
       </c>
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="12">
-        <v>0.52286379796493809</v>
-      </c>
-      <c r="P137" s="12">
-        <v>0.47713620203506191</v>
+      <c r="O137" s="1">
+        <v>0.70225981774345148</v>
+      </c>
+      <c r="P137" s="1">
+        <v>0.29774018225654858</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5741,37 +5735,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>2724</v>
+        <v>2796</v>
       </c>
       <c r="E138" s="13">
-        <v>2249</v>
+        <v>2177</v>
       </c>
       <c r="F138" s="13">
         <v>4973</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.54775789262014885</v>
+        <v>0.56223607480394133</v>
       </c>
       <c r="I138" s="14">
-        <v>0.45224210737985121</v>
+        <v>0.43776392519605872</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>257745</v>
+        <v>263782</v>
       </c>
       <c r="L138" s="13">
-        <v>142595</v>
+        <v>136558</v>
       </c>
       <c r="M138" s="13">
         <v>400340</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.6438152570315232</v>
+        <v>0.6588949393015936</v>
       </c>
       <c r="P138" s="14">
-        <v>0.3561847429684768</v>
+        <v>0.34110506069840635</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,37 +5775,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>30821</v>
+        <v>31368</v>
       </c>
       <c r="E139" s="13">
-        <v>35192</v>
+        <v>34645</v>
       </c>
       <c r="F139" s="13">
         <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.46689288473482493</v>
+        <v>0.47517913138321238</v>
       </c>
       <c r="I139" s="14">
-        <v>0.53310711526517507</v>
+        <v>0.52482086861678756</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>2936653</v>
+        <v>2985496</v>
       </c>
       <c r="L139" s="13">
-        <v>2339284</v>
+        <v>2290441</v>
       </c>
       <c r="M139" s="13">
         <v>5275937</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.55661259791388717</v>
+        <v>0.56587028995986877</v>
       </c>
       <c r="P139" s="14">
-        <v>0.44338740208611288</v>
+        <v>0.43412971004013123</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC716A4E-006D-4028-B99D-B9D07E19CB79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F383BA9F-F229-4B2E-9872-AA174274F1FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FDBED0D-502A-45BF-A27F-55B7A2423249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11081E92-E4C6-4283-8F8E-1F4F17589828}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -574,6 +573,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF8C78F-2AB1-409D-ACCE-A64D241FCF84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2524617A-7BA4-4344-9313-DC3BBBC79F97}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -902,100 +902,100 @@
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1012,10 +1012,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="K4">
@@ -1024,10 +1024,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="13">
         <v>1</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1044,10 +1044,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="13">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="13">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1059,10 +1059,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="13">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="13">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1076,10 +1076,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="K6">
@@ -1088,10 +1088,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="13">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1108,10 +1108,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="13">
         <v>0.4336283185840708</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="13">
         <v>0.5663716814159292</v>
       </c>
       <c r="K7">
@@ -1123,10 +1123,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="13">
         <v>0.53098745890661148</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="13">
         <v>0.46901254109338852</v>
       </c>
     </row>
@@ -1143,10 +1143,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="13">
         <v>0.75</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="13">
         <v>0.25</v>
       </c>
       <c r="K8">
@@ -1158,46 +1158,46 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="13">
         <v>0.64319248826291076</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="13">
         <v>0.35680751173708919</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>99</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>147</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>246</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="14">
         <v>0.40243902439024393</v>
       </c>
       <c r="I9" s="14">
         <v>0.59756097560975607</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
         <v>8441</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>9188</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>17629</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="14">
         <v>0.47881331896307222</v>
       </c>
@@ -1221,10 +1221,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="13">
         <v>0.58837772397094434</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="13">
         <v>0.41162227602905571</v>
       </c>
       <c r="K10">
@@ -1236,10 +1236,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="13">
         <v>0.68093952651338852</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="13">
         <v>0.31906047348661143</v>
       </c>
     </row>
@@ -1256,10 +1256,10 @@
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="13">
         <v>0.46675191815856776</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="13">
         <v>0.53324808184143224</v>
       </c>
       <c r="K11">
@@ -1271,10 +1271,10 @@
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="13">
         <v>0.57060628051194084</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="13">
         <v>0.4293937194880591</v>
       </c>
     </row>
@@ -1291,10 +1291,10 @@
       <c r="F12">
         <v>574</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="13">
         <v>0.40766550522648082</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="13">
         <v>0.59233449477351918</v>
       </c>
       <c r="K12">
@@ -1306,10 +1306,10 @@
       <c r="M12">
         <v>43861</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="13">
         <v>0.48074599302341486</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="13">
         <v>0.51925400697658508</v>
       </c>
     </row>
@@ -1326,10 +1326,10 @@
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="13">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="13">
         <v>0.55555555555555558</v>
       </c>
       <c r="K13">
@@ -1341,10 +1341,10 @@
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="13">
         <v>0.53631273200092278</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="13">
         <v>0.46368726799907722</v>
       </c>
     </row>
@@ -1353,34 +1353,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E14">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.4977416440831075</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.5022583559168925</v>
+      <c r="H14" s="13">
+        <v>0.49864498644986449</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.50135501355013545</v>
       </c>
       <c r="K14">
-        <v>52767</v>
+        <v>52785</v>
       </c>
       <c r="L14">
-        <v>39592</v>
+        <v>39574</v>
       </c>
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="1">
-        <v>0.57132493855498656</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.42867506144501349</v>
+      <c r="O14" s="13">
+        <v>0.57151983022769848</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0.42848016977230158</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1388,34 +1388,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E15">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.473792394655704</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.526207605344296</v>
+      <c r="H15" s="13">
+        <v>0.47790339157245632</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.52209660842754368</v>
       </c>
       <c r="K15">
-        <v>42446</v>
+        <v>42775</v>
       </c>
       <c r="L15">
-        <v>31930</v>
+        <v>31601</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="1">
-        <v>0.57069484780036572</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.42930515219963428</v>
+      <c r="O15" s="13">
+        <v>0.57511831773690436</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.42488168226309564</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1431,10 +1431,10 @@
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="13">
         <v>0.70110701107011075</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="13">
         <v>0.2988929889298893</v>
       </c>
       <c r="K16">
@@ -1446,10 +1446,10 @@
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="13">
         <v>0.79260426770126091</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="13">
         <v>0.20739573229873909</v>
       </c>
     </row>
@@ -1466,10 +1466,10 @@
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="13">
         <v>0.35918367346938773</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="13">
         <v>0.64081632653061227</v>
       </c>
       <c r="K17">
@@ -1481,10 +1481,10 @@
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="13">
         <v>0.4106147154131351</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="13">
         <v>0.5893852845868649</v>
       </c>
     </row>
@@ -1493,34 +1493,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1051</v>
+        <v>1106</v>
       </c>
       <c r="E18">
-        <v>1500</v>
+        <v>1445</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.41199529596236772</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.58800470403763228</v>
+      <c r="H18" s="13">
+        <v>0.43355546844374754</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.56644453155625241</v>
       </c>
       <c r="K18">
-        <v>98873</v>
+        <v>103337</v>
       </c>
       <c r="L18">
-        <v>95348</v>
+        <v>90884</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="1">
-        <v>0.50907471385689496</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.49092528614310504</v>
+      <c r="O18" s="13">
+        <v>0.53205884018720939</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.46794115981279061</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1528,34 +1528,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E19">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.36753926701570683</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.63246073298429317</v>
+      <c r="H19" s="13">
+        <v>0.37591623036649213</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.62408376963350787</v>
       </c>
       <c r="K19">
-        <v>32529</v>
+        <v>33203</v>
       </c>
       <c r="L19">
-        <v>38450</v>
+        <v>37776</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="1">
-        <v>0.45829048028290059</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0.54170951971709946</v>
+      <c r="O19" s="13">
+        <v>0.46778624663632906</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.53221375336367094</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1563,34 +1563,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E20">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F20">
         <v>663</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.64404223227752644</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.35595776772247362</v>
+      <c r="H20" s="13">
+        <v>0.65912518853695323</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.34087481146304677</v>
       </c>
       <c r="K20">
-        <v>40384</v>
+        <v>41270</v>
       </c>
       <c r="L20">
-        <v>14478</v>
+        <v>13592</v>
       </c>
       <c r="M20">
         <v>54862</v>
       </c>
-      <c r="O20" s="1">
-        <v>0.7361014910138165</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.2638985089861835</v>
+      <c r="O20" s="13">
+        <v>0.75225110276694251</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.24774889723305749</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1598,34 +1598,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="E21">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F21">
         <v>1290</v>
       </c>
-      <c r="H21" s="1">
-        <v>0.35426356589147284</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.6457364341085271</v>
+      <c r="H21" s="13">
+        <v>0.36124031007751939</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0.63875968992248067</v>
       </c>
       <c r="K21">
-        <v>44504</v>
+        <v>45206</v>
       </c>
       <c r="L21">
-        <v>56979</v>
+        <v>56277</v>
       </c>
       <c r="M21">
         <v>101483</v>
       </c>
-      <c r="O21" s="1">
-        <v>0.43853650365085778</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.56146349634914217</v>
+      <c r="O21" s="13">
+        <v>0.44545391839027226</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0.55454608160972774</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1641,10 +1641,10 @@
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="13">
         <v>0.44953350296861749</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="13">
         <v>0.55046649703138251</v>
       </c>
       <c r="K22">
@@ -1656,10 +1656,10 @@
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="13">
         <v>0.53189976153620888</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="13">
         <v>0.46810023846379117</v>
       </c>
     </row>
@@ -1676,10 +1676,10 @@
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="13">
         <v>0.3294596165020337</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="13">
         <v>0.6705403834979663</v>
       </c>
       <c r="K23">
@@ -1691,10 +1691,10 @@
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="13">
         <v>0.40697026802267472</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="13">
         <v>0.59302973197732523</v>
       </c>
     </row>
@@ -1703,34 +1703,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E24">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="1">
-        <v>0.38305084745762713</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.61694915254237293</v>
+      <c r="H24" s="13">
+        <v>0.38983050847457629</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.61016949152542377</v>
       </c>
       <c r="K24">
-        <v>21383</v>
+        <v>21719</v>
       </c>
       <c r="L24">
-        <v>22930</v>
+        <v>22594</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="1">
-        <v>0.48254462573059825</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.5174553742694018</v>
+      <c r="O24" s="13">
+        <v>0.49012705075260082</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0.50987294924739923</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1746,10 +1746,10 @@
       <c r="F25">
         <v>1002</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="13">
         <v>0.42514970059880242</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="13">
         <v>0.57485029940119758</v>
       </c>
       <c r="K25">
@@ -1761,10 +1761,10 @@
       <c r="M25">
         <v>79700</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="13">
         <v>0.51920953575909656</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="13">
         <v>0.48079046424090338</v>
       </c>
     </row>
@@ -1781,10 +1781,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="13">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="13">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1796,10 +1796,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="13">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="13">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1816,10 +1816,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="13">
         <v>0.36254980079681276</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="13">
         <v>0.63745019920318724</v>
       </c>
       <c r="K27">
@@ -1831,10 +1831,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="13">
         <v>0.41574172621762706</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="13">
         <v>0.58425827378237294</v>
       </c>
     </row>
@@ -1843,34 +1843,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E28">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F28">
         <v>2224</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.3601618705035971</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.63983812949640284</v>
+      <c r="H28" s="13">
+        <v>0.36106115107913667</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.63893884892086328</v>
       </c>
       <c r="K28">
-        <v>76093</v>
+        <v>76237</v>
       </c>
       <c r="L28">
-        <v>95241</v>
+        <v>95097</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.44412083999673152</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.55587916000326842</v>
+      <c r="O28" s="13">
+        <v>0.44496130365251496</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0.55503869634748504</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1878,34 +1878,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1842</v>
+        <v>1862</v>
       </c>
       <c r="E29">
-        <v>1268</v>
+        <v>1248</v>
       </c>
       <c r="F29">
         <v>3110</v>
       </c>
-      <c r="H29" s="1">
-        <v>0.59228295819935695</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.40771704180064311</v>
+      <c r="H29" s="13">
+        <v>0.59871382636655945</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0.40128617363344049</v>
       </c>
       <c r="K29">
-        <v>178301</v>
+        <v>180302</v>
       </c>
       <c r="L29">
-        <v>90128</v>
+        <v>88127</v>
       </c>
       <c r="M29">
         <v>268429</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.66423896076802436</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.3357610392319757</v>
+      <c r="O29" s="13">
+        <v>0.67169344593914959</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0.32830655406085035</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1913,34 +1913,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E30">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="1">
-        <v>0.44377510040160645</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.55622489959839361</v>
+      <c r="H30" s="13">
+        <v>0.45582329317269077</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0.54417670682730923</v>
       </c>
       <c r="K30">
-        <v>22508</v>
+        <v>22904</v>
       </c>
       <c r="L30">
-        <v>18232</v>
+        <v>17836</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="1">
-        <v>0.55247913598429066</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.4475208640157094</v>
+      <c r="O30" s="13">
+        <v>0.56219931271477663</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0.43780068728522337</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1956,10 +1956,10 @@
       <c r="F31">
         <v>1037</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="13">
         <v>0.58727097396335581</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="13">
         <v>0.41272902603664419</v>
       </c>
       <c r="K31">
@@ -1971,10 +1971,10 @@
       <c r="M31">
         <v>85136</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="13">
         <v>0.70361539184363842</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="13">
         <v>0.29638460815636158</v>
       </c>
     </row>
@@ -1983,34 +1983,34 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E32">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.62239089184060725</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.3776091081593928</v>
+      <c r="H32" s="13">
+        <v>0.62618595825426948</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.37381404174573057</v>
       </c>
       <c r="K32">
-        <v>33622</v>
+        <v>33850</v>
       </c>
       <c r="L32">
-        <v>11205</v>
+        <v>10977</v>
       </c>
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="1">
-        <v>0.75003903897204804</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.2499609610279519</v>
+      <c r="O32" s="13">
+        <v>0.75512525933031427</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0.24487474066968568</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2026,10 +2026,10 @@
       <c r="F33">
         <v>1072</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="13">
         <v>0.49906716417910446</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="13">
         <v>0.50093283582089554</v>
       </c>
       <c r="K33">
@@ -2041,10 +2041,10 @@
       <c r="M33">
         <v>76409</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="13">
         <v>0.61543797196665317</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="13">
         <v>0.38456202803334688</v>
       </c>
     </row>
@@ -2061,10 +2061,10 @@
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="13">
         <v>0.42944785276073622</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="13">
         <v>0.57055214723926384</v>
       </c>
       <c r="K34">
@@ -2076,10 +2076,10 @@
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="13">
         <v>0.51827580685743035</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="13">
         <v>0.48172419314256959</v>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="13">
         <v>0.47066326530612246</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="13">
         <v>0.52933673469387754</v>
       </c>
       <c r="K35">
@@ -2111,10 +2111,10 @@
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="13">
         <v>0.54841750411401002</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="13">
         <v>0.45158249588598998</v>
       </c>
     </row>
@@ -2131,10 +2131,10 @@
       <c r="F36">
         <v>821</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="13">
         <v>0.60657734470158342</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="13">
         <v>0.39342265529841658</v>
       </c>
       <c r="K36">
@@ -2146,10 +2146,10 @@
       <c r="M36">
         <v>64835</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="13">
         <v>0.73444898588725227</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="13">
         <v>0.26555101411274773</v>
       </c>
     </row>
@@ -2166,10 +2166,10 @@
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="13">
         <v>0.54081632653061229</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="13">
         <v>0.45918367346938777</v>
       </c>
       <c r="K37">
@@ -2181,10 +2181,10 @@
       <c r="M37">
         <v>57919</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="13">
         <v>0.61952036464717963</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="13">
         <v>0.38047963535282031</v>
       </c>
     </row>
@@ -2201,10 +2201,10 @@
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="13">
         <v>0.38684210526315788</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="13">
         <v>0.61315789473684212</v>
       </c>
       <c r="K38">
@@ -2216,10 +2216,10 @@
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="13">
         <v>0.49721438390854494</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="13">
         <v>0.502785616091455</v>
       </c>
     </row>
@@ -2236,10 +2236,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="13">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="13">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2251,10 +2251,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="13">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="13">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2263,34 +2263,34 @@
         <v>44</v>
       </c>
       <c r="D40">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E40">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="1">
-        <v>0.66567164179104477</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.33432835820895523</v>
+      <c r="H40" s="13">
+        <v>0.66417910447761197</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0.33582089552238809</v>
       </c>
       <c r="K40">
-        <v>39339</v>
+        <v>39336</v>
       </c>
       <c r="L40">
-        <v>9726</v>
+        <v>9729</v>
       </c>
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="1">
-        <v>0.80177315805564042</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.19822684194435952</v>
+      <c r="O40" s="13">
+        <v>0.80171201467441144</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0.1982879853255885</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -2306,10 +2306,10 @@
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="13">
         <v>0.38477261113949923</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="13">
         <v>0.61522738886050077</v>
       </c>
       <c r="K41">
@@ -2321,10 +2321,10 @@
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="13">
         <v>0.48357989073721686</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="13">
         <v>0.51642010926278314</v>
       </c>
     </row>
@@ -2333,34 +2333,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E42">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="1">
-        <v>0.44933333333333331</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.55066666666666664</v>
+      <c r="H42" s="13">
+        <v>0.45466666666666666</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0.54533333333333334</v>
       </c>
       <c r="K42">
-        <v>32867</v>
+        <v>33293</v>
       </c>
       <c r="L42">
-        <v>29564</v>
+        <v>29138</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="1">
-        <v>0.52645320433758869</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.47354679566241131</v>
+      <c r="O42" s="13">
+        <v>0.53327673751822013</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0.46672326248177987</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2376,10 +2376,10 @@
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="13">
         <v>0.33213859020310632</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="13">
         <v>0.66786140979689368</v>
       </c>
       <c r="K43">
@@ -2391,10 +2391,10 @@
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="13">
         <v>0.40969465887426948</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="13">
         <v>0.59030534112573052</v>
       </c>
     </row>
@@ -2403,34 +2403,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E44">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
-      <c r="H44" s="1">
-        <v>0.23847376788553259</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.76152623211446746</v>
+      <c r="H44" s="13">
+        <v>0.2404610492845787</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0.75953895071542132</v>
       </c>
       <c r="K44">
-        <v>56811</v>
+        <v>57387</v>
       </c>
       <c r="L44">
-        <v>128819</v>
+        <v>128243</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="1">
-        <v>0.30604428163551151</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.69395571836448855</v>
+      <c r="O44" s="13">
+        <v>0.30914722835748532</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0.69085277164251468</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2438,34 +2438,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E45">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="1">
-        <v>0.31919961886612674</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.68080038113387331</v>
+      <c r="H45" s="13">
+        <v>0.32110528823249168</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0.67889471176750837</v>
       </c>
       <c r="K45">
-        <v>64010</v>
+        <v>64315</v>
       </c>
       <c r="L45">
-        <v>97364</v>
+        <v>97059</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="1">
-        <v>0.39665621475578472</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.60334378524421528</v>
+      <c r="O45" s="13">
+        <v>0.39854623421368995</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0.60145376578631005</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2473,34 +2473,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E46">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="1">
-        <v>0.39795918367346939</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.60204081632653061</v>
+      <c r="H46" s="13">
+        <v>0.40233236151603496</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0.59766763848396498</v>
       </c>
       <c r="K46">
-        <v>26347</v>
+        <v>26459</v>
       </c>
       <c r="L46">
-        <v>27635</v>
+        <v>27523</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="1">
-        <v>0.48807009743988738</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0.51192990256011262</v>
+      <c r="O46" s="13">
+        <v>0.49014486310251565</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0.5098551368974843</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2508,34 +2508,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="E47">
-        <v>471</v>
+        <v>368</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="1">
-        <v>0.42770352369380316</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.57229647630619684</v>
+      <c r="H47" s="13">
+        <v>0.55285540704738756</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0.44714459295261239</v>
       </c>
       <c r="K47">
-        <v>30922</v>
+        <v>40846</v>
       </c>
       <c r="L47">
-        <v>31748</v>
+        <v>21824</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="1">
-        <v>0.49340992500398917</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0.50659007499601083</v>
+      <c r="O47" s="13">
+        <v>0.65176320408488908</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0.34823679591511092</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2543,34 +2543,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E48">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="1">
-        <v>0.30969267139479906</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.69030732860520094</v>
+      <c r="H48" s="13">
+        <v>0.33096926713947988</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0.66903073286052006</v>
       </c>
       <c r="K48">
-        <v>24519</v>
+        <v>26202</v>
       </c>
       <c r="L48">
-        <v>42845</v>
+        <v>41162</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="1">
-        <v>0.36397779229261923</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0.63602220770738083</v>
+      <c r="O48" s="13">
+        <v>0.3889614630960157</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0.61103853690398435</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2578,34 +2578,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E49">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="1">
-        <v>0.42688330871491875</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.57311669128508125</v>
+      <c r="H49" s="13">
+        <v>0.43279172821270312</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0.56720827178729694</v>
       </c>
       <c r="K49">
-        <v>27904</v>
+        <v>28325</v>
       </c>
       <c r="L49">
-        <v>26288</v>
+        <v>25867</v>
       </c>
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="1">
-        <v>0.5149099498080898</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.48509005019191026</v>
+      <c r="O49" s="13">
+        <v>0.52267862415116617</v>
+      </c>
+      <c r="P49" s="13">
+        <v>0.47732137584883377</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2621,10 +2621,10 @@
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="13">
         <v>0.60280373831775702</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="13">
         <v>0.39719626168224298</v>
       </c>
       <c r="K50">
@@ -2636,10 +2636,10 @@
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="13">
         <v>0.71595319033723415</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="13">
         <v>0.28404680966276585</v>
       </c>
     </row>
@@ -2648,34 +2648,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="E51">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="1">
-        <v>0.4208185053380783</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.5791814946619217</v>
+      <c r="H51" s="13">
+        <v>0.45551601423487542</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0.54448398576512458</v>
       </c>
       <c r="K51">
-        <v>45161</v>
+        <v>48566</v>
       </c>
       <c r="L51">
-        <v>45109</v>
+        <v>41704</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="1">
-        <v>0.50028802481444556</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.49971197518555444</v>
+      <c r="O51" s="13">
+        <v>0.53800819762933427</v>
+      </c>
+      <c r="P51" s="13">
+        <v>0.46199180237066578</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2683,34 +2683,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="E52">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="F52">
         <v>3821</v>
       </c>
-      <c r="H52" s="1">
-        <v>0.59539387594870452</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.40460612405129548</v>
+      <c r="H52" s="13">
+        <v>0.59617901073017532</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.40382098926982463</v>
       </c>
       <c r="K52">
-        <v>233030</v>
+        <v>233221</v>
       </c>
       <c r="L52">
-        <v>111302</v>
+        <v>111111</v>
       </c>
       <c r="M52">
         <v>344332</v>
       </c>
-      <c r="O52" s="1">
-        <v>0.67675963895310343</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0.32324036104689657</v>
+      <c r="O52" s="13">
+        <v>0.67731433616393477</v>
+      </c>
+      <c r="P52" s="13">
+        <v>0.32268566383606517</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2726,10 +2726,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="13">
         <v>0.8</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="13">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2741,51 +2741,51 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="13">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="13">
         <v>0.1043158505902845</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13">
-        <v>21216</v>
-      </c>
-      <c r="E54" s="13">
-        <v>25897</v>
-      </c>
-      <c r="F54" s="13">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12">
+        <v>21519</v>
+      </c>
+      <c r="E54" s="12">
+        <v>25594</v>
+      </c>
+      <c r="F54" s="12">
         <v>47113</v>
       </c>
-      <c r="G54" s="13"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="14">
-        <v>0.45032156729565087</v>
+        <v>0.45675291320866851</v>
       </c>
       <c r="I54" s="14">
-        <v>0.54967843270434913</v>
-      </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13">
-        <v>2021706</v>
-      </c>
-      <c r="L54" s="13">
-        <v>1719008</v>
-      </c>
-      <c r="M54" s="13">
+        <v>0.54324708679133149</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12">
+        <v>2048924</v>
+      </c>
+      <c r="L54" s="12">
+        <v>1691790</v>
+      </c>
+      <c r="M54" s="12">
         <v>3740714</v>
       </c>
-      <c r="N54" s="13"/>
+      <c r="N54" s="12"/>
       <c r="O54" s="14">
-        <v>0.54045992289172606</v>
+        <v>0.54773607391530066</v>
       </c>
       <c r="P54" s="14">
-        <v>0.45954007710827399</v>
+        <v>0.45226392608469934</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2804,10 +2804,10 @@
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="13">
         <v>0.70877192982456139</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="13">
         <v>0.29122807017543861</v>
       </c>
       <c r="K55">
@@ -2819,10 +2819,10 @@
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="13">
         <v>0.80336735584053043</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="13">
         <v>0.1966326441594696</v>
       </c>
     </row>
@@ -2839,10 +2839,10 @@
       <c r="F56">
         <v>81</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="13">
         <v>0.80246913580246915</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="13">
         <v>0.19753086419753085</v>
       </c>
       <c r="K56">
@@ -2854,10 +2854,10 @@
       <c r="M56">
         <v>6910</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="13">
         <v>0.83979739507959483</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="13">
         <v>0.16020260492040522</v>
       </c>
     </row>
@@ -2866,34 +2866,34 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E57">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="1">
-        <v>0.30578512396694213</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.69421487603305787</v>
+      <c r="H57" s="13">
+        <v>0.31404958677685951</v>
+      </c>
+      <c r="I57" s="13">
+        <v>0.68595041322314054</v>
       </c>
       <c r="K57">
-        <v>7487</v>
+        <v>7631</v>
       </c>
       <c r="L57">
-        <v>11499</v>
+        <v>11355</v>
       </c>
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="1">
-        <v>0.39434320025281788</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0.60565679974718212</v>
+      <c r="O57" s="13">
+        <v>0.40192773622669337</v>
+      </c>
+      <c r="P57" s="13">
+        <v>0.59807226377330669</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2909,10 +2909,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="13">
         <v>0.70588235294117652</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="13">
         <v>0.29411764705882354</v>
       </c>
       <c r="K58">
@@ -2924,10 +2924,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="13">
         <v>0.76906036551596824</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="13">
         <v>0.23093963448403176</v>
       </c>
     </row>
@@ -2944,10 +2944,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="13">
         <v>0.52760736196319014</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="13">
         <v>0.47239263803680981</v>
       </c>
       <c r="K59">
@@ -2959,10 +2959,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="13">
         <v>0.59978118161925598</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="13">
         <v>0.40021881838074397</v>
       </c>
     </row>
@@ -2979,10 +2979,10 @@
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="13">
         <v>0.56730769230769229</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="13">
         <v>0.43269230769230771</v>
       </c>
       <c r="K60">
@@ -2994,51 +2994,51 @@
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="13">
         <v>0.71773981603153747</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="13">
         <v>0.28226018396846253</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13">
-        <v>534</v>
-      </c>
-      <c r="E61" s="13">
-        <v>409</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12">
+        <v>536</v>
+      </c>
+      <c r="E61" s="12">
+        <v>407</v>
+      </c>
+      <c r="F61" s="12">
         <v>943</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="14">
-        <v>0.56627783669141041</v>
+        <v>0.56839872746553555</v>
       </c>
       <c r="I61" s="14">
-        <v>0.43372216330858959</v>
-      </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13">
-        <v>49559</v>
-      </c>
-      <c r="L61" s="13">
-        <v>26000</v>
-      </c>
-      <c r="M61" s="13">
+        <v>0.43160127253446445</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12">
+        <v>49703</v>
+      </c>
+      <c r="L61" s="12">
+        <v>25856</v>
+      </c>
+      <c r="M61" s="12">
         <v>75559</v>
       </c>
-      <c r="N61" s="13"/>
+      <c r="N61" s="12"/>
       <c r="O61" s="14">
-        <v>0.65589803994229678</v>
+        <v>0.65780383541338561</v>
       </c>
       <c r="P61" s="14">
-        <v>0.34410196005770327</v>
+        <v>0.34219616458661445</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3057,10 +3057,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="13">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="13">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3072,10 +3072,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="13">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="13">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3092,10 +3092,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="13">
         <v>0.20338983050847459</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="13">
         <v>0.79661016949152541</v>
       </c>
       <c r="K63">
@@ -3107,10 +3107,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="13">
         <v>0.24645688205620947</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="13">
         <v>0.75354311794379059</v>
       </c>
     </row>
@@ -3127,10 +3127,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="13">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="13">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3142,10 +3142,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="13">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="13">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="13">
         <v>0.27272727272727271</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="13">
         <v>0.72727272727272729</v>
       </c>
       <c r="K65">
@@ -3177,10 +3177,10 @@
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="13">
         <v>0.35827179686487887</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="13">
         <v>0.64172820313512113</v>
       </c>
     </row>
@@ -3189,34 +3189,34 @@
         <v>72</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E66">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="1">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.65217391304347827</v>
+      <c r="H66" s="13">
+        <v>0.37391304347826088</v>
+      </c>
+      <c r="I66" s="13">
+        <v>0.62608695652173918</v>
       </c>
       <c r="K66">
-        <v>3189</v>
+        <v>3273</v>
       </c>
       <c r="L66">
-        <v>4579</v>
+        <v>4495</v>
       </c>
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="1">
-        <v>0.41053038105046347</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0.58946961894953653</v>
+      <c r="O66" s="13">
+        <v>0.42134397528321316</v>
+      </c>
+      <c r="P66" s="13">
+        <v>0.57865602471678679</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3232,10 +3232,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="13">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="13">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3247,10 +3247,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="13">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="13">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3267,10 +3267,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="13">
         <v>0.52</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="13">
         <v>0.48</v>
       </c>
       <c r="K68">
@@ -3282,10 +3282,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="13">
         <v>0.62237945492662472</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="13">
         <v>0.37762054507337528</v>
       </c>
     </row>
@@ -3302,10 +3302,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="13">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="13">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3317,10 +3317,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="13">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="13">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3337,10 +3337,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="13">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="13">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3352,10 +3352,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="13">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="13">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3372,10 +3372,10 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="13">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="13">
         <v>0.53846153846153844</v>
       </c>
       <c r="K71">
@@ -3387,10 +3387,10 @@
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="13">
         <v>0.53277853260869568</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71" s="13">
         <v>0.46722146739130432</v>
       </c>
     </row>
@@ -3407,10 +3407,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="13">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="13">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3422,10 +3422,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="13">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="13">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3442,10 +3442,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="13">
         <v>0.32258064516129031</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="13">
         <v>0.67741935483870963</v>
       </c>
       <c r="K73">
@@ -3457,10 +3457,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="13">
         <v>0.4765018389865141</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="13">
         <v>0.5234981610134859</v>
       </c>
     </row>
@@ -3477,10 +3477,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="13">
         <v>0.25316455696202533</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="13">
         <v>0.74683544303797467</v>
       </c>
       <c r="K74">
@@ -3492,10 +3492,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="13">
         <v>0.28923233695652173</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="13">
         <v>0.71076766304347827</v>
       </c>
     </row>
@@ -3512,10 +3512,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="13">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="13">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3527,10 +3527,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="13">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="13">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3547,10 +3547,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="13">
         <v>0.48076923076923078</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="13">
         <v>0.51923076923076927</v>
       </c>
       <c r="K76">
@@ -3562,10 +3562,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="13">
         <v>0.59698169223156849</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="13">
         <v>0.40301830776843145</v>
       </c>
     </row>
@@ -3582,10 +3582,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="13">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="13">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3597,10 +3597,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="13">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="13">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3617,10 +3617,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="13">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="13">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3632,10 +3632,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="13">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="13">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3644,34 +3644,34 @@
         <v>85</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F79">
         <v>15</v>
       </c>
-      <c r="H79" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0.4</v>
+      <c r="H79" s="13">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="I79" s="13">
+        <v>0.26666666666666666</v>
       </c>
       <c r="K79">
-        <v>884</v>
+        <v>1016</v>
       </c>
       <c r="L79">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="M79">
         <v>1200</v>
       </c>
-      <c r="O79" s="1">
-        <v>0.73666666666666669</v>
-      </c>
-      <c r="P79" s="1">
-        <v>0.26333333333333331</v>
+      <c r="O79" s="13">
+        <v>0.84666666666666668</v>
+      </c>
+      <c r="P79" s="13">
+        <v>0.15333333333333332</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -3687,10 +3687,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="13">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="13">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3702,10 +3702,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="13">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="13">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3722,10 +3722,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="13">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="13">
         <v>0.70967741935483875</v>
       </c>
       <c r="K81">
@@ -3737,10 +3737,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="13">
         <v>0.53033586132177679</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="13">
         <v>0.46966413867822321</v>
       </c>
     </row>
@@ -3757,10 +3757,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="13">
         <v>0.33333333333333331</v>
       </c>
       <c r="K82">
@@ -3772,10 +3772,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82" s="13">
         <v>0.73940871685461751</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82" s="13">
         <v>0.26059128314538249</v>
       </c>
     </row>
@@ -3792,10 +3792,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="13">
         <v>0.22307692307692309</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="13">
         <v>0.77692307692307694</v>
       </c>
       <c r="K83">
@@ -3807,10 +3807,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="13">
         <v>0.28783253379851725</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="13">
         <v>0.71216746620148275</v>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="13">
         <v>0.55660377358490565</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="13">
         <v>0.44339622641509435</v>
       </c>
       <c r="K84">
@@ -3842,10 +3842,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="13">
         <v>0.66891322662173547</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="13">
         <v>0.33108677337826453</v>
       </c>
     </row>
@@ -3862,10 +3862,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="13">
         <v>0.4</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="13">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3877,10 +3877,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="13">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="13">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3897,10 +3897,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="13">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="13">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3912,10 +3912,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="13">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="13">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3932,10 +3932,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="13">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="13">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3947,51 +3947,51 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="13">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="13">
         <v>0.57557930123664303</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13">
-        <v>754</v>
-      </c>
-      <c r="E88" s="13">
-        <v>1395</v>
-      </c>
-      <c r="F88" s="13">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12">
+        <v>759</v>
+      </c>
+      <c r="E88" s="12">
+        <v>1390</v>
+      </c>
+      <c r="F88" s="12">
         <v>2149</v>
       </c>
-      <c r="G88" s="13"/>
+      <c r="G88" s="12"/>
       <c r="H88" s="14">
-        <v>0.35086086551884599</v>
+        <v>0.35318752908329454</v>
       </c>
       <c r="I88" s="14">
-        <v>0.64913913448115401</v>
-      </c>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13">
-        <v>69784</v>
-      </c>
-      <c r="L88" s="13">
-        <v>89813</v>
-      </c>
-      <c r="M88" s="13">
+        <v>0.64681247091670546</v>
+      </c>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12">
+        <v>70000</v>
+      </c>
+      <c r="L88" s="12">
+        <v>89597</v>
+      </c>
+      <c r="M88" s="12">
         <v>159597</v>
       </c>
-      <c r="N88" s="13"/>
+      <c r="N88" s="12"/>
       <c r="O88" s="14">
-        <v>0.43725132677932543</v>
+        <v>0.43860473567798891</v>
       </c>
       <c r="P88" s="14">
-        <v>0.56274867322067457</v>
+        <v>0.56139526432201103</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4010,10 +4010,10 @@
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="13">
         <v>0.54838709677419351</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="13">
         <v>0.45161290322580644</v>
       </c>
       <c r="K89">
@@ -4025,46 +4025,46 @@
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O89" s="13">
         <v>0.66038794485411989</v>
       </c>
-      <c r="P89" s="1">
+      <c r="P89" s="13">
         <v>0.33961205514588011</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12">
         <v>85</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="12">
         <v>70</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="12">
         <v>155</v>
       </c>
-      <c r="G90" s="13"/>
+      <c r="G90" s="12"/>
       <c r="H90" s="14">
         <v>0.54838709677419351</v>
       </c>
       <c r="I90" s="14">
         <v>0.45161290322580644</v>
       </c>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13">
+      <c r="J90" s="12"/>
+      <c r="K90" s="12">
         <v>8239</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="12">
         <v>4237</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="12">
         <v>12476</v>
       </c>
-      <c r="N90" s="13"/>
+      <c r="N90" s="12"/>
       <c r="O90" s="14">
         <v>0.66038794485411989</v>
       </c>
@@ -4088,10 +4088,10 @@
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="13">
         <v>0.58004158004158002</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="13">
         <v>0.41995841995841998</v>
       </c>
       <c r="K91">
@@ -4103,10 +4103,10 @@
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O91" s="13">
         <v>0.66833014428298076</v>
       </c>
-      <c r="P91" s="1">
+      <c r="P91" s="13">
         <v>0.33166985571701918</v>
       </c>
     </row>
@@ -4123,10 +4123,10 @@
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="13">
         <v>0.63478260869565217</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="13">
         <v>0.36521739130434783</v>
       </c>
       <c r="K92">
@@ -4138,10 +4138,10 @@
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O92" s="13">
         <v>0.68954530860233643</v>
       </c>
-      <c r="P92" s="1">
+      <c r="P92" s="13">
         <v>0.31045469139766357</v>
       </c>
     </row>
@@ -4158,10 +4158,10 @@
       <c r="F93">
         <v>903</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="13">
         <v>0.58028792912513838</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="13">
         <v>0.41971207087486156</v>
       </c>
       <c r="K93">
@@ -4173,10 +4173,10 @@
       <c r="M93">
         <v>75481</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O93" s="13">
         <v>0.67618341039466889</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P93" s="13">
         <v>0.32381658960533116</v>
       </c>
     </row>
@@ -4193,10 +4193,10 @@
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="13">
         <v>0.41106128550074739</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="13">
         <v>0.58893871449925261</v>
       </c>
       <c r="K94">
@@ -4208,10 +4208,10 @@
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O94" s="13">
         <v>0.46522274437720013</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P94" s="13">
         <v>0.53477725562279987</v>
       </c>
     </row>
@@ -4228,10 +4228,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="13">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="13">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4243,10 +4243,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="13">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P95" s="13">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4263,10 +4263,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="13">
         <v>0.7432432432432432</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="13">
         <v>0.25675675675675674</v>
       </c>
       <c r="K96">
@@ -4278,10 +4278,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="13">
         <v>0.85409577558303595</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P96" s="13">
         <v>0.14590422441696407</v>
       </c>
     </row>
@@ -4298,10 +4298,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="13">
         <v>0.84536082474226804</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="13">
         <v>0.15463917525773196</v>
       </c>
       <c r="K97">
@@ -4313,10 +4313,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O97" s="13">
         <v>0.93415738587688169</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P97" s="13">
         <v>6.5842614123118343E-2</v>
       </c>
     </row>
@@ -4333,10 +4333,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="13">
         <v>0.83760683760683763</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="13">
         <v>0.1623931623931624</v>
       </c>
       <c r="K98">
@@ -4348,10 +4348,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="13">
         <v>0.93199088145896658</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P98" s="13">
         <v>6.8009118541033434E-2</v>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="13">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="13">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4383,10 +4383,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99" s="13">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P99" s="13">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4403,10 +4403,10 @@
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="13">
         <v>0.53846153846153844</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="13">
         <v>0.46153846153846156</v>
       </c>
       <c r="K100">
@@ -4418,10 +4418,10 @@
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O100" s="13">
         <v>0.62799925135691559</v>
       </c>
-      <c r="P100" s="1">
+      <c r="P100" s="13">
         <v>0.37200074864308441</v>
       </c>
     </row>
@@ -4438,10 +4438,10 @@
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="13">
         <v>0.40163934426229508</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="13">
         <v>0.59836065573770492</v>
       </c>
       <c r="K101">
@@ -4453,10 +4453,10 @@
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O101" s="13">
         <v>0.4613834788448623</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P101" s="13">
         <v>0.5386165211551377</v>
       </c>
     </row>
@@ -4473,10 +4473,10 @@
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="13">
         <v>0.74285714285714288</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="13">
         <v>0.25714285714285712</v>
       </c>
       <c r="K102">
@@ -4488,10 +4488,10 @@
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="1">
+      <c r="O102" s="13">
         <v>0.84319569642337888</v>
       </c>
-      <c r="P102" s="1">
+      <c r="P102" s="13">
         <v>0.15680430357662112</v>
       </c>
     </row>
@@ -4508,10 +4508,10 @@
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="13">
         <v>0.56955380577427817</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="13">
         <v>0.43044619422572178</v>
       </c>
       <c r="K103">
@@ -4523,10 +4523,10 @@
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="13">
         <v>0.64815033683961709</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P103" s="13">
         <v>0.35184966316038291</v>
       </c>
     </row>
@@ -4543,10 +4543,10 @@
       <c r="F104">
         <v>893</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="13">
         <v>0.54759238521836506</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="13">
         <v>0.45240761478163494</v>
       </c>
       <c r="K104">
@@ -4558,10 +4558,10 @@
       <c r="M104">
         <v>69329</v>
       </c>
-      <c r="O104" s="1">
+      <c r="O104" s="13">
         <v>0.63233279003014609</v>
       </c>
-      <c r="P104" s="1">
+      <c r="P104" s="13">
         <v>0.36766720996985386</v>
       </c>
     </row>
@@ -4570,34 +4570,34 @@
         <v>112</v>
       </c>
       <c r="D105">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E105">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="1">
-        <v>0.62758620689655176</v>
-      </c>
-      <c r="I105" s="1">
-        <v>0.3724137931034483</v>
+      <c r="H105" s="13">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="I105" s="13">
+        <v>0.2413793103448276</v>
       </c>
       <c r="K105">
-        <v>8897</v>
+        <v>10573</v>
       </c>
       <c r="L105">
-        <v>3708</v>
+        <v>2032</v>
       </c>
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="1">
-        <v>0.70583101943673143</v>
-      </c>
-      <c r="P105" s="1">
-        <v>0.29416898056326857</v>
+      <c r="O105" s="13">
+        <v>0.8387941293137644</v>
+      </c>
+      <c r="P105" s="13">
+        <v>0.16120587068623562</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -4613,10 +4613,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="13">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="13">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4628,10 +4628,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O106" s="13">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P106" s="13">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4648,10 +4648,10 @@
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="13">
         <v>0.38720538720538722</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="13">
         <v>0.61279461279461278</v>
       </c>
       <c r="K107">
@@ -4663,10 +4663,10 @@
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107" s="13">
         <v>0.42278008298755188</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P107" s="13">
         <v>0.57721991701244812</v>
       </c>
     </row>
@@ -4675,34 +4675,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E108">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="1">
-        <v>0.4972067039106145</v>
-      </c>
-      <c r="I108" s="1">
-        <v>0.5027932960893855</v>
+      <c r="H108" s="13">
+        <v>0.50837988826815639</v>
+      </c>
+      <c r="I108" s="13">
+        <v>0.49162011173184356</v>
       </c>
       <c r="K108">
-        <v>26250</v>
+        <v>26782</v>
       </c>
       <c r="L108">
-        <v>20174</v>
+        <v>19642</v>
       </c>
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="1">
-        <v>0.56544028950542824</v>
-      </c>
-      <c r="P108" s="1">
-        <v>0.43455971049457176</v>
+      <c r="O108" s="13">
+        <v>0.57689987937273823</v>
+      </c>
+      <c r="P108" s="13">
+        <v>0.42310012062726177</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4718,10 +4718,10 @@
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="13">
         <v>0.66351606805293006</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="13">
         <v>0.33648393194706994</v>
       </c>
       <c r="K109">
@@ -4733,10 +4733,10 @@
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="1">
+      <c r="O109" s="13">
         <v>0.74544633448743036</v>
       </c>
-      <c r="P109" s="1">
+      <c r="P109" s="13">
         <v>0.25455366551256964</v>
       </c>
     </row>
@@ -4745,34 +4745,34 @@
         <v>117</v>
       </c>
       <c r="D110">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E110">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="1">
-        <v>0.49122807017543857</v>
-      </c>
-      <c r="I110" s="1">
-        <v>0.50877192982456143</v>
+      <c r="H110" s="13">
+        <v>0.52046783625730997</v>
+      </c>
+      <c r="I110" s="13">
+        <v>0.47953216374269003</v>
       </c>
       <c r="K110">
-        <v>7403</v>
+        <v>7823</v>
       </c>
       <c r="L110">
-        <v>6082</v>
+        <v>5662</v>
       </c>
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="1">
-        <v>0.54898034853540967</v>
-      </c>
-      <c r="P110" s="1">
-        <v>0.45101965146459028</v>
+      <c r="O110" s="13">
+        <v>0.58012606599925842</v>
+      </c>
+      <c r="P110" s="13">
+        <v>0.41987393400074158</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -4788,10 +4788,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="13">
         <v>0.55072463768115942</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="13">
         <v>0.44927536231884058</v>
       </c>
       <c r="K111">
@@ -4803,10 +4803,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="1">
+      <c r="O111" s="13">
         <v>0.59949740851264333</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P111" s="13">
         <v>0.40050259148735667</v>
       </c>
     </row>
@@ -4823,10 +4823,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="13">
         <v>0.88124999999999998</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="13">
         <v>0.11874999999999999</v>
       </c>
       <c r="K112">
@@ -4838,10 +4838,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="1">
+      <c r="O112" s="13">
         <v>0.94755093194625051</v>
       </c>
-      <c r="P112" s="1">
+      <c r="P112" s="13">
         <v>5.2449068053749458E-2</v>
       </c>
     </row>
@@ -4858,10 +4858,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="13">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="13">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4873,10 +4873,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113" s="13">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="1">
+      <c r="P113" s="13">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4893,10 +4893,10 @@
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="13">
         <v>0.47762747138397504</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="13">
         <v>0.52237252861602501</v>
       </c>
       <c r="K114">
@@ -4908,10 +4908,10 @@
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="1">
+      <c r="O114" s="13">
         <v>0.57186580809285315</v>
       </c>
-      <c r="P114" s="1">
+      <c r="P114" s="13">
         <v>0.42813419190714685</v>
       </c>
     </row>
@@ -4920,34 +4920,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E115">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="1">
-        <v>0.66898148148148151</v>
-      </c>
-      <c r="I115" s="1">
-        <v>0.33101851851851855</v>
+      <c r="H115" s="13">
+        <v>0.6782407407407407</v>
+      </c>
+      <c r="I115" s="13">
+        <v>0.32175925925925924</v>
       </c>
       <c r="K115">
-        <v>30452</v>
+        <v>30884</v>
       </c>
       <c r="L115">
-        <v>11467</v>
+        <v>11035</v>
       </c>
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="1">
-        <v>0.72644862711419644</v>
-      </c>
-      <c r="P115" s="1">
-        <v>0.27355137288580356</v>
+      <c r="O115" s="13">
+        <v>0.73675421646508743</v>
+      </c>
+      <c r="P115" s="13">
+        <v>0.26324578353491257</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4963,10 +4963,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="13">
         <v>0.44758064516129031</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="13">
         <v>0.55241935483870963</v>
       </c>
       <c r="K116">
@@ -4978,10 +4978,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="1">
+      <c r="O116" s="13">
         <v>0.56168319840853209</v>
       </c>
-      <c r="P116" s="1">
+      <c r="P116" s="13">
         <v>0.43831680159146796</v>
       </c>
     </row>
@@ -4998,10 +4998,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="13">
         <v>0.5964125560538116</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="13">
         <v>0.40358744394618834</v>
       </c>
       <c r="K117">
@@ -5013,10 +5013,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="1">
+      <c r="O117" s="13">
         <v>0.72329987594451339</v>
       </c>
-      <c r="P117" s="1">
+      <c r="P117" s="13">
         <v>0.27670012405548666</v>
       </c>
     </row>
@@ -5033,10 +5033,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="13">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="13">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5048,10 +5048,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="1">
+      <c r="O118" s="13">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="1">
+      <c r="P118" s="13">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5068,10 +5068,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="13">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="13">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5083,10 +5083,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119" s="13">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="1">
+      <c r="P119" s="13">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="13">
         <v>0.5757575757575758</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="13">
         <v>0.42424242424242425</v>
       </c>
       <c r="K120">
@@ -5118,10 +5118,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="1">
+      <c r="O120" s="13">
         <v>0.661028088121839</v>
       </c>
-      <c r="P120" s="1">
+      <c r="P120" s="13">
         <v>0.338971911878161</v>
       </c>
     </row>
@@ -5138,10 +5138,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="13">
         <v>0.59433962264150941</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="13">
         <v>0.40566037735849059</v>
       </c>
       <c r="K121">
@@ -5153,10 +5153,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="1">
+      <c r="O121" s="13">
         <v>0.72589531680440766</v>
       </c>
-      <c r="P121" s="1">
+      <c r="P121" s="13">
         <v>0.27410468319559228</v>
       </c>
     </row>
@@ -5173,10 +5173,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="13">
         <v>0.52</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="13">
         <v>0.48</v>
       </c>
       <c r="K122">
@@ -5188,10 +5188,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O122" s="13">
         <v>0.57712230215827343</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P122" s="13">
         <v>0.42287769784172663</v>
       </c>
     </row>
@@ -5208,10 +5208,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="13">
         <v>0.81746031746031744</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="13">
         <v>0.18253968253968253</v>
       </c>
       <c r="K123">
@@ -5223,51 +5223,51 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="1">
+      <c r="O123" s="13">
         <v>0.87569783670621071</v>
       </c>
-      <c r="P123" s="1">
+      <c r="P123" s="13">
         <v>0.12430216329378925</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13">
-        <v>5884</v>
-      </c>
-      <c r="E124" s="13">
-        <v>4550</v>
-      </c>
-      <c r="F124" s="13">
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12">
+        <v>5918</v>
+      </c>
+      <c r="E124" s="12">
+        <v>4516</v>
+      </c>
+      <c r="F124" s="12">
         <v>10434</v>
       </c>
-      <c r="G124" s="13"/>
+      <c r="G124" s="12"/>
       <c r="H124" s="14">
-        <v>0.56392562775541499</v>
+        <v>0.56718420548207782</v>
       </c>
       <c r="I124" s="14">
-        <v>0.43607437224458501</v>
-      </c>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13">
-        <v>563985</v>
-      </c>
-      <c r="L124" s="13">
-        <v>305637</v>
-      </c>
-      <c r="M124" s="13">
+        <v>0.43281579451792218</v>
+      </c>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12">
+        <v>567045</v>
+      </c>
+      <c r="L124" s="12">
+        <v>302577</v>
+      </c>
+      <c r="M124" s="12">
         <v>869622</v>
       </c>
-      <c r="N124" s="13"/>
+      <c r="N124" s="12"/>
       <c r="O124" s="14">
-        <v>0.64854040031185967</v>
+        <v>0.65205917053616402</v>
       </c>
       <c r="P124" s="14">
-        <v>0.35145959968814039</v>
+        <v>0.34794082946383603</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5286,10 +5286,10 @@
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="13">
         <v>0.70629370629370625</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="13">
         <v>0.2937062937062937</v>
       </c>
       <c r="K125">
@@ -5301,10 +5301,10 @@
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="1">
+      <c r="O125" s="13">
         <v>0.80172957391226018</v>
       </c>
-      <c r="P125" s="1">
+      <c r="P125" s="13">
         <v>0.19827042608773984</v>
       </c>
     </row>
@@ -5321,10 +5321,10 @@
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="13">
         <v>0.5661577608142494</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="13">
         <v>0.43384223918575066</v>
       </c>
       <c r="K126">
@@ -5336,10 +5336,10 @@
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="1">
+      <c r="O126" s="13">
         <v>0.64853706201315686</v>
       </c>
-      <c r="P126" s="1">
+      <c r="P126" s="13">
         <v>0.35146293798684319</v>
       </c>
     </row>
@@ -5356,10 +5356,10 @@
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="13">
         <v>0.53745318352059923</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="13">
         <v>0.46254681647940077</v>
       </c>
       <c r="K127">
@@ -5371,10 +5371,10 @@
       <c r="M127">
         <v>41287</v>
       </c>
-      <c r="O127" s="1">
+      <c r="O127" s="13">
         <v>0.64804902269479492</v>
       </c>
-      <c r="P127" s="1">
+      <c r="P127" s="13">
         <v>0.35195097730520503</v>
       </c>
     </row>
@@ -5391,10 +5391,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="13">
         <v>0.4955357142857143</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="13">
         <v>0.5044642857142857</v>
       </c>
       <c r="K128">
@@ -5406,10 +5406,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="1">
+      <c r="O128" s="13">
         <v>0.65993523697380041</v>
       </c>
-      <c r="P128" s="1">
+      <c r="P128" s="13">
         <v>0.34006476302619959</v>
       </c>
     </row>
@@ -5426,10 +5426,10 @@
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="13">
         <v>0.77990430622009566</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="13">
         <v>0.22009569377990432</v>
       </c>
       <c r="K129">
@@ -5441,10 +5441,10 @@
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="1">
+      <c r="O129" s="13">
         <v>0.89405986903648271</v>
       </c>
-      <c r="P129" s="1">
+      <c r="P129" s="13">
         <v>0.1059401309635173</v>
       </c>
     </row>
@@ -5453,34 +5453,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E130">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F130">
         <v>481</v>
       </c>
-      <c r="H130" s="1">
-        <v>0.42203742203742206</v>
-      </c>
-      <c r="I130" s="1">
-        <v>0.57796257796257799</v>
+      <c r="H130" s="13">
+        <v>0.42411642411642414</v>
+      </c>
+      <c r="I130" s="13">
+        <v>0.57588357588357586</v>
       </c>
       <c r="K130">
-        <v>20210</v>
+        <v>20318</v>
       </c>
       <c r="L130">
-        <v>19163</v>
+        <v>19055</v>
       </c>
       <c r="M130">
         <v>39373</v>
       </c>
-      <c r="O130" s="1">
-        <v>0.51329591344322256</v>
-      </c>
-      <c r="P130" s="1">
-        <v>0.48670408655677749</v>
+      <c r="O130" s="13">
+        <v>0.51603890991288448</v>
+      </c>
+      <c r="P130" s="13">
+        <v>0.48396109008711552</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5496,10 +5496,10 @@
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="13">
         <v>0.53125</v>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="13">
         <v>0.46875</v>
       </c>
       <c r="K131">
@@ -5511,10 +5511,10 @@
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="1">
+      <c r="O131" s="13">
         <v>0.59331273850626931</v>
       </c>
-      <c r="P131" s="1">
+      <c r="P131" s="13">
         <v>0.40668726149373069</v>
       </c>
     </row>
@@ -5531,10 +5531,10 @@
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="13">
         <v>0.48756906077348067</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="13">
         <v>0.51243093922651939</v>
       </c>
       <c r="K132">
@@ -5546,10 +5546,10 @@
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="1">
+      <c r="O132" s="13">
         <v>0.5747358659291889</v>
       </c>
-      <c r="P132" s="1">
+      <c r="P132" s="13">
         <v>0.4252641340708111</v>
       </c>
     </row>
@@ -5566,10 +5566,10 @@
       <c r="F133">
         <v>307</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="13">
         <v>0.65798045602605859</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="13">
         <v>0.34201954397394135</v>
       </c>
       <c r="K133">
@@ -5581,10 +5581,10 @@
       <c r="M133">
         <v>22636</v>
       </c>
-      <c r="O133" s="1">
+      <c r="O133" s="13">
         <v>0.79435412617070156</v>
       </c>
-      <c r="P133" s="1">
+      <c r="P133" s="13">
         <v>0.20564587382929847</v>
       </c>
     </row>
@@ -5601,10 +5601,10 @@
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="13">
         <v>0.47563805104408352</v>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="13">
         <v>0.52436194895591648</v>
       </c>
       <c r="K134">
@@ -5616,10 +5616,10 @@
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="1">
+      <c r="O134" s="13">
         <v>0.58674176520892929</v>
       </c>
-      <c r="P134" s="1">
+      <c r="P134" s="13">
         <v>0.41325823479107077</v>
       </c>
     </row>
@@ -5628,34 +5628,34 @@
         <v>143</v>
       </c>
       <c r="D135">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E135">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F135">
         <v>454</v>
       </c>
-      <c r="H135" s="1">
-        <v>0.72026431718061679</v>
-      </c>
-      <c r="I135" s="1">
-        <v>0.27973568281938327</v>
+      <c r="H135" s="13">
+        <v>0.72246696035242286</v>
+      </c>
+      <c r="I135" s="13">
+        <v>0.27753303964757708</v>
       </c>
       <c r="K135">
-        <v>24397</v>
+        <v>24449</v>
       </c>
       <c r="L135">
-        <v>5918</v>
+        <v>5866</v>
       </c>
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="1">
-        <v>0.80478311067128483</v>
-      </c>
-      <c r="P135" s="1">
-        <v>0.19521688932871517</v>
+      <c r="O135" s="13">
+        <v>0.806498433118918</v>
+      </c>
+      <c r="P135" s="13">
+        <v>0.19350156688108197</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5671,10 +5671,10 @@
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="13">
         <v>0.62176165803108807</v>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="13">
         <v>0.37823834196891193</v>
       </c>
       <c r="K136">
@@ -5686,10 +5686,10 @@
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="1">
+      <c r="O136" s="13">
         <v>0.75955882352941173</v>
       </c>
-      <c r="P136" s="1">
+      <c r="P136" s="13">
         <v>0.24044117647058824</v>
       </c>
     </row>
@@ -5706,10 +5706,10 @@
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="13">
         <v>0.6</v>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="13">
         <v>0.4</v>
       </c>
       <c r="K137">
@@ -5721,91 +5721,91 @@
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="1">
+      <c r="O137" s="13">
         <v>0.70225981774345148</v>
       </c>
-      <c r="P137" s="1">
+      <c r="P137" s="13">
         <v>0.29774018225654858</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13">
-        <v>2796</v>
-      </c>
-      <c r="E138" s="13">
-        <v>2177</v>
-      </c>
-      <c r="F138" s="13">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12">
+        <v>2798</v>
+      </c>
+      <c r="E138" s="12">
+        <v>2175</v>
+      </c>
+      <c r="F138" s="12">
         <v>4973</v>
       </c>
-      <c r="G138" s="13"/>
+      <c r="G138" s="12"/>
       <c r="H138" s="14">
-        <v>0.56223607480394133</v>
+        <v>0.56263824653126882</v>
       </c>
       <c r="I138" s="14">
-        <v>0.43776392519605872</v>
-      </c>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13">
-        <v>263782</v>
-      </c>
-      <c r="L138" s="13">
-        <v>136558</v>
-      </c>
-      <c r="M138" s="13">
+        <v>0.43736175346873113</v>
+      </c>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12">
+        <v>263942</v>
+      </c>
+      <c r="L138" s="12">
+        <v>136398</v>
+      </c>
+      <c r="M138" s="12">
         <v>400340</v>
       </c>
-      <c r="N138" s="13"/>
+      <c r="N138" s="12"/>
       <c r="O138" s="14">
-        <v>0.6588949393015936</v>
+        <v>0.6592945995903482</v>
       </c>
       <c r="P138" s="14">
-        <v>0.34110506069840635</v>
+        <v>0.3407054004096518</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13">
-        <v>31368</v>
-      </c>
-      <c r="E139" s="13">
-        <v>34645</v>
-      </c>
-      <c r="F139" s="13">
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12">
+        <v>31714</v>
+      </c>
+      <c r="E139" s="12">
+        <v>34299</v>
+      </c>
+      <c r="F139" s="12">
         <v>66013</v>
       </c>
-      <c r="G139" s="13"/>
+      <c r="G139" s="12"/>
       <c r="H139" s="14">
-        <v>0.47517913138321238</v>
+        <v>0.48042052323027284</v>
       </c>
       <c r="I139" s="14">
-        <v>0.52482086861678756</v>
-      </c>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13">
-        <v>2985496</v>
-      </c>
-      <c r="L139" s="13">
-        <v>2290441</v>
-      </c>
-      <c r="M139" s="13">
+        <v>0.51957947676972716</v>
+      </c>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12">
+        <v>3016294</v>
+      </c>
+      <c r="L139" s="12">
+        <v>2259643</v>
+      </c>
+      <c r="M139" s="12">
         <v>5275937</v>
       </c>
-      <c r="N139" s="13"/>
+      <c r="N139" s="12"/>
       <c r="O139" s="14">
-        <v>0.56587028995986877</v>
+        <v>0.5717077364646318</v>
       </c>
       <c r="P139" s="14">
-        <v>0.43412971004013123</v>
+        <v>0.4282922635353682</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F383BA9F-F229-4B2E-9872-AA174274F1FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3962F0-4683-4E46-B4E5-F8E5B782CA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11081E92-E4C6-4283-8F8E-1F4F17589828}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B42457B4-C720-4A62-94BC-2070803BDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,19 +561,19 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -888,114 +888,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2524617A-7BA4-4344-9313-DC3BBBC79F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836E2BC9-5480-41E0-A535-079C4C2CFBB1}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1012,10 +1012,10 @@
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="K4">
@@ -1024,10 +1024,10 @@
       <c r="M4">
         <v>823</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1044,10 +1044,10 @@
       <c r="F5">
         <v>113</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="1">
         <v>0.2831858407079646</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="1">
         <v>0.7168141592920354</v>
       </c>
       <c r="K5">
@@ -1059,10 +1059,10 @@
       <c r="M5">
         <v>7725</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="1">
         <v>0.33877022653721683</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="1">
         <v>0.66122977346278322</v>
       </c>
     </row>
@@ -1076,10 +1076,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="K6">
@@ -1088,10 +1088,10 @@
       <c r="M6">
         <v>229</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1108,10 +1108,10 @@
       <c r="F7">
         <v>113</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="1">
         <v>0.4336283185840708</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="1">
         <v>0.5663716814159292</v>
       </c>
       <c r="K7">
@@ -1123,10 +1123,10 @@
       <c r="M7">
         <v>8213</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="1">
         <v>0.53098745890661148</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="1">
         <v>0.46901254109338852</v>
       </c>
     </row>
@@ -1143,10 +1143,10 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="1">
         <v>0.75</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="1">
         <v>0.25</v>
       </c>
       <c r="K8">
@@ -1158,46 +1158,46 @@
       <c r="M8">
         <v>639</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="1">
         <v>0.64319248826291076</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="1">
         <v>0.35680751173708919</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
         <v>99</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>147</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>246</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="14">
         <v>0.40243902439024393</v>
       </c>
       <c r="I9" s="14">
         <v>0.59756097560975607</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
         <v>8441</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="13">
         <v>9188</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>17629</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="14">
         <v>0.47881331896307222</v>
       </c>
@@ -1221,10 +1221,10 @@
       <c r="F10">
         <v>413</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="1">
         <v>0.58837772397094434</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="1">
         <v>0.41162227602905571</v>
       </c>
       <c r="K10">
@@ -1236,10 +1236,10 @@
       <c r="M10">
         <v>32229</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="1">
         <v>0.68093952651338852</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="1">
         <v>0.31906047348661143</v>
       </c>
     </row>
@@ -1248,34 +1248,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E11">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
-      <c r="H11" s="13">
-        <v>0.46675191815856776</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.53324808184143224</v>
+      <c r="H11" s="1">
+        <v>0.47570332480818417</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.52429667519181589</v>
       </c>
       <c r="K11">
-        <v>34597</v>
+        <v>35136</v>
       </c>
       <c r="L11">
-        <v>26035</v>
+        <v>25496</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
-      <c r="O11" s="13">
-        <v>0.57060628051194084</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0.4293937194880591</v>
+      <c r="O11" s="1">
+        <v>0.57949597572239087</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.42050402427760919</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1291,10 +1291,10 @@
       <c r="F12">
         <v>574</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="1">
         <v>0.40766550522648082</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="1">
         <v>0.59233449477351918</v>
       </c>
       <c r="K12">
@@ -1306,10 +1306,10 @@
       <c r="M12">
         <v>43861</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="1">
         <v>0.48074599302341486</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="1">
         <v>0.51925400697658508</v>
       </c>
     </row>
@@ -1326,10 +1326,10 @@
       <c r="F13">
         <v>567</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="1">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="1">
         <v>0.55555555555555558</v>
       </c>
       <c r="K13">
@@ -1341,10 +1341,10 @@
       <c r="M13">
         <v>47683</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="1">
         <v>0.53631273200092278</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="1">
         <v>0.46368726799907722</v>
       </c>
     </row>
@@ -1361,10 +1361,10 @@
       <c r="F14">
         <v>1107</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="1">
         <v>0.49864498644986449</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="1">
         <v>0.50135501355013545</v>
       </c>
       <c r="K14">
@@ -1376,10 +1376,10 @@
       <c r="M14">
         <v>92359</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="1">
         <v>0.57151983022769848</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="1">
         <v>0.42848016977230158</v>
       </c>
     </row>
@@ -1388,34 +1388,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="E15">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
-      <c r="H15" s="13">
-        <v>0.47790339157245632</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.52209660842754368</v>
+      <c r="H15" s="1">
+        <v>0.55806783144912642</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.44193216855087358</v>
       </c>
       <c r="K15">
-        <v>42775</v>
+        <v>48668</v>
       </c>
       <c r="L15">
-        <v>31601</v>
+        <v>25708</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
-      <c r="O15" s="13">
-        <v>0.57511831773690436</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0.42488168226309564</v>
+      <c r="O15" s="1">
+        <v>0.65435086587071101</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.34564913412928899</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1431,10 +1431,10 @@
       <c r="F16">
         <v>1084</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="1">
         <v>0.70110701107011075</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="1">
         <v>0.2988929889298893</v>
       </c>
       <c r="K16">
@@ -1446,10 +1446,10 @@
       <c r="M16">
         <v>82480</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="1">
         <v>0.79260426770126091</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="1">
         <v>0.20739573229873909</v>
       </c>
     </row>
@@ -1466,10 +1466,10 @@
       <c r="F17">
         <v>1225</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="1">
         <v>0.35918367346938773</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="1">
         <v>0.64081632653061227</v>
       </c>
       <c r="K17">
@@ -1481,10 +1481,10 @@
       <c r="M17">
         <v>102763</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="1">
         <v>0.4106147154131351</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="1">
         <v>0.5893852845868649</v>
       </c>
     </row>
@@ -1493,34 +1493,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1106</v>
+        <v>1158</v>
       </c>
       <c r="E18">
-        <v>1445</v>
+        <v>1393</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
-      <c r="H18" s="13">
-        <v>0.43355546844374754</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.56644453155625241</v>
+      <c r="H18" s="1">
+        <v>0.45393963151705213</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.54606036848294781</v>
       </c>
       <c r="K18">
-        <v>103337</v>
+        <v>107833</v>
       </c>
       <c r="L18">
-        <v>90884</v>
+        <v>86388</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
-      <c r="O18" s="13">
-        <v>0.53205884018720939</v>
-      </c>
-      <c r="P18" s="13">
-        <v>0.46794115981279061</v>
+      <c r="O18" s="1">
+        <v>0.55520772727974832</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.44479227272025168</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1528,34 +1528,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E19">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
-      <c r="H19" s="13">
-        <v>0.37591623036649213</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.62408376963350787</v>
+      <c r="H19" s="1">
+        <v>0.37905759162303665</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.62094240837696335</v>
       </c>
       <c r="K19">
-        <v>33203</v>
+        <v>33346</v>
       </c>
       <c r="L19">
-        <v>37776</v>
+        <v>37633</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
-      <c r="O19" s="13">
-        <v>0.46778624663632906</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0.53221375336367094</v>
+      <c r="O19" s="1">
+        <v>0.46980092703475673</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.53019907296524327</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1571,10 +1571,10 @@
       <c r="F20">
         <v>663</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="1">
         <v>0.65912518853695323</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="1">
         <v>0.34087481146304677</v>
       </c>
       <c r="K20">
@@ -1586,10 +1586,10 @@
       <c r="M20">
         <v>54862</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="1">
         <v>0.75225110276694251</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="1">
         <v>0.24774889723305749</v>
       </c>
     </row>
@@ -1606,10 +1606,10 @@
       <c r="F21">
         <v>1290</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="1">
         <v>0.36124031007751939</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="1">
         <v>0.63875968992248067</v>
       </c>
       <c r="K21">
@@ -1621,10 +1621,10 @@
       <c r="M21">
         <v>101483</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="1">
         <v>0.44545391839027226</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="1">
         <v>0.55454608160972774</v>
       </c>
     </row>
@@ -1633,34 +1633,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E22">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
-      <c r="H22" s="13">
-        <v>0.44953350296861749</v>
-      </c>
-      <c r="I22" s="13">
-        <v>0.55046649703138251</v>
+      <c r="H22" s="1">
+        <v>0.45292620865139949</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.54707379134860046</v>
       </c>
       <c r="K22">
-        <v>50856</v>
+        <v>51099</v>
       </c>
       <c r="L22">
-        <v>44756</v>
+        <v>44513</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
-      <c r="O22" s="13">
-        <v>0.53189976153620888</v>
-      </c>
-      <c r="P22" s="13">
-        <v>0.46810023846379117</v>
+      <c r="O22" s="1">
+        <v>0.53444128352089693</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.46555871647910302</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1668,34 +1668,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E23">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
-      <c r="H23" s="13">
-        <v>0.3294596165020337</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0.6705403834979663</v>
+      <c r="H23" s="1">
+        <v>0.3317838466008135</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.6682161533991865</v>
       </c>
       <c r="K23">
-        <v>53342</v>
+        <v>53690</v>
       </c>
       <c r="L23">
-        <v>77729</v>
+        <v>77381</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
-      <c r="O23" s="13">
-        <v>0.40697026802267472</v>
-      </c>
-      <c r="P23" s="13">
-        <v>0.59302973197732523</v>
+      <c r="O23" s="1">
+        <v>0.40962531757597026</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.59037468242402968</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1703,34 +1703,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E24">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
-      <c r="H24" s="13">
-        <v>0.38983050847457629</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0.61016949152542377</v>
+      <c r="H24" s="1">
+        <v>0.39491525423728813</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.60508474576271187</v>
       </c>
       <c r="K24">
-        <v>21719</v>
+        <v>21968</v>
       </c>
       <c r="L24">
-        <v>22594</v>
+        <v>22345</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
-      <c r="O24" s="13">
-        <v>0.49012705075260082</v>
-      </c>
-      <c r="P24" s="13">
-        <v>0.50987294924739923</v>
+      <c r="O24" s="1">
+        <v>0.49574616929569199</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.50425383070430796</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1746,10 +1746,10 @@
       <c r="F25">
         <v>1002</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="1">
         <v>0.42514970059880242</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="1">
         <v>0.57485029940119758</v>
       </c>
       <c r="K25">
@@ -1761,10 +1761,10 @@
       <c r="M25">
         <v>79700</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="1">
         <v>0.51920953575909656</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="1">
         <v>0.48079046424090338</v>
       </c>
     </row>
@@ -1781,10 +1781,10 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="1">
         <v>0.40875912408759124</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="1">
         <v>0.59124087591240881</v>
       </c>
       <c r="K26">
@@ -1796,10 +1796,10 @@
       <c r="M26">
         <v>10380</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="1">
         <v>0.5061657032755299</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="1">
         <v>0.49383429672447016</v>
       </c>
     </row>
@@ -1816,10 +1816,10 @@
       <c r="F27">
         <v>251</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="1">
         <v>0.36254980079681276</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="1">
         <v>0.63745019920318724</v>
       </c>
       <c r="K27">
@@ -1831,10 +1831,10 @@
       <c r="M27">
         <v>19731</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="1">
         <v>0.41574172621762706</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="1">
         <v>0.58425827378237294</v>
       </c>
     </row>
@@ -1843,34 +1843,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="E28">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="F28">
         <v>2224</v>
       </c>
-      <c r="H28" s="13">
-        <v>0.36106115107913667</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.63893884892086328</v>
+      <c r="H28" s="1">
+        <v>0.36600719424460432</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.63399280575539574</v>
       </c>
       <c r="K28">
-        <v>76237</v>
+        <v>76937</v>
       </c>
       <c r="L28">
-        <v>95097</v>
+        <v>94397</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
-      <c r="O28" s="13">
-        <v>0.44496130365251496</v>
-      </c>
-      <c r="P28" s="13">
-        <v>0.55503869634748504</v>
+      <c r="O28" s="1">
+        <v>0.44904689086812893</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.55095310913187112</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1878,34 +1878,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="E29">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="F29">
         <v>3110</v>
       </c>
-      <c r="H29" s="13">
-        <v>0.59871382636655945</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0.40128617363344049</v>
+      <c r="H29" s="1">
+        <v>0.6009646302250804</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.3990353697749196</v>
       </c>
       <c r="K29">
-        <v>180302</v>
+        <v>180777</v>
       </c>
       <c r="L29">
-        <v>88127</v>
+        <v>87652</v>
       </c>
       <c r="M29">
         <v>268429</v>
       </c>
-      <c r="O29" s="13">
-        <v>0.67169344593914959</v>
-      </c>
-      <c r="P29" s="13">
-        <v>0.32830655406085035</v>
+      <c r="O29" s="1">
+        <v>0.67346300138956672</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.32653699861043328</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1913,34 +1913,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E30">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30" s="13">
-        <v>0.45582329317269077</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0.54417670682730923</v>
+      <c r="H30" s="1">
+        <v>0.45983935742971888</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.54016064257028118</v>
       </c>
       <c r="K30">
-        <v>22904</v>
+        <v>23060</v>
       </c>
       <c r="L30">
-        <v>17836</v>
+        <v>17680</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
-      <c r="O30" s="13">
-        <v>0.56219931271477663</v>
-      </c>
-      <c r="P30" s="13">
-        <v>0.43780068728522337</v>
+      <c r="O30" s="1">
+        <v>0.56602847324496808</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.43397152675503192</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1956,10 +1956,10 @@
       <c r="F31">
         <v>1037</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="1">
         <v>0.58727097396335581</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="1">
         <v>0.41272902603664419</v>
       </c>
       <c r="K31">
@@ -1971,10 +1971,10 @@
       <c r="M31">
         <v>85136</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="1">
         <v>0.70361539184363842</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="1">
         <v>0.29638460815636158</v>
       </c>
     </row>
@@ -1991,10 +1991,10 @@
       <c r="F32">
         <v>527</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="1">
         <v>0.62618595825426948</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="1">
         <v>0.37381404174573057</v>
       </c>
       <c r="K32">
@@ -2006,10 +2006,10 @@
       <c r="M32">
         <v>44827</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="1">
         <v>0.75512525933031427</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="1">
         <v>0.24487474066968568</v>
       </c>
     </row>
@@ -2026,10 +2026,10 @@
       <c r="F33">
         <v>1072</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="1">
         <v>0.49906716417910446</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="1">
         <v>0.50093283582089554</v>
       </c>
       <c r="K33">
@@ -2041,10 +2041,10 @@
       <c r="M33">
         <v>76409</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="1">
         <v>0.61543797196665317</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="1">
         <v>0.38456202803334688</v>
       </c>
     </row>
@@ -2061,10 +2061,10 @@
       <c r="F34">
         <v>1141</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="1">
         <v>0.42944785276073622</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="1">
         <v>0.57055214723926384</v>
       </c>
       <c r="K34">
@@ -2076,10 +2076,10 @@
       <c r="M34">
         <v>87438</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="1">
         <v>0.51827580685743035</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="1">
         <v>0.48172419314256959</v>
       </c>
     </row>
@@ -2088,34 +2088,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E35">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F35">
         <v>784</v>
       </c>
-      <c r="H35" s="13">
-        <v>0.47066326530612246</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0.52933673469387754</v>
+      <c r="H35" s="1">
+        <v>0.47448979591836737</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.52551020408163263</v>
       </c>
       <c r="K35">
-        <v>34326</v>
+        <v>34537</v>
       </c>
       <c r="L35">
-        <v>28265</v>
+        <v>28054</v>
       </c>
       <c r="M35">
         <v>62591</v>
       </c>
-      <c r="O35" s="13">
-        <v>0.54841750411401002</v>
-      </c>
-      <c r="P35" s="13">
-        <v>0.45158249588598998</v>
+      <c r="O35" s="1">
+        <v>0.55178859580450867</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.44821140419549138</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2131,10 +2131,10 @@
       <c r="F36">
         <v>821</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="1">
         <v>0.60657734470158342</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="1">
         <v>0.39342265529841658</v>
       </c>
       <c r="K36">
@@ -2146,10 +2146,10 @@
       <c r="M36">
         <v>64835</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="1">
         <v>0.73444898588725227</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="1">
         <v>0.26555101411274773</v>
       </c>
     </row>
@@ -2166,10 +2166,10 @@
       <c r="F37">
         <v>686</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="1">
         <v>0.54081632653061229</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="1">
         <v>0.45918367346938777</v>
       </c>
       <c r="K37">
@@ -2181,10 +2181,10 @@
       <c r="M37">
         <v>57919</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="1">
         <v>0.61952036464717963</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="1">
         <v>0.38047963535282031</v>
       </c>
     </row>
@@ -2193,34 +2193,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E38">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F38">
         <v>760</v>
       </c>
-      <c r="H38" s="13">
-        <v>0.38684210526315788</v>
-      </c>
-      <c r="I38" s="13">
-        <v>0.61315789473684212</v>
+      <c r="H38" s="1">
+        <v>0.39210526315789473</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.60789473684210527</v>
       </c>
       <c r="K38">
-        <v>27488</v>
+        <v>27799</v>
       </c>
       <c r="L38">
-        <v>27796</v>
+        <v>27485</v>
       </c>
       <c r="M38">
         <v>55284</v>
       </c>
-      <c r="O38" s="13">
-        <v>0.49721438390854494</v>
-      </c>
-      <c r="P38" s="13">
-        <v>0.502785616091455</v>
+      <c r="O38" s="1">
+        <v>0.50283988133998991</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.49716011866001014</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2236,10 +2236,10 @@
       <c r="F39">
         <v>95</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="1">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="1">
         <v>0.41052631578947368</v>
       </c>
       <c r="K39">
@@ -2251,10 +2251,10 @@
       <c r="M39">
         <v>6706</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="1">
         <v>0.66686549358783176</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="1">
         <v>0.33313450641216819</v>
       </c>
     </row>
@@ -2271,10 +2271,10 @@
       <c r="F40">
         <v>670</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="1">
         <v>0.66417910447761197</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="1">
         <v>0.33582089552238809</v>
       </c>
       <c r="K40">
@@ -2286,10 +2286,10 @@
       <c r="M40">
         <v>49065</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="1">
         <v>0.80171201467441144</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="1">
         <v>0.1982879853255885</v>
       </c>
     </row>
@@ -2306,10 +2306,10 @@
       <c r="F41">
         <v>1957</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="1">
         <v>0.38477261113949923</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="1">
         <v>0.61522738886050077</v>
       </c>
       <c r="K41">
@@ -2321,10 +2321,10 @@
       <c r="M41">
         <v>146619</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="1">
         <v>0.48357989073721686</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="1">
         <v>0.51642010926278314</v>
       </c>
     </row>
@@ -2333,34 +2333,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E42">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F42">
         <v>750</v>
       </c>
-      <c r="H42" s="13">
-        <v>0.45466666666666666</v>
-      </c>
-      <c r="I42" s="13">
-        <v>0.54533333333333334</v>
+      <c r="H42" s="1">
+        <v>0.45733333333333331</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.54266666666666663</v>
       </c>
       <c r="K42">
-        <v>33293</v>
+        <v>33437</v>
       </c>
       <c r="L42">
-        <v>29138</v>
+        <v>28994</v>
       </c>
       <c r="M42">
         <v>62431</v>
       </c>
-      <c r="O42" s="13">
-        <v>0.53327673751822013</v>
-      </c>
-      <c r="P42" s="13">
-        <v>0.46672326248177987</v>
+      <c r="O42" s="1">
+        <v>0.53558328394547583</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.46441671605452417</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2376,10 +2376,10 @@
       <c r="F43">
         <v>837</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="1">
         <v>0.33213859020310632</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="1">
         <v>0.66786140979689368</v>
       </c>
       <c r="K43">
@@ -2391,10 +2391,10 @@
       <c r="M43">
         <v>63994</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="1">
         <v>0.40969465887426948</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="1">
         <v>0.59030534112573052</v>
       </c>
     </row>
@@ -2403,34 +2403,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="E44">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
-      <c r="H44" s="13">
-        <v>0.2404610492845787</v>
-      </c>
-      <c r="I44" s="13">
-        <v>0.75953895071542132</v>
+      <c r="H44" s="1">
+        <v>0.246422893481717</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.75357710651828302</v>
       </c>
       <c r="K44">
-        <v>57387</v>
+        <v>58760</v>
       </c>
       <c r="L44">
-        <v>128243</v>
+        <v>126870</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
-      <c r="O44" s="13">
-        <v>0.30914722835748532</v>
-      </c>
-      <c r="P44" s="13">
-        <v>0.69085277164251468</v>
+      <c r="O44" s="1">
+        <v>0.31654366212357915</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.68345633787642079</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2438,34 +2438,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="E45">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="F45">
         <v>2099</v>
       </c>
-      <c r="H45" s="13">
-        <v>0.32110528823249168</v>
-      </c>
-      <c r="I45" s="13">
-        <v>0.67889471176750837</v>
+      <c r="H45" s="1">
+        <v>0.32396379228203909</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.67603620771796091</v>
       </c>
       <c r="K45">
-        <v>64315</v>
+        <v>64915</v>
       </c>
       <c r="L45">
-        <v>97059</v>
+        <v>96459</v>
       </c>
       <c r="M45">
         <v>161374</v>
       </c>
-      <c r="O45" s="13">
-        <v>0.39854623421368995</v>
-      </c>
-      <c r="P45" s="13">
-        <v>0.60145376578631005</v>
+      <c r="O45" s="1">
+        <v>0.40226430527842155</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.59773569472157839</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2481,10 +2481,10 @@
       <c r="F46">
         <v>686</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="1">
         <v>0.40233236151603496</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="1">
         <v>0.59766763848396498</v>
       </c>
       <c r="K46">
@@ -2496,10 +2496,10 @@
       <c r="M46">
         <v>53982</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="1">
         <v>0.49014486310251565</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="1">
         <v>0.5098551368974843</v>
       </c>
     </row>
@@ -2508,34 +2508,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E47">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
-      <c r="H47" s="13">
-        <v>0.55285540704738756</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0.44714459295261239</v>
+      <c r="H47" s="1">
+        <v>0.551640340218712</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.44835965978128794</v>
       </c>
       <c r="K47">
-        <v>40846</v>
+        <v>40726</v>
       </c>
       <c r="L47">
-        <v>21824</v>
+        <v>21944</v>
       </c>
       <c r="M47">
         <v>62670</v>
       </c>
-      <c r="O47" s="13">
-        <v>0.65176320408488908</v>
-      </c>
-      <c r="P47" s="13">
-        <v>0.34823679591511092</v>
+      <c r="O47" s="1">
+        <v>0.64984841231849366</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.35015158768150628</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2543,34 +2543,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E48">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
-      <c r="H48" s="13">
-        <v>0.33096926713947988</v>
-      </c>
-      <c r="I48" s="13">
-        <v>0.66903073286052006</v>
+      <c r="H48" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.66666666666666663</v>
       </c>
       <c r="K48">
-        <v>26202</v>
+        <v>26299</v>
       </c>
       <c r="L48">
-        <v>41162</v>
+        <v>41065</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
-      <c r="O48" s="13">
-        <v>0.3889614630960157</v>
-      </c>
-      <c r="P48" s="13">
-        <v>0.61103853690398435</v>
+      <c r="O48" s="1">
+        <v>0.39040140134196305</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.60959859865803689</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2586,10 +2586,10 @@
       <c r="F49">
         <v>677</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="1">
         <v>0.43279172821270312</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="1">
         <v>0.56720827178729694</v>
       </c>
       <c r="K49">
@@ -2601,10 +2601,10 @@
       <c r="M49">
         <v>54192</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="1">
         <v>0.52267862415116617</v>
       </c>
-      <c r="P49" s="13">
+      <c r="P49" s="1">
         <v>0.47732137584883377</v>
       </c>
     </row>
@@ -2621,10 +2621,10 @@
       <c r="F50">
         <v>428</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="1">
         <v>0.60280373831775702</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="1">
         <v>0.39719626168224298</v>
       </c>
       <c r="K50">
@@ -2636,10 +2636,10 @@
       <c r="M50">
         <v>33241</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="1">
         <v>0.71595319033723415</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P50" s="1">
         <v>0.28404680966276585</v>
       </c>
     </row>
@@ -2648,34 +2648,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E51">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="F51">
         <v>1124</v>
       </c>
-      <c r="H51" s="13">
-        <v>0.45551601423487542</v>
-      </c>
-      <c r="I51" s="13">
-        <v>0.54448398576512458</v>
+      <c r="H51" s="1">
+        <v>0.48131672597864766</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.51868327402135228</v>
       </c>
       <c r="K51">
-        <v>48566</v>
+        <v>51366</v>
       </c>
       <c r="L51">
-        <v>41704</v>
+        <v>38904</v>
       </c>
       <c r="M51">
         <v>90270</v>
       </c>
-      <c r="O51" s="13">
-        <v>0.53800819762933427</v>
-      </c>
-      <c r="P51" s="13">
-        <v>0.46199180237066578</v>
+      <c r="O51" s="1">
+        <v>0.56902625456962441</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.43097374543037553</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2683,34 +2683,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>2278</v>
+        <v>2290</v>
       </c>
       <c r="E52">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="F52">
         <v>3821</v>
       </c>
-      <c r="H52" s="13">
-        <v>0.59617901073017532</v>
-      </c>
-      <c r="I52" s="13">
-        <v>0.40382098926982463</v>
+      <c r="H52" s="1">
+        <v>0.59931954985605862</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.40068045014394138</v>
       </c>
       <c r="K52">
-        <v>233221</v>
+        <v>234259</v>
       </c>
       <c r="L52">
-        <v>111111</v>
+        <v>110073</v>
       </c>
       <c r="M52">
         <v>344332</v>
       </c>
-      <c r="O52" s="13">
-        <v>0.67731433616393477</v>
-      </c>
-      <c r="P52" s="13">
-        <v>0.32268566383606517</v>
+      <c r="O52" s="1">
+        <v>0.68032886865002384</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.31967113134997621</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2726,10 +2726,10 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="1">
         <v>0.8</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="1">
         <v>0.2</v>
       </c>
       <c r="K53">
@@ -2741,51 +2741,51 @@
       <c r="M53">
         <v>5167</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="1">
         <v>0.89568414940971552</v>
       </c>
-      <c r="P53" s="13">
+      <c r="P53" s="1">
         <v>0.1043158505902845</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12">
-        <v>21519</v>
-      </c>
-      <c r="E54" s="12">
-        <v>25594</v>
-      </c>
-      <c r="F54" s="12">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13">
+        <v>21762</v>
+      </c>
+      <c r="E54" s="13">
+        <v>25351</v>
+      </c>
+      <c r="F54" s="13">
         <v>47113</v>
       </c>
-      <c r="G54" s="12"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.45675291320866851</v>
+        <v>0.46191072527752425</v>
       </c>
       <c r="I54" s="14">
-        <v>0.54324708679133149</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12">
-        <v>2048924</v>
-      </c>
-      <c r="L54" s="12">
-        <v>1691790</v>
-      </c>
-      <c r="M54" s="12">
+        <v>0.5380892747224757</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13">
+        <v>2068620</v>
+      </c>
+      <c r="L54" s="13">
+        <v>1672094</v>
+      </c>
+      <c r="M54" s="13">
         <v>3740714</v>
       </c>
-      <c r="N54" s="12"/>
+      <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.54773607391530066</v>
+        <v>0.55300137888114409</v>
       </c>
       <c r="P54" s="14">
-        <v>0.45226392608469934</v>
+        <v>0.44699862111885591</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2804,10 +2804,10 @@
       <c r="F55">
         <v>285</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="1">
         <v>0.70877192982456139</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="1">
         <v>0.29122807017543861</v>
       </c>
       <c r="K55">
@@ -2819,10 +2819,10 @@
       <c r="M55">
         <v>22926</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="1">
         <v>0.80336735584053043</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P55" s="1">
         <v>0.1966326441594696</v>
       </c>
     </row>
@@ -2831,34 +2831,34 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <v>81</v>
       </c>
-      <c r="H56" s="13">
-        <v>0.80246913580246915</v>
-      </c>
-      <c r="I56" s="13">
-        <v>0.19753086419753085</v>
+      <c r="H56" s="1">
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.20987654320987653</v>
       </c>
       <c r="K56">
-        <v>5803</v>
+        <v>5749</v>
       </c>
       <c r="L56">
-        <v>1107</v>
+        <v>1161</v>
       </c>
       <c r="M56">
         <v>6910</v>
       </c>
-      <c r="O56" s="13">
-        <v>0.83979739507959483</v>
-      </c>
-      <c r="P56" s="13">
-        <v>0.16020260492040522</v>
+      <c r="O56" s="1">
+        <v>0.83198263386396532</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.16801736613603474</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2874,10 +2874,10 @@
       <c r="F57">
         <v>242</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="1">
         <v>0.31404958677685951</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="1">
         <v>0.68595041322314054</v>
       </c>
       <c r="K57">
@@ -2889,10 +2889,10 @@
       <c r="M57">
         <v>18986</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="1">
         <v>0.40192773622669337</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="1">
         <v>0.59807226377330669</v>
       </c>
     </row>
@@ -2909,10 +2909,10 @@
       <c r="F58">
         <v>68</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="1">
         <v>0.70588235294117652</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="1">
         <v>0.29411764705882354</v>
       </c>
       <c r="K58">
@@ -2924,10 +2924,10 @@
       <c r="M58">
         <v>5417</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O58" s="1">
         <v>0.76906036551596824</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P58" s="1">
         <v>0.23093963448403176</v>
       </c>
     </row>
@@ -2944,10 +2944,10 @@
       <c r="F59">
         <v>163</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="1">
         <v>0.52760736196319014</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="1">
         <v>0.47239263803680981</v>
       </c>
       <c r="K59">
@@ -2959,10 +2959,10 @@
       <c r="M59">
         <v>13710</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O59" s="1">
         <v>0.59978118161925598</v>
       </c>
-      <c r="P59" s="13">
+      <c r="P59" s="1">
         <v>0.40021881838074397</v>
       </c>
     </row>
@@ -2979,10 +2979,10 @@
       <c r="F60">
         <v>104</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="1">
         <v>0.56730769230769229</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="1">
         <v>0.43269230769230771</v>
       </c>
       <c r="K60">
@@ -2994,51 +2994,51 @@
       <c r="M60">
         <v>7610</v>
       </c>
-      <c r="O60" s="13">
+      <c r="O60" s="1">
         <v>0.71773981603153747</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P60" s="1">
         <v>0.28226018396846253</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12">
-        <v>536</v>
-      </c>
-      <c r="E61" s="12">
-        <v>407</v>
-      </c>
-      <c r="F61" s="12">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13">
+        <v>535</v>
+      </c>
+      <c r="E61" s="13">
+        <v>408</v>
+      </c>
+      <c r="F61" s="13">
         <v>943</v>
       </c>
-      <c r="G61" s="12"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.56839872746553555</v>
+        <v>0.56733828207847292</v>
       </c>
       <c r="I61" s="14">
-        <v>0.43160127253446445</v>
-      </c>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12">
-        <v>49703</v>
-      </c>
-      <c r="L61" s="12">
-        <v>25856</v>
-      </c>
-      <c r="M61" s="12">
+        <v>0.43266171792152702</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13">
+        <v>49649</v>
+      </c>
+      <c r="L61" s="13">
+        <v>25910</v>
+      </c>
+      <c r="M61" s="13">
         <v>75559</v>
       </c>
-      <c r="N61" s="12"/>
+      <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.65780383541338561</v>
+        <v>0.6570891621117273</v>
       </c>
       <c r="P61" s="14">
-        <v>0.34219616458661445</v>
+        <v>0.34291083788827276</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3057,10 +3057,10 @@
       <c r="F62">
         <v>37</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="1">
         <v>0.45945945945945948</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="1">
         <v>0.54054054054054057</v>
       </c>
       <c r="K62">
@@ -3072,10 +3072,10 @@
       <c r="M62">
         <v>3033</v>
       </c>
-      <c r="O62" s="13">
+      <c r="O62" s="1">
         <v>0.63303659742828877</v>
       </c>
-      <c r="P62" s="13">
+      <c r="P62" s="1">
         <v>0.36696340257171117</v>
       </c>
     </row>
@@ -3092,10 +3092,10 @@
       <c r="F63">
         <v>59</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="1">
         <v>0.20338983050847459</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="1">
         <v>0.79661016949152541</v>
       </c>
       <c r="K63">
@@ -3107,10 +3107,10 @@
       <c r="M63">
         <v>4163</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="1">
         <v>0.24645688205620947</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="1">
         <v>0.75354311794379059</v>
       </c>
     </row>
@@ -3127,10 +3127,10 @@
       <c r="F64">
         <v>88</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="1">
         <v>0.30681818181818182</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="1">
         <v>0.69318181818181823</v>
       </c>
       <c r="K64">
@@ -3142,10 +3142,10 @@
       <c r="M64">
         <v>6243</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="1">
         <v>0.39099791766778791</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="1">
         <v>0.60900208233221209</v>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
       <c r="F65">
         <v>220</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="1">
         <v>0.27272727272727271</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="1">
         <v>0.72727272727272729</v>
       </c>
       <c r="K65">
@@ -3177,10 +3177,10 @@
       <c r="M65">
         <v>15438</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="1">
         <v>0.35827179686487887</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="1">
         <v>0.64172820313512113</v>
       </c>
     </row>
@@ -3197,10 +3197,10 @@
       <c r="F66">
         <v>115</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="1">
         <v>0.37391304347826088</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="1">
         <v>0.62608695652173918</v>
       </c>
       <c r="K66">
@@ -3212,10 +3212,10 @@
       <c r="M66">
         <v>7768</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="1">
         <v>0.42134397528321316</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P66" s="1">
         <v>0.57865602471678679</v>
       </c>
     </row>
@@ -3232,10 +3232,10 @@
       <c r="F67">
         <v>271</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="1">
         <v>0.3210332103321033</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="1">
         <v>0.6789667896678967</v>
       </c>
       <c r="K67">
@@ -3247,10 +3247,10 @@
       <c r="M67">
         <v>19720</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="1">
         <v>0.40557809330628802</v>
       </c>
-      <c r="P67" s="13">
+      <c r="P67" s="1">
         <v>0.59442190669371198</v>
       </c>
     </row>
@@ -3267,10 +3267,10 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="1">
         <v>0.52</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="1">
         <v>0.48</v>
       </c>
       <c r="K68">
@@ -3282,10 +3282,10 @@
       <c r="M68">
         <v>7632</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="1">
         <v>0.62237945492662472</v>
       </c>
-      <c r="P68" s="13">
+      <c r="P68" s="1">
         <v>0.37762054507337528</v>
       </c>
     </row>
@@ -3302,10 +3302,10 @@
       <c r="F69">
         <v>119</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="1">
         <v>0.40336134453781514</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="1">
         <v>0.59663865546218486</v>
       </c>
       <c r="K69">
@@ -3317,10 +3317,10 @@
       <c r="M69">
         <v>8660</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="1">
         <v>0.50646651270207854</v>
       </c>
-      <c r="P69" s="13">
+      <c r="P69" s="1">
         <v>0.49353348729792146</v>
       </c>
     </row>
@@ -3337,10 +3337,10 @@
       <c r="F70">
         <v>46</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="1">
         <v>0.13043478260869565</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="1">
         <v>0.86956521739130432</v>
       </c>
       <c r="K70">
@@ -3352,10 +3352,10 @@
       <c r="M70">
         <v>2926</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O70" s="1">
         <v>0.24504442925495556</v>
       </c>
-      <c r="P70" s="13">
+      <c r="P70" s="1">
         <v>0.75495557074504438</v>
       </c>
     </row>
@@ -3372,10 +3372,10 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="1">
         <v>0.46153846153846156</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="1">
         <v>0.53846153846153844</v>
       </c>
       <c r="K71">
@@ -3387,10 +3387,10 @@
       <c r="M71">
         <v>5888</v>
       </c>
-      <c r="O71" s="13">
+      <c r="O71" s="1">
         <v>0.53277853260869568</v>
       </c>
-      <c r="P71" s="13">
+      <c r="P71" s="1">
         <v>0.46722146739130432</v>
       </c>
     </row>
@@ -3407,10 +3407,10 @@
       <c r="F72">
         <v>66</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="1">
         <v>0.51515151515151514</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="1">
         <v>0.48484848484848486</v>
       </c>
       <c r="K72">
@@ -3422,10 +3422,10 @@
       <c r="M72">
         <v>5681</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O72" s="1">
         <v>0.56891392360499915</v>
       </c>
-      <c r="P72" s="13">
+      <c r="P72" s="1">
         <v>0.43108607639500091</v>
       </c>
     </row>
@@ -3442,10 +3442,10 @@
       <c r="F73">
         <v>31</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="1">
         <v>0.32258064516129031</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="1">
         <v>0.67741935483870963</v>
       </c>
       <c r="K73">
@@ -3457,10 +3457,10 @@
       <c r="M73">
         <v>2447</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="1">
         <v>0.4765018389865141</v>
       </c>
-      <c r="P73" s="13">
+      <c r="P73" s="1">
         <v>0.5234981610134859</v>
       </c>
     </row>
@@ -3477,10 +3477,10 @@
       <c r="F74">
         <v>79</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="1">
         <v>0.25316455696202533</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="1">
         <v>0.74683544303797467</v>
       </c>
       <c r="K74">
@@ -3492,10 +3492,10 @@
       <c r="M74">
         <v>5888</v>
       </c>
-      <c r="O74" s="13">
+      <c r="O74" s="1">
         <v>0.28923233695652173</v>
       </c>
-      <c r="P74" s="13">
+      <c r="P74" s="1">
         <v>0.71076766304347827</v>
       </c>
     </row>
@@ -3512,10 +3512,10 @@
       <c r="F75">
         <v>33</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="1">
         <v>0.24242424242424243</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="1">
         <v>0.75757575757575757</v>
       </c>
       <c r="K75">
@@ -3527,10 +3527,10 @@
       <c r="M75">
         <v>2443</v>
       </c>
-      <c r="O75" s="13">
+      <c r="O75" s="1">
         <v>0.17560376586164553</v>
       </c>
-      <c r="P75" s="13">
+      <c r="P75" s="1">
         <v>0.8243962341383545</v>
       </c>
     </row>
@@ -3547,10 +3547,10 @@
       <c r="F76">
         <v>52</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="1">
         <v>0.48076923076923078</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="1">
         <v>0.51923076923076927</v>
       </c>
       <c r="K76">
@@ -3562,10 +3562,10 @@
       <c r="M76">
         <v>4042</v>
       </c>
-      <c r="O76" s="13">
+      <c r="O76" s="1">
         <v>0.59698169223156849</v>
       </c>
-      <c r="P76" s="13">
+      <c r="P76" s="1">
         <v>0.40301830776843145</v>
       </c>
     </row>
@@ -3582,10 +3582,10 @@
       <c r="F77">
         <v>93</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="1">
         <v>0.30107526881720431</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="1">
         <v>0.69892473118279574</v>
       </c>
       <c r="K77">
@@ -3597,10 +3597,10 @@
       <c r="M77">
         <v>6684</v>
       </c>
-      <c r="O77" s="13">
+      <c r="O77" s="1">
         <v>0.31403351286654696</v>
       </c>
-      <c r="P77" s="13">
+      <c r="P77" s="1">
         <v>0.68596648713345298</v>
       </c>
     </row>
@@ -3617,10 +3617,10 @@
       <c r="F78">
         <v>65</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="1">
         <v>0.26153846153846155</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="1">
         <v>0.7384615384615385</v>
       </c>
       <c r="K78">
@@ -3632,10 +3632,10 @@
       <c r="M78">
         <v>5234</v>
       </c>
-      <c r="O78" s="13">
+      <c r="O78" s="1">
         <v>0.32976690867405428</v>
       </c>
-      <c r="P78" s="13">
+      <c r="P78" s="1">
         <v>0.67023309132594577</v>
       </c>
     </row>
@@ -3652,10 +3652,10 @@
       <c r="F79">
         <v>15</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79" s="1">
         <v>0.73333333333333328</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="1">
         <v>0.26666666666666666</v>
       </c>
       <c r="K79">
@@ -3667,10 +3667,10 @@
       <c r="M79">
         <v>1200</v>
       </c>
-      <c r="O79" s="13">
+      <c r="O79" s="1">
         <v>0.84666666666666668</v>
       </c>
-      <c r="P79" s="13">
+      <c r="P79" s="1">
         <v>0.15333333333333332</v>
       </c>
     </row>
@@ -3687,10 +3687,10 @@
       <c r="F80">
         <v>37</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="1">
         <v>0.27027027027027029</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="1">
         <v>0.72972972972972971</v>
       </c>
       <c r="K80">
@@ -3702,10 +3702,10 @@
       <c r="M80">
         <v>2475</v>
       </c>
-      <c r="O80" s="13">
+      <c r="O80" s="1">
         <v>0.34989898989898988</v>
       </c>
-      <c r="P80" s="13">
+      <c r="P80" s="1">
         <v>0.65010101010101007</v>
       </c>
     </row>
@@ -3722,10 +3722,10 @@
       <c r="F81">
         <v>31</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="1">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="1">
         <v>0.70967741935483875</v>
       </c>
       <c r="K81">
@@ -3737,10 +3737,10 @@
       <c r="M81">
         <v>1846</v>
       </c>
-      <c r="O81" s="13">
+      <c r="O81" s="1">
         <v>0.53033586132177679</v>
       </c>
-      <c r="P81" s="13">
+      <c r="P81" s="1">
         <v>0.46966413867822321</v>
       </c>
     </row>
@@ -3757,10 +3757,10 @@
       <c r="F82">
         <v>39</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="K82">
@@ -3772,10 +3772,10 @@
       <c r="M82">
         <v>3281</v>
       </c>
-      <c r="O82" s="13">
+      <c r="O82" s="1">
         <v>0.73940871685461751</v>
       </c>
-      <c r="P82" s="13">
+      <c r="P82" s="1">
         <v>0.26059128314538249</v>
       </c>
     </row>
@@ -3792,10 +3792,10 @@
       <c r="F83">
         <v>130</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="1">
         <v>0.22307692307692309</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="1">
         <v>0.77692307692307694</v>
       </c>
       <c r="K83">
@@ -3807,10 +3807,10 @@
       <c r="M83">
         <v>9172</v>
       </c>
-      <c r="O83" s="13">
+      <c r="O83" s="1">
         <v>0.28783253379851725</v>
       </c>
-      <c r="P83" s="13">
+      <c r="P83" s="1">
         <v>0.71216746620148275</v>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
       <c r="F84">
         <v>106</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="1">
         <v>0.55660377358490565</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="1">
         <v>0.44339622641509435</v>
       </c>
       <c r="K84">
@@ -3842,10 +3842,10 @@
       <c r="M84">
         <v>8309</v>
       </c>
-      <c r="O84" s="13">
+      <c r="O84" s="1">
         <v>0.66891322662173547</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P84" s="1">
         <v>0.33108677337826453</v>
       </c>
     </row>
@@ -3862,10 +3862,10 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="1">
         <v>0.4</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="1">
         <v>0.6</v>
       </c>
       <c r="K85">
@@ -3877,10 +3877,10 @@
       <c r="M85">
         <v>4660</v>
       </c>
-      <c r="O85" s="13">
+      <c r="O85" s="1">
         <v>0.47618025751072962</v>
       </c>
-      <c r="P85" s="13">
+      <c r="P85" s="1">
         <v>0.52381974248927043</v>
       </c>
     </row>
@@ -3897,10 +3897,10 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="1">
         <v>0.34210526315789475</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="1">
         <v>0.65789473684210531</v>
       </c>
       <c r="K86">
@@ -3912,10 +3912,10 @@
       <c r="M86">
         <v>6435</v>
       </c>
-      <c r="O86" s="13">
+      <c r="O86" s="1">
         <v>0.43729603729603728</v>
       </c>
-      <c r="P86" s="13">
+      <c r="P86" s="1">
         <v>0.56270396270396272</v>
       </c>
     </row>
@@ -3932,10 +3932,10 @@
       <c r="F87">
         <v>113</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="1">
         <v>0.34513274336283184</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="1">
         <v>0.65486725663716816</v>
       </c>
       <c r="K87">
@@ -3947,46 +3947,46 @@
       <c r="M87">
         <v>8329</v>
       </c>
-      <c r="O87" s="13">
+      <c r="O87" s="1">
         <v>0.42442069876335692</v>
       </c>
-      <c r="P87" s="13">
+      <c r="P87" s="1">
         <v>0.57557930123664303</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13">
         <v>759</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="13">
         <v>1390</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="13">
         <v>2149</v>
       </c>
-      <c r="G88" s="12"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="14">
         <v>0.35318752908329454</v>
       </c>
       <c r="I88" s="14">
         <v>0.64681247091670546</v>
       </c>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12">
+      <c r="J88" s="13"/>
+      <c r="K88" s="13">
         <v>70000</v>
       </c>
-      <c r="L88" s="12">
+      <c r="L88" s="13">
         <v>89597</v>
       </c>
-      <c r="M88" s="12">
+      <c r="M88" s="13">
         <v>159597</v>
       </c>
-      <c r="N88" s="12"/>
+      <c r="N88" s="13"/>
       <c r="O88" s="14">
         <v>0.43860473567798891</v>
       </c>
@@ -4010,10 +4010,10 @@
       <c r="F89">
         <v>155</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="1">
         <v>0.54838709677419351</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="1">
         <v>0.45161290322580644</v>
       </c>
       <c r="K89">
@@ -4025,46 +4025,46 @@
       <c r="M89">
         <v>12476</v>
       </c>
-      <c r="O89" s="13">
+      <c r="O89" s="1">
         <v>0.66038794485411989</v>
       </c>
-      <c r="P89" s="13">
+      <c r="P89" s="1">
         <v>0.33961205514588011</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13">
         <v>85</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="13">
         <v>70</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="13">
         <v>155</v>
       </c>
-      <c r="G90" s="12"/>
+      <c r="G90" s="13"/>
       <c r="H90" s="14">
         <v>0.54838709677419351</v>
       </c>
       <c r="I90" s="14">
         <v>0.45161290322580644</v>
       </c>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12">
+      <c r="J90" s="13"/>
+      <c r="K90" s="13">
         <v>8239</v>
       </c>
-      <c r="L90" s="12">
+      <c r="L90" s="13">
         <v>4237</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M90" s="13">
         <v>12476</v>
       </c>
-      <c r="N90" s="12"/>
+      <c r="N90" s="13"/>
       <c r="O90" s="14">
         <v>0.66038794485411989</v>
       </c>
@@ -4088,10 +4088,10 @@
       <c r="F91">
         <v>481</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="1">
         <v>0.58004158004158002</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="1">
         <v>0.41995841995841998</v>
       </c>
       <c r="K91">
@@ -4103,10 +4103,10 @@
       <c r="M91">
         <v>38674</v>
       </c>
-      <c r="O91" s="13">
+      <c r="O91" s="1">
         <v>0.66833014428298076</v>
       </c>
-      <c r="P91" s="13">
+      <c r="P91" s="1">
         <v>0.33166985571701918</v>
       </c>
     </row>
@@ -4123,10 +4123,10 @@
       <c r="F92">
         <v>460</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="1">
         <v>0.63478260869565217</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92" s="1">
         <v>0.36521739130434783</v>
       </c>
       <c r="K92">
@@ -4138,10 +4138,10 @@
       <c r="M92">
         <v>40489</v>
       </c>
-      <c r="O92" s="13">
+      <c r="O92" s="1">
         <v>0.68954530860233643</v>
       </c>
-      <c r="P92" s="13">
+      <c r="P92" s="1">
         <v>0.31045469139766357</v>
       </c>
     </row>
@@ -4158,10 +4158,10 @@
       <c r="F93">
         <v>903</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H93" s="1">
         <v>0.58028792912513838</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="1">
         <v>0.41971207087486156</v>
       </c>
       <c r="K93">
@@ -4173,10 +4173,10 @@
       <c r="M93">
         <v>75481</v>
       </c>
-      <c r="O93" s="13">
+      <c r="O93" s="1">
         <v>0.67618341039466889</v>
       </c>
-      <c r="P93" s="13">
+      <c r="P93" s="1">
         <v>0.32381658960533116</v>
       </c>
     </row>
@@ -4193,10 +4193,10 @@
       <c r="F94">
         <v>669</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94" s="1">
         <v>0.41106128550074739</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94" s="1">
         <v>0.58893871449925261</v>
       </c>
       <c r="K94">
@@ -4208,10 +4208,10 @@
       <c r="M94">
         <v>57667</v>
       </c>
-      <c r="O94" s="13">
+      <c r="O94" s="1">
         <v>0.46522274437720013</v>
       </c>
-      <c r="P94" s="13">
+      <c r="P94" s="1">
         <v>0.53477725562279987</v>
       </c>
     </row>
@@ -4228,10 +4228,10 @@
       <c r="F95">
         <v>99</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H95" s="1">
         <v>0.50505050505050508</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="1">
         <v>0.49494949494949497</v>
       </c>
       <c r="K95">
@@ -4243,10 +4243,10 @@
       <c r="M95">
         <v>8375</v>
       </c>
-      <c r="O95" s="13">
+      <c r="O95" s="1">
         <v>0.60752238805970149</v>
       </c>
-      <c r="P95" s="13">
+      <c r="P95" s="1">
         <v>0.39247761194029851</v>
       </c>
     </row>
@@ -4263,10 +4263,10 @@
       <c r="F96">
         <v>148</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96" s="1">
         <v>0.7432432432432432</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="1">
         <v>0.25675675675675674</v>
       </c>
       <c r="K96">
@@ -4278,10 +4278,10 @@
       <c r="M96">
         <v>12049</v>
       </c>
-      <c r="O96" s="13">
+      <c r="O96" s="1">
         <v>0.85409577558303595</v>
       </c>
-      <c r="P96" s="13">
+      <c r="P96" s="1">
         <v>0.14590422441696407</v>
       </c>
     </row>
@@ -4298,10 +4298,10 @@
       <c r="F97">
         <v>97</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97" s="1">
         <v>0.84536082474226804</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="1">
         <v>0.15463917525773196</v>
       </c>
       <c r="K97">
@@ -4313,10 +4313,10 @@
       <c r="M97">
         <v>8171</v>
       </c>
-      <c r="O97" s="13">
+      <c r="O97" s="1">
         <v>0.93415738587688169</v>
       </c>
-      <c r="P97" s="13">
+      <c r="P97" s="1">
         <v>6.5842614123118343E-2</v>
       </c>
     </row>
@@ -4333,10 +4333,10 @@
       <c r="F98">
         <v>117</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="1">
         <v>0.83760683760683763</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="1">
         <v>0.1623931623931624</v>
       </c>
       <c r="K98">
@@ -4348,10 +4348,10 @@
       <c r="M98">
         <v>10528</v>
       </c>
-      <c r="O98" s="13">
+      <c r="O98" s="1">
         <v>0.93199088145896658</v>
       </c>
-      <c r="P98" s="13">
+      <c r="P98" s="1">
         <v>6.8009118541033434E-2</v>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
       <c r="F99">
         <v>70</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99" s="1">
         <v>0.47142857142857142</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="1">
         <v>0.52857142857142858</v>
       </c>
       <c r="K99">
@@ -4383,10 +4383,10 @@
       <c r="M99">
         <v>6020</v>
       </c>
-      <c r="O99" s="13">
+      <c r="O99" s="1">
         <v>0.49717607973421929</v>
       </c>
-      <c r="P99" s="13">
+      <c r="P99" s="1">
         <v>0.50282392026578071</v>
       </c>
     </row>
@@ -4395,34 +4395,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E100">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F100">
         <v>364</v>
       </c>
-      <c r="H100" s="13">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I100" s="13">
-        <v>0.46153846153846156</v>
+      <c r="H100" s="1">
+        <v>0.54395604395604391</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.45604395604395603</v>
       </c>
       <c r="K100">
-        <v>16777</v>
+        <v>16914</v>
       </c>
       <c r="L100">
-        <v>9938</v>
+        <v>9801</v>
       </c>
       <c r="M100">
         <v>26715</v>
       </c>
-      <c r="O100" s="13">
-        <v>0.62799925135691559</v>
-      </c>
-      <c r="P100" s="13">
-        <v>0.37200074864308441</v>
+      <c r="O100" s="1">
+        <v>0.6331274564851207</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0.3668725435148793</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4430,34 +4430,34 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E101">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F101">
         <v>244</v>
       </c>
-      <c r="H101" s="13">
-        <v>0.40163934426229508</v>
-      </c>
-      <c r="I101" s="13">
-        <v>0.59836065573770492</v>
+      <c r="H101" s="1">
+        <v>0.41803278688524592</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.58196721311475408</v>
       </c>
       <c r="K101">
-        <v>8931</v>
+        <v>9268</v>
       </c>
       <c r="L101">
-        <v>10426</v>
+        <v>10089</v>
       </c>
       <c r="M101">
         <v>19357</v>
       </c>
-      <c r="O101" s="13">
-        <v>0.4613834788448623</v>
-      </c>
-      <c r="P101" s="13">
-        <v>0.5386165211551377</v>
+      <c r="O101" s="1">
+        <v>0.47879320142584081</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0.52120679857415919</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -4473,10 +4473,10 @@
       <c r="F102">
         <v>175</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="1">
         <v>0.74285714285714288</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="1">
         <v>0.25714285714285712</v>
       </c>
       <c r="K102">
@@ -4488,10 +4488,10 @@
       <c r="M102">
         <v>13756</v>
       </c>
-      <c r="O102" s="13">
+      <c r="O102" s="1">
         <v>0.84319569642337888</v>
       </c>
-      <c r="P102" s="13">
+      <c r="P102" s="1">
         <v>0.15680430357662112</v>
       </c>
     </row>
@@ -4500,34 +4500,34 @@
         <v>110</v>
       </c>
       <c r="D103">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E103">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F103">
         <v>381</v>
       </c>
-      <c r="H103" s="13">
-        <v>0.56955380577427817</v>
-      </c>
-      <c r="I103" s="13">
-        <v>0.43044619422572178</v>
+      <c r="H103" s="1">
+        <v>0.58005249343832022</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.41994750656167978</v>
       </c>
       <c r="K103">
-        <v>21936</v>
+        <v>22356</v>
       </c>
       <c r="L103">
-        <v>11908</v>
+        <v>11488</v>
       </c>
       <c r="M103">
         <v>33844</v>
       </c>
-      <c r="O103" s="13">
-        <v>0.64815033683961709</v>
-      </c>
-      <c r="P103" s="13">
-        <v>0.35184966316038291</v>
+      <c r="O103" s="1">
+        <v>0.66056021746838434</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0.33943978253161566</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -4543,10 +4543,10 @@
       <c r="F104">
         <v>893</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="1">
         <v>0.54759238521836506</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="1">
         <v>0.45240761478163494</v>
       </c>
       <c r="K104">
@@ -4558,10 +4558,10 @@
       <c r="M104">
         <v>69329</v>
       </c>
-      <c r="O104" s="13">
+      <c r="O104" s="1">
         <v>0.63233279003014609</v>
       </c>
-      <c r="P104" s="13">
+      <c r="P104" s="1">
         <v>0.36766720996985386</v>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
       <c r="F105">
         <v>145</v>
       </c>
-      <c r="H105" s="13">
+      <c r="H105" s="1">
         <v>0.75862068965517238</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="1">
         <v>0.2413793103448276</v>
       </c>
       <c r="K105">
@@ -4593,10 +4593,10 @@
       <c r="M105">
         <v>12605</v>
       </c>
-      <c r="O105" s="13">
+      <c r="O105" s="1">
         <v>0.8387941293137644</v>
       </c>
-      <c r="P105" s="13">
+      <c r="P105" s="1">
         <v>0.16120587068623562</v>
       </c>
     </row>
@@ -4613,10 +4613,10 @@
       <c r="F106">
         <v>48</v>
       </c>
-      <c r="H106" s="13">
+      <c r="H106" s="1">
         <v>0.5625</v>
       </c>
-      <c r="I106" s="13">
+      <c r="I106" s="1">
         <v>0.4375</v>
       </c>
       <c r="K106">
@@ -4628,10 +4628,10 @@
       <c r="M106">
         <v>4569</v>
       </c>
-      <c r="O106" s="13">
+      <c r="O106" s="1">
         <v>0.58678047712847448</v>
       </c>
-      <c r="P106" s="13">
+      <c r="P106" s="1">
         <v>0.41321952287152552</v>
       </c>
     </row>
@@ -4648,10 +4648,10 @@
       <c r="F107">
         <v>297</v>
       </c>
-      <c r="H107" s="13">
+      <c r="H107" s="1">
         <v>0.38720538720538722</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107" s="1">
         <v>0.61279461279461278</v>
       </c>
       <c r="K107">
@@ -4663,10 +4663,10 @@
       <c r="M107">
         <v>24100</v>
       </c>
-      <c r="O107" s="13">
+      <c r="O107" s="1">
         <v>0.42278008298755188</v>
       </c>
-      <c r="P107" s="13">
+      <c r="P107" s="1">
         <v>0.57721991701244812</v>
       </c>
     </row>
@@ -4683,10 +4683,10 @@
       <c r="F108">
         <v>537</v>
       </c>
-      <c r="H108" s="13">
+      <c r="H108" s="1">
         <v>0.50837988826815639</v>
       </c>
-      <c r="I108" s="13">
+      <c r="I108" s="1">
         <v>0.49162011173184356</v>
       </c>
       <c r="K108">
@@ -4698,10 +4698,10 @@
       <c r="M108">
         <v>46424</v>
       </c>
-      <c r="O108" s="13">
+      <c r="O108" s="1">
         <v>0.57689987937273823</v>
       </c>
-      <c r="P108" s="13">
+      <c r="P108" s="1">
         <v>0.42310012062726177</v>
       </c>
     </row>
@@ -4718,10 +4718,10 @@
       <c r="F109">
         <v>529</v>
       </c>
-      <c r="H109" s="13">
+      <c r="H109" s="1">
         <v>0.66351606805293006</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="1">
         <v>0.33648393194706994</v>
       </c>
       <c r="K109">
@@ -4733,10 +4733,10 @@
       <c r="M109">
         <v>46501</v>
       </c>
-      <c r="O109" s="13">
+      <c r="O109" s="1">
         <v>0.74544633448743036</v>
       </c>
-      <c r="P109" s="13">
+      <c r="P109" s="1">
         <v>0.25455366551256964</v>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
       <c r="F110">
         <v>171</v>
       </c>
-      <c r="H110" s="13">
+      <c r="H110" s="1">
         <v>0.52046783625730997</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="1">
         <v>0.47953216374269003</v>
       </c>
       <c r="K110">
@@ -4768,10 +4768,10 @@
       <c r="M110">
         <v>13485</v>
       </c>
-      <c r="O110" s="13">
+      <c r="O110" s="1">
         <v>0.58012606599925842</v>
       </c>
-      <c r="P110" s="13">
+      <c r="P110" s="1">
         <v>0.41987393400074158</v>
       </c>
     </row>
@@ -4788,10 +4788,10 @@
       <c r="F111">
         <v>69</v>
       </c>
-      <c r="H111" s="13">
+      <c r="H111" s="1">
         <v>0.55072463768115942</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="1">
         <v>0.44927536231884058</v>
       </c>
       <c r="K111">
@@ -4803,10 +4803,10 @@
       <c r="M111">
         <v>6367</v>
       </c>
-      <c r="O111" s="13">
+      <c r="O111" s="1">
         <v>0.59949740851264333</v>
       </c>
-      <c r="P111" s="13">
+      <c r="P111" s="1">
         <v>0.40050259148735667</v>
       </c>
     </row>
@@ -4823,10 +4823,10 @@
       <c r="F112">
         <v>160</v>
       </c>
-      <c r="H112" s="13">
+      <c r="H112" s="1">
         <v>0.88124999999999998</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112" s="1">
         <v>0.11874999999999999</v>
       </c>
       <c r="K112">
@@ -4838,10 +4838,10 @@
       <c r="M112">
         <v>16149</v>
       </c>
-      <c r="O112" s="13">
+      <c r="O112" s="1">
         <v>0.94755093194625051</v>
       </c>
-      <c r="P112" s="13">
+      <c r="P112" s="1">
         <v>5.2449068053749458E-2</v>
       </c>
     </row>
@@ -4858,10 +4858,10 @@
       <c r="F113">
         <v>209</v>
       </c>
-      <c r="H113" s="13">
+      <c r="H113" s="1">
         <v>0.63636363636363635</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113" s="1">
         <v>0.36363636363636365</v>
       </c>
       <c r="K113">
@@ -4873,10 +4873,10 @@
       <c r="M113">
         <v>17174</v>
       </c>
-      <c r="O113" s="13">
+      <c r="O113" s="1">
         <v>0.75002911377663906</v>
       </c>
-      <c r="P113" s="13">
+      <c r="P113" s="1">
         <v>0.24997088622336089</v>
       </c>
     </row>
@@ -4893,10 +4893,10 @@
       <c r="F114">
         <v>961</v>
       </c>
-      <c r="H114" s="13">
+      <c r="H114" s="1">
         <v>0.47762747138397504</v>
       </c>
-      <c r="I114" s="13">
+      <c r="I114" s="1">
         <v>0.52237252861602501</v>
       </c>
       <c r="K114">
@@ -4908,10 +4908,10 @@
       <c r="M114">
         <v>75474</v>
       </c>
-      <c r="O114" s="13">
+      <c r="O114" s="1">
         <v>0.57186580809285315</v>
       </c>
-      <c r="P114" s="13">
+      <c r="P114" s="1">
         <v>0.42813419190714685</v>
       </c>
     </row>
@@ -4920,34 +4920,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="E115">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="F115">
         <v>432</v>
       </c>
-      <c r="H115" s="13">
-        <v>0.6782407407407407</v>
-      </c>
-      <c r="I115" s="13">
-        <v>0.32175925925925924</v>
+      <c r="H115" s="1">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.2013888888888889</v>
       </c>
       <c r="K115">
-        <v>30884</v>
+        <v>35056</v>
       </c>
       <c r="L115">
-        <v>11035</v>
+        <v>6863</v>
       </c>
       <c r="M115">
         <v>41919</v>
       </c>
-      <c r="O115" s="13">
-        <v>0.73675421646508743</v>
-      </c>
-      <c r="P115" s="13">
-        <v>0.26324578353491257</v>
+      <c r="O115" s="1">
+        <v>0.83627949140008107</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0.16372050859991888</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4963,10 +4963,10 @@
       <c r="F116">
         <v>496</v>
       </c>
-      <c r="H116" s="13">
+      <c r="H116" s="1">
         <v>0.44758064516129031</v>
       </c>
-      <c r="I116" s="13">
+      <c r="I116" s="1">
         <v>0.55241935483870963</v>
       </c>
       <c r="K116">
@@ -4978,10 +4978,10 @@
       <c r="M116">
         <v>36193</v>
       </c>
-      <c r="O116" s="13">
+      <c r="O116" s="1">
         <v>0.56168319840853209</v>
       </c>
-      <c r="P116" s="13">
+      <c r="P116" s="1">
         <v>0.43831680159146796</v>
       </c>
     </row>
@@ -4998,10 +4998,10 @@
       <c r="F117">
         <v>223</v>
       </c>
-      <c r="H117" s="13">
+      <c r="H117" s="1">
         <v>0.5964125560538116</v>
       </c>
-      <c r="I117" s="13">
+      <c r="I117" s="1">
         <v>0.40358744394618834</v>
       </c>
       <c r="K117">
@@ -5013,10 +5013,10 @@
       <c r="M117">
         <v>17734</v>
       </c>
-      <c r="O117" s="13">
+      <c r="O117" s="1">
         <v>0.72329987594451339</v>
       </c>
-      <c r="P117" s="13">
+      <c r="P117" s="1">
         <v>0.27670012405548666</v>
       </c>
     </row>
@@ -5033,10 +5033,10 @@
       <c r="F118">
         <v>85</v>
       </c>
-      <c r="H118" s="13">
+      <c r="H118" s="1">
         <v>0.6588235294117647</v>
       </c>
-      <c r="I118" s="13">
+      <c r="I118" s="1">
         <v>0.3411764705882353</v>
       </c>
       <c r="K118">
@@ -5048,10 +5048,10 @@
       <c r="M118">
         <v>7129</v>
       </c>
-      <c r="O118" s="13">
+      <c r="O118" s="1">
         <v>0.79197643428250808</v>
       </c>
-      <c r="P118" s="13">
+      <c r="P118" s="1">
         <v>0.20802356571749192</v>
       </c>
     </row>
@@ -5068,10 +5068,10 @@
       <c r="F119">
         <v>87</v>
       </c>
-      <c r="H119" s="13">
+      <c r="H119" s="1">
         <v>0.8045977011494253</v>
       </c>
-      <c r="I119" s="13">
+      <c r="I119" s="1">
         <v>0.19540229885057472</v>
       </c>
       <c r="K119">
@@ -5083,10 +5083,10 @@
       <c r="M119">
         <v>7737</v>
       </c>
-      <c r="O119" s="13">
+      <c r="O119" s="1">
         <v>0.86493472922321313</v>
       </c>
-      <c r="P119" s="13">
+      <c r="P119" s="1">
         <v>0.13506527077678687</v>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
       <c r="F120">
         <v>396</v>
       </c>
-      <c r="H120" s="13">
+      <c r="H120" s="1">
         <v>0.5757575757575758</v>
       </c>
-      <c r="I120" s="13">
+      <c r="I120" s="1">
         <v>0.42424242424242425</v>
       </c>
       <c r="K120">
@@ -5118,10 +5118,10 @@
       <c r="M120">
         <v>34997</v>
       </c>
-      <c r="O120" s="13">
+      <c r="O120" s="1">
         <v>0.661028088121839</v>
       </c>
-      <c r="P120" s="13">
+      <c r="P120" s="1">
         <v>0.338971911878161</v>
       </c>
     </row>
@@ -5138,10 +5138,10 @@
       <c r="F121">
         <v>212</v>
       </c>
-      <c r="H121" s="13">
+      <c r="H121" s="1">
         <v>0.59433962264150941</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121" s="1">
         <v>0.40566037735849059</v>
       </c>
       <c r="K121">
@@ -5153,10 +5153,10 @@
       <c r="M121">
         <v>15246</v>
       </c>
-      <c r="O121" s="13">
+      <c r="O121" s="1">
         <v>0.72589531680440766</v>
       </c>
-      <c r="P121" s="13">
+      <c r="P121" s="1">
         <v>0.27410468319559228</v>
       </c>
     </row>
@@ -5173,10 +5173,10 @@
       <c r="F122">
         <v>150</v>
       </c>
-      <c r="H122" s="13">
+      <c r="H122" s="1">
         <v>0.52</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="1">
         <v>0.48</v>
       </c>
       <c r="K122">
@@ -5188,10 +5188,10 @@
       <c r="M122">
         <v>13900</v>
       </c>
-      <c r="O122" s="13">
+      <c r="O122" s="1">
         <v>0.57712230215827343</v>
       </c>
-      <c r="P122" s="13">
+      <c r="P122" s="1">
         <v>0.42287769784172663</v>
       </c>
     </row>
@@ -5208,10 +5208,10 @@
       <c r="F123">
         <v>126</v>
       </c>
-      <c r="H123" s="13">
+      <c r="H123" s="1">
         <v>0.81746031746031744</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="1">
         <v>0.18253968253968253</v>
       </c>
       <c r="K123">
@@ -5223,51 +5223,51 @@
       <c r="M123">
         <v>11464</v>
       </c>
-      <c r="O123" s="13">
+      <c r="O123" s="1">
         <v>0.87569783670621071</v>
       </c>
-      <c r="P123" s="13">
+      <c r="P123" s="1">
         <v>0.12430216329378925</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12">
-        <v>5918</v>
-      </c>
-      <c r="E124" s="12">
-        <v>4516</v>
-      </c>
-      <c r="F124" s="12">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13">
+        <v>5980</v>
+      </c>
+      <c r="E124" s="13">
+        <v>4454</v>
+      </c>
+      <c r="F124" s="13">
         <v>10434</v>
       </c>
-      <c r="G124" s="12"/>
+      <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.56718420548207782</v>
+        <v>0.57312631780716883</v>
       </c>
       <c r="I124" s="14">
-        <v>0.43281579451792218</v>
-      </c>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12">
-        <v>567045</v>
-      </c>
-      <c r="L124" s="12">
-        <v>302577</v>
-      </c>
-      <c r="M124" s="12">
+        <v>0.42687368219283112</v>
+      </c>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13">
+        <v>572111</v>
+      </c>
+      <c r="L124" s="13">
+        <v>297511</v>
+      </c>
+      <c r="M124" s="13">
         <v>869622</v>
       </c>
-      <c r="N124" s="12"/>
+      <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.65205917053616402</v>
+        <v>0.6578846901297345</v>
       </c>
       <c r="P124" s="14">
-        <v>0.34794082946383603</v>
+        <v>0.34211530987026545</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5286,10 +5286,10 @@
       <c r="F125">
         <v>143</v>
       </c>
-      <c r="H125" s="13">
+      <c r="H125" s="1">
         <v>0.70629370629370625</v>
       </c>
-      <c r="I125" s="13">
+      <c r="I125" s="1">
         <v>0.2937062937062937</v>
       </c>
       <c r="K125">
@@ -5301,10 +5301,10 @@
       <c r="M125">
         <v>11101</v>
       </c>
-      <c r="O125" s="13">
+      <c r="O125" s="1">
         <v>0.80172957391226018</v>
       </c>
-      <c r="P125" s="13">
+      <c r="P125" s="1">
         <v>0.19827042608773984</v>
       </c>
     </row>
@@ -5321,10 +5321,10 @@
       <c r="F126">
         <v>786</v>
       </c>
-      <c r="H126" s="13">
+      <c r="H126" s="1">
         <v>0.5661577608142494</v>
       </c>
-      <c r="I126" s="13">
+      <c r="I126" s="1">
         <v>0.43384223918575066</v>
       </c>
       <c r="K126">
@@ -5336,10 +5336,10 @@
       <c r="M126">
         <v>72662</v>
       </c>
-      <c r="O126" s="13">
+      <c r="O126" s="1">
         <v>0.64853706201315686</v>
       </c>
-      <c r="P126" s="13">
+      <c r="P126" s="1">
         <v>0.35146293798684319</v>
       </c>
     </row>
@@ -5348,34 +5348,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E127">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F127">
         <v>534</v>
       </c>
-      <c r="H127" s="13">
-        <v>0.53745318352059923</v>
-      </c>
-      <c r="I127" s="13">
-        <v>0.46254681647940077</v>
+      <c r="H127" s="1">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0.449438202247191</v>
       </c>
       <c r="K127">
-        <v>26756</v>
+        <v>27267</v>
       </c>
       <c r="L127">
-        <v>14531</v>
+        <v>14020</v>
       </c>
       <c r="M127">
         <v>41287</v>
       </c>
-      <c r="O127" s="13">
-        <v>0.64804902269479492</v>
-      </c>
-      <c r="P127" s="13">
-        <v>0.35195097730520503</v>
+      <c r="O127" s="1">
+        <v>0.66042579988858474</v>
+      </c>
+      <c r="P127" s="1">
+        <v>0.3395742001114152</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5391,10 +5391,10 @@
       <c r="F128">
         <v>224</v>
       </c>
-      <c r="H128" s="13">
+      <c r="H128" s="1">
         <v>0.4955357142857143</v>
       </c>
-      <c r="I128" s="13">
+      <c r="I128" s="1">
         <v>0.5044642857142857</v>
       </c>
       <c r="K128">
@@ -5406,10 +5406,10 @@
       <c r="M128">
         <v>16985</v>
       </c>
-      <c r="O128" s="13">
+      <c r="O128" s="1">
         <v>0.65993523697380041</v>
       </c>
-      <c r="P128" s="13">
+      <c r="P128" s="1">
         <v>0.34006476302619959</v>
       </c>
     </row>
@@ -5426,10 +5426,10 @@
       <c r="F129">
         <v>209</v>
       </c>
-      <c r="H129" s="13">
+      <c r="H129" s="1">
         <v>0.77990430622009566</v>
       </c>
-      <c r="I129" s="13">
+      <c r="I129" s="1">
         <v>0.22009569377990432</v>
       </c>
       <c r="K129">
@@ -5441,10 +5441,10 @@
       <c r="M129">
         <v>17104</v>
       </c>
-      <c r="O129" s="13">
+      <c r="O129" s="1">
         <v>0.89405986903648271</v>
       </c>
-      <c r="P129" s="13">
+      <c r="P129" s="1">
         <v>0.1059401309635173</v>
       </c>
     </row>
@@ -5453,34 +5453,34 @@
         <v>138</v>
       </c>
       <c r="D130">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E130">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F130">
         <v>481</v>
       </c>
-      <c r="H130" s="13">
-        <v>0.42411642411642414</v>
-      </c>
-      <c r="I130" s="13">
-        <v>0.57588357588357586</v>
+      <c r="H130" s="1">
+        <v>0.42619542619542622</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.57380457380457384</v>
       </c>
       <c r="K130">
-        <v>20318</v>
+        <v>20433</v>
       </c>
       <c r="L130">
-        <v>19055</v>
+        <v>18940</v>
       </c>
       <c r="M130">
         <v>39373</v>
       </c>
-      <c r="O130" s="13">
-        <v>0.51603890991288448</v>
-      </c>
-      <c r="P130" s="13">
-        <v>0.48396109008711552</v>
+      <c r="O130" s="1">
+        <v>0.51895969319076529</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0.48104030680923476</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5496,10 +5496,10 @@
       <c r="F131">
         <v>192</v>
       </c>
-      <c r="H131" s="13">
+      <c r="H131" s="1">
         <v>0.53125</v>
       </c>
-      <c r="I131" s="13">
+      <c r="I131" s="1">
         <v>0.46875</v>
       </c>
       <c r="K131">
@@ -5511,10 +5511,10 @@
       <c r="M131">
         <v>16509</v>
       </c>
-      <c r="O131" s="13">
+      <c r="O131" s="1">
         <v>0.59331273850626931</v>
       </c>
-      <c r="P131" s="13">
+      <c r="P131" s="1">
         <v>0.40668726149373069</v>
       </c>
     </row>
@@ -5531,10 +5531,10 @@
       <c r="F132">
         <v>724</v>
       </c>
-      <c r="H132" s="13">
+      <c r="H132" s="1">
         <v>0.48756906077348067</v>
       </c>
-      <c r="I132" s="13">
+      <c r="I132" s="1">
         <v>0.51243093922651939</v>
       </c>
       <c r="K132">
@@ -5546,10 +5546,10 @@
       <c r="M132">
         <v>60386</v>
       </c>
-      <c r="O132" s="13">
+      <c r="O132" s="1">
         <v>0.5747358659291889</v>
       </c>
-      <c r="P132" s="13">
+      <c r="P132" s="1">
         <v>0.4252641340708111</v>
       </c>
     </row>
@@ -5566,10 +5566,10 @@
       <c r="F133">
         <v>307</v>
       </c>
-      <c r="H133" s="13">
+      <c r="H133" s="1">
         <v>0.65798045602605859</v>
       </c>
-      <c r="I133" s="13">
+      <c r="I133" s="1">
         <v>0.34201954397394135</v>
       </c>
       <c r="K133">
@@ -5581,10 +5581,10 @@
       <c r="M133">
         <v>22636</v>
       </c>
-      <c r="O133" s="13">
+      <c r="O133" s="1">
         <v>0.79435412617070156</v>
       </c>
-      <c r="P133" s="13">
+      <c r="P133" s="1">
         <v>0.20564587382929847</v>
       </c>
     </row>
@@ -5601,10 +5601,10 @@
       <c r="F134">
         <v>431</v>
       </c>
-      <c r="H134" s="13">
+      <c r="H134" s="1">
         <v>0.47563805104408352</v>
       </c>
-      <c r="I134" s="13">
+      <c r="I134" s="1">
         <v>0.52436194895591648</v>
       </c>
       <c r="K134">
@@ -5616,10 +5616,10 @@
       <c r="M134">
         <v>33911</v>
       </c>
-      <c r="O134" s="13">
+      <c r="O134" s="1">
         <v>0.58674176520892929</v>
       </c>
-      <c r="P134" s="13">
+      <c r="P134" s="1">
         <v>0.41325823479107077</v>
       </c>
     </row>
@@ -5636,10 +5636,10 @@
       <c r="F135">
         <v>454</v>
       </c>
-      <c r="H135" s="13">
+      <c r="H135" s="1">
         <v>0.72246696035242286</v>
       </c>
-      <c r="I135" s="13">
+      <c r="I135" s="1">
         <v>0.27753303964757708</v>
       </c>
       <c r="K135">
@@ -5651,10 +5651,10 @@
       <c r="M135">
         <v>30315</v>
       </c>
-      <c r="O135" s="13">
+      <c r="O135" s="1">
         <v>0.806498433118918</v>
       </c>
-      <c r="P135" s="13">
+      <c r="P135" s="1">
         <v>0.19350156688108197</v>
       </c>
     </row>
@@ -5671,10 +5671,10 @@
       <c r="F136">
         <v>193</v>
       </c>
-      <c r="H136" s="13">
+      <c r="H136" s="1">
         <v>0.62176165803108807</v>
       </c>
-      <c r="I136" s="13">
+      <c r="I136" s="1">
         <v>0.37823834196891193</v>
       </c>
       <c r="K136">
@@ -5686,10 +5686,10 @@
       <c r="M136">
         <v>13600</v>
       </c>
-      <c r="O136" s="13">
+      <c r="O136" s="1">
         <v>0.75955882352941173</v>
       </c>
-      <c r="P136" s="13">
+      <c r="P136" s="1">
         <v>0.24044117647058824</v>
       </c>
     </row>
@@ -5706,10 +5706,10 @@
       <c r="F137">
         <v>295</v>
       </c>
-      <c r="H137" s="13">
+      <c r="H137" s="1">
         <v>0.6</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137" s="1">
         <v>0.4</v>
       </c>
       <c r="K137">
@@ -5721,91 +5721,91 @@
       <c r="M137">
         <v>24471</v>
       </c>
-      <c r="O137" s="13">
+      <c r="O137" s="1">
         <v>0.70225981774345148</v>
       </c>
-      <c r="P137" s="13">
+      <c r="P137" s="1">
         <v>0.29774018225654858</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12">
-        <v>2798</v>
-      </c>
-      <c r="E138" s="12">
-        <v>2175</v>
-      </c>
-      <c r="F138" s="12">
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13">
+        <v>2806</v>
+      </c>
+      <c r="E138" s="13">
+        <v>2167</v>
+      </c>
+      <c r="F138" s="13">
         <v>4973</v>
       </c>
-      <c r="G138" s="12"/>
+      <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.56263824653126882</v>
+        <v>0.56424693344057908</v>
       </c>
       <c r="I138" s="14">
-        <v>0.43736175346873113</v>
-      </c>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12">
-        <v>263942</v>
-      </c>
-      <c r="L138" s="12">
-        <v>136398</v>
-      </c>
-      <c r="M138" s="12">
+        <v>0.43575306655942087</v>
+      </c>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13">
+        <v>264568</v>
+      </c>
+      <c r="L138" s="13">
+        <v>135772</v>
+      </c>
+      <c r="M138" s="13">
         <v>400340</v>
       </c>
-      <c r="N138" s="12"/>
+      <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.6592945995903482</v>
+        <v>0.66085827047010037</v>
       </c>
       <c r="P138" s="14">
-        <v>0.3407054004096518</v>
+        <v>0.33914172952989957</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12">
-        <v>31714</v>
-      </c>
-      <c r="E139" s="12">
-        <v>34299</v>
-      </c>
-      <c r="F139" s="12">
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13">
+        <v>32026</v>
+      </c>
+      <c r="E139" s="13">
+        <v>33987</v>
+      </c>
+      <c r="F139" s="13">
         <v>66013</v>
       </c>
-      <c r="G139" s="12"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.48042052323027284</v>
+        <v>0.48514686501143717</v>
       </c>
       <c r="I139" s="14">
-        <v>0.51957947676972716</v>
-      </c>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12">
-        <v>3016294</v>
-      </c>
-      <c r="L139" s="12">
-        <v>2259643</v>
-      </c>
-      <c r="M139" s="12">
+        <v>0.51485313498856289</v>
+      </c>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13">
+        <v>3041628</v>
+      </c>
+      <c r="L139" s="13">
+        <v>2234309</v>
+      </c>
+      <c r="M139" s="13">
         <v>5275937</v>
       </c>
-      <c r="N139" s="12"/>
+      <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.5717077364646318</v>
+        <v>0.57650953754754841</v>
       </c>
       <c r="P139" s="14">
-        <v>0.4282922635353682</v>
+        <v>0.42349046245245159</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStats.xlsx
+++ b/Locations/CountyStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3962F0-4683-4E46-B4E5-F8E5B782CA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4DF11-394E-4CDE-90D8-7979D4C2AE71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B42457B4-C720-4A62-94BC-2070803BDAAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36C124A8-645E-4207-AEC7-44322C1360DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,14 +888,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836E2BC9-5480-41E0-A535-079C4C2CFBB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A6537D-4A41-410D-BCDA-FD49477CF3EE}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,12 +905,12 @@
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1248,34 +1248,34 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E11">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F11">
         <v>782</v>
       </c>
       <c r="H11" s="1">
-        <v>0.47570332480818417</v>
+        <v>0.48081841432225064</v>
       </c>
       <c r="I11" s="1">
-        <v>0.52429667519181589</v>
+        <v>0.51918158567774941</v>
       </c>
       <c r="K11">
-        <v>35136</v>
+        <v>35508</v>
       </c>
       <c r="L11">
-        <v>25496</v>
+        <v>25124</v>
       </c>
       <c r="M11">
         <v>60632</v>
       </c>
       <c r="O11" s="1">
-        <v>0.57949597572239087</v>
+        <v>0.58563134978229314</v>
       </c>
       <c r="P11" s="1">
-        <v>0.42050402427760919</v>
+        <v>0.4143686502177068</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1283,34 +1283,34 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E12">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F12">
         <v>574</v>
       </c>
       <c r="H12" s="1">
-        <v>0.40766550522648082</v>
+        <v>0.4094076655052265</v>
       </c>
       <c r="I12" s="1">
-        <v>0.59233449477351918</v>
+        <v>0.59059233449477355</v>
       </c>
       <c r="K12">
-        <v>21086</v>
+        <v>21206</v>
       </c>
       <c r="L12">
-        <v>22775</v>
+        <v>22655</v>
       </c>
       <c r="M12">
         <v>43861</v>
       </c>
       <c r="O12" s="1">
-        <v>0.48074599302341486</v>
+        <v>0.48348190875721025</v>
       </c>
       <c r="P12" s="1">
-        <v>0.51925400697658508</v>
+        <v>0.51651809124278969</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1353,34 +1353,34 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E14">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F14">
         <v>1107</v>
       </c>
       <c r="H14" s="1">
-        <v>0.49864498644986449</v>
+        <v>0.5022583559168925</v>
       </c>
       <c r="I14" s="1">
-        <v>0.50135501355013545</v>
+        <v>0.4977416440831075</v>
       </c>
       <c r="K14">
-        <v>52785</v>
+        <v>53121</v>
       </c>
       <c r="L14">
-        <v>39574</v>
+        <v>39238</v>
       </c>
       <c r="M14">
         <v>92359</v>
       </c>
       <c r="O14" s="1">
-        <v>0.57151983022769848</v>
+        <v>0.57515780811832085</v>
       </c>
       <c r="P14" s="1">
-        <v>0.42848016977230158</v>
+        <v>0.4248421918816791</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1423,34 +1423,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E16">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F16">
         <v>1084</v>
       </c>
       <c r="H16" s="1">
-        <v>0.70110701107011075</v>
+        <v>0.70479704797047971</v>
       </c>
       <c r="I16" s="1">
-        <v>0.2988929889298893</v>
+        <v>0.29520295202952029</v>
       </c>
       <c r="K16">
-        <v>65374</v>
+        <v>65630</v>
       </c>
       <c r="L16">
-        <v>17106</v>
+        <v>16850</v>
       </c>
       <c r="M16">
         <v>82480</v>
       </c>
       <c r="O16" s="1">
-        <v>0.79260426770126091</v>
+        <v>0.79570805043646942</v>
       </c>
       <c r="P16" s="1">
-        <v>0.20739573229873909</v>
+        <v>0.20429194956353056</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1458,34 +1458,34 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="E17">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="F17">
         <v>1225</v>
       </c>
       <c r="H17" s="1">
-        <v>0.35918367346938773</v>
+        <v>0.3730612244897959</v>
       </c>
       <c r="I17" s="1">
-        <v>0.64081632653061227</v>
+        <v>0.62693877551020405</v>
       </c>
       <c r="K17">
-        <v>42196</v>
+        <v>43651</v>
       </c>
       <c r="L17">
-        <v>60567</v>
+        <v>59112</v>
       </c>
       <c r="M17">
         <v>102763</v>
       </c>
       <c r="O17" s="1">
-        <v>0.4106147154131351</v>
+        <v>0.42477350797466012</v>
       </c>
       <c r="P17" s="1">
-        <v>0.5893852845868649</v>
+        <v>0.57522649202533982</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1493,34 +1493,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1158</v>
+        <v>1208</v>
       </c>
       <c r="E18">
-        <v>1393</v>
+        <v>1343</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
       <c r="H18" s="1">
-        <v>0.45393963151705213</v>
+        <v>0.47353978831830656</v>
       </c>
       <c r="I18" s="1">
-        <v>0.54606036848294781</v>
+        <v>0.52646021168169344</v>
       </c>
       <c r="K18">
-        <v>107833</v>
+        <v>111439</v>
       </c>
       <c r="L18">
-        <v>86388</v>
+        <v>82782</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
       <c r="O18" s="1">
-        <v>0.55520772727974832</v>
+        <v>0.57377420567291904</v>
       </c>
       <c r="P18" s="1">
-        <v>0.44479227272025168</v>
+        <v>0.42622579432708102</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1528,34 +1528,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E19">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F19">
         <v>955</v>
       </c>
       <c r="H19" s="1">
-        <v>0.37905759162303665</v>
+        <v>0.3832460732984293</v>
       </c>
       <c r="I19" s="1">
-        <v>0.62094240837696335</v>
+        <v>0.6167539267015707</v>
       </c>
       <c r="K19">
-        <v>33346</v>
+        <v>33704</v>
       </c>
       <c r="L19">
-        <v>37633</v>
+        <v>37275</v>
       </c>
       <c r="M19">
         <v>70979</v>
       </c>
       <c r="O19" s="1">
-        <v>0.46980092703475673</v>
+        <v>0.47484467236788347</v>
       </c>
       <c r="P19" s="1">
-        <v>0.53019907296524327</v>
+        <v>0.52515532763211659</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1563,34 +1563,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E20">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F20">
         <v>663</v>
       </c>
       <c r="H20" s="1">
-        <v>0.65912518853695323</v>
+        <v>0.66365007541478127</v>
       </c>
       <c r="I20" s="1">
-        <v>0.34087481146304677</v>
+        <v>0.33634992458521873</v>
       </c>
       <c r="K20">
-        <v>41270</v>
+        <v>41306</v>
       </c>
       <c r="L20">
-        <v>13592</v>
+        <v>13556</v>
       </c>
       <c r="M20">
         <v>54862</v>
       </c>
       <c r="O20" s="1">
-        <v>0.75225110276694251</v>
+        <v>0.7529072946666181</v>
       </c>
       <c r="P20" s="1">
-        <v>0.24774889723305749</v>
+        <v>0.24709270533338193</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1598,34 +1598,34 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="E21">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="F21">
         <v>1290</v>
       </c>
       <c r="H21" s="1">
-        <v>0.36124031007751939</v>
+        <v>0.37751937984496126</v>
       </c>
       <c r="I21" s="1">
-        <v>0.63875968992248067</v>
+        <v>0.6224806201550388</v>
       </c>
       <c r="K21">
-        <v>45206</v>
+        <v>46977</v>
       </c>
       <c r="L21">
-        <v>56277</v>
+        <v>54506</v>
       </c>
       <c r="M21">
         <v>101483</v>
       </c>
       <c r="O21" s="1">
-        <v>0.44545391839027226</v>
+        <v>0.46290511711321108</v>
       </c>
       <c r="P21" s="1">
-        <v>0.55454608160972774</v>
+        <v>0.53709488288678897</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1633,34 +1633,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E22">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
       <c r="H22" s="1">
-        <v>0.45292620865139949</v>
+        <v>0.45547073791348602</v>
       </c>
       <c r="I22" s="1">
-        <v>0.54707379134860046</v>
+        <v>0.54452926208651398</v>
       </c>
       <c r="K22">
-        <v>51099</v>
+        <v>51243</v>
       </c>
       <c r="L22">
-        <v>44513</v>
+        <v>44369</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
       <c r="O22" s="1">
-        <v>0.53444128352089693</v>
+        <v>0.5359473706229344</v>
       </c>
       <c r="P22" s="1">
-        <v>0.46555871647910302</v>
+        <v>0.46405262937706565</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1668,34 +1668,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E23">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="F23">
         <v>1721</v>
       </c>
       <c r="H23" s="1">
-        <v>0.3317838466008135</v>
+        <v>0.34921557234166184</v>
       </c>
       <c r="I23" s="1">
-        <v>0.6682161533991865</v>
+        <v>0.65078442765833822</v>
       </c>
       <c r="K23">
-        <v>53690</v>
+        <v>56461</v>
       </c>
       <c r="L23">
-        <v>77381</v>
+        <v>74610</v>
       </c>
       <c r="M23">
         <v>131071</v>
       </c>
       <c r="O23" s="1">
-        <v>0.40962531757597026</v>
+        <v>0.43076653111672297</v>
       </c>
       <c r="P23" s="1">
-        <v>0.59037468242402968</v>
+        <v>0.56923346888327697</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1703,34 +1703,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E24">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
       <c r="H24" s="1">
-        <v>0.39491525423728813</v>
+        <v>0.4033898305084746</v>
       </c>
       <c r="I24" s="1">
-        <v>0.60508474576271187</v>
+        <v>0.59661016949152545</v>
       </c>
       <c r="K24">
-        <v>21968</v>
+        <v>22398</v>
       </c>
       <c r="L24">
-        <v>22345</v>
+        <v>21915</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
       <c r="O24" s="1">
-        <v>0.49574616929569199</v>
+        <v>0.50544986798456437</v>
       </c>
       <c r="P24" s="1">
-        <v>0.50425383070430796</v>
+        <v>0.49455013201543563</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1738,34 +1738,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E25">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F25">
         <v>1002</v>
       </c>
       <c r="H25" s="1">
-        <v>0.42514970059880242</v>
+        <v>0.42814371257485029</v>
       </c>
       <c r="I25" s="1">
-        <v>0.57485029940119758</v>
+        <v>0.57185628742514971</v>
       </c>
       <c r="K25">
-        <v>41381</v>
+        <v>41726</v>
       </c>
       <c r="L25">
-        <v>38319</v>
+        <v>37974</v>
       </c>
       <c r="M25">
         <v>79700</v>
       </c>
       <c r="O25" s="1">
-        <v>0.51920953575909656</v>
+        <v>0.52353826850690088</v>
       </c>
       <c r="P25" s="1">
-        <v>0.48079046424090338</v>
+        <v>0.47646173149309912</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1808,34 +1808,34 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E27">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F27">
         <v>251</v>
       </c>
       <c r="H27" s="1">
-        <v>0.36254980079681276</v>
+        <v>0.40239043824701193</v>
       </c>
       <c r="I27" s="1">
-        <v>0.63745019920318724</v>
+        <v>0.59760956175298807</v>
       </c>
       <c r="K27">
-        <v>8203</v>
+        <v>9054</v>
       </c>
       <c r="L27">
-        <v>11528</v>
+        <v>10677</v>
       </c>
       <c r="M27">
         <v>19731</v>
       </c>
       <c r="O27" s="1">
-        <v>0.41574172621762706</v>
+        <v>0.45887182606051391</v>
       </c>
       <c r="P27" s="1">
-        <v>0.58425827378237294</v>
+        <v>0.54112817393948609</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1843,34 +1843,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="E28">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="F28">
         <v>2224</v>
       </c>
       <c r="H28" s="1">
-        <v>0.36600719424460432</v>
+        <v>0.37140287769784175</v>
       </c>
       <c r="I28" s="1">
-        <v>0.63399280575539574</v>
+        <v>0.62859712230215825</v>
       </c>
       <c r="K28">
-        <v>76937</v>
+        <v>77937</v>
       </c>
       <c r="L28">
-        <v>94397</v>
+        <v>93397</v>
       </c>
       <c r="M28">
         <v>171334</v>
       </c>
       <c r="O28" s="1">
-        <v>0.44904689086812893</v>
+        <v>0.45488344403329167</v>
       </c>
       <c r="P28" s="1">
-        <v>0.55095310913187112</v>
+        <v>0.54511655596670827</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1878,34 +1878,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1869</v>
+        <v>1892</v>
       </c>
       <c r="E29">
-        <v>1241</v>
+        <v>1218</v>
       </c>
       <c r="F29">
         <v>3110</v>
       </c>
       <c r="H29" s="1">
-        <v>0.6009646302250804</v>
+        <v>0.60836012861736333</v>
       </c>
       <c r="I29" s="1">
-        <v>0.3990353697749196</v>
+        <v>0.39163987138263667</v>
       </c>
       <c r="K29">
-        <v>180777</v>
+        <v>182679</v>
       </c>
       <c r="L29">
-        <v>87652</v>
+        <v>85750</v>
       </c>
       <c r="M29">
         <v>268429</v>
       </c>
       <c r="O29" s="1">
-        <v>0.67346300138956672</v>
+        <v>0.68054867395102614</v>
       </c>
       <c r="P29" s="1">
-        <v>0.32653699861043328</v>
+        <v>0.31945132604897386</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -1913,34 +1913,34 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E30">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F30">
         <v>498</v>
       </c>
       <c r="H30" s="1">
-        <v>0.45983935742971888</v>
+        <v>0.46787148594377509</v>
       </c>
       <c r="I30" s="1">
-        <v>0.54016064257028118</v>
+        <v>0.53212851405622486</v>
       </c>
       <c r="K30">
-        <v>23060</v>
+        <v>23456</v>
       </c>
       <c r="L30">
-        <v>17680</v>
+        <v>17284</v>
       </c>
       <c r="M30">
         <v>40740</v>
       </c>
       <c r="O30" s="1">
-        <v>0.56602847324496808</v>
+        <v>0.57574864997545405</v>
       </c>
       <c r="P30" s="1">
-        <v>0.43397152675503192</v>
+        <v>0.42425135002454589</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1948,34 +1948,34 @@
         <v>35</v>
       </c>
       <c r="D31">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E31">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F31">
         <v>1037</v>
       </c>
       <c r="H31" s="1">
-        <v>0.58727097396335581</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="I31" s="1">
-        <v>0.41272902603664419</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="K31">
-        <v>59903</v>
+        <v>59987</v>
       </c>
       <c r="L31">
-        <v>25233</v>
+        <v>25149</v>
       </c>
       <c r="M31">
         <v>85136</v>
       </c>
       <c r="O31" s="1">
-        <v>0.70361539184363842</v>
+        <v>0.70460204848712649</v>
       </c>
       <c r="P31" s="1">
-        <v>0.29638460815636158</v>
+        <v>0.29539795151287351</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2053,34 +2053,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E34">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="1">
-        <v>0.42944785276073622</v>
+        <v>0.43032427695004383</v>
       </c>
       <c r="I34" s="1">
-        <v>0.57055214723926384</v>
+        <v>0.56967572304995617</v>
       </c>
       <c r="K34">
-        <v>45317</v>
+        <v>45394</v>
       </c>
       <c r="L34">
-        <v>42121</v>
+        <v>42044</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
    